--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -50,25 +50,25 @@
     <t xml:space="preserve">5.39810514450073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29485321044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16579008102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13675117492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25936126708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31744050979614</t>
+    <t xml:space="preserve">5.29485416412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16578960418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13675022125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25936079025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31744003295898</t>
   </si>
   <si>
     <t xml:space="preserve">5.25290822982788</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05285882949829</t>
+    <t xml:space="preserve">5.05285835266113</t>
   </si>
   <si>
     <t xml:space="preserve">4.81086349487305</t>
@@ -80,37 +80,37 @@
     <t xml:space="preserve">4.71406555175781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97542095184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99155330657959</t>
+    <t xml:space="preserve">4.9754204750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99155378341675</t>
   </si>
   <si>
     <t xml:space="preserve">4.83022356033325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90766143798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83345031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56886863708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75278472900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60436105728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47852277755737</t>
+    <t xml:space="preserve">4.90766096115112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8334493637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56886768341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75278425216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60436058044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47852325439453</t>
   </si>
   <si>
     <t xml:space="preserve">4.2752480506897</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36881923675537</t>
+    <t xml:space="preserve">4.36881875991821</t>
   </si>
   <si>
     <t xml:space="preserve">4.25911474227905</t>
@@ -119,28 +119,28 @@
     <t xml:space="preserve">3.86224222183228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.64606046676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92032194137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71381902694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78480410575867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89450907707214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93000149726868</t>
+    <t xml:space="preserve">3.6460599899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92032098770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71381855010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78480434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89450860023499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93000078201294</t>
   </si>
   <si>
     <t xml:space="preserve">4.00421285629272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88805603981018</t>
+    <t xml:space="preserve">3.88805556297302</t>
   </si>
   <si>
     <t xml:space="preserve">3.85578918457031</t>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">4.01066637039185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91064214706421</t>
+    <t xml:space="preserve">3.91064143180847</t>
   </si>
   <si>
     <t xml:space="preserve">3.8686957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92354798316956</t>
+    <t xml:space="preserve">3.92354822158813</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357292175293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03970527648926</t>
+    <t xml:space="preserve">4.03970623016357</t>
   </si>
   <si>
     <t xml:space="preserve">4.20426225662231</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">4.36559247970581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3817253112793</t>
+    <t xml:space="preserve">4.38172578811646</t>
   </si>
   <si>
     <t xml:space="preserve">4.29783391952515</t>
@@ -179,16 +179,16 @@
     <t xml:space="preserve">4.17522287368774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23007488250732</t>
+    <t xml:space="preserve">4.23007535934448</t>
   </si>
   <si>
     <t xml:space="preserve">4.24298143386841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30751371383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68179988861084</t>
+    <t xml:space="preserve">4.30751466751099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.681800365448</t>
   </si>
   <si>
     <t xml:space="preserve">4.7301983833313</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">4.59145450592041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31073999404907</t>
+    <t xml:space="preserve">4.31074047088623</t>
   </si>
   <si>
     <t xml:space="preserve">4.34945917129517</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37204599380493</t>
+    <t xml:space="preserve">4.37204551696777</t>
   </si>
   <si>
     <t xml:space="preserve">4.29138088226318</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">4.16877031326294</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08487796783447</t>
+    <t xml:space="preserve">4.08487749099731</t>
   </si>
   <si>
     <t xml:space="preserve">4.04938554763794</t>
@@ -230,16 +230,16 @@
     <t xml:space="preserve">4.09133148193359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01389312744141</t>
+    <t xml:space="preserve">4.01389265060425</t>
   </si>
   <si>
     <t xml:space="preserve">4.0526123046875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84933638572693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07197189331055</t>
+    <t xml:space="preserve">3.84933614730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07197141647339</t>
   </si>
   <si>
     <t xml:space="preserve">4.11714458465576</t>
@@ -248,31 +248,31 @@
     <t xml:space="preserve">4.03002595901489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23975467681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31719398498535</t>
+    <t xml:space="preserve">4.23975610733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31719303131104</t>
   </si>
   <si>
     <t xml:space="preserve">4.24620819091797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51724243164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52046871185303</t>
+    <t xml:space="preserve">4.51724290847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52046966552734</t>
   </si>
   <si>
     <t xml:space="preserve">4.6656665802002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6850266456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69470596313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6301736831665</t>
+    <t xml:space="preserve">4.68502616882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69470548629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63017416000366</t>
   </si>
   <si>
     <t xml:space="preserve">4.49788331985474</t>
@@ -281,76 +281,76 @@
     <t xml:space="preserve">4.32687282562256</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14941024780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1139178276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06229209899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13327693939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16231727600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20103597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18812990188599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1719970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24943447113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28815460205078</t>
+    <t xml:space="preserve">4.14941072463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11391830444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06229114532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13327741622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16231632232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20103549957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18812942504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17199659347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24943494796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28815412521362</t>
   </si>
   <si>
     <t xml:space="preserve">4.5043363571167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6075873374939</t>
+    <t xml:space="preserve">4.60758781433105</t>
   </si>
   <si>
     <t xml:space="preserve">4.59790802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65276050567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63985395431519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41399192810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3849515914917</t>
+    <t xml:space="preserve">4.65276002883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63985347747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41399145126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38495254516602</t>
   </si>
   <si>
     <t xml:space="preserve">4.27202129364014</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25588846206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18167591094971</t>
+    <t xml:space="preserve">4.25588798522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18167638778687</t>
   </si>
   <si>
     <t xml:space="preserve">3.95258712768555</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75899124145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61702084541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71704578399658</t>
+    <t xml:space="preserve">3.75899147987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61702132225037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71704530715942</t>
   </si>
   <si>
     <t xml:space="preserve">3.70413899421692</t>
@@ -359,10 +359,10 @@
     <t xml:space="preserve">3.85256218910217</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06551885604858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12037134170532</t>
+    <t xml:space="preserve">4.06551837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12037086486816</t>
   </si>
   <si>
     <t xml:space="preserve">4.09455728530884</t>
@@ -371,37 +371,37 @@
     <t xml:space="preserve">3.4266517162323</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9891242980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16207027435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27177476882935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32662653923035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3588924407959</t>
+    <t xml:space="preserve">2.98912405967712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16206979751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27177405357361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3266270160675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35889291763306</t>
   </si>
   <si>
     <t xml:space="preserve">3.21756768226624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11431646347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04074954986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14529156684875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41374516487122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67832660675049</t>
+    <t xml:space="preserve">3.11431622505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0407497882843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14529180526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41374468803406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67832589149475</t>
   </si>
   <si>
     <t xml:space="preserve">3.7073655128479</t>
@@ -410,43 +410,43 @@
     <t xml:space="preserve">3.82029676437378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76544427871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82997608184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79448437690735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83965563774109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83320260047913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86546945571899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7751247882843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90741539001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901594161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04293203353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96549367904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63960719108582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65251350402832</t>
+    <t xml:space="preserve">3.76544547080994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82997632026672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79448366165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83965682983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83320331573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86546921730042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77512431144714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90741491317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901618003845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04293251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96549415588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63960695266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65251326560974</t>
   </si>
   <si>
     <t xml:space="preserve">3.97194743156433</t>
@@ -455,13 +455,13 @@
     <t xml:space="preserve">4.23652839660645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20748853683472</t>
+    <t xml:space="preserve">4.20748901367188</t>
   </si>
   <si>
     <t xml:space="preserve">4.16554307937622</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17844915390015</t>
+    <t xml:space="preserve">4.1784496307373</t>
   </si>
   <si>
     <t xml:space="preserve">4.11069107055664</t>
@@ -470,13 +470,13 @@
     <t xml:space="preserve">4.07519865036011</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05906534194946</t>
+    <t xml:space="preserve">4.0590648651123</t>
   </si>
   <si>
     <t xml:space="preserve">3.946133852005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98162722587585</t>
+    <t xml:space="preserve">3.98162698745728</t>
   </si>
   <si>
     <t xml:space="preserve">4.19135618209839</t>
@@ -485,58 +485,58 @@
     <t xml:space="preserve">4.15909099578857</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2203950881958</t>
+    <t xml:space="preserve">4.22039461135864</t>
   </si>
   <si>
     <t xml:space="preserve">4.32364654541016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42367172241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35591268539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47529649734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43657732009888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33332586288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98485398292542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04615926742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93645405769348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02679967880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03325223922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73317837715149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78157782554626</t>
+    <t xml:space="preserve">4.42367219924927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35591316223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47529697418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43657827377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33332633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98485350608826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04615879058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93645429611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02679920196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03325271606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73317861557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78157734870911</t>
   </si>
   <si>
     <t xml:space="preserve">3.71059250831604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73640513420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72672510147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72995185852051</t>
+    <t xml:space="preserve">3.73640465736389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72672557830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72995209693909</t>
   </si>
   <si>
     <t xml:space="preserve">3.93322730064392</t>
@@ -545,37 +545,37 @@
     <t xml:space="preserve">4.03647899627686</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90096235275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99775981903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13650274276733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26556825637817</t>
+    <t xml:space="preserve">3.90096187591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99776029586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13650321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26556777954102</t>
   </si>
   <si>
     <t xml:space="preserve">4.38817882537842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4398045539856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52369546890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33655214309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10423803329468</t>
+    <t xml:space="preserve">4.43980503082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52369594573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33655261993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10423755645752</t>
   </si>
   <si>
     <t xml:space="preserve">4.28170108795166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42689800262451</t>
+    <t xml:space="preserve">4.42689847946167</t>
   </si>
   <si>
     <t xml:space="preserve">4.42044448852539</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">4.54305601119995</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55918884277344</t>
+    <t xml:space="preserve">4.55918836593628</t>
   </si>
   <si>
     <t xml:space="preserve">4.49142980575562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39140510559082</t>
+    <t xml:space="preserve">4.39140558242798</t>
   </si>
   <si>
     <t xml:space="preserve">4.21394205093384</t>
@@ -602,28 +602,28 @@
     <t xml:space="preserve">4.33847618103027</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27452564239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2307710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17355298995972</t>
+    <t xml:space="preserve">4.27452611923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23077011108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17355251312256</t>
   </si>
   <si>
     <t xml:space="preserve">4.0523853302002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22403955459595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38223075866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52022695541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52695846557617</t>
+    <t xml:space="preserve">4.22403907775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38223123550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52022647857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52695894241333</t>
   </si>
   <si>
     <t xml:space="preserve">4.33511018753052</t>
@@ -632,13 +632,13 @@
     <t xml:space="preserve">4.76592826843262</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99480104446411</t>
+    <t xml:space="preserve">4.99480056762695</t>
   </si>
   <si>
     <t xml:space="preserve">5.13279724121094</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9880690574646</t>
+    <t xml:space="preserve">4.98806858062744</t>
   </si>
   <si>
     <t xml:space="preserve">5.01499509811401</t>
@@ -650,28 +650,28 @@
     <t xml:space="preserve">5.11596822738647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28762197494507</t>
+    <t xml:space="preserve">5.28762245178223</t>
   </si>
   <si>
     <t xml:space="preserve">5.22703838348389</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2505989074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32801151275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29098844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27415943145752</t>
+    <t xml:space="preserve">5.25059938430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32801198959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29098796844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27415895462036</t>
   </si>
   <si>
     <t xml:space="preserve">5.34147500991821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33810901641846</t>
+    <t xml:space="preserve">5.3381085395813</t>
   </si>
   <si>
     <t xml:space="preserve">5.27079391479492</t>
@@ -680,34 +680,34 @@
     <t xml:space="preserve">5.23040437698364</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22030687332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3313775062561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48620271682739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51986026763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49293375015259</t>
+    <t xml:space="preserve">5.22030735015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33137702941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48620223999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51986074447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49293422698975</t>
   </si>
   <si>
     <t xml:space="preserve">5.51312828063965</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26406240463257</t>
+    <t xml:space="preserve">5.26406192779541</t>
   </si>
   <si>
     <t xml:space="preserve">5.32128047943115</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3179144859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19338178634644</t>
+    <t xml:space="preserve">5.31791400909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19338083267212</t>
   </si>
   <si>
     <t xml:space="preserve">5.40205860137939</t>
@@ -716,19 +716,19 @@
     <t xml:space="preserve">5.38186359405518</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34484100341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42898416519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35157203674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43235015869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73527050018311</t>
+    <t xml:space="preserve">5.34484052658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42898464202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35157155990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43235063552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73526954650879</t>
   </si>
   <si>
     <t xml:space="preserve">5.91365528106689</t>
@@ -740,22 +740,22 @@
     <t xml:space="preserve">5.65449094772339</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5030312538147</t>
+    <t xml:space="preserve">5.50303173065186</t>
   </si>
   <si>
     <t xml:space="preserve">5.35493803024292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48283720016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25733041763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14625978469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30445098876953</t>
+    <t xml:space="preserve">5.48283672332764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2573299407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1462607383728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30445146560669</t>
   </si>
   <si>
     <t xml:space="preserve">5.24386692047119</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">5.3986930847168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52659130096436</t>
+    <t xml:space="preserve">5.52659225463867</t>
   </si>
   <si>
     <t xml:space="preserve">5.49629974365234</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">5.36503458023071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3111834526062</t>
+    <t xml:space="preserve">5.31118297576904</t>
   </si>
   <si>
     <t xml:space="preserve">5.1563572883606</t>
@@ -794,34 +794,34 @@
     <t xml:space="preserve">5.09240818023682</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28425645828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33474397659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5232253074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57034635543823</t>
+    <t xml:space="preserve">5.28425693511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33474254608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52322578430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57034587860107</t>
   </si>
   <si>
     <t xml:space="preserve">5.5804443359375</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66122245788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60400438308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59054231643677</t>
+    <t xml:space="preserve">5.66122198104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60400485992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59054183959961</t>
   </si>
   <si>
     <t xml:space="preserve">5.60737037658691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61746788024902</t>
+    <t xml:space="preserve">5.61746835708618</t>
   </si>
   <si>
     <t xml:space="preserve">5.68478298187256</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">5.69824647903442</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63766241073608</t>
+    <t xml:space="preserve">5.63766193389893</t>
   </si>
   <si>
     <t xml:space="preserve">5.70161199569702</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">5.67805194854736</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71507501602173</t>
+    <t xml:space="preserve">5.71507453918457</t>
   </si>
   <si>
     <t xml:space="preserve">5.68814849853516</t>
@@ -851,52 +851,52 @@
     <t xml:space="preserve">5.56024980545044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55688381195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59390830993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47947120666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42561864852905</t>
+    <t xml:space="preserve">5.55688333511353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59390783309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47947072982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42561912536621</t>
   </si>
   <si>
     <t xml:space="preserve">5.17991828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7487325668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83624219894409</t>
+    <t xml:space="preserve">5.74873304367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83624267578125</t>
   </si>
   <si>
     <t xml:space="preserve">5.75546503067017</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71844100952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94058084487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95741081237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97760534286499</t>
+    <t xml:space="preserve">5.71844053268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94058179855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95741033554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97760581970215</t>
   </si>
   <si>
     <t xml:space="preserve">6.09540700912476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17955160140991</t>
+    <t xml:space="preserve">6.17955112457275</t>
   </si>
   <si>
     <t xml:space="preserve">6.14252805709839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12569856643677</t>
+    <t xml:space="preserve">6.12569952011108</t>
   </si>
   <si>
     <t xml:space="preserve">6.10887002944946</t>
@@ -905,16 +905,16 @@
     <t xml:space="preserve">6.18628215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15262603759766</t>
+    <t xml:space="preserve">6.15262508392334</t>
   </si>
   <si>
     <t xml:space="preserve">6.17618608474731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0045313835144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02472591400146</t>
+    <t xml:space="preserve">6.00453090667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02472496032715</t>
   </si>
   <si>
     <t xml:space="preserve">6.07521200180054</t>
@@ -923,52 +923,52 @@
     <t xml:space="preserve">6.11896705627441</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15935659408569</t>
+    <t xml:space="preserve">6.15935611724854</t>
   </si>
   <si>
     <t xml:space="preserve">6.12906408309937</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10213851928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01126337051392</t>
+    <t xml:space="preserve">6.10213804244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01126194000244</t>
   </si>
   <si>
     <t xml:space="preserve">5.82277917861938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6814169883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70497798919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61073637008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63093090057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72853851318359</t>
+    <t xml:space="preserve">5.68141794204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70497703552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61073589324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63092994689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72853755950928</t>
   </si>
   <si>
     <t xml:space="preserve">5.78239059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76219654083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81941413879395</t>
+    <t xml:space="preserve">5.7621955871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81941366195679</t>
   </si>
   <si>
     <t xml:space="preserve">5.73863554000854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75883054733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65112590789795</t>
+    <t xml:space="preserve">5.75882959365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65112638473511</t>
   </si>
   <si>
     <t xml:space="preserve">5.5636157989502</t>
@@ -977,19 +977,19 @@
     <t xml:space="preserve">5.72180652618408</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70834350585938</t>
+    <t xml:space="preserve">5.70834302902222</t>
   </si>
   <si>
     <t xml:space="preserve">5.85307121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83960866928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81604814529419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92375183105469</t>
+    <t xml:space="preserve">5.83960914611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81604862213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.923752784729</t>
   </si>
   <si>
     <t xml:space="preserve">5.97423934936523</t>
@@ -998,16 +998,16 @@
     <t xml:space="preserve">5.90019273757935</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93721580505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97087335586548</t>
+    <t xml:space="preserve">5.93721485137939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97087383270264</t>
   </si>
   <si>
     <t xml:space="preserve">6.04491996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10550355911255</t>
+    <t xml:space="preserve">6.10550403594971</t>
   </si>
   <si>
     <t xml:space="preserve">6.05838346481323</t>
@@ -1019,106 +1019,106 @@
     <t xml:space="preserve">5.86316871643066</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88336324691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94731283187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9877028465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96077585220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93384981155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92038631439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06511497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05501794815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99106788635254</t>
+    <t xml:space="preserve">5.88336277008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94731378555298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98770236968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96077632904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9338493347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92038726806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06511545181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05501747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9910683631897</t>
   </si>
   <si>
     <t xml:space="preserve">5.85643768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91028928756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90355825424194</t>
+    <t xml:space="preserve">5.9102897644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9035587310791</t>
   </si>
   <si>
     <t xml:space="preserve">5.84634017944336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74536657333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80258512496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69151496887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87326622009277</t>
+    <t xml:space="preserve">5.74536609649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80258464813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69151449203491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87326669692993</t>
   </si>
   <si>
     <t xml:space="preserve">5.94394731521606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87999677658081</t>
+    <t xml:space="preserve">5.87999773025513</t>
   </si>
   <si>
     <t xml:space="preserve">5.89009523391724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96414136886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05165195465088</t>
+    <t xml:space="preserve">5.96414184570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05165243148804</t>
   </si>
   <si>
     <t xml:space="preserve">6.03818893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07857847213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11223602294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14925956726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09877300262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1930136680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13579654693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16608858108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13916301727295</t>
+    <t xml:space="preserve">6.07857751846313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11223554611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14925909042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09877252578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19301414489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13579702377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16608810424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13916158676147</t>
   </si>
   <si>
     <t xml:space="preserve">6.1694540977478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17282009124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16272211074829</t>
+    <t xml:space="preserve">6.17281913757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16272115707397</t>
   </si>
   <si>
     <t xml:space="preserve">6.21320867538452</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">6.31754779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38149642944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33437585830688</t>
+    <t xml:space="preserve">6.38149690628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33437633514404</t>
   </si>
   <si>
     <t xml:space="preserve">6.4218864440918</t>
@@ -1142,55 +1142,55 @@
     <t xml:space="preserve">6.46227550506592</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44208097457886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52286005020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51612901687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65412473678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63729476928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64739227294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64066076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62046670913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6543869972229</t>
+    <t xml:space="preserve">6.44208145141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5228590965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5161280632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65412616729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63729572296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64739274978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64066219329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62046718597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65438604354858</t>
   </si>
   <si>
     <t xml:space="preserve">6.54948282241821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62990856170654</t>
+    <t xml:space="preserve">6.62990951538086</t>
   </si>
   <si>
     <t xml:space="preserve">6.62641191482544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58794784545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5110182762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65088987350464</t>
+    <t xml:space="preserve">6.58794736862183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51101875305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6508903503418</t>
   </si>
   <si>
     <t xml:space="preserve">6.78027057647705</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71383237838745</t>
+    <t xml:space="preserve">6.71383190155029</t>
   </si>
   <si>
     <t xml:space="preserve">6.76278686523438</t>
@@ -1202,25 +1202,25 @@
     <t xml:space="preserve">6.61941862106323</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64389610290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73131561279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70683908462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71033477783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6788649559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67187023162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5389928817749</t>
+    <t xml:space="preserve">6.64389657974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73131608963013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70683860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71033525466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67886352539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67187118530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53899240493774</t>
   </si>
   <si>
     <t xml:space="preserve">6.57396030426025</t>
@@ -1229,52 +1229,52 @@
     <t xml:space="preserve">6.60543155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66487646102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68935441970825</t>
+    <t xml:space="preserve">6.66487693786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68935489654541</t>
   </si>
   <si>
     <t xml:space="preserve">6.68585824966431</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61592292785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56346940994263</t>
+    <t xml:space="preserve">6.61592149734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56347036361694</t>
   </si>
   <si>
     <t xml:space="preserve">6.69634771347046</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85370397567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83272361755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8362193107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82572889328003</t>
+    <t xml:space="preserve">6.85370302200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83272314071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83621978759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82572937011719</t>
   </si>
   <si>
     <t xml:space="preserve">6.84671020507812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93412971496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96210432052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02154922485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9760913848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97259426116943</t>
+    <t xml:space="preserve">6.93412923812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96210384368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02155017852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97609090805054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97259473800659</t>
   </si>
   <si>
     <t xml:space="preserve">6.92713594436646</t>
@@ -1289,19 +1289,19 @@
     <t xml:space="preserve">6.79775476455688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84810781478882</t>
+    <t xml:space="preserve">6.84810876846313</t>
   </si>
   <si>
     <t xml:space="preserve">6.91524696350098</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95581007003784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8942666053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69285154342651</t>
+    <t xml:space="preserve">6.95580959320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89426612854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6928505897522</t>
   </si>
   <si>
     <t xml:space="preserve">6.80195093154907</t>
@@ -1313,28 +1313,28 @@
     <t xml:space="preserve">6.79635667800903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85090589523315</t>
+    <t xml:space="preserve">6.850905418396</t>
   </si>
   <si>
     <t xml:space="preserve">6.89286756515503</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91105031967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88307666778564</t>
+    <t xml:space="preserve">6.91105079650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8830771446228</t>
   </si>
   <si>
     <t xml:space="preserve">6.90545558929443</t>
   </si>
   <si>
-    <t xml:space="preserve">6.918044090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83412170410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89986085891724</t>
+    <t xml:space="preserve">6.91804456710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8341212272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89986133575439</t>
   </si>
   <si>
     <t xml:space="preserve">6.91384792327881</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">6.75579309463501</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63130760192871</t>
+    <t xml:space="preserve">6.63130855560303</t>
   </si>
   <si>
     <t xml:space="preserve">6.73900890350342</t>
@@ -1370,46 +1370,46 @@
     <t xml:space="preserve">6.86069774627686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89566421508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84111452102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9166464805603</t>
+    <t xml:space="preserve">6.89566469192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84111547470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91664600372314</t>
   </si>
   <si>
     <t xml:space="preserve">6.80614757537842</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6816611289978</t>
+    <t xml:space="preserve">6.68166208267212</t>
   </si>
   <si>
     <t xml:space="preserve">6.63830089569092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67047166824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67746543884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70404148101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78376722335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77537536621094</t>
+    <t xml:space="preserve">6.67047214508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67746496200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70404100418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78376770019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77537488937378</t>
   </si>
   <si>
     <t xml:space="preserve">6.85230493545532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82712745666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9921760559082</t>
+    <t xml:space="preserve">6.82712841033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99217653274536</t>
   </si>
   <si>
     <t xml:space="preserve">7.08449172973633</t>
@@ -1430,70 +1430,70 @@
     <t xml:space="preserve">7.14743375778198</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03903341293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12645292282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00406551361084</t>
+    <t xml:space="preserve">7.03903293609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12645196914673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00406503677368</t>
   </si>
   <si>
     <t xml:space="preserve">7.15093088150024</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1858983039856</t>
+    <t xml:space="preserve">7.18589782714844</t>
   </si>
   <si>
     <t xml:space="preserve">6.99357509613037</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90265846252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95720863342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01455545425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96420192718506</t>
+    <t xml:space="preserve">6.90265893936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95720815658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01455497741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9642014503479</t>
   </si>
   <si>
     <t xml:space="preserve">6.62850999832153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42289972305298</t>
+    <t xml:space="preserve">6.42289924621582</t>
   </si>
   <si>
     <t xml:space="preserve">6.31659603118896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35715961456299</t>
+    <t xml:space="preserve">6.35716009140015</t>
   </si>
   <si>
     <t xml:space="preserve">6.20749711990356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95852613449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59625911712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37246465682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75151634216309</t>
+    <t xml:space="preserve">5.95852565765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59625816345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37246417999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75151586532593</t>
   </si>
   <si>
     <t xml:space="preserve">5.64241600036621</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7892804145813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68997287750244</t>
+    <t xml:space="preserve">5.78928136825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68997240066528</t>
   </si>
   <si>
     <t xml:space="preserve">5.54450607299805</t>
@@ -1505,25 +1505,25 @@
     <t xml:space="preserve">5.59346151351929</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47457075119019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74172496795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66479587554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76969909667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71095371246338</t>
+    <t xml:space="preserve">5.47457027435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7417254447937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66479635238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76969957351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71095418930054</t>
   </si>
   <si>
     <t xml:space="preserve">5.6410174369812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61723947525024</t>
+    <t xml:space="preserve">5.61723899841309</t>
   </si>
   <si>
     <t xml:space="preserve">5.81166124343872</t>
@@ -1550,7 +1550,7 @@
     <t xml:space="preserve">5.56828451156616</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54031038284302</t>
+    <t xml:space="preserve">5.54030990600586</t>
   </si>
   <si>
     <t xml:space="preserve">5.6074481010437</t>
@@ -1565,46 +1565,46 @@
     <t xml:space="preserve">5.66619491577148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70256090164185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62563133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53051853179932</t>
+    <t xml:space="preserve">5.702561378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62563180923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53051900863647</t>
   </si>
   <si>
     <t xml:space="preserve">5.55429744720459</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62842988967896</t>
+    <t xml:space="preserve">5.62842893600464</t>
   </si>
   <si>
     <t xml:space="preserve">5.64801120758057</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69976282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6857762336731</t>
+    <t xml:space="preserve">5.69976329803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68577671051025</t>
   </si>
   <si>
     <t xml:space="preserve">5.71934604644775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88719177246094</t>
+    <t xml:space="preserve">5.88719129562378</t>
   </si>
   <si>
     <t xml:space="preserve">5.95432996749878</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01027774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12077665328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06622648239136</t>
+    <t xml:space="preserve">6.01027822494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12077713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06622695922852</t>
   </si>
   <si>
     <t xml:space="preserve">6.21309185028076</t>
@@ -1616,22 +1616,22 @@
     <t xml:space="preserve">6.07322025299072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17252969741821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0704231262207</t>
+    <t xml:space="preserve">6.17252922058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07042360305786</t>
   </si>
   <si>
     <t xml:space="preserve">6.15014934539795</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14595365524292</t>
+    <t xml:space="preserve">6.14595413208008</t>
   </si>
   <si>
     <t xml:space="preserve">6.15854215621948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09560012817383</t>
+    <t xml:space="preserve">6.09559965133667</t>
   </si>
   <si>
     <t xml:space="preserve">5.9753098487854</t>
@@ -1640,16 +1640,16 @@
     <t xml:space="preserve">5.81865406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94174194335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87600231170654</t>
+    <t xml:space="preserve">5.94174146652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87600183486938</t>
   </si>
   <si>
     <t xml:space="preserve">5.8941855430603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9906964302063</t>
+    <t xml:space="preserve">5.99069690704346</t>
   </si>
   <si>
     <t xml:space="preserve">5.87040710449219</t>
@@ -1661,10 +1661,10 @@
     <t xml:space="preserve">5.80746412277222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79627513885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76130676269531</t>
+    <t xml:space="preserve">5.79627466201782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76130723953247</t>
   </si>
   <si>
     <t xml:space="preserve">5.7864842414856</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">5.60604953765869</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93195104598999</t>
+    <t xml:space="preserve">5.93195056915283</t>
   </si>
   <si>
     <t xml:space="preserve">6.12497329711914</t>
@@ -1685,7 +1685,7 @@
     <t xml:space="preserve">6.3403754234314</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3068060874939</t>
+    <t xml:space="preserve">6.30680561065674</t>
   </si>
   <si>
     <t xml:space="preserve">6.33897686004639</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">6.29701471328735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31379890441895</t>
+    <t xml:space="preserve">6.31379985809326</t>
   </si>
   <si>
     <t xml:space="preserve">6.42150020599365</t>
@@ -1709,55 +1709,55 @@
     <t xml:space="preserve">6.41590595245361</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41450643539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3683500289917</t>
+    <t xml:space="preserve">6.41450691223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36834907531738</t>
   </si>
   <si>
     <t xml:space="preserve">6.48723983764648</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47605133056641</t>
+    <t xml:space="preserve">6.47605085372925</t>
   </si>
   <si>
     <t xml:space="preserve">6.41170978546143</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01727199554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83404016494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8606162071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85222387313843</t>
+    <t xml:space="preserve">6.01727151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83404064178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86061668395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85222434997559</t>
   </si>
   <si>
     <t xml:space="preserve">5.75431346893311</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48576021194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53191757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41582489013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36966705322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37666082382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46058368682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3976411819458</t>
+    <t xml:space="preserve">5.48575973510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53191709518433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41582441329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3696665763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37666034698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46058320999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39764070510864</t>
   </si>
   <si>
     <t xml:space="preserve">5.3458890914917</t>
@@ -1778,25 +1778,25 @@
     <t xml:space="preserve">5.44100141525269</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29413604736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44519758224487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45918464660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4214186668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54730415344238</t>
+    <t xml:space="preserve">5.29413652420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44519805908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4591851234436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42141914367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54730367660522</t>
   </si>
   <si>
     <t xml:space="preserve">5.48436164855957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46338081359863</t>
+    <t xml:space="preserve">5.46338129043579</t>
   </si>
   <si>
     <t xml:space="preserve">5.48715877532959</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">5.50254487991333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49834871292114</t>
+    <t xml:space="preserve">5.4983491897583</t>
   </si>
   <si>
     <t xml:space="preserve">5.4256157875061</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">5.50799083709717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37847805023193</t>
+    <t xml:space="preserve">5.37847852706909</t>
   </si>
   <si>
     <t xml:space="preserve">5.4350471496582</t>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">5.70746898651123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73128747940063</t>
+    <t xml:space="preserve">5.73128795623779</t>
   </si>
   <si>
     <t xml:space="preserve">5.75659465789795</t>
@@ -1841,19 +1841,19 @@
     <t xml:space="preserve">5.81018590927124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84740209579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74170780181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75361776351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58093452453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57646799087524</t>
+    <t xml:space="preserve">5.84740161895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74170827865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75361728668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58093404769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5764684677124</t>
   </si>
   <si>
     <t xml:space="preserve">5.44844484329224</t>
@@ -1868,10 +1868,10 @@
     <t xml:space="preserve">5.62261629104614</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67323064804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58540010452271</t>
+    <t xml:space="preserve">5.67323017120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58540058135986</t>
   </si>
   <si>
     <t xml:space="preserve">5.63452529907227</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">5.43206930160522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75510597229004</t>
+    <t xml:space="preserve">5.75510549545288</t>
   </si>
   <si>
     <t xml:space="preserve">5.74468517303467</t>
@@ -1919,7 +1919,7 @@
     <t xml:space="preserve">5.70895767211914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70151424407959</t>
+    <t xml:space="preserve">5.70151376724243</t>
   </si>
   <si>
     <t xml:space="preserve">5.83251523971558</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">5.88015222549438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86079978942871</t>
+    <t xml:space="preserve">5.86080026626587</t>
   </si>
   <si>
     <t xml:space="preserve">5.86526536941528</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">5.87568616867065</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93671989440918</t>
+    <t xml:space="preserve">5.93672037124634</t>
   </si>
   <si>
     <t xml:space="preserve">5.86228895187378</t>
@@ -1952,13 +1952,13 @@
     <t xml:space="preserve">5.81762886047363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82953834533691</t>
+    <t xml:space="preserve">5.82953786849976</t>
   </si>
   <si>
     <t xml:space="preserve">5.6538782119751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49310398101807</t>
+    <t xml:space="preserve">5.49310445785522</t>
   </si>
   <si>
     <t xml:space="preserve">5.45886564254761</t>
@@ -1967,10 +1967,10 @@
     <t xml:space="preserve">5.64345693588257</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7640380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76999139785767</t>
+    <t xml:space="preserve">5.76403760910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76999187469482</t>
   </si>
   <si>
     <t xml:space="preserve">5.87122011184692</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">6.22254085540771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31930208206177</t>
+    <t xml:space="preserve">6.31930255889893</t>
   </si>
   <si>
     <t xml:space="preserve">6.38629198074341</t>
@@ -2021,22 +2021,22 @@
     <t xml:space="preserve">6.49198532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50240612030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62447452545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51431512832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44732618331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53962326049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51729202270508</t>
+    <t xml:space="preserve">6.50240659713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62447500228882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51431560516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44732570648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53962278366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51729249954224</t>
   </si>
   <si>
     <t xml:space="preserve">6.60958862304688</t>
@@ -2045,25 +2045,25 @@
     <t xml:space="preserve">6.63787317276001</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68997573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8328857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79120302200317</t>
+    <t xml:space="preserve">6.68997526168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83288621902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79120349884033</t>
   </si>
   <si>
     <t xml:space="preserve">6.66317987442017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71230554580688</t>
+    <t xml:space="preserve">6.71230506896973</t>
   </si>
   <si>
     <t xml:space="preserve">6.65871381759644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59619092941284</t>
+    <t xml:space="preserve">6.59619140625</t>
   </si>
   <si>
     <t xml:space="preserve">6.64680576324463</t>
@@ -2075,25 +2075,25 @@
     <t xml:space="preserve">6.8581919670105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89391994476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96090936660767</t>
+    <t xml:space="preserve">6.89392042160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96090841293335</t>
   </si>
   <si>
     <t xml:space="preserve">6.86116981506348</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87754583358765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91773843765259</t>
+    <t xml:space="preserve">6.87754487991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91773748397827</t>
   </si>
   <si>
     <t xml:space="preserve">6.96388673782349</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9028525352478</t>
+    <t xml:space="preserve">6.90285158157349</t>
   </si>
   <si>
     <t xml:space="preserve">6.92518186569214</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">7.08148908615112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12317180633545</t>
+    <t xml:space="preserve">7.12317085266113</t>
   </si>
   <si>
     <t xml:space="preserve">7.15294456481934</t>
@@ -2129,19 +2129,19 @@
     <t xml:space="preserve">7.13508129119873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03385353088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07404613494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85223722457886</t>
+    <t xml:space="preserve">7.03385257720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07404661178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223817825317</t>
   </si>
   <si>
     <t xml:space="preserve">6.69295215606689</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77929449081421</t>
+    <t xml:space="preserve">6.77929401397705</t>
   </si>
   <si>
     <t xml:space="preserve">6.62298631668091</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">6.47561073303223</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64233827590942</t>
+    <t xml:space="preserve">6.64233922958374</t>
   </si>
   <si>
     <t xml:space="preserve">6.60065698623657</t>
@@ -2159,13 +2159,13 @@
     <t xml:space="preserve">6.58428144454956</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47709846496582</t>
+    <t xml:space="preserve">6.47709894180298</t>
   </si>
   <si>
     <t xml:space="preserve">6.40117835998535</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42350816726685</t>
+    <t xml:space="preserve">6.42350769042969</t>
   </si>
   <si>
     <t xml:space="preserve">6.36396217346191</t>
@@ -2174,13 +2174,13 @@
     <t xml:space="preserve">6.32079124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23891592025757</t>
+    <t xml:space="preserve">6.23891544342041</t>
   </si>
   <si>
     <t xml:space="preserve">6.22998380661011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15704107284546</t>
+    <t xml:space="preserve">6.1570405960083</t>
   </si>
   <si>
     <t xml:space="preserve">6.12131309509277</t>
@@ -2195,34 +2195,34 @@
     <t xml:space="preserve">6.27762079238892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37289428710938</t>
+    <t xml:space="preserve">6.37289476394653</t>
   </si>
   <si>
     <t xml:space="preserve">6.37140560150146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34163284301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37884855270386</t>
+    <t xml:space="preserve">6.34163236618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37884759902954</t>
   </si>
   <si>
     <t xml:space="preserve">6.34609842300415</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34460973739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48305416107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5813045501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56046295166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61107778549194</t>
+    <t xml:space="preserve">6.3446102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48305368423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58130502700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56046390533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61107730865479</t>
   </si>
   <si>
     <t xml:space="preserve">6.58874750137329</t>
@@ -2234,10 +2234,10 @@
     <t xml:space="preserve">6.76738548278809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74803304672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66169118881226</t>
+    <t xml:space="preserve">6.74803352355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66169166564941</t>
   </si>
   <si>
     <t xml:space="preserve">6.73761224746704</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">7.05022764205933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01598930358887</t>
+    <t xml:space="preserve">7.01598882675171</t>
   </si>
   <si>
     <t xml:space="preserve">6.95346593856812</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">6.99068212509155</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93857955932617</t>
+    <t xml:space="preserve">6.93857860565186</t>
   </si>
   <si>
     <t xml:space="preserve">7.01301193237305</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">6.99365949630737</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84777212142944</t>
+    <t xml:space="preserve">6.8477725982666</t>
   </si>
   <si>
     <t xml:space="preserve">6.88052225112915</t>
@@ -2288,16 +2288,16 @@
     <t xml:space="preserve">6.95644330978394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92964744567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94453382492065</t>
+    <t xml:space="preserve">6.92964792251587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94453430175781</t>
   </si>
   <si>
     <t xml:space="preserve">6.76440811157227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73910140991211</t>
+    <t xml:space="preserve">6.73910093307495</t>
   </si>
   <si>
     <t xml:space="preserve">6.74952173233032</t>
@@ -2312,13 +2312,13 @@
     <t xml:space="preserve">6.44583797454834</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49942874908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32674551010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31483745574951</t>
+    <t xml:space="preserve">6.49942922592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32674598693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31483697891235</t>
   </si>
   <si>
     <t xml:space="preserve">6.34758710861206</t>
@@ -2327,13 +2327,13 @@
     <t xml:space="preserve">6.20021057128906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33270072937012</t>
+    <t xml:space="preserve">6.33270025253296</t>
   </si>
   <si>
     <t xml:space="preserve">6.38182592391968</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47858810424805</t>
+    <t xml:space="preserve">6.47858858108521</t>
   </si>
   <si>
     <t xml:space="preserve">6.52771282196045</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">6.70635080337524</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78822660446167</t>
+    <t xml:space="preserve">6.78822612762451</t>
   </si>
   <si>
     <t xml:space="preserve">7.0293869972229</t>
@@ -2375,10 +2375,10 @@
     <t xml:space="preserve">7.18271684646606</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11423921585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0844669342041</t>
+    <t xml:space="preserve">7.11423969268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08446598052979</t>
   </si>
   <si>
     <t xml:space="preserve">7.2199330329895</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">7.3762412071228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41792392730713</t>
+    <t xml:space="preserve">7.41792297363281</t>
   </si>
   <si>
     <t xml:space="preserve">7.52138376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42536735534668</t>
+    <t xml:space="preserve">7.42536640167236</t>
   </si>
   <si>
     <t xml:space="preserve">7.45811653137207</t>
@@ -2411,28 +2411,28 @@
     <t xml:space="preserve">7.22291135787964</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31074094772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27799034118652</t>
+    <t xml:space="preserve">7.31074047088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27799081802368</t>
   </si>
   <si>
     <t xml:space="preserve">7.29734325408936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25417280197144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2660813331604</t>
+    <t xml:space="preserve">7.25417232513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26608228683472</t>
   </si>
   <si>
     <t xml:space="preserve">7.51021957397461</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6776909828186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76328897476196</t>
+    <t xml:space="preserve">7.67769193649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76328992843628</t>
   </si>
   <si>
     <t xml:space="preserve">7.87493753433228</t>
@@ -2441,7 +2441,7 @@
     <t xml:space="preserve">7.90471124649048</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88238048553467</t>
+    <t xml:space="preserve">7.88238143920898</t>
   </si>
   <si>
     <t xml:space="preserve">7.86005163192749</t>
@@ -2477,7 +2477,7 @@
     <t xml:space="preserve">8.10939979553223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02380180358887</t>
+    <t xml:space="preserve">8.02380275726318</t>
   </si>
   <si>
     <t xml:space="preserve">7.76701068878174</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">7.9233193397522</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8526086807251</t>
+    <t xml:space="preserve">7.85260772705078</t>
   </si>
   <si>
     <t xml:space="preserve">8.02844524383545</t>
@@ -2498,16 +2498,16 @@
     <t xml:space="preserve">7.97393417358398</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03623104095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00508308410645</t>
+    <t xml:space="preserve">8.03623008728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00508403778076</t>
   </si>
   <si>
     <t xml:space="preserve">7.9817214012146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04012393951416</t>
+    <t xml:space="preserve">8.04012489318848</t>
   </si>
   <si>
     <t xml:space="preserve">7.90385103225708</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">7.82987546920776</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78704595565796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85323572158813</t>
+    <t xml:space="preserve">7.78704500198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85323476791382</t>
   </si>
   <si>
     <t xml:space="preserve">7.82208824157715</t>
@@ -2534,7 +2534,7 @@
     <t xml:space="preserve">7.87270259857178</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88438320159912</t>
+    <t xml:space="preserve">7.88438415527344</t>
   </si>
   <si>
     <t xml:space="preserve">7.73565101623535</t>
@@ -2543,13 +2543,13 @@
     <t xml:space="preserve">7.81040668487549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7761435508728</t>
+    <t xml:space="preserve">7.77614450454712</t>
   </si>
   <si>
     <t xml:space="preserve">7.85712909698486</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7792592048645</t>
+    <t xml:space="preserve">7.77925825119019</t>
   </si>
   <si>
     <t xml:space="preserve">7.70917510986328</t>
@@ -2561,13 +2561,13 @@
     <t xml:space="preserve">7.72007656097412</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64999389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67179775238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74188232421875</t>
+    <t xml:space="preserve">7.64999341964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67179727554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74188137054443</t>
   </si>
   <si>
     <t xml:space="preserve">7.75433969497681</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">7.56589317321777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64376354217529</t>
+    <t xml:space="preserve">7.64376449584961</t>
   </si>
   <si>
     <t xml:space="preserve">7.59236907958984</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">7.53630352020264</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55810642242432</t>
+    <t xml:space="preserve">7.55810737609863</t>
   </si>
   <si>
     <t xml:space="preserve">7.47089195251465</t>
@@ -2618,7 +2618,7 @@
     <t xml:space="preserve">7.21080493927002</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01768589019775</t>
+    <t xml:space="preserve">7.01768636703491</t>
   </si>
   <si>
     <t xml:space="preserve">7.17498350143433</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">7.26687145233154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45376014709473</t>
+    <t xml:space="preserve">7.45375919342041</t>
   </si>
   <si>
     <t xml:space="preserve">7.33539724349976</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">7.53941774368286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54097604751587</t>
+    <t xml:space="preserve">7.54097509384155</t>
   </si>
   <si>
     <t xml:space="preserve">7.4802360534668</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">7.32916736602783</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88997793197632</t>
+    <t xml:space="preserve">6.88997840881348</t>
   </si>
   <si>
     <t xml:space="preserve">6.85727214813232</t>
@@ -2666,10 +2666,10 @@
     <t xml:space="preserve">6.81989526748657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65636682510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37759017944336</t>
+    <t xml:space="preserve">6.6563663482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3775897026062</t>
   </si>
   <si>
     <t xml:space="preserve">6.15332365036011</t>
@@ -2678,7 +2678,7 @@
     <t xml:space="preserve">6.09725666046143</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01782894134521</t>
+    <t xml:space="preserve">6.01782941818237</t>
   </si>
   <si>
     <t xml:space="preserve">5.76552820205688</t>
@@ -2702,10 +2702,10 @@
     <t xml:space="preserve">4.03213262557983</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56490969657898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47613739967346</t>
+    <t xml:space="preserve">3.5649094581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47613763809204</t>
   </si>
   <si>
     <t xml:space="preserve">3.27445244789124</t>
@@ -2729,16 +2729,16 @@
     <t xml:space="preserve">4.282874584198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01967334747314</t>
+    <t xml:space="preserve">4.01967287063599</t>
   </si>
   <si>
     <t xml:space="preserve">3.8740553855896</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91532611846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89663767814636</t>
+    <t xml:space="preserve">3.9153265953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89663815498352</t>
   </si>
   <si>
     <t xml:space="preserve">4.03057479858398</t>
@@ -2771,7 +2771,7 @@
     <t xml:space="preserve">3.94336009025574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8039722442627</t>
+    <t xml:space="preserve">3.80397200584412</t>
   </si>
   <si>
     <t xml:space="preserve">3.75413489341736</t>
@@ -2795,31 +2795,31 @@
     <t xml:space="preserve">4.05705070495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02123022079468</t>
+    <t xml:space="preserve">4.02123069763184</t>
   </si>
   <si>
     <t xml:space="preserve">4.01344299316406</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00254154205322</t>
+    <t xml:space="preserve">4.00254201889038</t>
   </si>
   <si>
     <t xml:space="preserve">4.04614877700806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18164348602295</t>
+    <t xml:space="preserve">4.18164300918579</t>
   </si>
   <si>
     <t xml:space="preserve">4.11467504501343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93245816230774</t>
+    <t xml:space="preserve">3.93245768547058</t>
   </si>
   <si>
     <t xml:space="preserve">3.80475068092346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06795310974121</t>
+    <t xml:space="preserve">4.06795263290405</t>
   </si>
   <si>
     <t xml:space="preserve">4.00409889221191</t>
@@ -2858,13 +2858,13 @@
     <t xml:space="preserve">5.28896141052246</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53503227233887</t>
+    <t xml:space="preserve">5.53503179550171</t>
   </si>
   <si>
     <t xml:space="preserve">5.70790433883667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52413034439087</t>
+    <t xml:space="preserve">5.52412986755371</t>
   </si>
   <si>
     <t xml:space="preserve">5.42445611953735</t>
@@ -2879,7 +2879,7 @@
     <t xml:space="preserve">5.37929105758667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51478624343872</t>
+    <t xml:space="preserve">5.51478576660156</t>
   </si>
   <si>
     <t xml:space="preserve">5.48830938339233</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">5.31076526641846</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33568382263184</t>
+    <t xml:space="preserve">5.33568429946899</t>
   </si>
   <si>
     <t xml:space="preserve">5.03043174743652</t>
@@ -2915,25 +2915,25 @@
     <t xml:space="preserve">5.0351037979126</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25314092636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23601007461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25937080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26560068130493</t>
+    <t xml:space="preserve">5.25314044952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23600959777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25937128067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26560020446777</t>
   </si>
   <si>
     <t xml:space="preserve">5.21109056472778</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12231922149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26404333114624</t>
+    <t xml:space="preserve">5.12231874465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26404285430908</t>
   </si>
   <si>
     <t xml:space="preserve">5.39330816268921</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">5.60823059082031</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6113452911377</t>
+    <t xml:space="preserve">5.61134481430054</t>
   </si>
   <si>
     <t xml:space="preserve">5.67675638198853</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">5.47429370880127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42289876937866</t>
+    <t xml:space="preserve">5.42289924621582</t>
   </si>
   <si>
     <t xml:space="preserve">5.40265274047852</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">5.25625610351562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2780590057373</t>
+    <t xml:space="preserve">5.27805948257446</t>
   </si>
   <si>
     <t xml:space="preserve">5.05379295349121</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">5.31543731689453</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63003444671631</t>
+    <t xml:space="preserve">5.63003396987915</t>
   </si>
   <si>
     <t xml:space="preserve">5.64560842514038</t>
@@ -3011,13 +3011,13 @@
     <t xml:space="preserve">5.46183395385742</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60200071334839</t>
+    <t xml:space="preserve">5.60200023651123</t>
   </si>
   <si>
     <t xml:space="preserve">5.47585105895996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44314479827881</t>
+    <t xml:space="preserve">5.44314527511597</t>
   </si>
   <si>
     <t xml:space="preserve">5.60355806350708</t>
@@ -3038,7 +3038,7 @@
     <t xml:space="preserve">5.67052698135376</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69700288772583</t>
+    <t xml:space="preserve">5.69700241088867</t>
   </si>
   <si>
     <t xml:space="preserve">5.68142890930176</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">5.42601299285889</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52880191802979</t>
+    <t xml:space="preserve">5.52880239486694</t>
   </si>
   <si>
     <t xml:space="preserve">5.75774145126343</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">5.53814697265625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43224287033081</t>
+    <t xml:space="preserve">5.43224334716797</t>
   </si>
   <si>
     <t xml:space="preserve">5.23133707046509</t>
@@ -3095,10 +3095,10 @@
     <t xml:space="preserve">5.17215585708618</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25781297683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43380069732666</t>
+    <t xml:space="preserve">5.25781345367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43380117416382</t>
   </si>
   <si>
     <t xml:space="preserve">5.56306552886963</t>
@@ -3116,13 +3116,13 @@
     <t xml:space="preserve">5.55683565139771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35125827789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36060237884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14879465103149</t>
+    <t xml:space="preserve">5.35125780105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36060190200806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14879417419434</t>
   </si>
   <si>
     <t xml:space="preserve">5.17059850692749</t>
@@ -3143,28 +3143,28 @@
     <t xml:space="preserve">5.11453151702881</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08961296081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.95567560195923</t>
+    <t xml:space="preserve">5.08961248397827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.95567607879639</t>
   </si>
   <si>
     <t xml:space="preserve">4.70960521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77190113067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74075317382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90583896636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18617248535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66896915435791</t>
+    <t xml:space="preserve">4.77190160751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74075365066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90583848953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1861720085144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66896963119507</t>
   </si>
   <si>
     <t xml:space="preserve">5.54904890060425</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">5.89012145996094</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97577857971191</t>
+    <t xml:space="preserve">5.97577905654907</t>
   </si>
   <si>
     <t xml:space="preserve">5.88856410980225</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">5.87143230438232</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11750316619873</t>
+    <t xml:space="preserve">6.11750268936157</t>
   </si>
   <si>
     <t xml:space="preserve">6.14242172241211</t>
@@ -3197,10 +3197,10 @@
     <t xml:space="preserve">6.09102725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01938676834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82003831863403</t>
+    <t xml:space="preserve">6.01938629150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82003784179688</t>
   </si>
   <si>
     <t xml:space="preserve">5.90413761138916</t>
@@ -3215,16 +3215,16 @@
     <t xml:space="preserve">5.98200845718384</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90725326538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86208724975586</t>
+    <t xml:space="preserve">5.9072527885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86208772659302</t>
   </si>
   <si>
     <t xml:space="preserve">5.86987495422363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8465142250061</t>
+    <t xml:space="preserve">5.84651374816895</t>
   </si>
   <si>
     <t xml:space="preserve">5.7125768661499</t>
@@ -3242,7 +3242,7 @@
     <t xml:space="preserve">5.79667615890503</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75618410110474</t>
+    <t xml:space="preserve">5.75618457794189</t>
   </si>
   <si>
     <t xml:space="preserve">5.74372529983521</t>
@@ -3269,7 +3269,7 @@
     <t xml:space="preserve">5.87766218185425</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83249664306641</t>
+    <t xml:space="preserve">5.83249711990356</t>
   </si>
   <si>
     <t xml:space="preserve">5.88389205932617</t>
@@ -3281,10 +3281,10 @@
     <t xml:space="preserve">5.81692314147949</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74683952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84184122085571</t>
+    <t xml:space="preserve">5.74684000015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84184169769287</t>
   </si>
   <si>
     <t xml:space="preserve">5.76708602905273</t>
@@ -3299,7 +3299,7 @@
     <t xml:space="preserve">5.72036409378052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76085615158081</t>
+    <t xml:space="preserve">5.76085567474365</t>
   </si>
   <si>
     <t xml:space="preserve">5.73438024520874</t>
@@ -3308,37 +3308,37 @@
     <t xml:space="preserve">5.88544940948486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11906051635742</t>
+    <t xml:space="preserve">6.11906003952026</t>
   </si>
   <si>
     <t xml:space="preserve">6.29972076416016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38537693023682</t>
+    <t xml:space="preserve">6.38537740707397</t>
   </si>
   <si>
     <t xml:space="preserve">6.5925121307373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65325117111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85260009765625</t>
+    <t xml:space="preserve">6.6532506942749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85260057449341</t>
   </si>
   <si>
     <t xml:space="preserve">6.94760227203369</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91956901550293</t>
+    <t xml:space="preserve">6.91956853866577</t>
   </si>
   <si>
     <t xml:space="preserve">7.03948974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98030805587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02547311782837</t>
+    <t xml:space="preserve">6.98030757904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02547264099121</t>
   </si>
   <si>
     <t xml:space="preserve">6.9880952835083</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">7.07063722610474</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06285047531128</t>
+    <t xml:space="preserve">7.06284999847412</t>
   </si>
   <si>
     <t xml:space="preserve">7.02858734130859</t>
@@ -3365,13 +3365,13 @@
     <t xml:space="preserve">6.94293022155762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87128877639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96940565109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0597357749939</t>
+    <t xml:space="preserve">6.87128925323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96940612792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05973625183105</t>
   </si>
   <si>
     <t xml:space="preserve">7.18121337890625</t>
@@ -3380,7 +3380,7 @@
     <t xml:space="preserve">7.19211626052856</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23416519165039</t>
+    <t xml:space="preserve">7.23416566848755</t>
   </si>
   <si>
     <t xml:space="preserve">7.31515073776245</t>
@@ -3389,13 +3389,13 @@
     <t xml:space="preserve">7.33072471618652</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3696608543396</t>
+    <t xml:space="preserve">7.36965990066528</t>
   </si>
   <si>
     <t xml:space="preserve">7.49581003189087</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57523775100708</t>
+    <t xml:space="preserve">7.5752387046814</t>
   </si>
   <si>
     <t xml:space="preserve">7.57835340499878</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">7.51294136047363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36343050003052</t>
+    <t xml:space="preserve">7.36343145370483</t>
   </si>
   <si>
     <t xml:space="preserve">7.31359338760376</t>
@@ -3434,19 +3434,19 @@
     <t xml:space="preserve">7.32605266571045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23105049133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26842784881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28088808059692</t>
+    <t xml:space="preserve">7.23105144500732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26842880249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28088712692261</t>
   </si>
   <si>
     <t xml:space="preserve">7.27154350280762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24662399291992</t>
+    <t xml:space="preserve">7.24662494659424</t>
   </si>
   <si>
     <t xml:space="preserve">7.31670808792114</t>
@@ -3455,13 +3455,13 @@
     <t xml:space="preserve">7.31203603744507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16408205032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09244155883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10957288742065</t>
+    <t xml:space="preserve">7.16408252716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09244108200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1095724105835</t>
   </si>
   <si>
     <t xml:space="preserve">7.09711360931396</t>
@@ -3476,25 +3476,25 @@
     <t xml:space="preserve">7.29023265838623</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32138061523438</t>
+    <t xml:space="preserve">7.32138013839722</t>
   </si>
   <si>
     <t xml:space="preserve">7.39769315719604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24039554595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37744760513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41794013977051</t>
+    <t xml:space="preserve">7.24039459228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37744665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41793918609619</t>
   </si>
   <si>
     <t xml:space="preserve">7.51761388778687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53318881988525</t>
+    <t xml:space="preserve">7.53318786621094</t>
   </si>
   <si>
     <t xml:space="preserve">7.4895806312561</t>
@@ -3503,13 +3503,13 @@
     <t xml:space="preserve">7.56433582305908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61728715896606</t>
+    <t xml:space="preserve">7.61728811264038</t>
   </si>
   <si>
     <t xml:space="preserve">7.68581390380859</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53786039352417</t>
+    <t xml:space="preserve">7.53786134719849</t>
   </si>
   <si>
     <t xml:space="preserve">7.54564666748047</t>
@@ -3521,10 +3521,10 @@
     <t xml:space="preserve">7.5612211227417</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61261606216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60015630722046</t>
+    <t xml:space="preserve">7.61261558532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60015726089478</t>
   </si>
   <si>
     <t xml:space="preserve">7.63286161422729</t>
@@ -3545,10 +3545,10 @@
     <t xml:space="preserve">7.7481107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76057004928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69671487808228</t>
+    <t xml:space="preserve">7.76056909561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69671583175659</t>
   </si>
   <si>
     <t xml:space="preserve">7.75589752197266</t>
@@ -3572,10 +3572,10 @@
     <t xml:space="preserve">7.71229028701782</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77458667755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7683572769165</t>
+    <t xml:space="preserve">7.77458763122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76835632324219</t>
   </si>
   <si>
     <t xml:space="preserve">7.68892860412598</t>
@@ -3593,16 +3593,16 @@
     <t xml:space="preserve">7.86102294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62507438659668</t>
+    <t xml:space="preserve">7.625075340271</t>
   </si>
   <si>
     <t xml:space="preserve">7.6344199180603</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39302206039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59392738342285</t>
+    <t xml:space="preserve">7.39302110671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59392642974854</t>
   </si>
   <si>
     <t xml:space="preserve">7.67646980285645</t>
@@ -3614,13 +3614,13 @@
     <t xml:space="preserve">7.62974739074707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57679510116577</t>
+    <t xml:space="preserve">7.57679605484009</t>
   </si>
   <si>
     <t xml:space="preserve">7.33383989334106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4272837638855</t>
+    <t xml:space="preserve">7.42728471755981</t>
   </si>
   <si>
     <t xml:space="preserve">7.72474908828735</t>
@@ -3635,7 +3635,7 @@
     <t xml:space="preserve">7.78237390518188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73253631591797</t>
+    <t xml:space="preserve">7.73253726959229</t>
   </si>
   <si>
     <t xml:space="preserve">7.69827318191528</t>
@@ -3653,7 +3653,7 @@
     <t xml:space="preserve">7.79093885421753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67802619934082</t>
+    <t xml:space="preserve">7.67802715301514</t>
   </si>
   <si>
     <t xml:space="preserve">7.77147197723389</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">7.52384328842163</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57990980148315</t>
+    <t xml:space="preserve">7.57991075515747</t>
   </si>
   <si>
     <t xml:space="preserve">7.62040328979492</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">7.74343824386597</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77302885055542</t>
+    <t xml:space="preserve">7.77302980422974</t>
   </si>
   <si>
     <t xml:space="preserve">7.59704208374023</t>
@@ -3689,13 +3689,13 @@
     <t xml:space="preserve">7.74032258987427</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86491632461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98561573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83376789093018</t>
+    <t xml:space="preserve">7.86491537094116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98561477661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83376884460449</t>
   </si>
   <si>
     <t xml:space="preserve">8.04791069030762</t>
@@ -3710,10 +3710,10 @@
     <t xml:space="preserve">8.10242080688477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26205444335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0128698348999</t>
+    <t xml:space="preserve">8.26205539703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01287078857422</t>
   </si>
   <si>
     <t xml:space="preserve">7.95836067199707</t>
@@ -3728,7 +3728,7 @@
     <t xml:space="preserve">7.91553163528442</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93499946594238</t>
+    <t xml:space="preserve">7.93499851226807</t>
   </si>
   <si>
     <t xml:space="preserve">8.04401779174805</t>
@@ -3737,19 +3737,19 @@
     <t xml:space="preserve">8.09463405609131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12188816070557</t>
+    <t xml:space="preserve">8.12188911437988</t>
   </si>
   <si>
     <t xml:space="preserve">8.07127285003662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03233623504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16082286834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19197273254395</t>
+    <t xml:space="preserve">8.0323371887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16082382202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19197177886963</t>
   </si>
   <si>
     <t xml:space="preserve">8.29709720611572</t>
@@ -4061,9 +4061,6 @@
     <t xml:space="preserve">7.66660642623901</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64999341964722</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.88256645202637</t>
   </si>
   <si>
@@ -5517,6 +5514,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.5200004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4200000762939</t>
   </si>
 </sst>
 </file>
@@ -47606,7 +47606,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1606" t="s">
-        <v>1349</v>
+        <v>849</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -47632,7 +47632,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1607" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -47658,7 +47658,7 @@
         <v>9.48799991607666</v>
       </c>
       <c r="G1608" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -47684,7 +47684,7 @@
         <v>9.61200046539307</v>
       </c>
       <c r="G1609" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -47736,7 +47736,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1611" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -47762,7 +47762,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1612" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -47814,7 +47814,7 @@
         <v>9.64799976348877</v>
       </c>
       <c r="G1614" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -47840,7 +47840,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G1615" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -47866,7 +47866,7 @@
         <v>9.77799987792969</v>
       </c>
       <c r="G1616" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -47918,7 +47918,7 @@
         <v>9.70400047302246</v>
       </c>
       <c r="G1618" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -47944,7 +47944,7 @@
         <v>9.92399978637695</v>
       </c>
       <c r="G1619" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -47970,7 +47970,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1620" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -47996,7 +47996,7 @@
         <v>9.91199970245361</v>
       </c>
       <c r="G1621" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -48022,7 +48022,7 @@
         <v>9.67199993133545</v>
       </c>
       <c r="G1622" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -48048,7 +48048,7 @@
         <v>9.57199954986572</v>
       </c>
       <c r="G1623" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -48074,7 +48074,7 @@
         <v>9.5</v>
       </c>
       <c r="G1624" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -48100,7 +48100,7 @@
         <v>9.55799961090088</v>
       </c>
       <c r="G1625" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -48126,7 +48126,7 @@
         <v>9.33600044250488</v>
       </c>
       <c r="G1626" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -48152,7 +48152,7 @@
         <v>9.4379997253418</v>
       </c>
       <c r="G1627" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -48178,7 +48178,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1628" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -48204,7 +48204,7 @@
         <v>9.52799987792969</v>
       </c>
       <c r="G1629" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -48230,7 +48230,7 @@
         <v>9.60200023651123</v>
       </c>
       <c r="G1630" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -48256,7 +48256,7 @@
         <v>9.55399990081787</v>
       </c>
       <c r="G1631" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -48282,7 +48282,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1632" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -48308,7 +48308,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -48334,7 +48334,7 @@
         <v>9.5</v>
       </c>
       <c r="G1634" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -48360,7 +48360,7 @@
         <v>9.68599987030029</v>
       </c>
       <c r="G1635" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -48386,7 +48386,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1636" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -48412,7 +48412,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1637" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -48438,7 +48438,7 @@
         <v>9.65200042724609</v>
       </c>
       <c r="G1638" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -48464,7 +48464,7 @@
         <v>9.01599979400635</v>
       </c>
       <c r="G1639" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -48490,7 +48490,7 @@
         <v>8.87600040435791</v>
       </c>
       <c r="G1640" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -48516,7 +48516,7 @@
         <v>8.95800018310547</v>
       </c>
       <c r="G1641" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -48542,7 +48542,7 @@
         <v>8.93599987030029</v>
       </c>
       <c r="G1642" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -48568,7 +48568,7 @@
         <v>8.52400016784668</v>
       </c>
       <c r="G1643" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -48594,7 +48594,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1644" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -48620,7 +48620,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1645" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -48646,7 +48646,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G1646" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -48672,7 +48672,7 @@
         <v>8.63799953460693</v>
       </c>
       <c r="G1647" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -48698,7 +48698,7 @@
         <v>8.44400024414062</v>
       </c>
       <c r="G1648" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -48724,7 +48724,7 @@
         <v>8.62800025939941</v>
       </c>
       <c r="G1649" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -48750,7 +48750,7 @@
         <v>8.44200038909912</v>
       </c>
       <c r="G1650" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -48776,7 +48776,7 @@
         <v>8.54599952697754</v>
       </c>
       <c r="G1651" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -48802,7 +48802,7 @@
         <v>8.48799991607666</v>
       </c>
       <c r="G1652" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -48828,7 +48828,7 @@
         <v>8.25800037384033</v>
       </c>
       <c r="G1653" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -48854,7 +48854,7 @@
         <v>8.2519998550415</v>
       </c>
       <c r="G1654" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -48880,7 +48880,7 @@
         <v>8.21199989318848</v>
       </c>
       <c r="G1655" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -48906,7 +48906,7 @@
         <v>8.01200008392334</v>
       </c>
       <c r="G1656" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -48932,7 +48932,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G1657" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -48958,7 +48958,7 @@
         <v>8.30200004577637</v>
       </c>
       <c r="G1658" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -48984,7 +48984,7 @@
         <v>8.42800045013428</v>
       </c>
       <c r="G1659" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -49010,7 +49010,7 @@
         <v>8.3439998626709</v>
       </c>
       <c r="G1660" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -49036,7 +49036,7 @@
         <v>8.24400043487549</v>
       </c>
       <c r="G1661" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -49062,7 +49062,7 @@
         <v>8.17399978637695</v>
       </c>
       <c r="G1662" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -49088,7 +49088,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -49114,7 +49114,7 @@
         <v>7.78399991989136</v>
       </c>
       <c r="G1664" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -49140,7 +49140,7 @@
         <v>7.97200012207031</v>
       </c>
       <c r="G1665" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -49166,7 +49166,7 @@
         <v>8.14200019836426</v>
       </c>
       <c r="G1666" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -49192,7 +49192,7 @@
         <v>8.04800033569336</v>
       </c>
       <c r="G1667" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -49218,7 +49218,7 @@
         <v>7.9980001449585</v>
       </c>
       <c r="G1668" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -49244,7 +49244,7 @@
         <v>8.0319995880127</v>
       </c>
       <c r="G1669" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -49270,7 +49270,7 @@
         <v>8.04800033569336</v>
       </c>
       <c r="G1670" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -49296,7 +49296,7 @@
         <v>7.94399976730347</v>
       </c>
       <c r="G1671" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -49322,7 +49322,7 @@
         <v>8.02200031280518</v>
       </c>
       <c r="G1672" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -49348,7 +49348,7 @@
         <v>8.17199993133545</v>
       </c>
       <c r="G1673" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -49374,7 +49374,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G1674" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -49400,7 +49400,7 @@
         <v>8.41600036621094</v>
       </c>
       <c r="G1675" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -49426,7 +49426,7 @@
         <v>8.42199993133545</v>
       </c>
       <c r="G1676" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -49452,7 +49452,7 @@
         <v>8.48200035095215</v>
       </c>
       <c r="G1677" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -49478,7 +49478,7 @@
         <v>8.54800033569336</v>
       </c>
       <c r="G1678" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -49504,7 +49504,7 @@
         <v>8.61600017547607</v>
       </c>
       <c r="G1679" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -49530,7 +49530,7 @@
         <v>8.55200004577637</v>
       </c>
       <c r="G1680" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -49556,7 +49556,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -49582,7 +49582,7 @@
         <v>8.5620002746582</v>
       </c>
       <c r="G1682" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -49608,7 +49608,7 @@
         <v>8.64599990844727</v>
       </c>
       <c r="G1683" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49634,7 +49634,7 @@
         <v>8.70400047302246</v>
       </c>
       <c r="G1684" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49660,7 +49660,7 @@
         <v>8.71399974822998</v>
       </c>
       <c r="G1685" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49686,7 +49686,7 @@
         <v>8.64200019836426</v>
       </c>
       <c r="G1686" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -49712,7 +49712,7 @@
         <v>8.60799980163574</v>
       </c>
       <c r="G1687" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -49738,7 +49738,7 @@
         <v>8.28800010681152</v>
       </c>
       <c r="G1688" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -49764,7 +49764,7 @@
         <v>8.06599998474121</v>
       </c>
       <c r="G1689" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -49790,7 +49790,7 @@
         <v>8.12800025939941</v>
       </c>
       <c r="G1690" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -49816,7 +49816,7 @@
         <v>8.09200000762939</v>
       </c>
       <c r="G1691" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49842,7 +49842,7 @@
         <v>8.04599952697754</v>
       </c>
       <c r="G1692" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49868,7 +49868,7 @@
         <v>7.93200016021729</v>
       </c>
       <c r="G1693" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49894,7 +49894,7 @@
         <v>7.91200017929077</v>
       </c>
       <c r="G1694" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49920,7 +49920,7 @@
         <v>7.98799991607666</v>
       </c>
       <c r="G1695" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49946,7 +49946,7 @@
         <v>7.90799999237061</v>
       </c>
       <c r="G1696" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49972,7 +49972,7 @@
         <v>7.81400012969971</v>
       </c>
       <c r="G1697" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49998,7 +49998,7 @@
         <v>8.11200046539307</v>
       </c>
       <c r="G1698" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -50024,7 +50024,7 @@
         <v>7.98600006103516</v>
       </c>
       <c r="G1699" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -50050,7 +50050,7 @@
         <v>7.96400022506714</v>
       </c>
       <c r="G1700" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -50076,7 +50076,7 @@
         <v>8.00800037384033</v>
       </c>
       <c r="G1701" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -50102,7 +50102,7 @@
         <v>8.08199977874756</v>
       </c>
       <c r="G1702" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -50128,7 +50128,7 @@
         <v>8.2819995880127</v>
       </c>
       <c r="G1703" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -50154,7 +50154,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -50180,7 +50180,7 @@
         <v>8.4680004119873</v>
       </c>
       <c r="G1705" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -50206,7 +50206,7 @@
         <v>8.55399990081787</v>
       </c>
       <c r="G1706" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -50232,7 +50232,7 @@
         <v>8.52799987792969</v>
       </c>
       <c r="G1707" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -50258,7 +50258,7 @@
         <v>8.45600032806396</v>
       </c>
       <c r="G1708" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -50284,7 +50284,7 @@
         <v>8.4980001449585</v>
       </c>
       <c r="G1709" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -50310,7 +50310,7 @@
         <v>8.19600009918213</v>
       </c>
       <c r="G1710" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -50336,7 +50336,7 @@
         <v>8.33399963378906</v>
       </c>
       <c r="G1711" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -50362,7 +50362,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1712" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -50388,7 +50388,7 @@
         <v>7.93200016021729</v>
       </c>
       <c r="G1713" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -50414,7 +50414,7 @@
         <v>7.98199987411499</v>
       </c>
       <c r="G1714" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -50440,7 +50440,7 @@
         <v>7.83400011062622</v>
       </c>
       <c r="G1715" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50466,7 +50466,7 @@
         <v>7.75600004196167</v>
       </c>
       <c r="G1716" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50492,7 +50492,7 @@
         <v>7.61199998855591</v>
       </c>
       <c r="G1717" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50518,7 +50518,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G1718" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50544,7 +50544,7 @@
         <v>8.28800010681152</v>
       </c>
       <c r="G1719" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50570,7 +50570,7 @@
         <v>8.47200012207031</v>
       </c>
       <c r="G1720" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50596,7 +50596,7 @@
         <v>8.33199977874756</v>
       </c>
       <c r="G1721" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50622,7 +50622,7 @@
         <v>8.01399993896484</v>
       </c>
       <c r="G1722" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50648,7 +50648,7 @@
         <v>7.96600008010864</v>
       </c>
       <c r="G1723" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50674,7 +50674,7 @@
         <v>7.94799995422363</v>
       </c>
       <c r="G1724" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -50700,7 +50700,7 @@
         <v>7.90799999237061</v>
       </c>
       <c r="G1725" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50726,7 +50726,7 @@
         <v>7.84200000762939</v>
       </c>
       <c r="G1726" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50752,7 +50752,7 @@
         <v>8.01399993896484</v>
       </c>
       <c r="G1727" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50778,7 +50778,7 @@
         <v>8.07800006866455</v>
       </c>
       <c r="G1728" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50804,7 +50804,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1729" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50830,7 +50830,7 @@
         <v>8.38399982452393</v>
       </c>
       <c r="G1730" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50856,7 +50856,7 @@
         <v>8.41600036621094</v>
       </c>
       <c r="G1731" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50908,7 +50908,7 @@
         <v>8.58600044250488</v>
       </c>
       <c r="G1733" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50934,7 +50934,7 @@
         <v>8.81400012969971</v>
       </c>
       <c r="G1734" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50960,7 +50960,7 @@
         <v>8.80599975585938</v>
       </c>
       <c r="G1735" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50986,7 +50986,7 @@
         <v>8.81599998474121</v>
       </c>
       <c r="G1736" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -51012,7 +51012,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1737" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -51038,7 +51038,7 @@
         <v>9.13199996948242</v>
       </c>
       <c r="G1738" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -51064,7 +51064,7 @@
         <v>9.17199993133545</v>
       </c>
       <c r="G1739" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -51090,7 +51090,7 @@
         <v>9.12399959564209</v>
       </c>
       <c r="G1740" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -51116,7 +51116,7 @@
         <v>9.24400043487549</v>
       </c>
       <c r="G1741" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -51142,7 +51142,7 @@
         <v>9.19600009918213</v>
       </c>
       <c r="G1742" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -51168,7 +51168,7 @@
         <v>9.39799976348877</v>
       </c>
       <c r="G1743" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -51194,7 +51194,7 @@
         <v>9.63199996948242</v>
       </c>
       <c r="G1744" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -51220,7 +51220,7 @@
         <v>9.67800045013428</v>
       </c>
       <c r="G1745" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -51246,7 +51246,7 @@
         <v>9.74400043487549</v>
       </c>
       <c r="G1746" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -51272,7 +51272,7 @@
         <v>9.81400012969971</v>
       </c>
       <c r="G1747" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -51298,7 +51298,7 @@
         <v>9.95400047302246</v>
       </c>
       <c r="G1748" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -51428,7 +51428,7 @@
         <v>10.1750001907349</v>
       </c>
       <c r="G1753" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51454,7 +51454,7 @@
         <v>9.41800022125244</v>
       </c>
       <c r="G1754" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51480,7 +51480,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1755" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51506,7 +51506,7 @@
         <v>9.44600009918213</v>
       </c>
       <c r="G1756" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51532,7 +51532,7 @@
         <v>9.37199974060059</v>
       </c>
       <c r="G1757" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51558,7 +51558,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1758" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51584,7 +51584,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G1759" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51610,7 +51610,7 @@
         <v>9.25599956512451</v>
       </c>
       <c r="G1760" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51636,7 +51636,7 @@
         <v>9.21399974822998</v>
       </c>
       <c r="G1761" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51662,7 +51662,7 @@
         <v>9.16399955749512</v>
       </c>
       <c r="G1762" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51688,7 +51688,7 @@
         <v>9.18599987030029</v>
       </c>
       <c r="G1763" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51714,7 +51714,7 @@
         <v>9.21599960327148</v>
       </c>
       <c r="G1764" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51740,7 +51740,7 @@
         <v>9.15200042724609</v>
       </c>
       <c r="G1765" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51766,7 +51766,7 @@
         <v>9.09200000762939</v>
       </c>
       <c r="G1766" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51792,7 +51792,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1767" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51818,7 +51818,7 @@
         <v>9.18200016021729</v>
       </c>
       <c r="G1768" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51844,7 +51844,7 @@
         <v>9.16199970245361</v>
       </c>
       <c r="G1769" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51870,7 +51870,7 @@
         <v>9.3120002746582</v>
       </c>
       <c r="G1770" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51896,7 +51896,7 @@
         <v>9.2819995880127</v>
       </c>
       <c r="G1771" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51922,7 +51922,7 @@
         <v>8.94400024414062</v>
       </c>
       <c r="G1772" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51948,7 +51948,7 @@
         <v>8.90799999237061</v>
       </c>
       <c r="G1773" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51974,7 +51974,7 @@
         <v>8.93599987030029</v>
       </c>
       <c r="G1774" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -52000,7 +52000,7 @@
         <v>8.96599960327148</v>
       </c>
       <c r="G1775" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -52026,7 +52026,7 @@
         <v>9.12600040435791</v>
       </c>
       <c r="G1776" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -52052,7 +52052,7 @@
         <v>9.01399993896484</v>
       </c>
       <c r="G1777" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -52078,7 +52078,7 @@
         <v>9.0319995880127</v>
       </c>
       <c r="G1778" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -52104,7 +52104,7 @@
         <v>9.03400039672852</v>
       </c>
       <c r="G1779" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -52130,7 +52130,7 @@
         <v>8.97599983215332</v>
       </c>
       <c r="G1780" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -52156,7 +52156,7 @@
         <v>9.10599994659424</v>
       </c>
       <c r="G1781" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -52182,7 +52182,7 @@
         <v>8.98400020599365</v>
       </c>
       <c r="G1782" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -52208,7 +52208,7 @@
         <v>9.04399967193604</v>
       </c>
       <c r="G1783" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -52234,7 +52234,7 @@
         <v>9.13599967956543</v>
       </c>
       <c r="G1784" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -52260,7 +52260,7 @@
         <v>9.28600025177002</v>
       </c>
       <c r="G1785" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -52286,7 +52286,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1786" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -52312,7 +52312,7 @@
         <v>9.26399993896484</v>
       </c>
       <c r="G1787" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -52338,7 +52338,7 @@
         <v>9.35599994659424</v>
       </c>
       <c r="G1788" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52364,7 +52364,7 @@
         <v>9.40799999237061</v>
       </c>
       <c r="G1789" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52390,7 +52390,7 @@
         <v>9.55200004577637</v>
       </c>
       <c r="G1790" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52416,7 +52416,7 @@
         <v>9.67599964141846</v>
       </c>
       <c r="G1791" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52442,7 +52442,7 @@
         <v>9.66399955749512</v>
       </c>
       <c r="G1792" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52468,7 +52468,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1793" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52494,7 +52494,7 @@
         <v>9.65799999237061</v>
       </c>
       <c r="G1794" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52520,7 +52520,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1795" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52546,7 +52546,7 @@
         <v>9.43599987030029</v>
       </c>
       <c r="G1796" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52572,7 +52572,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1797" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52598,7 +52598,7 @@
         <v>9.62399959564209</v>
       </c>
       <c r="G1798" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52624,7 +52624,7 @@
         <v>9.68400001525879</v>
       </c>
       <c r="G1799" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52650,7 +52650,7 @@
         <v>9.74199962615967</v>
       </c>
       <c r="G1800" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52676,7 +52676,7 @@
         <v>9.86600017547607</v>
       </c>
       <c r="G1801" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52702,7 +52702,7 @@
         <v>9.90200042724609</v>
       </c>
       <c r="G1802" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52728,7 +52728,7 @@
         <v>9.9379997253418</v>
       </c>
       <c r="G1803" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52754,7 +52754,7 @@
         <v>9.85599994659424</v>
       </c>
       <c r="G1804" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52780,7 +52780,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1805" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52806,7 +52806,7 @@
         <v>9.99600028991699</v>
       </c>
       <c r="G1806" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52832,7 +52832,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1807" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52858,7 +52858,7 @@
         <v>10.1450004577637</v>
       </c>
       <c r="G1808" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52884,7 +52884,7 @@
         <v>10.1700000762939</v>
       </c>
       <c r="G1809" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52910,7 +52910,7 @@
         <v>10.2049999237061</v>
       </c>
       <c r="G1810" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52936,7 +52936,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1811" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52962,7 +52962,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1812" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52988,7 +52988,7 @@
         <v>10.3699998855591</v>
       </c>
       <c r="G1813" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -53014,7 +53014,7 @@
         <v>10.4099998474121</v>
       </c>
       <c r="G1814" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -53040,7 +53040,7 @@
         <v>10.2449998855591</v>
       </c>
       <c r="G1815" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -53066,7 +53066,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1816" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -53092,7 +53092,7 @@
         <v>10.2550001144409</v>
       </c>
       <c r="G1817" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -53118,7 +53118,7 @@
         <v>10.125</v>
       </c>
       <c r="G1818" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -53144,7 +53144,7 @@
         <v>10.1149997711182</v>
       </c>
       <c r="G1819" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -53170,7 +53170,7 @@
         <v>9.99199962615967</v>
       </c>
       <c r="G1820" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -53196,7 +53196,7 @@
         <v>10.0150003433228</v>
       </c>
       <c r="G1821" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -53222,7 +53222,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1822" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -53248,7 +53248,7 @@
         <v>10.0299997329712</v>
       </c>
       <c r="G1823" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -53274,7 +53274,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1824" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -53300,7 +53300,7 @@
         <v>9.97200012207031</v>
       </c>
       <c r="G1825" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53326,7 +53326,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -53352,7 +53352,7 @@
         <v>10.0699996948242</v>
       </c>
       <c r="G1827" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53378,7 +53378,7 @@
         <v>10.1350002288818</v>
       </c>
       <c r="G1828" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53404,7 +53404,7 @@
         <v>10.0749998092651</v>
       </c>
       <c r="G1829" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53430,7 +53430,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1830" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53456,7 +53456,7 @@
         <v>10.0050001144409</v>
       </c>
       <c r="G1831" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53482,7 +53482,7 @@
         <v>9.72599983215332</v>
       </c>
       <c r="G1832" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53508,7 +53508,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1833" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53534,7 +53534,7 @@
         <v>9.52400016784668</v>
       </c>
       <c r="G1834" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53560,7 +53560,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G1835" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53586,7 +53586,7 @@
         <v>8.95600032806396</v>
       </c>
       <c r="G1836" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53612,7 +53612,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1837" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53638,7 +53638,7 @@
         <v>8.95600032806396</v>
       </c>
       <c r="G1838" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53664,7 +53664,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1839" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53690,7 +53690,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53716,7 +53716,7 @@
         <v>9.08800029754639</v>
       </c>
       <c r="G1841" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53742,7 +53742,7 @@
         <v>8.99400043487549</v>
       </c>
       <c r="G1842" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53768,7 +53768,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1843" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53794,7 +53794,7 @@
         <v>9.05799961090088</v>
       </c>
       <c r="G1844" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53820,7 +53820,7 @@
         <v>9.19799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53846,7 +53846,7 @@
         <v>9.25599956512451</v>
       </c>
       <c r="G1846" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53872,7 +53872,7 @@
         <v>9.26799964904785</v>
       </c>
       <c r="G1847" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53898,7 +53898,7 @@
         <v>9.30200004577637</v>
       </c>
       <c r="G1848" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53924,7 +53924,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G1849" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53950,7 +53950,7 @@
         <v>9.2180004119873</v>
       </c>
       <c r="G1850" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53976,7 +53976,7 @@
         <v>9.44400024414062</v>
       </c>
       <c r="G1851" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -54002,7 +54002,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1852" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -54028,7 +54028,7 @@
         <v>9.45400047302246</v>
       </c>
       <c r="G1853" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -54054,7 +54054,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1854" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -54080,7 +54080,7 @@
         <v>9.63799953460693</v>
       </c>
       <c r="G1855" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -54106,7 +54106,7 @@
         <v>9.55799961090088</v>
       </c>
       <c r="G1856" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -54132,7 +54132,7 @@
         <v>9.75</v>
       </c>
       <c r="G1857" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -54158,7 +54158,7 @@
         <v>9.78600025177002</v>
       </c>
       <c r="G1858" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -54184,7 +54184,7 @@
         <v>9.70400047302246</v>
       </c>
       <c r="G1859" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -54210,7 +54210,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G1860" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -54236,7 +54236,7 @@
         <v>9.78600025177002</v>
       </c>
       <c r="G1861" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -54262,7 +54262,7 @@
         <v>9.73200035095215</v>
       </c>
       <c r="G1862" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -54288,7 +54288,7 @@
         <v>9.76200008392334</v>
       </c>
       <c r="G1863" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -54314,7 +54314,7 @@
         <v>9.8459997177124</v>
       </c>
       <c r="G1864" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54340,7 +54340,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1865" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54366,7 +54366,7 @@
         <v>9.39799976348877</v>
       </c>
       <c r="G1866" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -54392,7 +54392,7 @@
         <v>9.75800037384033</v>
       </c>
       <c r="G1867" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54418,7 +54418,7 @@
         <v>9.64200019836426</v>
       </c>
       <c r="G1868" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54444,7 +54444,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1869" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54470,7 +54470,7 @@
         <v>10</v>
       </c>
       <c r="G1870" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54496,7 +54496,7 @@
         <v>9.93200016021729</v>
       </c>
       <c r="G1871" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54522,7 +54522,7 @@
         <v>9.96199989318848</v>
       </c>
       <c r="G1872" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54548,7 +54548,7 @@
         <v>9.6879997253418</v>
       </c>
       <c r="G1873" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54574,7 +54574,7 @@
         <v>9.70199966430664</v>
       </c>
       <c r="G1874" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54600,7 +54600,7 @@
         <v>9.74600028991699</v>
       </c>
       <c r="G1875" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54626,7 +54626,7 @@
         <v>9.82800006866455</v>
       </c>
       <c r="G1876" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54652,7 +54652,7 @@
         <v>9.85200023651123</v>
       </c>
       <c r="G1877" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54678,7 +54678,7 @@
         <v>9.94200038909912</v>
       </c>
       <c r="G1878" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54704,7 +54704,7 @@
         <v>10.0349998474121</v>
       </c>
       <c r="G1879" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54730,7 +54730,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1880" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54756,7 +54756,7 @@
         <v>10.1750001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54782,7 +54782,7 @@
         <v>10.3699998855591</v>
       </c>
       <c r="G1882" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54808,7 +54808,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54834,7 +54834,7 @@
         <v>10.4449996948242</v>
       </c>
       <c r="G1884" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54860,7 +54860,7 @@
         <v>10.335000038147</v>
       </c>
       <c r="G1885" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54886,7 +54886,7 @@
         <v>10.3299999237061</v>
       </c>
       <c r="G1886" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54912,7 +54912,7 @@
         <v>10.2950000762939</v>
       </c>
       <c r="G1887" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54938,7 +54938,7 @@
         <v>10.625</v>
       </c>
       <c r="G1888" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54964,7 +54964,7 @@
         <v>10.7049999237061</v>
       </c>
       <c r="G1889" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54990,7 +54990,7 @@
         <v>10.6049995422363</v>
       </c>
       <c r="G1890" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -55016,7 +55016,7 @@
         <v>10.6949996948242</v>
       </c>
       <c r="G1891" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -55042,7 +55042,7 @@
         <v>10.6750001907349</v>
       </c>
       <c r="G1892" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -55068,7 +55068,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G1893" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -55094,7 +55094,7 @@
         <v>10.9449996948242</v>
       </c>
       <c r="G1894" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -55120,7 +55120,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1895" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -55146,7 +55146,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G1896" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -55172,7 +55172,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G1897" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -55198,7 +55198,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G1898" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -55224,7 +55224,7 @@
         <v>11.2250003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -55250,7 +55250,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1900" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55276,7 +55276,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1901" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55302,7 +55302,7 @@
         <v>11.1149997711182</v>
       </c>
       <c r="G1902" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55328,7 +55328,7 @@
         <v>10.8950004577637</v>
       </c>
       <c r="G1903" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55354,7 +55354,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G1904" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55380,7 +55380,7 @@
         <v>10.7399997711182</v>
       </c>
       <c r="G1905" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55406,7 +55406,7 @@
         <v>10.7749996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55432,7 +55432,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1907" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55458,7 +55458,7 @@
         <v>10.8950004577637</v>
       </c>
       <c r="G1908" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55484,7 +55484,7 @@
         <v>10.960000038147</v>
       </c>
       <c r="G1909" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55510,7 +55510,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1910" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55536,7 +55536,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1911" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55562,7 +55562,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1912" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55588,7 +55588,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1913" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55614,7 +55614,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1914" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55640,7 +55640,7 @@
         <v>11.0150003433228</v>
       </c>
       <c r="G1915" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55666,7 +55666,7 @@
         <v>11.0249996185303</v>
       </c>
       <c r="G1916" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55692,7 +55692,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1917" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55718,7 +55718,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1918" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55744,7 +55744,7 @@
         <v>11.289999961853</v>
       </c>
       <c r="G1919" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55770,7 +55770,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G1920" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55796,7 +55796,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1921" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55822,7 +55822,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1922" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55848,7 +55848,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1923" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55874,7 +55874,7 @@
         <v>11.4750003814697</v>
       </c>
       <c r="G1924" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55900,7 +55900,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1925" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55926,7 +55926,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1926" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55952,7 +55952,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G1927" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55978,7 +55978,7 @@
         <v>11.9549999237061</v>
       </c>
       <c r="G1928" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -56004,7 +56004,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1929" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -56030,7 +56030,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1930" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -56056,7 +56056,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G1931" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -56082,7 +56082,7 @@
         <v>11.8549995422363</v>
       </c>
       <c r="G1932" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -56108,7 +56108,7 @@
         <v>11.8450002670288</v>
       </c>
       <c r="G1933" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -56134,7 +56134,7 @@
         <v>11.835000038147</v>
       </c>
       <c r="G1934" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -56160,7 +56160,7 @@
         <v>11.8850002288818</v>
       </c>
       <c r="G1935" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -56186,7 +56186,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G1936" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -56212,7 +56212,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1937" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56238,7 +56238,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G1938" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56264,7 +56264,7 @@
         <v>11.7150001525879</v>
       </c>
       <c r="G1939" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56290,7 +56290,7 @@
         <v>11.8249998092651</v>
       </c>
       <c r="G1940" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56316,7 +56316,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1941" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56342,7 +56342,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1942" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56368,7 +56368,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G1943" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56394,7 +56394,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1944" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56420,7 +56420,7 @@
         <v>11.875</v>
       </c>
       <c r="G1945" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56446,7 +56446,7 @@
         <v>11.8549995422363</v>
       </c>
       <c r="G1946" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56472,7 +56472,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1947" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56498,7 +56498,7 @@
         <v>11.8050003051758</v>
       </c>
       <c r="G1948" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56524,7 +56524,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G1949" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56550,7 +56550,7 @@
         <v>12.1049995422363</v>
       </c>
       <c r="G1950" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56576,7 +56576,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1951" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56602,7 +56602,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G1952" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56628,7 +56628,7 @@
         <v>12.0749998092651</v>
       </c>
       <c r="G1953" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56654,7 +56654,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1954" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56680,7 +56680,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G1955" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56706,7 +56706,7 @@
         <v>12.0249996185303</v>
       </c>
       <c r="G1956" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56732,7 +56732,7 @@
         <v>12.1450004577637</v>
       </c>
       <c r="G1957" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56758,7 +56758,7 @@
         <v>12.0649995803833</v>
       </c>
       <c r="G1958" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56784,7 +56784,7 @@
         <v>12.164999961853</v>
       </c>
       <c r="G1959" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56810,7 +56810,7 @@
         <v>12.1750001907349</v>
       </c>
       <c r="G1960" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56836,7 +56836,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1961" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56862,7 +56862,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1962" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56888,7 +56888,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G1963" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56914,7 +56914,7 @@
         <v>12.1350002288818</v>
       </c>
       <c r="G1964" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56940,7 +56940,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1965" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56966,7 +56966,7 @@
         <v>12.4049997329712</v>
       </c>
       <c r="G1966" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56992,7 +56992,7 @@
         <v>12.3050003051758</v>
       </c>
       <c r="G1967" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -57018,7 +57018,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1968" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -57044,7 +57044,7 @@
         <v>12.2550001144409</v>
       </c>
       <c r="G1969" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -57070,7 +57070,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G1970" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -57096,7 +57096,7 @@
         <v>12.4250001907349</v>
       </c>
       <c r="G1971" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -57122,7 +57122,7 @@
         <v>12.4650001525879</v>
       </c>
       <c r="G1972" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -57148,7 +57148,7 @@
         <v>12.5299997329712</v>
       </c>
       <c r="G1973" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -57174,7 +57174,7 @@
         <v>12.375</v>
       </c>
       <c r="G1974" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -57200,7 +57200,7 @@
         <v>12.289999961853</v>
       </c>
       <c r="G1975" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -57226,7 +57226,7 @@
         <v>12.2349996566772</v>
       </c>
       <c r="G1976" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57252,7 +57252,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1977" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57278,7 +57278,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1978" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57304,7 +57304,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1979" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57330,7 +57330,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1980" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57356,7 +57356,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G1981" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57382,7 +57382,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1982" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57408,7 +57408,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G1983" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57434,7 +57434,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1984" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57460,7 +57460,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1985" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57486,7 +57486,7 @@
         <v>11.3800001144409</v>
       </c>
       <c r="G1986" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57512,7 +57512,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1987" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57538,7 +57538,7 @@
         <v>11.0349998474121</v>
       </c>
       <c r="G1988" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57564,7 +57564,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1989" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57590,7 +57590,7 @@
         <v>11.0050001144409</v>
       </c>
       <c r="G1990" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57616,7 +57616,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1991" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57642,7 +57642,7 @@
         <v>10.8950004577637</v>
       </c>
       <c r="G1992" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57668,7 +57668,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G1993" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57694,7 +57694,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57720,7 +57720,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G1995" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57746,7 +57746,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57772,7 +57772,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G1997" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57798,7 +57798,7 @@
         <v>11.4949998855591</v>
       </c>
       <c r="G1998" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57824,7 +57824,7 @@
         <v>11.5</v>
       </c>
       <c r="G1999" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57850,7 +57850,7 @@
         <v>11.5150003433228</v>
       </c>
       <c r="G2000" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57876,7 +57876,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G2001" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57902,7 +57902,7 @@
         <v>11.5249996185303</v>
       </c>
       <c r="G2002" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57928,7 +57928,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2003" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57954,7 +57954,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2004" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57980,7 +57980,7 @@
         <v>11.8950004577637</v>
       </c>
       <c r="G2005" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -58006,7 +58006,7 @@
         <v>11.8050003051758</v>
       </c>
       <c r="G2006" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -58032,7 +58032,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G2007" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -58058,7 +58058,7 @@
         <v>11.7650003433228</v>
       </c>
       <c r="G2008" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -58084,7 +58084,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G2009" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -58110,7 +58110,7 @@
         <v>10.75</v>
       </c>
       <c r="G2010" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -58136,7 +58136,7 @@
         <v>10.8549995422363</v>
       </c>
       <c r="G2011" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -58162,7 +58162,7 @@
         <v>10.8450002670288</v>
       </c>
       <c r="G2012" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -58188,7 +58188,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G2013" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -58214,7 +58214,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G2014" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58240,7 +58240,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G2015" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58266,7 +58266,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G2016" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58292,7 +58292,7 @@
         <v>10.7749996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58318,7 +58318,7 @@
         <v>10.8050003051758</v>
       </c>
       <c r="G2018" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58344,7 +58344,7 @@
         <v>10.7449998855591</v>
       </c>
       <c r="G2019" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58370,7 +58370,7 @@
         <v>10.6700000762939</v>
       </c>
       <c r="G2020" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58396,7 +58396,7 @@
         <v>10.9650001525879</v>
       </c>
       <c r="G2021" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58422,7 +58422,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G2022" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58448,7 +58448,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G2023" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58474,7 +58474,7 @@
         <v>11.0950002670288</v>
       </c>
       <c r="G2024" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58500,7 +58500,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58526,7 +58526,7 @@
         <v>11.085000038147</v>
       </c>
       <c r="G2026" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58552,7 +58552,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58578,7 +58578,7 @@
         <v>11.125</v>
       </c>
       <c r="G2028" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58604,7 +58604,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G2029" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58630,7 +58630,7 @@
         <v>11.125</v>
       </c>
       <c r="G2030" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58656,7 +58656,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2031" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58682,7 +58682,7 @@
         <v>11.1350002288818</v>
       </c>
       <c r="G2032" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58708,7 +58708,7 @@
         <v>11.2449998855591</v>
       </c>
       <c r="G2033" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58734,7 +58734,7 @@
         <v>11.2150001525879</v>
       </c>
       <c r="G2034" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58760,7 +58760,7 @@
         <v>11.1750001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58786,7 +58786,7 @@
         <v>11.2049999237061</v>
       </c>
       <c r="G2036" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58812,7 +58812,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2037" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58838,7 +58838,7 @@
         <v>11.1149997711182</v>
       </c>
       <c r="G2038" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58864,7 +58864,7 @@
         <v>11.2349996566772</v>
       </c>
       <c r="G2039" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58890,7 +58890,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2040" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58916,7 +58916,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58942,7 +58942,7 @@
         <v>11.2849998474121</v>
       </c>
       <c r="G2042" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58968,7 +58968,7 @@
         <v>11.2349996566772</v>
       </c>
       <c r="G2043" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58994,7 +58994,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2044" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -59020,7 +59020,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2045" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -59046,7 +59046,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2046" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -59072,7 +59072,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2047" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -59098,7 +59098,7 @@
         <v>11.835000038147</v>
       </c>
       <c r="G2048" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -59124,7 +59124,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2049" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -59150,7 +59150,7 @@
         <v>12.0150003433228</v>
       </c>
       <c r="G2050" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -59176,7 +59176,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2051" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -59202,7 +59202,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2052" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -59228,7 +59228,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2053" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -59254,7 +59254,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G2054" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59280,7 +59280,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G2055" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59306,7 +59306,7 @@
         <v>12.125</v>
       </c>
       <c r="G2056" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59332,7 +59332,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G2057" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59358,7 +59358,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59384,7 +59384,7 @@
         <v>12.085000038147</v>
       </c>
       <c r="G2059" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59410,7 +59410,7 @@
         <v>12.1549997329712</v>
       </c>
       <c r="G2060" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59436,7 +59436,7 @@
         <v>12.085000038147</v>
       </c>
       <c r="G2061" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59462,7 +59462,7 @@
         <v>11.9750003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59488,7 +59488,7 @@
         <v>11.8950004577637</v>
       </c>
       <c r="G2063" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59514,7 +59514,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2064" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59540,7 +59540,7 @@
         <v>11.6350002288818</v>
       </c>
       <c r="G2065" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59566,7 +59566,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G2066" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59592,7 +59592,7 @@
         <v>11.5100002288818</v>
       </c>
       <c r="G2067" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59618,7 +59618,7 @@
         <v>11.4849996566772</v>
       </c>
       <c r="G2068" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59644,7 +59644,7 @@
         <v>11.664999961853</v>
       </c>
       <c r="G2069" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59670,7 +59670,7 @@
         <v>11.6949996948242</v>
       </c>
       <c r="G2070" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59696,7 +59696,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2071" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59722,7 +59722,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59748,7 +59748,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59774,7 +59774,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2074" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59800,7 +59800,7 @@
         <v>12.9449996948242</v>
       </c>
       <c r="G2075" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59826,7 +59826,7 @@
         <v>12.8050003051758</v>
       </c>
       <c r="G2076" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59852,7 +59852,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G2077" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59878,7 +59878,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G2078" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59904,7 +59904,7 @@
         <v>12.5950002670288</v>
       </c>
       <c r="G2079" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59930,7 +59930,7 @@
         <v>12.6099996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59956,7 +59956,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2081" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59982,7 +59982,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2082" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -60008,7 +60008,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G2083" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -60034,7 +60034,7 @@
         <v>12.7950000762939</v>
       </c>
       <c r="G2084" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -60060,7 +60060,7 @@
         <v>12.7950000762939</v>
       </c>
       <c r="G2085" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -60086,7 +60086,7 @@
         <v>12.8100004196167</v>
       </c>
       <c r="G2086" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -60112,7 +60112,7 @@
         <v>12.9449996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -60138,7 +60138,7 @@
         <v>12.9949998855591</v>
       </c>
       <c r="G2088" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -60164,7 +60164,7 @@
         <v>12.914999961853</v>
       </c>
       <c r="G2089" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -60190,7 +60190,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2090" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -60216,7 +60216,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -60242,7 +60242,7 @@
         <v>13.2749996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -60268,7 +60268,7 @@
         <v>13.2550001144409</v>
       </c>
       <c r="G2093" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60294,7 +60294,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G2094" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60320,7 +60320,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G2095" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60346,7 +60346,7 @@
         <v>13.5649995803833</v>
       </c>
       <c r="G2096" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60372,7 +60372,7 @@
         <v>13.625</v>
       </c>
       <c r="G2097" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60398,7 +60398,7 @@
         <v>13.7849998474121</v>
       </c>
       <c r="G2098" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60424,7 +60424,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="G2099" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60450,7 +60450,7 @@
         <v>13.6750001907349</v>
       </c>
       <c r="G2100" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60476,7 +60476,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G2101" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60502,7 +60502,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="G2102" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60528,7 +60528,7 @@
         <v>13.6949996948242</v>
       </c>
       <c r="G2103" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60554,7 +60554,7 @@
         <v>13.7049999237061</v>
       </c>
       <c r="G2104" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60580,7 +60580,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60606,7 +60606,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60632,7 +60632,7 @@
         <v>13.5649995803833</v>
       </c>
       <c r="G2107" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60658,7 +60658,7 @@
         <v>13.5749998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60684,7 +60684,7 @@
         <v>13.6750001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60710,7 +60710,7 @@
         <v>13.3950004577637</v>
       </c>
       <c r="G2110" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60736,7 +60736,7 @@
         <v>13.4449996948242</v>
       </c>
       <c r="G2111" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60762,7 +60762,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G2112" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60788,7 +60788,7 @@
         <v>13.4949998855591</v>
       </c>
       <c r="G2113" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60814,7 +60814,7 @@
         <v>13.6149997711182</v>
       </c>
       <c r="G2114" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60840,7 +60840,7 @@
         <v>13.7049999237061</v>
       </c>
       <c r="G2115" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60866,7 +60866,7 @@
         <v>13.6450004577637</v>
       </c>
       <c r="G2116" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60892,7 +60892,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G2117" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60918,7 +60918,7 @@
         <v>13.4049997329712</v>
       </c>
       <c r="G2118" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60944,7 +60944,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G2119" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60970,7 +60970,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60996,7 +60996,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G2121" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -61022,7 +61022,7 @@
         <v>13.4750003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -61048,7 +61048,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G2123" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -61074,7 +61074,7 @@
         <v>13.9700002670288</v>
       </c>
       <c r="G2124" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -61100,7 +61100,7 @@
         <v>14</v>
       </c>
       <c r="G2125" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -61126,7 +61126,7 @@
         <v>14.1099996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -61152,7 +61152,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G2127" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -61178,7 +61178,7 @@
         <v>14.6099996566772</v>
       </c>
       <c r="G2128" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -61204,7 +61204,7 @@
         <v>14.9300003051758</v>
       </c>
       <c r="G2129" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -61230,7 +61230,7 @@
         <v>15.1949996948242</v>
       </c>
       <c r="G2130" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -61256,7 +61256,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G2131" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61282,7 +61282,7 @@
         <v>15.2449998855591</v>
       </c>
       <c r="G2132" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61308,7 +61308,7 @@
         <v>14.835000038147</v>
       </c>
       <c r="G2133" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61334,7 +61334,7 @@
         <v>14.625</v>
       </c>
       <c r="G2134" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61360,7 +61360,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2135" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61386,7 +61386,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61412,7 +61412,7 @@
         <v>14.6300001144409</v>
       </c>
       <c r="G2137" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61438,7 +61438,7 @@
         <v>14.664999961853</v>
       </c>
       <c r="G2138" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61464,7 +61464,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G2139" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61490,7 +61490,7 @@
         <v>14.4549999237061</v>
       </c>
       <c r="G2140" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61516,7 +61516,7 @@
         <v>14.5</v>
       </c>
       <c r="G2141" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61542,7 +61542,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G2142" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61550,7 +61550,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6502314815</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>1117397</v>
@@ -61568,9 +61568,35 @@
         <v>14.625</v>
       </c>
       <c r="G2143" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6493518519</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>2046158</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>14.539999961853</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>14.2849998474121</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>14.5050001144409</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>14.4200000762939</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="1835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="1836">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54330205917358</t>
+    <t xml:space="preserve">5.54330253601074</t>
   </si>
   <si>
     <t xml:space="preserve">MB.MI</t>
@@ -50,28 +50,28 @@
     <t xml:space="preserve">5.39810514450073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29485416412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16578960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13675022125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25936079025269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31744003295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25290822982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05285835266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81086349487305</t>
+    <t xml:space="preserve">5.29485368728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16579008102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1367506980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.259361743927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31744050979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25290870666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05285882949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81086301803589</t>
   </si>
   <si>
     <t xml:space="preserve">4.91088819503784</t>
@@ -80,67 +80,67 @@
     <t xml:space="preserve">4.71406555175781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9754204750061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99155378341675</t>
+    <t xml:space="preserve">4.97541999816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99155282974243</t>
   </si>
   <si>
     <t xml:space="preserve">4.83022356033325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90766096115112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8334493637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56886768341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75278425216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60436058044434</t>
+    <t xml:space="preserve">4.90766143798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83345031738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56886863708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75278472900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60436105728149</t>
   </si>
   <si>
     <t xml:space="preserve">4.47852325439453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2752480506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36881875991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25911474227905</t>
+    <t xml:space="preserve">4.27524757385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36881923675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25911426544189</t>
   </si>
   <si>
     <t xml:space="preserve">3.86224222183228</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6460599899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92032098770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71381855010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78480434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89450860023499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93000078201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00421285629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88805556297302</t>
+    <t xml:space="preserve">3.64606046676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92032146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71381902694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7848048210144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89450812339783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93000173568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00421333312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88805508613586</t>
   </si>
   <si>
     <t xml:space="preserve">3.85578918457031</t>
@@ -149,7 +149,7 @@
     <t xml:space="preserve">4.01066637039185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91064143180847</t>
+    <t xml:space="preserve">3.91064190864563</t>
   </si>
   <si>
     <t xml:space="preserve">3.8686957359314</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">4.36559247970581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38172578811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29783391952515</t>
+    <t xml:space="preserve">4.3817253112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29783344268799</t>
   </si>
   <si>
     <t xml:space="preserve">4.17522287368774</t>
@@ -182,37 +182,37 @@
     <t xml:space="preserve">4.23007535934448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24298143386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30751466751099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.681800365448</t>
+    <t xml:space="preserve">4.24298238754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30751419067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68179941177368</t>
   </si>
   <si>
     <t xml:space="preserve">4.7301983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57209539413452</t>
+    <t xml:space="preserve">4.57209491729736</t>
   </si>
   <si>
     <t xml:space="preserve">4.59145450592041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31074047088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34945917129517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37204551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29138088226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26234149932861</t>
+    <t xml:space="preserve">4.31073999404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34945964813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37204599380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29138040542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2623405456543</t>
   </si>
   <si>
     <t xml:space="preserve">4.14295673370361</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">4.16877031326294</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08487749099731</t>
+    <t xml:space="preserve">4.08487796783447</t>
   </si>
   <si>
     <t xml:space="preserve">4.04938554763794</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09133148193359</t>
+    <t xml:space="preserve">4.09133195877075</t>
   </si>
   <si>
     <t xml:space="preserve">4.01389265060425</t>
@@ -236,73 +236,73 @@
     <t xml:space="preserve">4.0526123046875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84933614730835</t>
+    <t xml:space="preserve">3.84933662414551</t>
   </si>
   <si>
     <t xml:space="preserve">4.07197141647339</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11714458465576</t>
+    <t xml:space="preserve">4.11714506149292</t>
   </si>
   <si>
     <t xml:space="preserve">4.03002595901489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23975610733032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31719303131104</t>
+    <t xml:space="preserve">4.23975563049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31719350814819</t>
   </si>
   <si>
     <t xml:space="preserve">4.24620819091797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51724290847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52046966552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6656665802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68502616882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69470548629761</t>
+    <t xml:space="preserve">4.51724338531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5204701423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66566610336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68502569198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69470596313477</t>
   </si>
   <si>
     <t xml:space="preserve">4.63017416000366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49788331985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32687282562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14941072463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11391830444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06229114532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13327741622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16231632232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20103549957275</t>
+    <t xml:space="preserve">4.49788236618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32687330245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14941024780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11391735076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06229162216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13327789306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16231679916382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20103597640991</t>
   </si>
   <si>
     <t xml:space="preserve">4.18812942504883</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17199659347534</t>
+    <t xml:space="preserve">4.1719970703125</t>
   </si>
   <si>
     <t xml:space="preserve">4.24943494796753</t>
@@ -314,49 +314,49 @@
     <t xml:space="preserve">4.5043363571167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60758781433105</t>
+    <t xml:space="preserve">4.6075873374939</t>
   </si>
   <si>
     <t xml:space="preserve">4.59790802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65276002883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63985347747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41399145126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38495254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27202129364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25588798522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18167638778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95258712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75899147987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61702132225037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71704530715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70413899421692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85256218910217</t>
+    <t xml:space="preserve">4.65276098251343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63985443115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41399192810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38495206832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27202081680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25588750839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18167591094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95258688926697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7589910030365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61702084541321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71704578399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7041392326355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85256290435791</t>
   </si>
   <si>
     <t xml:space="preserve">4.06551837921143</t>
@@ -365,25 +365,25 @@
     <t xml:space="preserve">4.12037086486816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09455728530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4266517162323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98912405967712</t>
+    <t xml:space="preserve">4.094557762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42665195465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98912382125854</t>
   </si>
   <si>
     <t xml:space="preserve">3.16206979751587</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27177405357361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3266270160675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35889291763306</t>
+    <t xml:space="preserve">3.27177453041077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32662677764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35889267921448</t>
   </si>
   <si>
     <t xml:space="preserve">3.21756768226624</t>
@@ -392,67 +392,67 @@
     <t xml:space="preserve">3.11431622505188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0407497882843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14529180526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41374468803406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67832589149475</t>
+    <t xml:space="preserve">3.04074954986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14529132843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41374516487122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67832636833191</t>
   </si>
   <si>
     <t xml:space="preserve">3.7073655128479</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82029676437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76544547080994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82997632026672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79448366165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83965682983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83320331573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86546921730042</t>
+    <t xml:space="preserve">3.82029700279236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76544451713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82997679710388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79448413848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83965659141541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83320307731628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86546945571899</t>
   </si>
   <si>
     <t xml:space="preserve">3.77512431144714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90741491317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901618003845</t>
+    <t xml:space="preserve">3.90741515159607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901594161987</t>
   </si>
   <si>
     <t xml:space="preserve">4.04293251037598</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96549415588379</t>
+    <t xml:space="preserve">3.96549439430237</t>
   </si>
   <si>
     <t xml:space="preserve">3.63960695266724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65251326560974</t>
+    <t xml:space="preserve">3.65251278877258</t>
   </si>
   <si>
     <t xml:space="preserve">3.97194743156433</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23652839660645</t>
+    <t xml:space="preserve">4.2365288734436</t>
   </si>
   <si>
     <t xml:space="preserve">4.20748901367188</t>
@@ -464,37 +464,37 @@
     <t xml:space="preserve">4.1784496307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11069107055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07519865036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0590648651123</t>
+    <t xml:space="preserve">4.11069059371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07519817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05906534194946</t>
   </si>
   <si>
     <t xml:space="preserve">3.946133852005</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98162698745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19135618209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15909099578857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22039461135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32364654541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42367219924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35591316223145</t>
+    <t xml:space="preserve">3.98162722587585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19135522842407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15909004211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22039556503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32364702224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42367124557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35591268539429</t>
   </si>
   <si>
     <t xml:space="preserve">4.47529697418213</t>
@@ -503,49 +503,49 @@
     <t xml:space="preserve">4.43657827377319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33332633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98485350608826</t>
+    <t xml:space="preserve">4.333327293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98485326766968</t>
   </si>
   <si>
     <t xml:space="preserve">4.04615879058838</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93645429611206</t>
+    <t xml:space="preserve">3.93645477294922</t>
   </si>
   <si>
     <t xml:space="preserve">4.02679920196533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03325271606445</t>
+    <t xml:space="preserve">4.03325319290161</t>
   </si>
   <si>
     <t xml:space="preserve">3.73317861557007</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78157734870911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71059250831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73640465736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72672557830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72995209693909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93322730064392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03647899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90096187591553</t>
+    <t xml:space="preserve">3.78157758712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71059203147888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73640537261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72672510147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72995281219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9332275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03647994995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90096211433411</t>
   </si>
   <si>
     <t xml:space="preserve">3.99776029586792</t>
@@ -566,19 +566,19 @@
     <t xml:space="preserve">4.52369594573975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33655261993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10423755645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28170108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42689847946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42044448852539</t>
+    <t xml:space="preserve">4.3365535736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10423803329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2817006111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42689800262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42044496536255</t>
   </si>
   <si>
     <t xml:space="preserve">4.54305601119995</t>
@@ -593,46 +593,46 @@
     <t xml:space="preserve">4.39140558242798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21394205093384</t>
+    <t xml:space="preserve">4.213942527771</t>
   </si>
   <si>
     <t xml:space="preserve">4.26442861557007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33847618103027</t>
+    <t xml:space="preserve">4.33847570419312</t>
   </si>
   <si>
     <t xml:space="preserve">4.27452611923218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23077011108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17355251312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0523853302002</t>
+    <t xml:space="preserve">4.23077058792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17355298995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05238580703735</t>
   </si>
   <si>
     <t xml:space="preserve">4.22403907775879</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38223123550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52022647857666</t>
+    <t xml:space="preserve">4.38223075866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52022743225098</t>
   </si>
   <si>
     <t xml:space="preserve">4.52695894241333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33511018753052</t>
+    <t xml:space="preserve">4.33510971069336</t>
   </si>
   <si>
     <t xml:space="preserve">4.76592826843262</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99480056762695</t>
+    <t xml:space="preserve">4.99480009078979</t>
   </si>
   <si>
     <t xml:space="preserve">5.13279724121094</t>
@@ -641,10 +641,10 @@
     <t xml:space="preserve">4.98806858062744</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01499509811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06884717941284</t>
+    <t xml:space="preserve">5.01499557495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06884813308716</t>
   </si>
   <si>
     <t xml:space="preserve">5.11596822738647</t>
@@ -653,22 +653,22 @@
     <t xml:space="preserve">5.28762245178223</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22703838348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25059938430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32801198959351</t>
+    <t xml:space="preserve">5.22703886032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2505989074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32801151275635</t>
   </si>
   <si>
     <t xml:space="preserve">5.29098796844482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27415895462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34147500991821</t>
+    <t xml:space="preserve">5.27415943145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34147453308105</t>
   </si>
   <si>
     <t xml:space="preserve">5.3381085395813</t>
@@ -683,19 +683,19 @@
     <t xml:space="preserve">5.22030735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33137702941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48620223999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51986074447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49293422698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51312828063965</t>
+    <t xml:space="preserve">5.3313775062561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48620271682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51986026763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49293375015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51312875747681</t>
   </si>
   <si>
     <t xml:space="preserve">5.26406192779541</t>
@@ -704,13 +704,13 @@
     <t xml:space="preserve">5.32128047943115</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31791400909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19338083267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40205860137939</t>
+    <t xml:space="preserve">5.3179144859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19338130950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40205812454224</t>
   </si>
   <si>
     <t xml:space="preserve">5.38186359405518</t>
@@ -719,13 +719,13 @@
     <t xml:space="preserve">5.34484052658081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42898464202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35157155990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43235063552856</t>
+    <t xml:space="preserve">5.42898416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35157251358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43235015869141</t>
   </si>
   <si>
     <t xml:space="preserve">5.73526954650879</t>
@@ -749,22 +749,22 @@
     <t xml:space="preserve">5.48283672332764</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2573299407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1462607383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30445146560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24386692047119</t>
+    <t xml:space="preserve">5.25733089447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.14626026153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30445098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24386739730835</t>
   </si>
   <si>
     <t xml:space="preserve">5.3986930847168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52659225463867</t>
+    <t xml:space="preserve">5.52659130096436</t>
   </si>
   <si>
     <t xml:space="preserve">5.49629974365234</t>
@@ -773,43 +773,43 @@
     <t xml:space="preserve">5.46600770950317</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4155216217041</t>
+    <t xml:space="preserve">5.41552209854126</t>
   </si>
   <si>
     <t xml:space="preserve">5.36503458023071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31118297576904</t>
+    <t xml:space="preserve">5.31118249893188</t>
   </si>
   <si>
     <t xml:space="preserve">5.1563572883606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01162958145142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04865312576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09240818023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28425693511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33474254608154</t>
+    <t xml:space="preserve">5.01162910461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0486536026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0924072265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28425645828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33474349975586</t>
   </si>
   <si>
     <t xml:space="preserve">5.52322578430176</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57034587860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5804443359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66122198104858</t>
+    <t xml:space="preserve">5.57034683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58044385910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66122245788574</t>
   </si>
   <si>
     <t xml:space="preserve">5.60400485992432</t>
@@ -821,19 +821,19 @@
     <t xml:space="preserve">5.60737037658691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61746835708618</t>
+    <t xml:space="preserve">5.61746740341187</t>
   </si>
   <si>
     <t xml:space="preserve">5.68478298187256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69824647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63766193389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70161199569702</t>
+    <t xml:space="preserve">5.69824695587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63766241073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70161247253418</t>
   </si>
   <si>
     <t xml:space="preserve">5.67805194854736</t>
@@ -842,37 +842,37 @@
     <t xml:space="preserve">5.71507453918457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68814849853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55015277862549</t>
+    <t xml:space="preserve">5.68814945220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55015230178833</t>
   </si>
   <si>
     <t xml:space="preserve">5.56024980545044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55688333511353</t>
+    <t xml:space="preserve">5.55688428878784</t>
   </si>
   <si>
     <t xml:space="preserve">5.59390783309937</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47947072982788</t>
+    <t xml:space="preserve">5.4794716835022</t>
   </si>
   <si>
     <t xml:space="preserve">5.42561912536621</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17991828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74873304367065</t>
+    <t xml:space="preserve">5.17991781234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7487325668335</t>
   </si>
   <si>
     <t xml:space="preserve">5.83624267578125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75546503067017</t>
+    <t xml:space="preserve">5.75546407699585</t>
   </si>
   <si>
     <t xml:space="preserve">5.71844053268433</t>
@@ -884,91 +884,91 @@
     <t xml:space="preserve">5.95741033554077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97760581970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09540700912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17955112457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14252805709839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12569952011108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10887002944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18628215789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15262508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17618608474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00453090667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02472496032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521200180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11896705627441</t>
+    <t xml:space="preserve">5.97760486602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09540748596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17955160140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14252758026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12569904327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10887050628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18628168106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1526255607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.176185131073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0045313835144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02472591400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0752124786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11896800994873</t>
   </si>
   <si>
     <t xml:space="preserve">6.15935611724854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12906408309937</t>
+    <t xml:space="preserve">6.12906455993652</t>
   </si>
   <si>
     <t xml:space="preserve">6.10213804244995</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01126194000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82277917861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68141794204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70497703552246</t>
+    <t xml:space="preserve">6.01126337051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82277965545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6814169883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70497846603394</t>
   </si>
   <si>
     <t xml:space="preserve">5.61073589324951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63092994689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72853755950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78239059448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7621955871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81941366195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73863554000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75882959365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65112638473511</t>
+    <t xml:space="preserve">5.63093090057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72853851318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78239107131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76219654083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81941413879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73863506317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75883054733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65112543106079</t>
   </si>
   <si>
     <t xml:space="preserve">5.5636157989502</t>
@@ -977,13 +977,13 @@
     <t xml:space="preserve">5.72180652618408</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70834302902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85307121276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83960914611816</t>
+    <t xml:space="preserve">5.70834398269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8530707359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83960819244385</t>
   </si>
   <si>
     <t xml:space="preserve">5.81604862213135</t>
@@ -992,28 +992,28 @@
     <t xml:space="preserve">5.923752784729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97423934936523</t>
+    <t xml:space="preserve">5.97423982620239</t>
   </si>
   <si>
     <t xml:space="preserve">5.90019273757935</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93721485137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97087383270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04491996765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10550403594971</t>
+    <t xml:space="preserve">5.93721532821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97087335586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04492044448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10550355911255</t>
   </si>
   <si>
     <t xml:space="preserve">6.05838346481323</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06174945831299</t>
+    <t xml:space="preserve">6.06174850463867</t>
   </si>
   <si>
     <t xml:space="preserve">5.86316871643066</t>
@@ -1022,7 +1022,7 @@
     <t xml:space="preserve">5.88336277008057</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94731378555298</t>
+    <t xml:space="preserve">5.94731283187866</t>
   </si>
   <si>
     <t xml:space="preserve">5.98770236968994</t>
@@ -1034,43 +1034,43 @@
     <t xml:space="preserve">5.9338493347168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92038726806641</t>
+    <t xml:space="preserve">5.92038774490356</t>
   </si>
   <si>
     <t xml:space="preserve">6.06511545181274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05501747131348</t>
+    <t xml:space="preserve">6.05501794815063</t>
   </si>
   <si>
     <t xml:space="preserve">5.9910683631897</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85643768310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9102897644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9035587310791</t>
+    <t xml:space="preserve">5.85643720626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91028928756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90355825424194</t>
   </si>
   <si>
     <t xml:space="preserve">5.84634017944336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74536609649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80258464813232</t>
+    <t xml:space="preserve">5.7453670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80258560180664</t>
   </si>
   <si>
     <t xml:space="preserve">5.69151449203491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87326669692993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94394731521606</t>
+    <t xml:space="preserve">5.87326622009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94394683837891</t>
   </si>
   <si>
     <t xml:space="preserve">5.87999773025513</t>
@@ -1079,79 +1079,79 @@
     <t xml:space="preserve">5.89009523391724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96414184570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05165243148804</t>
+    <t xml:space="preserve">5.96414136886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05165100097656</t>
   </si>
   <si>
     <t xml:space="preserve">6.03818893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07857751846313</t>
+    <t xml:space="preserve">6.07857799530029</t>
   </si>
   <si>
     <t xml:space="preserve">6.11223554611206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14925909042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09877252578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19301414489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13579702377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16608810424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13916158676147</t>
+    <t xml:space="preserve">6.14925956726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09877300262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19301462173462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13579607009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16608762741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13916206359863</t>
   </si>
   <si>
     <t xml:space="preserve">6.1694540977478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17281913757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16272115707397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21320867538452</t>
+    <t xml:space="preserve">6.1728196144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16272211074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21320915222168</t>
   </si>
   <si>
     <t xml:space="preserve">6.31754779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38149690628052</t>
+    <t xml:space="preserve">6.38149738311768</t>
   </si>
   <si>
     <t xml:space="preserve">6.33437633514404</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4218864440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48920154571533</t>
+    <t xml:space="preserve">6.42188692092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48920202255249</t>
   </si>
   <si>
     <t xml:space="preserve">6.46227550506592</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44208145141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5228590965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5161280632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65412616729736</t>
+    <t xml:space="preserve">6.4420804977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52285957336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51612854003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65412473678589</t>
   </si>
   <si>
     <t xml:space="preserve">6.63729572296143</t>
@@ -1160,34 +1160,34 @@
     <t xml:space="preserve">6.64739274978638</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64066219329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62046718597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65438604354858</t>
+    <t xml:space="preserve">6.64066123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62046670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6543869972229</t>
   </si>
   <si>
     <t xml:space="preserve">6.54948282241821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62990951538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62641191482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58794736862183</t>
+    <t xml:space="preserve">6.6299090385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6264123916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58794784545898</t>
   </si>
   <si>
     <t xml:space="preserve">6.51101875305176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6508903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78027057647705</t>
+    <t xml:space="preserve">6.65089082717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78027009963989</t>
   </si>
   <si>
     <t xml:space="preserve">6.71383190155029</t>
@@ -1202,19 +1202,19 @@
     <t xml:space="preserve">6.61941862106323</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64389657974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73131608963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70683860778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71033525466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67886352539062</t>
+    <t xml:space="preserve">6.64389562606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73131656646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70683908462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71033620834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67886304855347</t>
   </si>
   <si>
     <t xml:space="preserve">6.67187118530273</t>
@@ -1229,64 +1229,64 @@
     <t xml:space="preserve">6.60543155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66487693786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68935489654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68585824966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61592149734497</t>
+    <t xml:space="preserve">6.66487741470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68935441970825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68585872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61592197418213</t>
   </si>
   <si>
     <t xml:space="preserve">6.56347036361694</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69634771347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85370302200317</t>
+    <t xml:space="preserve">6.69634819030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85370349884033</t>
   </si>
   <si>
     <t xml:space="preserve">6.83272314071655</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83621978759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82572937011719</t>
+    <t xml:space="preserve">6.8362193107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82572984695435</t>
   </si>
   <si>
     <t xml:space="preserve">6.84671020507812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93412923812866</t>
+    <t xml:space="preserve">6.93412971496582</t>
   </si>
   <si>
     <t xml:space="preserve">6.96210384368896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02155017852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97609090805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97259473800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92713594436646</t>
+    <t xml:space="preserve">7.02154970169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9760913848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97259426116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9271354675293</t>
   </si>
   <si>
     <t xml:space="preserve">6.87468433380127</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89146900177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79775476455688</t>
+    <t xml:space="preserve">6.89146947860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79775524139404</t>
   </si>
   <si>
     <t xml:space="preserve">6.84810876846313</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">6.89426612854004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6928505897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80195093154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74879932403564</t>
+    <t xml:space="preserve">6.69285011291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80195045471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7487998008728</t>
   </si>
   <si>
     <t xml:space="preserve">6.79635667800903</t>
@@ -1319,28 +1319,28 @@
     <t xml:space="preserve">6.89286756515503</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91105079650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8830771446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90545558929443</t>
+    <t xml:space="preserve">6.91105127334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88307619094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90545654296875</t>
   </si>
   <si>
     <t xml:space="preserve">6.91804456710815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8341212272644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89986133575439</t>
+    <t xml:space="preserve">6.83412170410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89986085891724</t>
   </si>
   <si>
     <t xml:space="preserve">6.91384792327881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95161294937134</t>
+    <t xml:space="preserve">6.95161247253418</t>
   </si>
   <si>
     <t xml:space="preserve">6.85510158538818</t>
@@ -1352,16 +1352,16 @@
     <t xml:space="preserve">6.63130855560303</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73900890350342</t>
+    <t xml:space="preserve">6.73900938034058</t>
   </si>
   <si>
     <t xml:space="preserve">6.88167810440063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90405702590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89706420898438</t>
+    <t xml:space="preserve">6.90405750274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89706373214722</t>
   </si>
   <si>
     <t xml:space="preserve">6.83132362365723</t>
@@ -1370,37 +1370,37 @@
     <t xml:space="preserve">6.86069774627686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89566469192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84111547470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91664600372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80614757537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68166208267212</t>
+    <t xml:space="preserve">6.89566516876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84111499786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91664552688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80614805221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68166160583496</t>
   </si>
   <si>
     <t xml:space="preserve">6.63830089569092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67047214508057</t>
+    <t xml:space="preserve">6.67047262191772</t>
   </si>
   <si>
     <t xml:space="preserve">6.67746496200562</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70404100418091</t>
+    <t xml:space="preserve">6.70404148101807</t>
   </si>
   <si>
     <t xml:space="preserve">6.78376770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77537488937378</t>
+    <t xml:space="preserve">6.77537536621094</t>
   </si>
   <si>
     <t xml:space="preserve">6.85230493545532</t>
@@ -1409,115 +1409,115 @@
     <t xml:space="preserve">6.82712841033936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99217653274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08449172973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11246585845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583457946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3082857131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1614203453064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14743375778198</t>
+    <t xml:space="preserve">6.99217557907104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08449125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11246633529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583410263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30828523635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16141986846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14743423461914</t>
   </si>
   <si>
     <t xml:space="preserve">7.03903293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12645196914673</t>
+    <t xml:space="preserve">7.12645292282104</t>
   </si>
   <si>
     <t xml:space="preserve">7.00406503677368</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15093088150024</t>
+    <t xml:space="preserve">7.15092992782593</t>
   </si>
   <si>
     <t xml:space="preserve">7.18589782714844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99357509613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90265893936157</t>
+    <t xml:space="preserve">6.99357461929321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90265798568726</t>
   </si>
   <si>
     <t xml:space="preserve">6.95720815658569</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01455497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9642014503479</t>
+    <t xml:space="preserve">7.01455545425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96420192718506</t>
   </si>
   <si>
     <t xml:space="preserve">6.62850999832153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42289924621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31659603118896</t>
+    <t xml:space="preserve">6.42289876937866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31659650802612</t>
   </si>
   <si>
     <t xml:space="preserve">6.35716009140015</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20749711990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95852565765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59625816345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37246417999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75151586532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64241600036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78928136825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68997240066528</t>
+    <t xml:space="preserve">6.20749759674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95852613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59625911712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37246465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75151634216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64241647720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78928089141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68997287750244</t>
   </si>
   <si>
     <t xml:space="preserve">5.54450607299805</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72214365005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59346151351929</t>
+    <t xml:space="preserve">5.72214317321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59346103668213</t>
   </si>
   <si>
     <t xml:space="preserve">5.47457027435303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7417254447937</t>
+    <t xml:space="preserve">5.74172496795654</t>
   </si>
   <si>
     <t xml:space="preserve">5.66479635238647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76969957351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71095418930054</t>
+    <t xml:space="preserve">5.76969909667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71095323562622</t>
   </si>
   <si>
     <t xml:space="preserve">5.6410174369812</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">5.81166124343872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7529149055481</t>
+    <t xml:space="preserve">5.75291442871094</t>
   </si>
   <si>
     <t xml:space="preserve">5.89838123321533</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">5.53471565246582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56828451156616</t>
+    <t xml:space="preserve">5.568284034729</t>
   </si>
   <si>
     <t xml:space="preserve">5.54030990600586</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">5.75711107254028</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66619491577148</t>
+    <t xml:space="preserve">5.66619443893433</t>
   </si>
   <si>
     <t xml:space="preserve">5.702561378479</t>
@@ -1574,7 +1574,7 @@
     <t xml:space="preserve">5.53051900863647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55429744720459</t>
+    <t xml:space="preserve">5.55429697036743</t>
   </si>
   <si>
     <t xml:space="preserve">5.62842893600464</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">5.64801120758057</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69976329803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68577671051025</t>
+    <t xml:space="preserve">5.69976377487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6857762336731</t>
   </si>
   <si>
     <t xml:space="preserve">5.71934604644775</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">5.88719129562378</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95432996749878</t>
+    <t xml:space="preserve">5.95432949066162</t>
   </si>
   <si>
     <t xml:space="preserve">6.01027822494507</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12077713012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06622695922852</t>
+    <t xml:space="preserve">6.12077665328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06622743606567</t>
   </si>
   <si>
     <t xml:space="preserve">6.21309185028076</t>
@@ -1619,10 +1619,10 @@
     <t xml:space="preserve">6.17252922058105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07042360305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15014934539795</t>
+    <t xml:space="preserve">6.07042407989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15014886856079</t>
   </si>
   <si>
     <t xml:space="preserve">6.14595413208008</t>
@@ -1640,16 +1640,16 @@
     <t xml:space="preserve">5.81865406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94174146652222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87600183486938</t>
+    <t xml:space="preserve">5.94174098968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87600231170654</t>
   </si>
   <si>
     <t xml:space="preserve">5.8941855430603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99069690704346</t>
+    <t xml:space="preserve">5.9906964302063</t>
   </si>
   <si>
     <t xml:space="preserve">5.87040710449219</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">5.80186939239502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80746412277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79627466201782</t>
+    <t xml:space="preserve">5.80746459960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79627513885498</t>
   </si>
   <si>
     <t xml:space="preserve">5.76130723953247</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">5.7864842414856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60604953765869</t>
+    <t xml:space="preserve">5.60605001449585</t>
   </si>
   <si>
     <t xml:space="preserve">5.93195056915283</t>
@@ -1679,13 +1679,13 @@
     <t xml:space="preserve">6.12497329711914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07182168960571</t>
+    <t xml:space="preserve">6.07182121276855</t>
   </si>
   <si>
     <t xml:space="preserve">6.3403754234314</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30680561065674</t>
+    <t xml:space="preserve">6.30680513381958</t>
   </si>
   <si>
     <t xml:space="preserve">6.33897686004639</t>
@@ -1694,19 +1694,19 @@
     <t xml:space="preserve">6.29701471328735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31379985809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42150020599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44248151779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50961971282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41590595245361</t>
+    <t xml:space="preserve">6.3137993812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42150068283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44248104095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50961923599243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41590547561646</t>
   </si>
   <si>
     <t xml:space="preserve">6.41450691223145</t>
@@ -1715,34 +1715,34 @@
     <t xml:space="preserve">6.36834907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48723983764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47605085372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41170978546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01727151870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83404064178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86061668395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85222434997559</t>
+    <t xml:space="preserve">6.48723936080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47605180740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41171026229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01727199554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83404016494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8606162071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85222339630127</t>
   </si>
   <si>
     <t xml:space="preserve">5.75431346893311</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48575973510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53191709518433</t>
+    <t xml:space="preserve">5.48576021194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53191757202148</t>
   </si>
   <si>
     <t xml:space="preserve">5.41582441329956</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">5.3696665763855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37666034698486</t>
+    <t xml:space="preserve">5.37666082382202</t>
   </si>
   <si>
     <t xml:space="preserve">5.46058320999146</t>
@@ -1760,10 +1760,10 @@
     <t xml:space="preserve">5.39764070510864</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3458890914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5095386505127</t>
+    <t xml:space="preserve">5.34588861465454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50953769683838</t>
   </si>
   <si>
     <t xml:space="preserve">5.41022920608521</t>
@@ -1772,7 +1772,7 @@
     <t xml:space="preserve">5.42281818389893</t>
   </si>
   <si>
-    <t xml:space="preserve">5.239586353302</t>
+    <t xml:space="preserve">5.23958683013916</t>
   </si>
   <si>
     <t xml:space="preserve">5.44100141525269</t>
@@ -1781,19 +1781,19 @@
     <t xml:space="preserve">5.29413652420044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44519805908203</t>
+    <t xml:space="preserve">5.44519710540771</t>
   </si>
   <si>
     <t xml:space="preserve">5.4591851234436</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42141914367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54730367660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48436164855957</t>
+    <t xml:space="preserve">5.42141962051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54730415344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48436117172241</t>
   </si>
   <si>
     <t xml:space="preserve">5.46338129043579</t>
@@ -1802,13 +1802,13 @@
     <t xml:space="preserve">5.48715877532959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50254487991333</t>
+    <t xml:space="preserve">5.50254535675049</t>
   </si>
   <si>
     <t xml:space="preserve">5.4983491897583</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4256157875061</t>
+    <t xml:space="preserve">5.42561531066895</t>
   </si>
   <si>
     <t xml:space="preserve">5.50799083709717</t>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">5.70746898651123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73128795623779</t>
+    <t xml:space="preserve">5.73128747940063</t>
   </si>
   <si>
     <t xml:space="preserve">5.75659465789795</t>
@@ -1841,25 +1841,25 @@
     <t xml:space="preserve">5.81018590927124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84740161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74170827865601</t>
+    <t xml:space="preserve">5.84740114212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74170875549316</t>
   </si>
   <si>
     <t xml:space="preserve">5.75361728668213</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58093404769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5764684677124</t>
+    <t xml:space="preserve">5.58093357086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57646894454956</t>
   </si>
   <si>
     <t xml:space="preserve">5.44844484329224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42164945602417</t>
+    <t xml:space="preserve">5.42164897918701</t>
   </si>
   <si>
     <t xml:space="preserve">5.60028696060181</t>
@@ -1874,19 +1874,19 @@
     <t xml:space="preserve">5.58540058135986</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63452529907227</t>
+    <t xml:space="preserve">5.63452577590942</t>
   </si>
   <si>
     <t xml:space="preserve">5.73724174499512</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61219549179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47523975372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39187622070312</t>
+    <t xml:space="preserve">5.61219596862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4752402305603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39187574386597</t>
   </si>
   <si>
     <t xml:space="preserve">5.4901270866394</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">5.7268214225769</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69704914093018</t>
+    <t xml:space="preserve">5.69704818725586</t>
   </si>
   <si>
     <t xml:space="preserve">5.70002555847168</t>
@@ -1919,34 +1919,34 @@
     <t xml:space="preserve">5.70895767211914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70151376724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83251523971558</t>
+    <t xml:space="preserve">5.70151424407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">5.83995866775513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86377716064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88015222549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86080026626587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86526536941528</t>
+    <t xml:space="preserve">5.86377668380737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88015270233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86079978942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86526584625244</t>
   </si>
   <si>
     <t xml:space="preserve">5.87568616867065</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93672037124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86228895187378</t>
+    <t xml:space="preserve">5.9367208480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86228847503662</t>
   </si>
   <si>
     <t xml:space="preserve">5.81762886047363</t>
@@ -1958,19 +1958,19 @@
     <t xml:space="preserve">5.6538782119751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49310445785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45886564254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64345693588257</t>
+    <t xml:space="preserve">5.49310398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45886516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64345741271973</t>
   </si>
   <si>
     <t xml:space="preserve">5.76403760910034</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76999187469482</t>
+    <t xml:space="preserve">5.76999235153198</t>
   </si>
   <si>
     <t xml:space="preserve">5.87122011184692</t>
@@ -1985,22 +1985,22 @@
     <t xml:space="preserve">5.9694709777832</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1823468208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1972336769104</t>
+    <t xml:space="preserve">6.18234729766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19723415374756</t>
   </si>
   <si>
     <t xml:space="preserve">6.16894960403442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19127893447876</t>
+    <t xml:space="preserve">6.1912784576416</t>
   </si>
   <si>
     <t xml:space="preserve">6.12875604629517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14513063430786</t>
+    <t xml:space="preserve">6.14513111114502</t>
   </si>
   <si>
     <t xml:space="preserve">6.22254085540771</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">6.31930255889893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38629198074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56641721725464</t>
+    <t xml:space="preserve">6.38629150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5664176940918</t>
   </si>
   <si>
     <t xml:space="preserve">6.43392848968506</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">6.49198532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50240659713745</t>
+    <t xml:space="preserve">6.50240612030029</t>
   </si>
   <si>
     <t xml:space="preserve">6.62447500228882</t>
@@ -2057,19 +2057,19 @@
     <t xml:space="preserve">6.66317987442017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71230506896973</t>
+    <t xml:space="preserve">6.71230459213257</t>
   </si>
   <si>
     <t xml:space="preserve">6.65871381759644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59619140625</t>
+    <t xml:space="preserve">6.59619188308716</t>
   </si>
   <si>
     <t xml:space="preserve">6.64680576324463</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78376054763794</t>
+    <t xml:space="preserve">6.7837610244751</t>
   </si>
   <si>
     <t xml:space="preserve">6.8581919670105</t>
@@ -2078,13 +2078,13 @@
     <t xml:space="preserve">6.89392042160034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96090841293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86116981506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87754487991333</t>
+    <t xml:space="preserve">6.96090888977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86117029190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87754440307617</t>
   </si>
   <si>
     <t xml:space="preserve">6.91773748397827</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">6.96388673782349</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90285158157349</t>
+    <t xml:space="preserve">6.90285205841064</t>
   </si>
   <si>
     <t xml:space="preserve">6.92518186569214</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">7.15294456481934</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13210344314575</t>
+    <t xml:space="preserve">7.13210391998291</t>
   </si>
   <si>
     <t xml:space="preserve">7.07106876373291</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">6.96686363220215</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00705718994141</t>
+    <t xml:space="preserve">7.00705671310425</t>
   </si>
   <si>
     <t xml:space="preserve">7.13508129119873</t>
@@ -2132,10 +2132,10 @@
     <t xml:space="preserve">7.03385257720947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07404661178589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85223817825317</t>
+    <t xml:space="preserve">7.07404613494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223865509033</t>
   </si>
   <si>
     <t xml:space="preserve">6.69295215606689</t>
@@ -2144,13 +2144,13 @@
     <t xml:space="preserve">6.77929401397705</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62298631668091</t>
+    <t xml:space="preserve">6.62298679351807</t>
   </si>
   <si>
     <t xml:space="preserve">6.47561073303223</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64233922958374</t>
+    <t xml:space="preserve">6.64233875274658</t>
   </si>
   <si>
     <t xml:space="preserve">6.60065698623657</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">6.58428144454956</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47709894180298</t>
+    <t xml:space="preserve">6.47709941864014</t>
   </si>
   <si>
     <t xml:space="preserve">6.40117835998535</t>
@@ -2174,13 +2174,13 @@
     <t xml:space="preserve">6.32079124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23891544342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22998380661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1570405960083</t>
+    <t xml:space="preserve">6.23891496658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22998332977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15704011917114</t>
   </si>
   <si>
     <t xml:space="preserve">6.12131309509277</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">6.24635934829712</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27762079238892</t>
+    <t xml:space="preserve">6.27762031555176</t>
   </si>
   <si>
     <t xml:space="preserve">6.37289476394653</t>
@@ -2210,34 +2210,34 @@
     <t xml:space="preserve">6.34609842300415</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3446102142334</t>
+    <t xml:space="preserve">6.34460973739624</t>
   </si>
   <si>
     <t xml:space="preserve">6.48305368423462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58130502700806</t>
+    <t xml:space="preserve">6.5813045501709</t>
   </si>
   <si>
     <t xml:space="preserve">6.56046390533447</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61107730865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58874750137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72272491455078</t>
+    <t xml:space="preserve">6.61107683181763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58874797821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72272539138794</t>
   </si>
   <si>
     <t xml:space="preserve">6.76738548278809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74803352355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66169166564941</t>
+    <t xml:space="preserve">6.74803304672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66169118881226</t>
   </si>
   <si>
     <t xml:space="preserve">6.73761224746704</t>
@@ -2252,34 +2252,34 @@
     <t xml:space="preserve">7.01598882675171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95346593856812</t>
+    <t xml:space="preserve">6.95346641540527</t>
   </si>
   <si>
     <t xml:space="preserve">6.93113660812378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99663639068604</t>
+    <t xml:space="preserve">6.99663591384888</t>
   </si>
   <si>
     <t xml:space="preserve">6.98472738265991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99068212509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93857860565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01301193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97579574584961</t>
+    <t xml:space="preserve">6.99068260192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9385781288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01301145553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97579526901245</t>
   </si>
   <si>
     <t xml:space="preserve">6.99365949630737</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8477725982666</t>
+    <t xml:space="preserve">6.84777212142944</t>
   </si>
   <si>
     <t xml:space="preserve">6.88052225112915</t>
@@ -2288,13 +2288,13 @@
     <t xml:space="preserve">6.95644330978394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92964792251587</t>
+    <t xml:space="preserve">6.92964839935303</t>
   </si>
   <si>
     <t xml:space="preserve">6.94453430175781</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76440811157227</t>
+    <t xml:space="preserve">6.76440858840942</t>
   </si>
   <si>
     <t xml:space="preserve">6.73910093307495</t>
@@ -2303,22 +2303,22 @@
     <t xml:space="preserve">6.74952173233032</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57683849334717</t>
+    <t xml:space="preserve">6.57683897018433</t>
   </si>
   <si>
     <t xml:space="preserve">6.5187816619873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49942922592163</t>
+    <t xml:space="preserve">6.44583749771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49942970275879</t>
   </si>
   <si>
     <t xml:space="preserve">6.32674598693848</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31483697891235</t>
+    <t xml:space="preserve">6.3148365020752</t>
   </si>
   <si>
     <t xml:space="preserve">6.34758710861206</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">6.20021057128906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33270025253296</t>
+    <t xml:space="preserve">6.33270072937012</t>
   </si>
   <si>
     <t xml:space="preserve">6.38182592391968</t>
@@ -2336,19 +2336,19 @@
     <t xml:space="preserve">6.47858858108521</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52771282196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45328140258789</t>
+    <t xml:space="preserve">6.52771329879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45328044891357</t>
   </si>
   <si>
     <t xml:space="preserve">6.53366756439209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55599641799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6125659942627</t>
+    <t xml:space="preserve">6.55599689483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61256551742554</t>
   </si>
   <si>
     <t xml:space="preserve">6.70635080337524</t>
@@ -2357,37 +2357,37 @@
     <t xml:space="preserve">6.78822612762451</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0293869972229</t>
+    <t xml:space="preserve">7.02938747406006</t>
   </si>
   <si>
     <t xml:space="preserve">7.0457615852356</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13359212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08000135421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11572885513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18271684646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11423969268799</t>
+    <t xml:space="preserve">7.13359260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08000183105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11572933197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18271732330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11424016952515</t>
   </si>
   <si>
     <t xml:space="preserve">7.08446598052979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2199330329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42238903045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36582088470459</t>
+    <t xml:space="preserve">7.21993350982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4223895072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36582040786743</t>
   </si>
   <si>
     <t xml:space="preserve">7.3762412071228</t>
@@ -2399,40 +2399,40 @@
     <t xml:space="preserve">7.52138376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42536640167236</t>
+    <t xml:space="preserve">7.42536592483521</t>
   </si>
   <si>
     <t xml:space="preserve">7.45811653137207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42834424972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22291135787964</t>
+    <t xml:space="preserve">7.4283447265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22291088104248</t>
   </si>
   <si>
     <t xml:space="preserve">7.31074047088623</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27799081802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29734325408936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25417232513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26608228683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51021957397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67769193649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76328992843628</t>
+    <t xml:space="preserve">7.27799129486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29734373092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25417280197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26608180999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51022005081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67769241333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7632908821106</t>
   </si>
   <si>
     <t xml:space="preserve">7.87493753433228</t>
@@ -2441,28 +2441,28 @@
     <t xml:space="preserve">7.90471124649048</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88238143920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86005163192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93448305130005</t>
+    <t xml:space="preserve">7.88238191604614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86005210876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93448352813721</t>
   </si>
   <si>
     <t xml:space="preserve">8.0126371383667</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07218360900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06474018096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09451293945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94564819335938</t>
+    <t xml:space="preserve">8.07218456268311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06473922729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09451389312744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94564867019653</t>
   </si>
   <si>
     <t xml:space="preserve">7.92704010009766</t>
@@ -2471,40 +2471,40 @@
     <t xml:space="preserve">7.99030733108521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16150283813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10939979553223</t>
+    <t xml:space="preserve">8.16150188446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10940074920654</t>
   </si>
   <si>
     <t xml:space="preserve">8.02380275726318</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76701068878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9233193397522</t>
+    <t xml:space="preserve">7.7670111656189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92331886291504</t>
   </si>
   <si>
     <t xml:space="preserve">7.85260772705078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02844524383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99729537963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97393417358398</t>
+    <t xml:space="preserve">8.02844429016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99729633331299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97393369674683</t>
   </si>
   <si>
     <t xml:space="preserve">8.03623008728027</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00508403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9817214012146</t>
+    <t xml:space="preserve">8.00508308410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98172187805176</t>
   </si>
   <si>
     <t xml:space="preserve">8.04012489318848</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">7.90385103225708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82987546920776</t>
+    <t xml:space="preserve">7.82987499237061</t>
   </si>
   <si>
     <t xml:space="preserve">7.78704500198364</t>
@@ -2525,13 +2525,13 @@
     <t xml:space="preserve">7.82208824157715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84544849395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71696186065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87270259857178</t>
+    <t xml:space="preserve">7.84544897079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7169623374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87270355224609</t>
   </si>
   <si>
     <t xml:space="preserve">7.88438415527344</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">7.77614450454712</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85712909698486</t>
+    <t xml:space="preserve">7.85712957382202</t>
   </si>
   <si>
     <t xml:space="preserve">7.77925825119019</t>
@@ -2555,43 +2555,43 @@
     <t xml:space="preserve">7.70917510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64220714569092</t>
+    <t xml:space="preserve">7.64220666885376</t>
   </si>
   <si>
     <t xml:space="preserve">7.72007656097412</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64999341964722</t>
+    <t xml:space="preserve">7.64999389648438</t>
   </si>
   <si>
     <t xml:space="preserve">7.67179727554321</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74188137054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75433969497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70761775970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66556787490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66712522506714</t>
+    <t xml:space="preserve">7.74188089370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75434017181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70761728286743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66556739807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6671257019043</t>
   </si>
   <si>
     <t xml:space="preserve">7.56589317321777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64376449584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59236907958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53630352020264</t>
+    <t xml:space="preserve">7.64376401901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.592369556427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53630304336548</t>
   </si>
   <si>
     <t xml:space="preserve">7.55810737609863</t>
@@ -2600,22 +2600,22 @@
     <t xml:space="preserve">7.47089195251465</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40859460830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44597339630127</t>
+    <t xml:space="preserve">7.40859508514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44597387313843</t>
   </si>
   <si>
     <t xml:space="preserve">7.23260879516602</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45999002456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40392398834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21080493927002</t>
+    <t xml:space="preserve">7.45998954772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40392351150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21080541610718</t>
   </si>
   <si>
     <t xml:space="preserve">7.01768636703491</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">7.17498350143433</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26687145233154</t>
+    <t xml:space="preserve">7.26687097549438</t>
   </si>
   <si>
     <t xml:space="preserve">7.45375919342041</t>
@@ -2639,25 +2639,25 @@
     <t xml:space="preserve">7.51917123794556</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53941774368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54097509384155</t>
+    <t xml:space="preserve">7.5394172668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54097461700439</t>
   </si>
   <si>
     <t xml:space="preserve">7.4802360534668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50982666015625</t>
+    <t xml:space="preserve">7.50982713699341</t>
   </si>
   <si>
     <t xml:space="preserve">7.46777725219727</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32916736602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88997840881348</t>
+    <t xml:space="preserve">7.32916688919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88997793197632</t>
   </si>
   <si>
     <t xml:space="preserve">6.85727214813232</t>
@@ -2666,10 +2666,10 @@
     <t xml:space="preserve">6.81989526748657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6563663482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3775897026062</t>
+    <t xml:space="preserve">6.65636682510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37759017944336</t>
   </si>
   <si>
     <t xml:space="preserve">6.15332365036011</t>
@@ -2690,13 +2690,13 @@
     <t xml:space="preserve">4.82952547073364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49779748916626</t>
+    <t xml:space="preserve">4.49779796600342</t>
   </si>
   <si>
     <t xml:space="preserve">4.62550497055054</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76114296913147</t>
+    <t xml:space="preserve">3.76114273071289</t>
   </si>
   <si>
     <t xml:space="preserve">4.03213262557983</t>
@@ -2708,34 +2708,34 @@
     <t xml:space="preserve">3.47613763809204</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27445244789124</t>
+    <t xml:space="preserve">3.27445268630981</t>
   </si>
   <si>
     <t xml:space="preserve">3.24875521659851</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3118302822113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39203715324402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86393189430237</t>
+    <t xml:space="preserve">3.31183052062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39203691482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86393165588379</t>
   </si>
   <si>
     <t xml:space="preserve">4.16918420791626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.282874584198</t>
+    <t xml:space="preserve">4.28287506103516</t>
   </si>
   <si>
     <t xml:space="preserve">4.01967287063599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8740553855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9153265953064</t>
+    <t xml:space="preserve">3.87405490875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91532635688782</t>
   </si>
   <si>
     <t xml:space="preserve">3.89663815498352</t>
@@ -2762,10 +2762,10 @@
     <t xml:space="preserve">4.13492155075073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82266092300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89508032798767</t>
+    <t xml:space="preserve">3.82266068458557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89508008956909</t>
   </si>
   <si>
     <t xml:space="preserve">3.94336009025574</t>
@@ -2798,10 +2798,10 @@
     <t xml:space="preserve">4.02123069763184</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01344299316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00254201889038</t>
+    <t xml:space="preserve">4.01344347000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00254154205322</t>
   </si>
   <si>
     <t xml:space="preserve">4.04614877700806</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">4.11467504501343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93245768547058</t>
+    <t xml:space="preserve">3.93245792388916</t>
   </si>
   <si>
     <t xml:space="preserve">3.80475068092346</t>
@@ -2822,10 +2822,10 @@
     <t xml:space="preserve">4.06795263290405</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00409889221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94803237915039</t>
+    <t xml:space="preserve">4.00409936904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94803261756897</t>
   </si>
   <si>
     <t xml:space="preserve">4.0274600982666</t>
@@ -2834,10 +2834,10 @@
     <t xml:space="preserve">4.04147672653198</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27041625976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44484615325928</t>
+    <t xml:space="preserve">4.27041578292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44484567642212</t>
   </si>
   <si>
     <t xml:space="preserve">4.61148834228516</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">5.01797199249268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29051923751831</t>
+    <t xml:space="preserve">5.29051876068115</t>
   </si>
   <si>
     <t xml:space="preserve">5.28896141052246</t>
@@ -2876,10 +2876,10 @@
     <t xml:space="preserve">5.30142068862915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37929105758667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51478576660156</t>
+    <t xml:space="preserve">5.37929153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5147852897644</t>
   </si>
   <si>
     <t xml:space="preserve">5.48830938339233</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">5.31076526641846</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33568429946899</t>
+    <t xml:space="preserve">5.33568382263184</t>
   </si>
   <si>
     <t xml:space="preserve">5.03043174743652</t>
@@ -2903,13 +2903,13 @@
     <t xml:space="preserve">5.07248163223267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8684606552124</t>
+    <t xml:space="preserve">4.86846113204956</t>
   </si>
   <si>
     <t xml:space="preserve">5.08494091033936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97592210769653</t>
+    <t xml:space="preserve">4.97592258453369</t>
   </si>
   <si>
     <t xml:space="preserve">5.0351037979126</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">5.23600959777832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25937128067017</t>
+    <t xml:space="preserve">5.25937080383301</t>
   </si>
   <si>
     <t xml:space="preserve">5.26560020446777</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">5.39330816268921</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48675203323364</t>
+    <t xml:space="preserve">5.4867525100708</t>
   </si>
   <si>
     <t xml:space="preserve">5.49453973770142</t>
@@ -2960,19 +2960,19 @@
     <t xml:space="preserve">5.67675638198853</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57863998413086</t>
+    <t xml:space="preserve">5.5786395072937</t>
   </si>
   <si>
     <t xml:space="preserve">5.51322841644287</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47429370880127</t>
+    <t xml:space="preserve">5.47429323196411</t>
   </si>
   <si>
     <t xml:space="preserve">5.42289924621582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40265274047852</t>
+    <t xml:space="preserve">5.40265226364136</t>
   </si>
   <si>
     <t xml:space="preserve">5.25625610351562</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">5.27805948257446</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05379295349121</t>
+    <t xml:space="preserve">5.05379247665405</t>
   </si>
   <si>
     <t xml:space="preserve">5.13945007324219</t>
@@ -2993,7 +2993,7 @@
     <t xml:space="preserve">5.24691152572632</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31543731689453</t>
+    <t xml:space="preserve">5.31543779373169</t>
   </si>
   <si>
     <t xml:space="preserve">5.63003396987915</t>
@@ -3014,16 +3014,16 @@
     <t xml:space="preserve">5.60200023651123</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47585105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44314527511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60355806350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63470602035522</t>
+    <t xml:space="preserve">5.4758505821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44314479827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60355854034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63470649719238</t>
   </si>
   <si>
     <t xml:space="preserve">5.81380844116211</t>
@@ -3038,13 +3038,13 @@
     <t xml:space="preserve">5.67052698135376</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69700241088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68142890930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58175468444824</t>
+    <t xml:space="preserve">5.69700288772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6814284324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58175420761108</t>
   </si>
   <si>
     <t xml:space="preserve">5.56773805618286</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">5.75774145126343</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64093589782715</t>
+    <t xml:space="preserve">5.64093542098999</t>
   </si>
   <si>
     <t xml:space="preserve">5.65806722640991</t>
@@ -3086,22 +3086,22 @@
     <t xml:space="preserve">5.28740406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20641899108887</t>
+    <t xml:space="preserve">5.20641851425171</t>
   </si>
   <si>
     <t xml:space="preserve">5.21576309204102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17215585708618</t>
+    <t xml:space="preserve">5.17215633392334</t>
   </si>
   <si>
     <t xml:space="preserve">5.25781345367432</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43380117416382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56306552886963</t>
+    <t xml:space="preserve">5.43380069732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56306600570679</t>
   </si>
   <si>
     <t xml:space="preserve">5.43068552017212</t>
@@ -3125,19 +3125,19 @@
     <t xml:space="preserve">5.14879417419434</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17059850692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12543344497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17838525772095</t>
+    <t xml:space="preserve">5.17059803009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12543296813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17838573455811</t>
   </si>
   <si>
     <t xml:space="preserve">5.06158018112183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06780910491943</t>
+    <t xml:space="preserve">5.06780862808228</t>
   </si>
   <si>
     <t xml:space="preserve">5.11453151702881</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">5.96331930160522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87143230438232</t>
+    <t xml:space="preserve">5.87143278121948</t>
   </si>
   <si>
     <t xml:space="preserve">6.11750268936157</t>
@@ -3203,13 +3203,13 @@
     <t xml:space="preserve">5.82003784179688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90413761138916</t>
+    <t xml:space="preserve">5.90413808822632</t>
   </si>
   <si>
     <t xml:space="preserve">5.83561182022095</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91815519332886</t>
+    <t xml:space="preserve">5.9181547164917</t>
   </si>
   <si>
     <t xml:space="preserve">5.98200845718384</t>
@@ -3218,16 +3218,16 @@
     <t xml:space="preserve">5.9072527885437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86208772659302</t>
+    <t xml:space="preserve">5.86208820343018</t>
   </si>
   <si>
     <t xml:space="preserve">5.86987495422363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84651374816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7125768661499</t>
+    <t xml:space="preserve">5.84651327133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71257638931274</t>
   </si>
   <si>
     <t xml:space="preserve">5.72503614425659</t>
@@ -3239,22 +3239,22 @@
     <t xml:space="preserve">5.86520290374756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79667615890503</t>
+    <t xml:space="preserve">5.79667663574219</t>
   </si>
   <si>
     <t xml:space="preserve">5.75618457794189</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74372529983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89479351043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89946556091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76864337921143</t>
+    <t xml:space="preserve">5.74372482299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89479398727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89946603775024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76864385604858</t>
   </si>
   <si>
     <t xml:space="preserve">5.79044723510742</t>
@@ -3266,7 +3266,7 @@
     <t xml:space="preserve">5.99291038513184</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87766218185425</t>
+    <t xml:space="preserve">5.87766170501709</t>
   </si>
   <si>
     <t xml:space="preserve">5.83249711990356</t>
@@ -3275,10 +3275,10 @@
     <t xml:space="preserve">5.88389205932617</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84028434753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81692314147949</t>
+    <t xml:space="preserve">5.84028482437134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81692266464233</t>
   </si>
   <si>
     <t xml:space="preserve">5.74684000015259</t>
@@ -3299,7 +3299,7 @@
     <t xml:space="preserve">5.72036409378052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76085567474365</t>
+    <t xml:space="preserve">5.76085615158081</t>
   </si>
   <si>
     <t xml:space="preserve">5.73438024520874</t>
@@ -3308,25 +3308,25 @@
     <t xml:space="preserve">5.88544940948486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11906003952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29972076416016</t>
+    <t xml:space="preserve">6.11906051635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.299720287323</t>
   </si>
   <si>
     <t xml:space="preserve">6.38537740707397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5925121307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6532506942749</t>
+    <t xml:space="preserve">6.59251260757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65325117111206</t>
   </si>
   <si>
     <t xml:space="preserve">6.85260057449341</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94760227203369</t>
+    <t xml:space="preserve">6.94760179519653</t>
   </si>
   <si>
     <t xml:space="preserve">6.91956853866577</t>
@@ -3335,19 +3335,19 @@
     <t xml:space="preserve">7.03948974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98030757904053</t>
+    <t xml:space="preserve">6.98030710220337</t>
   </si>
   <si>
     <t xml:space="preserve">7.02547264099121</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9880952835083</t>
+    <t xml:space="preserve">6.98809480667114</t>
   </si>
   <si>
     <t xml:space="preserve">7.07063722610474</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06284999847412</t>
+    <t xml:space="preserve">7.06284952163696</t>
   </si>
   <si>
     <t xml:space="preserve">7.02858734130859</t>
@@ -3356,10 +3356,10 @@
     <t xml:space="preserve">6.97719287872314</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82923889160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71087646484375</t>
+    <t xml:space="preserve">6.82923936843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71087598800659</t>
   </si>
   <si>
     <t xml:space="preserve">6.94293022155762</t>
@@ -3371,7 +3371,7 @@
     <t xml:space="preserve">6.96940612792969</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05973625183105</t>
+    <t xml:space="preserve">7.0597357749939</t>
   </si>
   <si>
     <t xml:space="preserve">7.18121337890625</t>
@@ -3386,16 +3386,16 @@
     <t xml:space="preserve">7.31515073776245</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33072471618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36965990066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49581003189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5752387046814</t>
+    <t xml:space="preserve">7.33072423934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36965942382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49580955505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57523822784424</t>
   </si>
   <si>
     <t xml:space="preserve">7.57835340499878</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">7.3462986946106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30424880981445</t>
+    <t xml:space="preserve">7.30424928665161</t>
   </si>
   <si>
     <t xml:space="preserve">7.23883676528931</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">7.36810255050659</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37433195114136</t>
+    <t xml:space="preserve">7.37433242797852</t>
   </si>
   <si>
     <t xml:space="preserve">7.38990592956543</t>
@@ -3425,10 +3425,10 @@
     <t xml:space="preserve">7.51294136047363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36343145370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31359338760376</t>
+    <t xml:space="preserve">7.36343097686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31359386444092</t>
   </si>
   <si>
     <t xml:space="preserve">7.32605266571045</t>
@@ -3437,13 +3437,13 @@
     <t xml:space="preserve">7.23105144500732</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26842880249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28088712692261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27154350280762</t>
+    <t xml:space="preserve">7.26842832565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28088760375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27154397964478</t>
   </si>
   <si>
     <t xml:space="preserve">7.24662494659424</t>
@@ -3452,22 +3452,22 @@
     <t xml:space="preserve">7.31670808792114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31203603744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16408252716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09244108200073</t>
+    <t xml:space="preserve">7.31203651428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16408205032349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09244060516357</t>
   </si>
   <si>
     <t xml:space="preserve">7.1095724105835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09711360931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29957675933838</t>
+    <t xml:space="preserve">7.09711408615112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29957628250122</t>
   </si>
   <si>
     <t xml:space="preserve">7.26998615264893</t>
@@ -3476,16 +3476,16 @@
     <t xml:space="preserve">7.29023265838623</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32138013839722</t>
+    <t xml:space="preserve">7.32137966156006</t>
   </si>
   <si>
     <t xml:space="preserve">7.39769315719604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24039459228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37744665145874</t>
+    <t xml:space="preserve">7.24039506912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3774471282959</t>
   </si>
   <si>
     <t xml:space="preserve">7.41793918609619</t>
@@ -3500,7 +3500,7 @@
     <t xml:space="preserve">7.4895806312561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56433582305908</t>
+    <t xml:space="preserve">7.56433629989624</t>
   </si>
   <si>
     <t xml:space="preserve">7.61728811264038</t>
@@ -3512,7 +3512,7 @@
     <t xml:space="preserve">7.53786134719849</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54564666748047</t>
+    <t xml:space="preserve">7.54564714431763</t>
   </si>
   <si>
     <t xml:space="preserve">7.53163051605225</t>
@@ -3530,19 +3530,19 @@
     <t xml:space="preserve">7.63286161422729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70138883590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76368474960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79872608184814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79483318328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7481107711792</t>
+    <t xml:space="preserve">7.70138835906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76368427276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79872560501099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79483366012573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74810981750488</t>
   </si>
   <si>
     <t xml:space="preserve">7.76056909561157</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">7.75589752197266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74655294418335</t>
+    <t xml:space="preserve">7.74655246734619</t>
   </si>
   <si>
     <t xml:space="preserve">7.72319173812866</t>
@@ -3569,31 +3569,31 @@
     <t xml:space="preserve">7.66245317459106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71229028701782</t>
+    <t xml:space="preserve">7.71229076385498</t>
   </si>
   <si>
     <t xml:space="preserve">7.77458763122559</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76835632324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68892860412598</t>
+    <t xml:space="preserve">7.76835584640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68892908096313</t>
   </si>
   <si>
     <t xml:space="preserve">7.67023992538452</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68114185333252</t>
+    <t xml:space="preserve">7.68114233016968</t>
   </si>
   <si>
     <t xml:space="preserve">7.67491245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86102294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.625075340271</t>
+    <t xml:space="preserve">7.86102247238159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62507486343384</t>
   </si>
   <si>
     <t xml:space="preserve">7.6344199180603</t>
@@ -3608,13 +3608,13 @@
     <t xml:space="preserve">7.67646980285645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69360113143921</t>
+    <t xml:space="preserve">7.69360160827637</t>
   </si>
   <si>
     <t xml:space="preserve">7.62974739074707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57679605484009</t>
+    <t xml:space="preserve">7.57679557800293</t>
   </si>
   <si>
     <t xml:space="preserve">7.33383989334106</t>
@@ -3626,16 +3626,16 @@
     <t xml:space="preserve">7.72474908828735</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8065128326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78081512451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78237390518188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73253726959229</t>
+    <t xml:space="preserve">7.80651378631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78081560134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78237342834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73253774642944</t>
   </si>
   <si>
     <t xml:space="preserve">7.69827318191528</t>
@@ -3647,28 +3647,28 @@
     <t xml:space="preserve">7.69983053207397</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77770137786865</t>
+    <t xml:space="preserve">7.77770090103149</t>
   </si>
   <si>
     <t xml:space="preserve">7.79093885421753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67802715301514</t>
+    <t xml:space="preserve">7.67802667617798</t>
   </si>
   <si>
     <t xml:space="preserve">7.77147197723389</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76679944992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66401052474976</t>
+    <t xml:space="preserve">7.7667989730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6640100479126</t>
   </si>
   <si>
     <t xml:space="preserve">7.65778064727783</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52384328842163</t>
+    <t xml:space="preserve">7.52384376525879</t>
   </si>
   <si>
     <t xml:space="preserve">7.57991075515747</t>
@@ -3680,28 +3680,28 @@
     <t xml:space="preserve">7.74343824386597</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77302980422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59704208374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74032258987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86491537094116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98561477661133</t>
+    <t xml:space="preserve">7.77303028106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59704160690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74032306671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86491584777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98561573028564</t>
   </si>
   <si>
     <t xml:space="preserve">7.83376884460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04791069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12967586517334</t>
+    <t xml:space="preserve">8.04791164398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12967491149902</t>
   </si>
   <si>
     <t xml:space="preserve">8.20754718780518</t>
@@ -3713,37 +3713,37 @@
     <t xml:space="preserve">8.26205539703369</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01287078857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95836067199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70450305938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88049077987671</t>
+    <t xml:space="preserve">8.0128698348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95836114883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70450258255005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88049030303955</t>
   </si>
   <si>
     <t xml:space="preserve">7.91553163528442</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93499851226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04401779174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09463405609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12188911437988</t>
+    <t xml:space="preserve">7.93499946594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04401874542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09463500976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1218900680542</t>
   </si>
   <si>
     <t xml:space="preserve">8.07127285003662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0323371887207</t>
+    <t xml:space="preserve">8.03233814239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.16082382202148</t>
@@ -3785,328 +3785,328 @@
     <t xml:space="preserve">8.27373600006104</t>
   </si>
   <si>
+    <t xml:space="preserve">8.22312164306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43908023834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24637889862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24471569061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95898294448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07693099975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11514091491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13507461547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15667057037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14504146575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31864166259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48476505279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39339637756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35601997375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33940696716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23807239532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28956985473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28790760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38093852996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33525371551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03207874298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16829872131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21149063110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34356021881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39754962921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46399974822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63427639007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65088844299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63012313842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62596988677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61766338348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68411350250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79624652862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72979831695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64673519134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58028697967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59689903259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56782627105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13175296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17992782592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30618190765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57197952270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65919494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32694816589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60520458221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78794002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76302242279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69657325744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44323444366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62181663513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41831588745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47645854949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30285930633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19321823120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19820213317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76295804977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78621530532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74634552001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1399941444397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19149303436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13833284378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5386266708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35755157470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49875688552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0851731300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7479419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78116703033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06025457382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11341428756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59185075759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54865884780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71644258499146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5469970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61344623565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49715995788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.528724193573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71976518630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58852767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65829992294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79950523376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60181760787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45230722427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35927677154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51211166381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50214290618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42074346542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59517335891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68321847915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67159032821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87426090240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9539999961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66660642623901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256692886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8809061050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98390245437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42246913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27295684814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01380443572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99054718017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12178516387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0603199005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24305534362793</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.22312068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4390811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24637794494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24471569061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95898294448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07693195343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11513996124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13507461547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15667057037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14504146575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31864166259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48476505279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39339637756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35601902008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33940696716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23807239532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28956985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28790760040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38093852996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33525466918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03207874298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16829872131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21149063110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34356021881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39755058288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46399974822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63427639007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65088844299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63012313842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6259708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61766338348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68411445617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79624652862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72979831695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64673519134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58028602600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59689903259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56782627105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13175201416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17992782592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30618286132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57197952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65919494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32694721221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60520458221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78794002532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76302242279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69657230377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44323444366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62181758880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41831493377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47645854949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30285930633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19321823120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19820213317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76295757293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78621482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74634647369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1399941444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19149255752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13833284378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5386266708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35755157470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49875688552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0851731300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7479419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78116703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06025457382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11341428756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59185123443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54865884780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71644306182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5469970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6134467124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49715995788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52872371673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71976518630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58852767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65829992294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79950475692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6018180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45230722427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35927677154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5121111869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50214290618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42074346542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59517335891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68321895599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67158985137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87426042556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9539999961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66660642623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256645202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88090562820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98390245437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4224681854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27295780181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01380443572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99054718017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12178421020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0603199005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24305534362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22311973571777</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.23308753967285</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03374004364014</t>
+    <t xml:space="preserve">8.03373908996582</t>
   </si>
   <si>
     <t xml:space="preserve">7.95067691802979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89087247848511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93904781341553</t>
+    <t xml:space="preserve">7.89087295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93904829025269</t>
   </si>
   <si>
     <t xml:space="preserve">7.75465250015259</t>
@@ -4115,40 +4115,40 @@
     <t xml:space="preserve">7.83937406539917</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9739351272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91413068771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97559595108032</t>
+    <t xml:space="preserve">7.97393465042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91413021087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97559547424316</t>
   </si>
   <si>
     <t xml:space="preserve">7.93572568893433</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82608509063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92409753799438</t>
+    <t xml:space="preserve">7.82608461380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92409706115723</t>
   </si>
   <si>
     <t xml:space="preserve">8.04536819458008</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00715923309326</t>
+    <t xml:space="preserve">8.00716018676758</t>
   </si>
   <si>
     <t xml:space="preserve">8.20650768280029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01712703704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.488853931427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37256765365601</t>
+    <t xml:space="preserve">8.01712799072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48885345458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37256717681885</t>
   </si>
   <si>
     <t xml:space="preserve">7.44067859649658</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">7.13501071929932</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2014594078064</t>
+    <t xml:space="preserve">7.20145988464355</t>
   </si>
   <si>
     <t xml:space="preserve">7.174880027771</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">7.01374053955078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16657447814941</t>
+    <t xml:space="preserve">7.16657400131226</t>
   </si>
   <si>
     <t xml:space="preserve">7.0120792388916</t>
@@ -4184,7 +4184,7 @@
     <t xml:space="preserve">7.09846305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05028676986694</t>
+    <t xml:space="preserve">7.0502872467041</t>
   </si>
   <si>
     <t xml:space="preserve">6.85924530029297</t>
@@ -4193,13 +4193,13 @@
     <t xml:space="preserve">6.85426139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82103681564331</t>
+    <t xml:space="preserve">6.82103633880615</t>
   </si>
   <si>
     <t xml:space="preserve">6.65491342544556</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75292634963989</t>
+    <t xml:space="preserve">6.75292587280273</t>
   </si>
   <si>
     <t xml:space="preserve">6.89579248428345</t>
@@ -4211,7 +4211,7 @@
     <t xml:space="preserve">6.93067789077759</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84761667251587</t>
+    <t xml:space="preserve">6.84761714935303</t>
   </si>
   <si>
     <t xml:space="preserve">6.78947305679321</t>
@@ -4223,7 +4223,7 @@
     <t xml:space="preserve">6.46553230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62168788909912</t>
+    <t xml:space="preserve">6.62168836593628</t>
   </si>
   <si>
     <t xml:space="preserve">6.76289319992065</t>
@@ -4244,10 +4244,10 @@
     <t xml:space="preserve">6.6632194519043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78781175613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94396829605103</t>
+    <t xml:space="preserve">6.78781223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94396781921387</t>
   </si>
   <si>
     <t xml:space="preserve">6.99048280715942</t>
@@ -4268,28 +4268,28 @@
     <t xml:space="preserve">7.10344696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09347915649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11175346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1815242767334</t>
+    <t xml:space="preserve">7.0934796333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11175298690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18152475357056</t>
   </si>
   <si>
     <t xml:space="preserve">7.22970104217529</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23800754547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17820262908936</t>
+    <t xml:space="preserve">7.23800706863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1782021522522</t>
   </si>
   <si>
     <t xml:space="preserve">7.14996147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88416433334351</t>
+    <t xml:space="preserve">6.88416385650635</t>
   </si>
   <si>
     <t xml:space="preserve">6.69976663589478</t>
@@ -4316,7 +4316,7 @@
     <t xml:space="preserve">6.56852865219116</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49045038223267</t>
+    <t xml:space="preserve">6.49045085906982</t>
   </si>
   <si>
     <t xml:space="preserve">6.73797559738159</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">6.92237186431885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87751865386963</t>
+    <t xml:space="preserve">6.87751817703247</t>
   </si>
   <si>
     <t xml:space="preserve">6.62999439239502</t>
@@ -4370,10 +4370,10 @@
     <t xml:space="preserve">6.5070629119873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44227457046509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32266569137573</t>
+    <t xml:space="preserve">6.44227504730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32266616821289</t>
   </si>
   <si>
     <t xml:space="preserve">6.69478321075439</t>
@@ -4382,22 +4382,22 @@
     <t xml:space="preserve">7.03699779510498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92071104049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65657424926758</t>
+    <t xml:space="preserve">6.92071056365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65657472610474</t>
   </si>
   <si>
     <t xml:space="preserve">6.6167049407959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60175323486328</t>
+    <t xml:space="preserve">6.60175371170044</t>
   </si>
   <si>
     <t xml:space="preserve">6.51370811462402</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70973443984985</t>
+    <t xml:space="preserve">6.7097339630127</t>
   </si>
   <si>
     <t xml:space="preserve">6.89413166046143</t>
@@ -4415,13 +4415,13 @@
     <t xml:space="preserve">7.31442403793335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32273006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5503191947937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58520555496216</t>
+    <t xml:space="preserve">7.32273054122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55031967163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.585205078125</t>
   </si>
   <si>
     <t xml:space="preserve">7.61842966079712</t>
@@ -4430,19 +4430,19 @@
     <t xml:space="preserve">7.57855987548828</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67823505401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63836479187012</t>
+    <t xml:space="preserve">7.67823457717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63836526870728</t>
   </si>
   <si>
     <t xml:space="preserve">7.80614995956421</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00051403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03872394561768</t>
+    <t xml:space="preserve">8.00051498413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03872299194336</t>
   </si>
   <si>
     <t xml:space="preserve">8.09354400634766</t>
@@ -4454,10 +4454,10 @@
     <t xml:space="preserve">8.26797389984131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45153999328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44526290893555</t>
+    <t xml:space="preserve">8.45154094696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44526386260986</t>
   </si>
   <si>
     <t xml:space="preserve">8.44884967803955</t>
@@ -4475,31 +4475,31 @@
     <t xml:space="preserve">8.29999446868896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26233291625977</t>
+    <t xml:space="preserve">8.26233386993408</t>
   </si>
   <si>
     <t xml:space="preserve">8.21749687194824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23722457885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26412677764893</t>
+    <t xml:space="preserve">8.23722553253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26412582397461</t>
   </si>
   <si>
     <t xml:space="preserve">8.20673751831055</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15293502807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17804145812988</t>
+    <t xml:space="preserve">8.15293407440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1780424118042</t>
   </si>
   <si>
     <t xml:space="preserve">8.23363876342773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21570491790771</t>
+    <t xml:space="preserve">8.2157039642334</t>
   </si>
   <si>
     <t xml:space="preserve">8.35021209716797</t>
@@ -4514,22 +4514,22 @@
     <t xml:space="preserve">7.98793888092041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01304721832275</t>
+    <t xml:space="preserve">8.01304626464844</t>
   </si>
   <si>
     <t xml:space="preserve">8.03994750976562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18342304229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0829906463623</t>
+    <t xml:space="preserve">8.18342208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08298969268799</t>
   </si>
   <si>
     <t xml:space="preserve">8.09913063049316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10092449188232</t>
+    <t xml:space="preserve">8.10092544555664</t>
   </si>
   <si>
     <t xml:space="preserve">8.04891490936279</t>
@@ -4538,7 +4538,7 @@
     <t xml:space="preserve">8.16548824310303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0560884475708</t>
+    <t xml:space="preserve">8.05608940124512</t>
   </si>
   <si>
     <t xml:space="preserve">8.10989189147949</t>
@@ -4550,16 +4550,16 @@
     <t xml:space="preserve">8.32689762115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31255054473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30716896057129</t>
+    <t xml:space="preserve">8.31254959106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30716991424561</t>
   </si>
   <si>
     <t xml:space="preserve">8.38966655731201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4362964630127</t>
+    <t xml:space="preserve">8.43629550933838</t>
   </si>
   <si>
     <t xml:space="preserve">8.56542301177979</t>
@@ -4571,13 +4571,13 @@
     <t xml:space="preserve">8.66585445404053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6443338394165</t>
+    <t xml:space="preserve">8.64433479309082</t>
   </si>
   <si>
     <t xml:space="preserve">8.660475730896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56362915039062</t>
+    <t xml:space="preserve">8.56363010406494</t>
   </si>
   <si>
     <t xml:space="preserve">8.46140384674072</t>
@@ -4589,7 +4589,7 @@
     <t xml:space="preserve">8.62998580932617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68378925323486</t>
+    <t xml:space="preserve">8.68379020690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.73579883575439</t>
@@ -4598,19 +4598,19 @@
     <t xml:space="preserve">8.84699153900146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87927436828613</t>
+    <t xml:space="preserve">8.87927341461182</t>
   </si>
   <si>
     <t xml:space="preserve">8.91155529022217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83802509307861</t>
+    <t xml:space="preserve">8.8380241394043</t>
   </si>
   <si>
     <t xml:space="preserve">8.94025039672852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96356582641602</t>
+    <t xml:space="preserve">8.9635648727417</t>
   </si>
   <si>
     <t xml:space="preserve">9.00302028656006</t>
@@ -4619,28 +4619,28 @@
     <t xml:space="preserve">9.09717559814453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11959362030029</t>
+    <t xml:space="preserve">9.11959266662598</t>
   </si>
   <si>
     <t xml:space="preserve">9.15097808837891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2899694442749</t>
+    <t xml:space="preserve">9.28996849060059</t>
   </si>
   <si>
     <t xml:space="preserve">9.14649486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29893589019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33480453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18684673309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21823120117188</t>
+    <t xml:space="preserve">9.29893684387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33480548858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18684577941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21823215484619</t>
   </si>
   <si>
     <t xml:space="preserve">9.19581413269043</t>
@@ -4652,10 +4652,10 @@
     <t xml:space="preserve">9.07027339935303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9599781036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9806022644043</t>
+    <t xml:space="preserve">8.95997714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98060321807861</t>
   </si>
   <si>
     <t xml:space="preserve">8.81470966339111</t>
@@ -4667,49 +4667,49 @@
     <t xml:space="preserve">9.05682373046875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94204425811768</t>
+    <t xml:space="preserve">8.94204330444336</t>
   </si>
   <si>
     <t xml:space="preserve">8.93128299713135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02992057800293</t>
+    <t xml:space="preserve">9.02992153167725</t>
   </si>
   <si>
     <t xml:space="preserve">9.08820819854736</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03440570831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09269142150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97163581848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72145175933838</t>
+    <t xml:space="preserve">9.03440475463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09269237518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97163486480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72145080566406</t>
   </si>
   <si>
     <t xml:space="preserve">8.33048439025879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54031467437744</t>
+    <t xml:space="preserve">8.54031562805176</t>
   </si>
   <si>
     <t xml:space="preserve">8.06146907806396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03098201751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93592977523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25874614715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14934825897217</t>
+    <t xml:space="preserve">8.03098106384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93592929840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25874710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14934730529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.06505680084229</t>
@@ -4718,7 +4718,7 @@
     <t xml:space="preserve">8.02560043334961</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12244510650635</t>
+    <t xml:space="preserve">8.12244606018066</t>
   </si>
   <si>
     <t xml:space="preserve">8.24798583984375</t>
@@ -4727,16 +4727,16 @@
     <t xml:space="preserve">8.31075572967529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34124374389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33945083618164</t>
+    <t xml:space="preserve">8.3412446975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33945178985596</t>
   </si>
   <si>
     <t xml:space="preserve">8.26592063903809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46857833862305</t>
+    <t xml:space="preserve">8.46857738494873</t>
   </si>
   <si>
     <t xml:space="preserve">8.46499061584473</t>
@@ -4748,7 +4748,7 @@
     <t xml:space="preserve">8.64253997802734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57080268859863</t>
+    <t xml:space="preserve">8.57080364227295</t>
   </si>
   <si>
     <t xml:space="preserve">8.7429723739624</t>
@@ -4757,7 +4757,7 @@
     <t xml:space="preserve">8.77525520324707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70172500610352</t>
+    <t xml:space="preserve">8.7017240524292</t>
   </si>
   <si>
     <t xml:space="preserve">8.76987361907959</t>
@@ -4766,13 +4766,13 @@
     <t xml:space="preserve">8.72683238983154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75373363494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82905673980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72503757476807</t>
+    <t xml:space="preserve">8.75373268127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82905769348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72503852844238</t>
   </si>
   <si>
     <t xml:space="preserve">8.42732906341553</t>
@@ -4787,13 +4787,13 @@
     <t xml:space="preserve">8.94921684265137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96715068817139</t>
+    <t xml:space="preserve">8.9671516418457</t>
   </si>
   <si>
     <t xml:space="preserve">8.906174659729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93307590484619</t>
+    <t xml:space="preserve">8.93307685852051</t>
   </si>
   <si>
     <t xml:space="preserve">8.68737602233887</t>
@@ -4808,7 +4808,7 @@
     <t xml:space="preserve">8.81291675567627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83443832397461</t>
+    <t xml:space="preserve">8.83443737030029</t>
   </si>
   <si>
     <t xml:space="preserve">8.91514205932617</t>
@@ -4823,10 +4823,10 @@
     <t xml:space="preserve">9.32583713531494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36618900299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26755142211914</t>
+    <t xml:space="preserve">9.36618995666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26755046844482</t>
   </si>
   <si>
     <t xml:space="preserve">9.2630672454834</t>
@@ -4835,7 +4835,7 @@
     <t xml:space="preserve">9.23168277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52759838104248</t>
+    <t xml:space="preserve">9.5275993347168</t>
   </si>
   <si>
     <t xml:space="preserve">9.59933567047119</t>
@@ -4856,16 +4856,16 @@
     <t xml:space="preserve">9.81454658508301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91767024993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0252752304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1418485641479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0342426300049</t>
+    <t xml:space="preserve">9.91766929626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.025276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1418495178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0342416763306</t>
   </si>
   <si>
     <t xml:space="preserve">10.0656280517578</t>
@@ -4877,13 +4877,13 @@
     <t xml:space="preserve">9.93560409545898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96698951721191</t>
+    <t xml:space="preserve">9.9669885635376</t>
   </si>
   <si>
     <t xml:space="preserve">9.7697114944458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64865589141846</t>
+    <t xml:space="preserve">9.64865493774414</t>
   </si>
   <si>
     <t xml:space="preserve">9.63072109222412</t>
@@ -4898,7 +4898,7 @@
     <t xml:space="preserve">9.82799816131592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98043918609619</t>
+    <t xml:space="preserve">9.98044013977051</t>
   </si>
   <si>
     <t xml:space="preserve">9.98940753936768</t>
@@ -4913,13 +4913,13 @@
     <t xml:space="preserve">9.87731742858887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88628482818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0701112747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1328811645508</t>
+    <t xml:space="preserve">9.88628387451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0701103210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1328821182251</t>
   </si>
   <si>
     <t xml:space="preserve">10.1239137649536</t>
@@ -4931,7 +4931,7 @@
     <t xml:space="preserve">10.3032569885254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2584209442139</t>
+    <t xml:space="preserve">10.2584218978882</t>
   </si>
   <si>
     <t xml:space="preserve">10.3301591873169</t>
@@ -4943,10 +4943,10 @@
     <t xml:space="preserve">10.3570604324341</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3660268783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3391256332397</t>
+    <t xml:space="preserve">10.3660278320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3391246795654</t>
   </si>
   <si>
     <t xml:space="preserve">10.7202291488647</t>
@@ -4961,10 +4961,10 @@
     <t xml:space="preserve">10.630558013916</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6215906143188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.612624168396</t>
+    <t xml:space="preserve">10.6215915679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6126232147217</t>
   </si>
   <si>
     <t xml:space="preserve">10.6574602127075</t>
@@ -4973,10 +4973,10 @@
     <t xml:space="preserve">10.3929290771484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5005350112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5274353027344</t>
+    <t xml:space="preserve">10.5005340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5274362564087</t>
   </si>
   <si>
     <t xml:space="preserve">10.5050182342529</t>
@@ -4985,22 +4985,22 @@
     <t xml:space="preserve">10.6036567687988</t>
   </si>
   <si>
-    <t xml:space="preserve">10.545371055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.45569896698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4287967681885</t>
+    <t xml:space="preserve">10.5453701019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4556980133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4287977218628</t>
   </si>
   <si>
     <t xml:space="preserve">10.49156665802</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6484928131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5991725921631</t>
+    <t xml:space="preserve">10.648491859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5991735458374</t>
   </si>
   <si>
     <t xml:space="preserve">10.5857229232788</t>
@@ -5012,31 +5012,31 @@
     <t xml:space="preserve">10.854736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8861227035522</t>
+    <t xml:space="preserve">10.8861217498779</t>
   </si>
   <si>
     <t xml:space="preserve">10.8233518600464</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8278350830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8323183059692</t>
+    <t xml:space="preserve">10.8278360366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8323192596436</t>
   </si>
   <si>
     <t xml:space="preserve">10.9130229949951</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7829990386963</t>
+    <t xml:space="preserve">10.7829999923706</t>
   </si>
   <si>
     <t xml:space="preserve">10.8906059265137</t>
   </si>
   <si>
-    <t xml:space="preserve">10.818868637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9085397720337</t>
+    <t xml:space="preserve">10.8188676834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.908540725708</t>
   </si>
   <si>
     <t xml:space="preserve">10.9175071716309</t>
@@ -5054,7 +5054,7 @@
     <t xml:space="preserve">10.8816385269165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0295972824097</t>
+    <t xml:space="preserve">11.0295963287354</t>
   </si>
   <si>
     <t xml:space="preserve">11.1237516403198</t>
@@ -5063,40 +5063,40 @@
     <t xml:space="preserve">11.0340805053711</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9399242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9892444610596</t>
+    <t xml:space="preserve">10.9399251937866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9892435073853</t>
   </si>
   <si>
     <t xml:space="preserve">11.1013336181641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1416864395142</t>
+    <t xml:space="preserve">11.1416854858398</t>
   </si>
   <si>
     <t xml:space="preserve">11.1775550842285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.23583984375</t>
+    <t xml:space="preserve">11.2358407974243</t>
   </si>
   <si>
     <t xml:space="preserve">11.0968503952026</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0206289291382</t>
+    <t xml:space="preserve">11.0206298828125</t>
   </si>
   <si>
     <t xml:space="preserve">10.9713096618652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8950881958008</t>
+    <t xml:space="preserve">10.8950891494751</t>
   </si>
   <si>
     <t xml:space="preserve">10.8143854141235</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9219913482666</t>
+    <t xml:space="preserve">10.9219903945923</t>
   </si>
   <si>
     <t xml:space="preserve">10.9309577941895</t>
@@ -5108,7 +5108,7 @@
     <t xml:space="preserve">10.8592205047607</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8412866592407</t>
+    <t xml:space="preserve">10.8412857055664</t>
   </si>
   <si>
     <t xml:space="preserve">10.6171073913574</t>
@@ -5123,7 +5123,7 @@
     <t xml:space="preserve">10.0073413848877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8683500289917</t>
+    <t xml:space="preserve">9.86835098266602</t>
   </si>
   <si>
     <t xml:space="preserve">9.57691764831543</t>
@@ -5138,19 +5138,19 @@
     <t xml:space="preserve">10.2315196990967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3077411651611</t>
+    <t xml:space="preserve">10.3077402114868</t>
   </si>
   <si>
     <t xml:space="preserve">10.3122243881226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3256750106812</t>
+    <t xml:space="preserve">10.3256759643555</t>
   </si>
   <si>
     <t xml:space="preserve">10.2853231430054</t>
   </si>
   <si>
-    <t xml:space="preserve">10.334641456604</t>
+    <t xml:space="preserve">10.3346424102783</t>
   </si>
   <si>
     <t xml:space="preserve">10.3480930328369</t>
@@ -5517,6 +5517,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.4200000762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3299999237061</t>
   </si>
 </sst>
 </file>
@@ -61576,7 +61579,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6493518519</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>2046158</v>
@@ -61597,6 +61600,32 @@
         <v>1834</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6517361111</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>2219998</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>14.4949998855591</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>14.2849998474121</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>14.4549999237061</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>14.3299999237061</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54330253601074</t>
+    <t xml:space="preserve">5.54330205917358</t>
   </si>
   <si>
     <t xml:space="preserve">MB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53684854507446</t>
+    <t xml:space="preserve">5.53684902191162</t>
   </si>
   <si>
     <t xml:space="preserve">5.39810514450073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29485368728638</t>
+    <t xml:space="preserve">5.29485416412354</t>
   </si>
   <si>
     <t xml:space="preserve">5.16579008102417</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">5.1367506980896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.259361743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31744050979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25290870666504</t>
+    <t xml:space="preserve">5.25936079025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31744003295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2529091835022</t>
   </si>
   <si>
     <t xml:space="preserve">5.05285882949829</t>
@@ -74,25 +74,25 @@
     <t xml:space="preserve">4.81086301803589</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91088819503784</t>
+    <t xml:space="preserve">4.910888671875</t>
   </si>
   <si>
     <t xml:space="preserve">4.71406555175781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97541999816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99155282974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83022356033325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90766143798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83345031738281</t>
+    <t xml:space="preserve">4.97542095184326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99155378341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83022308349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90766191482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83344984054565</t>
   </si>
   <si>
     <t xml:space="preserve">4.56886863708496</t>
@@ -113,55 +113,55 @@
     <t xml:space="preserve">4.36881923675537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25911426544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86224222183228</t>
+    <t xml:space="preserve">4.25911474227905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86224269866943</t>
   </si>
   <si>
     <t xml:space="preserve">3.64606046676636</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92032146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71381902694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7848048210144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89450812339783</t>
+    <t xml:space="preserve">3.92032194137573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7138192653656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78480386734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89450764656067</t>
   </si>
   <si>
     <t xml:space="preserve">3.93000173568726</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00421333312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88805508613586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85578918457031</t>
+    <t xml:space="preserve">4.00421285629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88805603981018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85578966140747</t>
   </si>
   <si>
     <t xml:space="preserve">4.01066637039185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91064190864563</t>
+    <t xml:space="preserve">3.91064167022705</t>
   </si>
   <si>
     <t xml:space="preserve">3.8686957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92354822158813</t>
+    <t xml:space="preserve">3.92354774475098</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357292175293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03970623016357</t>
+    <t xml:space="preserve">4.03970575332642</t>
   </si>
   <si>
     <t xml:space="preserve">4.20426225662231</t>
@@ -170,10 +170,10 @@
     <t xml:space="preserve">4.36559247970581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3817253112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29783344268799</t>
+    <t xml:space="preserve">4.38172578811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2978343963623</t>
   </si>
   <si>
     <t xml:space="preserve">4.17522287368774</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">4.23007535934448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24298238754272</t>
+    <t xml:space="preserve">4.24298191070557</t>
   </si>
   <si>
     <t xml:space="preserve">4.30751419067383</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">4.7301983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57209491729736</t>
+    <t xml:space="preserve">4.57209539413452</t>
   </si>
   <si>
     <t xml:space="preserve">4.59145450592041</t>
@@ -203,37 +203,37 @@
     <t xml:space="preserve">4.31073999404907</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34945964813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37204599380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29138040542603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2623405456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14295673370361</t>
+    <t xml:space="preserve">4.34945917129517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37204551696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29138088226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26234102249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14295768737793</t>
   </si>
   <si>
     <t xml:space="preserve">4.16877031326294</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08487796783447</t>
+    <t xml:space="preserve">4.08487844467163</t>
   </si>
   <si>
     <t xml:space="preserve">4.04938554763794</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09133195877075</t>
+    <t xml:space="preserve">4.09133100509644</t>
   </si>
   <si>
     <t xml:space="preserve">4.01389265060425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0526123046875</t>
+    <t xml:space="preserve">4.05261278152466</t>
   </si>
   <si>
     <t xml:space="preserve">3.84933662414551</t>
@@ -242,10 +242,10 @@
     <t xml:space="preserve">4.07197141647339</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11714506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03002595901489</t>
+    <t xml:space="preserve">4.1171441078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03002548217773</t>
   </si>
   <si>
     <t xml:space="preserve">4.23975563049316</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">4.24620819091797</t>
   </si>
   <si>
-    <t xml:space="preserve">4.51724338531494</t>
+    <t xml:space="preserve">4.51724290847778</t>
   </si>
   <si>
     <t xml:space="preserve">4.5204701423645</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">4.66566610336304</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68502569198608</t>
+    <t xml:space="preserve">4.68502616882324</t>
   </si>
   <si>
     <t xml:space="preserve">4.69470596313477</t>
@@ -275,22 +275,22 @@
     <t xml:space="preserve">4.63017416000366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49788236618042</t>
+    <t xml:space="preserve">4.49788331985474</t>
   </si>
   <si>
     <t xml:space="preserve">4.32687330245972</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14941024780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11391735076904</t>
+    <t xml:space="preserve">4.14940929412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1139178276062</t>
   </si>
   <si>
     <t xml:space="preserve">4.06229162216187</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13327789306641</t>
+    <t xml:space="preserve">4.13327741622925</t>
   </si>
   <si>
     <t xml:space="preserve">4.16231679916382</t>
@@ -299,37 +299,37 @@
     <t xml:space="preserve">4.20103597640991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18812942504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1719970703125</t>
+    <t xml:space="preserve">4.18812894821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17199659347534</t>
   </si>
   <si>
     <t xml:space="preserve">4.24943494796753</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28815412521362</t>
+    <t xml:space="preserve">4.28815364837646</t>
   </si>
   <si>
     <t xml:space="preserve">4.5043363571167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6075873374939</t>
+    <t xml:space="preserve">4.60758781433105</t>
   </si>
   <si>
     <t xml:space="preserve">4.59790802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65276098251343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63985443115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41399192810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38495206832886</t>
+    <t xml:space="preserve">4.65276002883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63985395431519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41399240493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38495254516602</t>
   </si>
   <si>
     <t xml:space="preserve">4.27202081680298</t>
@@ -341,19 +341,19 @@
     <t xml:space="preserve">4.18167591094971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95258688926697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7589910030365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61702084541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71704578399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7041392326355</t>
+    <t xml:space="preserve">3.95258736610413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75899147987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61702108383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71704530715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70413875579834</t>
   </si>
   <si>
     <t xml:space="preserve">3.85256290435791</t>
@@ -368,16 +368,16 @@
     <t xml:space="preserve">4.094557762146</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42665195465088</t>
+    <t xml:space="preserve">3.42665123939514</t>
   </si>
   <si>
     <t xml:space="preserve">2.98912382125854</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16206979751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27177453041077</t>
+    <t xml:space="preserve">3.16207003593445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27177500724792</t>
   </si>
   <si>
     <t xml:space="preserve">3.32662677764893</t>
@@ -389,40 +389,40 @@
     <t xml:space="preserve">3.21756768226624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11431622505188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.04074954986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14529132843018</t>
+    <t xml:space="preserve">3.11431646347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0407497882843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14529156684875</t>
   </si>
   <si>
     <t xml:space="preserve">3.41374516487122</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67832636833191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7073655128479</t>
+    <t xml:space="preserve">3.67832612991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70736527442932</t>
   </si>
   <si>
     <t xml:space="preserve">3.82029700279236</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76544451713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82997679710388</t>
+    <t xml:space="preserve">3.76544499397278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82997727394104</t>
   </si>
   <si>
     <t xml:space="preserve">3.79448413848877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83965659141541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83320307731628</t>
+    <t xml:space="preserve">3.83965611457825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83320355415344</t>
   </si>
   <si>
     <t xml:space="preserve">3.86546945571899</t>
@@ -431,31 +431,31 @@
     <t xml:space="preserve">3.77512431144714</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90741515159607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901594161987</t>
+    <t xml:space="preserve">3.90741467475891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901641845703</t>
   </si>
   <si>
     <t xml:space="preserve">4.04293251037598</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96549439430237</t>
+    <t xml:space="preserve">3.96549391746521</t>
   </si>
   <si>
     <t xml:space="preserve">3.63960695266724</t>
   </si>
   <si>
-    <t xml:space="preserve">3.65251278877258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97194743156433</t>
+    <t xml:space="preserve">3.65251350402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97194695472717</t>
   </si>
   <si>
     <t xml:space="preserve">4.2365288734436</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20748901367188</t>
+    <t xml:space="preserve">4.20748949050903</t>
   </si>
   <si>
     <t xml:space="preserve">4.16554307937622</t>
@@ -464,22 +464,22 @@
     <t xml:space="preserve">4.1784496307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11069059371948</t>
+    <t xml:space="preserve">4.11069107055664</t>
   </si>
   <si>
     <t xml:space="preserve">4.07519817352295</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05906534194946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.946133852005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98162722587585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19135522842407</t>
+    <t xml:space="preserve">4.0590648651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94613432884216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98162698745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19135618209839</t>
   </si>
   <si>
     <t xml:space="preserve">4.15909004211426</t>
@@ -497,49 +497,49 @@
     <t xml:space="preserve">4.35591268539429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47529697418213</t>
+    <t xml:space="preserve">4.47529745101929</t>
   </si>
   <si>
     <t xml:space="preserve">4.43657827377319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.333327293396</t>
+    <t xml:space="preserve">4.33332681655884</t>
   </si>
   <si>
     <t xml:space="preserve">3.98485326766968</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04615879058838</t>
+    <t xml:space="preserve">4.0461597442627</t>
   </si>
   <si>
     <t xml:space="preserve">3.93645477294922</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02679920196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03325319290161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73317861557007</t>
+    <t xml:space="preserve">4.02679967880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03325223922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73317813873291</t>
   </si>
   <si>
     <t xml:space="preserve">3.78157758712769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71059203147888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73640537261963</t>
+    <t xml:space="preserve">3.71059226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73640489578247</t>
   </si>
   <si>
     <t xml:space="preserve">3.72672510147095</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72995281219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9332275390625</t>
+    <t xml:space="preserve">3.72995185852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93322706222534</t>
   </si>
   <si>
     <t xml:space="preserve">4.03647994995117</t>
@@ -551,37 +551,37 @@
     <t xml:space="preserve">3.99776029586792</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13650321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26556777954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38817882537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43980503082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52369594573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3365535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10423803329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2817006111145</t>
+    <t xml:space="preserve">4.13650369644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26556825637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38817930221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4398045539856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5236964225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33655309677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10423851013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28170108795166</t>
   </si>
   <si>
     <t xml:space="preserve">4.42689800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42044496536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54305601119995</t>
+    <t xml:space="preserve">4.42044448852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54305553436279</t>
   </si>
   <si>
     <t xml:space="preserve">4.55918836593628</t>
@@ -593,28 +593,28 @@
     <t xml:space="preserve">4.39140558242798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.213942527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26442861557007</t>
+    <t xml:space="preserve">4.21394205093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26442813873291</t>
   </si>
   <si>
     <t xml:space="preserve">4.33847570419312</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27452611923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23077058792114</t>
+    <t xml:space="preserve">4.27452564239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2307710647583</t>
   </si>
   <si>
     <t xml:space="preserve">4.17355298995972</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05238580703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22403907775879</t>
+    <t xml:space="preserve">4.0523853302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22403955459595</t>
   </si>
   <si>
     <t xml:space="preserve">4.38223075866699</t>
@@ -626,31 +626,31 @@
     <t xml:space="preserve">4.52695894241333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33510971069336</t>
+    <t xml:space="preserve">4.3351092338562</t>
   </si>
   <si>
     <t xml:space="preserve">4.76592826843262</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99480009078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13279724121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98806858062744</t>
+    <t xml:space="preserve">4.99480104446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13279676437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9880690574646</t>
   </si>
   <si>
     <t xml:space="preserve">5.01499557495117</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06884813308716</t>
+    <t xml:space="preserve">5.06884765625</t>
   </si>
   <si>
     <t xml:space="preserve">5.11596822738647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28762245178223</t>
+    <t xml:space="preserve">5.28762292861938</t>
   </si>
   <si>
     <t xml:space="preserve">5.22703886032104</t>
@@ -662,7 +662,7 @@
     <t xml:space="preserve">5.32801151275635</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29098796844482</t>
+    <t xml:space="preserve">5.29098844528198</t>
   </si>
   <si>
     <t xml:space="preserve">5.27415943145752</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">5.3381085395813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27079391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23040437698364</t>
+    <t xml:space="preserve">5.27079343795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23040390014648</t>
   </si>
   <si>
     <t xml:space="preserve">5.22030735015869</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">5.48620271682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51986026763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49293375015259</t>
+    <t xml:space="preserve">5.51986074447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49293422698975</t>
   </si>
   <si>
     <t xml:space="preserve">5.51312875747681</t>
@@ -713,22 +713,22 @@
     <t xml:space="preserve">5.40205812454224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38186359405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34484052658081</t>
+    <t xml:space="preserve">5.38186407089233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34484004974365</t>
   </si>
   <si>
     <t xml:space="preserve">5.42898416519165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35157251358032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43235015869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73526954650879</t>
+    <t xml:space="preserve">5.35157203674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43234968185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73527002334595</t>
   </si>
   <si>
     <t xml:space="preserve">5.91365528106689</t>
@@ -743,10 +743,10 @@
     <t xml:space="preserve">5.50303173065186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35493803024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48283672332764</t>
+    <t xml:space="preserve">5.35493755340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48283720016479</t>
   </si>
   <si>
     <t xml:space="preserve">5.25733089447021</t>
@@ -755,16 +755,16 @@
     <t xml:space="preserve">5.14626026153564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30445098876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24386739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3986930847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52659130096436</t>
+    <t xml:space="preserve">5.30445146560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24386692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39869260787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52659177780151</t>
   </si>
   <si>
     <t xml:space="preserve">5.49629974365234</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">5.41552209854126</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36503458023071</t>
+    <t xml:space="preserve">5.36503505706787</t>
   </si>
   <si>
     <t xml:space="preserve">5.31118249893188</t>
@@ -785,31 +785,31 @@
     <t xml:space="preserve">5.1563572883606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01162910461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0486536026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0924072265625</t>
+    <t xml:space="preserve">5.01162958145142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04865264892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09240818023682</t>
   </si>
   <si>
     <t xml:space="preserve">5.28425645828247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33474349975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52322578430176</t>
+    <t xml:space="preserve">5.3347430229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52322626113892</t>
   </si>
   <si>
     <t xml:space="preserve">5.57034683227539</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58044385910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66122245788574</t>
+    <t xml:space="preserve">5.5804443359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66122198104858</t>
   </si>
   <si>
     <t xml:space="preserve">5.60400485992432</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">5.60737037658691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61746740341187</t>
+    <t xml:space="preserve">5.61746788024902</t>
   </si>
   <si>
     <t xml:space="preserve">5.68478298187256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69824695587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63766241073608</t>
+    <t xml:space="preserve">5.69824647903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63766193389893</t>
   </si>
   <si>
     <t xml:space="preserve">5.70161247253418</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">5.67805194854736</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71507453918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68814945220947</t>
+    <t xml:space="preserve">5.71507501602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68814849853516</t>
   </si>
   <si>
     <t xml:space="preserve">5.55015230178833</t>
@@ -851,13 +851,13 @@
     <t xml:space="preserve">5.56024980545044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55688428878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59390783309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4794716835022</t>
+    <t xml:space="preserve">5.55688381195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59390830993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47947216033936</t>
   </si>
   <si>
     <t xml:space="preserve">5.42561912536621</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">5.7487325668335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83624267578125</t>
+    <t xml:space="preserve">5.83624315261841</t>
   </si>
   <si>
     <t xml:space="preserve">5.75546407699585</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">5.71844053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94058179855347</t>
+    <t xml:space="preserve">5.94058132171631</t>
   </si>
   <si>
     <t xml:space="preserve">5.95741033554077</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">5.97760486602783</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09540748596191</t>
+    <t xml:space="preserve">6.0954065322876</t>
   </si>
   <si>
     <t xml:space="preserve">6.17955160140991</t>
@@ -896,16 +896,16 @@
     <t xml:space="preserve">6.14252758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12569904327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10887050628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18628168106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1526255607605</t>
+    <t xml:space="preserve">6.12569808959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1088695526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18628215789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15262508392334</t>
   </si>
   <si>
     <t xml:space="preserve">6.176185131073</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">6.0045313835144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02472591400146</t>
+    <t xml:space="preserve">6.02472639083862</t>
   </si>
   <si>
     <t xml:space="preserve">6.0752124786377</t>
@@ -923,16 +923,16 @@
     <t xml:space="preserve">6.11896800994873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15935611724854</t>
+    <t xml:space="preserve">6.15935659408569</t>
   </si>
   <si>
     <t xml:space="preserve">6.12906455993652</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10213804244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01126337051392</t>
+    <t xml:space="preserve">6.10213756561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01126289367676</t>
   </si>
   <si>
     <t xml:space="preserve">5.82277965545654</t>
@@ -944,16 +944,16 @@
     <t xml:space="preserve">5.70497846603394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61073589324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63093090057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72853851318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78239107131958</t>
+    <t xml:space="preserve">5.61073637008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63093042373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72853803634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78239059448242</t>
   </si>
   <si>
     <t xml:space="preserve">5.76219654083252</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">5.73863506317139</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75883054733276</t>
+    <t xml:space="preserve">5.75883007049561</t>
   </si>
   <si>
     <t xml:space="preserve">5.65112543106079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5636157989502</t>
+    <t xml:space="preserve">5.56361627578735</t>
   </si>
   <si>
     <t xml:space="preserve">5.72180652618408</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">5.923752784729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97423982620239</t>
+    <t xml:space="preserve">5.97423934936523</t>
   </si>
   <si>
     <t xml:space="preserve">5.90019273757935</t>
@@ -1007,16 +1007,16 @@
     <t xml:space="preserve">6.04492044448853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10550355911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05838346481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06174850463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86316871643066</t>
+    <t xml:space="preserve">6.10550308227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05838394165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06174945831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86316823959351</t>
   </si>
   <si>
     <t xml:space="preserve">5.88336277008057</t>
@@ -1028,37 +1028,37 @@
     <t xml:space="preserve">5.98770236968994</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96077632904053</t>
+    <t xml:space="preserve">5.96077585220337</t>
   </si>
   <si>
     <t xml:space="preserve">5.9338493347168</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92038774490356</t>
+    <t xml:space="preserve">5.92038679122925</t>
   </si>
   <si>
     <t xml:space="preserve">6.06511545181274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05501794815063</t>
+    <t xml:space="preserve">6.05501842498779</t>
   </si>
   <si>
     <t xml:space="preserve">5.9910683631897</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85643720626831</t>
+    <t xml:space="preserve">5.85643768310547</t>
   </si>
   <si>
     <t xml:space="preserve">5.91028928756714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90355825424194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84634017944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7453670501709</t>
+    <t xml:space="preserve">5.90355777740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84634065628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74536657333374</t>
   </si>
   <si>
     <t xml:space="preserve">5.80258560180664</t>
@@ -1067,46 +1067,46 @@
     <t xml:space="preserve">5.69151449203491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87326622009277</t>
+    <t xml:space="preserve">5.87326574325562</t>
   </si>
   <si>
     <t xml:space="preserve">5.94394683837891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87999773025513</t>
+    <t xml:space="preserve">5.87999725341797</t>
   </si>
   <si>
     <t xml:space="preserve">5.89009523391724</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96414136886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05165100097656</t>
+    <t xml:space="preserve">5.96414184570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05165195465088</t>
   </si>
   <si>
     <t xml:space="preserve">6.03818893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07857799530029</t>
+    <t xml:space="preserve">6.07857751846313</t>
   </si>
   <si>
     <t xml:space="preserve">6.11223554611206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14925956726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09877300262451</t>
+    <t xml:space="preserve">6.1492600440979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09877252578735</t>
   </si>
   <si>
     <t xml:space="preserve">6.19301462173462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13579607009888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16608762741089</t>
+    <t xml:space="preserve">6.13579511642456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16608715057373</t>
   </si>
   <si>
     <t xml:space="preserve">6.13916206359863</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">6.1694540977478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1728196144104</t>
+    <t xml:space="preserve">6.17282009124756</t>
   </si>
   <si>
     <t xml:space="preserve">6.16272211074829</t>
@@ -1124,40 +1124,40 @@
     <t xml:space="preserve">6.21320915222168</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31754779815674</t>
+    <t xml:space="preserve">6.3175482749939</t>
   </si>
   <si>
     <t xml:space="preserve">6.38149738311768</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33437633514404</t>
+    <t xml:space="preserve">6.33437585830688</t>
   </si>
   <si>
     <t xml:space="preserve">6.42188692092896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48920202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46227550506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4420804977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52285957336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51612854003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65412473678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63729572296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64739274978638</t>
+    <t xml:space="preserve">6.48920154571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46227598190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44208097457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52285861968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5161280632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65412521362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63729619979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64739322662354</t>
   </si>
   <si>
     <t xml:space="preserve">6.64066123962402</t>
@@ -1166,13 +1166,13 @@
     <t xml:space="preserve">6.62046670913696</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6543869972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54948282241821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6299090385437</t>
+    <t xml:space="preserve">6.65438747406006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5494818687439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62990856170654</t>
   </si>
   <si>
     <t xml:space="preserve">6.6264123916626</t>
@@ -1181,70 +1181,70 @@
     <t xml:space="preserve">6.58794784545898</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51101875305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65089082717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78027009963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71383190155029</t>
+    <t xml:space="preserve">6.51101970672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65088987350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78027057647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71383237838745</t>
   </si>
   <si>
     <t xml:space="preserve">6.76278686523438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72082567214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61941862106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64389562606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73131656646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70683908462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71033620834351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67886304855347</t>
+    <t xml:space="preserve">6.7208251953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61941957473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64389610290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73131561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7068395614624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71033573150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67886447906494</t>
   </si>
   <si>
     <t xml:space="preserve">6.67187118530273</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53899240493774</t>
+    <t xml:space="preserve">6.53899192810059</t>
   </si>
   <si>
     <t xml:space="preserve">6.57396030426025</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60543155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66487741470337</t>
+    <t xml:space="preserve">6.6054310798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66487693786621</t>
   </si>
   <si>
     <t xml:space="preserve">6.68935441970825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68585872650146</t>
+    <t xml:space="preserve">6.68585777282715</t>
   </si>
   <si>
     <t xml:space="preserve">6.61592197418213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56347036361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69634819030762</t>
+    <t xml:space="preserve">6.5634708404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69634866714478</t>
   </si>
   <si>
     <t xml:space="preserve">6.85370349884033</t>
@@ -1253,22 +1253,22 @@
     <t xml:space="preserve">6.83272314071655</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8362193107605</t>
+    <t xml:space="preserve">6.83621978759766</t>
   </si>
   <si>
     <t xml:space="preserve">6.82572984695435</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84671020507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93412971496582</t>
+    <t xml:space="preserve">6.84671068191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93412923812866</t>
   </si>
   <si>
     <t xml:space="preserve">6.96210384368896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02154970169067</t>
+    <t xml:space="preserve">7.02155017852783</t>
   </si>
   <si>
     <t xml:space="preserve">6.9760913848877</t>
@@ -1277,22 +1277,22 @@
     <t xml:space="preserve">6.97259426116943</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9271354675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87468433380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89146947860718</t>
+    <t xml:space="preserve">6.92713642120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87468385696411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89146852493286</t>
   </si>
   <si>
     <t xml:space="preserve">6.79775524139404</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84810876846313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91524696350098</t>
+    <t xml:space="preserve">6.84810829162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91524648666382</t>
   </si>
   <si>
     <t xml:space="preserve">6.95580959320068</t>
@@ -1301,13 +1301,13 @@
     <t xml:space="preserve">6.89426612854004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69285011291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80195045471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7487998008728</t>
+    <t xml:space="preserve">6.6928505897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80195093154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74879932403564</t>
   </si>
   <si>
     <t xml:space="preserve">6.79635667800903</t>
@@ -1316,7 +1316,7 @@
     <t xml:space="preserve">6.850905418396</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89286756515503</t>
+    <t xml:space="preserve">6.89286708831787</t>
   </si>
   <si>
     <t xml:space="preserve">6.91105127334595</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">6.90545654296875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91804456710815</t>
+    <t xml:space="preserve">6.91804504394531</t>
   </si>
   <si>
     <t xml:space="preserve">6.83412170410156</t>
@@ -1343,25 +1343,25 @@
     <t xml:space="preserve">6.95161247253418</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85510158538818</t>
+    <t xml:space="preserve">6.85510206222534</t>
   </si>
   <si>
     <t xml:space="preserve">6.75579309463501</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63130855560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73900938034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88167810440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90405750274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89706373214722</t>
+    <t xml:space="preserve">6.63130807876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73900842666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88167858123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90405702590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89706420898438</t>
   </si>
   <si>
     <t xml:space="preserve">6.83132362365723</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">6.89566516876221</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84111499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91664552688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80614805221558</t>
+    <t xml:space="preserve">6.84111452102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9166464805603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80614757537842</t>
   </si>
   <si>
     <t xml:space="preserve">6.68166160583496</t>
@@ -1391,25 +1391,25 @@
     <t xml:space="preserve">6.67047262191772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67746496200562</t>
+    <t xml:space="preserve">6.67746591567993</t>
   </si>
   <si>
     <t xml:space="preserve">6.70404148101807</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78376770019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77537536621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85230493545532</t>
+    <t xml:space="preserve">6.78376722335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77537488937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85230541229248</t>
   </si>
   <si>
     <t xml:space="preserve">6.82712841033936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99217557907104</t>
+    <t xml:space="preserve">6.99217700958252</t>
   </si>
   <si>
     <t xml:space="preserve">7.08449125289917</t>
@@ -1418,16 +1418,16 @@
     <t xml:space="preserve">7.11246633529663</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25583410263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30828523635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16141986846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14743423461914</t>
+    <t xml:space="preserve">7.25583457946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30828619003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1614203453064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14743375778198</t>
   </si>
   <si>
     <t xml:space="preserve">7.03903293609619</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">7.12645292282104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00406503677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15092992782593</t>
+    <t xml:space="preserve">7.00406551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15092945098877</t>
   </si>
   <si>
     <t xml:space="preserve">7.18589782714844</t>
@@ -1448,31 +1448,31 @@
     <t xml:space="preserve">6.99357461929321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90265798568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95720815658569</t>
+    <t xml:space="preserve">6.90265846252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95720911026001</t>
   </si>
   <si>
     <t xml:space="preserve">7.01455545425415</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96420192718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62850999832153</t>
+    <t xml:space="preserve">6.9642014503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62851047515869</t>
   </si>
   <si>
     <t xml:space="preserve">6.42289876937866</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31659650802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35716009140015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20749759674072</t>
+    <t xml:space="preserve">6.31659746170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35715961456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20749711990356</t>
   </si>
   <si>
     <t xml:space="preserve">5.95852613449097</t>
@@ -1487,34 +1487,34 @@
     <t xml:space="preserve">5.75151634216309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64241647720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78928089141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68997287750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54450607299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72214317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59346103668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47457027435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74172496795654</t>
+    <t xml:space="preserve">5.64241600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78928136825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68997240066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54450654983521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72214365005493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59346151351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47457075119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7417254447937</t>
   </si>
   <si>
     <t xml:space="preserve">5.66479635238647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76969909667969</t>
+    <t xml:space="preserve">5.76969957351685</t>
   </si>
   <si>
     <t xml:space="preserve">5.71095323562622</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">5.75291442871094</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89838123321533</t>
+    <t xml:space="preserve">5.89838171005249</t>
   </si>
   <si>
     <t xml:space="preserve">5.69416904449463</t>
@@ -1547,10 +1547,10 @@
     <t xml:space="preserve">5.53471565246582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.568284034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54030990600586</t>
+    <t xml:space="preserve">5.56828451156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54031038284302</t>
   </si>
   <si>
     <t xml:space="preserve">5.6074481010437</t>
@@ -1562,37 +1562,37 @@
     <t xml:space="preserve">5.75711107254028</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66619443893433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.702561378479</t>
+    <t xml:space="preserve">5.66619491577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70256185531616</t>
   </si>
   <si>
     <t xml:space="preserve">5.62563180923462</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53051900863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55429697036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62842893600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64801120758057</t>
+    <t xml:space="preserve">5.53051948547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55429744720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6284294128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64801168441772</t>
   </si>
   <si>
     <t xml:space="preserve">5.69976377487183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6857762336731</t>
+    <t xml:space="preserve">5.68577671051025</t>
   </si>
   <si>
     <t xml:space="preserve">5.71934604644775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88719129562378</t>
+    <t xml:space="preserve">5.88719177246094</t>
   </si>
   <si>
     <t xml:space="preserve">5.95432949066162</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">6.12077665328979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06622743606567</t>
+    <t xml:space="preserve">6.06622648239136</t>
   </si>
   <si>
     <t xml:space="preserve">6.21309185028076</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">6.17252922058105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07042407989502</t>
+    <t xml:space="preserve">6.07042360305786</t>
   </si>
   <si>
     <t xml:space="preserve">6.15014886856079</t>
@@ -1628,19 +1628,19 @@
     <t xml:space="preserve">6.14595413208008</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15854215621948</t>
+    <t xml:space="preserve">6.15854263305664</t>
   </si>
   <si>
     <t xml:space="preserve">6.09559965133667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9753098487854</t>
+    <t xml:space="preserve">5.97530937194824</t>
   </si>
   <si>
     <t xml:space="preserve">5.81865406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94174098968506</t>
+    <t xml:space="preserve">5.94174146652222</t>
   </si>
   <si>
     <t xml:space="preserve">5.87600231170654</t>
@@ -1649,10 +1649,10 @@
     <t xml:space="preserve">5.8941855430603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9906964302063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87040710449219</t>
+    <t xml:space="preserve">5.99069690704346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87040662765503</t>
   </si>
   <si>
     <t xml:space="preserve">5.80186939239502</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">5.79627513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76130723953247</t>
+    <t xml:space="preserve">5.76130771636963</t>
   </si>
   <si>
     <t xml:space="preserve">5.7864842414856</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">5.93195056915283</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12497329711914</t>
+    <t xml:space="preserve">6.1249737739563</t>
   </si>
   <si>
     <t xml:space="preserve">6.07182121276855</t>
@@ -1697,7 +1697,7 @@
     <t xml:space="preserve">6.3137993812561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42150068283081</t>
+    <t xml:space="preserve">6.42150020599365</t>
   </si>
   <si>
     <t xml:space="preserve">6.44248104095459</t>
@@ -1712,13 +1712,13 @@
     <t xml:space="preserve">6.41450691223145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36834907531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48723936080933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47605180740356</t>
+    <t xml:space="preserve">6.36834955215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48723983764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47605133056641</t>
   </si>
   <si>
     <t xml:space="preserve">6.41171026229858</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">5.8606162071228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85222339630127</t>
+    <t xml:space="preserve">5.85222387313843</t>
   </si>
   <si>
     <t xml:space="preserve">5.75431346893311</t>
@@ -1742,19 +1742,19 @@
     <t xml:space="preserve">5.48576021194458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53191757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41582441329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3696665763855</t>
+    <t xml:space="preserve">5.53191804885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41582345962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36966705322266</t>
   </si>
   <si>
     <t xml:space="preserve">5.37666082382202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46058320999146</t>
+    <t xml:space="preserve">5.46058368682861</t>
   </si>
   <si>
     <t xml:space="preserve">5.39764070510864</t>
@@ -1763,13 +1763,13 @@
     <t xml:space="preserve">5.34588861465454</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50953769683838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41022920608521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42281818389893</t>
+    <t xml:space="preserve">5.50953817367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41022968292236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42281770706177</t>
   </si>
   <si>
     <t xml:space="preserve">5.23958683013916</t>
@@ -1784,7 +1784,7 @@
     <t xml:space="preserve">5.44519710540771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4591851234436</t>
+    <t xml:space="preserve">5.45918464660645</t>
   </si>
   <si>
     <t xml:space="preserve">5.42141962051392</t>
@@ -1793,7 +1793,7 @@
     <t xml:space="preserve">5.54730415344238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48436117172241</t>
+    <t xml:space="preserve">5.48436069488525</t>
   </si>
   <si>
     <t xml:space="preserve">5.46338129043579</t>
@@ -1805,16 +1805,16 @@
     <t xml:space="preserve">5.50254535675049</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4983491897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42561531066895</t>
+    <t xml:space="preserve">5.49834871292114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42561483383179</t>
   </si>
   <si>
     <t xml:space="preserve">5.50799083709717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37847852706909</t>
+    <t xml:space="preserve">5.37847805023193</t>
   </si>
   <si>
     <t xml:space="preserve">5.4350471496582</t>
@@ -1826,7 +1826,7 @@
     <t xml:space="preserve">5.46481990814209</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70746898651123</t>
+    <t xml:space="preserve">5.70746946334839</t>
   </si>
   <si>
     <t xml:space="preserve">5.73128747940063</t>
@@ -1838,10 +1838,10 @@
     <t xml:space="preserve">5.81167459487915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81018590927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84740114212036</t>
+    <t xml:space="preserve">5.81018543243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84740161895752</t>
   </si>
   <si>
     <t xml:space="preserve">5.74170875549316</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">5.75361728668213</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58093357086182</t>
+    <t xml:space="preserve">5.58093452453613</t>
   </si>
   <si>
     <t xml:space="preserve">5.57646894454956</t>
@@ -1859,19 +1859,19 @@
     <t xml:space="preserve">5.44844484329224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42164897918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60028696060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62261629104614</t>
+    <t xml:space="preserve">5.42164945602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60028648376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62261581420898</t>
   </si>
   <si>
     <t xml:space="preserve">5.67323017120361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58540058135986</t>
+    <t xml:space="preserve">5.58540010452271</t>
   </si>
   <si>
     <t xml:space="preserve">5.63452577590942</t>
@@ -1883,22 +1883,22 @@
     <t xml:space="preserve">5.61219596862793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4752402305603</t>
+    <t xml:space="preserve">5.47524070739746</t>
   </si>
   <si>
     <t xml:space="preserve">5.39187574386597</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4901270866394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43653583526611</t>
+    <t xml:space="preserve">5.49012660980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43653535842896</t>
   </si>
   <si>
     <t xml:space="preserve">5.43206930160522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75510549545288</t>
+    <t xml:space="preserve">5.75510597229004</t>
   </si>
   <si>
     <t xml:space="preserve">5.74468517303467</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">5.69704818725586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70002555847168</t>
+    <t xml:space="preserve">5.70002603530884</t>
   </si>
   <si>
     <t xml:space="preserve">5.77148103713989</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">5.70151424407959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83251571655273</t>
+    <t xml:space="preserve">5.83251523971558</t>
   </si>
   <si>
     <t xml:space="preserve">5.83995866775513</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">5.86377668380737</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88015270233154</t>
+    <t xml:space="preserve">5.88015222549438</t>
   </si>
   <si>
     <t xml:space="preserve">5.86079978942871</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">5.87568616867065</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9367208480835</t>
+    <t xml:space="preserve">5.93672037124634</t>
   </si>
   <si>
     <t xml:space="preserve">5.86228847503662</t>
@@ -1967,10 +1967,10 @@
     <t xml:space="preserve">5.64345741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76403760910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76999235153198</t>
+    <t xml:space="preserve">5.76403713226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76999187469482</t>
   </si>
   <si>
     <t xml:space="preserve">5.87122011184692</t>
@@ -1985,10 +1985,10 @@
     <t xml:space="preserve">5.9694709777832</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18234729766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19723415374756</t>
+    <t xml:space="preserve">6.1823468208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1972336769104</t>
   </si>
   <si>
     <t xml:space="preserve">6.16894960403442</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">6.12875604629517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14513111114502</t>
+    <t xml:space="preserve">6.14513063430786</t>
   </si>
   <si>
     <t xml:space="preserve">6.22254085540771</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">6.31930255889893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38629150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5664176940918</t>
+    <t xml:space="preserve">6.38629198074341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56641721725464</t>
   </si>
   <si>
     <t xml:space="preserve">6.43392848968506</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">6.50240612030029</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62447500228882</t>
+    <t xml:space="preserve">6.62447547912598</t>
   </si>
   <si>
     <t xml:space="preserve">6.51431560516357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44732570648193</t>
+    <t xml:space="preserve">6.44732618331909</t>
   </si>
   <si>
     <t xml:space="preserve">6.53962278366089</t>
@@ -2045,25 +2045,25 @@
     <t xml:space="preserve">6.63787317276001</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68997526168823</t>
+    <t xml:space="preserve">6.68997478485107</t>
   </si>
   <si>
     <t xml:space="preserve">6.83288621902466</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79120349884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66317987442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71230459213257</t>
+    <t xml:space="preserve">6.79120397567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66318035125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71230411529541</t>
   </si>
   <si>
     <t xml:space="preserve">6.65871381759644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59619188308716</t>
+    <t xml:space="preserve">6.59619092941284</t>
   </si>
   <si>
     <t xml:space="preserve">6.64680576324463</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">6.89392042160034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96090888977051</t>
+    <t xml:space="preserve">6.96090936660767</t>
   </si>
   <si>
     <t xml:space="preserve">6.86117029190063</t>
@@ -2087,16 +2087,16 @@
     <t xml:space="preserve">6.87754440307617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91773748397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96388673782349</t>
+    <t xml:space="preserve">6.91773796081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96388626098633</t>
   </si>
   <si>
     <t xml:space="preserve">6.90285205841064</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92518186569214</t>
+    <t xml:space="preserve">6.92518138885498</t>
   </si>
   <si>
     <t xml:space="preserve">7.02492046356201</t>
@@ -2111,40 +2111,40 @@
     <t xml:space="preserve">7.15294456481934</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13210391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07106876373291</t>
+    <t xml:space="preserve">7.13210344314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07106924057007</t>
   </si>
   <si>
     <t xml:space="preserve">6.98770427703857</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96686363220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00705671310425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13508129119873</t>
+    <t xml:space="preserve">6.96686315536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00705718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13508081436157</t>
   </si>
   <si>
     <t xml:space="preserve">7.03385257720947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07404613494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85223865509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69295215606689</t>
+    <t xml:space="preserve">7.07404565811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223817825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69295263290405</t>
   </si>
   <si>
     <t xml:space="preserve">6.77929401397705</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62298679351807</t>
+    <t xml:space="preserve">6.62298631668091</t>
   </si>
   <si>
     <t xml:space="preserve">6.47561073303223</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">6.60065698623657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58428144454956</t>
+    <t xml:space="preserve">6.58428192138672</t>
   </si>
   <si>
     <t xml:space="preserve">6.47709941864014</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">6.42350769042969</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36396217346191</t>
+    <t xml:space="preserve">6.36396169662476</t>
   </si>
   <si>
     <t xml:space="preserve">6.32079124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23891496658325</t>
+    <t xml:space="preserve">6.23891544342041</t>
   </si>
   <si>
     <t xml:space="preserve">6.22998332977295</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">6.15704011917114</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12131309509277</t>
+    <t xml:space="preserve">6.12131261825562</t>
   </si>
   <si>
     <t xml:space="preserve">6.28059768676758</t>
@@ -2192,13 +2192,13 @@
     <t xml:space="preserve">6.24635934829712</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27762031555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37289476394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37140560150146</t>
+    <t xml:space="preserve">6.27762079238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37289428710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37140607833862</t>
   </si>
   <si>
     <t xml:space="preserve">6.34163236618042</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">6.37884759902954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34609842300415</t>
+    <t xml:space="preserve">6.34609889984131</t>
   </si>
   <si>
     <t xml:space="preserve">6.34460973739624</t>
@@ -2216,10 +2216,10 @@
     <t xml:space="preserve">6.48305368423462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5813045501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56046390533447</t>
+    <t xml:space="preserve">6.58130502700806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56046342849731</t>
   </si>
   <si>
     <t xml:space="preserve">6.61107683181763</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">6.58874797821045</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72272539138794</t>
+    <t xml:space="preserve">6.7227258682251</t>
   </si>
   <si>
     <t xml:space="preserve">6.76738548278809</t>
@@ -2237,19 +2237,19 @@
     <t xml:space="preserve">6.74803304672241</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66169118881226</t>
+    <t xml:space="preserve">6.66169166564941</t>
   </si>
   <si>
     <t xml:space="preserve">6.73761224746704</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91327333450317</t>
+    <t xml:space="preserve">6.91327238082886</t>
   </si>
   <si>
     <t xml:space="preserve">7.05022764205933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01598882675171</t>
+    <t xml:space="preserve">7.01598930358887</t>
   </si>
   <si>
     <t xml:space="preserve">6.95346641540527</t>
@@ -2258,25 +2258,25 @@
     <t xml:space="preserve">6.93113660812378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99663591384888</t>
+    <t xml:space="preserve">6.99663639068604</t>
   </si>
   <si>
     <t xml:space="preserve">6.98472738265991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99068260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9385781288147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01301145553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97579526901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99365949630737</t>
+    <t xml:space="preserve">6.99068212509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93857908248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01301193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97579574584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99365997314453</t>
   </si>
   <si>
     <t xml:space="preserve">6.84777212142944</t>
@@ -2288,10 +2288,10 @@
     <t xml:space="preserve">6.95644330978394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92964839935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94453430175781</t>
+    <t xml:space="preserve">6.92964887619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94453382492065</t>
   </si>
   <si>
     <t xml:space="preserve">6.76440858840942</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">6.44583749771118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49942970275879</t>
+    <t xml:space="preserve">6.49942922592163</t>
   </si>
   <si>
     <t xml:space="preserve">6.32674598693848</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">6.34758710861206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20021057128906</t>
+    <t xml:space="preserve">6.20021104812622</t>
   </si>
   <si>
     <t xml:space="preserve">6.33270072937012</t>
@@ -2339,85 +2339,85 @@
     <t xml:space="preserve">6.52771329879761</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45328044891357</t>
+    <t xml:space="preserve">6.45328092575073</t>
   </si>
   <si>
     <t xml:space="preserve">6.53366756439209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55599689483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61256551742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70635080337524</t>
+    <t xml:space="preserve">6.55599737167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6125659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7063512802124</t>
   </si>
   <si>
     <t xml:space="preserve">6.78822612762451</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02938747406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0457615852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13359260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08000183105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11572933197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18271732330322</t>
+    <t xml:space="preserve">7.02938652038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04576206207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13359212875366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08000087738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11572885513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18271684646606</t>
   </si>
   <si>
     <t xml:space="preserve">7.11424016952515</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08446598052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21993350982666</t>
+    <t xml:space="preserve">7.08446645736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2199330329895</t>
   </si>
   <si>
     <t xml:space="preserve">7.4223895072937</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36582040786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3762412071228</t>
+    <t xml:space="preserve">7.36582088470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37624168395996</t>
   </si>
   <si>
     <t xml:space="preserve">7.41792297363281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52138376235962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42536592483521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45811653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4283447265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22291088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31074047088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27799129486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29734373092651</t>
+    <t xml:space="preserve">7.52138471603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42536687850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45811748504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42834281921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22291135787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31074094772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27799081802368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2973427772522</t>
   </si>
   <si>
     <t xml:space="preserve">7.25417280197144</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">7.51022005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67769241333008</t>
+    <t xml:space="preserve">7.67769145965576</t>
   </si>
   <si>
     <t xml:space="preserve">7.7632908821106</t>
@@ -2438,22 +2438,22 @@
     <t xml:space="preserve">7.87493753433228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90471124649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88238191604614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86005210876465</t>
+    <t xml:space="preserve">7.90471029281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88238096237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86005115509033</t>
   </si>
   <si>
     <t xml:space="preserve">7.93448352813721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0126371383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07218456268311</t>
+    <t xml:space="preserve">8.01263809204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07218360900879</t>
   </si>
   <si>
     <t xml:space="preserve">8.06473922729492</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">7.94564867019653</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92704010009766</t>
+    <t xml:space="preserve">7.92704105377197</t>
   </si>
   <si>
     <t xml:space="preserve">7.99030733108521</t>
@@ -2474,19 +2474,19 @@
     <t xml:space="preserve">8.16150188446045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10940074920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02380275726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7670111656189</t>
+    <t xml:space="preserve">8.10939979553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0238037109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76701211929321</t>
   </si>
   <si>
     <t xml:space="preserve">7.92331886291504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85260772705078</t>
+    <t xml:space="preserve">7.8526086807251</t>
   </si>
   <si>
     <t xml:space="preserve">8.02844429016113</t>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="1836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="1837">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54330205917358</t>
+    <t xml:space="preserve">5.5433030128479</t>
   </si>
   <si>
     <t xml:space="preserve">MB.MI</t>
@@ -65,97 +65,97 @@
     <t xml:space="preserve">5.31744003295898</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2529091835022</t>
+    <t xml:space="preserve">5.25290870666504</t>
   </si>
   <si>
     <t xml:space="preserve">5.05285882949829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81086301803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.910888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71406555175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97542095184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99155378341675</t>
+    <t xml:space="preserve">4.81086397171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91088819503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71406507492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97541999816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99155426025391</t>
   </si>
   <si>
     <t xml:space="preserve">4.83022308349609</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90766191482544</t>
+    <t xml:space="preserve">4.90766143798828</t>
   </si>
   <si>
     <t xml:space="preserve">4.83344984054565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56886863708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75278472900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60436105728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47852325439453</t>
+    <t xml:space="preserve">4.5688681602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75278425216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60436058044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47852373123169</t>
   </si>
   <si>
     <t xml:space="preserve">4.27524757385254</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36881923675537</t>
+    <t xml:space="preserve">4.36881971359253</t>
   </si>
   <si>
     <t xml:space="preserve">4.25911474227905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86224269866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64606046676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92032194137573</t>
+    <t xml:space="preserve">3.86224341392517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64606022834778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92032146453857</t>
   </si>
   <si>
     <t xml:space="preserve">3.7138192653656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78480386734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89450764656067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93000173568726</t>
+    <t xml:space="preserve">3.78480434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89450883865356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93000149726868</t>
   </si>
   <si>
     <t xml:space="preserve">4.00421285629272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88805603981018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85578966140747</t>
+    <t xml:space="preserve">3.88805508613586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85578918457031</t>
   </si>
   <si>
     <t xml:space="preserve">4.01066637039185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91064167022705</t>
+    <t xml:space="preserve">3.91064143180847</t>
   </si>
   <si>
     <t xml:space="preserve">3.8686957359314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92354774475098</t>
+    <t xml:space="preserve">3.92354798316956</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357292175293</t>
@@ -170,16 +170,16 @@
     <t xml:space="preserve">4.36559247970581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38172578811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2978343963623</t>
+    <t xml:space="preserve">4.3817253112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29783391952515</t>
   </si>
   <si>
     <t xml:space="preserve">4.17522287368774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23007535934448</t>
+    <t xml:space="preserve">4.23007488250732</t>
   </si>
   <si>
     <t xml:space="preserve">4.24298191070557</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">4.30751419067383</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68179941177368</t>
+    <t xml:space="preserve">4.68179893493652</t>
   </si>
   <si>
     <t xml:space="preserve">4.7301983833313</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">4.59145450592041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31073999404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34945917129517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37204551696777</t>
+    <t xml:space="preserve">4.31074047088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34946012496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37204504013062</t>
   </si>
   <si>
     <t xml:space="preserve">4.29138088226318</t>
@@ -215,10 +215,10 @@
     <t xml:space="preserve">4.26234102249146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14295768737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16877031326294</t>
+    <t xml:space="preserve">4.14295721054077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16876935958862</t>
   </si>
   <si>
     <t xml:space="preserve">4.08487844467163</t>
@@ -233,25 +233,25 @@
     <t xml:space="preserve">4.01389265060425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05261278152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84933662414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07197141647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1171441078186</t>
+    <t xml:space="preserve">4.0526123046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84933614730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07197189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11714458465576</t>
   </si>
   <si>
     <t xml:space="preserve">4.03002548217773</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23975563049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31719350814819</t>
+    <t xml:space="preserve">4.23975515365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31719303131104</t>
   </si>
   <si>
     <t xml:space="preserve">4.24620819091797</t>
@@ -260,10 +260,10 @@
     <t xml:space="preserve">4.51724290847778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5204701423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66566610336304</t>
+    <t xml:space="preserve">4.52046918869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6656665802002</t>
   </si>
   <si>
     <t xml:space="preserve">4.68502616882324</t>
@@ -275,25 +275,25 @@
     <t xml:space="preserve">4.63017416000366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49788331985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32687330245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14940929412842</t>
+    <t xml:space="preserve">4.49788284301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32687377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14940977096558</t>
   </si>
   <si>
     <t xml:space="preserve">4.1139178276062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06229162216187</t>
+    <t xml:space="preserve">4.06229257583618</t>
   </si>
   <si>
     <t xml:space="preserve">4.13327741622925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16231679916382</t>
+    <t xml:space="preserve">4.16231632232666</t>
   </si>
   <si>
     <t xml:space="preserve">4.20103597640991</t>
@@ -308,25 +308,25 @@
     <t xml:space="preserve">4.24943494796753</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28815364837646</t>
+    <t xml:space="preserve">4.28815412521362</t>
   </si>
   <si>
     <t xml:space="preserve">4.5043363571167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60758781433105</t>
+    <t xml:space="preserve">4.6075873374939</t>
   </si>
   <si>
     <t xml:space="preserve">4.59790802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65276002883911</t>
+    <t xml:space="preserve">4.65275955200195</t>
   </si>
   <si>
     <t xml:space="preserve">4.63985395431519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41399240493774</t>
+    <t xml:space="preserve">4.41399192810059</t>
   </si>
   <si>
     <t xml:space="preserve">4.38495254516602</t>
@@ -338,28 +338,28 @@
     <t xml:space="preserve">4.25588750839233</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18167591094971</t>
+    <t xml:space="preserve">4.18167638778687</t>
   </si>
   <si>
     <t xml:space="preserve">3.95258736610413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75899147987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61702108383179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71704530715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70413875579834</t>
+    <t xml:space="preserve">3.7589910030365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61702132225037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.717045545578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70413851737976</t>
   </si>
   <si>
     <t xml:space="preserve">3.85256290435791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06551837921143</t>
+    <t xml:space="preserve">4.06551933288574</t>
   </si>
   <si>
     <t xml:space="preserve">4.12037086486816</t>
@@ -368,19 +368,19 @@
     <t xml:space="preserve">4.094557762146</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42665123939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98912382125854</t>
+    <t xml:space="preserve">3.42665147781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9891242980957</t>
   </si>
   <si>
     <t xml:space="preserve">3.16207003593445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27177500724792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32662677764893</t>
+    <t xml:space="preserve">3.27177429199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32662653923035</t>
   </si>
   <si>
     <t xml:space="preserve">3.35889267921448</t>
@@ -395,37 +395,37 @@
     <t xml:space="preserve">3.0407497882843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14529156684875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41374516487122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67832612991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70736527442932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82029700279236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76544499397278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82997727394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79448413848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83965611457825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83320355415344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86546945571899</t>
+    <t xml:space="preserve">3.14529180526733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41374492645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67832589149475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7073655128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82029676437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7654447555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82997632026672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79448390007019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83965659141541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83320331573486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86546874046326</t>
   </si>
   <si>
     <t xml:space="preserve">3.77512431144714</t>
@@ -434,13 +434,13 @@
     <t xml:space="preserve">3.90741467475891</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85901641845703</t>
+    <t xml:space="preserve">3.85901570320129</t>
   </si>
   <si>
     <t xml:space="preserve">4.04293251037598</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96549391746521</t>
+    <t xml:space="preserve">3.96549344062805</t>
   </si>
   <si>
     <t xml:space="preserve">3.63960695266724</t>
@@ -449,13 +449,13 @@
     <t xml:space="preserve">3.65251350402832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97194695472717</t>
+    <t xml:space="preserve">3.97194743156433</t>
   </si>
   <si>
     <t xml:space="preserve">4.2365288734436</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20748949050903</t>
+    <t xml:space="preserve">4.20748853683472</t>
   </si>
   <si>
     <t xml:space="preserve">4.16554307937622</t>
@@ -464,10 +464,10 @@
     <t xml:space="preserve">4.1784496307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11069107055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07519817352295</t>
+    <t xml:space="preserve">4.11069059371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07519865036011</t>
   </si>
   <si>
     <t xml:space="preserve">4.0590648651123</t>
@@ -476,19 +476,19 @@
     <t xml:space="preserve">3.94613432884216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98162698745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19135618209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15909004211426</t>
+    <t xml:space="preserve">3.98162651062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19135570526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15909051895142</t>
   </si>
   <si>
     <t xml:space="preserve">4.22039556503296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32364702224731</t>
+    <t xml:space="preserve">4.32364654541016</t>
   </si>
   <si>
     <t xml:space="preserve">4.42367124557495</t>
@@ -503,64 +503,64 @@
     <t xml:space="preserve">4.43657827377319</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33332681655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98485326766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0461597442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93645477294922</t>
+    <t xml:space="preserve">4.33332633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98485374450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04615926742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93645429611206</t>
   </si>
   <si>
     <t xml:space="preserve">4.02679967880249</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03325223922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73317813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78157758712769</t>
+    <t xml:space="preserve">4.03325271606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73317837715149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78157734870911</t>
   </si>
   <si>
     <t xml:space="preserve">3.71059226989746</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73640489578247</t>
+    <t xml:space="preserve">3.73640537261963</t>
   </si>
   <si>
     <t xml:space="preserve">3.72672510147095</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72995185852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93322706222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03647994995117</t>
+    <t xml:space="preserve">3.72995233535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93322825431824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03647899627686</t>
   </si>
   <si>
     <t xml:space="preserve">3.90096211433411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99776029586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13650369644165</t>
+    <t xml:space="preserve">3.99776005744934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13650321960449</t>
   </si>
   <si>
     <t xml:space="preserve">4.26556825637817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38817930221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4398045539856</t>
+    <t xml:space="preserve">4.38817882537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43980407714844</t>
   </si>
   <si>
     <t xml:space="preserve">4.5236964225769</t>
@@ -569,7 +569,7 @@
     <t xml:space="preserve">4.33655309677124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10423851013184</t>
+    <t xml:space="preserve">4.10423803329468</t>
   </si>
   <si>
     <t xml:space="preserve">4.28170108795166</t>
@@ -578,13 +578,13 @@
     <t xml:space="preserve">4.42689800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42044448852539</t>
+    <t xml:space="preserve">4.42044496536255</t>
   </si>
   <si>
     <t xml:space="preserve">4.54305553436279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55918836593628</t>
+    <t xml:space="preserve">4.55918884277344</t>
   </si>
   <si>
     <t xml:space="preserve">4.49142980575562</t>
@@ -593,13 +593,13 @@
     <t xml:space="preserve">4.39140558242798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21394205093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26442813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33847570419312</t>
+    <t xml:space="preserve">4.213942527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26442909240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33847618103027</t>
   </si>
   <si>
     <t xml:space="preserve">4.27452564239502</t>
@@ -620,31 +620,31 @@
     <t xml:space="preserve">4.38223075866699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52022743225098</t>
+    <t xml:space="preserve">4.52022695541382</t>
   </si>
   <si>
     <t xml:space="preserve">4.52695894241333</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3351092338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76592826843262</t>
+    <t xml:space="preserve">4.33511018753052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76592779159546</t>
   </si>
   <si>
     <t xml:space="preserve">4.99480104446411</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13279676437378</t>
+    <t xml:space="preserve">5.13279724121094</t>
   </si>
   <si>
     <t xml:space="preserve">4.9880690574646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01499557495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06884765625</t>
+    <t xml:space="preserve">5.01499509811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06884813308716</t>
   </si>
   <si>
     <t xml:space="preserve">5.11596822738647</t>
@@ -659,16 +659,16 @@
     <t xml:space="preserve">5.2505989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32801151275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29098844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27415943145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34147453308105</t>
+    <t xml:space="preserve">5.32801198959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29098796844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27415895462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34147500991821</t>
   </si>
   <si>
     <t xml:space="preserve">5.3381085395813</t>
@@ -683,10 +683,10 @@
     <t xml:space="preserve">5.22030735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3313775062561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48620271682739</t>
+    <t xml:space="preserve">5.33137702941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48620223999023</t>
   </si>
   <si>
     <t xml:space="preserve">5.51986074447632</t>
@@ -695,13 +695,13 @@
     <t xml:space="preserve">5.49293422698975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51312875747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26406192779541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32128047943115</t>
+    <t xml:space="preserve">5.51312923431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26406240463257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32128000259399</t>
   </si>
   <si>
     <t xml:space="preserve">5.3179144859314</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">5.38186407089233</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34484004974365</t>
+    <t xml:space="preserve">5.34484052658081</t>
   </si>
   <si>
     <t xml:space="preserve">5.42898416519165</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">5.35157203674316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43234968185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73527002334595</t>
+    <t xml:space="preserve">5.43235015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73526954650879</t>
   </si>
   <si>
     <t xml:space="preserve">5.91365528106689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72517251968384</t>
+    <t xml:space="preserve">5.725172996521</t>
   </si>
   <si>
     <t xml:space="preserve">5.65449094772339</t>
@@ -743,13 +743,13 @@
     <t xml:space="preserve">5.50303173065186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35493755340576</t>
+    <t xml:space="preserve">5.35493803024292</t>
   </si>
   <si>
     <t xml:space="preserve">5.48283720016479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25733089447021</t>
+    <t xml:space="preserve">5.2573299407959</t>
   </si>
   <si>
     <t xml:space="preserve">5.14626026153564</t>
@@ -761,22 +761,22 @@
     <t xml:space="preserve">5.24386692047119</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39869260787964</t>
+    <t xml:space="preserve">5.39869356155396</t>
   </si>
   <si>
     <t xml:space="preserve">5.52659177780151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49629974365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46600770950317</t>
+    <t xml:space="preserve">5.4963002204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46600818634033</t>
   </si>
   <si>
     <t xml:space="preserve">5.41552209854126</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36503505706787</t>
+    <t xml:space="preserve">5.36503458023071</t>
   </si>
   <si>
     <t xml:space="preserve">5.31118249893188</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">5.01162958145142</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04865264892578</t>
+    <t xml:space="preserve">5.04865312576294</t>
   </si>
   <si>
     <t xml:space="preserve">5.09240818023682</t>
@@ -806,10 +806,10 @@
     <t xml:space="preserve">5.57034683227539</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5804443359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66122198104858</t>
+    <t xml:space="preserve">5.58044385910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66122245788574</t>
   </si>
   <si>
     <t xml:space="preserve">5.60400485992432</t>
@@ -827,10 +827,10 @@
     <t xml:space="preserve">5.68478298187256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69824647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63766193389893</t>
+    <t xml:space="preserve">5.69824600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63766241073608</t>
   </si>
   <si>
     <t xml:space="preserve">5.70161247253418</t>
@@ -842,10 +842,10 @@
     <t xml:space="preserve">5.71507501602173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68814849853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55015230178833</t>
+    <t xml:space="preserve">5.68814897537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55015277862549</t>
   </si>
   <si>
     <t xml:space="preserve">5.56024980545044</t>
@@ -857,10 +857,10 @@
     <t xml:space="preserve">5.59390830993652</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47947216033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42561912536621</t>
+    <t xml:space="preserve">5.4794716835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42561960220337</t>
   </si>
   <si>
     <t xml:space="preserve">5.17991781234741</t>
@@ -869,70 +869,70 @@
     <t xml:space="preserve">5.7487325668335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83624315261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75546407699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71844053268433</t>
+    <t xml:space="preserve">5.83624267578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75546455383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71844100952148</t>
   </si>
   <si>
     <t xml:space="preserve">5.94058132171631</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95741033554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97760486602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0954065322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17955160140991</t>
+    <t xml:space="preserve">5.95741081237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97760534286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09540700912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17955112457275</t>
   </si>
   <si>
     <t xml:space="preserve">6.14252758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12569808959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1088695526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18628215789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15262508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.176185131073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0045313835144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02472639083862</t>
+    <t xml:space="preserve">6.12569856643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10887002944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18628168106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1526255607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17618560791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00453090667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02472543716431</t>
   </si>
   <si>
     <t xml:space="preserve">6.0752124786377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11896800994873</t>
+    <t xml:space="preserve">6.11896753311157</t>
   </si>
   <si>
     <t xml:space="preserve">6.15935659408569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12906455993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10213756561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01126289367676</t>
+    <t xml:space="preserve">6.12906408309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10213804244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0112624168396</t>
   </si>
   <si>
     <t xml:space="preserve">5.82277965545654</t>
@@ -941,22 +941,22 @@
     <t xml:space="preserve">5.6814169883728</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70497846603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61073637008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63093042373657</t>
+    <t xml:space="preserve">5.70497798919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61073589324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63093090057373</t>
   </si>
   <si>
     <t xml:space="preserve">5.72853803634644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78239059448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76219654083252</t>
+    <t xml:space="preserve">5.78239107131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76219606399536</t>
   </si>
   <si>
     <t xml:space="preserve">5.81941413879395</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">5.75883007049561</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65112543106079</t>
+    <t xml:space="preserve">5.65112590789795</t>
   </si>
   <si>
     <t xml:space="preserve">5.56361627578735</t>
@@ -977,25 +977,25 @@
     <t xml:space="preserve">5.72180652618408</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70834398269653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8530707359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83960819244385</t>
+    <t xml:space="preserve">5.70834302902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85307121276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83960914611816</t>
   </si>
   <si>
     <t xml:space="preserve">5.81604862213135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.923752784729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97423934936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90019273757935</t>
+    <t xml:space="preserve">5.92375230789185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97423887252808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90019226074219</t>
   </si>
   <si>
     <t xml:space="preserve">5.93721532821655</t>
@@ -1004,64 +1004,64 @@
     <t xml:space="preserve">5.97087335586548</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04492044448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10550308227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05838394165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06174945831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86316823959351</t>
+    <t xml:space="preserve">6.04491949081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10550403594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05838346481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06174850463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86316871643066</t>
   </si>
   <si>
     <t xml:space="preserve">5.88336277008057</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94731283187866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98770236968994</t>
+    <t xml:space="preserve">5.9473123550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98770189285278</t>
   </si>
   <si>
     <t xml:space="preserve">5.96077585220337</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9338493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92038679122925</t>
+    <t xml:space="preserve">5.93384981155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92038726806641</t>
   </si>
   <si>
     <t xml:space="preserve">6.06511545181274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05501842498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9910683631897</t>
+    <t xml:space="preserve">6.05501794815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99106788635254</t>
   </si>
   <si>
     <t xml:space="preserve">5.85643768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91028928756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90355777740479</t>
+    <t xml:space="preserve">5.91028881072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9035587310791</t>
   </si>
   <si>
     <t xml:space="preserve">5.84634065628052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74536657333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80258560180664</t>
+    <t xml:space="preserve">5.7453670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80258512496948</t>
   </si>
   <si>
     <t xml:space="preserve">5.69151449203491</t>
@@ -1070,13 +1070,13 @@
     <t xml:space="preserve">5.87326574325562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94394683837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87999725341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89009523391724</t>
+    <t xml:space="preserve">5.94394731521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87999773025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89009475708008</t>
   </si>
   <si>
     <t xml:space="preserve">5.96414184570312</t>
@@ -1088,88 +1088,88 @@
     <t xml:space="preserve">6.03818893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07857751846313</t>
+    <t xml:space="preserve">6.07857847213745</t>
   </si>
   <si>
     <t xml:space="preserve">6.11223554611206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1492600440979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09877252578735</t>
+    <t xml:space="preserve">6.14925909042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09877300262451</t>
   </si>
   <si>
     <t xml:space="preserve">6.19301462173462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13579511642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16608715057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13916206359863</t>
+    <t xml:space="preserve">6.13579559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16608762741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13916254043579</t>
   </si>
   <si>
     <t xml:space="preserve">6.1694540977478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17282009124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16272211074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21320915222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3175482749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38149738311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33437585830688</t>
+    <t xml:space="preserve">6.1728196144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16272306442261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21320867538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31754779815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38149690628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33437633514404</t>
   </si>
   <si>
     <t xml:space="preserve">6.42188692092896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48920154571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46227598190308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44208097457886</t>
+    <t xml:space="preserve">6.48920249938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46227645874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4420804977417</t>
   </si>
   <si>
     <t xml:space="preserve">6.52285861968994</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5161280632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65412521362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63729619979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64739322662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64066123962402</t>
+    <t xml:space="preserve">6.51612854003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65412425994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63729572296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64739227294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64066171646118</t>
   </si>
   <si>
     <t xml:space="preserve">6.62046670913696</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65438747406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5494818687439</t>
+    <t xml:space="preserve">6.6543869972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54948234558105</t>
   </si>
   <si>
     <t xml:space="preserve">6.62990856170654</t>
@@ -1178,19 +1178,19 @@
     <t xml:space="preserve">6.6264123916626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58794784545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51101970672607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65088987350464</t>
+    <t xml:space="preserve">6.58794832229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51101875305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6508903503418</t>
   </si>
   <si>
     <t xml:space="preserve">6.78027057647705</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71383237838745</t>
+    <t xml:space="preserve">6.71383285522461</t>
   </si>
   <si>
     <t xml:space="preserve">6.76278686523438</t>
@@ -1199,7 +1199,7 @@
     <t xml:space="preserve">6.7208251953125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61941957473755</t>
+    <t xml:space="preserve">6.61941909790039</t>
   </si>
   <si>
     <t xml:space="preserve">6.64389610290527</t>
@@ -1208,19 +1208,19 @@
     <t xml:space="preserve">6.73131561279297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7068395614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71033573150635</t>
+    <t xml:space="preserve">6.70683860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71033525466919</t>
   </si>
   <si>
     <t xml:space="preserve">6.67886447906494</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67187118530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53899192810059</t>
+    <t xml:space="preserve">6.67187070846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53899240493774</t>
   </si>
   <si>
     <t xml:space="preserve">6.57396030426025</t>
@@ -1238,28 +1238,28 @@
     <t xml:space="preserve">6.68585777282715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61592197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5634708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69634866714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85370349884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83272314071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83621978759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82572984695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84671068191528</t>
+    <t xml:space="preserve">6.61592245101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56347036361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69634771347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85370397567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83272361755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8362193107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82572937011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84671020507812</t>
   </si>
   <si>
     <t xml:space="preserve">6.93412923812866</t>
@@ -1268,43 +1268,43 @@
     <t xml:space="preserve">6.96210384368896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02155017852783</t>
+    <t xml:space="preserve">7.02154874801636</t>
   </si>
   <si>
     <t xml:space="preserve">6.9760913848877</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97259426116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92713642120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87468385696411</t>
+    <t xml:space="preserve">6.97259473800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9271354675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87468338012695</t>
   </si>
   <si>
     <t xml:space="preserve">6.89146852493286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79775524139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84810829162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91524648666382</t>
+    <t xml:space="preserve">6.7977557182312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84810781478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91524744033813</t>
   </si>
   <si>
     <t xml:space="preserve">6.95580959320068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89426612854004</t>
+    <t xml:space="preserve">6.89426565170288</t>
   </si>
   <si>
     <t xml:space="preserve">6.6928505897522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80195093154907</t>
+    <t xml:space="preserve">6.80195045471191</t>
   </si>
   <si>
     <t xml:space="preserve">6.74879932403564</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">6.79635667800903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.850905418396</t>
+    <t xml:space="preserve">6.85090589523315</t>
   </si>
   <si>
     <t xml:space="preserve">6.89286708831787</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91105127334595</t>
+    <t xml:space="preserve">6.91105031967163</t>
   </si>
   <si>
     <t xml:space="preserve">6.88307619094849</t>
@@ -1328,28 +1328,28 @@
     <t xml:space="preserve">6.90545654296875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91804504394531</t>
+    <t xml:space="preserve">6.91804456710815</t>
   </si>
   <si>
     <t xml:space="preserve">6.83412170410156</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89986085891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91384792327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95161247253418</t>
+    <t xml:space="preserve">6.89986038208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91384840011597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95161294937134</t>
   </si>
   <si>
     <t xml:space="preserve">6.85510206222534</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75579309463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63130807876587</t>
+    <t xml:space="preserve">6.75579357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63130760192871</t>
   </si>
   <si>
     <t xml:space="preserve">6.73900842666626</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">6.88167858123779</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90405702590942</t>
+    <t xml:space="preserve">6.90405750274658</t>
   </si>
   <si>
     <t xml:space="preserve">6.89706420898438</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">6.83132362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86069774627686</t>
+    <t xml:space="preserve">6.8606972694397</t>
   </si>
   <si>
     <t xml:space="preserve">6.89566516876221</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">6.84111452102661</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9166464805603</t>
+    <t xml:space="preserve">6.91664552688599</t>
   </si>
   <si>
     <t xml:space="preserve">6.80614757537842</t>
@@ -1388,13 +1388,13 @@
     <t xml:space="preserve">6.63830089569092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67047262191772</t>
+    <t xml:space="preserve">6.67047214508057</t>
   </si>
   <si>
     <t xml:space="preserve">6.67746591567993</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70404148101807</t>
+    <t xml:space="preserve">6.70404100418091</t>
   </si>
   <si>
     <t xml:space="preserve">6.78376722335815</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">6.85230541229248</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82712841033936</t>
+    <t xml:space="preserve">6.8271279335022</t>
   </si>
   <si>
     <t xml:space="preserve">6.99217700958252</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">7.08449125289917</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11246633529663</t>
+    <t xml:space="preserve">7.11246538162231</t>
   </si>
   <si>
     <t xml:space="preserve">7.25583457946777</t>
@@ -1424,22 +1424,22 @@
     <t xml:space="preserve">7.30828619003296</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1614203453064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14743375778198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03903293609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12645292282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00406551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15092945098877</t>
+    <t xml:space="preserve">7.16142082214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14743328094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03903341293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1264533996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.004065990448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15093040466309</t>
   </si>
   <si>
     <t xml:space="preserve">7.18589782714844</t>
@@ -1448,25 +1448,25 @@
     <t xml:space="preserve">6.99357461929321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90265846252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95720911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01455545425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9642014503479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62851047515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42289876937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31659746170044</t>
+    <t xml:space="preserve">6.90265798568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95720863342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01455593109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96420192718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62850999832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42289924621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31659698486328</t>
   </si>
   <si>
     <t xml:space="preserve">6.35715961456299</t>
@@ -1478,13 +1478,13 @@
     <t xml:space="preserve">5.95852613449097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59625911712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37246465682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75151634216309</t>
+    <t xml:space="preserve">5.59625959396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37246513366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75151586532593</t>
   </si>
   <si>
     <t xml:space="preserve">5.64241600036621</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">5.78928136825562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68997240066528</t>
+    <t xml:space="preserve">5.68997287750244</t>
   </si>
   <si>
     <t xml:space="preserve">5.54450654983521</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">5.72214365005493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59346151351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47457075119019</t>
+    <t xml:space="preserve">5.59346103668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47456979751587</t>
   </si>
   <si>
     <t xml:space="preserve">5.7417254447937</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">5.66479635238647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76969957351685</t>
+    <t xml:space="preserve">5.76969909667969</t>
   </si>
   <si>
     <t xml:space="preserve">5.71095323562622</t>
@@ -1532,7 +1532,7 @@
     <t xml:space="preserve">5.75291442871094</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89838171005249</t>
+    <t xml:space="preserve">5.89838123321533</t>
   </si>
   <si>
     <t xml:space="preserve">5.69416904449463</t>
@@ -1544,10 +1544,10 @@
     <t xml:space="preserve">5.57108163833618</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53471565246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56828451156616</t>
+    <t xml:space="preserve">5.53471517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.568284034729</t>
   </si>
   <si>
     <t xml:space="preserve">5.54031038284302</t>
@@ -1556,25 +1556,25 @@
     <t xml:space="preserve">5.6074481010437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68297958374023</t>
+    <t xml:space="preserve">5.68297910690308</t>
   </si>
   <si>
     <t xml:space="preserve">5.75711107254028</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66619491577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70256185531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62563180923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53051948547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55429744720459</t>
+    <t xml:space="preserve">5.66619443893433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.702561378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62563228607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53051900863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55429792404175</t>
   </si>
   <si>
     <t xml:space="preserve">5.6284294128418</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">5.64801168441772</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69976377487183</t>
+    <t xml:space="preserve">5.69976329803467</t>
   </si>
   <si>
     <t xml:space="preserve">5.68577671051025</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">5.71934604644775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88719177246094</t>
+    <t xml:space="preserve">5.8871922492981</t>
   </si>
   <si>
     <t xml:space="preserve">5.95432949066162</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">6.12077665328979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06622648239136</t>
+    <t xml:space="preserve">6.06622695922852</t>
   </si>
   <si>
     <t xml:space="preserve">6.21309185028076</t>
@@ -1622,34 +1622,34 @@
     <t xml:space="preserve">6.07042360305786</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15014886856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14595413208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15854263305664</t>
+    <t xml:space="preserve">6.15014934539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14595365524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15854215621948</t>
   </si>
   <si>
     <t xml:space="preserve">6.09559965133667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97530937194824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81865406036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94174146652222</t>
+    <t xml:space="preserve">5.9753098487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81865453720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94174194335938</t>
   </si>
   <si>
     <t xml:space="preserve">5.87600231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8941855430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99069690704346</t>
+    <t xml:space="preserve">5.89418506622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9906964302063</t>
   </si>
   <si>
     <t xml:space="preserve">5.87040662765503</t>
@@ -1664,43 +1664,43 @@
     <t xml:space="preserve">5.79627513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76130771636963</t>
+    <t xml:space="preserve">5.76130723953247</t>
   </si>
   <si>
     <t xml:space="preserve">5.7864842414856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60605001449585</t>
+    <t xml:space="preserve">5.60604953765869</t>
   </si>
   <si>
     <t xml:space="preserve">5.93195056915283</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1249737739563</t>
+    <t xml:space="preserve">6.12497329711914</t>
   </si>
   <si>
     <t xml:space="preserve">6.07182121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3403754234314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30680513381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33897686004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29701471328735</t>
+    <t xml:space="preserve">6.34037494659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30680561065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33897638320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29701519012451</t>
   </si>
   <si>
     <t xml:space="preserve">6.3137993812561</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42150020599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44248104095459</t>
+    <t xml:space="preserve">6.42150068283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44248151779175</t>
   </si>
   <si>
     <t xml:space="preserve">6.50961923599243</t>
@@ -1715,64 +1715,64 @@
     <t xml:space="preserve">6.36834955215454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48723983764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47605133056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41171026229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01727199554443</t>
+    <t xml:space="preserve">6.48724031448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47605037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41170978546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01727151870728</t>
   </si>
   <si>
     <t xml:space="preserve">5.83404016494751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8606162071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85222387313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75431346893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48576021194458</t>
+    <t xml:space="preserve">5.86061573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85222291946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75431299209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48576068878174</t>
   </si>
   <si>
     <t xml:space="preserve">5.53191804885864</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41582345962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36966705322266</t>
+    <t xml:space="preserve">5.4158239364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3696665763855</t>
   </si>
   <si>
     <t xml:space="preserve">5.37666082382202</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46058368682861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39764070510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34588861465454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50953817367554</t>
+    <t xml:space="preserve">5.46058320999146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3976411819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3458890914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50953769683838</t>
   </si>
   <si>
     <t xml:space="preserve">5.41022968292236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42281770706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23958683013916</t>
+    <t xml:space="preserve">5.42281818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.239586353302</t>
   </si>
   <si>
     <t xml:space="preserve">5.44100141525269</t>
@@ -1784,25 +1784,25 @@
     <t xml:space="preserve">5.44519710540771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45918464660645</t>
+    <t xml:space="preserve">5.4591851234436</t>
   </si>
   <si>
     <t xml:space="preserve">5.42141962051392</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54730415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48436069488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46338129043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48715877532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50254535675049</t>
+    <t xml:space="preserve">5.54730367660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48436117172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46338081359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48715925216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50254487991333</t>
   </si>
   <si>
     <t xml:space="preserve">5.49834871292114</t>
@@ -1820,7 +1820,7 @@
     <t xml:space="preserve">5.4350471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42462635040283</t>
+    <t xml:space="preserve">5.42462682723999</t>
   </si>
   <si>
     <t xml:space="preserve">5.46481990814209</t>
@@ -1847,10 +1847,10 @@
     <t xml:space="preserve">5.74170875549316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75361728668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58093452453613</t>
+    <t xml:space="preserve">5.75361680984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58093404769897</t>
   </si>
   <si>
     <t xml:space="preserve">5.57646894454956</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">5.44844484329224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42164945602417</t>
+    <t xml:space="preserve">5.42164897918701</t>
   </si>
   <si>
     <t xml:space="preserve">5.60028648376465</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">5.67323017120361</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58540010452271</t>
+    <t xml:space="preserve">5.58540058135986</t>
   </si>
   <si>
     <t xml:space="preserve">5.63452577590942</t>
@@ -1883,13 +1883,13 @@
     <t xml:space="preserve">5.61219596862793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47524070739746</t>
+    <t xml:space="preserve">5.4752402305603</t>
   </si>
   <si>
     <t xml:space="preserve">5.39187574386597</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49012660980225</t>
+    <t xml:space="preserve">5.4901270866394</t>
   </si>
   <si>
     <t xml:space="preserve">5.43653535842896</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">5.70002603530884</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77148103713989</t>
+    <t xml:space="preserve">5.77148151397705</t>
   </si>
   <si>
     <t xml:space="preserve">5.70895767211914</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">5.87568616867065</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93672037124634</t>
+    <t xml:space="preserve">5.9367208480835</t>
   </si>
   <si>
     <t xml:space="preserve">5.86228847503662</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">5.64345741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76403713226318</t>
+    <t xml:space="preserve">5.76403760910034</t>
   </si>
   <si>
     <t xml:space="preserve">5.76999187469482</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">5.87122011184692</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90099287033081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00668668746948</t>
+    <t xml:space="preserve">5.90099334716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00668716430664</t>
   </si>
   <si>
     <t xml:space="preserve">5.9694709777832</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">6.12875604629517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14513063430786</t>
+    <t xml:space="preserve">6.14513111114502</t>
   </si>
   <si>
     <t xml:space="preserve">6.22254085540771</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">6.31930255889893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38629198074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56641721725464</t>
+    <t xml:space="preserve">6.38629150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5664176940918</t>
   </si>
   <si>
     <t xml:space="preserve">6.43392848968506</t>
@@ -2045,31 +2045,31 @@
     <t xml:space="preserve">6.63787317276001</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68997478485107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83288621902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79120397567749</t>
+    <t xml:space="preserve">6.68997526168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8328857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79120349884033</t>
   </si>
   <si>
     <t xml:space="preserve">6.66318035125732</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71230411529541</t>
+    <t xml:space="preserve">6.71230459213257</t>
   </si>
   <si>
     <t xml:space="preserve">6.65871381759644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59619092941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64680576324463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7837610244751</t>
+    <t xml:space="preserve">6.59619140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64680528640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78376054763794</t>
   </si>
   <si>
     <t xml:space="preserve">6.8581919670105</t>
@@ -2078,10 +2078,10 @@
     <t xml:space="preserve">6.89392042160034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96090936660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86117029190063</t>
+    <t xml:space="preserve">6.96090841293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86116981506348</t>
   </si>
   <si>
     <t xml:space="preserve">6.87754440307617</t>
@@ -2090,13 +2090,13 @@
     <t xml:space="preserve">6.91773796081543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96388626098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90285205841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92518138885498</t>
+    <t xml:space="preserve">6.96388673782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90285158157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92518186569214</t>
   </si>
   <si>
     <t xml:space="preserve">7.02492046356201</t>
@@ -2114,37 +2114,37 @@
     <t xml:space="preserve">7.13210344314575</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07106924057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98770427703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96686315536499</t>
+    <t xml:space="preserve">7.07106876373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98770475387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96686363220215</t>
   </si>
   <si>
     <t xml:space="preserve">7.00705718994141</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13508081436157</t>
+    <t xml:space="preserve">7.13508129119873</t>
   </si>
   <si>
     <t xml:space="preserve">7.03385257720947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07404565811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85223817825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69295263290405</t>
+    <t xml:space="preserve">7.07404613494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223865509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69295215606689</t>
   </si>
   <si>
     <t xml:space="preserve">6.77929401397705</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62298631668091</t>
+    <t xml:space="preserve">6.62298679351807</t>
   </si>
   <si>
     <t xml:space="preserve">6.47561073303223</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">6.42350769042969</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36396169662476</t>
+    <t xml:space="preserve">6.36396217346191</t>
   </si>
   <si>
     <t xml:space="preserve">6.32079124450684</t>
   </si>
   <si>
-    <t xml:space="preserve">6.23891544342041</t>
+    <t xml:space="preserve">6.23891496658325</t>
   </si>
   <si>
     <t xml:space="preserve">6.22998332977295</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">6.15704011917114</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12131261825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28059768676758</t>
+    <t xml:space="preserve">6.12131309509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28059720993042</t>
   </si>
   <si>
     <t xml:space="preserve">6.24635934829712</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27762079238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37289428710938</t>
+    <t xml:space="preserve">6.27762031555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37289476394653</t>
   </si>
   <si>
     <t xml:space="preserve">6.37140607833862</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">6.37884759902954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34609889984131</t>
+    <t xml:space="preserve">6.34609842300415</t>
   </si>
   <si>
     <t xml:space="preserve">6.34460973739624</t>
@@ -2216,19 +2216,19 @@
     <t xml:space="preserve">6.48305368423462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58130502700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56046342849731</t>
+    <t xml:space="preserve">6.5813045501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56046390533447</t>
   </si>
   <si>
     <t xml:space="preserve">6.61107683181763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58874797821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7227258682251</t>
+    <t xml:space="preserve">6.58874750137329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72272539138794</t>
   </si>
   <si>
     <t xml:space="preserve">6.76738548278809</t>
@@ -2237,22 +2237,22 @@
     <t xml:space="preserve">6.74803304672241</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66169166564941</t>
+    <t xml:space="preserve">6.66169118881226</t>
   </si>
   <si>
     <t xml:space="preserve">6.73761224746704</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91327238082886</t>
+    <t xml:space="preserve">6.91327285766602</t>
   </si>
   <si>
     <t xml:space="preserve">7.05022764205933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01598930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95346641540527</t>
+    <t xml:space="preserve">7.01598882675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95346593856812</t>
   </si>
   <si>
     <t xml:space="preserve">6.93113660812378</t>
@@ -2264,19 +2264,19 @@
     <t xml:space="preserve">6.98472738265991</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99068212509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93857908248901</t>
+    <t xml:space="preserve">6.99068260192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93857860565186</t>
   </si>
   <si>
     <t xml:space="preserve">7.01301193237305</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97579574584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99365997314453</t>
+    <t xml:space="preserve">6.97579526901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99365949630737</t>
   </si>
   <si>
     <t xml:space="preserve">6.84777212142944</t>
@@ -2288,10 +2288,10 @@
     <t xml:space="preserve">6.95644330978394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92964887619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94453382492065</t>
+    <t xml:space="preserve">6.92964839935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94453430175781</t>
   </si>
   <si>
     <t xml:space="preserve">6.76440858840942</t>
@@ -2342,31 +2342,31 @@
     <t xml:space="preserve">6.45328092575073</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53366756439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55599737167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6125659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7063512802124</t>
+    <t xml:space="preserve">6.53366804122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55599689483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61256551742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70635080337524</t>
   </si>
   <si>
     <t xml:space="preserve">6.78822612762451</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02938652038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04576206207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13359212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08000087738037</t>
+    <t xml:space="preserve">7.0293869972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0457615852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13359260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08000135421753</t>
   </si>
   <si>
     <t xml:space="preserve">7.11572885513306</t>
@@ -2375,7 +2375,7 @@
     <t xml:space="preserve">7.18271684646606</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11424016952515</t>
+    <t xml:space="preserve">7.11423969268799</t>
   </si>
   <si>
     <t xml:space="preserve">7.08446645736694</t>
@@ -2390,13 +2390,13 @@
     <t xml:space="preserve">7.36582088470459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37624168395996</t>
+    <t xml:space="preserve">7.37624073028564</t>
   </si>
   <si>
     <t xml:space="preserve">7.41792297363281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52138471603394</t>
+    <t xml:space="preserve">7.52138376235962</t>
   </si>
   <si>
     <t xml:space="preserve">7.42536687850952</t>
@@ -2405,19 +2405,19 @@
     <t xml:space="preserve">7.45811748504639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42834281921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22291135787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31074094772339</t>
+    <t xml:space="preserve">7.42834377288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22291088104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31073999404907</t>
   </si>
   <si>
     <t xml:space="preserve">7.27799081802368</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2973427772522</t>
+    <t xml:space="preserve">7.29734373092651</t>
   </si>
   <si>
     <t xml:space="preserve">7.25417280197144</t>
@@ -2429,7 +2429,7 @@
     <t xml:space="preserve">7.51022005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67769145965576</t>
+    <t xml:space="preserve">7.67769241333008</t>
   </si>
   <si>
     <t xml:space="preserve">7.7632908821106</t>
@@ -2444,13 +2444,13 @@
     <t xml:space="preserve">7.88238096237183</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86005115509033</t>
+    <t xml:space="preserve">7.86005210876465</t>
   </si>
   <si>
     <t xml:space="preserve">7.93448352813721</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01263809204102</t>
+    <t xml:space="preserve">8.0126371383667</t>
   </si>
   <si>
     <t xml:space="preserve">8.07218360900879</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">7.94564867019653</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92704105377197</t>
+    <t xml:space="preserve">7.92704010009766</t>
   </si>
   <si>
     <t xml:space="preserve">7.99030733108521</t>
@@ -2480,7 +2480,7 @@
     <t xml:space="preserve">8.0238037109375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76701211929321</t>
+    <t xml:space="preserve">7.7670111656189</t>
   </si>
   <si>
     <t xml:space="preserve">7.92331886291504</t>
@@ -5520,6 +5520,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.3299999237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.375</t>
   </si>
 </sst>
 </file>
@@ -61605,7 +61608,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6517361111</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>2219998</v>
@@ -61626,6 +61629,32 @@
         <v>1835</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6493055556</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>2103844</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>14.375</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>14.1149997711182</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>14.3000001907349</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>14.375</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="1838">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">5.16579008102417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1367506980896</t>
+    <t xml:space="preserve">5.13675117492676</t>
   </si>
   <si>
     <t xml:space="preserve">5.25936079025269</t>
@@ -65,61 +65,61 @@
     <t xml:space="preserve">5.31744003295898</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25290870666504</t>
+    <t xml:space="preserve">5.25290822982788</t>
   </si>
   <si>
     <t xml:space="preserve">5.05285882949829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81086397171021</t>
+    <t xml:space="preserve">4.81086301803589</t>
   </si>
   <si>
     <t xml:space="preserve">4.91088819503784</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71406507492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97541999816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99155426025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83022308349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90766143798828</t>
+    <t xml:space="preserve">4.71406555175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9754204750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99155330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83022356033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90766191482544</t>
   </si>
   <si>
     <t xml:space="preserve">4.83344984054565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5688681602478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75278425216675</t>
+    <t xml:space="preserve">4.56886863708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75278472900391</t>
   </si>
   <si>
     <t xml:space="preserve">4.60436058044434</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47852373123169</t>
+    <t xml:space="preserve">4.47852277755737</t>
   </si>
   <si>
     <t xml:space="preserve">4.27524757385254</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36881971359253</t>
+    <t xml:space="preserve">4.36881923675537</t>
   </si>
   <si>
     <t xml:space="preserve">4.25911474227905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86224341392517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64606022834778</t>
+    <t xml:space="preserve">3.86224222183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6460599899292</t>
   </si>
   <si>
     <t xml:space="preserve">3.92032146453857</t>
@@ -128,19 +128,19 @@
     <t xml:space="preserve">3.7138192653656</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78480434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89450883865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93000149726868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00421285629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88805508613586</t>
+    <t xml:space="preserve">3.78480386734009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89450812339783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93000173568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00421333312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88805556297302</t>
   </si>
   <si>
     <t xml:space="preserve">3.85578918457031</t>
@@ -149,67 +149,67 @@
     <t xml:space="preserve">4.01066637039185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91064143180847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8686957359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92354798316956</t>
+    <t xml:space="preserve">3.91064190864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86869525909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92354822158813</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357292175293</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03970575332642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20426225662231</t>
+    <t xml:space="preserve">4.03970623016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20426273345947</t>
   </si>
   <si>
     <t xml:space="preserve">4.36559247970581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3817253112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29783391952515</t>
+    <t xml:space="preserve">4.38172578811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2978343963623</t>
   </si>
   <si>
     <t xml:space="preserve">4.17522287368774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23007488250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24298191070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30751419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68179893493652</t>
+    <t xml:space="preserve">4.23007535934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24298238754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30751371383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68179941177368</t>
   </si>
   <si>
     <t xml:space="preserve">4.7301983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57209539413452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59145450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31074047088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34946012496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37204504013062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29138088226318</t>
+    <t xml:space="preserve">4.57209491729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59145498275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31073999404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34945917129517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37204551696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29138040542603</t>
   </si>
   <si>
     <t xml:space="preserve">4.26234102249146</t>
@@ -218,22 +218,22 @@
     <t xml:space="preserve">4.14295721054077</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16876935958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08487844467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04938554763794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09133100509644</t>
+    <t xml:space="preserve">4.16877031326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08487749099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04938507080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09133148193359</t>
   </si>
   <si>
     <t xml:space="preserve">4.01389265060425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0526123046875</t>
+    <t xml:space="preserve">4.05261278152466</t>
   </si>
   <si>
     <t xml:space="preserve">3.84933614730835</t>
@@ -245,40 +245,40 @@
     <t xml:space="preserve">4.11714458465576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03002548217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23975515365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31719303131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24620819091797</t>
+    <t xml:space="preserve">4.03002595901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23975610733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31719398498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24620866775513</t>
   </si>
   <si>
     <t xml:space="preserve">4.51724290847778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52046918869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6656665802002</t>
+    <t xml:space="preserve">4.5204701423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66566562652588</t>
   </si>
   <si>
     <t xml:space="preserve">4.68502616882324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69470596313477</t>
+    <t xml:space="preserve">4.69470548629761</t>
   </si>
   <si>
     <t xml:space="preserve">4.63017416000366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49788284301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32687377929688</t>
+    <t xml:space="preserve">4.49788331985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32687330245972</t>
   </si>
   <si>
     <t xml:space="preserve">4.14940977096558</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">4.1139178276062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06229257583618</t>
+    <t xml:space="preserve">4.06229162216187</t>
   </si>
   <si>
     <t xml:space="preserve">4.13327741622925</t>
@@ -299,67 +299,67 @@
     <t xml:space="preserve">4.20103597640991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18812894821167</t>
+    <t xml:space="preserve">4.18812942504883</t>
   </si>
   <si>
     <t xml:space="preserve">4.17199659347534</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24943494796753</t>
+    <t xml:space="preserve">4.24943447113037</t>
   </si>
   <si>
     <t xml:space="preserve">4.28815412521362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5043363571167</t>
+    <t xml:space="preserve">4.50433683395386</t>
   </si>
   <si>
     <t xml:space="preserve">4.6075873374939</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59790802001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65275955200195</t>
+    <t xml:space="preserve">4.59790849685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65276050567627</t>
   </si>
   <si>
     <t xml:space="preserve">4.63985395431519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41399192810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38495254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27202081680298</t>
+    <t xml:space="preserve">4.41399145126343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38495206832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27202033996582</t>
   </si>
   <si>
     <t xml:space="preserve">4.25588750839233</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18167638778687</t>
+    <t xml:space="preserve">4.18167591094971</t>
   </si>
   <si>
     <t xml:space="preserve">3.95258736610413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7589910030365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61702132225037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.717045545578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70413851737976</t>
+    <t xml:space="preserve">3.75899195671082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61702108383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71704578399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70413875579834</t>
   </si>
   <si>
     <t xml:space="preserve">3.85256290435791</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06551933288574</t>
+    <t xml:space="preserve">4.06551837921143</t>
   </si>
   <si>
     <t xml:space="preserve">4.12037086486816</t>
@@ -368,64 +368,64 @@
     <t xml:space="preserve">4.094557762146</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42665147781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9891242980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16207003593445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27177429199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32662653923035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35889267921448</t>
+    <t xml:space="preserve">3.42665123939514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98912382125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16206979751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27177453041077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32662725448608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35889291763306</t>
   </si>
   <si>
     <t xml:space="preserve">3.21756768226624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11431646347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0407497882843</t>
+    <t xml:space="preserve">3.11431622505188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.04075002670288</t>
   </si>
   <si>
     <t xml:space="preserve">3.14529180526733</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41374492645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67832589149475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7073655128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82029676437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7654447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82997632026672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79448390007019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83965659141541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83320331573486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86546874046326</t>
+    <t xml:space="preserve">3.41374516487122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67832636833191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70736575126648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82029700279236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76544451713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82997679710388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79448413848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83965611457825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83320307731628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86546945571899</t>
   </si>
   <si>
     <t xml:space="preserve">3.77512431144714</t>
@@ -434,55 +434,55 @@
     <t xml:space="preserve">3.90741467475891</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85901570320129</t>
+    <t xml:space="preserve">3.85901546478271</t>
   </si>
   <si>
     <t xml:space="preserve">4.04293251037598</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96549344062805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63960695266724</t>
+    <t xml:space="preserve">3.96549439430237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63960671424866</t>
   </si>
   <si>
     <t xml:space="preserve">3.65251350402832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97194743156433</t>
+    <t xml:space="preserve">3.97194695472717</t>
   </si>
   <si>
     <t xml:space="preserve">4.2365288734436</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20748853683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16554307937622</t>
+    <t xml:space="preserve">4.20748949050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16554355621338</t>
   </si>
   <si>
     <t xml:space="preserve">4.1784496307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11069059371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07519865036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0590648651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94613432884216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98162651062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19135570526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15909051895142</t>
+    <t xml:space="preserve">4.11069107055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07519817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05906534194946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94613456726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98162722587585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19135618209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15909004211426</t>
   </si>
   <si>
     <t xml:space="preserve">4.22039556503296</t>
@@ -494,37 +494,37 @@
     <t xml:space="preserve">4.42367124557495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35591268539429</t>
+    <t xml:space="preserve">4.35591220855713</t>
   </si>
   <si>
     <t xml:space="preserve">4.47529745101929</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43657827377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33332633972168</t>
+    <t xml:space="preserve">4.43657779693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.333327293396</t>
   </si>
   <si>
     <t xml:space="preserve">3.98485374450684</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04615926742554</t>
+    <t xml:space="preserve">4.04615879058838</t>
   </si>
   <si>
     <t xml:space="preserve">3.93645429611206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02679967880249</t>
+    <t xml:space="preserve">4.02679920196533</t>
   </si>
   <si>
     <t xml:space="preserve">4.03325271606445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73317837715149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78157734870911</t>
+    <t xml:space="preserve">3.73317766189575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78157782554626</t>
   </si>
   <si>
     <t xml:space="preserve">3.71059226989746</t>
@@ -533,34 +533,34 @@
     <t xml:space="preserve">3.73640537261963</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72672510147095</t>
+    <t xml:space="preserve">3.72672557830811</t>
   </si>
   <si>
     <t xml:space="preserve">3.72995233535767</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93322825431824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03647899627686</t>
+    <t xml:space="preserve">3.9332275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03647994995117</t>
   </si>
   <si>
     <t xml:space="preserve">3.90096211433411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.99776005744934</t>
+    <t xml:space="preserve">3.99775981903076</t>
   </si>
   <si>
     <t xml:space="preserve">4.13650321960449</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26556825637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38817882537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43980407714844</t>
+    <t xml:space="preserve">4.26556777954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38817834854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43980503082275</t>
   </si>
   <si>
     <t xml:space="preserve">4.5236964225769</t>
@@ -578,13 +578,13 @@
     <t xml:space="preserve">4.42689800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42044496536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54305553436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55918884277344</t>
+    <t xml:space="preserve">4.42044448852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54305601119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55918836593628</t>
   </si>
   <si>
     <t xml:space="preserve">4.49142980575562</t>
@@ -593,52 +593,52 @@
     <t xml:space="preserve">4.39140558242798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.213942527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26442909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33847618103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27452564239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2307710647583</t>
+    <t xml:space="preserve">4.21394205093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26442861557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33847570419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27452611923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23077058792114</t>
   </si>
   <si>
     <t xml:space="preserve">4.17355298995972</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0523853302002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22403955459595</t>
+    <t xml:space="preserve">4.05238580703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22403907775879</t>
   </si>
   <si>
     <t xml:space="preserve">4.38223075866699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52022695541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52695894241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33511018753052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76592779159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99480104446411</t>
+    <t xml:space="preserve">4.52022790908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52695846557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3351092338562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76592826843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99480056762695</t>
   </si>
   <si>
     <t xml:space="preserve">5.13279724121094</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9880690574646</t>
+    <t xml:space="preserve">4.98806858062744</t>
   </si>
   <si>
     <t xml:space="preserve">5.01499509811401</t>
@@ -650,22 +650,22 @@
     <t xml:space="preserve">5.11596822738647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28762292861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22703886032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2505989074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32801198959351</t>
+    <t xml:space="preserve">5.28762245178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22703838348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25059938430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32801151275635</t>
   </si>
   <si>
     <t xml:space="preserve">5.29098796844482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27415895462036</t>
+    <t xml:space="preserve">5.27415943145752</t>
   </si>
   <si>
     <t xml:space="preserve">5.34147500991821</t>
@@ -677,34 +677,34 @@
     <t xml:space="preserve">5.27079343795776</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23040390014648</t>
+    <t xml:space="preserve">5.2304048538208</t>
   </si>
   <si>
     <t xml:space="preserve">5.22030735015869</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33137702941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48620223999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51986074447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49293422698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.51312923431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26406240463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32128000259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3179144859314</t>
+    <t xml:space="preserve">5.33137798309326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48620271682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51986026763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4929347038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.51312828063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26406192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32128047943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31791400909424</t>
   </si>
   <si>
     <t xml:space="preserve">5.19338130950928</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">5.40205812454224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38186407089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34484052658081</t>
+    <t xml:space="preserve">5.38186359405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34484004974365</t>
   </si>
   <si>
     <t xml:space="preserve">5.42898416519165</t>
@@ -734,64 +734,64 @@
     <t xml:space="preserve">5.91365528106689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.725172996521</t>
+    <t xml:space="preserve">5.72517204284668</t>
   </si>
   <si>
     <t xml:space="preserve">5.65449094772339</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50303173065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35493803024292</t>
+    <t xml:space="preserve">5.5030312538147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35493755340576</t>
   </si>
   <si>
     <t xml:space="preserve">5.48283720016479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2573299407959</t>
+    <t xml:space="preserve">5.25733089447021</t>
   </si>
   <si>
     <t xml:space="preserve">5.14626026153564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30445146560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24386692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39869356155396</t>
+    <t xml:space="preserve">5.30445098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24386739730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39869260787964</t>
   </si>
   <si>
     <t xml:space="preserve">5.52659177780151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4963002204895</t>
+    <t xml:space="preserve">5.49629974365234</t>
   </si>
   <si>
     <t xml:space="preserve">5.46600818634033</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41552209854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36503458023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31118249893188</t>
+    <t xml:space="preserve">5.4155216217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36503505706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31118297576904</t>
   </si>
   <si>
     <t xml:space="preserve">5.1563572883606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01162958145142</t>
+    <t xml:space="preserve">5.01162910461426</t>
   </si>
   <si>
     <t xml:space="preserve">5.04865312576294</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09240818023682</t>
+    <t xml:space="preserve">5.0924072265625</t>
   </si>
   <si>
     <t xml:space="preserve">5.28425645828247</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">5.58044385910034</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66122245788574</t>
+    <t xml:space="preserve">5.66122198104858</t>
   </si>
   <si>
     <t xml:space="preserve">5.60400485992432</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">5.68478298187256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69824600219727</t>
+    <t xml:space="preserve">5.69824695587158</t>
   </si>
   <si>
     <t xml:space="preserve">5.63766241073608</t>
@@ -836,31 +836,31 @@
     <t xml:space="preserve">5.70161247253418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67805194854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71507501602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68814897537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55015277862549</t>
+    <t xml:space="preserve">5.67805242538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71507453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68814945220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55015230178833</t>
   </si>
   <si>
     <t xml:space="preserve">5.56024980545044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55688381195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59390830993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4794716835022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42561960220337</t>
+    <t xml:space="preserve">5.55688428878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59390783309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47947120666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42561912536621</t>
   </si>
   <si>
     <t xml:space="preserve">5.17991781234741</t>
@@ -872,43 +872,43 @@
     <t xml:space="preserve">5.83624267578125</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75546455383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71844100952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94058132171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95741081237793</t>
+    <t xml:space="preserve">5.75546360015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71844053268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94058179855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95740985870361</t>
   </si>
   <si>
     <t xml:space="preserve">5.97760534286499</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09540700912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17955112457275</t>
+    <t xml:space="preserve">6.09540748596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17955160140991</t>
   </si>
   <si>
     <t xml:space="preserve">6.14252758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12569856643677</t>
+    <t xml:space="preserve">6.12569904327393</t>
   </si>
   <si>
     <t xml:space="preserve">6.10887002944946</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18628168106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1526255607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17618560791016</t>
+    <t xml:space="preserve">6.18628263473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15262508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17618465423584</t>
   </si>
   <si>
     <t xml:space="preserve">6.00453090667725</t>
@@ -920,19 +920,19 @@
     <t xml:space="preserve">6.0752124786377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11896753311157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15935659408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12906408309937</t>
+    <t xml:space="preserve">6.11896800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15935611724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12906455993652</t>
   </si>
   <si>
     <t xml:space="preserve">6.10213804244995</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0112624168396</t>
+    <t xml:space="preserve">6.01126337051392</t>
   </si>
   <si>
     <t xml:space="preserve">5.82277965545654</t>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">5.61073589324951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63093090057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72853803634644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78239107131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76219606399536</t>
+    <t xml:space="preserve">5.63093042373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72853851318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78239154815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76219654083252</t>
   </si>
   <si>
     <t xml:space="preserve">5.81941413879395</t>
@@ -965,46 +965,46 @@
     <t xml:space="preserve">5.73863506317139</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75883007049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65112590789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56361627578735</t>
+    <t xml:space="preserve">5.75883054733276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65112543106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5636157989502</t>
   </si>
   <si>
     <t xml:space="preserve">5.72180652618408</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70834302902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85307121276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83960914611816</t>
+    <t xml:space="preserve">5.70834398269653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8530707359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83960819244385</t>
   </si>
   <si>
     <t xml:space="preserve">5.81604862213135</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92375230789185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97423887252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90019226074219</t>
+    <t xml:space="preserve">5.923752784729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97423934936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90019273757935</t>
   </si>
   <si>
     <t xml:space="preserve">5.93721532821655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97087335586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04491949081421</t>
+    <t xml:space="preserve">5.97087383270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04491996765137</t>
   </si>
   <si>
     <t xml:space="preserve">6.10550403594971</t>
@@ -1022,55 +1022,55 @@
     <t xml:space="preserve">5.88336277008057</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9473123550415</t>
+    <t xml:space="preserve">5.94731283187866</t>
   </si>
   <si>
     <t xml:space="preserve">5.98770189285278</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96077585220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93384981155396</t>
+    <t xml:space="preserve">5.96077632904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9338493347168</t>
   </si>
   <si>
     <t xml:space="preserve">5.92038726806641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06511545181274</t>
+    <t xml:space="preserve">6.06511497497559</t>
   </si>
   <si>
     <t xml:space="preserve">6.05501794815063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99106788635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85643768310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91028881072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9035587310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84634065628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7453670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80258512496948</t>
+    <t xml:space="preserve">5.9910683631897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85643720626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9102897644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90355825424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84634017944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74536657333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80258560180664</t>
   </si>
   <si>
     <t xml:space="preserve">5.69151449203491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87326574325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94394731521606</t>
+    <t xml:space="preserve">5.87326622009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94394683837891</t>
   </si>
   <si>
     <t xml:space="preserve">5.87999773025513</t>
@@ -1079,88 +1079,88 @@
     <t xml:space="preserve">5.89009475708008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96414184570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05165195465088</t>
+    <t xml:space="preserve">5.96414136886597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05165100097656</t>
   </si>
   <si>
     <t xml:space="preserve">6.03818893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07857847213745</t>
+    <t xml:space="preserve">6.07857799530029</t>
   </si>
   <si>
     <t xml:space="preserve">6.11223554611206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14925909042358</t>
+    <t xml:space="preserve">6.14925956726074</t>
   </si>
   <si>
     <t xml:space="preserve">6.09877300262451</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19301462173462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13579559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16608762741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13916254043579</t>
+    <t xml:space="preserve">6.19301414489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13579607009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16608810424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13916206359863</t>
   </si>
   <si>
     <t xml:space="preserve">6.1694540977478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1728196144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16272306442261</t>
+    <t xml:space="preserve">6.17282009124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16272211074829</t>
   </si>
   <si>
     <t xml:space="preserve">6.21320867538452</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31754779815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38149690628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33437633514404</t>
+    <t xml:space="preserve">6.3175482749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38149738311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33437585830688</t>
   </si>
   <si>
     <t xml:space="preserve">6.42188692092896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48920249938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46227645874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4420804977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52285861968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51612854003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65412425994873</t>
+    <t xml:space="preserve">6.48920202255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46227550506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44208097457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5228590965271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5161280632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65412569046021</t>
   </si>
   <si>
     <t xml:space="preserve">6.63729572296143</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64739227294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64066171646118</t>
+    <t xml:space="preserve">6.64739274978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64066076278687</t>
   </si>
   <si>
     <t xml:space="preserve">6.62046670913696</t>
@@ -1169,55 +1169,55 @@
     <t xml:space="preserve">6.6543869972229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54948234558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62990856170654</t>
+    <t xml:space="preserve">6.54948282241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6299090385437</t>
   </si>
   <si>
     <t xml:space="preserve">6.6264123916626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58794832229614</t>
+    <t xml:space="preserve">6.58794784545898</t>
   </si>
   <si>
     <t xml:space="preserve">6.51101875305176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6508903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78027057647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71383285522461</t>
+    <t xml:space="preserve">6.65089082717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78027009963989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71383190155029</t>
   </si>
   <si>
     <t xml:space="preserve">6.76278686523438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7208251953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61941909790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64389610290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73131561279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70683860778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71033525466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67886447906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67187070846558</t>
+    <t xml:space="preserve">6.72082567214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61941862106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64389562606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73131656646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70683908462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71033620834351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67886304855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67187118530273</t>
   </si>
   <si>
     <t xml:space="preserve">6.53899240493774</t>
@@ -1226,100 +1226,100 @@
     <t xml:space="preserve">6.57396030426025</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6054310798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66487693786621</t>
+    <t xml:space="preserve">6.60543155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66487741470337</t>
   </si>
   <si>
     <t xml:space="preserve">6.68935441970825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68585777282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61592245101929</t>
+    <t xml:space="preserve">6.68585872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61592197418213</t>
   </si>
   <si>
     <t xml:space="preserve">6.56347036361694</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69634771347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85370397567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83272361755371</t>
+    <t xml:space="preserve">6.69634819030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85370349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83272314071655</t>
   </si>
   <si>
     <t xml:space="preserve">6.8362193107605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82572937011719</t>
+    <t xml:space="preserve">6.82572984695435</t>
   </si>
   <si>
     <t xml:space="preserve">6.84671020507812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93412923812866</t>
+    <t xml:space="preserve">6.93412971496582</t>
   </si>
   <si>
     <t xml:space="preserve">6.96210384368896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02154874801636</t>
+    <t xml:space="preserve">7.02154970169067</t>
   </si>
   <si>
     <t xml:space="preserve">6.9760913848877</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97259473800659</t>
+    <t xml:space="preserve">6.97259426116943</t>
   </si>
   <si>
     <t xml:space="preserve">6.9271354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87468338012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89146852493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7977557182312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84810781478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91524744033813</t>
+    <t xml:space="preserve">6.87468433380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89146947860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79775524139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84810876846313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91524696350098</t>
   </si>
   <si>
     <t xml:space="preserve">6.95580959320068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89426565170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6928505897522</t>
+    <t xml:space="preserve">6.89426612854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69285011291504</t>
   </si>
   <si>
     <t xml:space="preserve">6.80195045471191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74879932403564</t>
+    <t xml:space="preserve">6.7487998008728</t>
   </si>
   <si>
     <t xml:space="preserve">6.79635667800903</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85090589523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89286708831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91105031967163</t>
+    <t xml:space="preserve">6.850905418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89286756515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91105127334595</t>
   </si>
   <si>
     <t xml:space="preserve">6.88307619094849</t>
@@ -1334,52 +1334,52 @@
     <t xml:space="preserve">6.83412170410156</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89986038208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91384840011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95161294937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85510206222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75579357147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63130760192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73900842666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88167858123779</t>
+    <t xml:space="preserve">6.89986085891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91384792327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95161247253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85510158538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75579309463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63130855560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73900938034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88167810440063</t>
   </si>
   <si>
     <t xml:space="preserve">6.90405750274658</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89706420898438</t>
+    <t xml:space="preserve">6.89706373214722</t>
   </si>
   <si>
     <t xml:space="preserve">6.83132362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8606972694397</t>
+    <t xml:space="preserve">6.86069774627686</t>
   </si>
   <si>
     <t xml:space="preserve">6.89566516876221</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84111452102661</t>
+    <t xml:space="preserve">6.84111499786377</t>
   </si>
   <si>
     <t xml:space="preserve">6.91664552688599</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80614757537842</t>
+    <t xml:space="preserve">6.80614805221558</t>
   </si>
   <si>
     <t xml:space="preserve">6.68166160583496</t>
@@ -1388,58 +1388,58 @@
     <t xml:space="preserve">6.63830089569092</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67047214508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67746591567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70404100418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78376722335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77537488937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85230541229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8271279335022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99217700958252</t>
+    <t xml:space="preserve">6.67047262191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67746496200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70404148101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78376770019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77537536621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85230493545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82712841033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99217557907104</t>
   </si>
   <si>
     <t xml:space="preserve">7.08449125289917</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11246538162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583457946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30828619003296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16142082214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14743328094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03903341293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1264533996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.004065990448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15093040466309</t>
+    <t xml:space="preserve">7.11246633529663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583410263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30828523635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16141986846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14743423461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03903293609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12645292282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00406503677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15092992782593</t>
   </si>
   <si>
     <t xml:space="preserve">7.18589782714844</t>
@@ -1451,10 +1451,10 @@
     <t xml:space="preserve">6.90265798568726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95720863342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01455593109131</t>
+    <t xml:space="preserve">6.95720815658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01455545425415</t>
   </si>
   <si>
     <t xml:space="preserve">6.96420192718506</t>
@@ -1463,52 +1463,52 @@
     <t xml:space="preserve">6.62850999832153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42289924621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31659698486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35715961456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20749711990356</t>
+    <t xml:space="preserve">6.42289876937866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31659650802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35716009140015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20749759674072</t>
   </si>
   <si>
     <t xml:space="preserve">5.95852613449097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59625959396362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37246513366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75151586532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64241600036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78928136825562</t>
+    <t xml:space="preserve">5.59625911712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37246465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75151634216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64241647720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78928089141846</t>
   </si>
   <si>
     <t xml:space="preserve">5.68997287750244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54450654983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72214365005493</t>
+    <t xml:space="preserve">5.54450607299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72214317321777</t>
   </si>
   <si>
     <t xml:space="preserve">5.59346103668213</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47456979751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7417254447937</t>
+    <t xml:space="preserve">5.47457027435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74172496795654</t>
   </si>
   <si>
     <t xml:space="preserve">5.66479635238647</t>
@@ -1544,19 +1544,19 @@
     <t xml:space="preserve">5.57108163833618</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53471517562866</t>
+    <t xml:space="preserve">5.53471565246582</t>
   </si>
   <si>
     <t xml:space="preserve">5.568284034729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54031038284302</t>
+    <t xml:space="preserve">5.54030990600586</t>
   </si>
   <si>
     <t xml:space="preserve">5.6074481010437</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68297910690308</t>
+    <t xml:space="preserve">5.68297958374023</t>
   </si>
   <si>
     <t xml:space="preserve">5.75711107254028</t>
@@ -1568,31 +1568,31 @@
     <t xml:space="preserve">5.702561378479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62563228607178</t>
+    <t xml:space="preserve">5.62563180923462</t>
   </si>
   <si>
     <t xml:space="preserve">5.53051900863647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55429792404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6284294128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64801168441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69976329803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68577671051025</t>
+    <t xml:space="preserve">5.55429697036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62842893600464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64801120758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69976377487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6857762336731</t>
   </si>
   <si>
     <t xml:space="preserve">5.71934604644775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8871922492981</t>
+    <t xml:space="preserve">5.88719129562378</t>
   </si>
   <si>
     <t xml:space="preserve">5.95432949066162</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">6.12077665328979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06622695922852</t>
+    <t xml:space="preserve">6.06622743606567</t>
   </si>
   <si>
     <t xml:space="preserve">6.21309185028076</t>
@@ -1619,13 +1619,13 @@
     <t xml:space="preserve">6.17252922058105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07042360305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15014934539795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14595365524292</t>
+    <t xml:space="preserve">6.07042407989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15014886856079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14595413208008</t>
   </si>
   <si>
     <t xml:space="preserve">6.15854215621948</t>
@@ -1637,22 +1637,22 @@
     <t xml:space="preserve">5.9753098487854</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81865453720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94174194335938</t>
+    <t xml:space="preserve">5.81865406036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94174098968506</t>
   </si>
   <si>
     <t xml:space="preserve">5.87600231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89418506622314</t>
+    <t xml:space="preserve">5.8941855430603</t>
   </si>
   <si>
     <t xml:space="preserve">5.9906964302063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87040662765503</t>
+    <t xml:space="preserve">5.87040710449219</t>
   </si>
   <si>
     <t xml:space="preserve">5.80186939239502</t>
@@ -1670,7 +1670,7 @@
     <t xml:space="preserve">5.7864842414856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60604953765869</t>
+    <t xml:space="preserve">5.60605001449585</t>
   </si>
   <si>
     <t xml:space="preserve">5.93195056915283</t>
@@ -1682,16 +1682,16 @@
     <t xml:space="preserve">6.07182121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34037494659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30680561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33897638320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29701519012451</t>
+    <t xml:space="preserve">6.3403754234314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30680513381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33897686004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29701471328735</t>
   </si>
   <si>
     <t xml:space="preserve">6.3137993812561</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">6.42150068283081</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44248151779175</t>
+    <t xml:space="preserve">6.44248104095459</t>
   </si>
   <si>
     <t xml:space="preserve">6.50961923599243</t>
@@ -1712,40 +1712,40 @@
     <t xml:space="preserve">6.41450691223145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36834955215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48724031448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47605037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41170978546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01727151870728</t>
+    <t xml:space="preserve">6.36834907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48723936080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47605180740356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41171026229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01727199554443</t>
   </si>
   <si>
     <t xml:space="preserve">5.83404016494751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86061573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85222291946411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75431299209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48576068878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53191804885864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4158239364624</t>
+    <t xml:space="preserve">5.8606162071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85222339630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75431346893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48576021194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53191757202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41582441329956</t>
   </si>
   <si>
     <t xml:space="preserve">5.3696665763855</t>
@@ -1757,22 +1757,22 @@
     <t xml:space="preserve">5.46058320999146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3976411819458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3458890914917</t>
+    <t xml:space="preserve">5.39764070510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34588861465454</t>
   </si>
   <si>
     <t xml:space="preserve">5.50953769683838</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41022968292236</t>
+    <t xml:space="preserve">5.41022920608521</t>
   </si>
   <si>
     <t xml:space="preserve">5.42281818389893</t>
   </si>
   <si>
-    <t xml:space="preserve">5.239586353302</t>
+    <t xml:space="preserve">5.23958683013916</t>
   </si>
   <si>
     <t xml:space="preserve">5.44100141525269</t>
@@ -1790,43 +1790,43 @@
     <t xml:space="preserve">5.42141962051392</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54730367660522</t>
+    <t xml:space="preserve">5.54730415344238</t>
   </si>
   <si>
     <t xml:space="preserve">5.48436117172241</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46338081359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48715925216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50254487991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49834871292114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42561483383179</t>
+    <t xml:space="preserve">5.46338129043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48715877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50254535675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4983491897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42561531066895</t>
   </si>
   <si>
     <t xml:space="preserve">5.50799083709717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37847805023193</t>
+    <t xml:space="preserve">5.37847852706909</t>
   </si>
   <si>
     <t xml:space="preserve">5.4350471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42462682723999</t>
+    <t xml:space="preserve">5.42462635040283</t>
   </si>
   <si>
     <t xml:space="preserve">5.46481990814209</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70746946334839</t>
+    <t xml:space="preserve">5.70746898651123</t>
   </si>
   <si>
     <t xml:space="preserve">5.73128747940063</t>
@@ -1838,19 +1838,19 @@
     <t xml:space="preserve">5.81167459487915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81018543243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84740161895752</t>
+    <t xml:space="preserve">5.81018590927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84740114212036</t>
   </si>
   <si>
     <t xml:space="preserve">5.74170875549316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75361680984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58093404769897</t>
+    <t xml:space="preserve">5.75361728668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58093357086182</t>
   </si>
   <si>
     <t xml:space="preserve">5.57646894454956</t>
@@ -1862,10 +1862,10 @@
     <t xml:space="preserve">5.42164897918701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60028648376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62261581420898</t>
+    <t xml:space="preserve">5.60028696060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62261629104614</t>
   </si>
   <si>
     <t xml:space="preserve">5.67323017120361</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">5.4901270866394</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43653535842896</t>
+    <t xml:space="preserve">5.43653583526611</t>
   </si>
   <si>
     <t xml:space="preserve">5.43206930160522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75510597229004</t>
+    <t xml:space="preserve">5.75510549545288</t>
   </si>
   <si>
     <t xml:space="preserve">5.74468517303467</t>
@@ -1910,10 +1910,10 @@
     <t xml:space="preserve">5.69704818725586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70002603530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77148151397705</t>
+    <t xml:space="preserve">5.70002555847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77148103713989</t>
   </si>
   <si>
     <t xml:space="preserve">5.70895767211914</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">5.70151424407959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83251523971558</t>
+    <t xml:space="preserve">5.83251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">5.83995866775513</t>
@@ -1931,7 +1931,7 @@
     <t xml:space="preserve">5.86377668380737</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88015222549438</t>
+    <t xml:space="preserve">5.88015270233154</t>
   </si>
   <si>
     <t xml:space="preserve">5.86079978942871</t>
@@ -1970,25 +1970,25 @@
     <t xml:space="preserve">5.76403760910034</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76999187469482</t>
+    <t xml:space="preserve">5.76999235153198</t>
   </si>
   <si>
     <t xml:space="preserve">5.87122011184692</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90099334716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00668716430664</t>
+    <t xml:space="preserve">5.90099287033081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00668668746948</t>
   </si>
   <si>
     <t xml:space="preserve">5.9694709777832</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1823468208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1972336769104</t>
+    <t xml:space="preserve">6.18234729766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19723415374756</t>
   </si>
   <si>
     <t xml:space="preserve">6.16894960403442</t>
@@ -2024,13 +2024,13 @@
     <t xml:space="preserve">6.50240612030029</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62447547912598</t>
+    <t xml:space="preserve">6.62447500228882</t>
   </si>
   <si>
     <t xml:space="preserve">6.51431560516357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44732618331909</t>
+    <t xml:space="preserve">6.44732570648193</t>
   </si>
   <si>
     <t xml:space="preserve">6.53962278366089</t>
@@ -2048,13 +2048,13 @@
     <t xml:space="preserve">6.68997526168823</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8328857421875</t>
+    <t xml:space="preserve">6.83288621902466</t>
   </si>
   <si>
     <t xml:space="preserve">6.79120349884033</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66318035125732</t>
+    <t xml:space="preserve">6.66317987442017</t>
   </si>
   <si>
     <t xml:space="preserve">6.71230459213257</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">6.65871381759644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59619140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64680528640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78376054763794</t>
+    <t xml:space="preserve">6.59619188308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64680576324463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7837610244751</t>
   </si>
   <si>
     <t xml:space="preserve">6.8581919670105</t>
@@ -2078,22 +2078,22 @@
     <t xml:space="preserve">6.89392042160034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96090841293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86116981506348</t>
+    <t xml:space="preserve">6.96090888977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86117029190063</t>
   </si>
   <si>
     <t xml:space="preserve">6.87754440307617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91773796081543</t>
+    <t xml:space="preserve">6.91773748397827</t>
   </si>
   <si>
     <t xml:space="preserve">6.96388673782349</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90285158157349</t>
+    <t xml:space="preserve">6.90285205841064</t>
   </si>
   <si>
     <t xml:space="preserve">6.92518186569214</t>
@@ -2111,19 +2111,19 @@
     <t xml:space="preserve">7.15294456481934</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13210344314575</t>
+    <t xml:space="preserve">7.13210391998291</t>
   </si>
   <si>
     <t xml:space="preserve">7.07106876373291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98770475387573</t>
+    <t xml:space="preserve">6.98770427703857</t>
   </si>
   <si>
     <t xml:space="preserve">6.96686363220215</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00705718994141</t>
+    <t xml:space="preserve">7.00705671310425</t>
   </si>
   <si>
     <t xml:space="preserve">7.13508129119873</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">6.60065698623657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58428192138672</t>
+    <t xml:space="preserve">6.58428144454956</t>
   </si>
   <si>
     <t xml:space="preserve">6.47709941864014</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">6.12131309509277</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28059720993042</t>
+    <t xml:space="preserve">6.28059768676758</t>
   </si>
   <si>
     <t xml:space="preserve">6.24635934829712</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">6.37289476394653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37140607833862</t>
+    <t xml:space="preserve">6.37140560150146</t>
   </si>
   <si>
     <t xml:space="preserve">6.34163236618042</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">6.61107683181763</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58874750137329</t>
+    <t xml:space="preserve">6.58874797821045</t>
   </si>
   <si>
     <t xml:space="preserve">6.72272539138794</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">6.73761224746704</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91327285766602</t>
+    <t xml:space="preserve">6.91327333450317</t>
   </si>
   <si>
     <t xml:space="preserve">7.05022764205933</t>
@@ -2252,13 +2252,13 @@
     <t xml:space="preserve">7.01598882675171</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95346593856812</t>
+    <t xml:space="preserve">6.95346641540527</t>
   </si>
   <si>
     <t xml:space="preserve">6.93113660812378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99663639068604</t>
+    <t xml:space="preserve">6.99663591384888</t>
   </si>
   <si>
     <t xml:space="preserve">6.98472738265991</t>
@@ -2267,10 +2267,10 @@
     <t xml:space="preserve">6.99068260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93857860565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01301193237305</t>
+    <t xml:space="preserve">6.9385781288147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01301145553589</t>
   </si>
   <si>
     <t xml:space="preserve">6.97579526901245</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">6.44583749771118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49942922592163</t>
+    <t xml:space="preserve">6.49942970275879</t>
   </si>
   <si>
     <t xml:space="preserve">6.32674598693848</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">6.34758710861206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20021104812622</t>
+    <t xml:space="preserve">6.20021057128906</t>
   </si>
   <si>
     <t xml:space="preserve">6.33270072937012</t>
@@ -2339,10 +2339,10 @@
     <t xml:space="preserve">6.52771329879761</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45328092575073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53366804122925</t>
+    <t xml:space="preserve">6.45328044891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53366756439209</t>
   </si>
   <si>
     <t xml:space="preserve">6.55599689483643</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">6.78822612762451</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0293869972229</t>
+    <t xml:space="preserve">7.02938747406006</t>
   </si>
   <si>
     <t xml:space="preserve">7.0457615852356</t>
@@ -2366,31 +2366,31 @@
     <t xml:space="preserve">7.13359260559082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08000135421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11572885513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18271684646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11423969268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08446645736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2199330329895</t>
+    <t xml:space="preserve">7.08000183105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11572933197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18271732330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11424016952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08446598052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21993350982666</t>
   </si>
   <si>
     <t xml:space="preserve">7.4223895072937</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36582088470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37624073028564</t>
+    <t xml:space="preserve">7.36582040786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3762412071228</t>
   </si>
   <si>
     <t xml:space="preserve">7.41792297363281</t>
@@ -2399,22 +2399,22 @@
     <t xml:space="preserve">7.52138376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42536687850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45811748504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42834377288818</t>
+    <t xml:space="preserve">7.42536592483521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45811653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4283447265625</t>
   </si>
   <si>
     <t xml:space="preserve">7.22291088104248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31073999404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27799081802368</t>
+    <t xml:space="preserve">7.31074047088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27799129486084</t>
   </si>
   <si>
     <t xml:space="preserve">7.29734373092651</t>
@@ -2438,10 +2438,10 @@
     <t xml:space="preserve">7.87493753433228</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90471029281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88238096237183</t>
+    <t xml:space="preserve">7.90471124649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88238191604614</t>
   </si>
   <si>
     <t xml:space="preserve">7.86005210876465</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">8.0126371383667</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07218360900879</t>
+    <t xml:space="preserve">8.07218456268311</t>
   </si>
   <si>
     <t xml:space="preserve">8.06473922729492</t>
@@ -2474,10 +2474,10 @@
     <t xml:space="preserve">8.16150188446045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10939979553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0238037109375</t>
+    <t xml:space="preserve">8.10940074920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02380275726318</t>
   </si>
   <si>
     <t xml:space="preserve">7.7670111656189</t>
@@ -2486,7 +2486,7 @@
     <t xml:space="preserve">7.92331886291504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8526086807251</t>
+    <t xml:space="preserve">7.85260772705078</t>
   </si>
   <si>
     <t xml:space="preserve">8.02844429016113</t>
@@ -5523,6 +5523,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3450002670288</t>
   </si>
 </sst>
 </file>
@@ -61634,7 +61637,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6493055556</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>2103844</v>
@@ -61655,6 +61658,32 @@
         <v>1836</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6494907407</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>1521803</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>14.4949998855591</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>14.3249998092651</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>14.375</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>14.3450002670288</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54330205917358</t>
+    <t xml:space="preserve">5.54330253601074</t>
   </si>
   <si>
     <t xml:space="preserve">MB.MI</t>
@@ -47,61 +47,61 @@
     <t xml:space="preserve">5.53684902191162</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39810514450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29485416412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16578912734985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1367506980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25936126708984</t>
+    <t xml:space="preserve">5.39810562133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29485273361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16579008102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13675022125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25936079025269</t>
   </si>
   <si>
     <t xml:space="preserve">5.31744003295898</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25290822982788</t>
+    <t xml:space="preserve">5.25290870666504</t>
   </si>
   <si>
     <t xml:space="preserve">5.05285882949829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81086349487305</t>
+    <t xml:space="preserve">4.81086397171021</t>
   </si>
   <si>
     <t xml:space="preserve">4.910888671875</t>
   </si>
   <si>
-    <t xml:space="preserve">4.71406507492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97541999816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99155378341675</t>
+    <t xml:space="preserve">4.71406555175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9754204750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99155330657959</t>
   </si>
   <si>
     <t xml:space="preserve">4.83022308349609</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90766191482544</t>
+    <t xml:space="preserve">4.90766143798828</t>
   </si>
   <si>
     <t xml:space="preserve">4.83344984054565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56886768341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75278425216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60436153411865</t>
+    <t xml:space="preserve">4.5688681602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75278520584106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60436105728149</t>
   </si>
   <si>
     <t xml:space="preserve">4.47852373123169</t>
@@ -113,28 +113,28 @@
     <t xml:space="preserve">4.36881923675537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25911521911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86224317550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64606070518494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92032170295715</t>
+    <t xml:space="preserve">4.25911426544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86224269866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6460599899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92032122612</t>
   </si>
   <si>
     <t xml:space="preserve">3.71381902694702</t>
   </si>
   <si>
-    <t xml:space="preserve">3.78480434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89450860023499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9300012588501</t>
+    <t xml:space="preserve">3.78480362892151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89450836181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93000078201294</t>
   </si>
   <si>
     <t xml:space="preserve">4.00421333312988</t>
@@ -143,55 +143,55 @@
     <t xml:space="preserve">3.88805556297302</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85578870773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01066589355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91064143180847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8686957359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92354774475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02357244491577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03970623016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20426273345947</t>
+    <t xml:space="preserve">3.85578918457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01066637039185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91064167022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86869525909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92354798316956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02357292175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03970575332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20426225662231</t>
   </si>
   <si>
     <t xml:space="preserve">4.36559247970581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38172578811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29783391952515</t>
+    <t xml:space="preserve">4.3817253112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29783344268799</t>
   </si>
   <si>
     <t xml:space="preserve">4.17522287368774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23007535934448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24298191070557</t>
+    <t xml:space="preserve">4.23007488250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24298143386841</t>
   </si>
   <si>
     <t xml:space="preserve">4.30751419067383</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68179988861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73019886016846</t>
+    <t xml:space="preserve">4.68179941177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7301983833313</t>
   </si>
   <si>
     <t xml:space="preserve">4.57209491729736</t>
@@ -200,67 +200,67 @@
     <t xml:space="preserve">4.59145450592041</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31073999404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34946012496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37204647064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29138040542603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2623405456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14295673370361</t>
+    <t xml:space="preserve">4.31074047088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34945821762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37204551696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29138135910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26234102249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14295721054077</t>
   </si>
   <si>
     <t xml:space="preserve">4.16876983642578</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08487749099731</t>
+    <t xml:space="preserve">4.08487796783447</t>
   </si>
   <si>
     <t xml:space="preserve">4.04938554763794</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09133195877075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01389360427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05261278152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84933614730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07197141647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1171441078186</t>
+    <t xml:space="preserve">4.09133100509644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01389312744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0526123046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84933590888977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07197189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11714363098145</t>
   </si>
   <si>
     <t xml:space="preserve">4.03002595901489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23975467681885</t>
+    <t xml:space="preserve">4.23975515365601</t>
   </si>
   <si>
     <t xml:space="preserve">4.31719303131104</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24620866775513</t>
+    <t xml:space="preserve">4.24620819091797</t>
   </si>
   <si>
     <t xml:space="preserve">4.51724290847778</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52046966552734</t>
+    <t xml:space="preserve">4.52046918869019</t>
   </si>
   <si>
     <t xml:space="preserve">4.6656665802002</t>
@@ -284,34 +284,34 @@
     <t xml:space="preserve">4.14941024780273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11391687393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06229209899902</t>
+    <t xml:space="preserve">4.11391735076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06229162216187</t>
   </si>
   <si>
     <t xml:space="preserve">4.13327741622925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16231632232666</t>
+    <t xml:space="preserve">4.16231679916382</t>
   </si>
   <si>
     <t xml:space="preserve">4.20103597640991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18812942504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17199611663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24943447113037</t>
+    <t xml:space="preserve">4.18812894821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1719970703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24943494796753</t>
   </si>
   <si>
     <t xml:space="preserve">4.28815412521362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50433683395386</t>
+    <t xml:space="preserve">4.5043363571167</t>
   </si>
   <si>
     <t xml:space="preserve">4.6075873374939</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">4.59790802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65276050567627</t>
+    <t xml:space="preserve">4.65276002883911</t>
   </si>
   <si>
     <t xml:space="preserve">4.63985395431519</t>
@@ -329,121 +329,121 @@
     <t xml:space="preserve">4.41399145126343</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38495254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27202081680298</t>
+    <t xml:space="preserve">4.38495206832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27202177047729</t>
   </si>
   <si>
     <t xml:space="preserve">4.25588798522949</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18167686462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95258760452271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75899124145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61702108383179</t>
+    <t xml:space="preserve">4.18167638778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95258736610413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7589910030365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61702084541321</t>
   </si>
   <si>
     <t xml:space="preserve">3.71704578399658</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70413899421692</t>
+    <t xml:space="preserve">3.70413875579834</t>
   </si>
   <si>
     <t xml:space="preserve">3.85256266593933</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06551790237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12037086486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09455728530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42665147781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98912405967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16206979751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27177429199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3266270160675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3588924407959</t>
+    <t xml:space="preserve">4.06551837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12037038803101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.094557762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42665123939514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98912453651428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16207027435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27177453041077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32662677764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35889267921448</t>
   </si>
   <si>
     <t xml:space="preserve">3.21756768226624</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11431622505188</t>
+    <t xml:space="preserve">3.11431646347046</t>
   </si>
   <si>
     <t xml:space="preserve">3.0407497882843</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14529132843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41374492645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67832589149475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70736527442932</t>
+    <t xml:space="preserve">3.14529156684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41374444961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67832660675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70736503601074</t>
   </si>
   <si>
     <t xml:space="preserve">3.8202965259552</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76544499397278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82997679710388</t>
+    <t xml:space="preserve">3.76544451713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82997632026672</t>
   </si>
   <si>
     <t xml:space="preserve">3.79448413848877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83965635299683</t>
+    <t xml:space="preserve">3.83965611457825</t>
   </si>
   <si>
     <t xml:space="preserve">3.83320283889771</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86546921730042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77512383460999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90741491317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901618003845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04293155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96549367904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63960742950439</t>
+    <t xml:space="preserve">3.86546897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7751247882843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90741467475891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04293251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96549391746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63960719108582</t>
   </si>
   <si>
     <t xml:space="preserve">3.65251302719116</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">3.97194719314575</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2365288734436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20748949050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16554355621338</t>
+    <t xml:space="preserve">4.23652839660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20748901367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16554307937622</t>
   </si>
   <si>
     <t xml:space="preserve">4.1784496307373</t>
@@ -467,97 +467,97 @@
     <t xml:space="preserve">4.11069107055664</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07519817352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05906534194946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.946133852005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98162603378296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19135522842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15909051895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2203950881958</t>
+    <t xml:space="preserve">4.07519865036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05906581878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94613456726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9816267490387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19135570526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15909004211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22039556503296</t>
   </si>
   <si>
     <t xml:space="preserve">4.32364654541016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42367124557495</t>
+    <t xml:space="preserve">4.42367172241211</t>
   </si>
   <si>
     <t xml:space="preserve">4.35591268539429</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47529745101929</t>
+    <t xml:space="preserve">4.47529697418213</t>
   </si>
   <si>
     <t xml:space="preserve">4.43657779693604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33332681655884</t>
+    <t xml:space="preserve">4.33332633972168</t>
   </si>
   <si>
     <t xml:space="preserve">3.98485398292542</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04615926742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93645477294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02679920196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03325271606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73317885398865</t>
+    <t xml:space="preserve">4.04615879058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93645453453064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02679872512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03325223922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73317837715149</t>
   </si>
   <si>
     <t xml:space="preserve">3.78157758712769</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7105929851532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73640465736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72672510147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72995185852051</t>
+    <t xml:space="preserve">3.71059274673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73640489578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72672581672668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72995209693909</t>
   </si>
   <si>
     <t xml:space="preserve">3.93322730064392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03647899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90096235275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99775981903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13650321960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26556777954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38817882537842</t>
+    <t xml:space="preserve">4.03647947311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90096139907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99776005744934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13650369644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26556825637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38817930221558</t>
   </si>
   <si>
     <t xml:space="preserve">4.4398045539856</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">4.5236964225769</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33655309677124</t>
+    <t xml:space="preserve">4.3365535736084</t>
   </si>
   <si>
     <t xml:space="preserve">4.10423803329468</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">4.28170108795166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42689847946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42044496536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54305553436279</t>
+    <t xml:space="preserve">4.42689752578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42044448852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54305505752563</t>
   </si>
   <si>
     <t xml:space="preserve">4.55918884277344</t>
@@ -596,22 +596,22 @@
     <t xml:space="preserve">4.21394205093384</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26442909240723</t>
+    <t xml:space="preserve">4.26442861557007</t>
   </si>
   <si>
     <t xml:space="preserve">4.33847618103027</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27452659606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2307710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17355251312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05238580703735</t>
+    <t xml:space="preserve">4.27452611923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23077058792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17355298995972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0523853302002</t>
   </si>
   <si>
     <t xml:space="preserve">4.22403955459595</t>
@@ -620,37 +620,37 @@
     <t xml:space="preserve">4.38223075866699</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52022695541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52695798873901</t>
+    <t xml:space="preserve">4.52022743225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52695894241333</t>
   </si>
   <si>
     <t xml:space="preserve">4.33510971069336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76592779159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99480056762695</t>
+    <t xml:space="preserve">4.76592826843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99480104446411</t>
   </si>
   <si>
     <t xml:space="preserve">5.13279724121094</t>
   </si>
   <si>
-    <t xml:space="preserve">4.98806858062744</t>
+    <t xml:space="preserve">4.9880690574646</t>
   </si>
   <si>
     <t xml:space="preserve">5.01499509811401</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06884717941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11596775054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28762292861938</t>
+    <t xml:space="preserve">5.06884765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11596822738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28762197494507</t>
   </si>
   <si>
     <t xml:space="preserve">5.22703886032104</t>
@@ -662,25 +662,25 @@
     <t xml:space="preserve">5.32801198959351</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29098796844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27415895462036</t>
+    <t xml:space="preserve">5.29098844528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27415943145752</t>
   </si>
   <si>
     <t xml:space="preserve">5.34147500991821</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3381085395813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27079343795776</t>
+    <t xml:space="preserve">5.33810901641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27079391479492</t>
   </si>
   <si>
     <t xml:space="preserve">5.23040437698364</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22030735015869</t>
+    <t xml:space="preserve">5.22030687332153</t>
   </si>
   <si>
     <t xml:space="preserve">5.33137702941895</t>
@@ -689,40 +689,40 @@
     <t xml:space="preserve">5.48620223999023</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51986026763916</t>
+    <t xml:space="preserve">5.51986074447632</t>
   </si>
   <si>
     <t xml:space="preserve">5.49293422698975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51312875747681</t>
+    <t xml:space="preserve">5.51312828063965</t>
   </si>
   <si>
     <t xml:space="preserve">5.26406240463257</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32128047943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3179144859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1933798789978</t>
+    <t xml:space="preserve">5.32128000259399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31791496276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19338130950928</t>
   </si>
   <si>
     <t xml:space="preserve">5.40205860137939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38186454772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34484052658081</t>
+    <t xml:space="preserve">5.38186359405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34484100341797</t>
   </si>
   <si>
     <t xml:space="preserve">5.42898416519165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35157155990601</t>
+    <t xml:space="preserve">5.35157203674316</t>
   </si>
   <si>
     <t xml:space="preserve">5.43235015869141</t>
@@ -731,10 +731,10 @@
     <t xml:space="preserve">5.73527002334595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91365528106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72517251968384</t>
+    <t xml:space="preserve">5.91365480422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.725172996521</t>
   </si>
   <si>
     <t xml:space="preserve">5.65449094772339</t>
@@ -743,58 +743,58 @@
     <t xml:space="preserve">5.50303220748901</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3549370765686</t>
+    <t xml:space="preserve">5.35493755340576</t>
   </si>
   <si>
     <t xml:space="preserve">5.48283720016479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2573299407959</t>
+    <t xml:space="preserve">5.25733041763306</t>
   </si>
   <si>
     <t xml:space="preserve">5.14626026153564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30445194244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24386739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3986930847168</t>
+    <t xml:space="preserve">5.30445146560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24386692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39869260787964</t>
   </si>
   <si>
     <t xml:space="preserve">5.52659225463867</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49629974365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46600818634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4155216217041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36503458023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31118249893188</t>
+    <t xml:space="preserve">5.4963002204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46600770950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41552209854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36503505706787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31118297576904</t>
   </si>
   <si>
     <t xml:space="preserve">5.1563572883606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01163005828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04865312576294</t>
+    <t xml:space="preserve">5.01162910461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04865264892578</t>
   </si>
   <si>
     <t xml:space="preserve">5.09240818023682</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28425645828247</t>
+    <t xml:space="preserve">5.28425693511963</t>
   </si>
   <si>
     <t xml:space="preserve">5.3347430229187</t>
@@ -809,7 +809,7 @@
     <t xml:space="preserve">5.58044481277466</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6612229347229</t>
+    <t xml:space="preserve">5.66122245788574</t>
   </si>
   <si>
     <t xml:space="preserve">5.60400485992432</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">5.61746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68478298187256</t>
+    <t xml:space="preserve">5.6847825050354</t>
   </si>
   <si>
     <t xml:space="preserve">5.69824647903442</t>
@@ -836,16 +836,16 @@
     <t xml:space="preserve">5.70161199569702</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67805242538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71507453918457</t>
+    <t xml:space="preserve">5.67805290222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71507501602173</t>
   </si>
   <si>
     <t xml:space="preserve">5.68814897537231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55015230178833</t>
+    <t xml:space="preserve">5.55015182495117</t>
   </si>
   <si>
     <t xml:space="preserve">5.56024980545044</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">5.55688428878784</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59390783309937</t>
+    <t xml:space="preserve">5.59390735626221</t>
   </si>
   <si>
     <t xml:space="preserve">5.47947120666504</t>
@@ -863,13 +863,13 @@
     <t xml:space="preserve">5.42561960220337</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17991781234741</t>
+    <t xml:space="preserve">5.17991828918457</t>
   </si>
   <si>
     <t xml:space="preserve">5.7487325668335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83624267578125</t>
+    <t xml:space="preserve">5.83624219894409</t>
   </si>
   <si>
     <t xml:space="preserve">5.75546455383301</t>
@@ -878,34 +878,34 @@
     <t xml:space="preserve">5.71844053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94058132171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95741033554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97760534286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09540748596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17955112457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14252805709839</t>
+    <t xml:space="preserve">5.94058179855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95740985870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97760486602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09540700912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17955160140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14252758026123</t>
   </si>
   <si>
     <t xml:space="preserve">6.12569904327393</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1088695526123</t>
+    <t xml:space="preserve">6.10887002944946</t>
   </si>
   <si>
     <t xml:space="preserve">6.18628215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15262460708618</t>
+    <t xml:space="preserve">6.1526255607605</t>
   </si>
   <si>
     <t xml:space="preserve">6.17618560791016</t>
@@ -914,58 +914,58 @@
     <t xml:space="preserve">6.0045313835144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02472496032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521200180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11896705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15935611724854</t>
+    <t xml:space="preserve">6.02472591400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0752124786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11896800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15935659408569</t>
   </si>
   <si>
     <t xml:space="preserve">6.12906455993652</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10213851928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0112624168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82277870178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6814169883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70497751235962</t>
+    <t xml:space="preserve">6.10213804244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01126289367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82277965545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68141746520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70497798919678</t>
   </si>
   <si>
     <t xml:space="preserve">5.61073637008667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63093042373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72853851318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78239011764526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7621955871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81941413879395</t>
+    <t xml:space="preserve">5.63093090057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72853755950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78239059448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76219606399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81941366195679</t>
   </si>
   <si>
     <t xml:space="preserve">5.73863506317139</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75883054733276</t>
+    <t xml:space="preserve">5.75883007049561</t>
   </si>
   <si>
     <t xml:space="preserve">5.65112543106079</t>
@@ -974,43 +974,43 @@
     <t xml:space="preserve">5.56361532211304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72180604934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70834302902222</t>
+    <t xml:space="preserve">5.72180652618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70834350585938</t>
   </si>
   <si>
     <t xml:space="preserve">5.85307121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83960866928101</t>
+    <t xml:space="preserve">5.83960819244385</t>
   </si>
   <si>
     <t xml:space="preserve">5.81604814529419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.923752784729</t>
+    <t xml:space="preserve">5.92375230789185</t>
   </si>
   <si>
     <t xml:space="preserve">5.97423934936523</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90019226074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93721580505371</t>
+    <t xml:space="preserve">5.90019273757935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93721485137939</t>
   </si>
   <si>
     <t xml:space="preserve">5.97087383270264</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04491949081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10550355911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05838394165039</t>
+    <t xml:space="preserve">6.04491996765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10550403594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05838346481323</t>
   </si>
   <si>
     <t xml:space="preserve">6.06174898147583</t>
@@ -1019,58 +1019,58 @@
     <t xml:space="preserve">5.86316871643066</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88336324691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9473123550415</t>
+    <t xml:space="preserve">5.88336277008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94731330871582</t>
   </si>
   <si>
     <t xml:space="preserve">5.9877028465271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96077537536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9338493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92038726806641</t>
+    <t xml:space="preserve">5.96077585220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93384981155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92038679122925</t>
   </si>
   <si>
     <t xml:space="preserve">6.06511545181274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05501747131348</t>
+    <t xml:space="preserve">6.05501794815063</t>
   </si>
   <si>
     <t xml:space="preserve">5.99106788635254</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85643720626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9102897644043</t>
+    <t xml:space="preserve">5.85643768310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91028928756714</t>
   </si>
   <si>
     <t xml:space="preserve">5.90355777740479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84634065628052</t>
+    <t xml:space="preserve">5.84634017944336</t>
   </si>
   <si>
     <t xml:space="preserve">5.74536657333374</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80258417129517</t>
+    <t xml:space="preserve">5.80258512496948</t>
   </si>
   <si>
     <t xml:space="preserve">5.69151449203491</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87326717376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94394683837891</t>
+    <t xml:space="preserve">5.87326622009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94394779205322</t>
   </si>
   <si>
     <t xml:space="preserve">5.87999725341797</t>
@@ -1082,25 +1082,25 @@
     <t xml:space="preserve">5.96414136886597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05165195465088</t>
+    <t xml:space="preserve">6.05165147781372</t>
   </si>
   <si>
     <t xml:space="preserve">6.03818893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07857751846313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11223602294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14925909042358</t>
+    <t xml:space="preserve">6.07857799530029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11223554611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14925956726074</t>
   </si>
   <si>
     <t xml:space="preserve">6.09877300262451</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19301414489746</t>
+    <t xml:space="preserve">6.1930136680603</t>
   </si>
   <si>
     <t xml:space="preserve">6.13579607009888</t>
@@ -1109,73 +1109,73 @@
     <t xml:space="preserve">6.16608762741089</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13916206359863</t>
+    <t xml:space="preserve">6.13916158676147</t>
   </si>
   <si>
     <t xml:space="preserve">6.16945362091064</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17281913757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16272211074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21320867538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31754732131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38149785995483</t>
+    <t xml:space="preserve">6.1728196144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16272258758545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21320915222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3175482749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38149690628052</t>
   </si>
   <si>
     <t xml:space="preserve">6.33437633514404</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42188596725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48920106887817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46227645874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4420804977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5228590965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51612854003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65412521362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63729572296143</t>
+    <t xml:space="preserve">6.42188692092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48920202255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46227550506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44208002090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52285861968994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5161280632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65412473678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63729524612427</t>
   </si>
   <si>
     <t xml:space="preserve">6.64739274978638</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64066123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62046670913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65438747406006</t>
+    <t xml:space="preserve">6.64066028594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6204662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6543869972229</t>
   </si>
   <si>
     <t xml:space="preserve">6.54948282241821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62990951538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62641191482544</t>
+    <t xml:space="preserve">6.6299090385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62641286849976</t>
   </si>
   <si>
     <t xml:space="preserve">6.58794784545898</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">6.78027057647705</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71383285522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76278686523438</t>
+    <t xml:space="preserve">6.71383190155029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76278734207153</t>
   </si>
   <si>
     <t xml:space="preserve">6.72082567214966</t>
@@ -1202,28 +1202,28 @@
     <t xml:space="preserve">6.61941862106323</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64389610290527</t>
+    <t xml:space="preserve">6.64389657974243</t>
   </si>
   <si>
     <t xml:space="preserve">6.73131608963013</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70683860778809</t>
+    <t xml:space="preserve">6.70683813095093</t>
   </si>
   <si>
     <t xml:space="preserve">6.71033525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67886400222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67187023162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53899335861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5739598274231</t>
+    <t xml:space="preserve">6.67886352539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67187118530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5389928817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57396078109741</t>
   </si>
   <si>
     <t xml:space="preserve">6.6054310798645</t>
@@ -1238,67 +1238,67 @@
     <t xml:space="preserve">6.68585824966431</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61592245101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56346988677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69634771347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85370302200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83272314071655</t>
+    <t xml:space="preserve">6.61592149734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56347036361694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69634819030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85370397567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83272266387939</t>
   </si>
   <si>
     <t xml:space="preserve">6.83621978759766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82572841644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84671020507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93413019180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96210432052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02154970169067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97609090805054</t>
+    <t xml:space="preserve">6.8257303237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84670972824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93412971496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96210384368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02154874801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97609186172485</t>
   </si>
   <si>
     <t xml:space="preserve">6.97259473800659</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92713689804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87468385696411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89146900177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7977557182312</t>
+    <t xml:space="preserve">6.92713499069214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87468433380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8914680480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79775476455688</t>
   </si>
   <si>
     <t xml:space="preserve">6.84810876846313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91524696350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95580911636353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8942666053772</t>
+    <t xml:space="preserve">6.91524648666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95581007003784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89426565170288</t>
   </si>
   <si>
     <t xml:space="preserve">6.6928505897522</t>
@@ -1310,10 +1310,10 @@
     <t xml:space="preserve">6.7487998008728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79635620117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85090494155884</t>
+    <t xml:space="preserve">6.79635667800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85090589523315</t>
   </si>
   <si>
     <t xml:space="preserve">6.89286708831787</t>
@@ -1322,52 +1322,52 @@
     <t xml:space="preserve">6.91105079650879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88307666778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90545511245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91804456710815</t>
+    <t xml:space="preserve">6.88307619094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90545606613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91804504394531</t>
   </si>
   <si>
     <t xml:space="preserve">6.8341212272644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89986181259155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91384792327881</t>
+    <t xml:space="preserve">6.89986133575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91384840011597</t>
   </si>
   <si>
     <t xml:space="preserve">6.9516134262085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85510301589966</t>
+    <t xml:space="preserve">6.85510206222534</t>
   </si>
   <si>
     <t xml:space="preserve">6.75579309463501</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63130760192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73900890350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88167810440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90405702590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89706420898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83132362365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86069774627686</t>
+    <t xml:space="preserve">6.63130807876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73900842666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88167858123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90405797958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89706373214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83132314682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8606972694397</t>
   </si>
   <si>
     <t xml:space="preserve">6.89566469192505</t>
@@ -1376,55 +1376,55 @@
     <t xml:space="preserve">6.84111499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91664600372314</t>
+    <t xml:space="preserve">6.9166464805603</t>
   </si>
   <si>
     <t xml:space="preserve">6.80614757537842</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68166160583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63830041885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67047166824341</t>
+    <t xml:space="preserve">6.6816611289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63830089569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67047214508057</t>
   </si>
   <si>
     <t xml:space="preserve">6.67746543884277</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70404100418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78376722335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77537536621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85230541229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82712888717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9921760559082</t>
+    <t xml:space="preserve">6.70404148101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78376770019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77537488937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85230493545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82712841033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99217557907104</t>
   </si>
   <si>
     <t xml:space="preserve">7.08449172973633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11246633529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583362579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3082857131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16142129898071</t>
+    <t xml:space="preserve">7.11246585845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583410263062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30828619003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1614203453064</t>
   </si>
   <si>
     <t xml:space="preserve">7.14743375778198</t>
@@ -1439,37 +1439,37 @@
     <t xml:space="preserve">7.004065990448</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15092992782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1858983039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99357557296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90265893936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95720863342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01455545425415</t>
+    <t xml:space="preserve">7.15093040466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18589878082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99357461929321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90265846252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95720815658569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01455497741699</t>
   </si>
   <si>
     <t xml:space="preserve">6.9642014503479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62851047515869</t>
+    <t xml:space="preserve">6.62850999832153</t>
   </si>
   <si>
     <t xml:space="preserve">6.42289972305298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31659650802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35715961456299</t>
+    <t xml:space="preserve">6.31659746170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35716009140015</t>
   </si>
   <si>
     <t xml:space="preserve">6.20749759674072</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">5.95852613449097</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59625816345215</t>
+    <t xml:space="preserve">5.59625911712646</t>
   </si>
   <si>
     <t xml:space="preserve">5.37246417999268</t>
@@ -1490,46 +1490,46 @@
     <t xml:space="preserve">5.64241600036621</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78928184509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68997240066528</t>
+    <t xml:space="preserve">5.78928136825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68997287750244</t>
   </si>
   <si>
     <t xml:space="preserve">5.54450607299805</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72214365005493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59346103668213</t>
+    <t xml:space="preserve">5.72214269638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59346151351929</t>
   </si>
   <si>
     <t xml:space="preserve">5.47457075119019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7417254447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66479587554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76969957351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71095418930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6410174369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61723947525024</t>
+    <t xml:space="preserve">5.74172496795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66479635238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76969909667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71095371246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64101791381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61723899841309</t>
   </si>
   <si>
     <t xml:space="preserve">5.81166124343872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7529149055481</t>
+    <t xml:space="preserve">5.75291442871094</t>
   </si>
   <si>
     <t xml:space="preserve">5.89838123321533</t>
@@ -1538,13 +1538,13 @@
     <t xml:space="preserve">5.69416904449463</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65780210494995</t>
+    <t xml:space="preserve">5.65780305862427</t>
   </si>
   <si>
     <t xml:space="preserve">5.57108163833618</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5347146987915</t>
+    <t xml:space="preserve">5.53471517562866</t>
   </si>
   <si>
     <t xml:space="preserve">5.568284034729</t>
@@ -1556,34 +1556,34 @@
     <t xml:space="preserve">5.60744857788086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68297863006592</t>
+    <t xml:space="preserve">5.68297910690308</t>
   </si>
   <si>
     <t xml:space="preserve">5.75711107254028</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66619443893433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.702561378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62563133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53051900863647</t>
+    <t xml:space="preserve">5.66619491577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70256185531616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62563180923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53051948547363</t>
   </si>
   <si>
     <t xml:space="preserve">5.55429697036743</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6284294128418</t>
+    <t xml:space="preserve">5.62842988967896</t>
   </si>
   <si>
     <t xml:space="preserve">5.64801120758057</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69976329803467</t>
+    <t xml:space="preserve">5.69976282119751</t>
   </si>
   <si>
     <t xml:space="preserve">5.68577671051025</t>
@@ -1592,19 +1592,19 @@
     <t xml:space="preserve">5.71934604644775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88719129562378</t>
+    <t xml:space="preserve">5.88719177246094</t>
   </si>
   <si>
     <t xml:space="preserve">5.95432949066162</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01027822494507</t>
+    <t xml:space="preserve">6.01027870178223</t>
   </si>
   <si>
     <t xml:space="preserve">6.12077665328979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06622648239136</t>
+    <t xml:space="preserve">6.06622695922852</t>
   </si>
   <si>
     <t xml:space="preserve">6.21309185028076</t>
@@ -1613,19 +1613,19 @@
     <t xml:space="preserve">6.13616228103638</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07322072982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1725287437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0704231262207</t>
+    <t xml:space="preserve">6.07322025299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17252922058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07042360305786</t>
   </si>
   <si>
     <t xml:space="preserve">6.15014934539795</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14595365524292</t>
+    <t xml:space="preserve">6.14595460891724</t>
   </si>
   <si>
     <t xml:space="preserve">6.15854167938232</t>
@@ -1637,19 +1637,19 @@
     <t xml:space="preserve">5.97531032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81865406036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94174146652222</t>
+    <t xml:space="preserve">5.81865453720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94174194335938</t>
   </si>
   <si>
     <t xml:space="preserve">5.87600183486938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89418506622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99069595336914</t>
+    <t xml:space="preserve">5.8941855430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9906964302063</t>
   </si>
   <si>
     <t xml:space="preserve">5.87040710449219</t>
@@ -1658,16 +1658,16 @@
     <t xml:space="preserve">5.80186939239502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80746412277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79627466201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76130723953247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7864842414856</t>
+    <t xml:space="preserve">5.80746459960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79627513885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76130676269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78648376464844</t>
   </si>
   <si>
     <t xml:space="preserve">5.60604953765869</t>
@@ -1676,34 +1676,34 @@
     <t xml:space="preserve">5.93195056915283</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1249737739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07182216644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34037446975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3068060874939</t>
+    <t xml:space="preserve">6.12497329711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07182168960571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3403754234314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.30680513381958</t>
   </si>
   <si>
     <t xml:space="preserve">6.33897686004639</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2970142364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3137993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42150068283081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44248199462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50961923599243</t>
+    <t xml:space="preserve">6.29701471328735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31379985809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42150020599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44248056411743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50961971282959</t>
   </si>
   <si>
     <t xml:space="preserve">6.4159049987793</t>
@@ -1715,25 +1715,25 @@
     <t xml:space="preserve">6.36834907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48723983764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47605037689209</t>
+    <t xml:space="preserve">6.48724031448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47605133056641</t>
   </si>
   <si>
     <t xml:space="preserve">6.41170978546143</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01727199554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83404064178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8606162071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85222387313843</t>
+    <t xml:space="preserve">6.01727151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83404016494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86061573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85222339630127</t>
   </si>
   <si>
     <t xml:space="preserve">5.75431299209595</t>
@@ -1745,40 +1745,40 @@
     <t xml:space="preserve">5.53191757202148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41582441329956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36966609954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37666082382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46058320999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39764070510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34588956832886</t>
+    <t xml:space="preserve">5.41582489013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36966705322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37666034698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46058368682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39764165878296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3458890914917</t>
   </si>
   <si>
     <t xml:space="preserve">5.50953817367554</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41022968292236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42281818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.239586353302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44100093841553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29413652420044</t>
+    <t xml:space="preserve">5.41023015975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42281866073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23958683013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44100189208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29413604736328</t>
   </si>
   <si>
     <t xml:space="preserve">5.44519710540771</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">5.4591851234436</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42141914367676</t>
+    <t xml:space="preserve">5.42141962051392</t>
   </si>
   <si>
     <t xml:space="preserve">5.54730367660522</t>
@@ -1796,22 +1796,22 @@
     <t xml:space="preserve">5.48436164855957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46338033676147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48715877532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50254487991333</t>
+    <t xml:space="preserve">5.46338081359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48715925216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50254535675049</t>
   </si>
   <si>
     <t xml:space="preserve">5.49834871292114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4256157875061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50799083709717</t>
+    <t xml:space="preserve">5.42561531066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50799036026001</t>
   </si>
   <si>
     <t xml:space="preserve">5.37847805023193</t>
@@ -1823,28 +1823,28 @@
     <t xml:space="preserve">5.42462635040283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46482038497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70746898651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73128795623779</t>
+    <t xml:space="preserve">5.46481943130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70746946334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73128747940063</t>
   </si>
   <si>
     <t xml:space="preserve">5.75659465789795</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81167459487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81018590927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84740161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74170780181885</t>
+    <t xml:space="preserve">5.81167507171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8101863861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84740114212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74170827865601</t>
   </si>
   <si>
     <t xml:space="preserve">5.75361728668213</t>
@@ -1856,22 +1856,22 @@
     <t xml:space="preserve">5.5764684677124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44844532012939</t>
+    <t xml:space="preserve">5.44844484329224</t>
   </si>
   <si>
     <t xml:space="preserve">5.42164945602417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60028648376465</t>
+    <t xml:space="preserve">5.60028696060181</t>
   </si>
   <si>
     <t xml:space="preserve">5.62261629104614</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67323064804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58540058135986</t>
+    <t xml:space="preserve">5.67323017120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58540010452271</t>
   </si>
   <si>
     <t xml:space="preserve">5.63452529907227</t>
@@ -1886,22 +1886,22 @@
     <t xml:space="preserve">5.4752402305603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39187622070312</t>
+    <t xml:space="preserve">5.39187574386597</t>
   </si>
   <si>
     <t xml:space="preserve">5.49012660980225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43653583526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43206977844238</t>
+    <t xml:space="preserve">5.43653535842896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43207025527954</t>
   </si>
   <si>
     <t xml:space="preserve">5.75510549545288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74468469619751</t>
+    <t xml:space="preserve">5.74468517303467</t>
   </si>
   <si>
     <t xml:space="preserve">5.7268214225769</t>
@@ -1910,13 +1910,13 @@
     <t xml:space="preserve">5.69704866409302</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70002555847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77148056030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70895767211914</t>
+    <t xml:space="preserve">5.70002603530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77148151397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7089581489563</t>
   </si>
   <si>
     <t xml:space="preserve">5.70151424407959</t>
@@ -1934,46 +1934,46 @@
     <t xml:space="preserve">5.88015222549438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86080026626587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86526536941528</t>
+    <t xml:space="preserve">5.86079978942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86526584625244</t>
   </si>
   <si>
     <t xml:space="preserve">5.87568664550781</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93672037124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86228895187378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81762933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82953834533691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6538782119751</t>
+    <t xml:space="preserve">5.9367208480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86228799819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81762886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82953786849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65387773513794</t>
   </si>
   <si>
     <t xml:space="preserve">5.49310445785522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45886564254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64345693588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7640380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76999187469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87122011184692</t>
+    <t xml:space="preserve">5.45886516571045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64345741271973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76403760910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76999235153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87122058868408</t>
   </si>
   <si>
     <t xml:space="preserve">5.90099287033081</t>
@@ -1988,7 +1988,7 @@
     <t xml:space="preserve">6.1823468208313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1972336769104</t>
+    <t xml:space="preserve">6.19723415374756</t>
   </si>
   <si>
     <t xml:space="preserve">6.16894960403442</t>
@@ -2000,19 +2000,19 @@
     <t xml:space="preserve">6.12875604629517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14513063430786</t>
+    <t xml:space="preserve">6.14513111114502</t>
   </si>
   <si>
     <t xml:space="preserve">6.22254037857056</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31930208206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38629198074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56641721725464</t>
+    <t xml:space="preserve">6.31930255889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38629150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56641674041748</t>
   </si>
   <si>
     <t xml:space="preserve">6.43392848968506</t>
@@ -2021,46 +2021,46 @@
     <t xml:space="preserve">6.49198579788208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50240612030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62447452545166</t>
+    <t xml:space="preserve">6.50240659713745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62447500228882</t>
   </si>
   <si>
     <t xml:space="preserve">6.51431512832642</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44732570648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53962230682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51729249954224</t>
+    <t xml:space="preserve">6.44732618331909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53962278366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51729202270508</t>
   </si>
   <si>
     <t xml:space="preserve">6.60958862304688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63787317276001</t>
+    <t xml:space="preserve">6.63787364959717</t>
   </si>
   <si>
     <t xml:space="preserve">6.68997526168823</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8328857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79120302200317</t>
+    <t xml:space="preserve">6.83288621902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79120349884033</t>
   </si>
   <si>
     <t xml:space="preserve">6.66317987442017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71230554580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65871381759644</t>
+    <t xml:space="preserve">6.71230459213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65871429443359</t>
   </si>
   <si>
     <t xml:space="preserve">6.59619140625</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">6.8581919670105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89391994476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96090984344482</t>
+    <t xml:space="preserve">6.89392042160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96090936660767</t>
   </si>
   <si>
     <t xml:space="preserve">6.86117029190063</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">6.87754487991333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91773748397827</t>
+    <t xml:space="preserve">6.91773796081543</t>
   </si>
   <si>
     <t xml:space="preserve">6.96388626098633</t>
@@ -2099,49 +2099,49 @@
     <t xml:space="preserve">6.92518138885498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02492046356201</t>
+    <t xml:space="preserve">7.02492094039917</t>
   </si>
   <si>
     <t xml:space="preserve">7.08148908615112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12317132949829</t>
+    <t xml:space="preserve">7.12317085266113</t>
   </si>
   <si>
     <t xml:space="preserve">7.15294408798218</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13210296630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07106876373291</t>
+    <t xml:space="preserve">7.13210344314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07106924057007</t>
   </si>
   <si>
     <t xml:space="preserve">6.98770427703857</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96686267852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00705766677856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13508081436157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03385210037231</t>
+    <t xml:space="preserve">6.96686363220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00705671310425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13508176803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03385305404663</t>
   </si>
   <si>
     <t xml:space="preserve">7.07404565811157</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85223817825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69295167922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77929353713989</t>
+    <t xml:space="preserve">6.85223865509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69295215606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77929401397705</t>
   </si>
   <si>
     <t xml:space="preserve">6.62298631668091</t>
@@ -2150,25 +2150,25 @@
     <t xml:space="preserve">6.47561073303223</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64233875274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60065650939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58428144454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47709894180298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40117883682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42350816726685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36396217346191</t>
+    <t xml:space="preserve">6.64233922958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60065698623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58428192138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47709941864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40117788314819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42350769042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36396265029907</t>
   </si>
   <si>
     <t xml:space="preserve">6.32079124450684</t>
@@ -2180,10 +2180,10 @@
     <t xml:space="preserve">6.22998380661011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1570405960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12131309509277</t>
+    <t xml:space="preserve">6.15704011917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12131261825562</t>
   </si>
   <si>
     <t xml:space="preserve">6.28059768676758</t>
@@ -2198,10 +2198,10 @@
     <t xml:space="preserve">6.37289428710938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37140512466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34163284301758</t>
+    <t xml:space="preserve">6.37140560150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34163236618042</t>
   </si>
   <si>
     <t xml:space="preserve">6.3788480758667</t>
@@ -2213,7 +2213,7 @@
     <t xml:space="preserve">6.34460973739624</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48305416107178</t>
+    <t xml:space="preserve">6.48305320739746</t>
   </si>
   <si>
     <t xml:space="preserve">6.5813045501709</t>
@@ -2222,22 +2222,22 @@
     <t xml:space="preserve">6.56046342849731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61107778549194</t>
+    <t xml:space="preserve">6.61107683181763</t>
   </si>
   <si>
     <t xml:space="preserve">6.58874750137329</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72272539138794</t>
+    <t xml:space="preserve">6.7227258682251</t>
   </si>
   <si>
     <t xml:space="preserve">6.76738548278809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74803304672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6616907119751</t>
+    <t xml:space="preserve">6.74803352355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66169118881226</t>
   </si>
   <si>
     <t xml:space="preserve">6.73761224746704</t>
@@ -2246,118 +2246,118 @@
     <t xml:space="preserve">6.91327285766602</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05022859573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01598834991455</t>
+    <t xml:space="preserve">7.05022764205933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01598882675171</t>
   </si>
   <si>
     <t xml:space="preserve">6.95346593856812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93113660812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99663639068604</t>
+    <t xml:space="preserve">6.93113708496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99663686752319</t>
   </si>
   <si>
     <t xml:space="preserve">6.98472690582275</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99068164825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93857908248901</t>
+    <t xml:space="preserve">6.99068260192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93857955932617</t>
   </si>
   <si>
     <t xml:space="preserve">7.01301145553589</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97579574584961</t>
+    <t xml:space="preserve">6.97579526901245</t>
   </si>
   <si>
     <t xml:space="preserve">6.99365949630737</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8477725982666</t>
+    <t xml:space="preserve">6.84777164459229</t>
   </si>
   <si>
     <t xml:space="preserve">6.88052225112915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95644283294678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92964744567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94453382492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76440811157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73910045623779</t>
+    <t xml:space="preserve">6.95644330978394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92964839935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9445333480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76440858840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73910093307495</t>
   </si>
   <si>
     <t xml:space="preserve">6.74952173233032</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57683801651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51878213882446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49942874908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32674551010132</t>
+    <t xml:space="preserve">6.57683897018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5187816619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44583749771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49942922592163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32674598693848</t>
   </si>
   <si>
     <t xml:space="preserve">6.31483697891235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34758710861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20021057128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33270072937012</t>
+    <t xml:space="preserve">6.3475866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20021104812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33270025253296</t>
   </si>
   <si>
     <t xml:space="preserve">6.38182592391968</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47858858108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52771282196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45328092575073</t>
+    <t xml:space="preserve">6.47858810424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52771329879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45328044891357</t>
   </si>
   <si>
     <t xml:space="preserve">6.53366756439209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55599689483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6125659942627</t>
+    <t xml:space="preserve">6.55599737167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61256551742554</t>
   </si>
   <si>
     <t xml:space="preserve">6.7063512802124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78822565078735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02938795089722</t>
+    <t xml:space="preserve">6.78822612762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0293869972229</t>
   </si>
   <si>
     <t xml:space="preserve">7.0457615852356</t>
@@ -2366,22 +2366,22 @@
     <t xml:space="preserve">7.13359212875366</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08000087738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11572885513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18271684646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11423921585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08446598052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21993350982666</t>
+    <t xml:space="preserve">7.08000135421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1157283782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18271732330322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11423873901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08446645736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21993398666382</t>
   </si>
   <si>
     <t xml:space="preserve">7.42238998413086</t>
@@ -2390,13 +2390,13 @@
     <t xml:space="preserve">7.36582040786743</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3762412071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41792297363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52138471603394</t>
+    <t xml:space="preserve">7.37624073028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41792249679565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52138423919678</t>
   </si>
   <si>
     <t xml:space="preserve">7.42536735534668</t>
@@ -2405,49 +2405,49 @@
     <t xml:space="preserve">7.45811748504639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42834424972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22291135787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31074047088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27799081802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29734325408936</t>
+    <t xml:space="preserve">7.4283447265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2229118347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31073999404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27799034118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29734373092651</t>
   </si>
   <si>
     <t xml:space="preserve">7.25417232513428</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26608180999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51021862030029</t>
+    <t xml:space="preserve">7.26608228683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51021957397461</t>
   </si>
   <si>
     <t xml:space="preserve">7.67769193649292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76328992843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87493753433228</t>
+    <t xml:space="preserve">7.76328945159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87493801116943</t>
   </si>
   <si>
     <t xml:space="preserve">7.90471124649048</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88238143920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86005067825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93448305130005</t>
+    <t xml:space="preserve">7.88238096237183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86005210876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93448352813721</t>
   </si>
   <si>
     <t xml:space="preserve">8.01263809204102</t>
@@ -2456,37 +2456,37 @@
     <t xml:space="preserve">8.07218360900879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06474018096924</t>
+    <t xml:space="preserve">8.06473922729492</t>
   </si>
   <si>
     <t xml:space="preserve">8.09451293945312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94564914703369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92704105377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99030828475952</t>
+    <t xml:space="preserve">7.94564867019653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92704010009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99030780792236</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150283813477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10939979553223</t>
+    <t xml:space="preserve">8.10940074920654</t>
   </si>
   <si>
     <t xml:space="preserve">8.02380180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76701068878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9233193397522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85260772705078</t>
+    <t xml:space="preserve">7.76701164245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92331886291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85260820388794</t>
   </si>
   <si>
     <t xml:space="preserve">8.02844524383545</t>
@@ -2507,10 +2507,10 @@
     <t xml:space="preserve">7.9817214012146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04012393951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90385103225708</t>
+    <t xml:space="preserve">8.04012489318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9038519859314</t>
   </si>
   <si>
     <t xml:space="preserve">7.82987546920776</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">7.78704500198364</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85323572158813</t>
+    <t xml:space="preserve">7.85323476791382</t>
   </si>
   <si>
     <t xml:space="preserve">7.82208728790283</t>
@@ -2531,22 +2531,22 @@
     <t xml:space="preserve">7.71696186065674</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87270259857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88438415527344</t>
+    <t xml:space="preserve">7.87270355224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88438320159912</t>
   </si>
   <si>
     <t xml:space="preserve">7.73565101623535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8104076385498</t>
+    <t xml:space="preserve">7.81040668487549</t>
   </si>
   <si>
     <t xml:space="preserve">7.77614450454712</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85712814331055</t>
+    <t xml:space="preserve">7.85712909698486</t>
   </si>
   <si>
     <t xml:space="preserve">7.77925825119019</t>
@@ -2555,94 +2555,94 @@
     <t xml:space="preserve">7.70917510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6422061920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72007703781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64999389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67179775238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74188137054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75434064865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70761823654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66556787490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66712522506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56589412689209</t>
+    <t xml:space="preserve">7.64220666885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72007656097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64999341964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67179679870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74188041687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75433969497681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70761775970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66556835174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6671257019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56589365005493</t>
   </si>
   <si>
     <t xml:space="preserve">7.64376449584961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59236907958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53630256652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55810689926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47089195251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40859508514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44597244262695</t>
+    <t xml:space="preserve">7.592369556427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53630352020264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55810737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47089147567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40859460830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44597339630127</t>
   </si>
   <si>
     <t xml:space="preserve">7.23260831832886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45999050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40392303466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2108039855957</t>
+    <t xml:space="preserve">7.45999002456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40392351150513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21080493927002</t>
   </si>
   <si>
     <t xml:space="preserve">7.01768589019775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17498350143433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26687145233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45375967025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33539772033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47867918014526</t>
+    <t xml:space="preserve">7.17498302459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26687049865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45375919342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33539724349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47867822647095</t>
   </si>
   <si>
     <t xml:space="preserve">7.51917123794556</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53941822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54097509384155</t>
+    <t xml:space="preserve">7.5394172668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54097461700439</t>
   </si>
   <si>
     <t xml:space="preserve">7.48023557662964</t>
@@ -2651,46 +2651,46 @@
     <t xml:space="preserve">7.50982666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46777725219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32916688919067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88997745513916</t>
+    <t xml:space="preserve">7.46777677536011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32916736602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88997840881348</t>
   </si>
   <si>
     <t xml:space="preserve">6.85727214813232</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81989574432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6563663482666</t>
+    <t xml:space="preserve">6.81989526748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65636682510376</t>
   </si>
   <si>
     <t xml:space="preserve">6.3775897026062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15332365036011</t>
+    <t xml:space="preserve">6.15332317352295</t>
   </si>
   <si>
     <t xml:space="preserve">6.09725713729858</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01782894134521</t>
+    <t xml:space="preserve">6.01782941818237</t>
   </si>
   <si>
     <t xml:space="preserve">5.76552820205688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64249324798584</t>
+    <t xml:space="preserve">5.64249277114868</t>
   </si>
   <si>
     <t xml:space="preserve">4.82952547073364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4977970123291</t>
+    <t xml:space="preserve">4.49779748916626</t>
   </si>
   <si>
     <t xml:space="preserve">4.62550497055054</t>
@@ -2702,10 +2702,10 @@
     <t xml:space="preserve">4.03213214874268</t>
   </si>
   <si>
-    <t xml:space="preserve">3.56490969657898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47613739967346</t>
+    <t xml:space="preserve">3.5649094581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47613763809204</t>
   </si>
   <si>
     <t xml:space="preserve">3.27445244789124</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">3.24875545501709</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3118302822113</t>
+    <t xml:space="preserve">3.31183052062988</t>
   </si>
   <si>
     <t xml:space="preserve">3.39203691482544</t>
@@ -2723,7 +2723,7 @@
     <t xml:space="preserve">3.86393213272095</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16918468475342</t>
+    <t xml:space="preserve">4.16918420791626</t>
   </si>
   <si>
     <t xml:space="preserve">4.28287506103516</t>
@@ -2732,16 +2732,16 @@
     <t xml:space="preserve">4.01967334747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.87405490875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91532611846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89663767814636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03057527542114</t>
+    <t xml:space="preserve">3.8740553855896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9153265953064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89663815498352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03057479858398</t>
   </si>
   <si>
     <t xml:space="preserve">3.95737648010254</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">4.32648277282715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33427000045776</t>
+    <t xml:space="preserve">4.33426952362061</t>
   </si>
   <si>
     <t xml:space="preserve">4.31558036804199</t>
@@ -2762,19 +2762,19 @@
     <t xml:space="preserve">4.13492155075073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82266044616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89507985115051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94335961341858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80397200584412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75413513183594</t>
+    <t xml:space="preserve">3.82266092300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89508032798767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94336009025574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80397176742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75413489341736</t>
   </si>
   <si>
     <t xml:space="preserve">3.99319696426392</t>
@@ -2783,10 +2783,10 @@
     <t xml:space="preserve">4.08352661132812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22369337081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29533433914185</t>
+    <t xml:space="preserve">4.22369384765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29533386230469</t>
   </si>
   <si>
     <t xml:space="preserve">4.11778974533081</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">4.05705070495605</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02123022079468</t>
+    <t xml:space="preserve">4.02123069763184</t>
   </si>
   <si>
     <t xml:space="preserve">4.01344299316406</t>
@@ -2807,7 +2807,7 @@
     <t xml:space="preserve">4.04614877700806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18164348602295</t>
+    <t xml:space="preserve">4.18164300918579</t>
   </si>
   <si>
     <t xml:space="preserve">4.11467504501343</t>
@@ -2816,34 +2816,34 @@
     <t xml:space="preserve">3.93245816230774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80475068092346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06795263290405</t>
+    <t xml:space="preserve">3.80475044250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06795310974121</t>
   </si>
   <si>
     <t xml:space="preserve">4.00409889221191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94803190231323</t>
+    <t xml:space="preserve">3.94803237915039</t>
   </si>
   <si>
     <t xml:space="preserve">4.0274600982666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04147672653198</t>
+    <t xml:space="preserve">4.04147624969482</t>
   </si>
   <si>
     <t xml:space="preserve">4.27041625976562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44484567642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.61148834228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54452037811279</t>
+    <t xml:space="preserve">4.44484615325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61148881912231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54451990127563</t>
   </si>
   <si>
     <t xml:space="preserve">4.91206836700439</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">5.52412986755371</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42445611953735</t>
+    <t xml:space="preserve">5.4244556427002</t>
   </si>
   <si>
     <t xml:space="preserve">5.19395971298218</t>
@@ -2882,16 +2882,16 @@
     <t xml:space="preserve">5.51478576660156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48830986022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58642625808716</t>
+    <t xml:space="preserve">5.48830938339233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58642673492432</t>
   </si>
   <si>
     <t xml:space="preserve">5.46806335449219</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3107647895813</t>
+    <t xml:space="preserve">5.31076526641846</t>
   </si>
   <si>
     <t xml:space="preserve">5.33568429946899</t>
@@ -2906,28 +2906,28 @@
     <t xml:space="preserve">4.8684606552124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08494138717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.97592210769653</t>
+    <t xml:space="preserve">5.08494091033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97592163085938</t>
   </si>
   <si>
     <t xml:space="preserve">5.0351037979126</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25314092636108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23601007461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25937032699585</t>
+    <t xml:space="preserve">5.25314044952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23600959777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25937128067017</t>
   </si>
   <si>
     <t xml:space="preserve">5.26560020446777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21109056472778</t>
+    <t xml:space="preserve">5.21109104156494</t>
   </si>
   <si>
     <t xml:space="preserve">5.12231874465942</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">5.39330768585205</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4867525100708</t>
+    <t xml:space="preserve">5.48675203323364</t>
   </si>
   <si>
     <t xml:space="preserve">5.49453973770142</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">5.60823011398315</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6113452911377</t>
+    <t xml:space="preserve">5.61134481430054</t>
   </si>
   <si>
     <t xml:space="preserve">5.67675638198853</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">5.25625562667847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2780590057373</t>
+    <t xml:space="preserve">5.27805948257446</t>
   </si>
   <si>
     <t xml:space="preserve">5.05379247665405</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">5.65339517593384</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55527830123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46183347702026</t>
+    <t xml:space="preserve">5.55527782440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46183395385742</t>
   </si>
   <si>
     <t xml:space="preserve">5.60200071334839</t>
@@ -3020,22 +3020,22 @@
     <t xml:space="preserve">5.44314527511597</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60355806350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63470602035522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81380844116211</t>
+    <t xml:space="preserve">5.60355854034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63470649719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81380796432495</t>
   </si>
   <si>
     <t xml:space="preserve">5.84962892532349</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79200458526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6705265045166</t>
+    <t xml:space="preserve">5.79200410842896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67052698135376</t>
   </si>
   <si>
     <t xml:space="preserve">5.69700241088867</t>
@@ -3047,25 +3047,25 @@
     <t xml:space="preserve">5.58175468444824</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5677375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42601346969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52880191802979</t>
+    <t xml:space="preserve">5.56773805618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42601299285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52880239486694</t>
   </si>
   <si>
     <t xml:space="preserve">5.75774145126343</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64093589782715</t>
+    <t xml:space="preserve">5.64093542098999</t>
   </si>
   <si>
     <t xml:space="preserve">5.65806674957275</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53814744949341</t>
+    <t xml:space="preserve">5.53814697265625</t>
   </si>
   <si>
     <t xml:space="preserve">5.43224334716797</t>
@@ -3077,13 +3077,13 @@
     <t xml:space="preserve">5.22510766983032</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20797634124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08338356018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28740406036377</t>
+    <t xml:space="preserve">5.2079758644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08338308334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28740358352661</t>
   </si>
   <si>
     <t xml:space="preserve">5.20641899108887</t>
@@ -3095,22 +3095,22 @@
     <t xml:space="preserve">5.17215585708618</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25781297683716</t>
+    <t xml:space="preserve">5.25781345367432</t>
   </si>
   <si>
     <t xml:space="preserve">5.43380069732666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56306505203247</t>
+    <t xml:space="preserve">5.56306552886963</t>
   </si>
   <si>
     <t xml:space="preserve">5.43068599700928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64405107498169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58798408508301</t>
+    <t xml:space="preserve">5.64405059814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58798360824585</t>
   </si>
   <si>
     <t xml:space="preserve">5.55683565139771</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">5.17059850692749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12543296813965</t>
+    <t xml:space="preserve">5.12543344497681</t>
   </si>
   <si>
     <t xml:space="preserve">5.17838525772095</t>
@@ -3137,7 +3137,7 @@
     <t xml:space="preserve">5.06157970428467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06780958175659</t>
+    <t xml:space="preserve">5.06780910491943</t>
   </si>
   <si>
     <t xml:space="preserve">5.11453104019165</t>
@@ -3158,25 +3158,25 @@
     <t xml:space="preserve">4.74075317382812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90583848953247</t>
+    <t xml:space="preserve">4.90583896636963</t>
   </si>
   <si>
     <t xml:space="preserve">5.1861720085144</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66896915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54904937744141</t>
+    <t xml:space="preserve">5.66896963119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54904890060425</t>
   </si>
   <si>
     <t xml:space="preserve">5.5583930015564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8901219367981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97577857971191</t>
+    <t xml:space="preserve">5.89012145996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97577905654907</t>
   </si>
   <si>
     <t xml:space="preserve">5.88856410980225</t>
@@ -3200,13 +3200,13 @@
     <t xml:space="preserve">6.01938629150391</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82003784179688</t>
+    <t xml:space="preserve">5.82003831863403</t>
   </si>
   <si>
     <t xml:space="preserve">5.90413761138916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83561229705811</t>
+    <t xml:space="preserve">5.83561182022095</t>
   </si>
   <si>
     <t xml:space="preserve">5.9181547164917</t>
@@ -3224,22 +3224,22 @@
     <t xml:space="preserve">5.86987495422363</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8465142250061</t>
+    <t xml:space="preserve">5.84651374816895</t>
   </si>
   <si>
     <t xml:space="preserve">5.7125768661499</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72503566741943</t>
+    <t xml:space="preserve">5.72503614425659</t>
   </si>
   <si>
     <t xml:space="preserve">5.91348218917847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8652024269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79667663574219</t>
+    <t xml:space="preserve">5.86520290374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79667615890503</t>
   </si>
   <si>
     <t xml:space="preserve">5.75618457794189</t>
@@ -3251,7 +3251,7 @@
     <t xml:space="preserve">5.89479351043701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89946603775024</t>
+    <t xml:space="preserve">5.89946556091309</t>
   </si>
   <si>
     <t xml:space="preserve">5.76864337921143</t>
@@ -3260,16 +3260,16 @@
     <t xml:space="preserve">5.79044771194458</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01004123687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99291038513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87766170501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83249664306641</t>
+    <t xml:space="preserve">6.0100417137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99291086196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87766218185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83249711990356</t>
   </si>
   <si>
     <t xml:space="preserve">5.88389205932617</t>
@@ -3284,7 +3284,7 @@
     <t xml:space="preserve">5.74684000015259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84184122085571</t>
+    <t xml:space="preserve">5.84184169769287</t>
   </si>
   <si>
     <t xml:space="preserve">5.76708602905273</t>
@@ -3314,46 +3314,46 @@
     <t xml:space="preserve">6.29972076416016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38537693023682</t>
+    <t xml:space="preserve">6.38537740707397</t>
   </si>
   <si>
     <t xml:space="preserve">6.59251260757446</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65325164794922</t>
+    <t xml:space="preserve">6.65325117111206</t>
   </si>
   <si>
     <t xml:space="preserve">6.85260057449341</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94760179519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91956901550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03948926925659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98030805587769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02547359466553</t>
+    <t xml:space="preserve">6.94760274887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91956853866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03948974609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98030757904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02547311782837</t>
   </si>
   <si>
     <t xml:space="preserve">6.98809480667114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07063770294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06285047531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02858781814575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9771933555603</t>
+    <t xml:space="preserve">7.07063722610474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06284999847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02858734130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97719287872314</t>
   </si>
   <si>
     <t xml:space="preserve">6.82923889160156</t>
@@ -3365,52 +3365,52 @@
     <t xml:space="preserve">6.94293022155762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87128973007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96940517425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0597357749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18121337890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19211530685425</t>
+    <t xml:space="preserve">6.87128925323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96940565109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05973625183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18121385574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19211626052856</t>
   </si>
   <si>
     <t xml:space="preserve">7.23416566848755</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31515121459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33072519302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3696608543396</t>
+    <t xml:space="preserve">7.31515073776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33072471618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36965942382812</t>
   </si>
   <si>
     <t xml:space="preserve">7.49581050872803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57523822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57835340499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3462986946106</t>
+    <t xml:space="preserve">7.57523775100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57835292816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34629821777344</t>
   </si>
   <si>
     <t xml:space="preserve">7.30424880981445</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23883724212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36810255050659</t>
+    <t xml:space="preserve">7.23883676528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36810207366943</t>
   </si>
   <si>
     <t xml:space="preserve">7.37433195114136</t>
@@ -3419,16 +3419,16 @@
     <t xml:space="preserve">7.38990592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41015243530273</t>
+    <t xml:space="preserve">7.41015195846558</t>
   </si>
   <si>
     <t xml:space="preserve">7.51294136047363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36343097686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3135929107666</t>
+    <t xml:space="preserve">7.36343050003052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31359338760376</t>
   </si>
   <si>
     <t xml:space="preserve">7.32605266571045</t>
@@ -3440,28 +3440,28 @@
     <t xml:space="preserve">7.26842784881592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28088808059692</t>
+    <t xml:space="preserve">7.28088760375977</t>
   </si>
   <si>
     <t xml:space="preserve">7.27154350280762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24662399291992</t>
+    <t xml:space="preserve">7.24662446975708</t>
   </si>
   <si>
     <t xml:space="preserve">7.31670808792114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31203651428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16408252716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09244060516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10957288742065</t>
+    <t xml:space="preserve">7.31203603744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16408205032349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09244108200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1095724105835</t>
   </si>
   <si>
     <t xml:space="preserve">7.09711360931396</t>
@@ -3470,7 +3470,7 @@
     <t xml:space="preserve">7.29957628250122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26998615264893</t>
+    <t xml:space="preserve">7.26998567581177</t>
   </si>
   <si>
     <t xml:space="preserve">7.29023313522339</t>
@@ -3479,31 +3479,31 @@
     <t xml:space="preserve">7.32138061523438</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39769315719604</t>
+    <t xml:space="preserve">7.39769411087036</t>
   </si>
   <si>
     <t xml:space="preserve">7.24039506912231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37744617462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41794013977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51761388778687</t>
+    <t xml:space="preserve">7.37744665145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41793966293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51761341094971</t>
   </si>
   <si>
     <t xml:space="preserve">7.5331883430481</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4895806312561</t>
+    <t xml:space="preserve">7.48958110809326</t>
   </si>
   <si>
     <t xml:space="preserve">7.56433582305908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61728811264038</t>
+    <t xml:space="preserve">7.61728763580322</t>
   </si>
   <si>
     <t xml:space="preserve">7.68581390380859</t>
@@ -3518,16 +3518,16 @@
     <t xml:space="preserve">7.5316309928894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56122159957886</t>
+    <t xml:space="preserve">7.5612211227417</t>
   </si>
   <si>
     <t xml:space="preserve">7.61261606216431</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60015630722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63286304473877</t>
+    <t xml:space="preserve">7.60015773773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63286256790161</t>
   </si>
   <si>
     <t xml:space="preserve">7.70138883590698</t>
@@ -3536,28 +3536,28 @@
     <t xml:space="preserve">7.76368474960327</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79872608184814</t>
+    <t xml:space="preserve">7.79872703552246</t>
   </si>
   <si>
     <t xml:space="preserve">7.79483318328857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74810981750488</t>
+    <t xml:space="preserve">7.7481107711792</t>
   </si>
   <si>
     <t xml:space="preserve">7.76056909561157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69671535491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75589752197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74655389785767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72319269180298</t>
+    <t xml:space="preserve">7.69671583175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75589656829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74655294418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72319221496582</t>
   </si>
   <si>
     <t xml:space="preserve">7.7263069152832</t>
@@ -3566,10 +3566,10 @@
     <t xml:space="preserve">7.63909196853638</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66245317459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71229076385498</t>
+    <t xml:space="preserve">7.66245365142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71228981018066</t>
   </si>
   <si>
     <t xml:space="preserve">7.77458667755127</t>
@@ -3578,31 +3578,31 @@
     <t xml:space="preserve">7.7683572769165</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68892860412598</t>
+    <t xml:space="preserve">7.68892908096313</t>
   </si>
   <si>
     <t xml:space="preserve">7.67024040222168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68114233016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67491292953491</t>
+    <t xml:space="preserve">7.68114185333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6749119758606</t>
   </si>
   <si>
     <t xml:space="preserve">7.86102294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62507486343384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63441944122314</t>
+    <t xml:space="preserve">7.625075340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6344199180603</t>
   </si>
   <si>
     <t xml:space="preserve">7.39302158355713</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59392642974854</t>
+    <t xml:space="preserve">7.59392690658569</t>
   </si>
   <si>
     <t xml:space="preserve">7.67646932601929</t>
@@ -3611,25 +3611,25 @@
     <t xml:space="preserve">7.69360113143921</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62974834442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57679557800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33383941650391</t>
+    <t xml:space="preserve">7.62974786758423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57679510116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33383989334106</t>
   </si>
   <si>
     <t xml:space="preserve">7.42728471755981</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72474908828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8065128326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78081607818604</t>
+    <t xml:space="preserve">7.72474956512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80651378631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78081512451172</t>
   </si>
   <si>
     <t xml:space="preserve">7.78237390518188</t>
@@ -3638,22 +3638,22 @@
     <t xml:space="preserve">7.73253726959229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69827270507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61572980880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69983005523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77770137786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79093980789185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67802762985229</t>
+    <t xml:space="preserve">7.69827318191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61573028564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69983053207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77770042419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79093885421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67802667617798</t>
   </si>
   <si>
     <t xml:space="preserve">7.77147197723389</t>
@@ -3662,13 +3662,13 @@
     <t xml:space="preserve">7.76679944992065</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66400957107544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65777969360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52384376525879</t>
+    <t xml:space="preserve">7.66401100158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65778064727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52384328842163</t>
   </si>
   <si>
     <t xml:space="preserve">7.57991027832031</t>
@@ -3680,34 +3680,34 @@
     <t xml:space="preserve">7.74343824386597</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77302980422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59704065322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74032258987427</t>
+    <t xml:space="preserve">7.77302885055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59704208374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74032354354858</t>
   </si>
   <si>
     <t xml:space="preserve">7.86491632461548</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98561573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83376789093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04791164398193</t>
+    <t xml:space="preserve">7.98561477661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83376884460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04791069030762</t>
   </si>
   <si>
     <t xml:space="preserve">8.12967586517334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20754623413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10242176055908</t>
+    <t xml:space="preserve">8.20754718780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10242080688477</t>
   </si>
   <si>
     <t xml:space="preserve">8.26205444335938</t>
@@ -3722,10 +3722,10 @@
     <t xml:space="preserve">7.70450353622437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88049077987671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91553068161011</t>
+    <t xml:space="preserve">7.88048982620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91553163528442</t>
   </si>
   <si>
     <t xml:space="preserve">7.93499946594238</t>
@@ -3740,7 +3740,7 @@
     <t xml:space="preserve">8.12188911437988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07127285003662</t>
+    <t xml:space="preserve">8.0712718963623</t>
   </si>
   <si>
     <t xml:space="preserve">8.0323371887207</t>
@@ -3755,10 +3755,10 @@
     <t xml:space="preserve">8.29709720611572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29320430755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42168998718262</t>
+    <t xml:space="preserve">8.29320335388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4216890335083</t>
   </si>
   <si>
     <t xml:space="preserve">8.41001033782959</t>
@@ -3773,10 +3773,10 @@
     <t xml:space="preserve">8.43337059020996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44115734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41390228271484</t>
+    <t xml:space="preserve">8.44115829467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41390323638916</t>
   </si>
   <si>
     <t xml:space="preserve">8.32045841217041</t>
@@ -4061,9 +4061,6 @@
     <t xml:space="preserve">7.66660594940186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64999341964722</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.88256645202637</t>
   </si>
   <si>
@@ -5538,6 +5535,9 @@
   </si>
   <si>
     <t xml:space="preserve">13.835000038147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5249996185303</t>
   </si>
 </sst>
 </file>
@@ -47627,7 +47627,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1606" t="s">
-        <v>1349</v>
+        <v>849</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -47653,7 +47653,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1607" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -47679,7 +47679,7 @@
         <v>9.48799991607666</v>
       </c>
       <c r="G1608" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -47705,7 +47705,7 @@
         <v>9.61200046539307</v>
       </c>
       <c r="G1609" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -47757,7 +47757,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1611" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -47783,7 +47783,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1612" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -47835,7 +47835,7 @@
         <v>9.64799976348877</v>
       </c>
       <c r="G1614" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -47861,7 +47861,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G1615" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -47887,7 +47887,7 @@
         <v>9.77799987792969</v>
       </c>
       <c r="G1616" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -47939,7 +47939,7 @@
         <v>9.70400047302246</v>
       </c>
       <c r="G1618" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -47965,7 +47965,7 @@
         <v>9.92399978637695</v>
       </c>
       <c r="G1619" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -48017,7 +48017,7 @@
         <v>9.91199970245361</v>
       </c>
       <c r="G1621" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -48043,7 +48043,7 @@
         <v>9.67199993133545</v>
       </c>
       <c r="G1622" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -48069,7 +48069,7 @@
         <v>9.57199954986572</v>
       </c>
       <c r="G1623" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -48095,7 +48095,7 @@
         <v>9.5</v>
       </c>
       <c r="G1624" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -48121,7 +48121,7 @@
         <v>9.55799961090088</v>
       </c>
       <c r="G1625" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -48147,7 +48147,7 @@
         <v>9.33600044250488</v>
       </c>
       <c r="G1626" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -48173,7 +48173,7 @@
         <v>9.4379997253418</v>
       </c>
       <c r="G1627" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -48199,7 +48199,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1628" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -48225,7 +48225,7 @@
         <v>9.52799987792969</v>
       </c>
       <c r="G1629" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -48251,7 +48251,7 @@
         <v>9.60200023651123</v>
       </c>
       <c r="G1630" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -48277,7 +48277,7 @@
         <v>9.55399990081787</v>
       </c>
       <c r="G1631" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -48303,7 +48303,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1632" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -48329,7 +48329,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -48355,7 +48355,7 @@
         <v>9.5</v>
       </c>
       <c r="G1634" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -48381,7 +48381,7 @@
         <v>9.68599987030029</v>
       </c>
       <c r="G1635" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -48407,7 +48407,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1636" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -48433,7 +48433,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1637" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -48459,7 +48459,7 @@
         <v>9.65200042724609</v>
       </c>
       <c r="G1638" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -48485,7 +48485,7 @@
         <v>9.01599979400635</v>
       </c>
       <c r="G1639" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -48511,7 +48511,7 @@
         <v>8.87600040435791</v>
       </c>
       <c r="G1640" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -48537,7 +48537,7 @@
         <v>8.95800018310547</v>
       </c>
       <c r="G1641" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -48563,7 +48563,7 @@
         <v>8.93599987030029</v>
       </c>
       <c r="G1642" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -48589,7 +48589,7 @@
         <v>8.52400016784668</v>
       </c>
       <c r="G1643" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -48615,7 +48615,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1644" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -48641,7 +48641,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1645" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -48667,7 +48667,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G1646" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -48693,7 +48693,7 @@
         <v>8.63799953460693</v>
       </c>
       <c r="G1647" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -48719,7 +48719,7 @@
         <v>8.44400024414062</v>
       </c>
       <c r="G1648" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -48745,7 +48745,7 @@
         <v>8.62800025939941</v>
       </c>
       <c r="G1649" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -48771,7 +48771,7 @@
         <v>8.44200038909912</v>
       </c>
       <c r="G1650" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -48797,7 +48797,7 @@
         <v>8.54599952697754</v>
       </c>
       <c r="G1651" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -48823,7 +48823,7 @@
         <v>8.48799991607666</v>
       </c>
       <c r="G1652" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -48849,7 +48849,7 @@
         <v>8.25800037384033</v>
       </c>
       <c r="G1653" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -48875,7 +48875,7 @@
         <v>8.2519998550415</v>
       </c>
       <c r="G1654" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -48901,7 +48901,7 @@
         <v>8.21199989318848</v>
       </c>
       <c r="G1655" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -48927,7 +48927,7 @@
         <v>8.01200008392334</v>
       </c>
       <c r="G1656" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -48953,7 +48953,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G1657" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -48979,7 +48979,7 @@
         <v>8.30200004577637</v>
       </c>
       <c r="G1658" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -49005,7 +49005,7 @@
         <v>8.42800045013428</v>
       </c>
       <c r="G1659" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -49031,7 +49031,7 @@
         <v>8.3439998626709</v>
       </c>
       <c r="G1660" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -49057,7 +49057,7 @@
         <v>8.24400043487549</v>
       </c>
       <c r="G1661" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -49083,7 +49083,7 @@
         <v>8.17399978637695</v>
       </c>
       <c r="G1662" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -49109,7 +49109,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -49135,7 +49135,7 @@
         <v>7.78399991989136</v>
       </c>
       <c r="G1664" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -49161,7 +49161,7 @@
         <v>7.97200012207031</v>
       </c>
       <c r="G1665" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -49187,7 +49187,7 @@
         <v>8.14200019836426</v>
       </c>
       <c r="G1666" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -49213,7 +49213,7 @@
         <v>8.04800033569336</v>
       </c>
       <c r="G1667" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -49239,7 +49239,7 @@
         <v>7.9980001449585</v>
       </c>
       <c r="G1668" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -49265,7 +49265,7 @@
         <v>8.0319995880127</v>
       </c>
       <c r="G1669" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -49291,7 +49291,7 @@
         <v>8.04800033569336</v>
       </c>
       <c r="G1670" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -49317,7 +49317,7 @@
         <v>7.94399976730347</v>
       </c>
       <c r="G1671" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -49343,7 +49343,7 @@
         <v>8.02200031280518</v>
       </c>
       <c r="G1672" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -49369,7 +49369,7 @@
         <v>8.17199993133545</v>
       </c>
       <c r="G1673" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -49395,7 +49395,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G1674" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -49421,7 +49421,7 @@
         <v>8.41600036621094</v>
       </c>
       <c r="G1675" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -49447,7 +49447,7 @@
         <v>8.42199993133545</v>
       </c>
       <c r="G1676" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -49473,7 +49473,7 @@
         <v>8.48200035095215</v>
       </c>
       <c r="G1677" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -49499,7 +49499,7 @@
         <v>8.54800033569336</v>
       </c>
       <c r="G1678" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -49525,7 +49525,7 @@
         <v>8.61600017547607</v>
       </c>
       <c r="G1679" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -49551,7 +49551,7 @@
         <v>8.55200004577637</v>
       </c>
       <c r="G1680" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -49577,7 +49577,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -49603,7 +49603,7 @@
         <v>8.5620002746582</v>
       </c>
       <c r="G1682" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -49629,7 +49629,7 @@
         <v>8.64599990844727</v>
       </c>
       <c r="G1683" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49655,7 +49655,7 @@
         <v>8.70400047302246</v>
       </c>
       <c r="G1684" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49681,7 +49681,7 @@
         <v>8.71399974822998</v>
       </c>
       <c r="G1685" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49707,7 +49707,7 @@
         <v>8.64200019836426</v>
       </c>
       <c r="G1686" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -49733,7 +49733,7 @@
         <v>8.60799980163574</v>
       </c>
       <c r="G1687" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -49759,7 +49759,7 @@
         <v>8.28800010681152</v>
       </c>
       <c r="G1688" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -49785,7 +49785,7 @@
         <v>8.06599998474121</v>
       </c>
       <c r="G1689" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -49811,7 +49811,7 @@
         <v>8.12800025939941</v>
       </c>
       <c r="G1690" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -49837,7 +49837,7 @@
         <v>8.09200000762939</v>
       </c>
       <c r="G1691" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49863,7 +49863,7 @@
         <v>8.04599952697754</v>
       </c>
       <c r="G1692" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49889,7 +49889,7 @@
         <v>7.93200016021729</v>
       </c>
       <c r="G1693" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49915,7 +49915,7 @@
         <v>7.91200017929077</v>
       </c>
       <c r="G1694" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49941,7 +49941,7 @@
         <v>7.98799991607666</v>
       </c>
       <c r="G1695" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49967,7 +49967,7 @@
         <v>7.90799999237061</v>
       </c>
       <c r="G1696" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49993,7 +49993,7 @@
         <v>7.81400012969971</v>
       </c>
       <c r="G1697" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -50019,7 +50019,7 @@
         <v>8.11200046539307</v>
       </c>
       <c r="G1698" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -50045,7 +50045,7 @@
         <v>7.98600006103516</v>
       </c>
       <c r="G1699" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -50071,7 +50071,7 @@
         <v>7.96400022506714</v>
       </c>
       <c r="G1700" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -50097,7 +50097,7 @@
         <v>8.00800037384033</v>
       </c>
       <c r="G1701" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -50123,7 +50123,7 @@
         <v>8.08199977874756</v>
       </c>
       <c r="G1702" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -50149,7 +50149,7 @@
         <v>8.2819995880127</v>
       </c>
       <c r="G1703" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -50175,7 +50175,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -50201,7 +50201,7 @@
         <v>8.4680004119873</v>
       </c>
       <c r="G1705" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -50227,7 +50227,7 @@
         <v>8.55399990081787</v>
       </c>
       <c r="G1706" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -50253,7 +50253,7 @@
         <v>8.52799987792969</v>
       </c>
       <c r="G1707" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -50279,7 +50279,7 @@
         <v>8.45600032806396</v>
       </c>
       <c r="G1708" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -50305,7 +50305,7 @@
         <v>8.4980001449585</v>
       </c>
       <c r="G1709" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -50331,7 +50331,7 @@
         <v>8.19600009918213</v>
       </c>
       <c r="G1710" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -50357,7 +50357,7 @@
         <v>8.33399963378906</v>
       </c>
       <c r="G1711" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -50383,7 +50383,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1712" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -50409,7 +50409,7 @@
         <v>7.93200016021729</v>
       </c>
       <c r="G1713" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -50435,7 +50435,7 @@
         <v>7.98199987411499</v>
       </c>
       <c r="G1714" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -50461,7 +50461,7 @@
         <v>7.83400011062622</v>
       </c>
       <c r="G1715" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50487,7 +50487,7 @@
         <v>7.75600004196167</v>
       </c>
       <c r="G1716" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50513,7 +50513,7 @@
         <v>7.61199998855591</v>
       </c>
       <c r="G1717" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50539,7 +50539,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G1718" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50565,7 +50565,7 @@
         <v>8.28800010681152</v>
       </c>
       <c r="G1719" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50591,7 +50591,7 @@
         <v>8.47200012207031</v>
       </c>
       <c r="G1720" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50617,7 +50617,7 @@
         <v>8.33199977874756</v>
       </c>
       <c r="G1721" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50643,7 +50643,7 @@
         <v>8.01399993896484</v>
       </c>
       <c r="G1722" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50669,7 +50669,7 @@
         <v>7.96600008010864</v>
       </c>
       <c r="G1723" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50695,7 +50695,7 @@
         <v>7.94799995422363</v>
       </c>
       <c r="G1724" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -50721,7 +50721,7 @@
         <v>7.90799999237061</v>
       </c>
       <c r="G1725" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50747,7 +50747,7 @@
         <v>7.84200000762939</v>
       </c>
       <c r="G1726" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50773,7 +50773,7 @@
         <v>8.01399993896484</v>
       </c>
       <c r="G1727" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50799,7 +50799,7 @@
         <v>8.07800006866455</v>
       </c>
       <c r="G1728" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50825,7 +50825,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1729" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50851,7 +50851,7 @@
         <v>8.38399982452393</v>
       </c>
       <c r="G1730" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50877,7 +50877,7 @@
         <v>8.41600036621094</v>
       </c>
       <c r="G1731" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50929,7 +50929,7 @@
         <v>8.58600044250488</v>
       </c>
       <c r="G1733" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50955,7 +50955,7 @@
         <v>8.81400012969971</v>
       </c>
       <c r="G1734" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50981,7 +50981,7 @@
         <v>8.80599975585938</v>
       </c>
       <c r="G1735" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -51007,7 +51007,7 @@
         <v>8.81599998474121</v>
       </c>
       <c r="G1736" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -51033,7 +51033,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1737" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -51059,7 +51059,7 @@
         <v>9.13199996948242</v>
       </c>
       <c r="G1738" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -51085,7 +51085,7 @@
         <v>9.17199993133545</v>
       </c>
       <c r="G1739" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -51111,7 +51111,7 @@
         <v>9.12399959564209</v>
       </c>
       <c r="G1740" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -51137,7 +51137,7 @@
         <v>9.24400043487549</v>
       </c>
       <c r="G1741" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -51163,7 +51163,7 @@
         <v>9.19600009918213</v>
       </c>
       <c r="G1742" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -51189,7 +51189,7 @@
         <v>9.39799976348877</v>
       </c>
       <c r="G1743" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -51215,7 +51215,7 @@
         <v>9.63199996948242</v>
       </c>
       <c r="G1744" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -51241,7 +51241,7 @@
         <v>9.67800045013428</v>
       </c>
       <c r="G1745" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -51267,7 +51267,7 @@
         <v>9.74400043487549</v>
       </c>
       <c r="G1746" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -51293,7 +51293,7 @@
         <v>9.81400012969971</v>
       </c>
       <c r="G1747" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -51319,7 +51319,7 @@
         <v>9.95400047302246</v>
       </c>
       <c r="G1748" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -51449,7 +51449,7 @@
         <v>10.1750001907349</v>
       </c>
       <c r="G1753" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51475,7 +51475,7 @@
         <v>9.41800022125244</v>
       </c>
       <c r="G1754" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51501,7 +51501,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1755" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51527,7 +51527,7 @@
         <v>9.44600009918213</v>
       </c>
       <c r="G1756" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51553,7 +51553,7 @@
         <v>9.37199974060059</v>
       </c>
       <c r="G1757" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51579,7 +51579,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1758" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51605,7 +51605,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G1759" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51631,7 +51631,7 @@
         <v>9.25599956512451</v>
       </c>
       <c r="G1760" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51657,7 +51657,7 @@
         <v>9.21399974822998</v>
       </c>
       <c r="G1761" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51683,7 +51683,7 @@
         <v>9.16399955749512</v>
       </c>
       <c r="G1762" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51709,7 +51709,7 @@
         <v>9.18599987030029</v>
       </c>
       <c r="G1763" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51735,7 +51735,7 @@
         <v>9.21599960327148</v>
       </c>
       <c r="G1764" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51761,7 +51761,7 @@
         <v>9.15200042724609</v>
       </c>
       <c r="G1765" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51787,7 +51787,7 @@
         <v>9.09200000762939</v>
       </c>
       <c r="G1766" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51813,7 +51813,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1767" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51839,7 +51839,7 @@
         <v>9.18200016021729</v>
       </c>
       <c r="G1768" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51865,7 +51865,7 @@
         <v>9.16199970245361</v>
       </c>
       <c r="G1769" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51891,7 +51891,7 @@
         <v>9.3120002746582</v>
       </c>
       <c r="G1770" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51917,7 +51917,7 @@
         <v>9.2819995880127</v>
       </c>
       <c r="G1771" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51943,7 +51943,7 @@
         <v>8.94400024414062</v>
       </c>
       <c r="G1772" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51969,7 +51969,7 @@
         <v>8.90799999237061</v>
       </c>
       <c r="G1773" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51995,7 +51995,7 @@
         <v>8.93599987030029</v>
       </c>
       <c r="G1774" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -52021,7 +52021,7 @@
         <v>8.96599960327148</v>
       </c>
       <c r="G1775" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -52047,7 +52047,7 @@
         <v>9.12600040435791</v>
       </c>
       <c r="G1776" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -52073,7 +52073,7 @@
         <v>9.01399993896484</v>
       </c>
       <c r="G1777" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -52099,7 +52099,7 @@
         <v>9.0319995880127</v>
       </c>
       <c r="G1778" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -52125,7 +52125,7 @@
         <v>9.03400039672852</v>
       </c>
       <c r="G1779" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -52151,7 +52151,7 @@
         <v>8.97599983215332</v>
       </c>
       <c r="G1780" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -52177,7 +52177,7 @@
         <v>9.10599994659424</v>
       </c>
       <c r="G1781" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -52203,7 +52203,7 @@
         <v>8.98400020599365</v>
       </c>
       <c r="G1782" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -52229,7 +52229,7 @@
         <v>9.04399967193604</v>
       </c>
       <c r="G1783" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -52255,7 +52255,7 @@
         <v>9.13599967956543</v>
       </c>
       <c r="G1784" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -52281,7 +52281,7 @@
         <v>9.28600025177002</v>
       </c>
       <c r="G1785" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -52307,7 +52307,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1786" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -52333,7 +52333,7 @@
         <v>9.26399993896484</v>
       </c>
       <c r="G1787" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -52359,7 +52359,7 @@
         <v>9.35599994659424</v>
       </c>
       <c r="G1788" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52385,7 +52385,7 @@
         <v>9.40799999237061</v>
       </c>
       <c r="G1789" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52411,7 +52411,7 @@
         <v>9.55200004577637</v>
       </c>
       <c r="G1790" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52437,7 +52437,7 @@
         <v>9.67599964141846</v>
       </c>
       <c r="G1791" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52463,7 +52463,7 @@
         <v>9.66399955749512</v>
       </c>
       <c r="G1792" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52489,7 +52489,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1793" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52515,7 +52515,7 @@
         <v>9.65799999237061</v>
       </c>
       <c r="G1794" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52541,7 +52541,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1795" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52567,7 +52567,7 @@
         <v>9.43599987030029</v>
       </c>
       <c r="G1796" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52593,7 +52593,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1797" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52619,7 +52619,7 @@
         <v>9.62399959564209</v>
       </c>
       <c r="G1798" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52645,7 +52645,7 @@
         <v>9.68400001525879</v>
       </c>
       <c r="G1799" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52671,7 +52671,7 @@
         <v>9.74199962615967</v>
       </c>
       <c r="G1800" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52697,7 +52697,7 @@
         <v>9.86600017547607</v>
       </c>
       <c r="G1801" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52723,7 +52723,7 @@
         <v>9.90200042724609</v>
       </c>
       <c r="G1802" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52749,7 +52749,7 @@
         <v>9.9379997253418</v>
       </c>
       <c r="G1803" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52775,7 +52775,7 @@
         <v>9.85599994659424</v>
       </c>
       <c r="G1804" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52801,7 +52801,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1805" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52827,7 +52827,7 @@
         <v>9.99600028991699</v>
       </c>
       <c r="G1806" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52853,7 +52853,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1807" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52879,7 +52879,7 @@
         <v>10.1450004577637</v>
       </c>
       <c r="G1808" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52905,7 +52905,7 @@
         <v>10.1700000762939</v>
       </c>
       <c r="G1809" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52931,7 +52931,7 @@
         <v>10.2049999237061</v>
       </c>
       <c r="G1810" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52957,7 +52957,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1811" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52983,7 +52983,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1812" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -53009,7 +53009,7 @@
         <v>10.3699998855591</v>
       </c>
       <c r="G1813" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -53035,7 +53035,7 @@
         <v>10.4099998474121</v>
       </c>
       <c r="G1814" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -53061,7 +53061,7 @@
         <v>10.2449998855591</v>
       </c>
       <c r="G1815" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -53087,7 +53087,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1816" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -53113,7 +53113,7 @@
         <v>10.2550001144409</v>
       </c>
       <c r="G1817" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -53139,7 +53139,7 @@
         <v>10.125</v>
       </c>
       <c r="G1818" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -53165,7 +53165,7 @@
         <v>10.1149997711182</v>
       </c>
       <c r="G1819" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -53191,7 +53191,7 @@
         <v>9.99199962615967</v>
       </c>
       <c r="G1820" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -53217,7 +53217,7 @@
         <v>10.0150003433228</v>
       </c>
       <c r="G1821" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -53243,7 +53243,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1822" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -53269,7 +53269,7 @@
         <v>10.0299997329712</v>
       </c>
       <c r="G1823" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -53295,7 +53295,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1824" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -53321,7 +53321,7 @@
         <v>9.97200012207031</v>
       </c>
       <c r="G1825" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53347,7 +53347,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -53373,7 +53373,7 @@
         <v>10.0699996948242</v>
       </c>
       <c r="G1827" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53399,7 +53399,7 @@
         <v>10.1350002288818</v>
       </c>
       <c r="G1828" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53425,7 +53425,7 @@
         <v>10.0749998092651</v>
       </c>
       <c r="G1829" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53451,7 +53451,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1830" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53477,7 +53477,7 @@
         <v>10.0050001144409</v>
       </c>
       <c r="G1831" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53503,7 +53503,7 @@
         <v>9.72599983215332</v>
       </c>
       <c r="G1832" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53529,7 +53529,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1833" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53555,7 +53555,7 @@
         <v>9.52400016784668</v>
       </c>
       <c r="G1834" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53581,7 +53581,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G1835" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53607,7 +53607,7 @@
         <v>8.95600032806396</v>
       </c>
       <c r="G1836" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53633,7 +53633,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1837" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53659,7 +53659,7 @@
         <v>8.95600032806396</v>
       </c>
       <c r="G1838" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53685,7 +53685,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1839" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53711,7 +53711,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53737,7 +53737,7 @@
         <v>9.08800029754639</v>
       </c>
       <c r="G1841" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53763,7 +53763,7 @@
         <v>8.99400043487549</v>
       </c>
       <c r="G1842" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53789,7 +53789,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1843" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53815,7 +53815,7 @@
         <v>9.05799961090088</v>
       </c>
       <c r="G1844" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53841,7 +53841,7 @@
         <v>9.19799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53867,7 +53867,7 @@
         <v>9.25599956512451</v>
       </c>
       <c r="G1846" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53893,7 +53893,7 @@
         <v>9.26799964904785</v>
       </c>
       <c r="G1847" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53919,7 +53919,7 @@
         <v>9.30200004577637</v>
       </c>
       <c r="G1848" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53945,7 +53945,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G1849" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53971,7 +53971,7 @@
         <v>9.2180004119873</v>
       </c>
       <c r="G1850" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53997,7 +53997,7 @@
         <v>9.44400024414062</v>
       </c>
       <c r="G1851" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -54023,7 +54023,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1852" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -54049,7 +54049,7 @@
         <v>9.45400047302246</v>
       </c>
       <c r="G1853" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -54075,7 +54075,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1854" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -54101,7 +54101,7 @@
         <v>9.63799953460693</v>
       </c>
       <c r="G1855" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -54127,7 +54127,7 @@
         <v>9.55799961090088</v>
       </c>
       <c r="G1856" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -54153,7 +54153,7 @@
         <v>9.75</v>
       </c>
       <c r="G1857" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -54179,7 +54179,7 @@
         <v>9.78600025177002</v>
       </c>
       <c r="G1858" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -54205,7 +54205,7 @@
         <v>9.70400047302246</v>
       </c>
       <c r="G1859" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -54231,7 +54231,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G1860" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -54257,7 +54257,7 @@
         <v>9.78600025177002</v>
       </c>
       <c r="G1861" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -54283,7 +54283,7 @@
         <v>9.73200035095215</v>
       </c>
       <c r="G1862" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -54309,7 +54309,7 @@
         <v>9.76200008392334</v>
       </c>
       <c r="G1863" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -54335,7 +54335,7 @@
         <v>9.8459997177124</v>
       </c>
       <c r="G1864" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54361,7 +54361,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1865" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54387,7 +54387,7 @@
         <v>9.39799976348877</v>
       </c>
       <c r="G1866" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -54413,7 +54413,7 @@
         <v>9.75800037384033</v>
       </c>
       <c r="G1867" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54439,7 +54439,7 @@
         <v>9.64200019836426</v>
       </c>
       <c r="G1868" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54465,7 +54465,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1869" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54491,7 +54491,7 @@
         <v>10</v>
       </c>
       <c r="G1870" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54517,7 +54517,7 @@
         <v>9.93200016021729</v>
       </c>
       <c r="G1871" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54543,7 +54543,7 @@
         <v>9.96199989318848</v>
       </c>
       <c r="G1872" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54569,7 +54569,7 @@
         <v>9.6879997253418</v>
       </c>
       <c r="G1873" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54595,7 +54595,7 @@
         <v>9.70199966430664</v>
       </c>
       <c r="G1874" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54621,7 +54621,7 @@
         <v>9.74600028991699</v>
       </c>
       <c r="G1875" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54647,7 +54647,7 @@
         <v>9.82800006866455</v>
       </c>
       <c r="G1876" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54673,7 +54673,7 @@
         <v>9.85200023651123</v>
       </c>
       <c r="G1877" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54699,7 +54699,7 @@
         <v>9.94200038909912</v>
       </c>
       <c r="G1878" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54725,7 +54725,7 @@
         <v>10.0349998474121</v>
       </c>
       <c r="G1879" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54751,7 +54751,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1880" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54777,7 +54777,7 @@
         <v>10.1750001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54803,7 +54803,7 @@
         <v>10.3699998855591</v>
       </c>
       <c r="G1882" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54829,7 +54829,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54855,7 +54855,7 @@
         <v>10.4449996948242</v>
       </c>
       <c r="G1884" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54881,7 +54881,7 @@
         <v>10.335000038147</v>
       </c>
       <c r="G1885" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54907,7 +54907,7 @@
         <v>10.3299999237061</v>
       </c>
       <c r="G1886" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54933,7 +54933,7 @@
         <v>10.2950000762939</v>
       </c>
       <c r="G1887" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54959,7 +54959,7 @@
         <v>10.625</v>
       </c>
       <c r="G1888" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54985,7 +54985,7 @@
         <v>10.7049999237061</v>
       </c>
       <c r="G1889" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -55011,7 +55011,7 @@
         <v>10.6049995422363</v>
       </c>
       <c r="G1890" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -55037,7 +55037,7 @@
         <v>10.6949996948242</v>
       </c>
       <c r="G1891" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -55063,7 +55063,7 @@
         <v>10.6750001907349</v>
       </c>
       <c r="G1892" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -55089,7 +55089,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G1893" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -55115,7 +55115,7 @@
         <v>10.9449996948242</v>
       </c>
       <c r="G1894" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -55141,7 +55141,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1895" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -55167,7 +55167,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G1896" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -55193,7 +55193,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G1897" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -55219,7 +55219,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G1898" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -55245,7 +55245,7 @@
         <v>11.2250003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -55271,7 +55271,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1900" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55297,7 +55297,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1901" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55323,7 +55323,7 @@
         <v>11.1149997711182</v>
       </c>
       <c r="G1902" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55349,7 +55349,7 @@
         <v>10.8950004577637</v>
       </c>
       <c r="G1903" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55375,7 +55375,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G1904" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55401,7 +55401,7 @@
         <v>10.7399997711182</v>
       </c>
       <c r="G1905" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55427,7 +55427,7 @@
         <v>10.7749996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55453,7 +55453,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1907" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55479,7 +55479,7 @@
         <v>10.8950004577637</v>
       </c>
       <c r="G1908" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55505,7 +55505,7 @@
         <v>10.960000038147</v>
       </c>
       <c r="G1909" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55531,7 +55531,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1910" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55557,7 +55557,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1911" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55583,7 +55583,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1912" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55609,7 +55609,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1913" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55635,7 +55635,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1914" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55661,7 +55661,7 @@
         <v>11.0150003433228</v>
       </c>
       <c r="G1915" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55687,7 +55687,7 @@
         <v>11.0249996185303</v>
       </c>
       <c r="G1916" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55713,7 +55713,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1917" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55739,7 +55739,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1918" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55765,7 +55765,7 @@
         <v>11.289999961853</v>
       </c>
       <c r="G1919" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55791,7 +55791,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G1920" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55817,7 +55817,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1921" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55843,7 +55843,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1922" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55869,7 +55869,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1923" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55895,7 +55895,7 @@
         <v>11.4750003814697</v>
       </c>
       <c r="G1924" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55921,7 +55921,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1925" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55947,7 +55947,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1926" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55973,7 +55973,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G1927" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55999,7 +55999,7 @@
         <v>11.9549999237061</v>
       </c>
       <c r="G1928" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -56025,7 +56025,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1929" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -56051,7 +56051,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1930" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -56077,7 +56077,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G1931" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -56103,7 +56103,7 @@
         <v>11.8549995422363</v>
       </c>
       <c r="G1932" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -56129,7 +56129,7 @@
         <v>11.8450002670288</v>
       </c>
       <c r="G1933" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -56155,7 +56155,7 @@
         <v>11.835000038147</v>
       </c>
       <c r="G1934" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -56181,7 +56181,7 @@
         <v>11.8850002288818</v>
       </c>
       <c r="G1935" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -56207,7 +56207,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G1936" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -56233,7 +56233,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1937" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56259,7 +56259,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G1938" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56285,7 +56285,7 @@
         <v>11.7150001525879</v>
       </c>
       <c r="G1939" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56311,7 +56311,7 @@
         <v>11.8249998092651</v>
       </c>
       <c r="G1940" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56337,7 +56337,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1941" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56363,7 +56363,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1942" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56389,7 +56389,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G1943" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56415,7 +56415,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1944" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56441,7 +56441,7 @@
         <v>11.875</v>
       </c>
       <c r="G1945" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56467,7 +56467,7 @@
         <v>11.8549995422363</v>
       </c>
       <c r="G1946" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56493,7 +56493,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1947" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56519,7 +56519,7 @@
         <v>11.8050003051758</v>
       </c>
       <c r="G1948" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56545,7 +56545,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G1949" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56571,7 +56571,7 @@
         <v>12.1049995422363</v>
       </c>
       <c r="G1950" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56597,7 +56597,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1951" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56623,7 +56623,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G1952" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56649,7 +56649,7 @@
         <v>12.0749998092651</v>
       </c>
       <c r="G1953" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56675,7 +56675,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1954" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56701,7 +56701,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G1955" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56727,7 +56727,7 @@
         <v>12.0249996185303</v>
       </c>
       <c r="G1956" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56753,7 +56753,7 @@
         <v>12.1450004577637</v>
       </c>
       <c r="G1957" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56779,7 +56779,7 @@
         <v>12.0649995803833</v>
       </c>
       <c r="G1958" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56805,7 +56805,7 @@
         <v>12.164999961853</v>
       </c>
       <c r="G1959" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56831,7 +56831,7 @@
         <v>12.1750001907349</v>
       </c>
       <c r="G1960" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56857,7 +56857,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1961" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56883,7 +56883,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1962" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56909,7 +56909,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G1963" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56935,7 +56935,7 @@
         <v>12.1350002288818</v>
       </c>
       <c r="G1964" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56961,7 +56961,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1965" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56987,7 +56987,7 @@
         <v>12.4049997329712</v>
       </c>
       <c r="G1966" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -57013,7 +57013,7 @@
         <v>12.3050003051758</v>
       </c>
       <c r="G1967" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -57039,7 +57039,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1968" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -57065,7 +57065,7 @@
         <v>12.2550001144409</v>
       </c>
       <c r="G1969" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -57091,7 +57091,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G1970" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -57117,7 +57117,7 @@
         <v>12.4250001907349</v>
       </c>
       <c r="G1971" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -57143,7 +57143,7 @@
         <v>12.4650001525879</v>
       </c>
       <c r="G1972" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -57169,7 +57169,7 @@
         <v>12.5299997329712</v>
       </c>
       <c r="G1973" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -57195,7 +57195,7 @@
         <v>12.375</v>
       </c>
       <c r="G1974" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -57221,7 +57221,7 @@
         <v>12.289999961853</v>
       </c>
       <c r="G1975" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -57247,7 +57247,7 @@
         <v>12.2349996566772</v>
       </c>
       <c r="G1976" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57273,7 +57273,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1977" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57299,7 +57299,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1978" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57325,7 +57325,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1979" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57351,7 +57351,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1980" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57377,7 +57377,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G1981" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57403,7 +57403,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1982" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57429,7 +57429,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G1983" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57455,7 +57455,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1984" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57481,7 +57481,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1985" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57507,7 +57507,7 @@
         <v>11.3800001144409</v>
       </c>
       <c r="G1986" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57533,7 +57533,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1987" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57559,7 +57559,7 @@
         <v>11.0349998474121</v>
       </c>
       <c r="G1988" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57585,7 +57585,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1989" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57611,7 +57611,7 @@
         <v>11.0050001144409</v>
       </c>
       <c r="G1990" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57637,7 +57637,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1991" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57663,7 +57663,7 @@
         <v>10.8950004577637</v>
       </c>
       <c r="G1992" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57689,7 +57689,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G1993" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57715,7 +57715,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57741,7 +57741,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G1995" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57767,7 +57767,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57793,7 +57793,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G1997" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57819,7 +57819,7 @@
         <v>11.4949998855591</v>
       </c>
       <c r="G1998" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57845,7 +57845,7 @@
         <v>11.5</v>
       </c>
       <c r="G1999" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57871,7 +57871,7 @@
         <v>11.5150003433228</v>
       </c>
       <c r="G2000" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57897,7 +57897,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G2001" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57923,7 +57923,7 @@
         <v>11.5249996185303</v>
       </c>
       <c r="G2002" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57949,7 +57949,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2003" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57975,7 +57975,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2004" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -58001,7 +58001,7 @@
         <v>11.8950004577637</v>
       </c>
       <c r="G2005" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -58027,7 +58027,7 @@
         <v>11.8050003051758</v>
       </c>
       <c r="G2006" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -58053,7 +58053,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G2007" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -58079,7 +58079,7 @@
         <v>11.7650003433228</v>
       </c>
       <c r="G2008" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -58105,7 +58105,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G2009" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -58131,7 +58131,7 @@
         <v>10.75</v>
       </c>
       <c r="G2010" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -58157,7 +58157,7 @@
         <v>10.8549995422363</v>
       </c>
       <c r="G2011" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -58183,7 +58183,7 @@
         <v>10.8450002670288</v>
       </c>
       <c r="G2012" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -58209,7 +58209,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G2013" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -58235,7 +58235,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G2014" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58261,7 +58261,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G2015" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58287,7 +58287,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G2016" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58313,7 +58313,7 @@
         <v>10.7749996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58339,7 +58339,7 @@
         <v>10.8050003051758</v>
       </c>
       <c r="G2018" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58365,7 +58365,7 @@
         <v>10.7449998855591</v>
       </c>
       <c r="G2019" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58391,7 +58391,7 @@
         <v>10.6700000762939</v>
       </c>
       <c r="G2020" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58417,7 +58417,7 @@
         <v>10.9650001525879</v>
       </c>
       <c r="G2021" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58443,7 +58443,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G2022" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58469,7 +58469,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G2023" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58495,7 +58495,7 @@
         <v>11.0950002670288</v>
       </c>
       <c r="G2024" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58521,7 +58521,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58547,7 +58547,7 @@
         <v>11.085000038147</v>
       </c>
       <c r="G2026" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58573,7 +58573,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58599,7 +58599,7 @@
         <v>11.125</v>
       </c>
       <c r="G2028" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58625,7 +58625,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G2029" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58651,7 +58651,7 @@
         <v>11.125</v>
       </c>
       <c r="G2030" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58677,7 +58677,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2031" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58703,7 +58703,7 @@
         <v>11.1350002288818</v>
       </c>
       <c r="G2032" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58729,7 +58729,7 @@
         <v>11.2449998855591</v>
       </c>
       <c r="G2033" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58755,7 +58755,7 @@
         <v>11.2150001525879</v>
       </c>
       <c r="G2034" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58781,7 +58781,7 @@
         <v>11.1750001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58807,7 +58807,7 @@
         <v>11.2049999237061</v>
       </c>
       <c r="G2036" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58833,7 +58833,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2037" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58859,7 +58859,7 @@
         <v>11.1149997711182</v>
       </c>
       <c r="G2038" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58885,7 +58885,7 @@
         <v>11.2349996566772</v>
       </c>
       <c r="G2039" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58911,7 +58911,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2040" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58937,7 +58937,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58963,7 +58963,7 @@
         <v>11.2849998474121</v>
       </c>
       <c r="G2042" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58989,7 +58989,7 @@
         <v>11.2349996566772</v>
       </c>
       <c r="G2043" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -59015,7 +59015,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2044" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -59041,7 +59041,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2045" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -59067,7 +59067,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2046" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -59093,7 +59093,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2047" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -59119,7 +59119,7 @@
         <v>11.835000038147</v>
       </c>
       <c r="G2048" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -59145,7 +59145,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2049" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -59171,7 +59171,7 @@
         <v>12.0150003433228</v>
       </c>
       <c r="G2050" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -59197,7 +59197,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2051" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -59223,7 +59223,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2052" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -59249,7 +59249,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2053" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -59275,7 +59275,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G2054" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59301,7 +59301,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G2055" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59327,7 +59327,7 @@
         <v>12.125</v>
       </c>
       <c r="G2056" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59353,7 +59353,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G2057" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59379,7 +59379,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59405,7 +59405,7 @@
         <v>12.085000038147</v>
       </c>
       <c r="G2059" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59431,7 +59431,7 @@
         <v>12.1549997329712</v>
       </c>
       <c r="G2060" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59457,7 +59457,7 @@
         <v>12.085000038147</v>
       </c>
       <c r="G2061" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59483,7 +59483,7 @@
         <v>11.9750003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59509,7 +59509,7 @@
         <v>11.8950004577637</v>
       </c>
       <c r="G2063" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59535,7 +59535,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2064" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59561,7 +59561,7 @@
         <v>11.6350002288818</v>
       </c>
       <c r="G2065" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59587,7 +59587,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G2066" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59613,7 +59613,7 @@
         <v>11.5100002288818</v>
       </c>
       <c r="G2067" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59639,7 +59639,7 @@
         <v>11.4849996566772</v>
       </c>
       <c r="G2068" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59665,7 +59665,7 @@
         <v>11.664999961853</v>
       </c>
       <c r="G2069" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59691,7 +59691,7 @@
         <v>11.6949996948242</v>
       </c>
       <c r="G2070" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59717,7 +59717,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2071" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59743,7 +59743,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59769,7 +59769,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59795,7 +59795,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2074" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59821,7 +59821,7 @@
         <v>12.9449996948242</v>
       </c>
       <c r="G2075" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59847,7 +59847,7 @@
         <v>12.8050003051758</v>
       </c>
       <c r="G2076" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59873,7 +59873,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G2077" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59899,7 +59899,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G2078" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59925,7 +59925,7 @@
         <v>12.5950002670288</v>
       </c>
       <c r="G2079" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59951,7 +59951,7 @@
         <v>12.6099996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59977,7 +59977,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2081" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -60003,7 +60003,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2082" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -60029,7 +60029,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G2083" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -60055,7 +60055,7 @@
         <v>12.7950000762939</v>
       </c>
       <c r="G2084" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -60081,7 +60081,7 @@
         <v>12.7950000762939</v>
       </c>
       <c r="G2085" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -60107,7 +60107,7 @@
         <v>12.8100004196167</v>
       </c>
       <c r="G2086" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -60133,7 +60133,7 @@
         <v>12.9449996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -60159,7 +60159,7 @@
         <v>12.9949998855591</v>
       </c>
       <c r="G2088" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -60185,7 +60185,7 @@
         <v>12.914999961853</v>
       </c>
       <c r="G2089" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -60211,7 +60211,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2090" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -60237,7 +60237,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -60263,7 +60263,7 @@
         <v>13.2749996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -60289,7 +60289,7 @@
         <v>13.2550001144409</v>
       </c>
       <c r="G2093" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60315,7 +60315,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G2094" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60341,7 +60341,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G2095" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60367,7 +60367,7 @@
         <v>13.5649995803833</v>
       </c>
       <c r="G2096" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60393,7 +60393,7 @@
         <v>13.625</v>
       </c>
       <c r="G2097" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60419,7 +60419,7 @@
         <v>13.7849998474121</v>
       </c>
       <c r="G2098" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60445,7 +60445,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="G2099" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60471,7 +60471,7 @@
         <v>13.6750001907349</v>
       </c>
       <c r="G2100" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60497,7 +60497,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G2101" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60523,7 +60523,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="G2102" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60549,7 +60549,7 @@
         <v>13.6949996948242</v>
       </c>
       <c r="G2103" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60575,7 +60575,7 @@
         <v>13.7049999237061</v>
       </c>
       <c r="G2104" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60601,7 +60601,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60627,7 +60627,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60653,7 +60653,7 @@
         <v>13.5649995803833</v>
       </c>
       <c r="G2107" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60679,7 +60679,7 @@
         <v>13.5749998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60705,7 +60705,7 @@
         <v>13.6750001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60731,7 +60731,7 @@
         <v>13.3950004577637</v>
       </c>
       <c r="G2110" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60757,7 +60757,7 @@
         <v>13.4449996948242</v>
       </c>
       <c r="G2111" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60783,7 +60783,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G2112" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60809,7 +60809,7 @@
         <v>13.4949998855591</v>
       </c>
       <c r="G2113" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60835,7 +60835,7 @@
         <v>13.6149997711182</v>
       </c>
       <c r="G2114" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60861,7 +60861,7 @@
         <v>13.7049999237061</v>
       </c>
       <c r="G2115" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60887,7 +60887,7 @@
         <v>13.6450004577637</v>
       </c>
       <c r="G2116" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60913,7 +60913,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G2117" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60939,7 +60939,7 @@
         <v>13.4049997329712</v>
       </c>
       <c r="G2118" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60965,7 +60965,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G2119" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60991,7 +60991,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -61017,7 +61017,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G2121" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -61043,7 +61043,7 @@
         <v>13.4750003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -61069,7 +61069,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G2123" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -61095,7 +61095,7 @@
         <v>13.9700002670288</v>
       </c>
       <c r="G2124" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -61121,7 +61121,7 @@
         <v>14</v>
       </c>
       <c r="G2125" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -61147,7 +61147,7 @@
         <v>14.1099996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -61173,7 +61173,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G2127" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -61199,7 +61199,7 @@
         <v>14.6099996566772</v>
       </c>
       <c r="G2128" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -61225,7 +61225,7 @@
         <v>14.9300003051758</v>
       </c>
       <c r="G2129" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -61251,7 +61251,7 @@
         <v>15.1949996948242</v>
       </c>
       <c r="G2130" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -61277,7 +61277,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G2131" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61303,7 +61303,7 @@
         <v>15.2449998855591</v>
       </c>
       <c r="G2132" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61329,7 +61329,7 @@
         <v>14.835000038147</v>
       </c>
       <c r="G2133" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61355,7 +61355,7 @@
         <v>14.625</v>
       </c>
       <c r="G2134" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61381,7 +61381,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2135" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61407,7 +61407,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61433,7 +61433,7 @@
         <v>14.6300001144409</v>
       </c>
       <c r="G2137" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61459,7 +61459,7 @@
         <v>14.664999961853</v>
       </c>
       <c r="G2138" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61485,7 +61485,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G2139" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61511,7 +61511,7 @@
         <v>14.4549999237061</v>
       </c>
       <c r="G2140" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61537,7 +61537,7 @@
         <v>14.5</v>
       </c>
       <c r="G2141" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61563,7 +61563,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G2142" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61589,7 +61589,7 @@
         <v>14.625</v>
       </c>
       <c r="G2143" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61615,7 +61615,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G2144" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61641,7 +61641,7 @@
         <v>14.3299999237061</v>
       </c>
       <c r="G2145" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61667,7 +61667,7 @@
         <v>14.375</v>
       </c>
       <c r="G2146" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61693,7 +61693,7 @@
         <v>14.3450002670288</v>
       </c>
       <c r="G2147" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61719,7 +61719,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G2148" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61745,7 +61745,7 @@
         <v>14.0249996185303</v>
       </c>
       <c r="G2149" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61771,7 +61771,7 @@
         <v>14.335000038147</v>
       </c>
       <c r="G2150" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61779,7 +61779,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6510416667</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>2931472</v>
@@ -61797,9 +61797,35 @@
         <v>13.835000038147</v>
       </c>
       <c r="G2151" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6499884259</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>2605340</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>13.8400001525879</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>13.4049997329712</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>13.8050003051758</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>13.5249996185303</v>
+      </c>
+      <c r="G2152" t="s">
         <v>1841</v>
       </c>
-      <c r="H2151" t="s">
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="1842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="1843">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,34 +47,34 @@
     <t xml:space="preserve">5.53684902191162</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39810562133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29485273361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16579008102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13675022125244</t>
+    <t xml:space="preserve">5.39810514450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29485416412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16578960418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1367506980896</t>
   </si>
   <si>
     <t xml:space="preserve">5.25936079025269</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31744003295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25290870666504</t>
+    <t xml:space="preserve">5.31744050979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25290822982788</t>
   </si>
   <si>
     <t xml:space="preserve">5.05285882949829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81086397171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.910888671875</t>
+    <t xml:space="preserve">4.81086349487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91088819503784</t>
   </si>
   <si>
     <t xml:space="preserve">4.71406555175781</t>
@@ -86,22 +86,22 @@
     <t xml:space="preserve">4.99155330657959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83022308349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90766143798828</t>
+    <t xml:space="preserve">4.83022356033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9076623916626</t>
   </si>
   <si>
     <t xml:space="preserve">4.83344984054565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5688681602478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75278520584106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60436105728149</t>
+    <t xml:space="preserve">4.56886863708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75278425216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60436153411865</t>
   </si>
   <si>
     <t xml:space="preserve">4.47852373123169</t>
@@ -113,31 +113,31 @@
     <t xml:space="preserve">4.36881923675537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25911426544189</t>
+    <t xml:space="preserve">4.25911474227905</t>
   </si>
   <si>
     <t xml:space="preserve">3.86224269866943</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6460599899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92032122612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71381902694702</t>
+    <t xml:space="preserve">3.64606046676636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92032146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7138192653656</t>
   </si>
   <si>
     <t xml:space="preserve">3.78480362892151</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89450836181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93000078201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00421333312988</t>
+    <t xml:space="preserve">3.89450860023499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93000149726868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00421285629272</t>
   </si>
   <si>
     <t xml:space="preserve">3.88805556297302</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">3.85578918457031</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01066637039185</t>
+    <t xml:space="preserve">4.010666847229</t>
   </si>
   <si>
     <t xml:space="preserve">3.91064167022705</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86869525909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92354798316956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02357292175293</t>
+    <t xml:space="preserve">3.8686957359314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92354846000671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02357339859009</t>
   </si>
   <si>
     <t xml:space="preserve">4.03970575332642</t>
@@ -167,22 +167,22 @@
     <t xml:space="preserve">4.20426225662231</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36559247970581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3817253112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29783344268799</t>
+    <t xml:space="preserve">4.36559295654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38172483444214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29783391952515</t>
   </si>
   <si>
     <t xml:space="preserve">4.17522287368774</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23007488250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24298143386841</t>
+    <t xml:space="preserve">4.23007535934448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24298191070557</t>
   </si>
   <si>
     <t xml:space="preserve">4.30751419067383</t>
@@ -191,40 +191,40 @@
     <t xml:space="preserve">4.68179941177368</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7301983833313</t>
+    <t xml:space="preserve">4.73019790649414</t>
   </si>
   <si>
     <t xml:space="preserve">4.57209491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59145450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31074047088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34945821762085</t>
+    <t xml:space="preserve">4.59145402908325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31073999404907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34945917129517</t>
   </si>
   <si>
     <t xml:space="preserve">4.37204551696777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29138135910034</t>
+    <t xml:space="preserve">4.29138088226318</t>
   </si>
   <si>
     <t xml:space="preserve">4.26234102249146</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14295721054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16876983642578</t>
+    <t xml:space="preserve">4.14295673370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16877031326294</t>
   </si>
   <si>
     <t xml:space="preserve">4.08487796783447</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04938554763794</t>
+    <t xml:space="preserve">4.0493860244751</t>
   </si>
   <si>
     <t xml:space="preserve">4.09133100509644</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">4.0526123046875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84933590888977</t>
+    <t xml:space="preserve">3.84933638572693</t>
   </si>
   <si>
     <t xml:space="preserve">4.07197189331055</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11714363098145</t>
+    <t xml:space="preserve">4.1171441078186</t>
   </si>
   <si>
     <t xml:space="preserve">4.03002595901489</t>
@@ -251,19 +251,19 @@
     <t xml:space="preserve">4.23975515365601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31719303131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24620819091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51724290847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52046918869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6656665802002</t>
+    <t xml:space="preserve">4.31719350814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24620771408081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51724243164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52046966552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66566610336304</t>
   </si>
   <si>
     <t xml:space="preserve">4.68502616882324</t>
@@ -275,22 +275,22 @@
     <t xml:space="preserve">4.63017416000366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49788379669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32687330245972</t>
+    <t xml:space="preserve">4.49788331985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32687282562256</t>
   </si>
   <si>
     <t xml:space="preserve">4.14941024780273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11391735076904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06229162216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13327741622925</t>
+    <t xml:space="preserve">4.11391830444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06229209899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13327693939209</t>
   </si>
   <si>
     <t xml:space="preserve">4.16231679916382</t>
@@ -299,10 +299,10 @@
     <t xml:space="preserve">4.20103597640991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18812894821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1719970703125</t>
+    <t xml:space="preserve">4.18812942504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17199659347534</t>
   </si>
   <si>
     <t xml:space="preserve">4.24943494796753</t>
@@ -311,82 +311,82 @@
     <t xml:space="preserve">4.28815412521362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5043363571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6075873374939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59790802001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65276002883911</t>
+    <t xml:space="preserve">4.50433683395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60758781433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59790849685669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65276050567627</t>
   </si>
   <si>
     <t xml:space="preserve">4.63985395431519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41399145126343</t>
+    <t xml:space="preserve">4.41399240493774</t>
   </si>
   <si>
     <t xml:space="preserve">4.38495206832886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27202177047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25588798522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18167638778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95258736610413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7589910030365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61702084541321</t>
+    <t xml:space="preserve">4.27202081680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25588846206665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18167591094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95258760452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75899124145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61702108383179</t>
   </si>
   <si>
     <t xml:space="preserve">3.71704578399658</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70413875579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85256266593933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06551837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12037038803101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.094557762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42665123939514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98912453651428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16207027435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27177453041077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32662677764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35889267921448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21756768226624</t>
+    <t xml:space="preserve">3.70413947105408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85256242752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06551885604858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12037134170532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09455823898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42665147781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9891242980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16207003593445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27177429199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3266270160675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35889291763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21756744384766</t>
   </si>
   <si>
     <t xml:space="preserve">3.11431646347046</t>
@@ -398,58 +398,58 @@
     <t xml:space="preserve">3.14529156684875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41374444961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67832660675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70736503601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8202965259552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76544451713562</t>
+    <t xml:space="preserve">3.41374492645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67832612991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70736575126648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82029676437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7654447555542</t>
   </si>
   <si>
     <t xml:space="preserve">3.82997632026672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79448413848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83965611457825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83320283889771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86546897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7751247882843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90741467475891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901641845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04293251037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96549391746521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63960719108582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65251302719116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97194719314575</t>
+    <t xml:space="preserve">3.79448437690735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83965659141541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83320355415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86546850204468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77512454986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90741491317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901594161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04293203353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96549367904663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63960742950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65251326560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97194671630859</t>
   </si>
   <si>
     <t xml:space="preserve">4.23652839660645</t>
@@ -461,40 +461,40 @@
     <t xml:space="preserve">4.16554307937622</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1784496307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11069107055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07519865036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05906581878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94613456726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9816267490387</t>
+    <t xml:space="preserve">4.17844915390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11069059371948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07519817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05906534194946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94613432884216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98162722587585</t>
   </si>
   <si>
     <t xml:space="preserve">4.19135570526123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15909004211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22039556503296</t>
+    <t xml:space="preserve">4.15909051895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22039604187012</t>
   </si>
   <si>
     <t xml:space="preserve">4.32364654541016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42367172241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35591268539429</t>
+    <t xml:space="preserve">4.42367076873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35591316223145</t>
   </si>
   <si>
     <t xml:space="preserve">4.47529697418213</t>
@@ -503,10 +503,10 @@
     <t xml:space="preserve">4.43657779693604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33332633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98485398292542</t>
+    <t xml:space="preserve">4.33332681655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98485350608826</t>
   </si>
   <si>
     <t xml:space="preserve">4.04615879058838</t>
@@ -515,97 +515,97 @@
     <t xml:space="preserve">3.93645453453064</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02679872512817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03325223922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73317837715149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78157758712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71059274673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73640489578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72672581672668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72995209693909</t>
+    <t xml:space="preserve">4.02679920196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03325271606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73317813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78157782554626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71059226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73640513420105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72672510147095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72995233535767</t>
   </si>
   <si>
     <t xml:space="preserve">3.93322730064392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03647947311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90096139907837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99776005744934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13650369644165</t>
+    <t xml:space="preserve">4.03647899627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90096235275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99775981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13650321960449</t>
   </si>
   <si>
     <t xml:space="preserve">4.26556825637817</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38817930221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4398045539856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5236964225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3365535736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10423803329468</t>
+    <t xml:space="preserve">4.38817882537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43980407714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52369594573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33655261993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10423755645752</t>
   </si>
   <si>
     <t xml:space="preserve">4.28170108795166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42689752578735</t>
+    <t xml:space="preserve">4.42689847946167</t>
   </si>
   <si>
     <t xml:space="preserve">4.42044448852539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54305505752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55918884277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49142980575562</t>
+    <t xml:space="preserve">4.54305601119995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55918836593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49142932891846</t>
   </si>
   <si>
     <t xml:space="preserve">4.39140558242798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21394205093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26442861557007</t>
+    <t xml:space="preserve">4.21394300460815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26442909240723</t>
   </si>
   <si>
     <t xml:space="preserve">4.33847618103027</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27452611923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23077058792114</t>
+    <t xml:space="preserve">4.27452564239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2307710647583</t>
   </si>
   <si>
     <t xml:space="preserve">4.17355298995972</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">4.0523853302002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22403955459595</t>
+    <t xml:space="preserve">4.22404003143311</t>
   </si>
   <si>
     <t xml:space="preserve">4.38223075866699</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">4.52022743225098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52695894241333</t>
+    <t xml:space="preserve">4.52695846557617</t>
   </si>
   <si>
     <t xml:space="preserve">4.33510971069336</t>
@@ -638,28 +638,28 @@
     <t xml:space="preserve">5.13279724121094</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9880690574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01499509811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06884765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11596822738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28762197494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22703886032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25059938430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32801198959351</t>
+    <t xml:space="preserve">4.98806858062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01499557495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06884717941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11596870422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28762245178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22703838348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2505989074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32801151275635</t>
   </si>
   <si>
     <t xml:space="preserve">5.29098844528198</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">5.27415943145752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34147500991821</t>
+    <t xml:space="preserve">5.34147453308105</t>
   </si>
   <si>
     <t xml:space="preserve">5.33810901641846</t>
@@ -677,43 +677,43 @@
     <t xml:space="preserve">5.27079391479492</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23040437698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22030687332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33137702941895</t>
+    <t xml:space="preserve">5.2304048538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22030735015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3313775062561</t>
   </si>
   <si>
     <t xml:space="preserve">5.48620223999023</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51986074447632</t>
+    <t xml:space="preserve">5.51986026763916</t>
   </si>
   <si>
     <t xml:space="preserve">5.49293422698975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51312828063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26406240463257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32128000259399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31791496276855</t>
+    <t xml:space="preserve">5.51312875747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26406192779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32128047943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31791400909424</t>
   </si>
   <si>
     <t xml:space="preserve">5.19338130950928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40205860137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38186359405518</t>
+    <t xml:space="preserve">5.40205812454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38186407089233</t>
   </si>
   <si>
     <t xml:space="preserve">5.34484100341797</t>
@@ -725,22 +725,22 @@
     <t xml:space="preserve">5.35157203674316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43235015869141</t>
+    <t xml:space="preserve">5.43235063552856</t>
   </si>
   <si>
     <t xml:space="preserve">5.73527002334595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91365480422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.725172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65449094772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50303220748901</t>
+    <t xml:space="preserve">5.91365528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72517204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65449142456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5030312538147</t>
   </si>
   <si>
     <t xml:space="preserve">5.35493755340576</t>
@@ -752,40 +752,40 @@
     <t xml:space="preserve">5.25733041763306</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14626026153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30445146560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24386692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39869260787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52659225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4963002204895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46600770950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41552209854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36503505706787</t>
+    <t xml:space="preserve">5.14625978469849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30445098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24386739730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3986930847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52659177780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49629974365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46600723266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41552114486694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36503458023071</t>
   </si>
   <si>
     <t xml:space="preserve">5.31118297576904</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1563572883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01162910461426</t>
+    <t xml:space="preserve">5.15635776519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01162958145142</t>
   </si>
   <si>
     <t xml:space="preserve">5.04865264892578</t>
@@ -794,31 +794,31 @@
     <t xml:space="preserve">5.09240818023682</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28425693511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3347430229187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52322626113892</t>
+    <t xml:space="preserve">5.28425598144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33474397659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52322673797607</t>
   </si>
   <si>
     <t xml:space="preserve">5.57034635543823</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58044481277466</t>
+    <t xml:space="preserve">5.58044385910034</t>
   </si>
   <si>
     <t xml:space="preserve">5.66122245788574</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60400485992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59054183959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60737037658691</t>
+    <t xml:space="preserve">5.60400438308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59054231643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60736989974976</t>
   </si>
   <si>
     <t xml:space="preserve">5.61746788024902</t>
@@ -836,34 +836,34 @@
     <t xml:space="preserve">5.70161199569702</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67805290222168</t>
+    <t xml:space="preserve">5.67805242538452</t>
   </si>
   <si>
     <t xml:space="preserve">5.71507501602173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68814897537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55015182495117</t>
+    <t xml:space="preserve">5.68814849853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55015277862549</t>
   </si>
   <si>
     <t xml:space="preserve">5.56024980545044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55688428878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59390735626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47947120666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42561960220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17991828918457</t>
+    <t xml:space="preserve">5.55688381195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59390783309937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4794716835022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42561912536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17991781234741</t>
   </si>
   <si>
     <t xml:space="preserve">5.7487325668335</t>
@@ -875,28 +875,28 @@
     <t xml:space="preserve">5.75546455383301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71844053268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94058179855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95740985870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97760486602783</t>
+    <t xml:space="preserve">5.71844100952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94058084487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95741081237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97760438919067</t>
   </si>
   <si>
     <t xml:space="preserve">6.09540700912476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17955160140991</t>
+    <t xml:space="preserve">6.17955112457275</t>
   </si>
   <si>
     <t xml:space="preserve">6.14252758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12569904327393</t>
+    <t xml:space="preserve">6.12569856643677</t>
   </si>
   <si>
     <t xml:space="preserve">6.10887002944946</t>
@@ -905,85 +905,85 @@
     <t xml:space="preserve">6.18628215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1526255607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17618560791016</t>
+    <t xml:space="preserve">6.15262603759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17618608474731</t>
   </si>
   <si>
     <t xml:space="preserve">6.0045313835144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02472591400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0752124786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11896800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15935659408569</t>
+    <t xml:space="preserve">6.02472543716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07521200180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11896705627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15935611724854</t>
   </si>
   <si>
     <t xml:space="preserve">6.12906455993652</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10213804244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01126289367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82277965545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68141746520996</t>
+    <t xml:space="preserve">6.10213851928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01126337051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82277917861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68141651153564</t>
   </si>
   <si>
     <t xml:space="preserve">5.70497798919678</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61073637008667</t>
+    <t xml:space="preserve">5.61073589324951</t>
   </si>
   <si>
     <t xml:space="preserve">5.63093090057373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72853755950928</t>
+    <t xml:space="preserve">5.72853851318359</t>
   </si>
   <si>
     <t xml:space="preserve">5.78239059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76219606399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81941366195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73863506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75883007049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65112543106079</t>
+    <t xml:space="preserve">5.7621955871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8194146156311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73863554000854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75882959365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65112590789795</t>
   </si>
   <si>
     <t xml:space="preserve">5.56361532211304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72180652618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70834350585938</t>
+    <t xml:space="preserve">5.72180604934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70834302902222</t>
   </si>
   <si>
     <t xml:space="preserve">5.85307121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83960819244385</t>
+    <t xml:space="preserve">5.83960866928101</t>
   </si>
   <si>
     <t xml:space="preserve">5.81604814529419</t>
@@ -992,25 +992,25 @@
     <t xml:space="preserve">5.92375230789185</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97423934936523</t>
+    <t xml:space="preserve">5.97423982620239</t>
   </si>
   <si>
     <t xml:space="preserve">5.90019273757935</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93721485137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97087383270264</t>
+    <t xml:space="preserve">5.93721580505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97087335586548</t>
   </si>
   <si>
     <t xml:space="preserve">6.04491996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10550403594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05838346481323</t>
+    <t xml:space="preserve">6.10550355911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05838394165039</t>
   </si>
   <si>
     <t xml:space="preserve">6.06174898147583</t>
@@ -1022,10 +1022,10 @@
     <t xml:space="preserve">5.88336277008057</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94731330871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9877028465271</t>
+    <t xml:space="preserve">5.94731283187866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98770236968994</t>
   </si>
   <si>
     <t xml:space="preserve">5.96077585220337</t>
@@ -1034,16 +1034,16 @@
     <t xml:space="preserve">5.93384981155396</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92038679122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06511545181274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05501794815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99106788635254</t>
+    <t xml:space="preserve">5.92038726806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06511497497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05501747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99106740951538</t>
   </si>
   <si>
     <t xml:space="preserve">5.85643768310547</t>
@@ -1058,31 +1058,31 @@
     <t xml:space="preserve">5.84634017944336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74536657333374</t>
+    <t xml:space="preserve">5.7453670501709</t>
   </si>
   <si>
     <t xml:space="preserve">5.80258512496948</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69151449203491</t>
+    <t xml:space="preserve">5.69151496887207</t>
   </si>
   <si>
     <t xml:space="preserve">5.87326622009277</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94394779205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87999725341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89009523391724</t>
+    <t xml:space="preserve">5.94394731521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87999773025513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89009475708008</t>
   </si>
   <si>
     <t xml:space="preserve">5.96414136886597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05165147781372</t>
+    <t xml:space="preserve">6.05165195465088</t>
   </si>
   <si>
     <t xml:space="preserve">6.03818893432617</t>
@@ -1094,55 +1094,55 @@
     <t xml:space="preserve">6.11223554611206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14925956726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09877300262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1930136680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13579607009888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16608762741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13916158676147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16945362091064</t>
+    <t xml:space="preserve">6.14925909042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09877347946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19301414489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13579654693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16608810424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13916206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1694540977478</t>
   </si>
   <si>
     <t xml:space="preserve">6.1728196144104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16272258758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21320915222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3175482749939</t>
+    <t xml:space="preserve">6.16272163391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21320962905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31754732131958</t>
   </si>
   <si>
     <t xml:space="preserve">6.38149690628052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33437633514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42188692092896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48920202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46227550506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44208002090454</t>
+    <t xml:space="preserve">6.33437585830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4218864440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48920154571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46227598190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44208097457886</t>
   </si>
   <si>
     <t xml:space="preserve">6.52285861968994</t>
@@ -1151,103 +1151,103 @@
     <t xml:space="preserve">6.5161280632019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65412473678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63729524612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64739274978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64066028594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6204662322998</t>
+    <t xml:space="preserve">6.65412521362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63729476928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64739227294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64066076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62046670913696</t>
   </si>
   <si>
     <t xml:space="preserve">6.6543869972229</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54948282241821</t>
+    <t xml:space="preserve">6.54948234558105</t>
   </si>
   <si>
     <t xml:space="preserve">6.6299090385437</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62641286849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58794784545898</t>
+    <t xml:space="preserve">6.62641191482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58794689178467</t>
   </si>
   <si>
     <t xml:space="preserve">6.5110182762146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65088987350464</t>
+    <t xml:space="preserve">6.6508903503418</t>
   </si>
   <si>
     <t xml:space="preserve">6.78027057647705</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71383190155029</t>
+    <t xml:space="preserve">6.71383237838745</t>
   </si>
   <si>
     <t xml:space="preserve">6.76278734207153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72082567214966</t>
+    <t xml:space="preserve">6.7208251953125</t>
   </si>
   <si>
     <t xml:space="preserve">6.61941862106323</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64389657974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73131608963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70683813095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71033525466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67886352539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67187118530273</t>
+    <t xml:space="preserve">6.64389610290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73131656646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70683908462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71033477783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6788649559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67187070846558</t>
   </si>
   <si>
     <t xml:space="preserve">6.5389928817749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57396078109741</t>
+    <t xml:space="preserve">6.57396030426025</t>
   </si>
   <si>
     <t xml:space="preserve">6.6054310798645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66487693786621</t>
+    <t xml:space="preserve">6.66487646102905</t>
   </si>
   <si>
     <t xml:space="preserve">6.68935394287109</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68585824966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61592149734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56347036361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69634819030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85370397567749</t>
+    <t xml:space="preserve">6.68585872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61592197418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56346988677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6963472366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85370349884033</t>
   </si>
   <si>
     <t xml:space="preserve">6.83272266387939</t>
@@ -1256,127 +1256,127 @@
     <t xml:space="preserve">6.83621978759766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8257303237915</t>
+    <t xml:space="preserve">6.82572889328003</t>
   </si>
   <si>
     <t xml:space="preserve">6.84670972824097</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93412971496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96210384368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02154874801636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97609186172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97259473800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92713499069214</t>
+    <t xml:space="preserve">6.9341287612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96210336685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02154922485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9760913848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97259378433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92713594436646</t>
   </si>
   <si>
     <t xml:space="preserve">6.87468433380127</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8914680480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79775476455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84810876846313</t>
+    <t xml:space="preserve">6.89146852493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79775524139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84810829162598</t>
   </si>
   <si>
     <t xml:space="preserve">6.91524648666382</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95581007003784</t>
+    <t xml:space="preserve">6.95580959320068</t>
   </si>
   <si>
     <t xml:space="preserve">6.89426565170288</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6928505897522</t>
+    <t xml:space="preserve">6.69285154342651</t>
   </si>
   <si>
     <t xml:space="preserve">6.80195093154907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7487998008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79635667800903</t>
+    <t xml:space="preserve">6.74879884719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79635715484619</t>
   </si>
   <si>
     <t xml:space="preserve">6.85090589523315</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89286708831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91105079650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88307619094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90545606613159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91804504394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8341212272644</t>
+    <t xml:space="preserve">6.89286804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91105031967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8830771446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90545558929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.918044090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83412170410156</t>
   </si>
   <si>
     <t xml:space="preserve">6.89986133575439</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91384840011597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9516134262085</t>
+    <t xml:space="preserve">6.91384744644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95161294937134</t>
   </si>
   <si>
     <t xml:space="preserve">6.85510206222534</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75579309463501</t>
+    <t xml:space="preserve">6.75579357147217</t>
   </si>
   <si>
     <t xml:space="preserve">6.63130807876587</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73900842666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88167858123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90405797958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89706373214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83132314682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8606972694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89566469192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84111499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9166464805603</t>
+    <t xml:space="preserve">6.73900938034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88167762756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90405702590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89706420898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83132410049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86069774627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89566421508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84111452102661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91664695739746</t>
   </si>
   <si>
     <t xml:space="preserve">6.80614757537842</t>
@@ -1394,34 +1394,34 @@
     <t xml:space="preserve">6.67746543884277</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70404148101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78376770019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77537488937378</t>
+    <t xml:space="preserve">6.70404100418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78376722335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77537536621094</t>
   </si>
   <si>
     <t xml:space="preserve">6.85230493545532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82712841033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99217557907104</t>
+    <t xml:space="preserve">6.82712745666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9921760559082</t>
   </si>
   <si>
     <t xml:space="preserve">7.08449172973633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11246585845947</t>
+    <t xml:space="preserve">7.11246538162231</t>
   </si>
   <si>
     <t xml:space="preserve">7.25583410263062</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30828619003296</t>
+    <t xml:space="preserve">7.30828475952148</t>
   </si>
   <si>
     <t xml:space="preserve">7.1614203453064</t>
@@ -1433,31 +1433,31 @@
     <t xml:space="preserve">7.03903293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12645292282104</t>
+    <t xml:space="preserve">7.1264533996582</t>
   </si>
   <si>
     <t xml:space="preserve">7.004065990448</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15093040466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18589878082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99357461929321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90265846252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95720815658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01455497741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9642014503479</t>
+    <t xml:space="preserve">7.15093088150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1858983039856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99357557296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90265893936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95720863342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01455450057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96420288085938</t>
   </si>
   <si>
     <t xml:space="preserve">6.62850999832153</t>
@@ -1466,10 +1466,10 @@
     <t xml:space="preserve">6.42289972305298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31659746170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35716009140015</t>
+    <t xml:space="preserve">6.31659603118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35715961456299</t>
   </si>
   <si>
     <t xml:space="preserve">6.20749759674072</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">5.59625911712646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37246417999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75151586532593</t>
+    <t xml:space="preserve">5.37246465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75151634216309</t>
   </si>
   <si>
     <t xml:space="preserve">5.64241600036621</t>
@@ -1499,10 +1499,10 @@
     <t xml:space="preserve">5.54450607299805</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72214269638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59346151351929</t>
+    <t xml:space="preserve">5.72214317321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59346103668213</t>
   </si>
   <si>
     <t xml:space="preserve">5.47457075119019</t>
@@ -1511,112 +1511,112 @@
     <t xml:space="preserve">5.74172496795654</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66479635238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76969909667969</t>
+    <t xml:space="preserve">5.66479587554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76969957351685</t>
   </si>
   <si>
     <t xml:space="preserve">5.71095371246338</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64101791381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61723899841309</t>
+    <t xml:space="preserve">5.6410174369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61723947525024</t>
   </si>
   <si>
     <t xml:space="preserve">5.81166124343872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75291442871094</t>
+    <t xml:space="preserve">5.7529149055481</t>
   </si>
   <si>
     <t xml:space="preserve">5.89838123321533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69416904449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65780305862427</t>
+    <t xml:space="preserve">5.69416856765747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65780210494995</t>
   </si>
   <si>
     <t xml:space="preserve">5.57108163833618</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53471517562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.568284034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54030990600586</t>
+    <t xml:space="preserve">5.53471565246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56828451156616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54031038284302</t>
   </si>
   <si>
     <t xml:space="preserve">5.60744857788086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68297910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75711107254028</t>
+    <t xml:space="preserve">5.68297958374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75711154937744</t>
   </si>
   <si>
     <t xml:space="preserve">5.66619491577148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70256185531616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62563180923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53051948547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55429697036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62842988967896</t>
+    <t xml:space="preserve">5.702561378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62563133239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53051900863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55429744720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6284294128418</t>
   </si>
   <si>
     <t xml:space="preserve">5.64801120758057</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69976282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68577671051025</t>
+    <t xml:space="preserve">5.69976329803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6857762336731</t>
   </si>
   <si>
     <t xml:space="preserve">5.71934604644775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88719177246094</t>
+    <t xml:space="preserve">5.8871922492981</t>
   </si>
   <si>
     <t xml:space="preserve">5.95432949066162</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01027870178223</t>
+    <t xml:space="preserve">6.01027774810791</t>
   </si>
   <si>
     <t xml:space="preserve">6.12077665328979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06622695922852</t>
+    <t xml:space="preserve">6.06622648239136</t>
   </si>
   <si>
     <t xml:space="preserve">6.21309185028076</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13616228103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07322025299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17252922058105</t>
+    <t xml:space="preserve">6.13616275787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07321977615356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17252969741821</t>
   </si>
   <si>
     <t xml:space="preserve">6.07042360305786</t>
@@ -1625,10 +1625,10 @@
     <t xml:space="preserve">6.15014934539795</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14595460891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15854167938232</t>
+    <t xml:space="preserve">6.14595365524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15854263305664</t>
   </si>
   <si>
     <t xml:space="preserve">6.09559965133667</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">5.97531032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81865453720093</t>
+    <t xml:space="preserve">5.81865406036377</t>
   </si>
   <si>
     <t xml:space="preserve">5.94174194335938</t>
@@ -1658,16 +1658,16 @@
     <t xml:space="preserve">5.80186939239502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80746459960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79627513885498</t>
+    <t xml:space="preserve">5.80746412277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79627561569214</t>
   </si>
   <si>
     <t xml:space="preserve">5.76130676269531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78648376464844</t>
+    <t xml:space="preserve">5.7864842414856</t>
   </si>
   <si>
     <t xml:space="preserve">5.60604953765869</t>
@@ -1679,67 +1679,67 @@
     <t xml:space="preserve">6.12497329711914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07182168960571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3403754234314</t>
+    <t xml:space="preserve">6.07182216644287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34037494659424</t>
   </si>
   <si>
     <t xml:space="preserve">6.30680513381958</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33897686004639</t>
+    <t xml:space="preserve">6.33897638320923</t>
   </si>
   <si>
     <t xml:space="preserve">6.29701471328735</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31379985809326</t>
+    <t xml:space="preserve">6.3137993812561</t>
   </si>
   <si>
     <t xml:space="preserve">6.42150020599365</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44248056411743</t>
+    <t xml:space="preserve">6.44248151779175</t>
   </si>
   <si>
     <t xml:space="preserve">6.50961971282959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4159049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4145073890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36834907531738</t>
+    <t xml:space="preserve">6.41590595245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41450643539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3683500289917</t>
   </si>
   <si>
     <t xml:space="preserve">6.48724031448364</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47605133056641</t>
+    <t xml:space="preserve">6.47605085372925</t>
   </si>
   <si>
     <t xml:space="preserve">6.41170978546143</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01727151870728</t>
+    <t xml:space="preserve">6.01727199554443</t>
   </si>
   <si>
     <t xml:space="preserve">5.83404016494751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86061573028564</t>
+    <t xml:space="preserve">5.8606162071228</t>
   </si>
   <si>
     <t xml:space="preserve">5.85222339630127</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75431299209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48575973510742</t>
+    <t xml:space="preserve">5.75431346893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48576068878174</t>
   </si>
   <si>
     <t xml:space="preserve">5.53191757202148</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">5.46058368682861</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39764165878296</t>
+    <t xml:space="preserve">5.3976411819458</t>
   </si>
   <si>
     <t xml:space="preserve">5.3458890914917</t>
@@ -1766,16 +1766,16 @@
     <t xml:space="preserve">5.50953817367554</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41023015975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42281866073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23958683013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44100189208984</t>
+    <t xml:space="preserve">5.41022920608521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42281818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.239586353302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44100141525269</t>
   </si>
   <si>
     <t xml:space="preserve">5.29413604736328</t>
@@ -1787,19 +1787,19 @@
     <t xml:space="preserve">5.4591851234436</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42141962051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54730367660522</t>
+    <t xml:space="preserve">5.42141914367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54730415344238</t>
   </si>
   <si>
     <t xml:space="preserve">5.48436164855957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46338081359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48715925216675</t>
+    <t xml:space="preserve">5.46338033676147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48715877532959</t>
   </si>
   <si>
     <t xml:space="preserve">5.50254535675049</t>
@@ -1808,13 +1808,13 @@
     <t xml:space="preserve">5.49834871292114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42561531066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50799036026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37847805023193</t>
+    <t xml:space="preserve">5.4256157875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50799083709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37847852706909</t>
   </si>
   <si>
     <t xml:space="preserve">5.4350471496582</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">5.42462635040283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46481943130493</t>
+    <t xml:space="preserve">5.46481990814209</t>
   </si>
   <si>
     <t xml:space="preserve">5.70746946334839</t>
@@ -1835,31 +1835,31 @@
     <t xml:space="preserve">5.75659465789795</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81167507171631</t>
+    <t xml:space="preserve">5.81167459487915</t>
   </si>
   <si>
     <t xml:space="preserve">5.8101863861084</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84740114212036</t>
+    <t xml:space="preserve">5.84740209579468</t>
   </si>
   <si>
     <t xml:space="preserve">5.74170827865601</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75361728668213</t>
+    <t xml:space="preserve">5.75361776351929</t>
   </si>
   <si>
     <t xml:space="preserve">5.58093452453613</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5764684677124</t>
+    <t xml:space="preserve">5.57646799087524</t>
   </si>
   <si>
     <t xml:space="preserve">5.44844484329224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42164945602417</t>
+    <t xml:space="preserve">5.42164897918701</t>
   </si>
   <si>
     <t xml:space="preserve">5.60028696060181</t>
@@ -1868,22 +1868,22 @@
     <t xml:space="preserve">5.62261629104614</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67323017120361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58540010452271</t>
+    <t xml:space="preserve">5.67323064804077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58540058135986</t>
   </si>
   <si>
     <t xml:space="preserve">5.63452529907227</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73724174499512</t>
+    <t xml:space="preserve">5.73724222183228</t>
   </si>
   <si>
     <t xml:space="preserve">5.61219549179077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4752402305603</t>
+    <t xml:space="preserve">5.47523975372314</t>
   </si>
   <si>
     <t xml:space="preserve">5.39187574386597</t>
@@ -1892,10 +1892,10 @@
     <t xml:space="preserve">5.49012660980225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43653535842896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43207025527954</t>
+    <t xml:space="preserve">5.43653583526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43206930160522</t>
   </si>
   <si>
     <t xml:space="preserve">5.75510549545288</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">5.74468517303467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7268214225769</t>
+    <t xml:space="preserve">5.72682094573975</t>
   </si>
   <si>
     <t xml:space="preserve">5.69704866409302</t>
@@ -1913,13 +1913,13 @@
     <t xml:space="preserve">5.70002603530884</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77148151397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7089581489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70151424407959</t>
+    <t xml:space="preserve">5.77148103713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70895767211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70151472091675</t>
   </si>
   <si>
     <t xml:space="preserve">5.83251523971558</t>
@@ -1931,49 +1931,49 @@
     <t xml:space="preserve">5.86377668380737</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88015222549438</t>
+    <t xml:space="preserve">5.88015174865723</t>
   </si>
   <si>
     <t xml:space="preserve">5.86079978942871</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86526584625244</t>
+    <t xml:space="preserve">5.86526536941528</t>
   </si>
   <si>
     <t xml:space="preserve">5.87568664550781</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9367208480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86228799819946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81762886047363</t>
+    <t xml:space="preserve">5.93672037124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86228847503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81762933731079</t>
   </si>
   <si>
     <t xml:space="preserve">5.82953786849976</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65387773513794</t>
+    <t xml:space="preserve">5.6538782119751</t>
   </si>
   <si>
     <t xml:space="preserve">5.49310445785522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.45886516571045</t>
+    <t xml:space="preserve">5.45886564254761</t>
   </si>
   <si>
     <t xml:space="preserve">5.64345741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76403760910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76999235153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87122058868408</t>
+    <t xml:space="preserve">5.7640380859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76999187469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87122011184692</t>
   </si>
   <si>
     <t xml:space="preserve">5.90099287033081</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">6.19723415374756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16894960403442</t>
+    <t xml:space="preserve">6.16895008087158</t>
   </si>
   <si>
     <t xml:space="preserve">6.19127893447876</t>
@@ -2000,31 +2000,31 @@
     <t xml:space="preserve">6.12875604629517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14513111114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22254037857056</t>
+    <t xml:space="preserve">6.14513063430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22254085540771</t>
   </si>
   <si>
     <t xml:space="preserve">6.31930255889893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38629150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56641674041748</t>
+    <t xml:space="preserve">6.38629198074341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56641721725464</t>
   </si>
   <si>
     <t xml:space="preserve">6.43392848968506</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49198579788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50240659713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62447500228882</t>
+    <t xml:space="preserve">6.49198532104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50240612030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62447452545166</t>
   </si>
   <si>
     <t xml:space="preserve">6.51431512832642</t>
@@ -2033,25 +2033,25 @@
     <t xml:space="preserve">6.44732618331909</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53962278366089</t>
+    <t xml:space="preserve">6.53962326049805</t>
   </si>
   <si>
     <t xml:space="preserve">6.51729202270508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60958862304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63787364959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68997526168823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83288621902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79120349884033</t>
+    <t xml:space="preserve">6.60958814620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63787269592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68997573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8328857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79120302200317</t>
   </si>
   <si>
     <t xml:space="preserve">6.66317987442017</t>
@@ -2060,13 +2060,13 @@
     <t xml:space="preserve">6.71230459213257</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65871429443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59619140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64680528640747</t>
+    <t xml:space="preserve">6.65871381759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59619092941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64680576324463</t>
   </si>
   <si>
     <t xml:space="preserve">6.78376054763794</t>
@@ -2075,16 +2075,16 @@
     <t xml:space="preserve">6.8581919670105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89392042160034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96090936660767</t>
+    <t xml:space="preserve">6.89391994476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96090888977051</t>
   </si>
   <si>
     <t xml:space="preserve">6.86117029190063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87754487991333</t>
+    <t xml:space="preserve">6.87754535675049</t>
   </si>
   <si>
     <t xml:space="preserve">6.91773796081543</t>
@@ -2099,46 +2099,46 @@
     <t xml:space="preserve">6.92518138885498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02492094039917</t>
+    <t xml:space="preserve">7.02492046356201</t>
   </si>
   <si>
     <t xml:space="preserve">7.08148908615112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12317085266113</t>
+    <t xml:space="preserve">7.12317180633545</t>
   </si>
   <si>
     <t xml:space="preserve">7.15294408798218</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13210344314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07106924057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98770427703857</t>
+    <t xml:space="preserve">7.13210296630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07106876373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98770475387573</t>
   </si>
   <si>
     <t xml:space="preserve">6.96686363220215</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00705671310425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13508176803589</t>
+    <t xml:space="preserve">7.00705623626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13508081436157</t>
   </si>
   <si>
     <t xml:space="preserve">7.03385305404663</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07404565811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85223865509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69295215606689</t>
+    <t xml:space="preserve">7.07404613494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223817825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69295263290405</t>
   </si>
   <si>
     <t xml:space="preserve">6.77929401397705</t>
@@ -2150,46 +2150,46 @@
     <t xml:space="preserve">6.47561073303223</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64233922958374</t>
+    <t xml:space="preserve">6.64233827590942</t>
   </si>
   <si>
     <t xml:space="preserve">6.60065698623657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58428192138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47709941864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40117788314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42350769042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36396265029907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32079124450684</t>
+    <t xml:space="preserve">6.5842809677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47709846496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40117835998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42350816726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36396217346191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32079076766968</t>
   </si>
   <si>
     <t xml:space="preserve">6.23891544342041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22998380661011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15704011917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12131261825562</t>
+    <t xml:space="preserve">6.22998428344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1570405960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12131309509277</t>
   </si>
   <si>
     <t xml:space="preserve">6.28059768676758</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24635934829712</t>
+    <t xml:space="preserve">6.24635887145996</t>
   </si>
   <si>
     <t xml:space="preserve">6.27762079238892</t>
@@ -2198,13 +2198,13 @@
     <t xml:space="preserve">6.37289428710938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37140560150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34163236618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3788480758667</t>
+    <t xml:space="preserve">6.37140512466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34163284301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37884855270386</t>
   </si>
   <si>
     <t xml:space="preserve">6.34609842300415</t>
@@ -2213,34 +2213,34 @@
     <t xml:space="preserve">6.34460973739624</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48305320739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5813045501709</t>
+    <t xml:space="preserve">6.48305368423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58130407333374</t>
   </si>
   <si>
     <t xml:space="preserve">6.56046342849731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61107683181763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58874750137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7227258682251</t>
+    <t xml:space="preserve">6.61107778549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58874797821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72272491455078</t>
   </si>
   <si>
     <t xml:space="preserve">6.76738548278809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74803352355957</t>
+    <t xml:space="preserve">6.74803256988525</t>
   </si>
   <si>
     <t xml:space="preserve">6.66169118881226</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73761224746704</t>
+    <t xml:space="preserve">6.73761177062988</t>
   </si>
   <si>
     <t xml:space="preserve">6.91327285766602</t>
@@ -2249,28 +2249,28 @@
     <t xml:space="preserve">7.05022764205933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01598882675171</t>
+    <t xml:space="preserve">7.01598930358887</t>
   </si>
   <si>
     <t xml:space="preserve">6.95346593856812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93113708496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99663686752319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98472690582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99068260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93857955932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01301145553589</t>
+    <t xml:space="preserve">6.93113660812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99663639068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98472785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99068212509155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93857908248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01301193237305</t>
   </si>
   <si>
     <t xml:space="preserve">6.97579526901245</t>
@@ -2288,22 +2288,22 @@
     <t xml:space="preserve">6.95644330978394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92964839935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9445333480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76440858840942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73910093307495</t>
+    <t xml:space="preserve">6.92964744567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94453382492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76440811157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73910140991211</t>
   </si>
   <si>
     <t xml:space="preserve">6.74952173233032</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57683897018433</t>
+    <t xml:space="preserve">6.57683849334717</t>
   </si>
   <si>
     <t xml:space="preserve">6.5187816619873</t>
@@ -2312,22 +2312,22 @@
     <t xml:space="preserve">6.44583749771118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49942922592163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32674598693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31483697891235</t>
+    <t xml:space="preserve">6.49942874908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32674551010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31483745574951</t>
   </si>
   <si>
     <t xml:space="preserve">6.3475866317749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20021104812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33270025253296</t>
+    <t xml:space="preserve">6.20021057128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33270072937012</t>
   </si>
   <si>
     <t xml:space="preserve">6.38182592391968</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">6.47858810424805</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52771329879761</t>
+    <t xml:space="preserve">6.52771282196045</t>
   </si>
   <si>
     <t xml:space="preserve">6.45328044891357</t>
@@ -2345,22 +2345,22 @@
     <t xml:space="preserve">6.53366756439209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55599737167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61256551742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7063512802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78822612762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0293869972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0457615852356</t>
+    <t xml:space="preserve">6.55599641799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6125659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70635080337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78822660446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02938652038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04576110839844</t>
   </si>
   <si>
     <t xml:space="preserve">7.13359212875366</t>
@@ -2369,10 +2369,10 @@
     <t xml:space="preserve">7.08000135421753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1157283782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18271732330322</t>
+    <t xml:space="preserve">7.11572933197021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18271636962891</t>
   </si>
   <si>
     <t xml:space="preserve">7.11423873901367</t>
@@ -2381,73 +2381,73 @@
     <t xml:space="preserve">7.08446645736694</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21993398666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42238998413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36582040786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37624073028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41792249679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52138423919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42536735534668</t>
+    <t xml:space="preserve">7.2199330329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42238903045654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36582136154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3762412071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41792440414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52138376235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42536687850952</t>
   </si>
   <si>
     <t xml:space="preserve">7.45811748504639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4283447265625</t>
+    <t xml:space="preserve">7.42834424972534</t>
   </si>
   <si>
     <t xml:space="preserve">7.2229118347168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31073999404907</t>
+    <t xml:space="preserve">7.31074190139771</t>
   </si>
   <si>
     <t xml:space="preserve">7.27799034118652</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29734373092651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25417232513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26608228683472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51021957397461</t>
+    <t xml:space="preserve">7.29734325408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25417327880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2660813331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51022052764893</t>
   </si>
   <si>
     <t xml:space="preserve">7.67769193649292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76328945159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87493801116943</t>
+    <t xml:space="preserve">7.76328992843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87493753433228</t>
   </si>
   <si>
     <t xml:space="preserve">7.90471124649048</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88238096237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86005210876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93448352813721</t>
+    <t xml:space="preserve">7.88238048553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86005067825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93448400497437</t>
   </si>
   <si>
     <t xml:space="preserve">8.01263809204102</t>
@@ -2456,76 +2456,76 @@
     <t xml:space="preserve">8.07218360900879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06473922729492</t>
+    <t xml:space="preserve">8.06474018096924</t>
   </si>
   <si>
     <t xml:space="preserve">8.09451293945312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94564867019653</t>
+    <t xml:space="preserve">7.94564914703369</t>
   </si>
   <si>
     <t xml:space="preserve">7.92704010009766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99030780792236</t>
+    <t xml:space="preserve">7.99030733108521</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150283813477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10940074920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02380180358887</t>
+    <t xml:space="preserve">8.10939979553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02380084991455</t>
   </si>
   <si>
     <t xml:space="preserve">7.76701164245605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92331886291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85260820388794</t>
+    <t xml:space="preserve">7.9233193397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8526086807251</t>
   </si>
   <si>
     <t xml:space="preserve">8.02844524383545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99729633331299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97393417358398</t>
+    <t xml:space="preserve">7.99729681015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97393465042114</t>
   </si>
   <si>
     <t xml:space="preserve">8.03623104095459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00508308410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9817214012146</t>
+    <t xml:space="preserve">8.00508213043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98172092437744</t>
   </si>
   <si>
     <t xml:space="preserve">8.04012489318848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9038519859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82987546920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78704500198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85323476791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82208728790283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84544849395752</t>
+    <t xml:space="preserve">7.90385150909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82987499237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78704643249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85323524475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82208776473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84544897079468</t>
   </si>
   <si>
     <t xml:space="preserve">7.71696186065674</t>
@@ -2534,61 +2534,61 @@
     <t xml:space="preserve">7.87270355224609</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88438320159912</t>
+    <t xml:space="preserve">7.88438367843628</t>
   </si>
   <si>
     <t xml:space="preserve">7.73565101623535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81040668487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77614450454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85712909698486</t>
+    <t xml:space="preserve">7.81040573120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77614402770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85713005065918</t>
   </si>
   <si>
     <t xml:space="preserve">7.77925825119019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70917510986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64220666885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72007656097412</t>
+    <t xml:space="preserve">7.70917463302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64220714569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72007703781128</t>
   </si>
   <si>
     <t xml:space="preserve">7.64999341964722</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67179679870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74188041687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75433969497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70761775970459</t>
+    <t xml:space="preserve">7.67179727554321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74188137054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75434064865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70761728286743</t>
   </si>
   <si>
     <t xml:space="preserve">7.66556835174561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6671257019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56589365005493</t>
+    <t xml:space="preserve">7.66712474822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56589317321777</t>
   </si>
   <si>
     <t xml:space="preserve">7.64376449584961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.592369556427</t>
+    <t xml:space="preserve">7.59236907958984</t>
   </si>
   <si>
     <t xml:space="preserve">7.53630352020264</t>
@@ -2597,10 +2597,10 @@
     <t xml:space="preserve">7.55810737609863</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47089147567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40859460830688</t>
+    <t xml:space="preserve">7.47089195251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40859508514404</t>
   </si>
   <si>
     <t xml:space="preserve">7.44597339630127</t>
@@ -2609,40 +2609,40 @@
     <t xml:space="preserve">7.23260831832886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45999002456665</t>
+    <t xml:space="preserve">7.45999050140381</t>
   </si>
   <si>
     <t xml:space="preserve">7.40392351150513</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21080493927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01768589019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17498302459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26687049865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45375919342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33539724349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47867822647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51917123794556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5394172668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54097461700439</t>
+    <t xml:space="preserve">7.21080446243286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0176854133606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17498350143433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26687145233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45375967025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33539628982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47867870330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51917171478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53941774368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54097509384155</t>
   </si>
   <si>
     <t xml:space="preserve">7.48023557662964</t>
@@ -2651,40 +2651,40 @@
     <t xml:space="preserve">7.50982666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46777677536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32916736602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88997840881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85727214813232</t>
+    <t xml:space="preserve">7.46777725219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32916784286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88997793197632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85727262496948</t>
   </si>
   <si>
     <t xml:space="preserve">6.81989526748657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65636682510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3775897026062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15332317352295</t>
+    <t xml:space="preserve">6.6563663482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37759017944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15332365036011</t>
   </si>
   <si>
     <t xml:space="preserve">6.09725713729858</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01782941818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76552820205688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64249277114868</t>
+    <t xml:space="preserve">6.01782894134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76552867889404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64249324798584</t>
   </si>
   <si>
     <t xml:space="preserve">4.82952547073364</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">4.62550497055054</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76114296913147</t>
+    <t xml:space="preserve">3.76114320755005</t>
   </si>
   <si>
     <t xml:space="preserve">4.03213214874268</t>
@@ -2705,25 +2705,25 @@
     <t xml:space="preserve">3.5649094581604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47613763809204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27445244789124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.24875545501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31183052062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39203691482544</t>
+    <t xml:space="preserve">3.47613716125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27445268630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24875521659851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3118302822113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39203715324402</t>
   </si>
   <si>
     <t xml:space="preserve">3.86393213272095</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16918420791626</t>
+    <t xml:space="preserve">4.16918468475342</t>
   </si>
   <si>
     <t xml:space="preserve">4.28287506103516</t>
@@ -2732,22 +2732,22 @@
     <t xml:space="preserve">4.01967334747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8740553855896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9153265953064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89663815498352</t>
+    <t xml:space="preserve">3.87405490875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.91532635688782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89663767814636</t>
   </si>
   <si>
     <t xml:space="preserve">4.03057479858398</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95737648010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24082565307617</t>
+    <t xml:space="preserve">3.95737624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24082517623901</t>
   </si>
   <si>
     <t xml:space="preserve">4.32648277282715</t>
@@ -2762,7 +2762,7 @@
     <t xml:space="preserve">4.13492155075073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82266092300415</t>
+    <t xml:space="preserve">3.82266068458557</t>
   </si>
   <si>
     <t xml:space="preserve">3.89508032798767</t>
@@ -2774,40 +2774,40 @@
     <t xml:space="preserve">3.80397176742554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75413489341736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99319696426392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08352661132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22369384765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29533386230469</t>
+    <t xml:space="preserve">3.75413513183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99319672584534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08352708816528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22369337081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29533433914185</t>
   </si>
   <si>
     <t xml:space="preserve">4.11778974533081</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05705070495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02123069763184</t>
+    <t xml:space="preserve">4.05705118179321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02123022079468</t>
   </si>
   <si>
     <t xml:space="preserve">4.01344299316406</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00254154205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04614877700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18164300918579</t>
+    <t xml:space="preserve">4.00254106521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04614925384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18164348602295</t>
   </si>
   <si>
     <t xml:space="preserve">4.11467504501343</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">3.93245816230774</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80475044250488</t>
+    <t xml:space="preserve">3.80475068092346</t>
   </si>
   <si>
     <t xml:space="preserve">4.06795310974121</t>
@@ -2825,13 +2825,13 @@
     <t xml:space="preserve">4.00409889221191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94803237915039</t>
+    <t xml:space="preserve">3.94803190231323</t>
   </si>
   <si>
     <t xml:space="preserve">4.0274600982666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04147624969482</t>
+    <t xml:space="preserve">4.04147720336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.27041625976562</t>
@@ -2840,13 +2840,13 @@
     <t xml:space="preserve">4.44484615325928</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61148881912231</t>
+    <t xml:space="preserve">4.61148834228516</t>
   </si>
   <si>
     <t xml:space="preserve">4.54451990127563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91206836700439</t>
+    <t xml:space="preserve">4.91206789016724</t>
   </si>
   <si>
     <t xml:space="preserve">5.01797199249268</t>
@@ -2858,25 +2858,25 @@
     <t xml:space="preserve">5.28896141052246</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53503179550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70790433883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52412986755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4244556427002</t>
+    <t xml:space="preserve">5.53503227233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70790386199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52413034439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42445611953735</t>
   </si>
   <si>
     <t xml:space="preserve">5.19395971298218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30142068862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37929105758667</t>
+    <t xml:space="preserve">5.30142116546631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37929153442383</t>
   </si>
   <si>
     <t xml:space="preserve">5.51478576660156</t>
@@ -2888,13 +2888,13 @@
     <t xml:space="preserve">5.58642673492432</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46806335449219</t>
+    <t xml:space="preserve">5.46806287765503</t>
   </si>
   <si>
     <t xml:space="preserve">5.31076526641846</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33568429946899</t>
+    <t xml:space="preserve">5.33568334579468</t>
   </si>
   <si>
     <t xml:space="preserve">5.03043174743652</t>
@@ -2903,55 +2903,55 @@
     <t xml:space="preserve">5.07248163223267</t>
   </si>
   <si>
-    <t xml:space="preserve">4.8684606552124</t>
+    <t xml:space="preserve">4.86846113204956</t>
   </si>
   <si>
     <t xml:space="preserve">5.08494091033936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97592163085938</t>
+    <t xml:space="preserve">4.97592258453369</t>
   </si>
   <si>
     <t xml:space="preserve">5.0351037979126</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25314044952393</t>
+    <t xml:space="preserve">5.25314092636108</t>
   </si>
   <si>
     <t xml:space="preserve">5.23600959777832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25937128067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26560020446777</t>
+    <t xml:space="preserve">5.25937080383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26560068130493</t>
   </si>
   <si>
     <t xml:space="preserve">5.21109104156494</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12231874465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26404333114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39330768585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48675203323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49453973770142</t>
+    <t xml:space="preserve">5.12231922149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26404285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39330816268921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4867525100708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49454021453857</t>
   </si>
   <si>
     <t xml:space="preserve">5.51634311676025</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48052310943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60823011398315</t>
+    <t xml:space="preserve">5.48052263259888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60823059082031</t>
   </si>
   <si>
     <t xml:space="preserve">5.61134481430054</t>
@@ -2969,13 +2969,13 @@
     <t xml:space="preserve">5.47429323196411</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42289876937866</t>
+    <t xml:space="preserve">5.42289924621582</t>
   </si>
   <si>
     <t xml:space="preserve">5.40265226364136</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25625562667847</t>
+    <t xml:space="preserve">5.25625610351562</t>
   </si>
   <si>
     <t xml:space="preserve">5.27805948257446</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">5.13945007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28273153305054</t>
+    <t xml:space="preserve">5.2827320098877</t>
   </si>
   <si>
     <t xml:space="preserve">5.24691152572632</t>
@@ -2999,49 +2999,49 @@
     <t xml:space="preserve">5.63003396987915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64560842514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65339517593384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55527782440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46183395385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60200071334839</t>
+    <t xml:space="preserve">5.64560794830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.653395652771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55527830123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46183347702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60200119018555</t>
   </si>
   <si>
     <t xml:space="preserve">5.47585105895996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44314527511597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60355854034424</t>
+    <t xml:space="preserve">5.44314479827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60355806350708</t>
   </si>
   <si>
     <t xml:space="preserve">5.63470649719238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81380796432495</t>
+    <t xml:space="preserve">5.81380844116211</t>
   </si>
   <si>
     <t xml:space="preserve">5.84962892532349</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79200410842896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67052698135376</t>
+    <t xml:space="preserve">5.79200506210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6705265045166</t>
   </si>
   <si>
     <t xml:space="preserve">5.69700241088867</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68142890930176</t>
+    <t xml:space="preserve">5.6814284324646</t>
   </si>
   <si>
     <t xml:space="preserve">5.58175468444824</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">5.42601299285889</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52880239486694</t>
+    <t xml:space="preserve">5.52880191802979</t>
   </si>
   <si>
     <t xml:space="preserve">5.75774145126343</t>
@@ -3062,13 +3062,13 @@
     <t xml:space="preserve">5.64093542098999</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65806674957275</t>
+    <t xml:space="preserve">5.65806770324707</t>
   </si>
   <si>
     <t xml:space="preserve">5.53814697265625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43224334716797</t>
+    <t xml:space="preserve">5.43224239349365</t>
   </si>
   <si>
     <t xml:space="preserve">5.23133707046509</t>
@@ -3077,49 +3077,49 @@
     <t xml:space="preserve">5.22510766983032</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2079758644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08338308334351</t>
+    <t xml:space="preserve">5.20797634124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.08338356018066</t>
   </si>
   <si>
     <t xml:space="preserve">5.28740358352661</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20641899108887</t>
+    <t xml:space="preserve">5.20641851425171</t>
   </si>
   <si>
     <t xml:space="preserve">5.21576309204102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17215585708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25781345367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43380069732666</t>
+    <t xml:space="preserve">5.17215538024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43380117416382</t>
   </si>
   <si>
     <t xml:space="preserve">5.56306552886963</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43068599700928</t>
+    <t xml:space="preserve">5.43068552017212</t>
   </si>
   <si>
     <t xml:space="preserve">5.64405059814453</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58798360824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55683565139771</t>
+    <t xml:space="preserve">5.58798408508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55683612823486</t>
   </si>
   <si>
     <t xml:space="preserve">5.35125780105591</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36060190200806</t>
+    <t xml:space="preserve">5.36060237884521</t>
   </si>
   <si>
     <t xml:space="preserve">5.14879465103149</t>
@@ -3128,31 +3128,31 @@
     <t xml:space="preserve">5.17059850692749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12543344497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17838525772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06157970428467</t>
+    <t xml:space="preserve">5.12543296813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17838573455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06158018112183</t>
   </si>
   <si>
     <t xml:space="preserve">5.06780910491943</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11453104019165</t>
+    <t xml:space="preserve">5.11453151702881</t>
   </si>
   <si>
     <t xml:space="preserve">5.08961296081543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95567607879639</t>
+    <t xml:space="preserve">4.95567560195923</t>
   </si>
   <si>
     <t xml:space="preserve">4.70960521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77190113067627</t>
+    <t xml:space="preserve">4.77190160751343</t>
   </si>
   <si>
     <t xml:space="preserve">4.74075317382812</t>
@@ -3161,7 +3161,7 @@
     <t xml:space="preserve">4.90583896636963</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1861720085144</t>
+    <t xml:space="preserve">5.18617248535156</t>
   </si>
   <si>
     <t xml:space="preserve">5.66896963119507</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">5.5583930015564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89012145996094</t>
+    <t xml:space="preserve">5.89012098312378</t>
   </si>
   <si>
     <t xml:space="preserve">5.97577905654907</t>
@@ -3182,13 +3182,13 @@
     <t xml:space="preserve">5.88856410980225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96331930160522</t>
+    <t xml:space="preserve">5.96331977844238</t>
   </si>
   <si>
     <t xml:space="preserve">5.87143230438232</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11750268936157</t>
+    <t xml:space="preserve">6.11750316619873</t>
   </si>
   <si>
     <t xml:space="preserve">6.14242172241211</t>
@@ -3197,52 +3197,52 @@
     <t xml:space="preserve">6.09102725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01938629150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82003831863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90413761138916</t>
+    <t xml:space="preserve">6.01938676834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82003784179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90413808822632</t>
   </si>
   <si>
     <t xml:space="preserve">5.83561182022095</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9181547164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98200845718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9072527885437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86208772659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86987495422363</t>
+    <t xml:space="preserve">5.91815519332886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.982008934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90725326538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86208820343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86987543106079</t>
   </si>
   <si>
     <t xml:space="preserve">5.84651374816895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7125768661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72503614425659</t>
+    <t xml:space="preserve">5.71257638931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72503662109375</t>
   </si>
   <si>
     <t xml:space="preserve">5.91348218917847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86520290374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79667615890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75618457794189</t>
+    <t xml:space="preserve">5.8652024269104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79667663574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75618410110474</t>
   </si>
   <si>
     <t xml:space="preserve">5.74372482299805</t>
@@ -3251,19 +3251,19 @@
     <t xml:space="preserve">5.89479351043701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89946556091309</t>
+    <t xml:space="preserve">5.89946603775024</t>
   </si>
   <si>
     <t xml:space="preserve">5.76864337921143</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79044771194458</t>
+    <t xml:space="preserve">5.79044723510742</t>
   </si>
   <si>
     <t xml:space="preserve">6.0100417137146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99291086196899</t>
+    <t xml:space="preserve">5.99291038513184</t>
   </si>
   <si>
     <t xml:space="preserve">5.87766218185425</t>
@@ -3272,19 +3272,19 @@
     <t xml:space="preserve">5.83249711990356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88389205932617</t>
+    <t xml:space="preserve">5.88389158248901</t>
   </si>
   <si>
     <t xml:space="preserve">5.84028434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81692314147949</t>
+    <t xml:space="preserve">5.81692266464233</t>
   </si>
   <si>
     <t xml:space="preserve">5.74684000015259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84184169769287</t>
+    <t xml:space="preserve">5.84184122085571</t>
   </si>
   <si>
     <t xml:space="preserve">5.76708602905273</t>
@@ -3293,25 +3293,25 @@
     <t xml:space="preserve">5.77175855636597</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81848096847534</t>
+    <t xml:space="preserve">5.81848049163818</t>
   </si>
   <si>
     <t xml:space="preserve">5.72036409378052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76085567474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73438024520874</t>
+    <t xml:space="preserve">5.76085615158081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7343807220459</t>
   </si>
   <si>
     <t xml:space="preserve">5.88544940948486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11906003952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29972076416016</t>
+    <t xml:space="preserve">6.11906051635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29971981048584</t>
   </si>
   <si>
     <t xml:space="preserve">6.38537740707397</t>
@@ -3320,16 +3320,16 @@
     <t xml:space="preserve">6.59251260757446</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65325117111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85260057449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94760274887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91956853866577</t>
+    <t xml:space="preserve">6.65325164794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85260009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94760227203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91956901550293</t>
   </si>
   <si>
     <t xml:space="preserve">7.03948974609375</t>
@@ -3341,7 +3341,7 @@
     <t xml:space="preserve">7.02547311782837</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98809480667114</t>
+    <t xml:space="preserve">6.9880952835083</t>
   </si>
   <si>
     <t xml:space="preserve">7.07063722610474</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">6.82923889160156</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71087598800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94293022155762</t>
+    <t xml:space="preserve">6.71087646484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94293069839478</t>
   </si>
   <si>
     <t xml:space="preserve">6.87128925323486</t>
@@ -3371,25 +3371,25 @@
     <t xml:space="preserve">6.96940565109253</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05973625183105</t>
+    <t xml:space="preserve">7.05973529815674</t>
   </si>
   <si>
     <t xml:space="preserve">7.18121385574341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19211626052856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23416566848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31515073776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33072471618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36965942382812</t>
+    <t xml:space="preserve">7.19211530685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23416519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31515121459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33072376251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3696608543396</t>
   </si>
   <si>
     <t xml:space="preserve">7.49581050872803</t>
@@ -3398,10 +3398,10 @@
     <t xml:space="preserve">7.57523775100708</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57835292816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34629821777344</t>
+    <t xml:space="preserve">7.57835340499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3462986946106</t>
   </si>
   <si>
     <t xml:space="preserve">7.30424880981445</t>
@@ -3410,22 +3410,22 @@
     <t xml:space="preserve">7.23883676528931</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36810207366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37433195114136</t>
+    <t xml:space="preserve">7.36810255050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37433338165283</t>
   </si>
   <si>
     <t xml:space="preserve">7.38990592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41015195846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51294136047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36343050003052</t>
+    <t xml:space="preserve">7.41015243530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51294183731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36343097686768</t>
   </si>
   <si>
     <t xml:space="preserve">7.31359338760376</t>
@@ -3434,34 +3434,34 @@
     <t xml:space="preserve">7.32605266571045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23105096817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26842784881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28088760375977</t>
+    <t xml:space="preserve">7.23105049133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26842737197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28088808059692</t>
   </si>
   <si>
     <t xml:space="preserve">7.27154350280762</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24662446975708</t>
+    <t xml:space="preserve">7.24662399291992</t>
   </si>
   <si>
     <t xml:space="preserve">7.31670808792114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31203603744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16408205032349</t>
+    <t xml:space="preserve">7.31203556060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16408157348633</t>
   </si>
   <si>
     <t xml:space="preserve">7.09244108200073</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1095724105835</t>
+    <t xml:space="preserve">7.10957336425781</t>
   </si>
   <si>
     <t xml:space="preserve">7.09711360931396</t>
@@ -3470,130 +3470,130 @@
     <t xml:space="preserve">7.29957628250122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26998567581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29023313522339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32138061523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39769411087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24039506912231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37744665145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41793966293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51761341094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5331883430481</t>
+    <t xml:space="preserve">7.26998662948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29023218154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32138109207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39769315719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24039554595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37744760513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41794013977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51761388778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53318786621094</t>
   </si>
   <si>
     <t xml:space="preserve">7.48958110809326</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56433582305908</t>
+    <t xml:space="preserve">7.56433534622192</t>
   </si>
   <si>
     <t xml:space="preserve">7.61728763580322</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68581390380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53786087036133</t>
+    <t xml:space="preserve">7.68581438064575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53786039352417</t>
   </si>
   <si>
     <t xml:space="preserve">7.54564666748047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5316309928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5612211227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61261606216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60015773773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63286256790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70138883590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76368474960327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79872703552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79483318328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7481107711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76056909561157</t>
+    <t xml:space="preserve">7.53163146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56122159957886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61261510848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60015630722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63286209106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70138931274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76368427276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7987265586853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79483270645142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74810981750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76057052612305</t>
   </si>
   <si>
     <t xml:space="preserve">7.69671583175659</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75589656829834</t>
+    <t xml:space="preserve">7.75589799880981</t>
   </si>
   <si>
     <t xml:space="preserve">7.74655294418335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72319221496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7263069152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63909196853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66245365142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71228981018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77458667755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7683572769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68892908096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67024040222168</t>
+    <t xml:space="preserve">7.72319269180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72630596160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63909244537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66245269775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71229076385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77458572387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76835680007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68892860412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67024087905884</t>
   </si>
   <si>
     <t xml:space="preserve">7.68114185333252</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6749119758606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86102294921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.625075340271</t>
+    <t xml:space="preserve">7.67491292953491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86102247238159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62507486343384</t>
   </si>
   <si>
     <t xml:space="preserve">7.6344199180603</t>
@@ -3602,58 +3602,58 @@
     <t xml:space="preserve">7.39302158355713</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59392690658569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67646932601929</t>
+    <t xml:space="preserve">7.59392738342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67646884918213</t>
   </si>
   <si>
     <t xml:space="preserve">7.69360113143921</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62974786758423</t>
+    <t xml:space="preserve">7.62974739074707</t>
   </si>
   <si>
     <t xml:space="preserve">7.57679510116577</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33383989334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42728471755981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72474956512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80651378631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78081512451172</t>
+    <t xml:space="preserve">7.33384037017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42728424072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7247486114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8065128326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78081560134888</t>
   </si>
   <si>
     <t xml:space="preserve">7.78237390518188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73253726959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69827318191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61573028564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69983053207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77770042419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79093885421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67802667617798</t>
+    <t xml:space="preserve">7.73253679275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69827270507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61573123931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69983005523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77770137786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79093933105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67802619934082</t>
   </si>
   <si>
     <t xml:space="preserve">7.77147197723389</t>
@@ -3665,10 +3665,10 @@
     <t xml:space="preserve">7.66401100158691</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65778064727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52384328842163</t>
+    <t xml:space="preserve">7.65778017044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52384281158447</t>
   </si>
   <si>
     <t xml:space="preserve">7.57991027832031</t>
@@ -3680,31 +3680,31 @@
     <t xml:space="preserve">7.74343824386597</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77302885055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59704208374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74032354354858</t>
+    <t xml:space="preserve">7.77302932739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59704160690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74032306671143</t>
   </si>
   <si>
     <t xml:space="preserve">7.86491632461548</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98561477661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83376884460449</t>
+    <t xml:space="preserve">7.98561573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83376789093018</t>
   </si>
   <si>
     <t xml:space="preserve">8.04791069030762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12967586517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20754718780518</t>
+    <t xml:space="preserve">8.12967491149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20754623413086</t>
   </si>
   <si>
     <t xml:space="preserve">8.10242080688477</t>
@@ -3719,16 +3719,16 @@
     <t xml:space="preserve">7.95836067199707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70450353622437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88048982620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91553163528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93499946594238</t>
+    <t xml:space="preserve">7.70450305938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88049030303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91553211212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93499994277954</t>
   </si>
   <si>
     <t xml:space="preserve">8.04401779174805</t>
@@ -3740,16 +3740,16 @@
     <t xml:space="preserve">8.12188911437988</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0712718963623</t>
+    <t xml:space="preserve">8.07127285003662</t>
   </si>
   <si>
     <t xml:space="preserve">8.0323371887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16082382202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19197177886963</t>
+    <t xml:space="preserve">8.16082286834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19197273254395</t>
   </si>
   <si>
     <t xml:space="preserve">8.29709720611572</t>
@@ -3761,10 +3761,10 @@
     <t xml:space="preserve">8.4216890335083</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41001033782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34382057189941</t>
+    <t xml:space="preserve">8.41000938415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3438196182251</t>
   </si>
   <si>
     <t xml:space="preserve">8.34771347045898</t>
@@ -3776,10 +3776,10 @@
     <t xml:space="preserve">8.44115829467773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41390323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32045841217041</t>
+    <t xml:space="preserve">8.41390419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32045936584473</t>
   </si>
   <si>
     <t xml:space="preserve">8.27373600006104</t>
@@ -3794,7 +3794,7 @@
     <t xml:space="preserve">8.24637794494629</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24471664428711</t>
+    <t xml:space="preserve">8.24471569061279</t>
   </si>
   <si>
     <t xml:space="preserve">7.95898294448853</t>
@@ -3812,16 +3812,16 @@
     <t xml:space="preserve">8.15667057037354</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14504241943359</t>
+    <t xml:space="preserve">8.14504146575928</t>
   </si>
   <si>
     <t xml:space="preserve">8.31864166259766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48476600646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39339733123779</t>
+    <t xml:space="preserve">8.48476505279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39339637756348</t>
   </si>
   <si>
     <t xml:space="preserve">8.35601902008057</t>
@@ -3839,10 +3839,10 @@
     <t xml:space="preserve">8.28790760040283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38093757629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33525371551514</t>
+    <t xml:space="preserve">8.38093852996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33525466918945</t>
   </si>
   <si>
     <t xml:space="preserve">8.03207874298096</t>
@@ -3854,10 +3854,10 @@
     <t xml:space="preserve">8.21149063110352</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34355926513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39754962921143</t>
+    <t xml:space="preserve">8.34356021881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39755058288574</t>
   </si>
   <si>
     <t xml:space="preserve">8.46399974822998</t>
@@ -3878,7 +3878,7 @@
     <t xml:space="preserve">8.61766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68411350250244</t>
+    <t xml:space="preserve">8.68411445617676</t>
   </si>
   <si>
     <t xml:space="preserve">8.79624652862549</t>
@@ -3905,7 +3905,7 @@
     <t xml:space="preserve">8.17992782592773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30618190765381</t>
+    <t xml:space="preserve">8.30618286132812</t>
   </si>
   <si>
     <t xml:space="preserve">8.57197952270508</t>
@@ -3929,7 +3929,7 @@
     <t xml:space="preserve">8.69657230377197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44323348999023</t>
+    <t xml:space="preserve">8.44323444366455</t>
   </si>
   <si>
     <t xml:space="preserve">8.62181758880615</t>
@@ -3941,10 +3941,10 @@
     <t xml:space="preserve">8.47645854949951</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30286026000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19321918487549</t>
+    <t xml:space="preserve">8.30285930633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19321823120117</t>
   </si>
   <si>
     <t xml:space="preserve">8.19820213317871</t>
@@ -3956,19 +3956,19 @@
     <t xml:space="preserve">7.78621482849121</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74634552001953</t>
+    <t xml:space="preserve">7.74634647369385</t>
   </si>
   <si>
     <t xml:space="preserve">7.1399941444397</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19149208068848</t>
+    <t xml:space="preserve">7.19149255752563</t>
   </si>
   <si>
     <t xml:space="preserve">7.13833284378052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53862714767456</t>
+    <t xml:space="preserve">6.5386266708374</t>
   </si>
   <si>
     <t xml:space="preserve">6.35755157470703</t>
@@ -3992,43 +3992,43 @@
     <t xml:space="preserve">7.11341428756714</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59185075759888</t>
+    <t xml:space="preserve">7.59185123443604</t>
   </si>
   <si>
     <t xml:space="preserve">7.54865884780884</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71644353866577</t>
+    <t xml:space="preserve">7.71644306182861</t>
   </si>
   <si>
     <t xml:space="preserve">7.5469970703125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61344623565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4971604347229</t>
+    <t xml:space="preserve">7.6134467124939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49715995788574</t>
   </si>
   <si>
     <t xml:space="preserve">7.52872371673584</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71976470947266</t>
+    <t xml:space="preserve">7.71976518630981</t>
   </si>
   <si>
     <t xml:space="preserve">7.58852767944336</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65830039978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79950571060181</t>
+    <t xml:space="preserve">7.65829992294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79950475692749</t>
   </si>
   <si>
     <t xml:space="preserve">7.6018180847168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45230627059937</t>
+    <t xml:space="preserve">7.45230722427368</t>
   </si>
   <si>
     <t xml:space="preserve">7.35927677154541</t>
@@ -4037,19 +4037,19 @@
     <t xml:space="preserve">7.5121111869812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50214338302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42074298858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59517288208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68321847915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67158937454224</t>
+    <t xml:space="preserve">7.50214290618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42074346542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59517335891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68321895599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67158985137939</t>
   </si>
   <si>
     <t xml:space="preserve">7.87426042556763</t>
@@ -4058,7 +4058,7 @@
     <t xml:space="preserve">7.9539999961853</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66660594940186</t>
+    <t xml:space="preserve">7.66660642623901</t>
   </si>
   <si>
     <t xml:space="preserve">7.88256645202637</t>
@@ -4079,10 +4079,10 @@
     <t xml:space="preserve">8.01380443572998</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99054622650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12178516387939</t>
+    <t xml:space="preserve">7.99054718017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12178421020508</t>
   </si>
   <si>
     <t xml:space="preserve">8.0603199005127</t>
@@ -4115,7 +4115,7 @@
     <t xml:space="preserve">7.9739351272583</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91412973403931</t>
+    <t xml:space="preserve">7.91413068771362</t>
   </si>
   <si>
     <t xml:space="preserve">7.97559595108032</t>
@@ -4124,7 +4124,7 @@
     <t xml:space="preserve">7.93572568893433</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82608413696289</t>
+    <t xml:space="preserve">7.82608509063721</t>
   </si>
   <si>
     <t xml:space="preserve">7.92409753799438</t>
@@ -4142,13 +4142,13 @@
     <t xml:space="preserve">8.01712703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48885345458984</t>
+    <t xml:space="preserve">7.488853931427</t>
   </si>
   <si>
     <t xml:space="preserve">7.37256765365601</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44067811965942</t>
+    <t xml:space="preserve">7.44067859649658</t>
   </si>
   <si>
     <t xml:space="preserve">7.42240428924561</t>
@@ -4157,7 +4157,7 @@
     <t xml:space="preserve">7.08018970489502</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04364252090454</t>
+    <t xml:space="preserve">7.04364204406738</t>
   </si>
   <si>
     <t xml:space="preserve">7.13501071929932</t>
@@ -4169,10 +4169,10 @@
     <t xml:space="preserve">7.174880027771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01374006271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16657400131226</t>
+    <t xml:space="preserve">7.01374053955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16657447814941</t>
   </si>
   <si>
     <t xml:space="preserve">7.0120792388916</t>
@@ -4205,7 +4205,7 @@
     <t xml:space="preserve">7.0004506111145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93067836761475</t>
+    <t xml:space="preserve">6.93067789077759</t>
   </si>
   <si>
     <t xml:space="preserve">6.84761667251587</t>
@@ -4217,34 +4217,34 @@
     <t xml:space="preserve">6.47051572799683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46553182601929</t>
+    <t xml:space="preserve">6.46553230285645</t>
   </si>
   <si>
     <t xml:space="preserve">6.62168788909912</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76289367675781</t>
+    <t xml:space="preserve">6.76289319992065</t>
   </si>
   <si>
     <t xml:space="preserve">6.68481540679932</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64328479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67152547836304</t>
+    <t xml:space="preserve">6.6432843208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67152500152588</t>
   </si>
   <si>
     <t xml:space="preserve">6.59843111038208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66321992874146</t>
+    <t xml:space="preserve">6.6632194519043</t>
   </si>
   <si>
     <t xml:space="preserve">6.78781175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94396781921387</t>
+    <t xml:space="preserve">6.94396829605103</t>
   </si>
   <si>
     <t xml:space="preserve">6.99048280715942</t>
@@ -4259,28 +4259,28 @@
     <t xml:space="preserve">7.10012435913086</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15660619735718</t>
+    <t xml:space="preserve">7.15660667419434</t>
   </si>
   <si>
     <t xml:space="preserve">7.10344696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0934796333313</t>
+    <t xml:space="preserve">7.09347915649414</t>
   </si>
   <si>
     <t xml:space="preserve">7.11175346374512</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18152523040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22970199584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23800706863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17820310592651</t>
+    <t xml:space="preserve">7.1815242767334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22970104217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23800754547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17820262908936</t>
   </si>
   <si>
     <t xml:space="preserve">7.14996147155762</t>
@@ -4313,16 +4313,16 @@
     <t xml:space="preserve">6.56852865219116</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49045085906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73797512054443</t>
+    <t xml:space="preserve">6.49045038223267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73797559738159</t>
   </si>
   <si>
     <t xml:space="preserve">6.63331699371338</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61504411697388</t>
+    <t xml:space="preserve">6.61504364013672</t>
   </si>
   <si>
     <t xml:space="preserve">6.6515908241272</t>
@@ -4343,13 +4343,13 @@
     <t xml:space="preserve">7.10510778427124</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08351230621338</t>
+    <t xml:space="preserve">7.08351182937622</t>
   </si>
   <si>
     <t xml:space="preserve">7.0237078666687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05859327316284</t>
+    <t xml:space="preserve">7.05859375</t>
   </si>
   <si>
     <t xml:space="preserve">6.80774688720703</t>
@@ -4364,10 +4364,10 @@
     <t xml:space="preserve">6.62999439239502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50706338882446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44227504730225</t>
+    <t xml:space="preserve">6.5070629119873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44227457046509</t>
   </si>
   <si>
     <t xml:space="preserve">6.32266569137573</t>
@@ -4391,37 +4391,37 @@
     <t xml:space="preserve">6.60175323486328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51370763778687</t>
+    <t xml:space="preserve">6.51370811462402</t>
   </si>
   <si>
     <t xml:space="preserve">6.70973443984985</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89413118362427</t>
+    <t xml:space="preserve">6.89413166046143</t>
   </si>
   <si>
     <t xml:space="preserve">6.96390295028687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13168859481812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32106924057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31442356109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32273054122925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55031967163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.585205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61843013763428</t>
+    <t xml:space="preserve">7.13168811798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32106876373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31442403793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32273006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5503191947937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58520555496216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61842966079712</t>
   </si>
   <si>
     <t xml:space="preserve">7.57855987548828</t>
@@ -4430,7 +4430,7 @@
     <t xml:space="preserve">7.67823505401611</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63836526870728</t>
+    <t xml:space="preserve">7.63836479187012</t>
   </si>
   <si>
     <t xml:space="preserve">7.80614995956421</t>
@@ -4439,13 +4439,13 @@
     <t xml:space="preserve">8.00051403045654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03872299194336</t>
+    <t xml:space="preserve">8.03872394561768</t>
   </si>
   <si>
     <t xml:space="preserve">8.09354400634766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.151686668396</t>
+    <t xml:space="preserve">8.15168762207031</t>
   </si>
   <si>
     <t xml:space="preserve">8.26797389984131</t>
@@ -5538,6 +5538,9 @@
   </si>
   <si>
     <t xml:space="preserve">13.5249996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6199998855591</t>
   </si>
 </sst>
 </file>
@@ -61805,7 +61808,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6499884259</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>2605340</v>
@@ -61826,6 +61829,32 @@
         <v>1841</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.6494328704</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>1594339</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>13.6700000762939</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>13.3800001144409</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>13.6599998474121</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>13.6199998855591</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="1843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="1844">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,28 +44,28 @@
     <t xml:space="preserve">MB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53684902191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39810514450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29485416412354</t>
+    <t xml:space="preserve">5.53684949874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39810466766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29485368728638</t>
   </si>
   <si>
     <t xml:space="preserve">5.16578960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1367506980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25936079025269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31744050979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25290822982788</t>
+    <t xml:space="preserve">5.13675022125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25936126708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31744003295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25290870666504</t>
   </si>
   <si>
     <t xml:space="preserve">5.05285882949829</t>
@@ -74,13 +74,13 @@
     <t xml:space="preserve">4.81086349487305</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91088819503784</t>
+    <t xml:space="preserve">4.910888671875</t>
   </si>
   <si>
     <t xml:space="preserve">4.71406555175781</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9754204750061</t>
+    <t xml:space="preserve">4.97541999816895</t>
   </si>
   <si>
     <t xml:space="preserve">4.99155330657959</t>
@@ -89,58 +89,58 @@
     <t xml:space="preserve">4.83022356033325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.9076623916626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83344984054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56886863708496</t>
+    <t xml:space="preserve">4.90766191482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8334493637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56886911392212</t>
   </si>
   <si>
     <t xml:space="preserve">4.75278425216675</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60436153411865</t>
+    <t xml:space="preserve">4.60436105728149</t>
   </si>
   <si>
     <t xml:space="preserve">4.47852373123169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27524757385254</t>
+    <t xml:space="preserve">4.27524709701538</t>
   </si>
   <si>
     <t xml:space="preserve">4.36881923675537</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25911474227905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86224269866943</t>
+    <t xml:space="preserve">4.25911426544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86224293708801</t>
   </si>
   <si>
     <t xml:space="preserve">3.64606046676636</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92032146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7138192653656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78480362892151</t>
+    <t xml:space="preserve">3.92032098770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71381902694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78480410575867</t>
   </si>
   <si>
     <t xml:space="preserve">3.89450860023499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93000149726868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00421285629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88805556297302</t>
+    <t xml:space="preserve">3.9300012588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00421333312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88805532455444</t>
   </si>
   <si>
     <t xml:space="preserve">3.85578918457031</t>
@@ -149,34 +149,34 @@
     <t xml:space="preserve">4.010666847229</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91064167022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8686957359314</t>
+    <t xml:space="preserve">3.91064190864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86869549751282</t>
   </si>
   <si>
     <t xml:space="preserve">3.92354846000671</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02357339859009</t>
+    <t xml:space="preserve">4.02357292175293</t>
   </si>
   <si>
     <t xml:space="preserve">4.03970575332642</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20426225662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36559295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38172483444214</t>
+    <t xml:space="preserve">4.20426177978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36559247970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3817253112793</t>
   </si>
   <si>
     <t xml:space="preserve">4.29783391952515</t>
   </si>
   <si>
-    <t xml:space="preserve">4.17522287368774</t>
+    <t xml:space="preserve">4.17522239685059</t>
   </si>
   <si>
     <t xml:space="preserve">4.23007535934448</t>
@@ -185,22 +185,22 @@
     <t xml:space="preserve">4.24298191070557</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30751419067383</t>
+    <t xml:space="preserve">4.30751323699951</t>
   </si>
   <si>
     <t xml:space="preserve">4.68179941177368</t>
   </si>
   <si>
-    <t xml:space="preserve">4.73019790649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57209491729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59145402908325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31073999404907</t>
+    <t xml:space="preserve">4.73019886016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57209444046021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59145450592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31074047088623</t>
   </si>
   <si>
     <t xml:space="preserve">4.34945917129517</t>
@@ -212,13 +212,13 @@
     <t xml:space="preserve">4.29138088226318</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26234102249146</t>
+    <t xml:space="preserve">4.26234149932861</t>
   </si>
   <si>
     <t xml:space="preserve">4.14295673370361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16877031326294</t>
+    <t xml:space="preserve">4.16876983642578</t>
   </si>
   <si>
     <t xml:space="preserve">4.08487796783447</t>
@@ -227,28 +227,28 @@
     <t xml:space="preserve">4.0493860244751</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09133100509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01389312744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0526123046875</t>
+    <t xml:space="preserve">4.09133148193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01389265060425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05261182785034</t>
   </si>
   <si>
     <t xml:space="preserve">3.84933638572693</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07197189331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1171441078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03002595901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23975515365601</t>
+    <t xml:space="preserve">4.07197141647339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11714458465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03002548217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23975467681885</t>
   </si>
   <si>
     <t xml:space="preserve">4.31719350814819</t>
@@ -263,49 +263,49 @@
     <t xml:space="preserve">4.52046966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66566610336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68502616882324</t>
+    <t xml:space="preserve">4.6656665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6850266456604</t>
   </si>
   <si>
     <t xml:space="preserve">4.69470596313477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63017416000366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49788331985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32687282562256</t>
+    <t xml:space="preserve">4.63017463684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49788284301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32687377929688</t>
   </si>
   <si>
     <t xml:space="preserve">4.14941024780273</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11391830444336</t>
+    <t xml:space="preserve">4.1139178276062</t>
   </si>
   <si>
     <t xml:space="preserve">4.06229209899902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13327693939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16231679916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20103597640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18812942504883</t>
+    <t xml:space="preserve">4.13327741622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16231632232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20103549957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18812990188599</t>
   </si>
   <si>
     <t xml:space="preserve">4.17199659347534</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24943494796753</t>
+    <t xml:space="preserve">4.24943542480469</t>
   </si>
   <si>
     <t xml:space="preserve">4.28815412521362</t>
@@ -320,73 +320,73 @@
     <t xml:space="preserve">4.59790849685669</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65276050567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63985395431519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41399240493774</t>
+    <t xml:space="preserve">4.65276002883911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63985443115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41399192810059</t>
   </si>
   <si>
     <t xml:space="preserve">4.38495206832886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27202081680298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25588846206665</t>
+    <t xml:space="preserve">4.27202129364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25588798522949</t>
   </si>
   <si>
     <t xml:space="preserve">4.18167591094971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95258760452271</t>
+    <t xml:space="preserve">3.95258712768555</t>
   </si>
   <si>
     <t xml:space="preserve">3.75899124145508</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61702108383179</t>
+    <t xml:space="preserve">3.61702060699463</t>
   </si>
   <si>
     <t xml:space="preserve">3.71704578399658</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70413947105408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85256242752075</t>
+    <t xml:space="preserve">3.70413899421692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85256266593933</t>
   </si>
   <si>
     <t xml:space="preserve">4.06551885604858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12037134170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09455823898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.42665147781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.9891242980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16207003593445</t>
+    <t xml:space="preserve">4.12037086486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.094557762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42665123939514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98912405967712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16206979751587</t>
   </si>
   <si>
     <t xml:space="preserve">3.27177429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3266270160675</t>
+    <t xml:space="preserve">3.32662677764893</t>
   </si>
   <si>
     <t xml:space="preserve">3.35889291763306</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21756744384766</t>
+    <t xml:space="preserve">3.21756768226624</t>
   </si>
   <si>
     <t xml:space="preserve">3.11431646347046</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">3.41374492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67832612991333</t>
+    <t xml:space="preserve">3.67832589149475</t>
   </si>
   <si>
     <t xml:space="preserve">3.70736575126648</t>
@@ -410,91 +410,91 @@
     <t xml:space="preserve">3.82029676437378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7654447555542</t>
+    <t xml:space="preserve">3.76544427871704</t>
   </si>
   <si>
     <t xml:space="preserve">3.82997632026672</t>
   </si>
   <si>
-    <t xml:space="preserve">3.79448437690735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83965659141541</t>
+    <t xml:space="preserve">3.79448366165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83965611457825</t>
   </si>
   <si>
     <t xml:space="preserve">3.83320355415344</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86546850204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77512454986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90741491317749</t>
+    <t xml:space="preserve">3.86546897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77512431144714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90741515159607</t>
   </si>
   <si>
     <t xml:space="preserve">3.85901594161987</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04293203353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96549367904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63960742950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65251326560974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97194671630859</t>
+    <t xml:space="preserve">4.04293251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96549439430237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63960695266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6525137424469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97194743156433</t>
   </si>
   <si>
     <t xml:space="preserve">4.23652839660645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20748901367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16554307937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17844915390015</t>
+    <t xml:space="preserve">4.20748949050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16554355621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1784496307373</t>
   </si>
   <si>
     <t xml:space="preserve">4.11069059371948</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07519817352295</t>
+    <t xml:space="preserve">4.07519865036011</t>
   </si>
   <si>
     <t xml:space="preserve">4.05906534194946</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94613432884216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98162722587585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19135570526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15909051895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22039604187012</t>
+    <t xml:space="preserve">3.94613456726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9816267490387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19135618209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15909004211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2203950881958</t>
   </si>
   <si>
     <t xml:space="preserve">4.32364654541016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42367076873779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35591316223145</t>
+    <t xml:space="preserve">4.42367172241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35591268539429</t>
   </si>
   <si>
     <t xml:space="preserve">4.47529697418213</t>
@@ -503,55 +503,55 @@
     <t xml:space="preserve">4.43657779693604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33332681655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98485350608826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04615879058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93645453453064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02679920196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03325271606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73317813873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78157782554626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71059226989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73640513420105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72672510147095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72995233535767</t>
+    <t xml:space="preserve">4.33332633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98485422134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04615926742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93645429611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02679967880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03325223922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73317837715149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78157734870911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71059250831604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73640465736389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72672533988953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72995209693909</t>
   </si>
   <si>
     <t xml:space="preserve">3.93322730064392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03647899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90096235275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99775981903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13650321960449</t>
+    <t xml:space="preserve">4.0364785194397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90096163749695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99775958061218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13650369644165</t>
   </si>
   <si>
     <t xml:space="preserve">4.26556825637817</t>
@@ -563,19 +563,19 @@
     <t xml:space="preserve">4.43980407714844</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52369594573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33655261993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10423755645752</t>
+    <t xml:space="preserve">4.5236964225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33655309677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10423851013184</t>
   </si>
   <si>
     <t xml:space="preserve">4.28170108795166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42689847946167</t>
+    <t xml:space="preserve">4.42689800262451</t>
   </si>
   <si>
     <t xml:space="preserve">4.42044448852539</t>
@@ -587,85 +587,85 @@
     <t xml:space="preserve">4.55918836593628</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49142932891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39140558242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21394300460815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26442909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33847618103027</t>
+    <t xml:space="preserve">4.49142980575562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39140510559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21394205093384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26442956924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33847570419312</t>
   </si>
   <si>
     <t xml:space="preserve">4.27452564239502</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2307710647583</t>
+    <t xml:space="preserve">4.23077058792114</t>
   </si>
   <si>
     <t xml:space="preserve">4.17355298995972</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0523853302002</t>
+    <t xml:space="preserve">4.05238580703735</t>
   </si>
   <si>
     <t xml:space="preserve">4.22404003143311</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38223075866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52022743225098</t>
+    <t xml:space="preserve">4.38223028182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52022695541382</t>
   </si>
   <si>
     <t xml:space="preserve">4.52695846557617</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33510971069336</t>
+    <t xml:space="preserve">4.33511018753052</t>
   </si>
   <si>
     <t xml:space="preserve">4.76592826843262</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99480104446411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13279724121094</t>
+    <t xml:space="preserve">4.99480056762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13279676437378</t>
   </si>
   <si>
     <t xml:space="preserve">4.98806858062744</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01499557495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06884717941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11596870422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28762245178223</t>
+    <t xml:space="preserve">5.01499605178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06884670257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11596775054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28762197494507</t>
   </si>
   <si>
     <t xml:space="preserve">5.22703838348389</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2505989074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32801151275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29098844528198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27415943145752</t>
+    <t xml:space="preserve">5.25059938430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32801103591919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29098796844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27415990829468</t>
   </si>
   <si>
     <t xml:space="preserve">5.34147453308105</t>
@@ -674,19 +674,19 @@
     <t xml:space="preserve">5.33810901641846</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27079391479492</t>
+    <t xml:space="preserve">5.27079343795776</t>
   </si>
   <si>
     <t xml:space="preserve">5.2304048538208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22030735015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3313775062561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48620223999023</t>
+    <t xml:space="preserve">5.22030687332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33137702941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48620271682739</t>
   </si>
   <si>
     <t xml:space="preserve">5.51986026763916</t>
@@ -698,136 +698,136 @@
     <t xml:space="preserve">5.51312875747681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26406192779541</t>
+    <t xml:space="preserve">5.26406288146973</t>
   </si>
   <si>
     <t xml:space="preserve">5.32128047943115</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31791400909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19338130950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40205812454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38186407089233</t>
+    <t xml:space="preserve">5.3179144859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19338083267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40205907821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38186359405518</t>
   </si>
   <si>
     <t xml:space="preserve">5.34484100341797</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42898416519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35157203674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43235063552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73527002334595</t>
+    <t xml:space="preserve">5.42898368835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35157155990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43235015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73527050018311</t>
   </si>
   <si>
     <t xml:space="preserve">5.91365528106689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72517204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65449142456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5030312538147</t>
+    <t xml:space="preserve">5.72517251968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65449094772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50303173065186</t>
   </si>
   <si>
     <t xml:space="preserve">5.35493755340576</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48283720016479</t>
+    <t xml:space="preserve">5.48283767700195</t>
   </si>
   <si>
     <t xml:space="preserve">5.25733041763306</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14625978469849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30445098876953</t>
+    <t xml:space="preserve">5.14626026153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.30445146560669</t>
   </si>
   <si>
     <t xml:space="preserve">5.24386739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3986930847168</t>
+    <t xml:space="preserve">5.39869260787964</t>
   </si>
   <si>
     <t xml:space="preserve">5.52659177780151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49629974365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46600723266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41552114486694</t>
+    <t xml:space="preserve">5.4963002204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46600818634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4155216217041</t>
   </si>
   <si>
     <t xml:space="preserve">5.36503458023071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31118297576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15635776519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01162958145142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04865264892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09240818023682</t>
+    <t xml:space="preserve">5.31118249893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1563572883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01162910461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04865312576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09240770339966</t>
   </si>
   <si>
     <t xml:space="preserve">5.28425598144531</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33474397659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52322673797607</t>
+    <t xml:space="preserve">5.3347430229187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52322626113892</t>
   </si>
   <si>
     <t xml:space="preserve">5.57034635543823</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58044385910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66122245788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60400438308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59054231643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60736989974976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61746788024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6847825050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69824647903442</t>
+    <t xml:space="preserve">5.5804443359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6612229347229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60400485992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59054183959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60737037658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61746740341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68478298187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69824600219727</t>
   </si>
   <si>
     <t xml:space="preserve">5.63766241073608</t>
@@ -836,16 +836,16 @@
     <t xml:space="preserve">5.70161199569702</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67805242538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71507501602173</t>
+    <t xml:space="preserve">5.67805147171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71507453918457</t>
   </si>
   <si>
     <t xml:space="preserve">5.68814849853516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55015277862549</t>
+    <t xml:space="preserve">5.55015182495117</t>
   </si>
   <si>
     <t xml:space="preserve">5.56024980545044</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">5.55688381195068</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59390783309937</t>
+    <t xml:space="preserve">5.59390735626221</t>
   </si>
   <si>
     <t xml:space="preserve">5.4794716835022</t>
@@ -866,61 +866,61 @@
     <t xml:space="preserve">5.17991781234741</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7487325668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83624219894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75546455383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71844100952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94058084487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95741081237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97760438919067</t>
+    <t xml:space="preserve">5.74873352050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83624267578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75546407699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71844053268433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94058132171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95741033554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97760486602783</t>
   </si>
   <si>
     <t xml:space="preserve">6.09540700912476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17955112457275</t>
+    <t xml:space="preserve">6.1795506477356</t>
   </si>
   <si>
     <t xml:space="preserve">6.14252758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12569856643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10887002944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18628215789795</t>
+    <t xml:space="preserve">6.12569904327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10887050628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18628311157227</t>
   </si>
   <si>
     <t xml:space="preserve">6.15262603759766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17618608474731</t>
+    <t xml:space="preserve">6.17618560791016</t>
   </si>
   <si>
     <t xml:space="preserve">6.0045313835144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02472543716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521200180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11896705627441</t>
+    <t xml:space="preserve">6.02472591400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07521152496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11896657943726</t>
   </si>
   <si>
     <t xml:space="preserve">6.15935611724854</t>
@@ -938,16 +938,16 @@
     <t xml:space="preserve">5.82277917861938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68141651153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70497798919678</t>
+    <t xml:space="preserve">5.6814169883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70497846603394</t>
   </si>
   <si>
     <t xml:space="preserve">5.61073589324951</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63093090057373</t>
+    <t xml:space="preserve">5.63093042373657</t>
   </si>
   <si>
     <t xml:space="preserve">5.72853851318359</t>
@@ -956,79 +956,79 @@
     <t xml:space="preserve">5.78239059448242</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7621955871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8194146156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73863554000854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75882959365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65112590789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56361532211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72180604934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70834302902222</t>
+    <t xml:space="preserve">5.76219606399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81941413879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73863458633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75883007049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65112543106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56361627578735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72180652618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70834350585938</t>
   </si>
   <si>
     <t xml:space="preserve">5.85307121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83960866928101</t>
+    <t xml:space="preserve">5.83960914611816</t>
   </si>
   <si>
     <t xml:space="preserve">5.81604814529419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.92375230789185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97423982620239</t>
+    <t xml:space="preserve">5.923752784729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97423887252808</t>
   </si>
   <si>
     <t xml:space="preserve">5.90019273757935</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93721580505371</t>
+    <t xml:space="preserve">5.93721628189087</t>
   </si>
   <si>
     <t xml:space="preserve">5.97087335586548</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04491996765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10550355911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05838394165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06174898147583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86316871643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88336277008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94731283187866</t>
+    <t xml:space="preserve">6.04491949081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10550451278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05838346481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06174945831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86316919326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88336324691772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9473123550415</t>
   </si>
   <si>
     <t xml:space="preserve">5.98770236968994</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96077585220337</t>
+    <t xml:space="preserve">5.96077632904053</t>
   </si>
   <si>
     <t xml:space="preserve">5.93384981155396</t>
@@ -1043,16 +1043,16 @@
     <t xml:space="preserve">6.05501747131348</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99106740951538</t>
+    <t xml:space="preserve">5.99106693267822</t>
   </si>
   <si>
     <t xml:space="preserve">5.85643768310547</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91028928756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90355777740479</t>
+    <t xml:space="preserve">5.91028881072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90355825424194</t>
   </si>
   <si>
     <t xml:space="preserve">5.84634017944336</t>
@@ -1061,10 +1061,10 @@
     <t xml:space="preserve">5.7453670501709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80258512496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69151496887207</t>
+    <t xml:space="preserve">5.80258464813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69151449203491</t>
   </si>
   <si>
     <t xml:space="preserve">5.87326622009277</t>
@@ -1073,37 +1073,37 @@
     <t xml:space="preserve">5.94394731521606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87999773025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89009475708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96414136886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05165195465088</t>
+    <t xml:space="preserve">5.87999725341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89009523391724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96414184570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05165147781372</t>
   </si>
   <si>
     <t xml:space="preserve">6.03818893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07857799530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11223554611206</t>
+    <t xml:space="preserve">6.07857751846313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11223602294922</t>
   </si>
   <si>
     <t xml:space="preserve">6.14925909042358</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09877347946167</t>
+    <t xml:space="preserve">6.09877252578735</t>
   </si>
   <si>
     <t xml:space="preserve">6.19301414489746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13579654693604</t>
+    <t xml:space="preserve">6.13579559326172</t>
   </si>
   <si>
     <t xml:space="preserve">6.16608810424805</t>
@@ -1121,22 +1121,22 @@
     <t xml:space="preserve">6.16272163391113</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21320962905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31754732131958</t>
+    <t xml:space="preserve">6.21320867538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31754684448242</t>
   </si>
   <si>
     <t xml:space="preserve">6.38149690628052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33437585830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4218864440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48920154571533</t>
+    <t xml:space="preserve">6.33437633514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42188596725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48920249938965</t>
   </si>
   <si>
     <t xml:space="preserve">6.46227598190308</t>
@@ -1145,34 +1145,34 @@
     <t xml:space="preserve">6.44208097457886</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52285861968994</t>
+    <t xml:space="preserve">6.5228590965271</t>
   </si>
   <si>
     <t xml:space="preserve">6.5161280632019</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65412521362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63729476928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64739227294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64066076278687</t>
+    <t xml:space="preserve">6.65412425994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63729524612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64739322662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64066123962402</t>
   </si>
   <si>
     <t xml:space="preserve">6.62046670913696</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6543869972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54948234558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6299090385437</t>
+    <t xml:space="preserve">6.65438747406006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54948282241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62990856170654</t>
   </si>
   <si>
     <t xml:space="preserve">6.62641191482544</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">6.5110182762146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6508903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78027057647705</t>
+    <t xml:space="preserve">6.65088939666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78027009963989</t>
   </si>
   <si>
     <t xml:space="preserve">6.71383237838745</t>
@@ -1199,13 +1199,13 @@
     <t xml:space="preserve">6.7208251953125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61941862106323</t>
+    <t xml:space="preserve">6.61941909790039</t>
   </si>
   <si>
     <t xml:space="preserve">6.64389610290527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73131656646729</t>
+    <t xml:space="preserve">6.73131608963013</t>
   </si>
   <si>
     <t xml:space="preserve">6.70683908462524</t>
@@ -1214,34 +1214,34 @@
     <t xml:space="preserve">6.71033477783203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6788649559021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67187070846558</t>
+    <t xml:space="preserve">6.67886447906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67187023162842</t>
   </si>
   <si>
     <t xml:space="preserve">6.5389928817749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57396030426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6054310798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66487646102905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68935394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68585872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61592197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56346988677979</t>
+    <t xml:space="preserve">6.57396078109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60543155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66487693786621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68935441970825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68585824966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61592245101929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56346940994263</t>
   </si>
   <si>
     <t xml:space="preserve">6.6963472366333</t>
@@ -1250,46 +1250,46 @@
     <t xml:space="preserve">6.85370349884033</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83272266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83621978759766</t>
+    <t xml:space="preserve">6.83272409439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8362193107605</t>
   </si>
   <si>
     <t xml:space="preserve">6.82572889328003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84670972824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9341287612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96210336685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02154922485352</t>
+    <t xml:space="preserve">6.84671068191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93412923812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96210384368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02154970169067</t>
   </si>
   <si>
     <t xml:space="preserve">6.9760913848877</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97259378433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92713594436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87468433380127</t>
+    <t xml:space="preserve">6.97259426116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9271354675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87468385696411</t>
   </si>
   <si>
     <t xml:space="preserve">6.89146852493286</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79775524139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84810829162598</t>
+    <t xml:space="preserve">6.7977557182312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84810876846313</t>
   </si>
   <si>
     <t xml:space="preserve">6.91524648666382</t>
@@ -1298,37 +1298,37 @@
     <t xml:space="preserve">6.95580959320068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89426565170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69285154342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80195093154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74879884719849</t>
+    <t xml:space="preserve">6.8942666053772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69285106658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80195045471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74879932403564</t>
   </si>
   <si>
     <t xml:space="preserve">6.79635715484619</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85090589523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89286804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91105031967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8830771446228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90545558929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.918044090271</t>
+    <t xml:space="preserve">6.85090637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89286708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91105127334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88307666778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90545606613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91804504394531</t>
   </si>
   <si>
     <t xml:space="preserve">6.83412170410156</t>
@@ -1337,13 +1337,13 @@
     <t xml:space="preserve">6.89986133575439</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91384744644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95161294937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85510206222534</t>
+    <t xml:space="preserve">6.91384792327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95161247253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85510158538818</t>
   </si>
   <si>
     <t xml:space="preserve">6.75579357147217</t>
@@ -1355,109 +1355,109 @@
     <t xml:space="preserve">6.73900938034058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88167762756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90405702590942</t>
+    <t xml:space="preserve">6.88167810440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90405654907227</t>
   </si>
   <si>
     <t xml:space="preserve">6.89706420898438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83132410049438</t>
+    <t xml:space="preserve">6.83132314682007</t>
   </si>
   <si>
     <t xml:space="preserve">6.86069774627686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89566421508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84111452102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91664695739746</t>
+    <t xml:space="preserve">6.89566469192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84111404418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91664552688599</t>
   </si>
   <si>
     <t xml:space="preserve">6.80614757537842</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6816611289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63830089569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67047214508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67746543884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70404100418091</t>
+    <t xml:space="preserve">6.68166160583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63830041885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67047262191772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67746591567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70404148101807</t>
   </si>
   <si>
     <t xml:space="preserve">6.78376722335815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77537536621094</t>
+    <t xml:space="preserve">6.77537488937378</t>
   </si>
   <si>
     <t xml:space="preserve">6.85230493545532</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82712745666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9921760559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08449172973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11246538162231</t>
+    <t xml:space="preserve">6.82712841033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99217653274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08449125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11246633529663</t>
   </si>
   <si>
     <t xml:space="preserve">7.25583410263062</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30828475952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1614203453064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14743375778198</t>
+    <t xml:space="preserve">7.30828523635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16142129898071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14743423461914</t>
   </si>
   <si>
     <t xml:space="preserve">7.03903293609619</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1264533996582</t>
+    <t xml:space="preserve">7.12645292282104</t>
   </si>
   <si>
     <t xml:space="preserve">7.004065990448</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15093088150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1858983039856</t>
+    <t xml:space="preserve">7.15092992782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18589878082275</t>
   </si>
   <si>
     <t xml:space="preserve">6.99357557296753</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90265893936157</t>
+    <t xml:space="preserve">6.90265846252441</t>
   </si>
   <si>
     <t xml:space="preserve">6.95720863342285</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01455450057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96420288085938</t>
+    <t xml:space="preserve">7.01455545425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96420192718506</t>
   </si>
   <si>
     <t xml:space="preserve">6.62850999832153</t>
@@ -1469,16 +1469,16 @@
     <t xml:space="preserve">6.31659603118896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35715961456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20749759674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95852613449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59625911712646</t>
+    <t xml:space="preserve">6.35715913772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20749711990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95852661132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59625864028931</t>
   </si>
   <si>
     <t xml:space="preserve">5.37246465682983</t>
@@ -1487,10 +1487,10 @@
     <t xml:space="preserve">5.75151634216309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64241600036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78928136825562</t>
+    <t xml:space="preserve">5.64241647720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78928089141846</t>
   </si>
   <si>
     <t xml:space="preserve">5.68997287750244</t>
@@ -1502,7 +1502,7 @@
     <t xml:space="preserve">5.72214317321777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59346103668213</t>
+    <t xml:space="preserve">5.59346151351929</t>
   </si>
   <si>
     <t xml:space="preserve">5.47457075119019</t>
@@ -1511,58 +1511,58 @@
     <t xml:space="preserve">5.74172496795654</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66479587554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76969957351685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71095371246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6410174369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61723947525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81166124343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7529149055481</t>
+    <t xml:space="preserve">5.66479635238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76969909667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71095323562622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64101791381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61723899841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81166076660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75291442871094</t>
   </si>
   <si>
     <t xml:space="preserve">5.89838123321533</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69416856765747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65780210494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57108163833618</t>
+    <t xml:space="preserve">5.69416904449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65780258178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57108211517334</t>
   </si>
   <si>
     <t xml:space="preserve">5.53471565246582</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56828451156616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54031038284302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60744857788086</t>
+    <t xml:space="preserve">5.568284034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54030990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60744762420654</t>
   </si>
   <si>
     <t xml:space="preserve">5.68297958374023</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75711154937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66619491577148</t>
+    <t xml:space="preserve">5.75711059570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66619443893433</t>
   </si>
   <si>
     <t xml:space="preserve">5.702561378479</t>
@@ -1574,16 +1574,16 @@
     <t xml:space="preserve">5.53051900863647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55429744720459</t>
+    <t xml:space="preserve">5.55429697036743</t>
   </si>
   <si>
     <t xml:space="preserve">5.6284294128418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64801120758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69976329803467</t>
+    <t xml:space="preserve">5.64801168441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69976377487183</t>
   </si>
   <si>
     <t xml:space="preserve">5.6857762336731</t>
@@ -1592,37 +1592,37 @@
     <t xml:space="preserve">5.71934604644775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8871922492981</t>
+    <t xml:space="preserve">5.88719129562378</t>
   </si>
   <si>
     <t xml:space="preserve">5.95432949066162</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01027774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12077665328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06622648239136</t>
+    <t xml:space="preserve">6.01027822494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12077617645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06622695922852</t>
   </si>
   <si>
     <t xml:space="preserve">6.21309185028076</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13616275787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07321977615356</t>
+    <t xml:space="preserve">6.13616228103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07322072982788</t>
   </si>
   <si>
     <t xml:space="preserve">6.17252969741821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07042360305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15014934539795</t>
+    <t xml:space="preserve">6.0704231262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15014886856079</t>
   </si>
   <si>
     <t xml:space="preserve">6.14595365524292</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">5.81865406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94174194335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87600183486938</t>
+    <t xml:space="preserve">5.94174146652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87600231170654</t>
   </si>
   <si>
     <t xml:space="preserve">5.8941855430603</t>
@@ -1658,52 +1658,52 @@
     <t xml:space="preserve">5.80186939239502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80746412277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79627561569214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76130676269531</t>
+    <t xml:space="preserve">5.80746459960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79627513885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76130723953247</t>
   </si>
   <si>
     <t xml:space="preserve">5.7864842414856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60604953765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93195056915283</t>
+    <t xml:space="preserve">5.60605049133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93195009231567</t>
   </si>
   <si>
     <t xml:space="preserve">6.12497329711914</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07182216644287</t>
+    <t xml:space="preserve">6.07182168960571</t>
   </si>
   <si>
     <t xml:space="preserve">6.34037494659424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30680513381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33897638320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29701471328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3137993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42150020599365</t>
+    <t xml:space="preserve">6.30680561065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33897686004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2970142364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31379985809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42150115966797</t>
   </si>
   <si>
     <t xml:space="preserve">6.44248151779175</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50961971282959</t>
+    <t xml:space="preserve">6.50961923599243</t>
   </si>
   <si>
     <t xml:space="preserve">6.41590595245361</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">6.3683500289917</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48724031448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47605085372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41170978546143</t>
+    <t xml:space="preserve">6.48723936080933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47605133056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41171026229858</t>
   </si>
   <si>
     <t xml:space="preserve">6.01727199554443</t>
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">5.8606162071228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85222339630127</t>
+    <t xml:space="preserve">5.85222387313843</t>
   </si>
   <si>
     <t xml:space="preserve">5.75431346893311</t>
@@ -1745,40 +1745,40 @@
     <t xml:space="preserve">5.53191757202148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41582489013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36966705322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37666034698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46058368682861</t>
+    <t xml:space="preserve">5.41582441329956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3696665763855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37666082382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46058320999146</t>
   </si>
   <si>
     <t xml:space="preserve">5.3976411819458</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3458890914917</t>
+    <t xml:space="preserve">5.34588861465454</t>
   </si>
   <si>
     <t xml:space="preserve">5.50953817367554</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41022920608521</t>
+    <t xml:space="preserve">5.41022968292236</t>
   </si>
   <si>
     <t xml:space="preserve">5.42281818389893</t>
   </si>
   <si>
-    <t xml:space="preserve">5.239586353302</t>
+    <t xml:space="preserve">5.23958683013916</t>
   </si>
   <si>
     <t xml:space="preserve">5.44100141525269</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29413604736328</t>
+    <t xml:space="preserve">5.29413652420044</t>
   </si>
   <si>
     <t xml:space="preserve">5.44519710540771</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">5.4591851234436</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42141914367676</t>
+    <t xml:space="preserve">5.42141962051392</t>
   </si>
   <si>
     <t xml:space="preserve">5.54730415344238</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">5.48436164855957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46338033676147</t>
+    <t xml:space="preserve">5.46338081359863</t>
   </si>
   <si>
     <t xml:space="preserve">5.48715877532959</t>
@@ -1814,19 +1814,19 @@
     <t xml:space="preserve">5.50799083709717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37847852706909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4350471496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42462635040283</t>
+    <t xml:space="preserve">5.37847805023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43504667282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42462682723999</t>
   </si>
   <si>
     <t xml:space="preserve">5.46481990814209</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70746946334839</t>
+    <t xml:space="preserve">5.70746898651123</t>
   </si>
   <si>
     <t xml:space="preserve">5.73128747940063</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">5.81167459487915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8101863861084</t>
+    <t xml:space="preserve">5.81018590927124</t>
   </si>
   <si>
     <t xml:space="preserve">5.84740209579468</t>
@@ -1847,13 +1847,13 @@
     <t xml:space="preserve">5.74170827865601</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75361776351929</t>
+    <t xml:space="preserve">5.75361728668213</t>
   </si>
   <si>
     <t xml:space="preserve">5.58093452453613</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57646799087524</t>
+    <t xml:space="preserve">5.5764684677124</t>
   </si>
   <si>
     <t xml:space="preserve">5.44844484329224</t>
@@ -1871,10 +1871,10 @@
     <t xml:space="preserve">5.67323064804077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58540058135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63452529907227</t>
+    <t xml:space="preserve">5.58540010452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63452577590942</t>
   </si>
   <si>
     <t xml:space="preserve">5.73724222183228</t>
@@ -1883,13 +1883,13 @@
     <t xml:space="preserve">5.61219549179077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47523975372314</t>
+    <t xml:space="preserve">5.4752402305603</t>
   </si>
   <si>
     <t xml:space="preserve">5.39187574386597</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49012660980225</t>
+    <t xml:space="preserve">5.4901270866394</t>
   </si>
   <si>
     <t xml:space="preserve">5.43653583526611</t>
@@ -1898,16 +1898,16 @@
     <t xml:space="preserve">5.43206930160522</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75510549545288</t>
+    <t xml:space="preserve">5.75510597229004</t>
   </si>
   <si>
     <t xml:space="preserve">5.74468517303467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72682094573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69704866409302</t>
+    <t xml:space="preserve">5.7268214225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69704818725586</t>
   </si>
   <si>
     <t xml:space="preserve">5.70002603530884</t>
@@ -1919,55 +1919,55 @@
     <t xml:space="preserve">5.70895767211914</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70151472091675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83251523971558</t>
+    <t xml:space="preserve">5.70151424407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">5.83995866775513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86377668380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88015174865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86079978942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86526536941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87568664550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93672037124634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86228847503662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81762933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82953786849976</t>
+    <t xml:space="preserve">5.86377716064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88015222549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86079931259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86526584625244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87568616867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93671989440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86228799819946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81762886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82953834533691</t>
   </si>
   <si>
     <t xml:space="preserve">5.6538782119751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49310445785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45886564254761</t>
+    <t xml:space="preserve">5.49310350418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45886516571045</t>
   </si>
   <si>
     <t xml:space="preserve">5.64345741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7640380859375</t>
+    <t xml:space="preserve">5.76403760910034</t>
   </si>
   <si>
     <t xml:space="preserve">5.76999187469482</t>
@@ -1979,22 +1979,22 @@
     <t xml:space="preserve">5.90099287033081</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00668716430664</t>
+    <t xml:space="preserve">6.00668668746948</t>
   </si>
   <si>
     <t xml:space="preserve">5.9694709777832</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1823468208313</t>
+    <t xml:space="preserve">6.18234729766846</t>
   </si>
   <si>
     <t xml:space="preserve">6.19723415374756</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16895008087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19127893447876</t>
+    <t xml:space="preserve">6.16894960403442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1912784576416</t>
   </si>
   <si>
     <t xml:space="preserve">6.12875604629517</t>
@@ -2006,13 +2006,13 @@
     <t xml:space="preserve">6.22254085540771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31930255889893</t>
+    <t xml:space="preserve">6.31930208206177</t>
   </si>
   <si>
     <t xml:space="preserve">6.38629198074341</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56641721725464</t>
+    <t xml:space="preserve">6.5664176940918</t>
   </si>
   <si>
     <t xml:space="preserve">6.43392848968506</t>
@@ -2033,13 +2033,13 @@
     <t xml:space="preserve">6.44732618331909</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53962326049805</t>
+    <t xml:space="preserve">6.53962278366089</t>
   </si>
   <si>
     <t xml:space="preserve">6.51729202270508</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60958814620972</t>
+    <t xml:space="preserve">6.60958862304688</t>
   </si>
   <si>
     <t xml:space="preserve">6.63787269592285</t>
@@ -2048,7 +2048,7 @@
     <t xml:space="preserve">6.68997573852539</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8328857421875</t>
+    <t xml:space="preserve">6.83288526535034</t>
   </si>
   <si>
     <t xml:space="preserve">6.79120302200317</t>
@@ -2057,16 +2057,16 @@
     <t xml:space="preserve">6.66317987442017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71230459213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65871381759644</t>
+    <t xml:space="preserve">6.71230506896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65871429443359</t>
   </si>
   <si>
     <t xml:space="preserve">6.59619092941284</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64680576324463</t>
+    <t xml:space="preserve">6.64680528640747</t>
   </si>
   <si>
     <t xml:space="preserve">6.78376054763794</t>
@@ -2075,67 +2075,67 @@
     <t xml:space="preserve">6.8581919670105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89391994476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96090888977051</t>
+    <t xml:space="preserve">6.89392042160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96090841293335</t>
   </si>
   <si>
     <t xml:space="preserve">6.86117029190063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87754535675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91773796081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96388626098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90285205841064</t>
+    <t xml:space="preserve">6.87754487991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91773891448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96388673782349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9028525352478</t>
   </si>
   <si>
     <t xml:space="preserve">6.92518138885498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02492046356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08148908615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12317180633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15294408798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13210296630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07106876373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98770475387573</t>
+    <t xml:space="preserve">7.02491998672485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08148956298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12317132949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15294361114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13210344314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07106924057007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98770380020142</t>
   </si>
   <si>
     <t xml:space="preserve">6.96686363220215</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00705623626709</t>
+    <t xml:space="preserve">7.00705671310425</t>
   </si>
   <si>
     <t xml:space="preserve">7.13508081436157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03385305404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07404613494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85223817825317</t>
+    <t xml:space="preserve">7.03385353088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07404661178589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223770141602</t>
   </si>
   <si>
     <t xml:space="preserve">6.69295263290405</t>
@@ -2147,10 +2147,10 @@
     <t xml:space="preserve">6.62298631668091</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47561073303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64233827590942</t>
+    <t xml:space="preserve">6.47561120986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64233875274658</t>
   </si>
   <si>
     <t xml:space="preserve">6.60065698623657</t>
@@ -2159,40 +2159,40 @@
     <t xml:space="preserve">6.5842809677124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47709846496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.40117835998535</t>
+    <t xml:space="preserve">6.47709941864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.40117883682251</t>
   </si>
   <si>
     <t xml:space="preserve">6.42350816726685</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36396217346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32079076766968</t>
+    <t xml:space="preserve">6.36396169662476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32079124450684</t>
   </si>
   <si>
     <t xml:space="preserve">6.23891544342041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22998428344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1570405960083</t>
+    <t xml:space="preserve">6.22998332977295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15704107284546</t>
   </si>
   <si>
     <t xml:space="preserve">6.12131309509277</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28059768676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24635887145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27762079238892</t>
+    <t xml:space="preserve">6.28059720993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24635934829712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27762031555176</t>
   </si>
   <si>
     <t xml:space="preserve">6.37289428710938</t>
@@ -2207,13 +2207,13 @@
     <t xml:space="preserve">6.37884855270386</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34609842300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34460973739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48305368423462</t>
+    <t xml:space="preserve">6.34609794616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34460926055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48305416107178</t>
   </si>
   <si>
     <t xml:space="preserve">6.58130407333374</t>
@@ -2225,7 +2225,7 @@
     <t xml:space="preserve">6.61107778549194</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58874797821045</t>
+    <t xml:space="preserve">6.58874750137329</t>
   </si>
   <si>
     <t xml:space="preserve">6.72272491455078</t>
@@ -2234,19 +2234,19 @@
     <t xml:space="preserve">6.76738548278809</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74803256988525</t>
+    <t xml:space="preserve">6.7480320930481</t>
   </si>
   <si>
     <t xml:space="preserve">6.66169118881226</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73761177062988</t>
+    <t xml:space="preserve">6.7376127243042</t>
   </si>
   <si>
     <t xml:space="preserve">6.91327285766602</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05022764205933</t>
+    <t xml:space="preserve">7.05022716522217</t>
   </si>
   <si>
     <t xml:space="preserve">7.01598930358887</t>
@@ -2267,43 +2267,43 @@
     <t xml:space="preserve">6.99068212509155</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93857908248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01301193237305</t>
+    <t xml:space="preserve">6.93857955932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01301145553589</t>
   </si>
   <si>
     <t xml:space="preserve">6.97579526901245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99365949630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84777164459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88052225112915</t>
+    <t xml:space="preserve">6.99365901947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84777212142944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88052272796631</t>
   </si>
   <si>
     <t xml:space="preserve">6.95644330978394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92964744567871</t>
+    <t xml:space="preserve">6.92964792251587</t>
   </si>
   <si>
     <t xml:space="preserve">6.94453382492065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76440811157227</t>
+    <t xml:space="preserve">6.76440906524658</t>
   </si>
   <si>
     <t xml:space="preserve">6.73910140991211</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74952173233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57683849334717</t>
+    <t xml:space="preserve">6.74952125549316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57683897018433</t>
   </si>
   <si>
     <t xml:space="preserve">6.5187816619873</t>
@@ -2318,10 +2318,10 @@
     <t xml:space="preserve">6.32674551010132</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31483745574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3475866317749</t>
+    <t xml:space="preserve">6.31483697891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34758710861206</t>
   </si>
   <si>
     <t xml:space="preserve">6.20021057128906</t>
@@ -2330,49 +2330,49 @@
     <t xml:space="preserve">6.33270072937012</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38182592391968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47858810424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52771282196045</t>
+    <t xml:space="preserve">6.38182640075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47858762741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52771329879761</t>
   </si>
   <si>
     <t xml:space="preserve">6.45328044891357</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53366756439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55599641799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6125659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70635080337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78822660446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02938652038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04576110839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13359212875366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08000135421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11572933197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18271636962891</t>
+    <t xml:space="preserve">6.53366804122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55599689483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61256551742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70635032653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78822612762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0293869972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0457615852356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13359260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08000183105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11572885513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18271684646606</t>
   </si>
   <si>
     <t xml:space="preserve">7.11423873901367</t>
@@ -2384,16 +2384,16 @@
     <t xml:space="preserve">7.2199330329895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42238903045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36582136154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3762412071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41792440414429</t>
+    <t xml:space="preserve">7.4223895072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36582088470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37624168395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41792345046997</t>
   </si>
   <si>
     <t xml:space="preserve">7.52138376235962</t>
@@ -2402,16 +2402,16 @@
     <t xml:space="preserve">7.42536687850952</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45811748504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42834424972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2229118347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31074190139771</t>
+    <t xml:space="preserve">7.45811653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42834377288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22291135787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31074142456055</t>
   </si>
   <si>
     <t xml:space="preserve">7.27799034118652</t>
@@ -2420,16 +2420,16 @@
     <t xml:space="preserve">7.29734325408936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25417327880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2660813331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51022052764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67769193649292</t>
+    <t xml:space="preserve">7.25417280197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26608180999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51022005081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67769145965576</t>
   </si>
   <si>
     <t xml:space="preserve">7.76328992843628</t>
@@ -2441,13 +2441,13 @@
     <t xml:space="preserve">7.90471124649048</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88238048553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86005067825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93448400497437</t>
+    <t xml:space="preserve">7.88238000869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86005210876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93448352813721</t>
   </si>
   <si>
     <t xml:space="preserve">8.01263809204102</t>
@@ -2456,13 +2456,13 @@
     <t xml:space="preserve">8.07218360900879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06474018096924</t>
+    <t xml:space="preserve">8.06474113464355</t>
   </si>
   <si>
     <t xml:space="preserve">8.09451293945312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94564914703369</t>
+    <t xml:space="preserve">7.94564867019653</t>
   </si>
   <si>
     <t xml:space="preserve">7.92704010009766</t>
@@ -2471,16 +2471,16 @@
     <t xml:space="preserve">7.99030733108521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16150283813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10939979553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02380084991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76701164245605</t>
+    <t xml:space="preserve">8.16150188446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10940074920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02380180358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76701021194458</t>
   </si>
   <si>
     <t xml:space="preserve">7.9233193397522</t>
@@ -2489,10 +2489,10 @@
     <t xml:space="preserve">7.8526086807251</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02844524383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99729681015015</t>
+    <t xml:space="preserve">8.02844429016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99729633331299</t>
   </si>
   <si>
     <t xml:space="preserve">7.97393465042114</t>
@@ -2504,124 +2504,124 @@
     <t xml:space="preserve">8.00508213043213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98172092437744</t>
+    <t xml:space="preserve">7.98172187805176</t>
   </si>
   <si>
     <t xml:space="preserve">8.04012489318848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90385150909424</t>
+    <t xml:space="preserve">7.90385103225708</t>
   </si>
   <si>
     <t xml:space="preserve">7.82987499237061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78704643249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85323524475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82208776473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84544897079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71696186065674</t>
+    <t xml:space="preserve">7.78704595565796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85323476791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82208728790283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84544801712036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7169623374939</t>
   </si>
   <si>
     <t xml:space="preserve">7.87270355224609</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88438367843628</t>
+    <t xml:space="preserve">7.88438320159912</t>
   </si>
   <si>
     <t xml:space="preserve">7.73565101623535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81040573120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77614402770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85713005065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77925825119019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70917463302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64220714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72007703781128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64999341964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67179727554321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74188137054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75434064865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70761728286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66556835174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66712474822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56589317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64376449584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59236907958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53630352020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55810737609863</t>
+    <t xml:space="preserve">7.81040668487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7761435508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85712957382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7792592048645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70917510986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64220666885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72007751464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64999389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67179822921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74188184738159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75434017181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70761823654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66556739807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6671257019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56589269638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64376401901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59236860275269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53630304336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55810642242432</t>
   </si>
   <si>
     <t xml:space="preserve">7.47089195251465</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40859508514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44597339630127</t>
+    <t xml:space="preserve">7.4085955619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44597291946411</t>
   </si>
   <si>
     <t xml:space="preserve">7.23260831832886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45999050140381</t>
+    <t xml:space="preserve">7.45998954772949</t>
   </si>
   <si>
     <t xml:space="preserve">7.40392351150513</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21080446243286</t>
+    <t xml:space="preserve">7.21080493927002</t>
   </si>
   <si>
     <t xml:space="preserve">7.0176854133606</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17498350143433</t>
+    <t xml:space="preserve">7.17498397827148</t>
   </si>
   <si>
     <t xml:space="preserve">7.26687145233154</t>
@@ -2630,31 +2630,31 @@
     <t xml:space="preserve">7.45375967025757</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33539628982544</t>
+    <t xml:space="preserve">7.3353967666626</t>
   </si>
   <si>
     <t xml:space="preserve">7.47867870330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51917171478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53941774368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54097509384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48023557662964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50982666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46777725219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32916784286499</t>
+    <t xml:space="preserve">7.51917219161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5394172668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54097557067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4802360534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50982713699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46777629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32916736602783</t>
   </si>
   <si>
     <t xml:space="preserve">6.88997793197632</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">6.81989526748657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6563663482666</t>
+    <t xml:space="preserve">6.65636682510376</t>
   </si>
   <si>
     <t xml:space="preserve">6.37759017944336</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">6.15332365036011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09725713729858</t>
+    <t xml:space="preserve">6.09725666046143</t>
   </si>
   <si>
     <t xml:space="preserve">6.01782894134521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76552867889404</t>
+    <t xml:space="preserve">5.76552820205688</t>
   </si>
   <si>
     <t xml:space="preserve">5.64249324798584</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">4.82952547073364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49779748916626</t>
+    <t xml:space="preserve">4.49779796600342</t>
   </si>
   <si>
     <t xml:space="preserve">4.62550497055054</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">3.76114320755005</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03213214874268</t>
+    <t xml:space="preserve">4.03213262557983</t>
   </si>
   <si>
     <t xml:space="preserve">3.5649094581604</t>
@@ -2711,25 +2711,25 @@
     <t xml:space="preserve">3.27445268630981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24875521659851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3118302822113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.39203715324402</t>
+    <t xml:space="preserve">3.24875545501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.31183052062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.39203691482544</t>
   </si>
   <si>
     <t xml:space="preserve">3.86393213272095</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16918468475342</t>
+    <t xml:space="preserve">4.16918420791626</t>
   </si>
   <si>
     <t xml:space="preserve">4.28287506103516</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01967334747314</t>
+    <t xml:space="preserve">4.01967287063599</t>
   </si>
   <si>
     <t xml:space="preserve">3.87405490875244</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">3.91532635688782</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89663767814636</t>
+    <t xml:space="preserve">3.89663743972778</t>
   </si>
   <si>
     <t xml:space="preserve">4.03057479858398</t>
@@ -2750,31 +2750,31 @@
     <t xml:space="preserve">4.24082517623901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32648277282715</t>
+    <t xml:space="preserve">4.32648324966431</t>
   </si>
   <si>
     <t xml:space="preserve">4.33426952362061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31558036804199</t>
+    <t xml:space="preserve">4.31558084487915</t>
   </si>
   <si>
     <t xml:space="preserve">4.13492155075073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82266068458557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89508032798767</t>
+    <t xml:space="preserve">3.82266116142273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89508008956909</t>
   </si>
   <si>
     <t xml:space="preserve">3.94336009025574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80397176742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75413513183594</t>
+    <t xml:space="preserve">3.80397248268127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75413489341736</t>
   </si>
   <si>
     <t xml:space="preserve">3.99319672584534</t>
@@ -2789,13 +2789,13 @@
     <t xml:space="preserve">4.29533433914185</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11778974533081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05705118179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02123022079468</t>
+    <t xml:space="preserve">4.11778926849365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05705070495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02123069763184</t>
   </si>
   <si>
     <t xml:space="preserve">4.01344299316406</t>
@@ -2804,7 +2804,7 @@
     <t xml:space="preserve">4.00254106521606</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04614925384521</t>
+    <t xml:space="preserve">4.04614877700806</t>
   </si>
   <si>
     <t xml:space="preserve">4.18164348602295</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">4.11467504501343</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93245816230774</t>
+    <t xml:space="preserve">3.93245840072632</t>
   </si>
   <si>
     <t xml:space="preserve">3.80475068092346</t>
@@ -2825,19 +2825,19 @@
     <t xml:space="preserve">4.00409889221191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94803190231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0274600982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04147720336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27041625976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44484615325928</t>
+    <t xml:space="preserve">3.94803214073181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02746057510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04147624969482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27041578292847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44484567642212</t>
   </si>
   <si>
     <t xml:space="preserve">4.61148834228516</t>
@@ -2846,22 +2846,22 @@
     <t xml:space="preserve">4.54451990127563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91206789016724</t>
+    <t xml:space="preserve">4.91206836700439</t>
   </si>
   <si>
     <t xml:space="preserve">5.01797199249268</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29051923751831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28896141052246</t>
+    <t xml:space="preserve">5.29051876068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2889609336853</t>
   </si>
   <si>
     <t xml:space="preserve">5.53503227233887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70790386199951</t>
+    <t xml:space="preserve">5.70790433883667</t>
   </si>
   <si>
     <t xml:space="preserve">5.52413034439087</t>
@@ -2879,16 +2879,16 @@
     <t xml:space="preserve">5.37929153442383</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51478576660156</t>
+    <t xml:space="preserve">5.5147852897644</t>
   </si>
   <si>
     <t xml:space="preserve">5.48830938339233</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58642673492432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46806287765503</t>
+    <t xml:space="preserve">5.58642625808716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46806335449219</t>
   </si>
   <si>
     <t xml:space="preserve">5.31076526641846</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">5.03043174743652</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07248163223267</t>
+    <t xml:space="preserve">5.07248115539551</t>
   </si>
   <si>
     <t xml:space="preserve">4.86846113204956</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">4.97592258453369</t>
   </si>
   <si>
-    <t xml:space="preserve">5.0351037979126</t>
+    <t xml:space="preserve">5.03510427474976</t>
   </si>
   <si>
     <t xml:space="preserve">5.25314092636108</t>
@@ -2921,28 +2921,28 @@
     <t xml:space="preserve">5.23600959777832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25937080383301</t>
+    <t xml:space="preserve">5.25937032699585</t>
   </si>
   <si>
     <t xml:space="preserve">5.26560068130493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.21109104156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12231922149658</t>
+    <t xml:space="preserve">5.21109056472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12231874465942</t>
   </si>
   <si>
     <t xml:space="preserve">5.26404285430908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39330816268921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4867525100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49454021453857</t>
+    <t xml:space="preserve">5.39330768585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48675298690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49453973770142</t>
   </si>
   <si>
     <t xml:space="preserve">5.51634311676025</t>
@@ -2954,10 +2954,10 @@
     <t xml:space="preserve">5.60823059082031</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61134481430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67675638198853</t>
+    <t xml:space="preserve">5.6113452911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67675590515137</t>
   </si>
   <si>
     <t xml:space="preserve">5.5786395072937</t>
@@ -2969,7 +2969,7 @@
     <t xml:space="preserve">5.47429323196411</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42289924621582</t>
+    <t xml:space="preserve">5.42289876937866</t>
   </si>
   <si>
     <t xml:space="preserve">5.40265226364136</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">5.25625610351562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27805948257446</t>
+    <t xml:space="preserve">5.2780590057373</t>
   </si>
   <si>
     <t xml:space="preserve">5.05379247665405</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">5.13945007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2827320098877</t>
+    <t xml:space="preserve">5.28273153305054</t>
   </si>
   <si>
     <t xml:space="preserve">5.24691152572632</t>
@@ -2996,28 +2996,28 @@
     <t xml:space="preserve">5.31543731689453</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63003396987915</t>
+    <t xml:space="preserve">5.63003444671631</t>
   </si>
   <si>
     <t xml:space="preserve">5.64560794830322</t>
   </si>
   <si>
-    <t xml:space="preserve">5.653395652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55527830123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46183347702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60200119018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47585105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44314479827881</t>
+    <t xml:space="preserve">5.65339517593384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55527782440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46183395385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60200071334839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4758505821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44314432144165</t>
   </si>
   <si>
     <t xml:space="preserve">5.60355806350708</t>
@@ -3029,46 +3029,46 @@
     <t xml:space="preserve">5.81380844116211</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84962892532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79200506210327</t>
+    <t xml:space="preserve">5.84962940216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79200458526611</t>
   </si>
   <si>
     <t xml:space="preserve">5.6705265045166</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69700241088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6814284324646</t>
+    <t xml:space="preserve">5.69700288772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68142795562744</t>
   </si>
   <si>
     <t xml:space="preserve">5.58175468444824</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56773805618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42601299285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52880191802979</t>
+    <t xml:space="preserve">5.5677375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42601346969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52880239486694</t>
   </si>
   <si>
     <t xml:space="preserve">5.75774145126343</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64093542098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65806770324707</t>
+    <t xml:space="preserve">5.64093589782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65806722640991</t>
   </si>
   <si>
     <t xml:space="preserve">5.53814697265625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43224239349365</t>
+    <t xml:space="preserve">5.43224287033081</t>
   </si>
   <si>
     <t xml:space="preserve">5.23133707046509</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">5.22510766983032</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20797634124756</t>
+    <t xml:space="preserve">5.20797681808472</t>
   </si>
   <si>
     <t xml:space="preserve">5.08338356018066</t>
@@ -3092,13 +3092,13 @@
     <t xml:space="preserve">5.21576309204102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17215538024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43380117416382</t>
+    <t xml:space="preserve">5.17215585708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25781297683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43380069732666</t>
   </si>
   <si>
     <t xml:space="preserve">5.56306552886963</t>
@@ -3107,16 +3107,16 @@
     <t xml:space="preserve">5.43068552017212</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64405059814453</t>
+    <t xml:space="preserve">5.64405107498169</t>
   </si>
   <si>
     <t xml:space="preserve">5.58798408508301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55683612823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35125780105591</t>
+    <t xml:space="preserve">5.55683565139771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35125827789307</t>
   </si>
   <si>
     <t xml:space="preserve">5.36060237884521</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">5.14879465103149</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17059850692749</t>
+    <t xml:space="preserve">5.17059803009033</t>
   </si>
   <si>
     <t xml:space="preserve">5.12543296813965</t>
@@ -3134,10 +3134,10 @@
     <t xml:space="preserve">5.17838573455811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06158018112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06780910491943</t>
+    <t xml:space="preserve">5.06157970428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06780862808228</t>
   </si>
   <si>
     <t xml:space="preserve">5.11453151702881</t>
@@ -3152,19 +3152,19 @@
     <t xml:space="preserve">4.70960521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77190160751343</t>
+    <t xml:space="preserve">4.77190113067627</t>
   </si>
   <si>
     <t xml:space="preserve">4.74075317382812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90583896636963</t>
+    <t xml:space="preserve">4.90583848953247</t>
   </si>
   <si>
     <t xml:space="preserve">5.18617248535156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66896963119507</t>
+    <t xml:space="preserve">5.66896915435791</t>
   </si>
   <si>
     <t xml:space="preserve">5.54904890060425</t>
@@ -3173,13 +3173,13 @@
     <t xml:space="preserve">5.5583930015564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89012098312378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97577905654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88856410980225</t>
+    <t xml:space="preserve">5.89012145996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97577857971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88856363296509</t>
   </si>
   <si>
     <t xml:space="preserve">5.96331977844238</t>
@@ -3209,7 +3209,7 @@
     <t xml:space="preserve">5.83561182022095</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91815519332886</t>
+    <t xml:space="preserve">5.9181547164917</t>
   </si>
   <si>
     <t xml:space="preserve">5.982008934021</t>
@@ -3218,37 +3218,37 @@
     <t xml:space="preserve">5.90725326538086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86208820343018</t>
+    <t xml:space="preserve">5.86208772659302</t>
   </si>
   <si>
     <t xml:space="preserve">5.86987543106079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84651374816895</t>
+    <t xml:space="preserve">5.84651327133179</t>
   </si>
   <si>
     <t xml:space="preserve">5.71257638931274</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72503662109375</t>
+    <t xml:space="preserve">5.72503614425659</t>
   </si>
   <si>
     <t xml:space="preserve">5.91348218917847</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8652024269104</t>
+    <t xml:space="preserve">5.86520290374756</t>
   </si>
   <si>
     <t xml:space="preserve">5.79667663574219</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75618410110474</t>
+    <t xml:space="preserve">5.75618457794189</t>
   </si>
   <si>
     <t xml:space="preserve">5.74372482299805</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89479351043701</t>
+    <t xml:space="preserve">5.89479398727417</t>
   </si>
   <si>
     <t xml:space="preserve">5.89946603775024</t>
@@ -3257,28 +3257,28 @@
     <t xml:space="preserve">5.76864337921143</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79044723510742</t>
+    <t xml:space="preserve">5.79044675827026</t>
   </si>
   <si>
     <t xml:space="preserve">6.0100417137146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99291038513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87766218185425</t>
+    <t xml:space="preserve">5.99291086196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87766170501709</t>
   </si>
   <si>
     <t xml:space="preserve">5.83249711990356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88389158248901</t>
+    <t xml:space="preserve">5.88389205932617</t>
   </si>
   <si>
     <t xml:space="preserve">5.84028434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81692266464233</t>
+    <t xml:space="preserve">5.81692314147949</t>
   </si>
   <si>
     <t xml:space="preserve">5.74684000015259</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">5.77175855636597</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81848049163818</t>
+    <t xml:space="preserve">5.81848096847534</t>
   </si>
   <si>
     <t xml:space="preserve">5.72036409378052</t>
@@ -3302,7 +3302,7 @@
     <t xml:space="preserve">5.76085615158081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7343807220459</t>
+    <t xml:space="preserve">5.73438024520874</t>
   </si>
   <si>
     <t xml:space="preserve">5.88544940948486</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">6.11906051635742</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29971981048584</t>
+    <t xml:space="preserve">6.299720287323</t>
   </si>
   <si>
     <t xml:space="preserve">6.38537740707397</t>
@@ -3326,28 +3326,28 @@
     <t xml:space="preserve">6.85260009765625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94760227203369</t>
+    <t xml:space="preserve">6.94760179519653</t>
   </si>
   <si>
     <t xml:space="preserve">6.91956901550293</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03948974609375</t>
+    <t xml:space="preserve">7.03948926925659</t>
   </si>
   <si>
     <t xml:space="preserve">6.98030757904053</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02547311782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9880952835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07063722610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06284999847412</t>
+    <t xml:space="preserve">7.02547264099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98809480667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07063770294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06285047531128</t>
   </si>
   <si>
     <t xml:space="preserve">7.02858734130859</t>
@@ -3356,76 +3356,76 @@
     <t xml:space="preserve">6.97719287872314</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82923889160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71087646484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94293069839478</t>
+    <t xml:space="preserve">6.82923936843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71087598800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94293022155762</t>
   </si>
   <si>
     <t xml:space="preserve">6.87128925323486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96940565109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05973529815674</t>
+    <t xml:space="preserve">6.96940612792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0597357749939</t>
   </si>
   <si>
     <t xml:space="preserve">7.18121385574341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19211530685425</t>
+    <t xml:space="preserve">7.19211578369141</t>
   </si>
   <si>
     <t xml:space="preserve">7.23416519165039</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31515121459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33072376251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3696608543396</t>
+    <t xml:space="preserve">7.31515073776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33072423934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36965990066528</t>
   </si>
   <si>
     <t xml:space="preserve">7.49581050872803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57523775100708</t>
+    <t xml:space="preserve">7.57523727416992</t>
   </si>
   <si>
     <t xml:space="preserve">7.57835340499878</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3462986946106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30424880981445</t>
+    <t xml:space="preserve">7.34629821777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30424928665161</t>
   </si>
   <si>
     <t xml:space="preserve">7.23883676528931</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36810255050659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37433338165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38990592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41015243530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51294183731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36343097686768</t>
+    <t xml:space="preserve">7.36810207366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37433195114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38990688323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41015195846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51294136047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36343050003052</t>
   </si>
   <si>
     <t xml:space="preserve">7.31359338760376</t>
@@ -3437,10 +3437,10 @@
     <t xml:space="preserve">7.23105049133301</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26842737197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28088808059692</t>
+    <t xml:space="preserve">7.26842832565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28088855743408</t>
   </si>
   <si>
     <t xml:space="preserve">7.27154350280762</t>
@@ -3449,40 +3449,40 @@
     <t xml:space="preserve">7.24662399291992</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31670808792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31203556060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16408157348633</t>
+    <t xml:space="preserve">7.31670761108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31203603744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16408205032349</t>
   </si>
   <si>
     <t xml:space="preserve">7.09244108200073</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10957336425781</t>
+    <t xml:space="preserve">7.10957288742065</t>
   </si>
   <si>
     <t xml:space="preserve">7.09711360931396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29957628250122</t>
+    <t xml:space="preserve">7.29957675933838</t>
   </si>
   <si>
     <t xml:space="preserve">7.26998662948608</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29023218154907</t>
+    <t xml:space="preserve">7.29023265838623</t>
   </si>
   <si>
     <t xml:space="preserve">7.32138109207153</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39769315719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24039554595947</t>
+    <t xml:space="preserve">7.3976936340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24039506912231</t>
   </si>
   <si>
     <t xml:space="preserve">7.37744760513306</t>
@@ -3494,43 +3494,43 @@
     <t xml:space="preserve">7.51761388778687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53318786621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48958110809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56433534622192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61728763580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68581438064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53786039352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54564666748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53163146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56122159957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61261510848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60015630722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63286209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70138931274414</t>
+    <t xml:space="preserve">7.53318881988525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4895806312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56433629989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61728811264038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68581390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53786134719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54564714431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53163051605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5612211227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61261653900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60015726089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63286161422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70138835906982</t>
   </si>
   <si>
     <t xml:space="preserve">7.76368427276611</t>
@@ -3545,49 +3545,49 @@
     <t xml:space="preserve">7.74810981750488</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76057052612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69671583175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75589799880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74655294418335</t>
+    <t xml:space="preserve">7.76057004928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69671487808228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75589752197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74655342102051</t>
   </si>
   <si>
     <t xml:space="preserve">7.72319269180298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72630596160889</t>
+    <t xml:space="preserve">7.72630643844604</t>
   </si>
   <si>
     <t xml:space="preserve">7.63909244537354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66245269775391</t>
+    <t xml:space="preserve">7.66245317459106</t>
   </si>
   <si>
     <t xml:space="preserve">7.71229076385498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77458572387695</t>
+    <t xml:space="preserve">7.77458667755127</t>
   </si>
   <si>
     <t xml:space="preserve">7.76835680007935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68892860412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67024087905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68114185333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67491292953491</t>
+    <t xml:space="preserve">7.68892812728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67023992538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68114137649536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67491245269775</t>
   </si>
   <si>
     <t xml:space="preserve">7.86102247238159</t>
@@ -3599,79 +3599,79 @@
     <t xml:space="preserve">7.6344199180603</t>
   </si>
   <si>
-    <t xml:space="preserve">7.39302158355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59392738342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67646884918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69360113143921</t>
+    <t xml:space="preserve">7.39302206039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59392642974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67646980285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69360160827637</t>
   </si>
   <si>
     <t xml:space="preserve">7.62974739074707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57679510116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33384037017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42728424072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7247486114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8065128326416</t>
+    <t xml:space="preserve">7.57679462432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33383989334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4272837638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72475004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80651378631592</t>
   </si>
   <si>
     <t xml:space="preserve">7.78081560134888</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78237390518188</t>
+    <t xml:space="preserve">7.78237342834473</t>
   </si>
   <si>
     <t xml:space="preserve">7.73253679275513</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69827270507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61573123931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69983005523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77770137786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79093933105469</t>
+    <t xml:space="preserve">7.69827318191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61573076248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69982957839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77770090103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79093885421753</t>
   </si>
   <si>
     <t xml:space="preserve">7.67802619934082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77147197723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76679944992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66401100158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65778017044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52384281158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57991027832031</t>
+    <t xml:space="preserve">7.77147150039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7667989730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6640100479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65778064727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52384376525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57990980148315</t>
   </si>
   <si>
     <t xml:space="preserve">7.62040328979492</t>
@@ -3689,16 +3689,16 @@
     <t xml:space="preserve">7.74032306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86491632461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98561573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83376789093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04791069030762</t>
+    <t xml:space="preserve">7.86491680145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9856162071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83376836776733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04791164398193</t>
   </si>
   <si>
     <t xml:space="preserve">8.12967491149902</t>
@@ -3707,31 +3707,31 @@
     <t xml:space="preserve">8.20754623413086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10242080688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26205444335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0128698348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95836067199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70450305938721</t>
+    <t xml:space="preserve">8.10242176055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26205539703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01286888122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95836114883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70450258255005</t>
   </si>
   <si>
     <t xml:space="preserve">7.88049030303955</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91553211212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93499994277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04401779174805</t>
+    <t xml:space="preserve">7.91553163528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9350004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04401874542236</t>
   </si>
   <si>
     <t xml:space="preserve">8.09463405609131</t>
@@ -3746,13 +3746,13 @@
     <t xml:space="preserve">8.0323371887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16082286834717</t>
+    <t xml:space="preserve">8.16082382202148</t>
   </si>
   <si>
     <t xml:space="preserve">8.19197273254395</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29709720611572</t>
+    <t xml:space="preserve">8.29709625244141</t>
   </si>
   <si>
     <t xml:space="preserve">8.29320335388184</t>
@@ -3767,43 +3767,46 @@
     <t xml:space="preserve">8.3438196182251</t>
   </si>
   <si>
+    <t xml:space="preserve">8.34771251678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43337059020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44115734100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41390323638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32045936584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27373600006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22312068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43908023834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24637889862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24471569061279</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.34771347045898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43337059020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44115829467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41390419006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32045936584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27373600006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22311973571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4390811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24637794494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24471569061279</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.95898294448853</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07693195343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11513996124268</t>
+    <t xml:space="preserve">8.07693099975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11514091491699</t>
   </si>
   <si>
     <t xml:space="preserve">8.13507461547852</t>
@@ -3824,7 +3827,7 @@
     <t xml:space="preserve">8.39339637756348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35601902008057</t>
+    <t xml:space="preserve">8.35601997375488</t>
   </si>
   <si>
     <t xml:space="preserve">8.33940696716309</t>
@@ -3842,7 +3845,7 @@
     <t xml:space="preserve">8.38093852996826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33525466918945</t>
+    <t xml:space="preserve">8.33525371551514</t>
   </si>
   <si>
     <t xml:space="preserve">8.03207874298096</t>
@@ -3857,7 +3860,7 @@
     <t xml:space="preserve">8.34356021881104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39755058288574</t>
+    <t xml:space="preserve">8.39754962921143</t>
   </si>
   <si>
     <t xml:space="preserve">8.46399974822998</t>
@@ -3872,13 +3875,13 @@
     <t xml:space="preserve">8.63012313842773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6259708404541</t>
+    <t xml:space="preserve">8.62596988677979</t>
   </si>
   <si>
     <t xml:space="preserve">8.61766338348389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68411445617676</t>
+    <t xml:space="preserve">8.68411350250244</t>
   </si>
   <si>
     <t xml:space="preserve">8.79624652862549</t>
@@ -3890,7 +3893,7 @@
     <t xml:space="preserve">8.64673519134521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58028602600098</t>
+    <t xml:space="preserve">8.58028697967529</t>
   </si>
   <si>
     <t xml:space="preserve">8.59689903259277</t>
@@ -3899,13 +3902,13 @@
     <t xml:space="preserve">8.56782627105713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13175201416016</t>
+    <t xml:space="preserve">8.13175296783447</t>
   </si>
   <si>
     <t xml:space="preserve">8.17992782592773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30618286132812</t>
+    <t xml:space="preserve">8.30618190765381</t>
   </si>
   <si>
     <t xml:space="preserve">8.57197952270508</t>
@@ -3914,7 +3917,7 @@
     <t xml:space="preserve">8.65919494628906</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32694721221924</t>
+    <t xml:space="preserve">8.32694816589355</t>
   </si>
   <si>
     <t xml:space="preserve">8.60520458221436</t>
@@ -3926,16 +3929,16 @@
     <t xml:space="preserve">8.76302242279053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69657230377197</t>
+    <t xml:space="preserve">8.69657325744629</t>
   </si>
   <si>
     <t xml:space="preserve">8.44323444366455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62181758880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41831493377686</t>
+    <t xml:space="preserve">8.62181663513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41831588745117</t>
   </si>
   <si>
     <t xml:space="preserve">8.47645854949951</t>
@@ -3950,19 +3953,19 @@
     <t xml:space="preserve">8.19820213317871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76295757293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78621482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74634647369385</t>
+    <t xml:space="preserve">7.76295804977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78621530532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74634552001953</t>
   </si>
   <si>
     <t xml:space="preserve">7.1399941444397</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19149255752563</t>
+    <t xml:space="preserve">7.19149303436279</t>
   </si>
   <si>
     <t xml:space="preserve">7.13833284378052</t>
@@ -3992,25 +3995,25 @@
     <t xml:space="preserve">7.11341428756714</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59185123443604</t>
+    <t xml:space="preserve">7.59185075759888</t>
   </si>
   <si>
     <t xml:space="preserve">7.54865884780884</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71644306182861</t>
+    <t xml:space="preserve">7.71644258499146</t>
   </si>
   <si>
     <t xml:space="preserve">7.5469970703125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6134467124939</t>
+    <t xml:space="preserve">7.61344623565674</t>
   </si>
   <si>
     <t xml:space="preserve">7.49715995788574</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52872371673584</t>
+    <t xml:space="preserve">7.528724193573</t>
   </si>
   <si>
     <t xml:space="preserve">7.71976518630981</t>
@@ -4022,10 +4025,10 @@
     <t xml:space="preserve">7.65829992294312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79950475692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6018180847168</t>
+    <t xml:space="preserve">7.79950523376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60181760787964</t>
   </si>
   <si>
     <t xml:space="preserve">7.45230722427368</t>
@@ -4034,7 +4037,7 @@
     <t xml:space="preserve">7.35927677154541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5121111869812</t>
+    <t xml:space="preserve">7.51211166381836</t>
   </si>
   <si>
     <t xml:space="preserve">7.50214290618896</t>
@@ -4046,13 +4049,13 @@
     <t xml:space="preserve">7.59517335891724</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68321895599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67158985137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87426042556763</t>
+    <t xml:space="preserve">7.68321847915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67159032821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87426090240479</t>
   </si>
   <si>
     <t xml:space="preserve">7.9539999961853</t>
@@ -4061,19 +4064,19 @@
     <t xml:space="preserve">7.66660642623901</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88256645202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88090562820435</t>
+    <t xml:space="preserve">7.88256692886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8809061050415</t>
   </si>
   <si>
     <t xml:space="preserve">7.98390245437622</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4224681854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27295780181885</t>
+    <t xml:space="preserve">8.42246913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27295684814453</t>
   </si>
   <si>
     <t xml:space="preserve">8.01380443572998</t>
@@ -4082,7 +4085,7 @@
     <t xml:space="preserve">7.99054718017578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12178421020508</t>
+    <t xml:space="preserve">8.12178516387939</t>
   </si>
   <si>
     <t xml:space="preserve">8.0603199005127</t>
@@ -4094,16 +4097,16 @@
     <t xml:space="preserve">8.23308753967285</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03374004364014</t>
+    <t xml:space="preserve">8.03373908996582</t>
   </si>
   <si>
     <t xml:space="preserve">7.95067691802979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89087247848511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93904781341553</t>
+    <t xml:space="preserve">7.89087295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93904829025269</t>
   </si>
   <si>
     <t xml:space="preserve">7.75465250015259</t>
@@ -4112,40 +4115,37 @@
     <t xml:space="preserve">7.83937406539917</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9739351272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91413068771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97559595108032</t>
+    <t xml:space="preserve">7.91413021087646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97559547424316</t>
   </si>
   <si>
     <t xml:space="preserve">7.93572568893433</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82608509063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92409753799438</t>
+    <t xml:space="preserve">7.82608461380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92409706115723</t>
   </si>
   <si>
     <t xml:space="preserve">8.04536819458008</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00715923309326</t>
+    <t xml:space="preserve">8.00716018676758</t>
   </si>
   <si>
     <t xml:space="preserve">8.20650768280029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01712703704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.488853931427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37256765365601</t>
+    <t xml:space="preserve">8.01712799072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48885345458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37256717681885</t>
   </si>
   <si>
     <t xml:space="preserve">7.44067859649658</t>
@@ -4163,7 +4163,7 @@
     <t xml:space="preserve">7.13501071929932</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2014594078064</t>
+    <t xml:space="preserve">7.20145988464355</t>
   </si>
   <si>
     <t xml:space="preserve">7.174880027771</t>
@@ -4172,7 +4172,7 @@
     <t xml:space="preserve">7.01374053955078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16657447814941</t>
+    <t xml:space="preserve">7.16657400131226</t>
   </si>
   <si>
     <t xml:space="preserve">7.0120792388916</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">7.09846305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05028676986694</t>
+    <t xml:space="preserve">7.0502872467041</t>
   </si>
   <si>
     <t xml:space="preserve">6.85924530029297</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">6.85426139831543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82103681564331</t>
+    <t xml:space="preserve">6.82103633880615</t>
   </si>
   <si>
     <t xml:space="preserve">6.65491342544556</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75292634963989</t>
+    <t xml:space="preserve">6.75292587280273</t>
   </si>
   <si>
     <t xml:space="preserve">6.89579248428345</t>
@@ -4208,7 +4208,7 @@
     <t xml:space="preserve">6.93067789077759</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84761667251587</t>
+    <t xml:space="preserve">6.84761714935303</t>
   </si>
   <si>
     <t xml:space="preserve">6.78947305679321</t>
@@ -4220,7 +4220,7 @@
     <t xml:space="preserve">6.46553230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62168788909912</t>
+    <t xml:space="preserve">6.62168836593628</t>
   </si>
   <si>
     <t xml:space="preserve">6.76289319992065</t>
@@ -4241,10 +4241,10 @@
     <t xml:space="preserve">6.6632194519043</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78781175613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94396829605103</t>
+    <t xml:space="preserve">6.78781223297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94396781921387</t>
   </si>
   <si>
     <t xml:space="preserve">6.99048280715942</t>
@@ -4265,28 +4265,28 @@
     <t xml:space="preserve">7.10344696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09347915649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11175346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1815242767334</t>
+    <t xml:space="preserve">7.0934796333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11175298690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18152475357056</t>
   </si>
   <si>
     <t xml:space="preserve">7.22970104217529</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23800754547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17820262908936</t>
+    <t xml:space="preserve">7.23800706863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1782021522522</t>
   </si>
   <si>
     <t xml:space="preserve">7.14996147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88416433334351</t>
+    <t xml:space="preserve">6.88416385650635</t>
   </si>
   <si>
     <t xml:space="preserve">6.69976663589478</t>
@@ -4313,7 +4313,7 @@
     <t xml:space="preserve">6.56852865219116</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49045038223267</t>
+    <t xml:space="preserve">6.49045085906982</t>
   </si>
   <si>
     <t xml:space="preserve">6.73797559738159</t>
@@ -4358,7 +4358,7 @@
     <t xml:space="preserve">6.92237186431885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87751865386963</t>
+    <t xml:space="preserve">6.87751817703247</t>
   </si>
   <si>
     <t xml:space="preserve">6.62999439239502</t>
@@ -4367,10 +4367,10 @@
     <t xml:space="preserve">6.5070629119873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44227457046509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32266569137573</t>
+    <t xml:space="preserve">6.44227504730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32266616821289</t>
   </si>
   <si>
     <t xml:space="preserve">6.69478321075439</t>
@@ -4379,22 +4379,22 @@
     <t xml:space="preserve">7.03699779510498</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92071104049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65657424926758</t>
+    <t xml:space="preserve">6.92071056365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65657472610474</t>
   </si>
   <si>
     <t xml:space="preserve">6.6167049407959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60175323486328</t>
+    <t xml:space="preserve">6.60175371170044</t>
   </si>
   <si>
     <t xml:space="preserve">6.51370811462402</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70973443984985</t>
+    <t xml:space="preserve">6.7097339630127</t>
   </si>
   <si>
     <t xml:space="preserve">6.89413166046143</t>
@@ -4412,13 +4412,13 @@
     <t xml:space="preserve">7.31442403793335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32273006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5503191947937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58520555496216</t>
+    <t xml:space="preserve">7.32273054122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55031967163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.585205078125</t>
   </si>
   <si>
     <t xml:space="preserve">7.61842966079712</t>
@@ -4427,19 +4427,19 @@
     <t xml:space="preserve">7.57855987548828</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67823505401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63836479187012</t>
+    <t xml:space="preserve">7.67823457717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63836526870728</t>
   </si>
   <si>
     <t xml:space="preserve">7.80614995956421</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00051403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03872394561768</t>
+    <t xml:space="preserve">8.00051498413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03872299194336</t>
   </si>
   <si>
     <t xml:space="preserve">8.09354400634766</t>
@@ -4451,10 +4451,10 @@
     <t xml:space="preserve">8.26797389984131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45153999328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44526290893555</t>
+    <t xml:space="preserve">8.45154094696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44526386260986</t>
   </si>
   <si>
     <t xml:space="preserve">8.44884967803955</t>
@@ -4472,31 +4472,31 @@
     <t xml:space="preserve">8.29999446868896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26233291625977</t>
+    <t xml:space="preserve">8.26233386993408</t>
   </si>
   <si>
     <t xml:space="preserve">8.21749687194824</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23722457885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26412677764893</t>
+    <t xml:space="preserve">8.23722553253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26412582397461</t>
   </si>
   <si>
     <t xml:space="preserve">8.20673751831055</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15293502807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17804145812988</t>
+    <t xml:space="preserve">8.15293407440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1780424118042</t>
   </si>
   <si>
     <t xml:space="preserve">8.23363876342773</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21570491790771</t>
+    <t xml:space="preserve">8.2157039642334</t>
   </si>
   <si>
     <t xml:space="preserve">8.35021209716797</t>
@@ -4511,22 +4511,22 @@
     <t xml:space="preserve">7.98793888092041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01304721832275</t>
+    <t xml:space="preserve">8.01304626464844</t>
   </si>
   <si>
     <t xml:space="preserve">8.03994750976562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.18342304229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0829906463623</t>
+    <t xml:space="preserve">8.18342208862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08298969268799</t>
   </si>
   <si>
     <t xml:space="preserve">8.09913063049316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10092449188232</t>
+    <t xml:space="preserve">8.10092544555664</t>
   </si>
   <si>
     <t xml:space="preserve">8.04891490936279</t>
@@ -4535,7 +4535,7 @@
     <t xml:space="preserve">8.16548824310303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0560884475708</t>
+    <t xml:space="preserve">8.05608940124512</t>
   </si>
   <si>
     <t xml:space="preserve">8.10989189147949</t>
@@ -4547,16 +4547,16 @@
     <t xml:space="preserve">8.32689762115479</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31255054473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30716896057129</t>
+    <t xml:space="preserve">8.31254959106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30716991424561</t>
   </si>
   <si>
     <t xml:space="preserve">8.38966655731201</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4362964630127</t>
+    <t xml:space="preserve">8.43629550933838</t>
   </si>
   <si>
     <t xml:space="preserve">8.56542301177979</t>
@@ -4568,13 +4568,13 @@
     <t xml:space="preserve">8.66585445404053</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6443338394165</t>
+    <t xml:space="preserve">8.64433479309082</t>
   </si>
   <si>
     <t xml:space="preserve">8.660475730896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56362915039062</t>
+    <t xml:space="preserve">8.56363010406494</t>
   </si>
   <si>
     <t xml:space="preserve">8.46140384674072</t>
@@ -4586,7 +4586,7 @@
     <t xml:space="preserve">8.62998580932617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68378925323486</t>
+    <t xml:space="preserve">8.68379020690918</t>
   </si>
   <si>
     <t xml:space="preserve">8.73579883575439</t>
@@ -4595,19 +4595,19 @@
     <t xml:space="preserve">8.84699153900146</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87927436828613</t>
+    <t xml:space="preserve">8.87927341461182</t>
   </si>
   <si>
     <t xml:space="preserve">8.91155529022217</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83802509307861</t>
+    <t xml:space="preserve">8.8380241394043</t>
   </si>
   <si>
     <t xml:space="preserve">8.94025039672852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96356582641602</t>
+    <t xml:space="preserve">8.9635648727417</t>
   </si>
   <si>
     <t xml:space="preserve">9.00302028656006</t>
@@ -4616,28 +4616,28 @@
     <t xml:space="preserve">9.09717559814453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11959362030029</t>
+    <t xml:space="preserve">9.11959266662598</t>
   </si>
   <si>
     <t xml:space="preserve">9.15097808837891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2899694442749</t>
+    <t xml:space="preserve">9.28996849060059</t>
   </si>
   <si>
     <t xml:space="preserve">9.14649486541748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29893589019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33480453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18684673309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21823120117188</t>
+    <t xml:space="preserve">9.29893684387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33480548858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18684577941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21823215484619</t>
   </si>
   <si>
     <t xml:space="preserve">9.19581413269043</t>
@@ -4649,10 +4649,10 @@
     <t xml:space="preserve">9.07027339935303</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9599781036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9806022644043</t>
+    <t xml:space="preserve">8.95997714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98060321807861</t>
   </si>
   <si>
     <t xml:space="preserve">8.81470966339111</t>
@@ -4664,49 +4664,49 @@
     <t xml:space="preserve">9.05682373046875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94204425811768</t>
+    <t xml:space="preserve">8.94204330444336</t>
   </si>
   <si>
     <t xml:space="preserve">8.93128299713135</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02992057800293</t>
+    <t xml:space="preserve">9.02992153167725</t>
   </si>
   <si>
     <t xml:space="preserve">9.08820819854736</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03440570831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09269142150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97163581848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72145175933838</t>
+    <t xml:space="preserve">9.03440475463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09269237518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97163486480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72145080566406</t>
   </si>
   <si>
     <t xml:space="preserve">8.33048439025879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54031467437744</t>
+    <t xml:space="preserve">8.54031562805176</t>
   </si>
   <si>
     <t xml:space="preserve">8.06146907806396</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03098201751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93592977523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25874614715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14934825897217</t>
+    <t xml:space="preserve">8.03098106384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93592929840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25874710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14934730529785</t>
   </si>
   <si>
     <t xml:space="preserve">8.06505680084229</t>
@@ -4715,7 +4715,7 @@
     <t xml:space="preserve">8.02560043334961</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12244510650635</t>
+    <t xml:space="preserve">8.12244606018066</t>
   </si>
   <si>
     <t xml:space="preserve">8.24798583984375</t>
@@ -4724,16 +4724,16 @@
     <t xml:space="preserve">8.31075572967529</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34124374389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33945083618164</t>
+    <t xml:space="preserve">8.3412446975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33945178985596</t>
   </si>
   <si>
     <t xml:space="preserve">8.26592063903809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46857833862305</t>
+    <t xml:space="preserve">8.46857738494873</t>
   </si>
   <si>
     <t xml:space="preserve">8.46499061584473</t>
@@ -4745,7 +4745,7 @@
     <t xml:space="preserve">8.64253997802734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57080268859863</t>
+    <t xml:space="preserve">8.57080364227295</t>
   </si>
   <si>
     <t xml:space="preserve">8.7429723739624</t>
@@ -4754,7 +4754,7 @@
     <t xml:space="preserve">8.77525520324707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70172500610352</t>
+    <t xml:space="preserve">8.7017240524292</t>
   </si>
   <si>
     <t xml:space="preserve">8.76987361907959</t>
@@ -4763,13 +4763,13 @@
     <t xml:space="preserve">8.72683238983154</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75373363494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82905673980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72503757476807</t>
+    <t xml:space="preserve">8.75373268127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82905769348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72503852844238</t>
   </si>
   <si>
     <t xml:space="preserve">8.42732906341553</t>
@@ -4784,13 +4784,13 @@
     <t xml:space="preserve">8.94921684265137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96715068817139</t>
+    <t xml:space="preserve">8.9671516418457</t>
   </si>
   <si>
     <t xml:space="preserve">8.906174659729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93307590484619</t>
+    <t xml:space="preserve">8.93307685852051</t>
   </si>
   <si>
     <t xml:space="preserve">8.68737602233887</t>
@@ -4805,7 +4805,7 @@
     <t xml:space="preserve">8.81291675567627</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83443832397461</t>
+    <t xml:space="preserve">8.83443737030029</t>
   </si>
   <si>
     <t xml:space="preserve">8.91514205932617</t>
@@ -4820,10 +4820,10 @@
     <t xml:space="preserve">9.32583713531494</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36618900299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26755142211914</t>
+    <t xml:space="preserve">9.36618995666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26755046844482</t>
   </si>
   <si>
     <t xml:space="preserve">9.2630672454834</t>
@@ -4832,7 +4832,7 @@
     <t xml:space="preserve">9.23168277740479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52759838104248</t>
+    <t xml:space="preserve">9.5275993347168</t>
   </si>
   <si>
     <t xml:space="preserve">9.59933567047119</t>
@@ -4853,16 +4853,16 @@
     <t xml:space="preserve">9.81454658508301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91767024993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0252752304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1418485641479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0342426300049</t>
+    <t xml:space="preserve">9.91766929626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.025276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1418495178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0342416763306</t>
   </si>
   <si>
     <t xml:space="preserve">10.0656280517578</t>
@@ -4874,13 +4874,13 @@
     <t xml:space="preserve">9.93560409545898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96698951721191</t>
+    <t xml:space="preserve">9.9669885635376</t>
   </si>
   <si>
     <t xml:space="preserve">9.7697114944458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64865589141846</t>
+    <t xml:space="preserve">9.64865493774414</t>
   </si>
   <si>
     <t xml:space="preserve">9.63072109222412</t>
@@ -4895,7 +4895,7 @@
     <t xml:space="preserve">9.82799816131592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98043918609619</t>
+    <t xml:space="preserve">9.98044013977051</t>
   </si>
   <si>
     <t xml:space="preserve">9.98940753936768</t>
@@ -4910,13 +4910,13 @@
     <t xml:space="preserve">9.87731742858887</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88628482818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0701112747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1328811645508</t>
+    <t xml:space="preserve">9.88628387451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0701103210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1328821182251</t>
   </si>
   <si>
     <t xml:space="preserve">10.1239137649536</t>
@@ -4928,7 +4928,7 @@
     <t xml:space="preserve">10.3032569885254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2584209442139</t>
+    <t xml:space="preserve">10.2584218978882</t>
   </si>
   <si>
     <t xml:space="preserve">10.3301591873169</t>
@@ -4940,10 +4940,10 @@
     <t xml:space="preserve">10.3570604324341</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3660268783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3391256332397</t>
+    <t xml:space="preserve">10.3660278320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3391246795654</t>
   </si>
   <si>
     <t xml:space="preserve">10.7202291488647</t>
@@ -4958,10 +4958,10 @@
     <t xml:space="preserve">10.630558013916</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6215906143188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.612624168396</t>
+    <t xml:space="preserve">10.6215915679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6126232147217</t>
   </si>
   <si>
     <t xml:space="preserve">10.6574602127075</t>
@@ -4970,10 +4970,10 @@
     <t xml:space="preserve">10.3929290771484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5005350112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5274353027344</t>
+    <t xml:space="preserve">10.5005340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5274362564087</t>
   </si>
   <si>
     <t xml:space="preserve">10.5050182342529</t>
@@ -4982,22 +4982,22 @@
     <t xml:space="preserve">10.6036567687988</t>
   </si>
   <si>
-    <t xml:space="preserve">10.545371055603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.45569896698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4287967681885</t>
+    <t xml:space="preserve">10.5453701019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4556980133057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4287977218628</t>
   </si>
   <si>
     <t xml:space="preserve">10.49156665802</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6484928131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5991725921631</t>
+    <t xml:space="preserve">10.648491859436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5991735458374</t>
   </si>
   <si>
     <t xml:space="preserve">10.5857229232788</t>
@@ -5009,31 +5009,31 @@
     <t xml:space="preserve">10.854736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8861227035522</t>
+    <t xml:space="preserve">10.8861217498779</t>
   </si>
   <si>
     <t xml:space="preserve">10.8233518600464</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8278350830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8323183059692</t>
+    <t xml:space="preserve">10.8278360366821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8323192596436</t>
   </si>
   <si>
     <t xml:space="preserve">10.9130229949951</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7829990386963</t>
+    <t xml:space="preserve">10.7829999923706</t>
   </si>
   <si>
     <t xml:space="preserve">10.8906059265137</t>
   </si>
   <si>
-    <t xml:space="preserve">10.818868637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9085397720337</t>
+    <t xml:space="preserve">10.8188676834106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.908540725708</t>
   </si>
   <si>
     <t xml:space="preserve">10.9175071716309</t>
@@ -5051,7 +5051,7 @@
     <t xml:space="preserve">10.8816385269165</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0295972824097</t>
+    <t xml:space="preserve">11.0295963287354</t>
   </si>
   <si>
     <t xml:space="preserve">11.1237516403198</t>
@@ -5060,40 +5060,40 @@
     <t xml:space="preserve">11.0340805053711</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9399242401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9892444610596</t>
+    <t xml:space="preserve">10.9399251937866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9892435073853</t>
   </si>
   <si>
     <t xml:space="preserve">11.1013336181641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1416864395142</t>
+    <t xml:space="preserve">11.1416854858398</t>
   </si>
   <si>
     <t xml:space="preserve">11.1775550842285</t>
   </si>
   <si>
-    <t xml:space="preserve">11.23583984375</t>
+    <t xml:space="preserve">11.2358407974243</t>
   </si>
   <si>
     <t xml:space="preserve">11.0968503952026</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0206289291382</t>
+    <t xml:space="preserve">11.0206298828125</t>
   </si>
   <si>
     <t xml:space="preserve">10.9713096618652</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8950881958008</t>
+    <t xml:space="preserve">10.8950891494751</t>
   </si>
   <si>
     <t xml:space="preserve">10.8143854141235</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9219913482666</t>
+    <t xml:space="preserve">10.9219903945923</t>
   </si>
   <si>
     <t xml:space="preserve">10.9309577941895</t>
@@ -5105,7 +5105,7 @@
     <t xml:space="preserve">10.8592205047607</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8412866592407</t>
+    <t xml:space="preserve">10.8412857055664</t>
   </si>
   <si>
     <t xml:space="preserve">10.6171073913574</t>
@@ -5120,7 +5120,7 @@
     <t xml:space="preserve">10.0073413848877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8683500289917</t>
+    <t xml:space="preserve">9.86835098266602</t>
   </si>
   <si>
     <t xml:space="preserve">9.57691764831543</t>
@@ -5135,19 +5135,19 @@
     <t xml:space="preserve">10.2315196990967</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3077411651611</t>
+    <t xml:space="preserve">10.3077402114868</t>
   </si>
   <si>
     <t xml:space="preserve">10.3122243881226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3256750106812</t>
+    <t xml:space="preserve">10.3256759643555</t>
   </si>
   <si>
     <t xml:space="preserve">10.2853231430054</t>
   </si>
   <si>
-    <t xml:space="preserve">10.334641456604</t>
+    <t xml:space="preserve">10.3346424102783</t>
   </si>
   <si>
     <t xml:space="preserve">10.3480930328369</t>
@@ -5541,6 +5541,9 @@
   </si>
   <si>
     <t xml:space="preserve">13.6199998855591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6899995803833</t>
   </si>
 </sst>
 </file>
@@ -44926,7 +44929,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G1502" t="s">
-        <v>1251</v>
+        <v>1261</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -44952,7 +44955,7 @@
         <v>9.58199977874756</v>
       </c>
       <c r="G1503" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -44978,7 +44981,7 @@
         <v>9.72399997711182</v>
       </c>
       <c r="G1504" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -45004,7 +45007,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1505" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -45030,7 +45033,7 @@
         <v>9.79399967193604</v>
       </c>
       <c r="G1506" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -45056,7 +45059,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1507" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -45082,7 +45085,7 @@
         <v>9.80599975585938</v>
       </c>
       <c r="G1508" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -45108,7 +45111,7 @@
         <v>10.0150003433228</v>
       </c>
       <c r="G1509" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -45134,7 +45137,7 @@
         <v>10.2150001525879</v>
       </c>
       <c r="G1510" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -45160,7 +45163,7 @@
         <v>10.1049995422363</v>
       </c>
       <c r="G1511" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -45186,7 +45189,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1512" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -45212,7 +45215,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1513" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -45238,7 +45241,7 @@
         <v>9.91800022125244</v>
       </c>
       <c r="G1514" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -45264,7 +45267,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1515" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -45290,7 +45293,7 @@
         <v>9.97799968719482</v>
       </c>
       <c r="G1516" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -45316,7 +45319,7 @@
         <v>10.0900001525879</v>
       </c>
       <c r="G1517" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -45342,7 +45345,7 @@
         <v>10.0349998474121</v>
       </c>
       <c r="G1518" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -45368,7 +45371,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G1519" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -45394,7 +45397,7 @@
         <v>9.83399963378906</v>
       </c>
       <c r="G1520" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -45420,7 +45423,7 @@
         <v>9.91800022125244</v>
       </c>
       <c r="G1521" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -45446,7 +45449,7 @@
         <v>9.88599967956543</v>
       </c>
       <c r="G1522" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -45498,7 +45501,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1524" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -45524,7 +45527,7 @@
         <v>10.0450000762939</v>
       </c>
       <c r="G1525" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -45550,7 +45553,7 @@
         <v>10.1099996566772</v>
       </c>
       <c r="G1526" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -45576,7 +45579,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G1527" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -45602,7 +45605,7 @@
         <v>10.3950004577637</v>
       </c>
       <c r="G1528" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -45628,7 +45631,7 @@
         <v>10.414999961853</v>
       </c>
       <c r="G1529" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -45654,7 +45657,7 @@
         <v>10.3900003433228</v>
       </c>
       <c r="G1530" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -45680,7 +45683,7 @@
         <v>10.3850002288818</v>
       </c>
       <c r="G1531" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -45706,7 +45709,7 @@
         <v>10.375</v>
       </c>
       <c r="G1532" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -45732,7 +45735,7 @@
         <v>10.4549999237061</v>
       </c>
       <c r="G1533" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -45758,7 +45761,7 @@
         <v>10.5900001525879</v>
       </c>
       <c r="G1534" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -45784,7 +45787,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G1535" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -45810,7 +45813,7 @@
         <v>10.3850002288818</v>
       </c>
       <c r="G1536" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -45836,7 +45839,7 @@
         <v>10.4099998474121</v>
       </c>
       <c r="G1537" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -45862,7 +45865,7 @@
         <v>10.3299999237061</v>
       </c>
       <c r="G1538" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -45888,7 +45891,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G1539" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -45914,7 +45917,7 @@
         <v>10.3149995803833</v>
       </c>
       <c r="G1540" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -45940,7 +45943,7 @@
         <v>10.1099996566772</v>
       </c>
       <c r="G1541" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -45966,7 +45969,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G1542" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -45992,7 +45995,7 @@
         <v>9.72399997711182</v>
       </c>
       <c r="G1543" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -46018,7 +46021,7 @@
         <v>9.84799957275391</v>
       </c>
       <c r="G1544" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -46044,7 +46047,7 @@
         <v>10</v>
       </c>
       <c r="G1545" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -46070,7 +46073,7 @@
         <v>10.0349998474121</v>
       </c>
       <c r="G1546" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -46096,7 +46099,7 @@
         <v>10.1099996566772</v>
       </c>
       <c r="G1547" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -46122,7 +46125,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1548" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -46148,7 +46151,7 @@
         <v>10.4250001907349</v>
       </c>
       <c r="G1549" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -46174,7 +46177,7 @@
         <v>10.3149995803833</v>
       </c>
       <c r="G1550" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -46200,7 +46203,7 @@
         <v>10.0249996185303</v>
       </c>
       <c r="G1551" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -46226,7 +46229,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1552" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -46252,7 +46255,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1553" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -46278,7 +46281,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G1554" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -46304,7 +46307,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G1555" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -46330,7 +46333,7 @@
         <v>10.4700002670288</v>
       </c>
       <c r="G1556" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -46356,7 +46359,7 @@
         <v>10.164999961853</v>
       </c>
       <c r="G1557" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -46382,7 +46385,7 @@
         <v>10.3950004577637</v>
       </c>
       <c r="G1558" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -46408,7 +46411,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G1559" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -46434,7 +46437,7 @@
         <v>10.1350002288818</v>
       </c>
       <c r="G1560" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -46460,7 +46463,7 @@
         <v>10.2049999237061</v>
       </c>
       <c r="G1561" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -46486,7 +46489,7 @@
         <v>9.99600028991699</v>
       </c>
       <c r="G1562" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -46512,7 +46515,7 @@
         <v>9.86400032043457</v>
       </c>
       <c r="G1563" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -46538,7 +46541,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G1564" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -46564,7 +46567,7 @@
         <v>9.3459997177124</v>
       </c>
       <c r="G1565" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -46590,7 +46593,7 @@
         <v>9.37399959564209</v>
       </c>
       <c r="G1566" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -46616,7 +46619,7 @@
         <v>9.32600021362305</v>
       </c>
       <c r="G1567" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -46642,7 +46645,7 @@
         <v>8.5959997177124</v>
       </c>
       <c r="G1568" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -46668,7 +46671,7 @@
         <v>8.65799999237061</v>
       </c>
       <c r="G1569" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -46694,7 +46697,7 @@
         <v>8.5939998626709</v>
       </c>
       <c r="G1570" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -46720,7 +46723,7 @@
         <v>7.87200021743774</v>
       </c>
       <c r="G1571" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -46746,7 +46749,7 @@
         <v>7.65399980545044</v>
       </c>
       <c r="G1572" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -46772,7 +46775,7 @@
         <v>7.82399988174438</v>
       </c>
       <c r="G1573" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -46798,7 +46801,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1574" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -46824,7 +46827,7 @@
         <v>8.12399959564209</v>
       </c>
       <c r="G1575" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -46850,7 +46853,7 @@
         <v>8.16399955749512</v>
       </c>
       <c r="G1576" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -46876,7 +46879,7 @@
         <v>8.5</v>
       </c>
       <c r="G1577" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -46902,7 +46905,7 @@
         <v>8.56400012969971</v>
       </c>
       <c r="G1578" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -46928,7 +46931,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G1579" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -46954,7 +46957,7 @@
         <v>9.08800029754639</v>
       </c>
       <c r="G1580" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -46980,7 +46983,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1581" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -47006,7 +47009,7 @@
         <v>9.08600044250488</v>
       </c>
       <c r="G1582" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -47032,7 +47035,7 @@
         <v>9.16600036621094</v>
       </c>
       <c r="G1583" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -47058,7 +47061,7 @@
         <v>9.02600002288818</v>
       </c>
       <c r="G1584" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -47084,7 +47087,7 @@
         <v>9.08600044250488</v>
       </c>
       <c r="G1585" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -47110,7 +47113,7 @@
         <v>9.06400012969971</v>
       </c>
       <c r="G1586" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -47136,7 +47139,7 @@
         <v>9.08800029754639</v>
       </c>
       <c r="G1587" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -47162,7 +47165,7 @@
         <v>9.29399967193604</v>
       </c>
       <c r="G1588" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -47188,7 +47191,7 @@
         <v>9.13599967956543</v>
       </c>
       <c r="G1589" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -47214,7 +47217,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G1590" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -47240,7 +47243,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G1591" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -47266,7 +47269,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1592" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -47292,7 +47295,7 @@
         <v>9.15200042724609</v>
       </c>
       <c r="G1593" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -47318,7 +47321,7 @@
         <v>8.97200012207031</v>
       </c>
       <c r="G1594" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -47344,7 +47347,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1595" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -47370,7 +47373,7 @@
         <v>9.04399967193604</v>
       </c>
       <c r="G1596" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -47396,7 +47399,7 @@
         <v>9.0319995880127</v>
       </c>
       <c r="G1597" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -47422,7 +47425,7 @@
         <v>8.93400001525879</v>
       </c>
       <c r="G1598" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -47448,7 +47451,7 @@
         <v>9.14400005340576</v>
       </c>
       <c r="G1599" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -47474,7 +47477,7 @@
         <v>9.25</v>
       </c>
       <c r="G1600" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -47500,7 +47503,7 @@
         <v>9.23600006103516</v>
       </c>
       <c r="G1601" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -47526,7 +47529,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G1602" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -47552,7 +47555,7 @@
         <v>9.57600021362305</v>
       </c>
       <c r="G1603" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -47578,7 +47581,7 @@
         <v>9.3459997177124</v>
       </c>
       <c r="G1604" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -47604,7 +47607,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1605" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -47656,7 +47659,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1607" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -47682,7 +47685,7 @@
         <v>9.48799991607666</v>
       </c>
       <c r="G1608" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -47708,7 +47711,7 @@
         <v>9.61200046539307</v>
       </c>
       <c r="G1609" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -47734,7 +47737,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1610" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -47760,7 +47763,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1611" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -47786,7 +47789,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1612" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -47812,7 +47815,7 @@
         <v>10</v>
       </c>
       <c r="G1613" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -47838,7 +47841,7 @@
         <v>9.64799976348877</v>
       </c>
       <c r="G1614" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -47864,7 +47867,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G1615" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -47890,7 +47893,7 @@
         <v>9.77799987792969</v>
       </c>
       <c r="G1616" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -47916,7 +47919,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1617" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -47942,7 +47945,7 @@
         <v>9.70400047302246</v>
       </c>
       <c r="G1618" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -47968,7 +47971,7 @@
         <v>9.92399978637695</v>
       </c>
       <c r="G1619" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -48020,7 +48023,7 @@
         <v>9.91199970245361</v>
       </c>
       <c r="G1621" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -48046,7 +48049,7 @@
         <v>9.67199993133545</v>
       </c>
       <c r="G1622" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -48072,7 +48075,7 @@
         <v>9.57199954986572</v>
       </c>
       <c r="G1623" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -48098,7 +48101,7 @@
         <v>9.5</v>
       </c>
       <c r="G1624" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -48124,7 +48127,7 @@
         <v>9.55799961090088</v>
       </c>
       <c r="G1625" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -48150,7 +48153,7 @@
         <v>9.33600044250488</v>
       </c>
       <c r="G1626" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -48176,7 +48179,7 @@
         <v>9.4379997253418</v>
       </c>
       <c r="G1627" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -48202,7 +48205,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1628" t="s">
-        <v>1366</v>
+        <v>827</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -48358,7 +48361,7 @@
         <v>9.5</v>
       </c>
       <c r="G1634" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -50906,7 +50909,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1732" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -51348,7 +51351,7 @@
         <v>9.97799968719482</v>
       </c>
       <c r="G1749" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -51374,7 +51377,7 @@
         <v>10.0900001525879</v>
       </c>
       <c r="G1750" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -51400,7 +51403,7 @@
         <v>10.0349998474121</v>
       </c>
       <c r="G1751" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -51426,7 +51429,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G1752" t="s">
-        <v>1251</v>
+        <v>1261</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -61834,7 +61837,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6494328704</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>1594339</v>
@@ -61855,6 +61858,32 @@
         <v>1842</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6494675926</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>1798381</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>13.710000038147</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>13.5150003433228</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>13.6999998092651</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>13.6899995803833</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54330158233643</t>
+    <t xml:space="preserve">5.54330253601074</t>
   </si>
   <si>
     <t xml:space="preserve">MB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53684902191162</t>
+    <t xml:space="preserve">5.53684854507446</t>
   </si>
   <si>
     <t xml:space="preserve">5.39810514450073</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29485464096069</t>
+    <t xml:space="preserve">5.29485368728638</t>
   </si>
   <si>
     <t xml:space="preserve">5.16579008102417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13675022125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25936079025269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31744003295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2529091835022</t>
+    <t xml:space="preserve">5.13674974441528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25936126708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31744050979614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25290822982788</t>
   </si>
   <si>
     <t xml:space="preserve">5.05285882949829</t>
@@ -80,67 +80,67 @@
     <t xml:space="preserve">4.71406507492065</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97541999816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99155330657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83022308349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90766191482544</t>
+    <t xml:space="preserve">4.9754204750061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99155378341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.83022356033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90766143798828</t>
   </si>
   <si>
     <t xml:space="preserve">4.83344984054565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56886863708496</t>
+    <t xml:space="preserve">4.5688681602478</t>
   </si>
   <si>
     <t xml:space="preserve">4.75278472900391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60436058044434</t>
+    <t xml:space="preserve">4.60436153411865</t>
   </si>
   <si>
     <t xml:space="preserve">4.47852373123169</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2752480506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36881923675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25911474227905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86224293708801</t>
+    <t xml:space="preserve">4.27524757385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36881875991821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25911426544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86224269866943</t>
   </si>
   <si>
     <t xml:space="preserve">3.64606022834778</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92032098770142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71381902694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78480386734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89450836181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93000102043152</t>
+    <t xml:space="preserve">3.92032122612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71381878852844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78480434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89450883865356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93000173568726</t>
   </si>
   <si>
     <t xml:space="preserve">4.00421285629272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88805556297302</t>
+    <t xml:space="preserve">3.88805508613586</t>
   </si>
   <si>
     <t xml:space="preserve">3.85578918457031</t>
@@ -149,13 +149,13 @@
     <t xml:space="preserve">4.01066637039185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91064143180847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86869621276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92354798316956</t>
+    <t xml:space="preserve">3.91064167022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86869525909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92354846000671</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357292175293</t>
@@ -167,13 +167,13 @@
     <t xml:space="preserve">4.20426225662231</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36559247970581</t>
+    <t xml:space="preserve">4.36559295654297</t>
   </si>
   <si>
     <t xml:space="preserve">4.3817253112793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29783344268799</t>
+    <t xml:space="preserve">4.29783391952515</t>
   </si>
   <si>
     <t xml:space="preserve">4.17522287368774</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">4.24298143386841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30751371383667</t>
+    <t xml:space="preserve">4.30751419067383</t>
   </si>
   <si>
     <t xml:space="preserve">4.68179988861084</t>
@@ -197,43 +197,43 @@
     <t xml:space="preserve">4.57209491729736</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59145498275757</t>
+    <t xml:space="preserve">4.59145402908325</t>
   </si>
   <si>
     <t xml:space="preserve">4.31074047088623</t>
   </si>
   <si>
-    <t xml:space="preserve">4.34945964813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37204551696777</t>
+    <t xml:space="preserve">4.34945869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37204599380493</t>
   </si>
   <si>
     <t xml:space="preserve">4.29138088226318</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26234149932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14295673370361</t>
+    <t xml:space="preserve">4.26234197616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14295721054077</t>
   </si>
   <si>
     <t xml:space="preserve">4.16876983642578</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08487844467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0493860244751</t>
+    <t xml:space="preserve">4.08487796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04938554763794</t>
   </si>
   <si>
     <t xml:space="preserve">4.09133148193359</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01389217376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0526123046875</t>
+    <t xml:space="preserve">4.01389312744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05261278152466</t>
   </si>
   <si>
     <t xml:space="preserve">3.84933614730835</t>
@@ -245,55 +245,55 @@
     <t xml:space="preserve">4.11714458465576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03002595901489</t>
+    <t xml:space="preserve">4.03002548217773</t>
   </si>
   <si>
     <t xml:space="preserve">4.23975515365601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31719398498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24620819091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51724243164062</t>
+    <t xml:space="preserve">4.31719350814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24620866775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51724290847778</t>
   </si>
   <si>
     <t xml:space="preserve">4.52046918869019</t>
   </si>
   <si>
-    <t xml:space="preserve">4.66566705703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68502616882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69470643997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6301736831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49788284301758</t>
+    <t xml:space="preserve">4.6656665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6850266456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69470548629761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63017416000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49788331985474</t>
   </si>
   <si>
     <t xml:space="preserve">4.32687330245972</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14941072463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1139178276062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06229257583618</t>
+    <t xml:space="preserve">4.14941024780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11391735076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06229209899902</t>
   </si>
   <si>
     <t xml:space="preserve">4.13327741622925</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16231679916382</t>
+    <t xml:space="preserve">4.1623158454895</t>
   </si>
   <si>
     <t xml:space="preserve">4.20103597640991</t>
@@ -305,10 +305,10 @@
     <t xml:space="preserve">4.17199659347534</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24943494796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28815364837646</t>
+    <t xml:space="preserve">4.24943542480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28815412521362</t>
   </si>
   <si>
     <t xml:space="preserve">4.5043363571167</t>
@@ -317,79 +317,79 @@
     <t xml:space="preserve">4.60758781433105</t>
   </si>
   <si>
-    <t xml:space="preserve">4.59790849685669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65276002883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63985443115234</t>
+    <t xml:space="preserve">4.59790754318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.65276050567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63985395431519</t>
   </si>
   <si>
     <t xml:space="preserve">4.41399192810059</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38495206832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27202129364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25588750839233</t>
+    <t xml:space="preserve">4.3849515914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27202081680298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25588798522949</t>
   </si>
   <si>
     <t xml:space="preserve">4.18167638778687</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95258784294128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75899147987366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61702084541321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.717045545578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7041392326355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85256338119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06551933288574</t>
+    <t xml:space="preserve">3.95258688926697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75899124145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61702132225037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71704530715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70413899421692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85256290435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06551837921143</t>
   </si>
   <si>
     <t xml:space="preserve">4.12037086486816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09455823898315</t>
+    <t xml:space="preserve">4.094557762146</t>
   </si>
   <si>
     <t xml:space="preserve">3.42665147781372</t>
   </si>
   <si>
-    <t xml:space="preserve">2.9891242980957</t>
+    <t xml:space="preserve">2.98912405967712</t>
   </si>
   <si>
     <t xml:space="preserve">3.16207003593445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27177453041077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.32662725448608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.35889267921448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21756744384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11431622505188</t>
+    <t xml:space="preserve">3.27177476882935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.32662653923035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.35889291763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21756768226624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11431670188904</t>
   </si>
   <si>
     <t xml:space="preserve">3.04074954986572</t>
@@ -401,22 +401,22 @@
     <t xml:space="preserve">3.41374492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67832589149475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7073655128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82029676437378</t>
+    <t xml:space="preserve">3.67832612991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70736527442932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8202965259552</t>
   </si>
   <si>
     <t xml:space="preserve">3.7654447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8299765586853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79448390007019</t>
+    <t xml:space="preserve">3.82997703552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79448437690735</t>
   </si>
   <si>
     <t xml:space="preserve">3.83965611457825</t>
@@ -425,28 +425,28 @@
     <t xml:space="preserve">3.83320307731628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86546921730042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77512431144714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90741467475891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901618003845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04293203353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96549415588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63960766792297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65251350402832</t>
+    <t xml:space="preserve">3.86546945571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77512407302856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90741515159607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04293251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96549344062805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63960671424866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65251326560974</t>
   </si>
   <si>
     <t xml:space="preserve">3.97194695472717</t>
@@ -455,28 +455,28 @@
     <t xml:space="preserve">4.23652839660645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20748901367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16554307937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17845010757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11069059371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07519817352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05906534194946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94613337516785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98162698745728</t>
+    <t xml:space="preserve">4.20748853683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16554355621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1784496307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11069107055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07519865036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05906629562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94613409042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9816267490387</t>
   </si>
   <si>
     <t xml:space="preserve">4.19135618209839</t>
@@ -485,13 +485,13 @@
     <t xml:space="preserve">4.15909004211426</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22039556503296</t>
+    <t xml:space="preserve">4.2203950881958</t>
   </si>
   <si>
     <t xml:space="preserve">4.32364654541016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42367124557495</t>
+    <t xml:space="preserve">4.42367219924927</t>
   </si>
   <si>
     <t xml:space="preserve">4.35591268539429</t>
@@ -500,40 +500,40 @@
     <t xml:space="preserve">4.47529697418213</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43657779693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33332681655884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98485374450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04615879058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93645477294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02679920196533</t>
+    <t xml:space="preserve">4.43657827377319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33332633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98485350608826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04615926742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93645405769348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02679967880249</t>
   </si>
   <si>
     <t xml:space="preserve">4.03325223922729</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73317837715149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78157734870911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71059203147888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73640465736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72672557830811</t>
+    <t xml:space="preserve">3.73317933082581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78157782554626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71059226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73640489578247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72672605514526</t>
   </si>
   <si>
     <t xml:space="preserve">3.72995185852051</t>
@@ -542,16 +542,16 @@
     <t xml:space="preserve">3.93322777748108</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0364785194397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90096211433411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9977605342865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13650417327881</t>
+    <t xml:space="preserve">4.03647947311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90096139907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99776005744934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13650369644165</t>
   </si>
   <si>
     <t xml:space="preserve">4.26556777954102</t>
@@ -563,25 +563,25 @@
     <t xml:space="preserve">4.4398045539856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5236964225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33655261993408</t>
+    <t xml:space="preserve">4.52369594573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33655309677124</t>
   </si>
   <si>
     <t xml:space="preserve">4.10423803329468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28170108795166</t>
+    <t xml:space="preserve">4.28170156478882</t>
   </si>
   <si>
     <t xml:space="preserve">4.42689800262451</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42044448852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.54305553436279</t>
+    <t xml:space="preserve">4.42044496536255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.54305601119995</t>
   </si>
   <si>
     <t xml:space="preserve">4.55918836593628</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">4.49143028259277</t>
   </si>
   <si>
-    <t xml:space="preserve">4.39140605926514</t>
+    <t xml:space="preserve">4.39140510559082</t>
   </si>
   <si>
     <t xml:space="preserve">4.213942527771</t>
@@ -599,13 +599,13 @@
     <t xml:space="preserve">4.26442861557007</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33847570419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27452564239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23077058792114</t>
+    <t xml:space="preserve">4.33847618103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27452611923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2307710647583</t>
   </si>
   <si>
     <t xml:space="preserve">4.17355298995972</t>
@@ -614,25 +614,25 @@
     <t xml:space="preserve">4.05238580703735</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22404003143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38223075866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52022743225098</t>
+    <t xml:space="preserve">4.22403955459595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38223123550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52022790908813</t>
   </si>
   <si>
     <t xml:space="preserve">4.52695798873901</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3351092338562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.76592826843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99480009078979</t>
+    <t xml:space="preserve">4.33511066436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.76592779159546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99480056762695</t>
   </si>
   <si>
     <t xml:space="preserve">5.13279676437378</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">5.06884765625</t>
   </si>
   <si>
-    <t xml:space="preserve">5.11596870422363</t>
+    <t xml:space="preserve">5.11596822738647</t>
   </si>
   <si>
     <t xml:space="preserve">5.28762245178223</t>
@@ -656,13 +656,13 @@
     <t xml:space="preserve">5.22703886032104</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25059938430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32801151275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29098844528198</t>
+    <t xml:space="preserve">5.25059843063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32801198959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29098796844482</t>
   </si>
   <si>
     <t xml:space="preserve">5.27415990829468</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">5.48620223999023</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51985931396484</t>
+    <t xml:space="preserve">5.51986026763916</t>
   </si>
   <si>
     <t xml:space="preserve">5.4929347038269</t>
@@ -701,19 +701,19 @@
     <t xml:space="preserve">5.26406192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32128047943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31791496276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19338083267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40205812454224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38186359405518</t>
+    <t xml:space="preserve">5.32127952575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3179144859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.19338130950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40205907821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38186407089233</t>
   </si>
   <si>
     <t xml:space="preserve">5.34484052658081</t>
@@ -728,28 +728,28 @@
     <t xml:space="preserve">5.43234968185425</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73527002334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91365432739258</t>
+    <t xml:space="preserve">5.73527050018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91365528106689</t>
   </si>
   <si>
     <t xml:space="preserve">5.72517251968384</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65449142456055</t>
+    <t xml:space="preserve">5.65449094772339</t>
   </si>
   <si>
     <t xml:space="preserve">5.50303173065186</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35493803024292</t>
+    <t xml:space="preserve">5.35493755340576</t>
   </si>
   <si>
     <t xml:space="preserve">5.48283767700195</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2573299407959</t>
+    <t xml:space="preserve">5.25733041763306</t>
   </si>
   <si>
     <t xml:space="preserve">5.14626026153564</t>
@@ -770,13 +770,13 @@
     <t xml:space="preserve">5.49629974365234</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46600818634033</t>
+    <t xml:space="preserve">5.46600770950317</t>
   </si>
   <si>
     <t xml:space="preserve">5.4155216217041</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36503505706787</t>
+    <t xml:space="preserve">5.36503410339355</t>
   </si>
   <si>
     <t xml:space="preserve">5.31118249893188</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">5.01162958145142</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04865264892578</t>
+    <t xml:space="preserve">5.04865312576294</t>
   </si>
   <si>
     <t xml:space="preserve">5.09240770339966</t>
@@ -797,25 +797,25 @@
     <t xml:space="preserve">5.28425693511963</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33474397659302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52322673797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57034683227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58044481277466</t>
+    <t xml:space="preserve">5.33474349975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52322578430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57034730911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58044385910034</t>
   </si>
   <si>
     <t xml:space="preserve">5.6612229347229</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60400485992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59054183959961</t>
+    <t xml:space="preserve">5.60400438308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59054231643677</t>
   </si>
   <si>
     <t xml:space="preserve">5.60737037658691</t>
@@ -824,10 +824,10 @@
     <t xml:space="preserve">5.61746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6847825050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69824647903442</t>
+    <t xml:space="preserve">5.68478298187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69824600219727</t>
   </si>
   <si>
     <t xml:space="preserve">5.63766241073608</t>
@@ -857,67 +857,67 @@
     <t xml:space="preserve">5.59390735626221</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47947216033936</t>
+    <t xml:space="preserve">5.47947120666504</t>
   </si>
   <si>
     <t xml:space="preserve">5.42561912536621</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17991781234741</t>
+    <t xml:space="preserve">5.17991733551025</t>
   </si>
   <si>
     <t xml:space="preserve">5.7487325668335</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83624315261841</t>
+    <t xml:space="preserve">5.83624219894409</t>
   </si>
   <si>
     <t xml:space="preserve">5.75546455383301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71844100952148</t>
+    <t xml:space="preserve">5.71844053268433</t>
   </si>
   <si>
     <t xml:space="preserve">5.94058132171631</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95741033554077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97760534286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09540748596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17955112457275</t>
+    <t xml:space="preserve">5.95741081237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97760486602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0954065322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17955160140991</t>
   </si>
   <si>
     <t xml:space="preserve">6.14252758026123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12569952011108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10887002944946</t>
+    <t xml:space="preserve">6.12569904327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10887050628662</t>
   </si>
   <si>
     <t xml:space="preserve">6.18628215789795</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15262603759766</t>
+    <t xml:space="preserve">6.1526255607605</t>
   </si>
   <si>
     <t xml:space="preserve">6.17618560791016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00453090667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02472543716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521200180054</t>
+    <t xml:space="preserve">6.00453186035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02472496032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0752124786377</t>
   </si>
   <si>
     <t xml:space="preserve">6.11896753311157</t>
@@ -929,19 +929,19 @@
     <t xml:space="preserve">6.12906408309937</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10213756561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01126289367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82277965545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68141746520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70497751235962</t>
+    <t xml:space="preserve">6.10213804244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01126337051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82277917861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6814169883728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70497798919678</t>
   </si>
   <si>
     <t xml:space="preserve">5.61073637008667</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">5.72853851318359</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78238964080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76219606399536</t>
+    <t xml:space="preserve">5.78239059448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7621955871582</t>
   </si>
   <si>
     <t xml:space="preserve">5.8194146156311</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">5.65112543106079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56361532211304</t>
+    <t xml:space="preserve">5.5636157989502</t>
   </si>
   <si>
     <t xml:space="preserve">5.72180652618408</t>
@@ -983,13 +983,13 @@
     <t xml:space="preserve">5.85307121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83960819244385</t>
+    <t xml:space="preserve">5.83960866928101</t>
   </si>
   <si>
     <t xml:space="preserve">5.81604814529419</t>
   </si>
   <si>
-    <t xml:space="preserve">5.923752784729</t>
+    <t xml:space="preserve">5.92375230789185</t>
   </si>
   <si>
     <t xml:space="preserve">5.97423934936523</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">5.90019273757935</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93721580505371</t>
+    <t xml:space="preserve">5.93721532821655</t>
   </si>
   <si>
     <t xml:space="preserve">5.97087287902832</t>
@@ -1007,13 +1007,13 @@
     <t xml:space="preserve">6.04491996765137</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10550451278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05838394165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06174898147583</t>
+    <t xml:space="preserve">6.10550355911255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05838298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06174945831299</t>
   </si>
   <si>
     <t xml:space="preserve">5.86316919326782</t>
@@ -1025,52 +1025,52 @@
     <t xml:space="preserve">5.94731283187866</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98770236968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96077585220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93385076522827</t>
+    <t xml:space="preserve">5.9877028465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96077632904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93384981155396</t>
   </si>
   <si>
     <t xml:space="preserve">5.92038679122925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0651159286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05501794815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99106788635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85643768310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9102897644043</t>
+    <t xml:space="preserve">6.06511497497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05501842498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99106693267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85643720626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91028928756714</t>
   </si>
   <si>
     <t xml:space="preserve">5.90355825424194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84634017944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74536752700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80258464813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69151401519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87326574325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94394731521606</t>
+    <t xml:space="preserve">5.84634065628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7453670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80258512496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69151449203491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87326622009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94394779205322</t>
   </si>
   <si>
     <t xml:space="preserve">5.87999725341797</t>
@@ -1082,13 +1082,13 @@
     <t xml:space="preserve">5.96414184570312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05165243148804</t>
+    <t xml:space="preserve">6.05165195465088</t>
   </si>
   <si>
     <t xml:space="preserve">6.03818893432617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07857751846313</t>
+    <t xml:space="preserve">6.07857799530029</t>
   </si>
   <si>
     <t xml:space="preserve">6.11223554611206</t>
@@ -1103,28 +1103,28 @@
     <t xml:space="preserve">6.1930136680603</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13579511642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16608810424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13916254043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1694540977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17282009124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16272258758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21320819854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31754779815674</t>
+    <t xml:space="preserve">6.13579607009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16608762741089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13916206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16945362091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1728196144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16272211074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21320867538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31754732131958</t>
   </si>
   <si>
     <t xml:space="preserve">6.38149642944336</t>
@@ -1136,34 +1136,34 @@
     <t xml:space="preserve">6.42188596725464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48920202255249</t>
+    <t xml:space="preserve">6.48920154571533</t>
   </si>
   <si>
     <t xml:space="preserve">6.46227598190308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44208002090454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52285861968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51612901687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65412473678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63729524612427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64739418029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64066076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62046766281128</t>
+    <t xml:space="preserve">6.44208097457886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52285957336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51612854003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65412425994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63729572296143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64739322662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64066171646118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62046670913696</t>
   </si>
   <si>
     <t xml:space="preserve">6.6543869972229</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">6.54948234558105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6299090385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6264123916626</t>
+    <t xml:space="preserve">6.62990856170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62641286849976</t>
   </si>
   <si>
     <t xml:space="preserve">6.58794784545898</t>
@@ -1187,43 +1187,43 @@
     <t xml:space="preserve">6.65088987350464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78027057647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71383142471313</t>
+    <t xml:space="preserve">6.78027105331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71383190155029</t>
   </si>
   <si>
     <t xml:space="preserve">6.76278734207153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72082567214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61941862106323</t>
+    <t xml:space="preserve">6.72082471847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61941909790039</t>
   </si>
   <si>
     <t xml:space="preserve">6.64389610290527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73131656646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70683813095093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71033525466919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67886400222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67186975479126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53899335861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57396030426025</t>
+    <t xml:space="preserve">6.73131561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70683860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71033573150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6788649559021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67187070846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5389928817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57396078109741</t>
   </si>
   <si>
     <t xml:space="preserve">6.6054310798645</t>
@@ -1232,16 +1232,16 @@
     <t xml:space="preserve">6.66487693786621</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68935441970825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68585777282715</t>
+    <t xml:space="preserve">6.68935394287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68585824966431</t>
   </si>
   <si>
     <t xml:space="preserve">6.61592197418213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56346988677979</t>
+    <t xml:space="preserve">6.56347036361694</t>
   </si>
   <si>
     <t xml:space="preserve">6.69634771347046</t>
@@ -1250,25 +1250,25 @@
     <t xml:space="preserve">6.85370397567749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83272266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83621835708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8257303237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84670925140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93412971496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96210432052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02154922485352</t>
+    <t xml:space="preserve">6.83272314071655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8362193107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82572937011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84671020507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93412923812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96210384368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0215482711792</t>
   </si>
   <si>
     <t xml:space="preserve">6.9760913848877</t>
@@ -1280,37 +1280,37 @@
     <t xml:space="preserve">6.9271354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87468433380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89146900177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7977557182312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84810781478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91524696350098</t>
+    <t xml:space="preserve">6.87468481063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89146852493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79775476455688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84810829162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9152455329895</t>
   </si>
   <si>
     <t xml:space="preserve">6.95580911636353</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8942666053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6928505897522</t>
+    <t xml:space="preserve">6.89426612854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69285202026367</t>
   </si>
   <si>
     <t xml:space="preserve">6.80195093154907</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7487998008728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79635620117188</t>
+    <t xml:space="preserve">6.74879884719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79635667800903</t>
   </si>
   <si>
     <t xml:space="preserve">6.85090589523315</t>
@@ -1319,25 +1319,25 @@
     <t xml:space="preserve">6.89286756515503</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91105175018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88307619094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90545511245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91804456710815</t>
+    <t xml:space="preserve">6.91105031967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88307666778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90545558929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91804504394531</t>
   </si>
   <si>
     <t xml:space="preserve">6.83412170410156</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89986085891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91384696960449</t>
+    <t xml:space="preserve">6.89986181259155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91384887695312</t>
   </si>
   <si>
     <t xml:space="preserve">6.9516134262085</t>
@@ -1346,43 +1346,43 @@
     <t xml:space="preserve">6.85510206222534</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75579309463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63130760192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73900890350342</t>
+    <t xml:space="preserve">6.75579357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63130807876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73900938034058</t>
   </si>
   <si>
     <t xml:space="preserve">6.88167762756348</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90405702590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89706468582153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83132362365723</t>
+    <t xml:space="preserve">6.90405750274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89706420898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83132410049438</t>
   </si>
   <si>
     <t xml:space="preserve">6.86069774627686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89566469192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84111452102661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91664552688599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80614709854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68166160583496</t>
+    <t xml:space="preserve">6.89566373825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84111404418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91664600372314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80614757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68166065216064</t>
   </si>
   <si>
     <t xml:space="preserve">6.63830089569092</t>
@@ -1391,58 +1391,58 @@
     <t xml:space="preserve">6.67047166824341</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67746591567993</t>
+    <t xml:space="preserve">6.67746543884277</t>
   </si>
   <si>
     <t xml:space="preserve">6.70404148101807</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78376770019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77537488937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85230588912964</t>
+    <t xml:space="preserve">6.78376817703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77537536621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85230493545532</t>
   </si>
   <si>
     <t xml:space="preserve">6.82712841033936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9921760559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08449125289917</t>
+    <t xml:space="preserve">6.99217653274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08449220657349</t>
   </si>
   <si>
     <t xml:space="preserve">7.11246585845947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25583362579346</t>
+    <t xml:space="preserve">7.25583457946777</t>
   </si>
   <si>
     <t xml:space="preserve">7.30828523635864</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1614203453064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14743423461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03903245925903</t>
+    <t xml:space="preserve">7.16142082214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1474347114563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03903341293335</t>
   </si>
   <si>
     <t xml:space="preserve">7.12645292282104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00406551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15093088150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1858983039856</t>
+    <t xml:space="preserve">7.00406503677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15092992782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18589735031128</t>
   </si>
   <si>
     <t xml:space="preserve">6.99357557296753</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">6.95720863342285</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01455593109131</t>
+    <t xml:space="preserve">7.01455497741699</t>
   </si>
   <si>
     <t xml:space="preserve">6.96420192718506</t>
@@ -1463,25 +1463,25 @@
     <t xml:space="preserve">6.62850999832153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42289924621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31659650802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35715913772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20749711990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95852565765381</t>
+    <t xml:space="preserve">6.42289972305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31659698486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35715961456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20749759674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95852613449097</t>
   </si>
   <si>
     <t xml:space="preserve">5.59625911712646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37246417999268</t>
+    <t xml:space="preserve">5.37246465682983</t>
   </si>
   <si>
     <t xml:space="preserve">5.75151586532593</t>
@@ -1496,43 +1496,43 @@
     <t xml:space="preserve">5.68997240066528</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54450654983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72214317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59346151351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47457122802734</t>
+    <t xml:space="preserve">5.54450607299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72214269638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59346103668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47457075119019</t>
   </si>
   <si>
     <t xml:space="preserve">5.74172496795654</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66479635238647</t>
+    <t xml:space="preserve">5.66479587554932</t>
   </si>
   <si>
     <t xml:space="preserve">5.76969957351685</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71095323562622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6410174369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61723947525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81166172027588</t>
+    <t xml:space="preserve">5.71095371246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64101791381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61723852157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81166124343872</t>
   </si>
   <si>
     <t xml:space="preserve">5.7529149055481</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89838171005249</t>
+    <t xml:space="preserve">5.89838123321533</t>
   </si>
   <si>
     <t xml:space="preserve">5.69416904449463</t>
@@ -1541,40 +1541,40 @@
     <t xml:space="preserve">5.65780258178711</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57108163833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5347146987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.568284034729</t>
+    <t xml:space="preserve">5.57108211517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53471565246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56828355789185</t>
   </si>
   <si>
     <t xml:space="preserve">5.54030990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6074481010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68297910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75711107254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66619443893433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70256185531616</t>
+    <t xml:space="preserve">5.60744857788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68297958374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75711154937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66619491577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70256090164185</t>
   </si>
   <si>
     <t xml:space="preserve">5.62563133239746</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53051948547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55429697036743</t>
+    <t xml:space="preserve">5.53051900863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55429744720459</t>
   </si>
   <si>
     <t xml:space="preserve">5.6284294128418</t>
@@ -1589,16 +1589,16 @@
     <t xml:space="preserve">5.68577671051025</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7193455696106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88719081878662</t>
+    <t xml:space="preserve">5.71934509277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88719177246094</t>
   </si>
   <si>
     <t xml:space="preserve">5.95432949066162</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01027870178223</t>
+    <t xml:space="preserve">6.01027822494507</t>
   </si>
   <si>
     <t xml:space="preserve">6.12077617645264</t>
@@ -1616,19 +1616,19 @@
     <t xml:space="preserve">6.07322025299072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17252922058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0704231262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15014982223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14595413208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15854167938232</t>
+    <t xml:space="preserve">6.17252969741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07042264938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15014934539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14595365524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15854215621948</t>
   </si>
   <si>
     <t xml:space="preserve">6.09560012817383</t>
@@ -1637,10 +1637,10 @@
     <t xml:space="preserve">5.97531032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81865358352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94174098968506</t>
+    <t xml:space="preserve">5.81865406036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94174194335938</t>
   </si>
   <si>
     <t xml:space="preserve">5.87600183486938</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">5.8941855430603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99069595336914</t>
+    <t xml:space="preserve">5.9906964302063</t>
   </si>
   <si>
     <t xml:space="preserve">5.87040710449219</t>
@@ -1664,61 +1664,61 @@
     <t xml:space="preserve">5.79627513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76130723953247</t>
+    <t xml:space="preserve">5.76130771636963</t>
   </si>
   <si>
     <t xml:space="preserve">5.7864842414856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60604953765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93195056915283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12497282028198</t>
+    <t xml:space="preserve">5.60605001449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93195009231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1249737739563</t>
   </si>
   <si>
     <t xml:space="preserve">6.07182216644287</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3403754234314</t>
+    <t xml:space="preserve">6.34037494659424</t>
   </si>
   <si>
     <t xml:space="preserve">6.30680513381958</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33897686004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29701471328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31379985809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42150115966797</t>
+    <t xml:space="preserve">6.33897638320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2970142364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3137993812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42150020599365</t>
   </si>
   <si>
     <t xml:space="preserve">6.44248104095459</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50961923599243</t>
+    <t xml:space="preserve">6.50961971282959</t>
   </si>
   <si>
     <t xml:space="preserve">6.41590547561646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41450595855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36834907531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48724031448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47605037689209</t>
+    <t xml:space="preserve">6.41450691223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36834955215454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48723983764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47605085372925</t>
   </si>
   <si>
     <t xml:space="preserve">6.41171026229858</t>
@@ -1730,55 +1730,55 @@
     <t xml:space="preserve">5.83404016494751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8606162071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85222339630127</t>
+    <t xml:space="preserve">5.86061573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85222387313843</t>
   </si>
   <si>
     <t xml:space="preserve">5.75431299209595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48575973510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53191757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41582441329956</t>
+    <t xml:space="preserve">5.48576021194458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53191804885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41582489013672</t>
   </si>
   <si>
     <t xml:space="preserve">5.3696665763855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37665987014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46058320999146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39764070510864</t>
+    <t xml:space="preserve">5.37666034698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46058368682861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39764165878296</t>
   </si>
   <si>
     <t xml:space="preserve">5.34588861465454</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50953769683838</t>
+    <t xml:space="preserve">5.50953817367554</t>
   </si>
   <si>
     <t xml:space="preserve">5.41022968292236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42281818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23958683013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44100189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29413604736328</t>
+    <t xml:space="preserve">5.42281866073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23958587646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44100141525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2941370010376</t>
   </si>
   <si>
     <t xml:space="preserve">5.44519758224487</t>
@@ -1787,10 +1787,10 @@
     <t xml:space="preserve">5.45918464660645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42141962051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54730319976807</t>
+    <t xml:space="preserve">5.42141914367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54730415344238</t>
   </si>
   <si>
     <t xml:space="preserve">5.48436164855957</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">5.50254487991333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49834871292114</t>
+    <t xml:space="preserve">5.49834823608398</t>
   </si>
   <si>
     <t xml:space="preserve">5.42561531066895</t>
@@ -1817,10 +1817,10 @@
     <t xml:space="preserve">5.37847805023193</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4350471496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42462682723999</t>
+    <t xml:space="preserve">5.43504667282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42462635040283</t>
   </si>
   <si>
     <t xml:space="preserve">5.46481943130493</t>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">5.70746946334839</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73128747940063</t>
+    <t xml:space="preserve">5.73128700256348</t>
   </si>
   <si>
     <t xml:space="preserve">5.75659465789795</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">5.84740209579468</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74170780181885</t>
+    <t xml:space="preserve">5.74170827865601</t>
   </si>
   <si>
     <t xml:space="preserve">5.75361728668213</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">5.67323064804077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58540058135986</t>
+    <t xml:space="preserve">5.58540010452271</t>
   </si>
   <si>
     <t xml:space="preserve">5.63452577590942</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">5.73724222183228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61219596862793</t>
+    <t xml:space="preserve">5.61219549179077</t>
   </si>
   <si>
     <t xml:space="preserve">5.4752402305603</t>
@@ -1889,28 +1889,28 @@
     <t xml:space="preserve">5.39187622070312</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49012660980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43653535842896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43206977844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75510549545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74468469619751</t>
+    <t xml:space="preserve">5.4901270866394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43653583526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43207025527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75510597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74468517303467</t>
   </si>
   <si>
     <t xml:space="preserve">5.7268214225769</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69704818725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70002555847168</t>
+    <t xml:space="preserve">5.69704866409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70002603530884</t>
   </si>
   <si>
     <t xml:space="preserve">5.77148103713989</t>
@@ -1922,16 +1922,16 @@
     <t xml:space="preserve">5.70151472091675</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83251523971558</t>
+    <t xml:space="preserve">5.83251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">5.83995866775513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86377668380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88015174865723</t>
+    <t xml:space="preserve">5.86377716064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88015222549438</t>
   </si>
   <si>
     <t xml:space="preserve">5.86079978942871</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">5.86526584625244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8756856918335</t>
+    <t xml:space="preserve">5.87568616867065</t>
   </si>
   <si>
     <t xml:space="preserve">5.93672037124634</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">5.86228847503662</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81762886047363</t>
+    <t xml:space="preserve">5.81762933731079</t>
   </si>
   <si>
     <t xml:space="preserve">5.82953786849976</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">5.65387773513794</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49310398101807</t>
+    <t xml:space="preserve">5.49310350418091</t>
   </si>
   <si>
     <t xml:space="preserve">5.45886564254761</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">5.64345741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76403713226318</t>
+    <t xml:space="preserve">5.76403760910034</t>
   </si>
   <si>
     <t xml:space="preserve">5.76999187469482</t>
@@ -1979,13 +1979,13 @@
     <t xml:space="preserve">5.90099287033081</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00668716430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96947145462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1823468208313</t>
+    <t xml:space="preserve">6.00668668746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9694709777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18234729766846</t>
   </si>
   <si>
     <t xml:space="preserve">6.1972336769104</t>
@@ -2003,19 +2003,19 @@
     <t xml:space="preserve">6.14513063430786</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22254037857056</t>
+    <t xml:space="preserve">6.22254085540771</t>
   </si>
   <si>
     <t xml:space="preserve">6.31930208206177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38629150390625</t>
+    <t xml:space="preserve">6.38629198074341</t>
   </si>
   <si>
     <t xml:space="preserve">6.56641721725464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43392848968506</t>
+    <t xml:space="preserve">6.43392896652222</t>
   </si>
   <si>
     <t xml:space="preserve">6.49198579788208</t>
@@ -2024,16 +2024,16 @@
     <t xml:space="preserve">6.50240612030029</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62447452545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51431465148926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44732618331909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53962230682373</t>
+    <t xml:space="preserve">6.6244740486145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51431512832642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44732666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53962278366089</t>
   </si>
   <si>
     <t xml:space="preserve">6.51729202270508</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">6.60958862304688</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63787364959717</t>
+    <t xml:space="preserve">6.63787317276001</t>
   </si>
   <si>
     <t xml:space="preserve">6.68997573852539</t>
@@ -2057,16 +2057,16 @@
     <t xml:space="preserve">6.66317987442017</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71230459213257</t>
+    <t xml:space="preserve">6.71230506896973</t>
   </si>
   <si>
     <t xml:space="preserve">6.65871429443359</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59619188308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64680480957031</t>
+    <t xml:space="preserve">6.59619045257568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64680528640747</t>
   </si>
   <si>
     <t xml:space="preserve">6.78376054763794</t>
@@ -2081,25 +2081,25 @@
     <t xml:space="preserve">6.96090888977051</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86117076873779</t>
+    <t xml:space="preserve">6.86117029190063</t>
   </si>
   <si>
     <t xml:space="preserve">6.87754487991333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91773796081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96388673782349</t>
+    <t xml:space="preserve">6.91773891448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96388721466064</t>
   </si>
   <si>
     <t xml:space="preserve">6.90285205841064</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92518091201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02492141723633</t>
+    <t xml:space="preserve">6.92518138885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02492046356201</t>
   </si>
   <si>
     <t xml:space="preserve">7.08148956298828</t>
@@ -2117,22 +2117,22 @@
     <t xml:space="preserve">7.07106876373291</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98770475387573</t>
+    <t xml:space="preserve">6.98770427703857</t>
   </si>
   <si>
     <t xml:space="preserve">6.96686363220215</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00705718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13508176803589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03385210037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07404661178589</t>
+    <t xml:space="preserve">7.00705623626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13508081436157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03385305404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07404613494873</t>
   </si>
   <si>
     <t xml:space="preserve">6.85223770141602</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">6.64233875274658</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60065698623657</t>
+    <t xml:space="preserve">6.60065650939941</t>
   </si>
   <si>
     <t xml:space="preserve">6.58428144454956</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">6.47709894180298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40117788314819</t>
+    <t xml:space="preserve">6.40117835998535</t>
   </si>
   <si>
     <t xml:space="preserve">6.42350769042969</t>
@@ -2171,16 +2171,16 @@
     <t xml:space="preserve">6.36396217346191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32079029083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23891592025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22998428344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15704011917114</t>
+    <t xml:space="preserve">6.32079124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23891544342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22998380661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1570405960083</t>
   </si>
   <si>
     <t xml:space="preserve">6.12131261825562</t>
@@ -2192,34 +2192,34 @@
     <t xml:space="preserve">6.24635887145996</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27762126922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37289428710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37140512466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34163284301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3788480758667</t>
+    <t xml:space="preserve">6.27762079238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37289381027222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37140560150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34163236618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37884855270386</t>
   </si>
   <si>
     <t xml:space="preserve">6.34609794616699</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3446102142334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48305368423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58130407333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56046342849731</t>
+    <t xml:space="preserve">6.34460973739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48305416107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5813045501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56046295166016</t>
   </si>
   <si>
     <t xml:space="preserve">6.61107778549194</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">6.58874750137329</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7227258682251</t>
+    <t xml:space="preserve">6.72272539138794</t>
   </si>
   <si>
     <t xml:space="preserve">6.76738500595093</t>
@@ -2237,31 +2237,31 @@
     <t xml:space="preserve">6.74803256988525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6616907119751</t>
+    <t xml:space="preserve">6.66169118881226</t>
   </si>
   <si>
     <t xml:space="preserve">6.73761224746704</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9132719039917</t>
+    <t xml:space="preserve">6.91327333450317</t>
   </si>
   <si>
     <t xml:space="preserve">7.05022764205933</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01598882675171</t>
+    <t xml:space="preserve">7.01598930358887</t>
   </si>
   <si>
     <t xml:space="preserve">6.95346593856812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93113613128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99663686752319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98472785949707</t>
+    <t xml:space="preserve">6.93113708496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99663639068604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98472738265991</t>
   </si>
   <si>
     <t xml:space="preserve">6.99068212509155</t>
@@ -2276,43 +2276,43 @@
     <t xml:space="preserve">6.97579526901245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99365997314453</t>
+    <t xml:space="preserve">6.99365901947021</t>
   </si>
   <si>
     <t xml:space="preserve">6.84777212142944</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88052272796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644378662109</t>
+    <t xml:space="preserve">6.88052225112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644330978394</t>
   </si>
   <si>
     <t xml:space="preserve">6.92964744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94453477859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76440763473511</t>
+    <t xml:space="preserve">6.94453430175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76440858840942</t>
   </si>
   <si>
     <t xml:space="preserve">6.73910140991211</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74952173233032</t>
+    <t xml:space="preserve">6.74952125549316</t>
   </si>
   <si>
     <t xml:space="preserve">6.57683897018433</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51878118515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44583797454834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49942874908447</t>
+    <t xml:space="preserve">6.51878213882446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44583749771118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49942922592163</t>
   </si>
   <si>
     <t xml:space="preserve">6.32674598693848</t>
@@ -2321,46 +2321,46 @@
     <t xml:space="preserve">6.31483697891235</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34758710861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20021057128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33270120620728</t>
+    <t xml:space="preserve">6.3475866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20021104812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33270072937012</t>
   </si>
   <si>
     <t xml:space="preserve">6.38182592391968</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47858762741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52771329879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45328092575073</t>
+    <t xml:space="preserve">6.47858810424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52771377563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45328044891357</t>
   </si>
   <si>
     <t xml:space="preserve">6.53366756439209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55599737167358</t>
+    <t xml:space="preserve">6.55599689483643</t>
   </si>
   <si>
     <t xml:space="preserve">6.6125659942627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70635080337524</t>
+    <t xml:space="preserve">6.70635032653809</t>
   </si>
   <si>
     <t xml:space="preserve">6.78822612762451</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0293869972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0457615852356</t>
+    <t xml:space="preserve">7.02938652038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04576110839844</t>
   </si>
   <si>
     <t xml:space="preserve">7.13359212875366</t>
@@ -2372,25 +2372,25 @@
     <t xml:space="preserve">7.11572885513306</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18271780014038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11423921585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0844669342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21993446350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4223895072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36582136154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3762412071228</t>
+    <t xml:space="preserve">7.18271684646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11423873901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08446645736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21993350982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42238998413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36582088470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37624216079712</t>
   </si>
   <si>
     <t xml:space="preserve">7.41792297363281</t>
@@ -2399,55 +2399,55 @@
     <t xml:space="preserve">7.52138376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42536640167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45811796188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42834424972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22291088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31074142456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27799081802368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2973427772522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25417232513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26608085632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51021957397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67769241333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76329040527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87493801116943</t>
+    <t xml:space="preserve">7.42536687850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45811700820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42834377288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22291135787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31074094772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27799034118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29734325408936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25417327880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26608228683472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51022052764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67769193649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76328945159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87493705749512</t>
   </si>
   <si>
     <t xml:space="preserve">7.90471124649048</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88238096237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86005115509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93448448181152</t>
+    <t xml:space="preserve">7.88238048553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86005210876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93448352813721</t>
   </si>
   <si>
     <t xml:space="preserve">8.0126371383667</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">8.07218360900879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06473922729492</t>
+    <t xml:space="preserve">8.06474018096924</t>
   </si>
   <si>
     <t xml:space="preserve">8.09451293945312</t>
@@ -2465,16 +2465,16 @@
     <t xml:space="preserve">7.94564867019653</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92704105377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99030780792236</t>
+    <t xml:space="preserve">7.92704010009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99030685424805</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150283813477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10939979553223</t>
+    <t xml:space="preserve">8.10940074920654</t>
   </si>
   <si>
     <t xml:space="preserve">8.02380180358887</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">8.02844524383545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99729537963867</t>
+    <t xml:space="preserve">7.99729633331299</t>
   </si>
   <si>
     <t xml:space="preserve">7.97393417358398</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">7.71696186065674</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87270259857178</t>
+    <t xml:space="preserve">7.87270355224609</t>
   </si>
   <si>
     <t xml:space="preserve">7.88438320159912</t>
@@ -2543,13 +2543,13 @@
     <t xml:space="preserve">7.81040668487549</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7761435508728</t>
+    <t xml:space="preserve">7.77614450454712</t>
   </si>
   <si>
     <t xml:space="preserve">7.85712909698486</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7792592048645</t>
+    <t xml:space="preserve">7.77925825119019</t>
   </si>
   <si>
     <t xml:space="preserve">7.70917510986328</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">7.64220714569092</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72007656097412</t>
+    <t xml:space="preserve">7.72007703781128</t>
   </si>
   <si>
     <t xml:space="preserve">7.64999389648438</t>
@@ -2570,10 +2570,10 @@
     <t xml:space="preserve">7.74188232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75433969497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70761775970459</t>
+    <t xml:space="preserve">7.75434064865112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70761728286743</t>
   </si>
   <si>
     <t xml:space="preserve">7.66556787490845</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">7.56589317321777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64376354217529</t>
+    <t xml:space="preserve">7.64376449584961</t>
   </si>
   <si>
     <t xml:space="preserve">7.59236907958984</t>
@@ -2594,28 +2594,28 @@
     <t xml:space="preserve">7.53630352020264</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55810642242432</t>
+    <t xml:space="preserve">7.55810689926147</t>
   </si>
   <si>
     <t xml:space="preserve">7.47089195251465</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40859460830688</t>
+    <t xml:space="preserve">7.40859508514404</t>
   </si>
   <si>
     <t xml:space="preserve">7.44597339630127</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23260879516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45999002456665</t>
+    <t xml:space="preserve">7.23260831832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45999050140381</t>
   </si>
   <si>
     <t xml:space="preserve">7.40392398834229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21080493927002</t>
+    <t xml:space="preserve">7.21080446243286</t>
   </si>
   <si>
     <t xml:space="preserve">7.01768589019775</t>
@@ -2627,25 +2627,25 @@
     <t xml:space="preserve">7.26687145233154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45376014709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33539724349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47867870330811</t>
+    <t xml:space="preserve">7.45375967025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3353967666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47867822647095</t>
   </si>
   <si>
     <t xml:space="preserve">7.51917123794556</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53941774368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54097604751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4802360534668</t>
+    <t xml:space="preserve">7.53941822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54097509384155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48023557662964</t>
   </si>
   <si>
     <t xml:space="preserve">7.50982666015625</t>
@@ -2654,7 +2654,7 @@
     <t xml:space="preserve">7.46777725219727</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32916736602783</t>
+    <t xml:space="preserve">7.32916784286499</t>
   </si>
   <si>
     <t xml:space="preserve">6.88997793197632</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">6.81989526748657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65636682510376</t>
+    <t xml:space="preserve">6.6563663482666</t>
   </si>
   <si>
     <t xml:space="preserve">6.37759017944336</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">6.15332365036011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09725666046143</t>
+    <t xml:space="preserve">6.09725713729858</t>
   </si>
   <si>
     <t xml:space="preserve">6.01782894134521</t>
@@ -2684,7 +2684,7 @@
     <t xml:space="preserve">5.76552820205688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64249277114868</t>
+    <t xml:space="preserve">5.64249324798584</t>
   </si>
   <si>
     <t xml:space="preserve">4.82952547073364</t>
@@ -2696,16 +2696,16 @@
     <t xml:space="preserve">4.62550497055054</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76114296913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03213262557983</t>
+    <t xml:space="preserve">3.76114344596863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03213214874268</t>
   </si>
   <si>
     <t xml:space="preserve">3.56490969657898</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47613739967346</t>
+    <t xml:space="preserve">3.47613716125488</t>
   </si>
   <si>
     <t xml:space="preserve">3.27445244789124</t>
@@ -2720,19 +2720,19 @@
     <t xml:space="preserve">3.39203715324402</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86393189430237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16918420791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.282874584198</t>
+    <t xml:space="preserve">3.86393213272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16918468475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28287506103516</t>
   </si>
   <si>
     <t xml:space="preserve">4.01967334747314</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8740553855896</t>
+    <t xml:space="preserve">3.87405490875244</t>
   </si>
   <si>
     <t xml:space="preserve">3.91532611846924</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">4.32648277282715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33426952362061</t>
+    <t xml:space="preserve">4.33427000045776</t>
   </si>
   <si>
     <t xml:space="preserve">4.31558036804199</t>
@@ -2771,28 +2771,28 @@
     <t xml:space="preserve">3.94336009025574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8039722442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75413489341736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99319696426392</t>
+    <t xml:space="preserve">3.80397200584412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75413513183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99319648742676</t>
   </si>
   <si>
     <t xml:space="preserve">4.08352661132812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22369337081909</t>
+    <t xml:space="preserve">4.22369289398193</t>
   </si>
   <si>
     <t xml:space="preserve">4.29533433914185</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11778926849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05705070495605</t>
+    <t xml:space="preserve">4.11778974533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05705118179321</t>
   </si>
   <si>
     <t xml:space="preserve">4.02123022079468</t>
@@ -2804,7 +2804,7 @@
     <t xml:space="preserve">4.00254154205322</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04614877700806</t>
+    <t xml:space="preserve">4.04614925384521</t>
   </si>
   <si>
     <t xml:space="preserve">4.18164348602295</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">4.00409889221191</t>
   </si>
   <si>
-    <t xml:space="preserve">3.94803237915039</t>
+    <t xml:space="preserve">3.94803190231323</t>
   </si>
   <si>
     <t xml:space="preserve">4.0274600982666</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">4.54451990127563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91206836700439</t>
+    <t xml:space="preserve">4.91206789016724</t>
   </si>
   <si>
     <t xml:space="preserve">5.01797199249268</t>
@@ -2855,16 +2855,16 @@
     <t xml:space="preserve">5.29051923751831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28896141052246</t>
+    <t xml:space="preserve">5.2889609336853</t>
   </si>
   <si>
     <t xml:space="preserve">5.53503227233887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70790433883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52413034439087</t>
+    <t xml:space="preserve">5.70790386199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52412986755371</t>
   </si>
   <si>
     <t xml:space="preserve">5.42445611953735</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">5.19395971298218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30142068862915</t>
+    <t xml:space="preserve">5.30142116546631</t>
   </si>
   <si>
     <t xml:space="preserve">5.37929105758667</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">5.23601007461548</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25937080383301</t>
+    <t xml:space="preserve">5.25937032699585</t>
   </si>
   <si>
     <t xml:space="preserve">5.26560068130493</t>
@@ -2936,10 +2936,10 @@
     <t xml:space="preserve">5.26404333114624</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39330816268921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48675203323364</t>
+    <t xml:space="preserve">5.39330768585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4867525100708</t>
   </si>
   <si>
     <t xml:space="preserve">5.49453973770142</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">5.67675638198853</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57863998413086</t>
+    <t xml:space="preserve">5.5786395072937</t>
   </si>
   <si>
     <t xml:space="preserve">5.51322841644287</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">5.2780590057373</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05379295349121</t>
+    <t xml:space="preserve">5.05379247665405</t>
   </si>
   <si>
     <t xml:space="preserve">5.13945007324219</t>
@@ -2993,10 +2993,10 @@
     <t xml:space="preserve">5.24691152572632</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31543731689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63003444671631</t>
+    <t xml:space="preserve">5.31543684005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63003396987915</t>
   </si>
   <si>
     <t xml:space="preserve">5.64560842514038</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">5.65339517593384</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55527782440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46183395385742</t>
+    <t xml:space="preserve">5.55527830123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46183347702026</t>
   </si>
   <si>
     <t xml:space="preserve">5.60200071334839</t>
@@ -3017,7 +3017,7 @@
     <t xml:space="preserve">5.47585105895996</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44314479827881</t>
+    <t xml:space="preserve">5.44314527511597</t>
   </si>
   <si>
     <t xml:space="preserve">5.60355806350708</t>
@@ -3035,22 +3035,22 @@
     <t xml:space="preserve">5.79200458526611</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67052698135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69700288772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68142890930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58175468444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56773805618286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42601299285889</t>
+    <t xml:space="preserve">5.6705265045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69700241088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6814284324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5817551612854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5677375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42601346969604</t>
   </si>
   <si>
     <t xml:space="preserve">5.52880191802979</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">5.75774145126343</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64093589782715</t>
+    <t xml:space="preserve">5.64093542098999</t>
   </si>
   <si>
     <t xml:space="preserve">5.65806722640991</t>
@@ -3083,7 +3083,7 @@
     <t xml:space="preserve">5.08338356018066</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28740406036377</t>
+    <t xml:space="preserve">5.28740358352661</t>
   </si>
   <si>
     <t xml:space="preserve">5.20641899108887</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">5.43068552017212</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64405059814453</t>
+    <t xml:space="preserve">5.64405107498169</t>
   </si>
   <si>
     <t xml:space="preserve">5.58798408508301</t>
@@ -3116,10 +3116,10 @@
     <t xml:space="preserve">5.55683565139771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35125827789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36060237884521</t>
+    <t xml:space="preserve">5.35125780105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36060190200806</t>
   </si>
   <si>
     <t xml:space="preserve">5.14879465103149</t>
@@ -3128,28 +3128,28 @@
     <t xml:space="preserve">5.17059850692749</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12543344497681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17838525772095</t>
+    <t xml:space="preserve">5.12543296813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17838573455811</t>
   </si>
   <si>
     <t xml:space="preserve">5.06158018112183</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06780910491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11453151702881</t>
+    <t xml:space="preserve">5.06780958175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11453104019165</t>
   </si>
   <si>
     <t xml:space="preserve">5.08961296081543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95567560195923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70960521697998</t>
+    <t xml:space="preserve">4.95567607879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70960569381714</t>
   </si>
   <si>
     <t xml:space="preserve">4.77190113067627</t>
@@ -3158,10 +3158,10 @@
     <t xml:space="preserve">4.74075317382812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90583896636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18617248535156</t>
+    <t xml:space="preserve">4.90583848953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1861720085144</t>
   </si>
   <si>
     <t xml:space="preserve">5.66896915435791</t>
@@ -3170,19 +3170,19 @@
     <t xml:space="preserve">5.54904890060425</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55839347839355</t>
+    <t xml:space="preserve">5.5583930015564</t>
   </si>
   <si>
     <t xml:space="preserve">5.89012145996094</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97577857971191</t>
+    <t xml:space="preserve">5.97577905654907</t>
   </si>
   <si>
     <t xml:space="preserve">5.88856410980225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96331930160522</t>
+    <t xml:space="preserve">5.96331977844238</t>
   </si>
   <si>
     <t xml:space="preserve">5.87143230438232</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">6.01938676834106</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82003831863403</t>
+    <t xml:space="preserve">5.82003784179688</t>
   </si>
   <si>
     <t xml:space="preserve">5.90413761138916</t>
@@ -3218,7 +3218,7 @@
     <t xml:space="preserve">5.90725326538086</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86208724975586</t>
+    <t xml:space="preserve">5.86208772659302</t>
   </si>
   <si>
     <t xml:space="preserve">5.86987495422363</t>
@@ -3233,19 +3233,19 @@
     <t xml:space="preserve">5.72503614425659</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91348218917847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86520290374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79667615890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75618410110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74372529983521</t>
+    <t xml:space="preserve">5.91348266601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8652024269104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79667663574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75618457794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74372482299805</t>
   </si>
   <si>
     <t xml:space="preserve">5.89479351043701</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">5.76864337921143</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79044723510742</t>
+    <t xml:space="preserve">5.79044771194458</t>
   </si>
   <si>
     <t xml:space="preserve">6.0100417137146</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">5.77175855636597</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81848049163818</t>
+    <t xml:space="preserve">5.81848096847534</t>
   </si>
   <si>
     <t xml:space="preserve">5.72036409378052</t>
@@ -3302,7 +3302,7 @@
     <t xml:space="preserve">5.76085615158081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73438024520874</t>
+    <t xml:space="preserve">5.7343807220459</t>
   </si>
   <si>
     <t xml:space="preserve">5.88544940948486</t>
@@ -3311,16 +3311,16 @@
     <t xml:space="preserve">6.11906051635742</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29972076416016</t>
+    <t xml:space="preserve">6.299720287323</t>
   </si>
   <si>
     <t xml:space="preserve">6.38537693023682</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5925121307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65325117111206</t>
+    <t xml:space="preserve">6.59251260757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65325164794922</t>
   </si>
   <si>
     <t xml:space="preserve">6.85260009765625</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">7.03948974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98030805587769</t>
+    <t xml:space="preserve">6.98030757904053</t>
   </si>
   <si>
     <t xml:space="preserve">7.02547311782837</t>
@@ -3359,13 +3359,13 @@
     <t xml:space="preserve">6.82923889160156</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71087646484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94293022155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87128877639771</t>
+    <t xml:space="preserve">6.71087598800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94293069839478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87128925323486</t>
   </si>
   <si>
     <t xml:space="preserve">6.96940565109253</t>
@@ -3377,25 +3377,25 @@
     <t xml:space="preserve">7.18121337890625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.19211626052856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23416519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31515073776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33072471618652</t>
+    <t xml:space="preserve">7.19211530685425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23416566848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31515121459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33072423934937</t>
   </si>
   <si>
     <t xml:space="preserve">7.3696608543396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49581003189087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57523775100708</t>
+    <t xml:space="preserve">7.49581050872803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57523822784424</t>
   </si>
   <si>
     <t xml:space="preserve">7.57835340499878</t>
@@ -3413,28 +3413,28 @@
     <t xml:space="preserve">7.36810255050659</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37433195114136</t>
+    <t xml:space="preserve">7.37433290481567</t>
   </si>
   <si>
     <t xml:space="preserve">7.38990592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41015195846558</t>
+    <t xml:space="preserve">7.41015243530273</t>
   </si>
   <si>
     <t xml:space="preserve">7.51294136047363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36343050003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31359338760376</t>
+    <t xml:space="preserve">7.36343097686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3135929107666</t>
   </si>
   <si>
     <t xml:space="preserve">7.32605266571045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23105049133301</t>
+    <t xml:space="preserve">7.23105096817017</t>
   </si>
   <si>
     <t xml:space="preserve">7.26842784881592</t>
@@ -3452,13 +3452,13 @@
     <t xml:space="preserve">7.31670808792114</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31203603744507</t>
+    <t xml:space="preserve">7.31203556060791</t>
   </si>
   <si>
     <t xml:space="preserve">7.16408205032349</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09244155883789</t>
+    <t xml:space="preserve">7.09244108200073</t>
   </si>
   <si>
     <t xml:space="preserve">7.10957288742065</t>
@@ -3467,13 +3467,13 @@
     <t xml:space="preserve">7.09711360931396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29957675933838</t>
+    <t xml:space="preserve">7.29957628250122</t>
   </si>
   <si>
     <t xml:space="preserve">7.26998615264893</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29023265838623</t>
+    <t xml:space="preserve">7.29023218154907</t>
   </si>
   <si>
     <t xml:space="preserve">7.32138061523438</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">7.24039554595947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37744760513306</t>
+    <t xml:space="preserve">7.3774471282959</t>
   </si>
   <si>
     <t xml:space="preserve">7.41794013977051</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">7.51761388778687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53318881988525</t>
+    <t xml:space="preserve">7.5331883430481</t>
   </si>
   <si>
     <t xml:space="preserve">7.4895806312561</t>
@@ -3509,16 +3509,16 @@
     <t xml:space="preserve">7.68581390380859</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53786039352417</t>
+    <t xml:space="preserve">7.53786087036133</t>
   </si>
   <si>
     <t xml:space="preserve">7.54564666748047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53163051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5612211227417</t>
+    <t xml:space="preserve">7.5316309928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56122159957886</t>
   </si>
   <si>
     <t xml:space="preserve">7.61261606216431</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">7.60015630722046</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63286161422729</t>
+    <t xml:space="preserve">7.63286209106445</t>
   </si>
   <si>
     <t xml:space="preserve">7.70138883590698</t>
@@ -3542,37 +3542,37 @@
     <t xml:space="preserve">7.79483318328857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7481107711792</t>
+    <t xml:space="preserve">7.74810981750488</t>
   </si>
   <si>
     <t xml:space="preserve">7.76057004928589</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69671487808228</t>
+    <t xml:space="preserve">7.69671535491943</t>
   </si>
   <si>
     <t xml:space="preserve">7.75589752197266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74655294418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72319173812866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72630643844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63909244537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66245317459106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71229028701782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77458667755127</t>
+    <t xml:space="preserve">7.74655389785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72319269180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72630596160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63909292221069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66245269775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71229076385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77458572387695</t>
   </si>
   <si>
     <t xml:space="preserve">7.7683572769165</t>
@@ -3581,31 +3581,31 @@
     <t xml:space="preserve">7.68892860412598</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67023992538452</t>
+    <t xml:space="preserve">7.67024040222168</t>
   </si>
   <si>
     <t xml:space="preserve">7.68114185333252</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67491245269775</t>
+    <t xml:space="preserve">7.67491292953491</t>
   </si>
   <si>
     <t xml:space="preserve">7.86102294921875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62507438659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6344199180603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39302206039429</t>
+    <t xml:space="preserve">7.62507486343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63442039489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39302158355713</t>
   </si>
   <si>
     <t xml:space="preserve">7.59392738342285</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67646980285645</t>
+    <t xml:space="preserve">7.67646932601929</t>
   </si>
   <si>
     <t xml:space="preserve">7.69360113143921</t>
@@ -3614,13 +3614,13 @@
     <t xml:space="preserve">7.62974739074707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57679510116577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33383989334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4272837638855</t>
+    <t xml:space="preserve">7.57679557800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33384037017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42728471755981</t>
   </si>
   <si>
     <t xml:space="preserve">7.72474908828735</t>
@@ -3629,31 +3629,31 @@
     <t xml:space="preserve">7.8065128326416</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78081512451172</t>
+    <t xml:space="preserve">7.78081607818604</t>
   </si>
   <si>
     <t xml:space="preserve">7.78237390518188</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73253631591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69827318191528</t>
+    <t xml:space="preserve">7.73253726959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69827270507812</t>
   </si>
   <si>
     <t xml:space="preserve">7.61573076248169</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69983053207397</t>
+    <t xml:space="preserve">7.69983005523682</t>
   </si>
   <si>
     <t xml:space="preserve">7.77770137786865</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79093885421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67802619934082</t>
+    <t xml:space="preserve">7.79093980789185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67802667617798</t>
   </si>
   <si>
     <t xml:space="preserve">7.77147197723389</t>
@@ -3665,13 +3665,13 @@
     <t xml:space="preserve">7.66401052474976</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65778064727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52384328842163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57990980148315</t>
+    <t xml:space="preserve">7.65777969360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52384281158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57991027832031</t>
   </si>
   <si>
     <t xml:space="preserve">7.62040328979492</t>
@@ -3680,10 +3680,10 @@
     <t xml:space="preserve">7.74343824386597</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77302885055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59704208374023</t>
+    <t xml:space="preserve">7.77302980422974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59704160690308</t>
   </si>
   <si>
     <t xml:space="preserve">7.74032258987427</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">7.95836067199707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70450305938721</t>
+    <t xml:space="preserve">7.70450353622437</t>
   </si>
   <si>
     <t xml:space="preserve">7.88049077987671</t>
@@ -3737,13 +3737,13 @@
     <t xml:space="preserve">8.09463405609131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12188816070557</t>
+    <t xml:space="preserve">8.12188911437988</t>
   </si>
   <si>
     <t xml:space="preserve">8.07127285003662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03233623504639</t>
+    <t xml:space="preserve">8.0323371887207</t>
   </si>
   <si>
     <t xml:space="preserve">8.16082286834717</t>
@@ -3755,13 +3755,13 @@
     <t xml:space="preserve">8.29709720611572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29320335388184</t>
+    <t xml:space="preserve">8.29320430755615</t>
   </si>
   <si>
     <t xml:space="preserve">8.42168998718262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41000938415527</t>
+    <t xml:space="preserve">8.41001033782959</t>
   </si>
   <si>
     <t xml:space="preserve">8.3438196182251</t>
@@ -3773,19 +3773,19 @@
     <t xml:space="preserve">8.43337059020996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44115734100342</t>
+    <t xml:space="preserve">8.44115829467773</t>
   </si>
   <si>
     <t xml:space="preserve">8.41390323638916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32045841217041</t>
+    <t xml:space="preserve">8.32045936584473</t>
   </si>
   <si>
     <t xml:space="preserve">8.27373600006104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22312068939209</t>
+    <t xml:space="preserve">8.22311973571777</t>
   </si>
   <si>
     <t xml:space="preserve">8.4390811920166</t>
@@ -4094,9 +4094,6 @@
     <t xml:space="preserve">8.24305534362793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22311973571777</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.23308753967285</t>
   </si>
   <si>
@@ -5559,6 +5556,9 @@
   </si>
   <si>
     <t xml:space="preserve">13.9350004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8699998855591</t>
   </si>
 </sst>
 </file>
@@ -48012,7 +48012,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1620" t="s">
-        <v>1360</v>
+        <v>1257</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -48038,7 +48038,7 @@
         <v>9.91199970245361</v>
       </c>
       <c r="G1621" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -48064,7 +48064,7 @@
         <v>9.67199993133545</v>
       </c>
       <c r="G1622" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -48090,7 +48090,7 @@
         <v>9.57199954986572</v>
       </c>
       <c r="G1623" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -48116,7 +48116,7 @@
         <v>9.5</v>
       </c>
       <c r="G1624" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -48142,7 +48142,7 @@
         <v>9.55799961090088</v>
       </c>
       <c r="G1625" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -48168,7 +48168,7 @@
         <v>9.33600044250488</v>
       </c>
       <c r="G1626" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -48194,7 +48194,7 @@
         <v>9.4379997253418</v>
       </c>
       <c r="G1627" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -48220,7 +48220,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1628" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -48246,7 +48246,7 @@
         <v>9.52799987792969</v>
       </c>
       <c r="G1629" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -48272,7 +48272,7 @@
         <v>9.60200023651123</v>
       </c>
       <c r="G1630" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -48298,7 +48298,7 @@
         <v>9.55399990081787</v>
       </c>
       <c r="G1631" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -48324,7 +48324,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1632" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -48350,7 +48350,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -48376,7 +48376,7 @@
         <v>9.5</v>
       </c>
       <c r="G1634" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -48402,7 +48402,7 @@
         <v>9.68599987030029</v>
       </c>
       <c r="G1635" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -48428,7 +48428,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1636" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -48454,7 +48454,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1637" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -48480,7 +48480,7 @@
         <v>9.65200042724609</v>
       </c>
       <c r="G1638" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -48506,7 +48506,7 @@
         <v>9.01599979400635</v>
       </c>
       <c r="G1639" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -48532,7 +48532,7 @@
         <v>8.87600040435791</v>
       </c>
       <c r="G1640" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -48558,7 +48558,7 @@
         <v>8.95800018310547</v>
       </c>
       <c r="G1641" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -48584,7 +48584,7 @@
         <v>8.93599987030029</v>
       </c>
       <c r="G1642" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -48610,7 +48610,7 @@
         <v>8.52400016784668</v>
       </c>
       <c r="G1643" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -48636,7 +48636,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1644" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -48662,7 +48662,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1645" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -48688,7 +48688,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G1646" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -48714,7 +48714,7 @@
         <v>8.63799953460693</v>
       </c>
       <c r="G1647" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -48740,7 +48740,7 @@
         <v>8.44400024414062</v>
       </c>
       <c r="G1648" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -48766,7 +48766,7 @@
         <v>8.62800025939941</v>
       </c>
       <c r="G1649" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -48792,7 +48792,7 @@
         <v>8.44200038909912</v>
       </c>
       <c r="G1650" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -48818,7 +48818,7 @@
         <v>8.54599952697754</v>
       </c>
       <c r="G1651" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -48844,7 +48844,7 @@
         <v>8.48799991607666</v>
       </c>
       <c r="G1652" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -48870,7 +48870,7 @@
         <v>8.25800037384033</v>
       </c>
       <c r="G1653" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -48896,7 +48896,7 @@
         <v>8.2519998550415</v>
       </c>
       <c r="G1654" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -48922,7 +48922,7 @@
         <v>8.21199989318848</v>
       </c>
       <c r="G1655" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -48948,7 +48948,7 @@
         <v>8.01200008392334</v>
       </c>
       <c r="G1656" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -48974,7 +48974,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G1657" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -49000,7 +49000,7 @@
         <v>8.30200004577637</v>
       </c>
       <c r="G1658" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -49026,7 +49026,7 @@
         <v>8.42800045013428</v>
       </c>
       <c r="G1659" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -49052,7 +49052,7 @@
         <v>8.3439998626709</v>
       </c>
       <c r="G1660" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -49078,7 +49078,7 @@
         <v>8.24400043487549</v>
       </c>
       <c r="G1661" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -49104,7 +49104,7 @@
         <v>8.17399978637695</v>
       </c>
       <c r="G1662" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -49130,7 +49130,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -49156,7 +49156,7 @@
         <v>7.78399991989136</v>
       </c>
       <c r="G1664" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -49182,7 +49182,7 @@
         <v>7.97200012207031</v>
       </c>
       <c r="G1665" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -49208,7 +49208,7 @@
         <v>8.14200019836426</v>
       </c>
       <c r="G1666" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -49234,7 +49234,7 @@
         <v>8.04800033569336</v>
       </c>
       <c r="G1667" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -49260,7 +49260,7 @@
         <v>7.9980001449585</v>
       </c>
       <c r="G1668" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -49286,7 +49286,7 @@
         <v>8.0319995880127</v>
       </c>
       <c r="G1669" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -49312,7 +49312,7 @@
         <v>8.04800033569336</v>
       </c>
       <c r="G1670" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -49338,7 +49338,7 @@
         <v>7.94399976730347</v>
       </c>
       <c r="G1671" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -49364,7 +49364,7 @@
         <v>8.02200031280518</v>
       </c>
       <c r="G1672" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -49390,7 +49390,7 @@
         <v>8.17199993133545</v>
       </c>
       <c r="G1673" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -49416,7 +49416,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G1674" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -49442,7 +49442,7 @@
         <v>8.41600036621094</v>
       </c>
       <c r="G1675" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -49468,7 +49468,7 @@
         <v>8.42199993133545</v>
       </c>
       <c r="G1676" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -49494,7 +49494,7 @@
         <v>8.48200035095215</v>
       </c>
       <c r="G1677" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -49520,7 +49520,7 @@
         <v>8.54800033569336</v>
       </c>
       <c r="G1678" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -49546,7 +49546,7 @@
         <v>8.61600017547607</v>
       </c>
       <c r="G1679" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -49572,7 +49572,7 @@
         <v>8.55200004577637</v>
       </c>
       <c r="G1680" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -49598,7 +49598,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -49624,7 +49624,7 @@
         <v>8.5620002746582</v>
       </c>
       <c r="G1682" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -49650,7 +49650,7 @@
         <v>8.64599990844727</v>
       </c>
       <c r="G1683" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49676,7 +49676,7 @@
         <v>8.70400047302246</v>
       </c>
       <c r="G1684" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49702,7 +49702,7 @@
         <v>8.71399974822998</v>
       </c>
       <c r="G1685" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49728,7 +49728,7 @@
         <v>8.64200019836426</v>
       </c>
       <c r="G1686" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -49754,7 +49754,7 @@
         <v>8.60799980163574</v>
       </c>
       <c r="G1687" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -49780,7 +49780,7 @@
         <v>8.28800010681152</v>
       </c>
       <c r="G1688" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -49806,7 +49806,7 @@
         <v>8.06599998474121</v>
       </c>
       <c r="G1689" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -49832,7 +49832,7 @@
         <v>8.12800025939941</v>
       </c>
       <c r="G1690" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -49858,7 +49858,7 @@
         <v>8.09200000762939</v>
       </c>
       <c r="G1691" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49884,7 +49884,7 @@
         <v>8.04599952697754</v>
       </c>
       <c r="G1692" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49910,7 +49910,7 @@
         <v>7.93200016021729</v>
       </c>
       <c r="G1693" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49936,7 +49936,7 @@
         <v>7.91200017929077</v>
       </c>
       <c r="G1694" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49962,7 +49962,7 @@
         <v>7.98799991607666</v>
       </c>
       <c r="G1695" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49988,7 +49988,7 @@
         <v>7.90799999237061</v>
       </c>
       <c r="G1696" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -50014,7 +50014,7 @@
         <v>7.81400012969971</v>
       </c>
       <c r="G1697" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -50040,7 +50040,7 @@
         <v>8.11200046539307</v>
       </c>
       <c r="G1698" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -50066,7 +50066,7 @@
         <v>7.98600006103516</v>
       </c>
       <c r="G1699" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -50092,7 +50092,7 @@
         <v>7.96400022506714</v>
       </c>
       <c r="G1700" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -50118,7 +50118,7 @@
         <v>8.00800037384033</v>
       </c>
       <c r="G1701" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -50144,7 +50144,7 @@
         <v>8.08199977874756</v>
       </c>
       <c r="G1702" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -50170,7 +50170,7 @@
         <v>8.2819995880127</v>
       </c>
       <c r="G1703" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -50196,7 +50196,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -50222,7 +50222,7 @@
         <v>8.4680004119873</v>
       </c>
       <c r="G1705" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -50248,7 +50248,7 @@
         <v>8.55399990081787</v>
       </c>
       <c r="G1706" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -50274,7 +50274,7 @@
         <v>8.52799987792969</v>
       </c>
       <c r="G1707" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -50300,7 +50300,7 @@
         <v>8.45600032806396</v>
       </c>
       <c r="G1708" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -50326,7 +50326,7 @@
         <v>8.4980001449585</v>
       </c>
       <c r="G1709" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -50352,7 +50352,7 @@
         <v>8.19600009918213</v>
       </c>
       <c r="G1710" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -50378,7 +50378,7 @@
         <v>8.33399963378906</v>
       </c>
       <c r="G1711" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -50404,7 +50404,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1712" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -50430,7 +50430,7 @@
         <v>7.93200016021729</v>
       </c>
       <c r="G1713" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -50456,7 +50456,7 @@
         <v>7.98199987411499</v>
       </c>
       <c r="G1714" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -50482,7 +50482,7 @@
         <v>7.83400011062622</v>
       </c>
       <c r="G1715" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50508,7 +50508,7 @@
         <v>7.75600004196167</v>
       </c>
       <c r="G1716" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50534,7 +50534,7 @@
         <v>7.61199998855591</v>
       </c>
       <c r="G1717" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50560,7 +50560,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G1718" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50586,7 +50586,7 @@
         <v>8.28800010681152</v>
       </c>
       <c r="G1719" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50612,7 +50612,7 @@
         <v>8.47200012207031</v>
       </c>
       <c r="G1720" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50638,7 +50638,7 @@
         <v>8.33199977874756</v>
       </c>
       <c r="G1721" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50664,7 +50664,7 @@
         <v>8.01399993896484</v>
       </c>
       <c r="G1722" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50690,7 +50690,7 @@
         <v>7.96600008010864</v>
       </c>
       <c r="G1723" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50716,7 +50716,7 @@
         <v>7.94799995422363</v>
       </c>
       <c r="G1724" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -50742,7 +50742,7 @@
         <v>7.90799999237061</v>
       </c>
       <c r="G1725" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50768,7 +50768,7 @@
         <v>7.84200000762939</v>
       </c>
       <c r="G1726" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50794,7 +50794,7 @@
         <v>8.01399993896484</v>
       </c>
       <c r="G1727" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50820,7 +50820,7 @@
         <v>8.07800006866455</v>
       </c>
       <c r="G1728" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50846,7 +50846,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1729" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50872,7 +50872,7 @@
         <v>8.38399982452393</v>
       </c>
       <c r="G1730" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50898,7 +50898,7 @@
         <v>8.41600036621094</v>
       </c>
       <c r="G1731" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50950,7 +50950,7 @@
         <v>8.58600044250488</v>
       </c>
       <c r="G1733" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50976,7 +50976,7 @@
         <v>8.81400012969971</v>
       </c>
       <c r="G1734" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -51002,7 +51002,7 @@
         <v>8.80599975585938</v>
       </c>
       <c r="G1735" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -51028,7 +51028,7 @@
         <v>8.81599998474121</v>
       </c>
       <c r="G1736" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -51054,7 +51054,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1737" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -51080,7 +51080,7 @@
         <v>9.13199996948242</v>
       </c>
       <c r="G1738" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -51106,7 +51106,7 @@
         <v>9.17199993133545</v>
       </c>
       <c r="G1739" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -51132,7 +51132,7 @@
         <v>9.12399959564209</v>
       </c>
       <c r="G1740" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -51158,7 +51158,7 @@
         <v>9.24400043487549</v>
       </c>
       <c r="G1741" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -51184,7 +51184,7 @@
         <v>9.19600009918213</v>
       </c>
       <c r="G1742" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -51210,7 +51210,7 @@
         <v>9.39799976348877</v>
       </c>
       <c r="G1743" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -51236,7 +51236,7 @@
         <v>9.63199996948242</v>
       </c>
       <c r="G1744" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -51262,7 +51262,7 @@
         <v>9.67800045013428</v>
       </c>
       <c r="G1745" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -51288,7 +51288,7 @@
         <v>9.74400043487549</v>
       </c>
       <c r="G1746" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -51314,7 +51314,7 @@
         <v>9.81400012969971</v>
       </c>
       <c r="G1747" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -51340,7 +51340,7 @@
         <v>9.95400047302246</v>
       </c>
       <c r="G1748" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -51470,7 +51470,7 @@
         <v>10.1750001907349</v>
       </c>
       <c r="G1753" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51496,7 +51496,7 @@
         <v>9.41800022125244</v>
       </c>
       <c r="G1754" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51522,7 +51522,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1755" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51548,7 +51548,7 @@
         <v>9.44600009918213</v>
       </c>
       <c r="G1756" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51574,7 +51574,7 @@
         <v>9.37199974060059</v>
       </c>
       <c r="G1757" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51600,7 +51600,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1758" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51626,7 +51626,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G1759" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51652,7 +51652,7 @@
         <v>9.25599956512451</v>
       </c>
       <c r="G1760" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51678,7 +51678,7 @@
         <v>9.21399974822998</v>
       </c>
       <c r="G1761" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51704,7 +51704,7 @@
         <v>9.16399955749512</v>
       </c>
       <c r="G1762" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51730,7 +51730,7 @@
         <v>9.18599987030029</v>
       </c>
       <c r="G1763" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51756,7 +51756,7 @@
         <v>9.21599960327148</v>
       </c>
       <c r="G1764" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51782,7 +51782,7 @@
         <v>9.15200042724609</v>
       </c>
       <c r="G1765" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51808,7 +51808,7 @@
         <v>9.09200000762939</v>
       </c>
       <c r="G1766" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51834,7 +51834,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1767" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51860,7 +51860,7 @@
         <v>9.18200016021729</v>
       </c>
       <c r="G1768" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51886,7 +51886,7 @@
         <v>9.16199970245361</v>
       </c>
       <c r="G1769" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51912,7 +51912,7 @@
         <v>9.3120002746582</v>
       </c>
       <c r="G1770" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51938,7 +51938,7 @@
         <v>9.2819995880127</v>
       </c>
       <c r="G1771" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51964,7 +51964,7 @@
         <v>8.94400024414062</v>
       </c>
       <c r="G1772" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51990,7 +51990,7 @@
         <v>8.90799999237061</v>
       </c>
       <c r="G1773" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -52016,7 +52016,7 @@
         <v>8.93599987030029</v>
       </c>
       <c r="G1774" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -52042,7 +52042,7 @@
         <v>8.96599960327148</v>
       </c>
       <c r="G1775" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -52068,7 +52068,7 @@
         <v>9.12600040435791</v>
       </c>
       <c r="G1776" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -52094,7 +52094,7 @@
         <v>9.01399993896484</v>
       </c>
       <c r="G1777" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -52120,7 +52120,7 @@
         <v>9.0319995880127</v>
       </c>
       <c r="G1778" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -52146,7 +52146,7 @@
         <v>9.03400039672852</v>
       </c>
       <c r="G1779" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -52172,7 +52172,7 @@
         <v>8.97599983215332</v>
       </c>
       <c r="G1780" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -52198,7 +52198,7 @@
         <v>9.10599994659424</v>
       </c>
       <c r="G1781" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -52224,7 +52224,7 @@
         <v>8.98400020599365</v>
       </c>
       <c r="G1782" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -52250,7 +52250,7 @@
         <v>9.04399967193604</v>
       </c>
       <c r="G1783" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -52276,7 +52276,7 @@
         <v>9.13599967956543</v>
       </c>
       <c r="G1784" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -52302,7 +52302,7 @@
         <v>9.28600025177002</v>
       </c>
       <c r="G1785" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -52328,7 +52328,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1786" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -52354,7 +52354,7 @@
         <v>9.26399993896484</v>
       </c>
       <c r="G1787" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -52380,7 +52380,7 @@
         <v>9.35599994659424</v>
       </c>
       <c r="G1788" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52406,7 +52406,7 @@
         <v>9.40799999237061</v>
       </c>
       <c r="G1789" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52432,7 +52432,7 @@
         <v>9.55200004577637</v>
       </c>
       <c r="G1790" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52458,7 +52458,7 @@
         <v>9.67599964141846</v>
       </c>
       <c r="G1791" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52484,7 +52484,7 @@
         <v>9.66399955749512</v>
       </c>
       <c r="G1792" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52510,7 +52510,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1793" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52536,7 +52536,7 @@
         <v>9.65799999237061</v>
       </c>
       <c r="G1794" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52562,7 +52562,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1795" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52588,7 +52588,7 @@
         <v>9.43599987030029</v>
       </c>
       <c r="G1796" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52614,7 +52614,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1797" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52640,7 +52640,7 @@
         <v>9.62399959564209</v>
       </c>
       <c r="G1798" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52666,7 +52666,7 @@
         <v>9.68400001525879</v>
       </c>
       <c r="G1799" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52692,7 +52692,7 @@
         <v>9.74199962615967</v>
       </c>
       <c r="G1800" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52718,7 +52718,7 @@
         <v>9.86600017547607</v>
       </c>
       <c r="G1801" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52744,7 +52744,7 @@
         <v>9.90200042724609</v>
       </c>
       <c r="G1802" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52770,7 +52770,7 @@
         <v>9.9379997253418</v>
       </c>
       <c r="G1803" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52796,7 +52796,7 @@
         <v>9.85599994659424</v>
       </c>
       <c r="G1804" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52822,7 +52822,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1805" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52848,7 +52848,7 @@
         <v>9.99600028991699</v>
       </c>
       <c r="G1806" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52874,7 +52874,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1807" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52900,7 +52900,7 @@
         <v>10.1450004577637</v>
       </c>
       <c r="G1808" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52926,7 +52926,7 @@
         <v>10.1700000762939</v>
       </c>
       <c r="G1809" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52952,7 +52952,7 @@
         <v>10.2049999237061</v>
       </c>
       <c r="G1810" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52978,7 +52978,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1811" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -53004,7 +53004,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1812" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -53030,7 +53030,7 @@
         <v>10.3699998855591</v>
       </c>
       <c r="G1813" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -53056,7 +53056,7 @@
         <v>10.4099998474121</v>
       </c>
       <c r="G1814" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -53082,7 +53082,7 @@
         <v>10.2449998855591</v>
       </c>
       <c r="G1815" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -53108,7 +53108,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1816" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -53134,7 +53134,7 @@
         <v>10.2550001144409</v>
       </c>
       <c r="G1817" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -53160,7 +53160,7 @@
         <v>10.125</v>
       </c>
       <c r="G1818" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -53186,7 +53186,7 @@
         <v>10.1149997711182</v>
       </c>
       <c r="G1819" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -53212,7 +53212,7 @@
         <v>9.99199962615967</v>
       </c>
       <c r="G1820" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -53238,7 +53238,7 @@
         <v>10.0150003433228</v>
       </c>
       <c r="G1821" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -53264,7 +53264,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1822" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -53290,7 +53290,7 @@
         <v>10.0299997329712</v>
       </c>
       <c r="G1823" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -53316,7 +53316,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1824" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -53342,7 +53342,7 @@
         <v>9.97200012207031</v>
       </c>
       <c r="G1825" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53368,7 +53368,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -53394,7 +53394,7 @@
         <v>10.0699996948242</v>
       </c>
       <c r="G1827" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53420,7 +53420,7 @@
         <v>10.1350002288818</v>
       </c>
       <c r="G1828" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53446,7 +53446,7 @@
         <v>10.0749998092651</v>
       </c>
       <c r="G1829" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53472,7 +53472,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1830" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53498,7 +53498,7 @@
         <v>10.0050001144409</v>
       </c>
       <c r="G1831" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53524,7 +53524,7 @@
         <v>9.72599983215332</v>
       </c>
       <c r="G1832" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53550,7 +53550,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1833" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53576,7 +53576,7 @@
         <v>9.52400016784668</v>
       </c>
       <c r="G1834" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53602,7 +53602,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G1835" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53628,7 +53628,7 @@
         <v>8.95600032806396</v>
       </c>
       <c r="G1836" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53654,7 +53654,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1837" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53680,7 +53680,7 @@
         <v>8.95600032806396</v>
       </c>
       <c r="G1838" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53706,7 +53706,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1839" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53732,7 +53732,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53758,7 +53758,7 @@
         <v>9.08800029754639</v>
       </c>
       <c r="G1841" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53784,7 +53784,7 @@
         <v>8.99400043487549</v>
       </c>
       <c r="G1842" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53810,7 +53810,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1843" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53836,7 +53836,7 @@
         <v>9.05799961090088</v>
       </c>
       <c r="G1844" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53862,7 +53862,7 @@
         <v>9.19799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53888,7 +53888,7 @@
         <v>9.25599956512451</v>
       </c>
       <c r="G1846" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53914,7 +53914,7 @@
         <v>9.26799964904785</v>
       </c>
       <c r="G1847" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53940,7 +53940,7 @@
         <v>9.30200004577637</v>
       </c>
       <c r="G1848" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53966,7 +53966,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G1849" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53992,7 +53992,7 @@
         <v>9.2180004119873</v>
       </c>
       <c r="G1850" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -54018,7 +54018,7 @@
         <v>9.44400024414062</v>
       </c>
       <c r="G1851" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -54044,7 +54044,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1852" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -54070,7 +54070,7 @@
         <v>9.45400047302246</v>
       </c>
       <c r="G1853" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -54096,7 +54096,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1854" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -54122,7 +54122,7 @@
         <v>9.63799953460693</v>
       </c>
       <c r="G1855" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -54148,7 +54148,7 @@
         <v>9.55799961090088</v>
       </c>
       <c r="G1856" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -54174,7 +54174,7 @@
         <v>9.75</v>
       </c>
       <c r="G1857" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -54200,7 +54200,7 @@
         <v>9.78600025177002</v>
       </c>
       <c r="G1858" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -54226,7 +54226,7 @@
         <v>9.70400047302246</v>
       </c>
       <c r="G1859" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -54252,7 +54252,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G1860" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -54278,7 +54278,7 @@
         <v>9.78600025177002</v>
       </c>
       <c r="G1861" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -54304,7 +54304,7 @@
         <v>9.73200035095215</v>
       </c>
       <c r="G1862" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -54330,7 +54330,7 @@
         <v>9.76200008392334</v>
       </c>
       <c r="G1863" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -54356,7 +54356,7 @@
         <v>9.8459997177124</v>
       </c>
       <c r="G1864" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54382,7 +54382,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1865" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54408,7 +54408,7 @@
         <v>9.39799976348877</v>
       </c>
       <c r="G1866" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -54434,7 +54434,7 @@
         <v>9.75800037384033</v>
       </c>
       <c r="G1867" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54460,7 +54460,7 @@
         <v>9.64200019836426</v>
       </c>
       <c r="G1868" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54486,7 +54486,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1869" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54512,7 +54512,7 @@
         <v>10</v>
       </c>
       <c r="G1870" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54538,7 +54538,7 @@
         <v>9.93200016021729</v>
       </c>
       <c r="G1871" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54564,7 +54564,7 @@
         <v>9.96199989318848</v>
       </c>
       <c r="G1872" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54590,7 +54590,7 @@
         <v>9.6879997253418</v>
       </c>
       <c r="G1873" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54616,7 +54616,7 @@
         <v>9.70199966430664</v>
       </c>
       <c r="G1874" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54642,7 +54642,7 @@
         <v>9.74600028991699</v>
       </c>
       <c r="G1875" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54668,7 +54668,7 @@
         <v>9.82800006866455</v>
       </c>
       <c r="G1876" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54694,7 +54694,7 @@
         <v>9.85200023651123</v>
       </c>
       <c r="G1877" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54720,7 +54720,7 @@
         <v>9.94200038909912</v>
       </c>
       <c r="G1878" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54746,7 +54746,7 @@
         <v>10.0349998474121</v>
       </c>
       <c r="G1879" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54772,7 +54772,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1880" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54798,7 +54798,7 @@
         <v>10.1750001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54824,7 +54824,7 @@
         <v>10.3699998855591</v>
       </c>
       <c r="G1882" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54850,7 +54850,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54876,7 +54876,7 @@
         <v>10.4449996948242</v>
       </c>
       <c r="G1884" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54902,7 +54902,7 @@
         <v>10.335000038147</v>
       </c>
       <c r="G1885" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54928,7 +54928,7 @@
         <v>10.3299999237061</v>
       </c>
       <c r="G1886" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54954,7 +54954,7 @@
         <v>10.2950000762939</v>
       </c>
       <c r="G1887" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54980,7 +54980,7 @@
         <v>10.625</v>
       </c>
       <c r="G1888" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -55006,7 +55006,7 @@
         <v>10.7049999237061</v>
       </c>
       <c r="G1889" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -55032,7 +55032,7 @@
         <v>10.6049995422363</v>
       </c>
       <c r="G1890" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -55058,7 +55058,7 @@
         <v>10.6949996948242</v>
       </c>
       <c r="G1891" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -55084,7 +55084,7 @@
         <v>10.6750001907349</v>
       </c>
       <c r="G1892" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -55110,7 +55110,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G1893" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -55136,7 +55136,7 @@
         <v>10.9449996948242</v>
       </c>
       <c r="G1894" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -55162,7 +55162,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1895" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -55188,7 +55188,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G1896" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -55214,7 +55214,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G1897" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -55240,7 +55240,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G1898" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -55266,7 +55266,7 @@
         <v>11.2250003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -55292,7 +55292,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1900" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55318,7 +55318,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1901" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55344,7 +55344,7 @@
         <v>11.1149997711182</v>
       </c>
       <c r="G1902" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55370,7 +55370,7 @@
         <v>10.8950004577637</v>
       </c>
       <c r="G1903" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55396,7 +55396,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G1904" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55422,7 +55422,7 @@
         <v>10.7399997711182</v>
       </c>
       <c r="G1905" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55448,7 +55448,7 @@
         <v>10.7749996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55474,7 +55474,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1907" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55500,7 +55500,7 @@
         <v>10.8950004577637</v>
       </c>
       <c r="G1908" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55526,7 +55526,7 @@
         <v>10.960000038147</v>
       </c>
       <c r="G1909" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55552,7 +55552,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1910" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55578,7 +55578,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1911" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55604,7 +55604,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1912" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55630,7 +55630,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1913" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55656,7 +55656,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1914" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55682,7 +55682,7 @@
         <v>11.0150003433228</v>
       </c>
       <c r="G1915" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55708,7 +55708,7 @@
         <v>11.0249996185303</v>
       </c>
       <c r="G1916" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55734,7 +55734,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1917" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55760,7 +55760,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1918" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55786,7 +55786,7 @@
         <v>11.289999961853</v>
       </c>
       <c r="G1919" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55812,7 +55812,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G1920" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55838,7 +55838,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1921" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55864,7 +55864,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1922" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55890,7 +55890,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1923" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55916,7 +55916,7 @@
         <v>11.4750003814697</v>
       </c>
       <c r="G1924" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55942,7 +55942,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1925" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55968,7 +55968,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1926" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55994,7 +55994,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G1927" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -56020,7 +56020,7 @@
         <v>11.9549999237061</v>
       </c>
       <c r="G1928" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -56046,7 +56046,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1929" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -56072,7 +56072,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1930" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -56098,7 +56098,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G1931" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -56124,7 +56124,7 @@
         <v>11.8549995422363</v>
       </c>
       <c r="G1932" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -56150,7 +56150,7 @@
         <v>11.8450002670288</v>
       </c>
       <c r="G1933" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -56176,7 +56176,7 @@
         <v>11.835000038147</v>
       </c>
       <c r="G1934" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -56202,7 +56202,7 @@
         <v>11.8850002288818</v>
       </c>
       <c r="G1935" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -56228,7 +56228,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G1936" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -56254,7 +56254,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1937" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56280,7 +56280,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G1938" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56306,7 +56306,7 @@
         <v>11.7150001525879</v>
       </c>
       <c r="G1939" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56332,7 +56332,7 @@
         <v>11.8249998092651</v>
       </c>
       <c r="G1940" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56358,7 +56358,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1941" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56384,7 +56384,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1942" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56410,7 +56410,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G1943" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56436,7 +56436,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1944" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56462,7 +56462,7 @@
         <v>11.875</v>
       </c>
       <c r="G1945" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56488,7 +56488,7 @@
         <v>11.8549995422363</v>
       </c>
       <c r="G1946" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56514,7 +56514,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1947" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56540,7 +56540,7 @@
         <v>11.8050003051758</v>
       </c>
       <c r="G1948" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56566,7 +56566,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G1949" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56592,7 +56592,7 @@
         <v>12.1049995422363</v>
       </c>
       <c r="G1950" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56618,7 +56618,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1951" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56644,7 +56644,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G1952" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56670,7 +56670,7 @@
         <v>12.0749998092651</v>
       </c>
       <c r="G1953" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56696,7 +56696,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1954" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56722,7 +56722,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G1955" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56748,7 +56748,7 @@
         <v>12.0249996185303</v>
       </c>
       <c r="G1956" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56774,7 +56774,7 @@
         <v>12.1450004577637</v>
       </c>
       <c r="G1957" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56800,7 +56800,7 @@
         <v>12.0649995803833</v>
       </c>
       <c r="G1958" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56826,7 +56826,7 @@
         <v>12.164999961853</v>
       </c>
       <c r="G1959" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56852,7 +56852,7 @@
         <v>12.1750001907349</v>
       </c>
       <c r="G1960" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56878,7 +56878,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1961" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56904,7 +56904,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1962" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56930,7 +56930,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G1963" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56956,7 +56956,7 @@
         <v>12.1350002288818</v>
       </c>
       <c r="G1964" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56982,7 +56982,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1965" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -57008,7 +57008,7 @@
         <v>12.4049997329712</v>
       </c>
       <c r="G1966" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -57034,7 +57034,7 @@
         <v>12.3050003051758</v>
       </c>
       <c r="G1967" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -57060,7 +57060,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1968" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -57086,7 +57086,7 @@
         <v>12.2550001144409</v>
       </c>
       <c r="G1969" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -57112,7 +57112,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G1970" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -57138,7 +57138,7 @@
         <v>12.4250001907349</v>
       </c>
       <c r="G1971" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -57164,7 +57164,7 @@
         <v>12.4650001525879</v>
       </c>
       <c r="G1972" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -57190,7 +57190,7 @@
         <v>12.5299997329712</v>
       </c>
       <c r="G1973" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -57216,7 +57216,7 @@
         <v>12.375</v>
       </c>
       <c r="G1974" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -57242,7 +57242,7 @@
         <v>12.289999961853</v>
       </c>
       <c r="G1975" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -57268,7 +57268,7 @@
         <v>12.2349996566772</v>
       </c>
       <c r="G1976" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57294,7 +57294,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1977" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57320,7 +57320,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1978" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57346,7 +57346,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1979" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57372,7 +57372,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1980" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57398,7 +57398,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G1981" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57424,7 +57424,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1982" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57450,7 +57450,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G1983" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57476,7 +57476,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1984" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57502,7 +57502,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1985" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57528,7 +57528,7 @@
         <v>11.3800001144409</v>
       </c>
       <c r="G1986" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57554,7 +57554,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1987" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57580,7 +57580,7 @@
         <v>11.0349998474121</v>
       </c>
       <c r="G1988" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57606,7 +57606,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1989" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57632,7 +57632,7 @@
         <v>11.0050001144409</v>
       </c>
       <c r="G1990" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57658,7 +57658,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1991" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57684,7 +57684,7 @@
         <v>10.8950004577637</v>
       </c>
       <c r="G1992" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57710,7 +57710,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G1993" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57736,7 +57736,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57762,7 +57762,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G1995" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57788,7 +57788,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57814,7 +57814,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G1997" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57840,7 +57840,7 @@
         <v>11.4949998855591</v>
       </c>
       <c r="G1998" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57866,7 +57866,7 @@
         <v>11.5</v>
       </c>
       <c r="G1999" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57892,7 +57892,7 @@
         <v>11.5150003433228</v>
       </c>
       <c r="G2000" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57918,7 +57918,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G2001" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57944,7 +57944,7 @@
         <v>11.5249996185303</v>
       </c>
       <c r="G2002" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57970,7 +57970,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2003" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57996,7 +57996,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2004" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -58022,7 +58022,7 @@
         <v>11.8950004577637</v>
       </c>
       <c r="G2005" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -58048,7 +58048,7 @@
         <v>11.8050003051758</v>
       </c>
       <c r="G2006" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -58074,7 +58074,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G2007" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -58100,7 +58100,7 @@
         <v>11.7650003433228</v>
       </c>
       <c r="G2008" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -58126,7 +58126,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G2009" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -58152,7 +58152,7 @@
         <v>10.75</v>
       </c>
       <c r="G2010" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -58178,7 +58178,7 @@
         <v>10.8549995422363</v>
       </c>
       <c r="G2011" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -58204,7 +58204,7 @@
         <v>10.8450002670288</v>
       </c>
       <c r="G2012" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -58230,7 +58230,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G2013" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -58256,7 +58256,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G2014" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58282,7 +58282,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G2015" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58308,7 +58308,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G2016" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58334,7 +58334,7 @@
         <v>10.7749996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58360,7 +58360,7 @@
         <v>10.8050003051758</v>
       </c>
       <c r="G2018" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58386,7 +58386,7 @@
         <v>10.7449998855591</v>
       </c>
       <c r="G2019" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58412,7 +58412,7 @@
         <v>10.6700000762939</v>
       </c>
       <c r="G2020" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58438,7 +58438,7 @@
         <v>10.9650001525879</v>
       </c>
       <c r="G2021" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58464,7 +58464,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G2022" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58490,7 +58490,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G2023" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58516,7 +58516,7 @@
         <v>11.0950002670288</v>
       </c>
       <c r="G2024" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58542,7 +58542,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58568,7 +58568,7 @@
         <v>11.085000038147</v>
       </c>
       <c r="G2026" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58594,7 +58594,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58620,7 +58620,7 @@
         <v>11.125</v>
       </c>
       <c r="G2028" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58646,7 +58646,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G2029" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58672,7 +58672,7 @@
         <v>11.125</v>
       </c>
       <c r="G2030" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58698,7 +58698,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2031" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58724,7 +58724,7 @@
         <v>11.1350002288818</v>
       </c>
       <c r="G2032" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58750,7 +58750,7 @@
         <v>11.2449998855591</v>
       </c>
       <c r="G2033" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58776,7 +58776,7 @@
         <v>11.2150001525879</v>
       </c>
       <c r="G2034" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58802,7 +58802,7 @@
         <v>11.1750001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58828,7 +58828,7 @@
         <v>11.2049999237061</v>
       </c>
       <c r="G2036" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58854,7 +58854,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2037" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58880,7 +58880,7 @@
         <v>11.1149997711182</v>
       </c>
       <c r="G2038" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58906,7 +58906,7 @@
         <v>11.2349996566772</v>
       </c>
       <c r="G2039" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58932,7 +58932,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2040" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58958,7 +58958,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58984,7 +58984,7 @@
         <v>11.2849998474121</v>
       </c>
       <c r="G2042" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -59010,7 +59010,7 @@
         <v>11.2349996566772</v>
       </c>
       <c r="G2043" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -59036,7 +59036,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2044" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -59062,7 +59062,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2045" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -59088,7 +59088,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2046" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -59114,7 +59114,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2047" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -59140,7 +59140,7 @@
         <v>11.835000038147</v>
       </c>
       <c r="G2048" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -59166,7 +59166,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2049" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -59192,7 +59192,7 @@
         <v>12.0150003433228</v>
       </c>
       <c r="G2050" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -59218,7 +59218,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2051" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -59244,7 +59244,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2052" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -59270,7 +59270,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2053" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -59296,7 +59296,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G2054" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59322,7 +59322,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G2055" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59348,7 +59348,7 @@
         <v>12.125</v>
       </c>
       <c r="G2056" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59374,7 +59374,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G2057" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59400,7 +59400,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59426,7 +59426,7 @@
         <v>12.085000038147</v>
       </c>
       <c r="G2059" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59452,7 +59452,7 @@
         <v>12.1549997329712</v>
       </c>
       <c r="G2060" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59478,7 +59478,7 @@
         <v>12.085000038147</v>
       </c>
       <c r="G2061" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59504,7 +59504,7 @@
         <v>11.9750003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59530,7 +59530,7 @@
         <v>11.8950004577637</v>
       </c>
       <c r="G2063" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59556,7 +59556,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2064" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59582,7 +59582,7 @@
         <v>11.6350002288818</v>
       </c>
       <c r="G2065" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59608,7 +59608,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G2066" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59634,7 +59634,7 @@
         <v>11.5100002288818</v>
       </c>
       <c r="G2067" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59660,7 +59660,7 @@
         <v>11.4849996566772</v>
       </c>
       <c r="G2068" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59686,7 +59686,7 @@
         <v>11.664999961853</v>
       </c>
       <c r="G2069" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59712,7 +59712,7 @@
         <v>11.6949996948242</v>
       </c>
       <c r="G2070" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59738,7 +59738,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2071" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59764,7 +59764,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59790,7 +59790,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59816,7 +59816,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2074" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59842,7 +59842,7 @@
         <v>12.9449996948242</v>
       </c>
       <c r="G2075" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59868,7 +59868,7 @@
         <v>12.8050003051758</v>
       </c>
       <c r="G2076" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59894,7 +59894,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G2077" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59920,7 +59920,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G2078" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59946,7 +59946,7 @@
         <v>12.5950002670288</v>
       </c>
       <c r="G2079" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59972,7 +59972,7 @@
         <v>12.6099996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59998,7 +59998,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2081" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -60024,7 +60024,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2082" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -60050,7 +60050,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G2083" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -60076,7 +60076,7 @@
         <v>12.7950000762939</v>
       </c>
       <c r="G2084" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -60102,7 +60102,7 @@
         <v>12.7950000762939</v>
       </c>
       <c r="G2085" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -60128,7 +60128,7 @@
         <v>12.8100004196167</v>
       </c>
       <c r="G2086" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -60154,7 +60154,7 @@
         <v>12.9449996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -60180,7 +60180,7 @@
         <v>12.9949998855591</v>
       </c>
       <c r="G2088" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -60206,7 +60206,7 @@
         <v>12.914999961853</v>
       </c>
       <c r="G2089" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -60232,7 +60232,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2090" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -60258,7 +60258,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -60284,7 +60284,7 @@
         <v>13.2749996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -60310,7 +60310,7 @@
         <v>13.2550001144409</v>
       </c>
       <c r="G2093" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60336,7 +60336,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G2094" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60362,7 +60362,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G2095" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60388,7 +60388,7 @@
         <v>13.5649995803833</v>
       </c>
       <c r="G2096" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60414,7 +60414,7 @@
         <v>13.625</v>
       </c>
       <c r="G2097" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60440,7 +60440,7 @@
         <v>13.7849998474121</v>
       </c>
       <c r="G2098" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60466,7 +60466,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="G2099" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60492,7 +60492,7 @@
         <v>13.6750001907349</v>
       </c>
       <c r="G2100" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60518,7 +60518,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G2101" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60544,7 +60544,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="G2102" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60570,7 +60570,7 @@
         <v>13.6949996948242</v>
       </c>
       <c r="G2103" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60596,7 +60596,7 @@
         <v>13.7049999237061</v>
       </c>
       <c r="G2104" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60622,7 +60622,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60648,7 +60648,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60674,7 +60674,7 @@
         <v>13.5649995803833</v>
       </c>
       <c r="G2107" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60700,7 +60700,7 @@
         <v>13.5749998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60726,7 +60726,7 @@
         <v>13.6750001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60752,7 +60752,7 @@
         <v>13.3950004577637</v>
       </c>
       <c r="G2110" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60778,7 +60778,7 @@
         <v>13.4449996948242</v>
       </c>
       <c r="G2111" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60804,7 +60804,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G2112" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60830,7 +60830,7 @@
         <v>13.4949998855591</v>
       </c>
       <c r="G2113" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60856,7 +60856,7 @@
         <v>13.6149997711182</v>
       </c>
       <c r="G2114" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60882,7 +60882,7 @@
         <v>13.7049999237061</v>
       </c>
       <c r="G2115" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60908,7 +60908,7 @@
         <v>13.6450004577637</v>
       </c>
       <c r="G2116" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60934,7 +60934,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G2117" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60960,7 +60960,7 @@
         <v>13.4049997329712</v>
       </c>
       <c r="G2118" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60986,7 +60986,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G2119" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -61012,7 +61012,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -61038,7 +61038,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G2121" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -61064,7 +61064,7 @@
         <v>13.4750003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -61090,7 +61090,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G2123" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -61116,7 +61116,7 @@
         <v>13.9700002670288</v>
       </c>
       <c r="G2124" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -61142,7 +61142,7 @@
         <v>14</v>
       </c>
       <c r="G2125" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -61168,7 +61168,7 @@
         <v>14.1099996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -61194,7 +61194,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G2127" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -61220,7 +61220,7 @@
         <v>14.6099996566772</v>
       </c>
       <c r="G2128" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -61246,7 +61246,7 @@
         <v>14.9300003051758</v>
       </c>
       <c r="G2129" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -61272,7 +61272,7 @@
         <v>15.1949996948242</v>
       </c>
       <c r="G2130" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -61298,7 +61298,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G2131" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61324,7 +61324,7 @@
         <v>15.2449998855591</v>
       </c>
       <c r="G2132" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61350,7 +61350,7 @@
         <v>14.835000038147</v>
       </c>
       <c r="G2133" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61376,7 +61376,7 @@
         <v>14.625</v>
       </c>
       <c r="G2134" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61402,7 +61402,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2135" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61428,7 +61428,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61454,7 +61454,7 @@
         <v>14.6300001144409</v>
       </c>
       <c r="G2137" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61480,7 +61480,7 @@
         <v>14.664999961853</v>
       </c>
       <c r="G2138" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61506,7 +61506,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G2139" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61532,7 +61532,7 @@
         <v>14.4549999237061</v>
       </c>
       <c r="G2140" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61558,7 +61558,7 @@
         <v>14.5</v>
       </c>
       <c r="G2141" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61584,7 +61584,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G2142" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61610,7 +61610,7 @@
         <v>14.625</v>
       </c>
       <c r="G2143" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61636,7 +61636,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G2144" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61662,7 +61662,7 @@
         <v>14.3299999237061</v>
       </c>
       <c r="G2145" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61688,7 +61688,7 @@
         <v>14.375</v>
       </c>
       <c r="G2146" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61714,7 +61714,7 @@
         <v>14.3450002670288</v>
       </c>
       <c r="G2147" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61740,7 +61740,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G2148" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61766,7 +61766,7 @@
         <v>14.0249996185303</v>
       </c>
       <c r="G2149" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61792,7 +61792,7 @@
         <v>14.335000038147</v>
       </c>
       <c r="G2150" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61818,7 +61818,7 @@
         <v>13.835000038147</v>
       </c>
       <c r="G2151" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61844,7 +61844,7 @@
         <v>13.5249996185303</v>
       </c>
       <c r="G2152" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61870,7 +61870,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G2153" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61896,7 +61896,7 @@
         <v>13.6899995803833</v>
       </c>
       <c r="G2154" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61922,7 +61922,7 @@
         <v>13.585000038147</v>
       </c>
       <c r="G2155" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61948,7 +61948,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="G2156" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61974,7 +61974,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G2157" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61982,7 +61982,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6494444444</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>1961055</v>
@@ -61994,15 +61994,41 @@
         <v>13.6350002288818</v>
       </c>
       <c r="E2158" t="n">
-        <v>13.7200002670288</v>
+        <v>13.6350002288818</v>
       </c>
       <c r="F2158" t="n">
         <v>13.9350004196167</v>
       </c>
       <c r="G2158" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6496412037</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>1034423</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>13.9700002670288</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>13.8050003051758</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>13.9350004196167</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>13.8699998855591</v>
+      </c>
+      <c r="G2159" t="s">
         <v>1848</v>
       </c>
-      <c r="H2158" t="s">
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54330205917358</t>
+    <t xml:space="preserve">5.54330253601074</t>
   </si>
   <si>
     <t xml:space="preserve">MB.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">5.53684902191162</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39810514450073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29485416412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16578960418701</t>
+    <t xml:space="preserve">5.39810562133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29485368728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16579055786133</t>
   </si>
   <si>
     <t xml:space="preserve">5.13675022125244</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">5.25936079025269</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31744050979614</t>
+    <t xml:space="preserve">5.31744003295898</t>
   </si>
   <si>
     <t xml:space="preserve">5.25290822982788</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">4.81086349487305</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91088819503784</t>
+    <t xml:space="preserve">4.910888671875</t>
   </si>
   <si>
     <t xml:space="preserve">4.71406507492065</t>
@@ -89,13 +89,13 @@
     <t xml:space="preserve">4.83022356033325</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90766143798828</t>
+    <t xml:space="preserve">4.90766191482544</t>
   </si>
   <si>
     <t xml:space="preserve">4.83344984054565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56886911392212</t>
+    <t xml:space="preserve">4.5688681602478</t>
   </si>
   <si>
     <t xml:space="preserve">4.75278425216675</t>
@@ -116,58 +116,58 @@
     <t xml:space="preserve">4.25911474227905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86224293708801</t>
+    <t xml:space="preserve">3.86224317550659</t>
   </si>
   <si>
     <t xml:space="preserve">3.64606070518494</t>
   </si>
   <si>
-    <t xml:space="preserve">3.92032051086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71381902694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78480386734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89450883865356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93000149726868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00421285629272</t>
+    <t xml:space="preserve">3.92032122612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7138192653656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78480434417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89450836181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93000173568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00421333312988</t>
   </si>
   <si>
     <t xml:space="preserve">3.88805508613586</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85578894615173</t>
+    <t xml:space="preserve">3.85578966140747</t>
   </si>
   <si>
     <t xml:space="preserve">4.01066637039185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91064143180847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86869621276855</t>
+    <t xml:space="preserve">3.91064119338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86869645118713</t>
   </si>
   <si>
     <t xml:space="preserve">3.92354846000671</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02357244491577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03970623016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20426225662231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36559247970581</t>
+    <t xml:space="preserve">4.02357292175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03970575332642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20426273345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36559295654297</t>
   </si>
   <si>
     <t xml:space="preserve">4.38172578811646</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">4.29783344268799</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1752233505249</t>
+    <t xml:space="preserve">4.17522239685059</t>
   </si>
   <si>
     <t xml:space="preserve">4.23007535934448</t>
@@ -185,40 +185,40 @@
     <t xml:space="preserve">4.24298143386841</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30751371383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68179988861084</t>
+    <t xml:space="preserve">4.30751419067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68179941177368</t>
   </si>
   <si>
     <t xml:space="preserve">4.7301983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57209444046021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59145498275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31073999404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34945964813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.37204551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29138040542603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26234197616577</t>
+    <t xml:space="preserve">4.57209491729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59145450592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31074047088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34945917129517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.37204599380493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29138135910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26234149932861</t>
   </si>
   <si>
     <t xml:space="preserve">4.14295625686646</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16876983642578</t>
+    <t xml:space="preserve">4.16876935958862</t>
   </si>
   <si>
     <t xml:space="preserve">4.08487844467163</t>
@@ -227,22 +227,22 @@
     <t xml:space="preserve">4.04938554763794</t>
   </si>
   <si>
-    <t xml:space="preserve">4.09133100509644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01389217376709</t>
+    <t xml:space="preserve">4.09133195877075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01389265060425</t>
   </si>
   <si>
     <t xml:space="preserve">4.0526123046875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84933662414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07197141647339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11714506149292</t>
+    <t xml:space="preserve">3.84933614730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07197189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1171441078186</t>
   </si>
   <si>
     <t xml:space="preserve">4.03002595901489</t>
@@ -251,22 +251,22 @@
     <t xml:space="preserve">4.23975515365601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31719398498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24620819091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51724290847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52046918869019</t>
+    <t xml:space="preserve">4.31719303131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24620771408081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51724338531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52046966552734</t>
   </si>
   <si>
     <t xml:space="preserve">4.6656665802002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68502616882324</t>
+    <t xml:space="preserve">4.68502569198608</t>
   </si>
   <si>
     <t xml:space="preserve">4.69470596313477</t>
@@ -275,28 +275,28 @@
     <t xml:space="preserve">4.63017416000366</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49788236618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32687377929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14941072463989</t>
+    <t xml:space="preserve">4.49788331985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32687330245972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14941024780273</t>
   </si>
   <si>
     <t xml:space="preserve">4.11391735076904</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06229257583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13327789306641</t>
+    <t xml:space="preserve">4.06229209899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13327741622925</t>
   </si>
   <si>
     <t xml:space="preserve">4.16231632232666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20103645324707</t>
+    <t xml:space="preserve">4.20103549957275</t>
   </si>
   <si>
     <t xml:space="preserve">4.18812942504883</t>
@@ -308,10 +308,10 @@
     <t xml:space="preserve">4.24943447113037</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28815412521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50433683395386</t>
+    <t xml:space="preserve">4.28815460205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5043363571167</t>
   </si>
   <si>
     <t xml:space="preserve">4.6075873374939</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">4.63985395431519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41399192810059</t>
+    <t xml:space="preserve">4.41399145126343</t>
   </si>
   <si>
     <t xml:space="preserve">4.38495206832886</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">3.95258736610413</t>
   </si>
   <si>
-    <t xml:space="preserve">3.75899147987366</t>
+    <t xml:space="preserve">3.7589910030365</t>
   </si>
   <si>
     <t xml:space="preserve">3.61702084541321</t>
@@ -356,40 +356,40 @@
     <t xml:space="preserve">3.70413899421692</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85256290435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06551837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12037038803101</t>
+    <t xml:space="preserve">3.85256218910217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06551790237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12037086486816</t>
   </si>
   <si>
     <t xml:space="preserve">4.094557762146</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42665123939514</t>
+    <t xml:space="preserve">3.42665147781372</t>
   </si>
   <si>
     <t xml:space="preserve">2.98912405967712</t>
   </si>
   <si>
-    <t xml:space="preserve">3.16207003593445</t>
+    <t xml:space="preserve">3.16207027435303</t>
   </si>
   <si>
     <t xml:space="preserve">3.27177429199219</t>
   </si>
   <si>
-    <t xml:space="preserve">3.32662677764893</t>
+    <t xml:space="preserve">3.32662653923035</t>
   </si>
   <si>
     <t xml:space="preserve">3.35889267921448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21756720542908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11431670188904</t>
+    <t xml:space="preserve">3.21756768226624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11431646347046</t>
   </si>
   <si>
     <t xml:space="preserve">3.0407497882843</t>
@@ -398,58 +398,58 @@
     <t xml:space="preserve">3.14529132843018</t>
   </si>
   <si>
-    <t xml:space="preserve">3.41374468803406</t>
+    <t xml:space="preserve">3.41374492645264</t>
   </si>
   <si>
     <t xml:space="preserve">3.67832589149475</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70736598968506</t>
+    <t xml:space="preserve">3.7073655128479</t>
   </si>
   <si>
     <t xml:space="preserve">3.82029676437378</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7654447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82997703552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79448390007019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83965659141541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83320355415344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86546874046326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77512431144714</t>
+    <t xml:space="preserve">3.76544451713562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82997679710388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79448437690735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83965611457825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83320307731628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86546897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77512407302856</t>
   </si>
   <si>
     <t xml:space="preserve">3.90741515159607</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85901618003845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04293203353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96549367904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63960695266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65251350402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97194695472717</t>
+    <t xml:space="preserve">3.85901641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04293251037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96549391746521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63960719108582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65251398086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97194719314575</t>
   </si>
   <si>
     <t xml:space="preserve">4.2365288734436</t>
@@ -464,19 +464,19 @@
     <t xml:space="preserve">4.1784496307373</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11069107055664</t>
+    <t xml:space="preserve">4.11069059371948</t>
   </si>
   <si>
     <t xml:space="preserve">4.07519865036011</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0590648651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.946133852005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98162746429443</t>
+    <t xml:space="preserve">4.05906581878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94613456726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98162722587585</t>
   </si>
   <si>
     <t xml:space="preserve">4.19135570526123</t>
@@ -485,61 +485,61 @@
     <t xml:space="preserve">4.15909051895142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2203950881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32364654541016</t>
+    <t xml:space="preserve">4.22039556503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.323646068573</t>
   </si>
   <si>
     <t xml:space="preserve">4.42367124557495</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35591268539429</t>
+    <t xml:space="preserve">4.35591220855713</t>
   </si>
   <si>
     <t xml:space="preserve">4.47529649734497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43657827377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.333327293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98485326766968</t>
+    <t xml:space="preserve">4.43657779693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33332633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98485350608826</t>
   </si>
   <si>
     <t xml:space="preserve">4.04615926742554</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93645429611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02679920196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03325271606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73317885398865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78157830238342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71059203147888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73640465736389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72672557830811</t>
+    <t xml:space="preserve">3.93645453453064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02679872512817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03325223922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73317837715149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78157806396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71059274673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73640441894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72672605514526</t>
   </si>
   <si>
     <t xml:space="preserve">3.72995233535767</t>
   </si>
   <si>
-    <t xml:space="preserve">3.93322825431824</t>
+    <t xml:space="preserve">3.93322777748108</t>
   </si>
   <si>
     <t xml:space="preserve">4.03647899627686</t>
@@ -548,52 +548,52 @@
     <t xml:space="preserve">3.90096211433411</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9977605342865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13650417327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26556777954102</t>
+    <t xml:space="preserve">3.99776005744934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13650465011597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26556873321533</t>
   </si>
   <si>
     <t xml:space="preserve">4.38817882537842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43980503082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52369594573975</t>
+    <t xml:space="preserve">4.4398045539856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5236964225769</t>
   </si>
   <si>
     <t xml:space="preserve">4.33655309677124</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10423803329468</t>
+    <t xml:space="preserve">4.10423755645752</t>
   </si>
   <si>
     <t xml:space="preserve">4.28170108795166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42689752578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42044496536255</t>
+    <t xml:space="preserve">4.42689847946167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42044544219971</t>
   </si>
   <si>
     <t xml:space="preserve">4.54305553436279</t>
   </si>
   <si>
-    <t xml:space="preserve">4.55918884277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49142980575562</t>
+    <t xml:space="preserve">4.55918836593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49142932891846</t>
   </si>
   <si>
     <t xml:space="preserve">4.39140558242798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.213942527771</t>
+    <t xml:space="preserve">4.21394300460815</t>
   </si>
   <si>
     <t xml:space="preserve">4.26442861557007</t>
@@ -605,10 +605,10 @@
     <t xml:space="preserve">4.27452611923218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23077058792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17355298995972</t>
+    <t xml:space="preserve">4.2307710647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17355346679688</t>
   </si>
   <si>
     <t xml:space="preserve">4.0523853302002</t>
@@ -617,22 +617,22 @@
     <t xml:space="preserve">4.22403955459595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38223123550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52022790908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52695846557617</t>
+    <t xml:space="preserve">4.38223075866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52022695541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52695798873901</t>
   </si>
   <si>
     <t xml:space="preserve">4.33510971069336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76592874526978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99480104446411</t>
+    <t xml:space="preserve">4.76592826843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99480009078979</t>
   </si>
   <si>
     <t xml:space="preserve">5.13279676437378</t>
@@ -644,10 +644,10 @@
     <t xml:space="preserve">5.01499509811401</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06884717941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11596870422363</t>
+    <t xml:space="preserve">5.06884765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11596822738647</t>
   </si>
   <si>
     <t xml:space="preserve">5.28762245178223</t>
@@ -656,13 +656,13 @@
     <t xml:space="preserve">5.22703838348389</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25059938430786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32801151275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29098892211914</t>
+    <t xml:space="preserve">5.2505989074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32801198959351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29098796844482</t>
   </si>
   <si>
     <t xml:space="preserve">5.27415943145752</t>
@@ -674,16 +674,16 @@
     <t xml:space="preserve">5.3381085395813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27079343795776</t>
+    <t xml:space="preserve">5.27079391479492</t>
   </si>
   <si>
     <t xml:space="preserve">5.23040437698364</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22030687332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3313775062561</t>
+    <t xml:space="preserve">5.22030639648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33137702941895</t>
   </si>
   <si>
     <t xml:space="preserve">5.48620223999023</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">5.49293422698975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51312828063965</t>
+    <t xml:space="preserve">5.51312875747681</t>
   </si>
   <si>
     <t xml:space="preserve">5.26406240463257</t>
@@ -707,19 +707,19 @@
     <t xml:space="preserve">5.31791496276855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19338035583496</t>
+    <t xml:space="preserve">5.19338130950928</t>
   </si>
   <si>
     <t xml:space="preserve">5.40205812454224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38186407089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34484100341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42898416519165</t>
+    <t xml:space="preserve">5.38186359405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34484052658081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42898464202881</t>
   </si>
   <si>
     <t xml:space="preserve">5.35157203674316</t>
@@ -734,52 +734,52 @@
     <t xml:space="preserve">5.91365480422974</t>
   </si>
   <si>
-    <t xml:space="preserve">5.725172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65449047088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50303220748901</t>
+    <t xml:space="preserve">5.72517251968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65449142456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50303173065186</t>
   </si>
   <si>
     <t xml:space="preserve">5.35493755340576</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48283720016479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25733089447021</t>
+    <t xml:space="preserve">5.48283767700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25733041763306</t>
   </si>
   <si>
     <t xml:space="preserve">5.14626026153564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30445098876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24386692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3986930847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52659273147583</t>
+    <t xml:space="preserve">5.30445146560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24386739730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39869356155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52659225463867</t>
   </si>
   <si>
     <t xml:space="preserve">5.4963002204895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46600866317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41552209854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36503505706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31118249893188</t>
+    <t xml:space="preserve">5.46600818634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4155216217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36503458023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31118297576904</t>
   </si>
   <si>
     <t xml:space="preserve">5.1563572883606</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">5.01162910461426</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04865312576294</t>
+    <t xml:space="preserve">5.04865264892578</t>
   </si>
   <si>
     <t xml:space="preserve">5.09240770339966</t>
@@ -797,22 +797,22 @@
     <t xml:space="preserve">5.28425693511963</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3347430229187</t>
+    <t xml:space="preserve">5.33474349975586</t>
   </si>
   <si>
     <t xml:space="preserve">5.52322626113892</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57034683227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5804443359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6612229347229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60400485992432</t>
+    <t xml:space="preserve">5.57034635543823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58044481277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66122245788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60400438308716</t>
   </si>
   <si>
     <t xml:space="preserve">5.59054231643677</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">5.60737037658691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61746740341187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6847825050354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69824600219727</t>
+    <t xml:space="preserve">5.61746788024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68478345870972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69824647903442</t>
   </si>
   <si>
     <t xml:space="preserve">5.63766241073608</t>
@@ -836,22 +836,22 @@
     <t xml:space="preserve">5.70161247253418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67805194854736</t>
+    <t xml:space="preserve">5.67805242538452</t>
   </si>
   <si>
     <t xml:space="preserve">5.71507501602173</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68814897537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55015230178833</t>
+    <t xml:space="preserve">5.68814849853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55015182495117</t>
   </si>
   <si>
     <t xml:space="preserve">5.56024980545044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55688428878784</t>
+    <t xml:space="preserve">5.55688381195068</t>
   </si>
   <si>
     <t xml:space="preserve">5.59390735626221</t>
@@ -878,58 +878,58 @@
     <t xml:space="preserve">5.71844053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94058179855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95740985870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97760534286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0954065322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1795506477356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14252805709839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12569904327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10887002944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18628215789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1526255607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17618560791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00453090667725</t>
+    <t xml:space="preserve">5.94058132171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95741081237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97760486602783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09540748596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17955112457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14252758026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12569856643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1088695526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18628263473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15262508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17618608474731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0045313835144</t>
   </si>
   <si>
     <t xml:space="preserve">6.02472543716431</t>
   </si>
   <si>
-    <t xml:space="preserve">6.0752124786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11896705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15935659408569</t>
+    <t xml:space="preserve">6.07521200180054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11896800994873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15935707092285</t>
   </si>
   <si>
     <t xml:space="preserve">6.12906408309937</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10213756561279</t>
+    <t xml:space="preserve">6.10213804244995</t>
   </si>
   <si>
     <t xml:space="preserve">6.01126289367676</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">5.82277917861938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68141746520996</t>
+    <t xml:space="preserve">5.68141651153564</t>
   </si>
   <si>
     <t xml:space="preserve">5.70497751235962</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">5.61073637008667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63093090057373</t>
+    <t xml:space="preserve">5.63093042373657</t>
   </si>
   <si>
     <t xml:space="preserve">5.72853803634644</t>
@@ -959,7 +959,7 @@
     <t xml:space="preserve">5.76219606399536</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81941413879395</t>
+    <t xml:space="preserve">5.81941366195679</t>
   </si>
   <si>
     <t xml:space="preserve">5.73863458633423</t>
@@ -968,82 +968,82 @@
     <t xml:space="preserve">5.75882959365845</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65112638473511</t>
+    <t xml:space="preserve">5.65112543106079</t>
   </si>
   <si>
     <t xml:space="preserve">5.56361532211304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72180604934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70834302902222</t>
+    <t xml:space="preserve">5.72180652618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70834350585938</t>
   </si>
   <si>
     <t xml:space="preserve">5.85307121276855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83960866928101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81604909896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92375230789185</t>
+    <t xml:space="preserve">5.83960914611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81604814529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.923752784729</t>
   </si>
   <si>
     <t xml:space="preserve">5.97423934936523</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90019273757935</t>
+    <t xml:space="preserve">5.90019226074219</t>
   </si>
   <si>
     <t xml:space="preserve">5.93721532821655</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97087383270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04491996765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10550451278687</t>
+    <t xml:space="preserve">5.97087335586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04491949081421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10550355911255</t>
   </si>
   <si>
     <t xml:space="preserve">6.05838346481323</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06174945831299</t>
+    <t xml:space="preserve">6.06174850463867</t>
   </si>
   <si>
     <t xml:space="preserve">5.86316871643066</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88336324691772</t>
+    <t xml:space="preserve">5.88336277008057</t>
   </si>
   <si>
     <t xml:space="preserve">5.94731283187866</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98770236968994</t>
+    <t xml:space="preserve">5.98770332336426</t>
   </si>
   <si>
     <t xml:space="preserve">5.96077537536621</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9338493347168</t>
+    <t xml:space="preserve">5.93384981155396</t>
   </si>
   <si>
     <t xml:space="preserve">5.92038726806641</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06511497497559</t>
+    <t xml:space="preserve">6.0651159286499</t>
   </si>
   <si>
     <t xml:space="preserve">6.05501794815063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99106788635254</t>
+    <t xml:space="preserve">5.99106740951538</t>
   </si>
   <si>
     <t xml:space="preserve">5.85643720626831</t>
@@ -1052,22 +1052,22 @@
     <t xml:space="preserve">5.9102897644043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90355777740479</t>
+    <t xml:space="preserve">5.90355825424194</t>
   </si>
   <si>
     <t xml:space="preserve">5.84634017944336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74536657333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80258512496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69151449203491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87326574325562</t>
+    <t xml:space="preserve">5.7453670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80258464813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69151496887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87326669692993</t>
   </si>
   <si>
     <t xml:space="preserve">5.94394731521606</t>
@@ -1076,19 +1076,19 @@
     <t xml:space="preserve">5.87999725341797</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89009475708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96414089202881</t>
+    <t xml:space="preserve">5.89009571075439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96414136886597</t>
   </si>
   <si>
     <t xml:space="preserve">6.05165195465088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03818845748901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07857704162598</t>
+    <t xml:space="preserve">6.03818893432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07857847213745</t>
   </si>
   <si>
     <t xml:space="preserve">6.11223554611206</t>
@@ -1097,10 +1097,10 @@
     <t xml:space="preserve">6.14925909042358</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09877347946167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1930136680603</t>
+    <t xml:space="preserve">6.09877300262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19301414489746</t>
   </si>
   <si>
     <t xml:space="preserve">6.13579607009888</t>
@@ -1112,79 +1112,79 @@
     <t xml:space="preserve">6.13916158676147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16945266723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1728196144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16272163391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21320867538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3175482749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38149738311768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33437633514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42188596725464</t>
+    <t xml:space="preserve">6.16945314407349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17282009124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16272211074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21320819854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31754732131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38149690628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3343768119812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4218864440918</t>
   </si>
   <si>
     <t xml:space="preserve">6.48920202255249</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46227550506592</t>
+    <t xml:space="preserve">6.46227598190308</t>
   </si>
   <si>
     <t xml:space="preserve">6.4420804977417</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5228590965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51612854003906</t>
+    <t xml:space="preserve">6.52285957336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51612901687622</t>
   </si>
   <si>
     <t xml:space="preserve">6.65412473678589</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63729572296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64739322662354</t>
+    <t xml:space="preserve">6.63729619979858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64739274978638</t>
   </si>
   <si>
     <t xml:space="preserve">6.64066123962402</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6204662322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65438747406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54948329925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62990951538086</t>
+    <t xml:space="preserve">6.62046670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65438652038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54948282241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6299090385437</t>
   </si>
   <si>
     <t xml:space="preserve">6.6264123916626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58794832229614</t>
+    <t xml:space="preserve">6.58794784545898</t>
   </si>
   <si>
     <t xml:space="preserve">6.5110182762146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65088987350464</t>
+    <t xml:space="preserve">6.65089082717896</t>
   </si>
   <si>
     <t xml:space="preserve">6.78027105331421</t>
@@ -1193,22 +1193,22 @@
     <t xml:space="preserve">6.71383237838745</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76278686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72082614898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61941862106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64389610290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73131608963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70683813095093</t>
+    <t xml:space="preserve">6.76278734207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72082567214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61941909790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64389562606812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73131561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70683908462524</t>
   </si>
   <si>
     <t xml:space="preserve">6.71033525466919</t>
@@ -1217,58 +1217,58 @@
     <t xml:space="preserve">6.67886352539062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67187023162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53899335861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5739598274231</t>
+    <t xml:space="preserve">6.67187070846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5389928817749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57396030426025</t>
   </si>
   <si>
     <t xml:space="preserve">6.6054310798645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66487693786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68935346603394</t>
+    <t xml:space="preserve">6.66487741470337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68935489654541</t>
   </si>
   <si>
     <t xml:space="preserve">6.68585824966431</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61592245101929</t>
+    <t xml:space="preserve">6.61592197418213</t>
   </si>
   <si>
     <t xml:space="preserve">6.56346988677979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69634771347046</t>
+    <t xml:space="preserve">6.69634819030762</t>
   </si>
   <si>
     <t xml:space="preserve">6.85370397567749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83272266387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83622026443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82572889328003</t>
+    <t xml:space="preserve">6.83272218704224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83621978759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82572984695435</t>
   </si>
   <si>
     <t xml:space="preserve">6.84670972824097</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93413019180298</t>
+    <t xml:space="preserve">6.93412971496582</t>
   </si>
   <si>
     <t xml:space="preserve">6.96210384368896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02154922485352</t>
+    <t xml:space="preserve">7.02154874801636</t>
   </si>
   <si>
     <t xml:space="preserve">6.9760913848877</t>
@@ -1277,10 +1277,10 @@
     <t xml:space="preserve">6.97259473800659</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92713594436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87468385696411</t>
+    <t xml:space="preserve">6.92713642120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87468433380127</t>
   </si>
   <si>
     <t xml:space="preserve">6.89146852493286</t>
@@ -1289,22 +1289,22 @@
     <t xml:space="preserve">6.79775524139404</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84810924530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91524600982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95581007003784</t>
+    <t xml:space="preserve">6.84810829162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91524648666382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95580959320068</t>
   </si>
   <si>
     <t xml:space="preserve">6.89426612854004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6928505897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80195045471191</t>
+    <t xml:space="preserve">6.69285106658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80195093154907</t>
   </si>
   <si>
     <t xml:space="preserve">6.7487998008728</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">6.79635620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.850905418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89286804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91105031967163</t>
+    <t xml:space="preserve">6.85090589523315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89286708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91105079650879</t>
   </si>
   <si>
     <t xml:space="preserve">6.88307619094849</t>
@@ -1328,28 +1328,28 @@
     <t xml:space="preserve">6.90545511245728</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91804456710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83412218093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89986133575439</t>
+    <t xml:space="preserve">6.918044090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8341212272644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89986085891724</t>
   </si>
   <si>
     <t xml:space="preserve">6.91384840011597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95161390304565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8551025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75579309463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63130807876587</t>
+    <t xml:space="preserve">6.9516134262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85510301589966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75579261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63130760192871</t>
   </si>
   <si>
     <t xml:space="preserve">6.73900842666626</t>
@@ -1358,31 +1358,31 @@
     <t xml:space="preserve">6.88167810440063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90405750274658</t>
+    <t xml:space="preserve">6.90405797958374</t>
   </si>
   <si>
     <t xml:space="preserve">6.89706420898438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83132314682007</t>
+    <t xml:space="preserve">6.83132362365723</t>
   </si>
   <si>
     <t xml:space="preserve">6.8606972694397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89566469192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84111499786377</t>
+    <t xml:space="preserve">6.89566516876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84111452102661</t>
   </si>
   <si>
     <t xml:space="preserve">6.91664600372314</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80614805221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6816611289978</t>
+    <t xml:space="preserve">6.80614757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68166065216064</t>
   </si>
   <si>
     <t xml:space="preserve">6.63830089569092</t>
@@ -1391,49 +1391,49 @@
     <t xml:space="preserve">6.67047214508057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67746543884277</t>
+    <t xml:space="preserve">6.67746591567993</t>
   </si>
   <si>
     <t xml:space="preserve">6.70404100418091</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78376722335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7753758430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85230493545532</t>
+    <t xml:space="preserve">6.78376817703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77537488937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85230541229248</t>
   </si>
   <si>
     <t xml:space="preserve">6.82712841033936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99217653274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08449220657349</t>
+    <t xml:space="preserve">6.9921760559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08449172973633</t>
   </si>
   <si>
     <t xml:space="preserve">7.11246585845947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25583410263062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30828523635864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16142082214355</t>
+    <t xml:space="preserve">7.25583362579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3082857131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16142129898071</t>
   </si>
   <si>
     <t xml:space="preserve">7.14743423461914</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03903293609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12645244598389</t>
+    <t xml:space="preserve">7.03903198242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1264533996582</t>
   </si>
   <si>
     <t xml:space="preserve">7.00406551361084</t>
@@ -1442,13 +1442,13 @@
     <t xml:space="preserve">7.15093040466309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18589782714844</t>
+    <t xml:space="preserve">7.18589878082275</t>
   </si>
   <si>
     <t xml:space="preserve">6.99357461929321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90265893936157</t>
+    <t xml:space="preserve">6.90265846252441</t>
   </si>
   <si>
     <t xml:space="preserve">6.95720911026001</t>
@@ -1460,61 +1460,61 @@
     <t xml:space="preserve">6.96420192718506</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62850999832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42289972305298</t>
+    <t xml:space="preserve">6.62850952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42289924621582</t>
   </si>
   <si>
     <t xml:space="preserve">6.31659650802612</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35715961456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20749759674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95852613449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59625864028931</t>
+    <t xml:space="preserve">6.35716009140015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20749711990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95852565765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59625816345215</t>
   </si>
   <si>
     <t xml:space="preserve">5.37246465682983</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75151634216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64241600036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78928136825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68997287750244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54450654983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72214317321777</t>
+    <t xml:space="preserve">5.75151586532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64241552352905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78928184509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68997240066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54450607299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72214269638062</t>
   </si>
   <si>
     <t xml:space="preserve">5.59346151351929</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47457122802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7417254447937</t>
+    <t xml:space="preserve">5.47457075119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74172496795654</t>
   </si>
   <si>
     <t xml:space="preserve">5.66479587554932</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76969909667969</t>
+    <t xml:space="preserve">5.76969957351685</t>
   </si>
   <si>
     <t xml:space="preserve">5.71095371246338</t>
@@ -1523,40 +1523,40 @@
     <t xml:space="preserve">5.64101696014404</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6172399520874</t>
+    <t xml:space="preserve">5.61723947525024</t>
   </si>
   <si>
     <t xml:space="preserve">5.81166124343872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75291442871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89838075637817</t>
+    <t xml:space="preserve">5.7529149055481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89838123321533</t>
   </si>
   <si>
     <t xml:space="preserve">5.69416904449463</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65780258178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57108163833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5347146987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.568284034729</t>
+    <t xml:space="preserve">5.65780305862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5710825920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53471517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56828451156616</t>
   </si>
   <si>
     <t xml:space="preserve">5.54030990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6074481010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68297958374023</t>
+    <t xml:space="preserve">5.60744857788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68297910690308</t>
   </si>
   <si>
     <t xml:space="preserve">5.75711107254028</t>
@@ -1568,16 +1568,16 @@
     <t xml:space="preserve">5.70256185531616</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62563133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53051948547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55429744720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6284294128418</t>
+    <t xml:space="preserve">5.62563180923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53051900863647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55429697036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62842988967896</t>
   </si>
   <si>
     <t xml:space="preserve">5.64801120758057</t>
@@ -1604,28 +1604,28 @@
     <t xml:space="preserve">6.12077617645264</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06622648239136</t>
+    <t xml:space="preserve">6.06622695922852</t>
   </si>
   <si>
     <t xml:space="preserve">6.21309185028076</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13616275787354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07322120666504</t>
+    <t xml:space="preserve">6.13616228103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07322025299072</t>
   </si>
   <si>
     <t xml:space="preserve">6.17252922058105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07042360305786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15014886856079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14595460891724</t>
+    <t xml:space="preserve">6.0704231262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15014934539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14595413208008</t>
   </si>
   <si>
     <t xml:space="preserve">6.15854167938232</t>
@@ -1637,7 +1637,7 @@
     <t xml:space="preserve">5.97531032562256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81865453720093</t>
+    <t xml:space="preserve">5.81865406036377</t>
   </si>
   <si>
     <t xml:space="preserve">5.94174146652222</t>
@@ -1646,16 +1646,16 @@
     <t xml:space="preserve">5.87600183486938</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89418601989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99069595336914</t>
+    <t xml:space="preserve">5.89418506622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9906964302063</t>
   </si>
   <si>
     <t xml:space="preserve">5.87040710449219</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80186939239502</t>
+    <t xml:space="preserve">5.80186891555786</t>
   </si>
   <si>
     <t xml:space="preserve">5.80746412277222</t>
@@ -1664,16 +1664,16 @@
     <t xml:space="preserve">5.79627513885498</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76130723953247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78648376464844</t>
+    <t xml:space="preserve">5.76130676269531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7864842414856</t>
   </si>
   <si>
     <t xml:space="preserve">5.60604953765869</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93194961547852</t>
+    <t xml:space="preserve">5.93195009231567</t>
   </si>
   <si>
     <t xml:space="preserve">6.1249737739563</t>
@@ -1682,16 +1682,16 @@
     <t xml:space="preserve">6.07182168960571</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34037494659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30680561065674</t>
+    <t xml:space="preserve">6.3403754234314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3068060874939</t>
   </si>
   <si>
     <t xml:space="preserve">6.33897638320923</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2970142364502</t>
+    <t xml:space="preserve">6.29701471328735</t>
   </si>
   <si>
     <t xml:space="preserve">6.3137993812561</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">6.50961971282959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4159049987793</t>
+    <t xml:space="preserve">6.41590547561646</t>
   </si>
   <si>
     <t xml:space="preserve">6.41450691223145</t>
@@ -1715,31 +1715,31 @@
     <t xml:space="preserve">6.36834859848022</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48723983764648</t>
+    <t xml:space="preserve">6.48724031448364</t>
   </si>
   <si>
     <t xml:space="preserve">6.47605085372925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41170978546143</t>
+    <t xml:space="preserve">6.41170930862427</t>
   </si>
   <si>
     <t xml:space="preserve">6.01727199554443</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83404016494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86061573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85222339630127</t>
+    <t xml:space="preserve">5.83404064178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86061525344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85222291946411</t>
   </si>
   <si>
     <t xml:space="preserve">5.75431346893311</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48575973510742</t>
+    <t xml:space="preserve">5.48575925827026</t>
   </si>
   <si>
     <t xml:space="preserve">5.53191757202148</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">5.41582489013672</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3696665763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37666082382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46058368682861</t>
+    <t xml:space="preserve">5.36966705322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37666034698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46058416366577</t>
   </si>
   <si>
     <t xml:space="preserve">5.3976411819458</t>
@@ -1763,34 +1763,34 @@
     <t xml:space="preserve">5.3458890914917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50953817367554</t>
+    <t xml:space="preserve">5.50953769683838</t>
   </si>
   <si>
     <t xml:space="preserve">5.41022968292236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42281770706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23958683013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44100141525269</t>
+    <t xml:space="preserve">5.42281818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.239586353302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44100093841553</t>
   </si>
   <si>
     <t xml:space="preserve">5.29413652420044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44519758224487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45918416976929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42142009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54730415344238</t>
+    <t xml:space="preserve">5.44519710540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45918464660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42141962051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54730367660522</t>
   </si>
   <si>
     <t xml:space="preserve">5.48436164855957</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">5.46338081359863</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48715925216675</t>
+    <t xml:space="preserve">5.48715877532959</t>
   </si>
   <si>
     <t xml:space="preserve">5.50254487991333</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">5.49834871292114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42561531066895</t>
+    <t xml:space="preserve">5.4256157875061</t>
   </si>
   <si>
     <t xml:space="preserve">5.50799036026001</t>
@@ -62066,7 +62066,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6494444444</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>1970509</v>
@@ -62087,6 +62087,32 @@
         <v>1850</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6494328704</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>1795761</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>13.7550001144409</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>13.5699996948242</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>13.7250003814697</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>13.6899995803833</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="1855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="1856">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54330205917358</t>
+    <t xml:space="preserve">5.54330253601074</t>
   </si>
   <si>
     <t xml:space="preserve">MB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53684997558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39810466766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29485416412354</t>
+    <t xml:space="preserve">5.53684949874878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39810514450073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29485321044922</t>
   </si>
   <si>
     <t xml:space="preserve">5.16578960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1367506980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.259361743927</t>
+    <t xml:space="preserve">5.13675022125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25936126708984</t>
   </si>
   <si>
     <t xml:space="preserve">5.31744003295898</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">5.25290870666504</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05285930633545</t>
+    <t xml:space="preserve">5.05285882949829</t>
   </si>
   <si>
     <t xml:space="preserve">4.81086349487305</t>
@@ -83,22 +83,22 @@
     <t xml:space="preserve">4.9754204750061</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99155330657959</t>
+    <t xml:space="preserve">4.99155282974243</t>
   </si>
   <si>
     <t xml:space="preserve">4.83022308349609</t>
   </si>
   <si>
-    <t xml:space="preserve">4.90766143798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.83344984054565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56886911392212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75278425216675</t>
+    <t xml:space="preserve">4.90766191482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8334493637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56886863708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75278472900391</t>
   </si>
   <si>
     <t xml:space="preserve">4.60436105728149</t>
@@ -107,34 +107,34 @@
     <t xml:space="preserve">4.47852325439453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27524709701538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36881923675537</t>
+    <t xml:space="preserve">4.27524757385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36881971359253</t>
   </si>
   <si>
     <t xml:space="preserve">4.25911474227905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86224293708801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64606046676636</t>
+    <t xml:space="preserve">3.86224246025085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64606022834778</t>
   </si>
   <si>
     <t xml:space="preserve">3.92032098770142</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71381878852844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78480434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89450860023499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9300012588501</t>
+    <t xml:space="preserve">3.7138192653656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78480458259583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89450907707214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93000173568726</t>
   </si>
   <si>
     <t xml:space="preserve">4.00421333312988</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">3.85578918457031</t>
   </si>
   <si>
-    <t xml:space="preserve">4.010666847229</t>
+    <t xml:space="preserve">4.01066637039185</t>
   </si>
   <si>
     <t xml:space="preserve">3.91064190864563</t>
@@ -158,43 +158,43 @@
     <t xml:space="preserve">3.92354798316956</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02357292175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03970575332642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20426177978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36559200286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38172578811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29783391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17522239685059</t>
+    <t xml:space="preserve">4.02357244491577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03970623016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20426225662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36559247970581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3817253112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2978343963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1752233505249</t>
   </si>
   <si>
     <t xml:space="preserve">4.23007535934448</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24298095703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.30751323699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68179988861084</t>
+    <t xml:space="preserve">4.24298191070557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.30751371383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68179941177368</t>
   </si>
   <si>
     <t xml:space="preserve">4.7301983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57209539413452</t>
+    <t xml:space="preserve">4.57209491729736</t>
   </si>
   <si>
     <t xml:space="preserve">4.59145450592041</t>
@@ -206,22 +206,22 @@
     <t xml:space="preserve">4.34945917129517</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37204599380493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.29138135910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26234149932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14295721054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16877031326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08487796783447</t>
+    <t xml:space="preserve">4.37204551696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29138040542603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26234102249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14295673370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16876935958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08487749099731</t>
   </si>
   <si>
     <t xml:space="preserve">4.0493860244751</t>
@@ -233,40 +233,40 @@
     <t xml:space="preserve">4.01389265060425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05261182785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84933638572693</t>
+    <t xml:space="preserve">4.0526123046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84933614730835</t>
   </si>
   <si>
     <t xml:space="preserve">4.07197093963623</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11714458465576</t>
+    <t xml:space="preserve">4.1171441078186</t>
   </si>
   <si>
     <t xml:space="preserve">4.03002595901489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23975563049316</t>
+    <t xml:space="preserve">4.23975515365601</t>
   </si>
   <si>
     <t xml:space="preserve">4.31719350814819</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24620771408081</t>
+    <t xml:space="preserve">4.24620819091797</t>
   </si>
   <si>
     <t xml:space="preserve">4.51724243164062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52046966552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.66566610336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68502616882324</t>
+    <t xml:space="preserve">4.5204701423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6656665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68502521514893</t>
   </si>
   <si>
     <t xml:space="preserve">4.69470596313477</t>
@@ -278,34 +278,34 @@
     <t xml:space="preserve">4.49788284301758</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32687330245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14941024780273</t>
+    <t xml:space="preserve">4.32687377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14940977096558</t>
   </si>
   <si>
     <t xml:space="preserve">4.1139178276062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06229162216187</t>
+    <t xml:space="preserve">4.06229209899902</t>
   </si>
   <si>
     <t xml:space="preserve">4.13327693939209</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16231632232666</t>
+    <t xml:space="preserve">4.16231679916382</t>
   </si>
   <si>
     <t xml:space="preserve">4.20103645324707</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18812942504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17199611663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24943542480469</t>
+    <t xml:space="preserve">4.18812894821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17199659347534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24943494796753</t>
   </si>
   <si>
     <t xml:space="preserve">4.28815412521362</t>
@@ -314,16 +314,16 @@
     <t xml:space="preserve">4.5043363571167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60758829116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59790849685669</t>
+    <t xml:space="preserve">4.6075873374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59790754318237</t>
   </si>
   <si>
     <t xml:space="preserve">4.65276050567627</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63985395431519</t>
+    <t xml:space="preserve">4.6398549079895</t>
   </si>
   <si>
     <t xml:space="preserve">4.41399145126343</t>
@@ -332,13 +332,13 @@
     <t xml:space="preserve">4.38495206832886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27202081680298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25588846206665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18167638778687</t>
+    <t xml:space="preserve">4.27202129364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25588798522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18167591094971</t>
   </si>
   <si>
     <t xml:space="preserve">3.95258760452271</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">3.717045545578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7041392326355</t>
+    <t xml:space="preserve">3.70413875579834</t>
   </si>
   <si>
     <t xml:space="preserve">3.85256266593933</t>
@@ -362,22 +362,22 @@
     <t xml:space="preserve">4.06551885604858</t>
   </si>
   <si>
-    <t xml:space="preserve">4.12037086486816</t>
+    <t xml:space="preserve">4.12037038803101</t>
   </si>
   <si>
     <t xml:space="preserve">4.09455728530884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42665147781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98912453651428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16207051277161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27177453041077</t>
+    <t xml:space="preserve">3.42665123939514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.98912405967712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16207003593445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27177405357361</t>
   </si>
   <si>
     <t xml:space="preserve">3.32662677764893</t>
@@ -395,10 +395,10 @@
     <t xml:space="preserve">3.04074954986572</t>
   </si>
   <si>
-    <t xml:space="preserve">3.14529180526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41374492645264</t>
+    <t xml:space="preserve">3.14529156684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41374516487122</t>
   </si>
   <si>
     <t xml:space="preserve">3.67832589149475</t>
@@ -407,58 +407,58 @@
     <t xml:space="preserve">3.70736598968506</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82029724121094</t>
+    <t xml:space="preserve">3.82029676437378</t>
   </si>
   <si>
     <t xml:space="preserve">3.76544451713562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8299765586853</t>
+    <t xml:space="preserve">3.82997679710388</t>
   </si>
   <si>
     <t xml:space="preserve">3.79448413848877</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83965611457825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83320283889771</t>
+    <t xml:space="preserve">3.83965635299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83320355415344</t>
   </si>
   <si>
     <t xml:space="preserve">3.86546897888184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.7751247882843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90741562843323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901594161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04293203353882</t>
+    <t xml:space="preserve">3.77512454986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90741515159607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901665687561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04293251037598</t>
   </si>
   <si>
     <t xml:space="preserve">3.96549391746521</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63960647583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65251326560974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97194647789001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23652839660645</t>
+    <t xml:space="preserve">3.63960719108582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65251350402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97194743156433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2365288734436</t>
   </si>
   <si>
     <t xml:space="preserve">4.20748901367188</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16554307937622</t>
+    <t xml:space="preserve">4.16554355621338</t>
   </si>
   <si>
     <t xml:space="preserve">4.1784496307373</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">4.07519865036011</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05906581878662</t>
+    <t xml:space="preserve">4.05906534194946</t>
   </si>
   <si>
     <t xml:space="preserve">3.94613456726074</t>
@@ -482,22 +482,22 @@
     <t xml:space="preserve">4.19135570526123</t>
   </si>
   <si>
-    <t xml:space="preserve">4.15909004211426</t>
+    <t xml:space="preserve">4.15909099578857</t>
   </si>
   <si>
     <t xml:space="preserve">4.22039556503296</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32364654541016</t>
+    <t xml:space="preserve">4.323646068573</t>
   </si>
   <si>
     <t xml:space="preserve">4.42367172241211</t>
   </si>
   <si>
-    <t xml:space="preserve">4.35591220855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47529697418213</t>
+    <t xml:space="preserve">4.35591316223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47529649734497</t>
   </si>
   <si>
     <t xml:space="preserve">4.43657779693604</t>
@@ -506,40 +506,40 @@
     <t xml:space="preserve">4.33332681655884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98485374450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04615926742554</t>
+    <t xml:space="preserve">3.98485326766968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04615879058838</t>
   </si>
   <si>
     <t xml:space="preserve">3.93645429611206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02679920196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03325176239014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73317790031433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78157806396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71059250831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73640489578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72672533988953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72995209693909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93322777748108</t>
+    <t xml:space="preserve">4.02679967880249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03325223922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73317837715149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78157734870911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71059203147888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73640561103821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72672557830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72995138168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93322825431824</t>
   </si>
   <si>
     <t xml:space="preserve">4.03647899627686</t>
@@ -551,7 +551,7 @@
     <t xml:space="preserve">3.99775958061218</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13650369644165</t>
+    <t xml:space="preserve">4.13650417327881</t>
   </si>
   <si>
     <t xml:space="preserve">4.26556825637817</t>
@@ -563,7 +563,7 @@
     <t xml:space="preserve">4.4398045539856</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52369546890259</t>
+    <t xml:space="preserve">4.52369594573975</t>
   </si>
   <si>
     <t xml:space="preserve">4.33655309677124</t>
@@ -575,43 +575,43 @@
     <t xml:space="preserve">4.28170108795166</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42689752578735</t>
+    <t xml:space="preserve">4.42689800262451</t>
   </si>
   <si>
     <t xml:space="preserve">4.42044448852539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54305601119995</t>
+    <t xml:space="preserve">4.54305648803711</t>
   </si>
   <si>
     <t xml:space="preserve">4.55918884277344</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49142980575562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.39140558242798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21394205093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26442909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33847570419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27452659606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2307710647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17355298995972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05238485336304</t>
+    <t xml:space="preserve">4.49142932891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.39140510559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.213942527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26442861557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33847665786743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27452611923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23077058792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17355251312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0523853302002</t>
   </si>
   <si>
     <t xml:space="preserve">4.22404003143311</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">4.52022743225098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52695846557617</t>
+    <t xml:space="preserve">4.52695894241333</t>
   </si>
   <si>
     <t xml:space="preserve">4.33511018753052</t>
@@ -632,31 +632,31 @@
     <t xml:space="preserve">4.76592779159546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99480056762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13279724121094</t>
+    <t xml:space="preserve">4.99480009078979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13279676437378</t>
   </si>
   <si>
     <t xml:space="preserve">4.9880690574646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01499509811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06884765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11596870422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28762245178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22703838348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25059843063354</t>
+    <t xml:space="preserve">5.01499557495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06884717941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11596822738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28762292861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22703790664673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25059938430786</t>
   </si>
   <si>
     <t xml:space="preserve">5.32801103591919</t>
@@ -665,22 +665,22 @@
     <t xml:space="preserve">5.29098844528198</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27415990829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34147500991821</t>
+    <t xml:space="preserve">5.27415943145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34147453308105</t>
   </si>
   <si>
     <t xml:space="preserve">5.33810901641846</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27079343795776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23040437698364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22030687332153</t>
+    <t xml:space="preserve">5.27079391479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2304048538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22030735015869</t>
   </si>
   <si>
     <t xml:space="preserve">5.3313775062561</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">5.48620271682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51986074447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49293375015259</t>
+    <t xml:space="preserve">5.519859790802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4929347038269</t>
   </si>
   <si>
     <t xml:space="preserve">5.51312875747681</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">5.3179144859314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19338083267212</t>
+    <t xml:space="preserve">5.19338130950928</t>
   </si>
   <si>
     <t xml:space="preserve">5.40205860137939</t>
@@ -719,25 +719,25 @@
     <t xml:space="preserve">5.34484052658081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42898464202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35157155990601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43235063552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73527002334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91365480422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72517251968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65449094772339</t>
+    <t xml:space="preserve">5.42898416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35157203674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43235015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73527050018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91365528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72517204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65449142456055</t>
   </si>
   <si>
     <t xml:space="preserve">5.50303220748901</t>
@@ -749,16 +749,16 @@
     <t xml:space="preserve">5.48283720016479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25733041763306</t>
+    <t xml:space="preserve">5.25733089447021</t>
   </si>
   <si>
     <t xml:space="preserve">5.14625978469849</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30445194244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24386787414551</t>
+    <t xml:space="preserve">5.30445146560669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24386739730835</t>
   </si>
   <si>
     <t xml:space="preserve">5.3986930847168</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">5.52659177780151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49629974365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46600818634033</t>
+    <t xml:space="preserve">5.4963002204895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46600770950317</t>
   </si>
   <si>
     <t xml:space="preserve">5.4155216217041</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36503410339355</t>
+    <t xml:space="preserve">5.36503458023071</t>
   </si>
   <si>
     <t xml:space="preserve">5.31118297576904</t>
@@ -785,28 +785,28 @@
     <t xml:space="preserve">5.15635776519775</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01162958145142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04865312576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0924072265625</t>
+    <t xml:space="preserve">5.01162910461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04865264892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09240770339966</t>
   </si>
   <si>
     <t xml:space="preserve">5.28425645828247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33474349975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52322626113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57034635543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58044385910034</t>
+    <t xml:space="preserve">5.33474397659302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52322578430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57034683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5804443359375</t>
   </si>
   <si>
     <t xml:space="preserve">5.6612229347229</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">5.59054231643677</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60737037658691</t>
+    <t xml:space="preserve">5.60737085342407</t>
   </si>
   <si>
     <t xml:space="preserve">5.61746740341187</t>
@@ -830,10 +830,10 @@
     <t xml:space="preserve">5.69824600219727</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63766288757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70161247253418</t>
+    <t xml:space="preserve">5.63766193389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70161199569702</t>
   </si>
   <si>
     <t xml:space="preserve">5.67805194854736</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">5.68814849853516</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55015230178833</t>
+    <t xml:space="preserve">5.55015277862549</t>
   </si>
   <si>
     <t xml:space="preserve">5.56024980545044</t>
@@ -857,19 +857,19 @@
     <t xml:space="preserve">5.59390783309937</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4794716835022</t>
+    <t xml:space="preserve">5.47947120666504</t>
   </si>
   <si>
     <t xml:space="preserve">5.42561912536621</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17991733551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7487325668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83624267578125</t>
+    <t xml:space="preserve">5.17991828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74873304367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83624315261841</t>
   </si>
   <si>
     <t xml:space="preserve">5.75546455383301</t>
@@ -881,13 +881,13 @@
     <t xml:space="preserve">5.94058132171631</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95741081237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97760486602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09540700912476</t>
+    <t xml:space="preserve">5.95741033554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97760438919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09540748596191</t>
   </si>
   <si>
     <t xml:space="preserve">6.17955160140991</t>
@@ -899,19 +899,19 @@
     <t xml:space="preserve">6.12569904327393</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10887050628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18628215789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1526255607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.176185131073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0045313835144</t>
+    <t xml:space="preserve">6.10887002944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18628168106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15262508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17618465423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00453090667725</t>
   </si>
   <si>
     <t xml:space="preserve">6.02472591400146</t>
@@ -920,16 +920,16 @@
     <t xml:space="preserve">6.07521200180054</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11896657943726</t>
+    <t xml:space="preserve">6.11896753311157</t>
   </si>
   <si>
     <t xml:space="preserve">6.15935611724854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12906408309937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10213851928711</t>
+    <t xml:space="preserve">6.12906503677368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10213804244995</t>
   </si>
   <si>
     <t xml:space="preserve">6.01126337051392</t>
@@ -953,19 +953,19 @@
     <t xml:space="preserve">5.72853803634644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78239059448242</t>
+    <t xml:space="preserve">5.78239107131958</t>
   </si>
   <si>
     <t xml:space="preserve">5.76219606399536</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8194146156311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73863506317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75883054733276</t>
+    <t xml:space="preserve">5.81941413879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73863458633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75883007049561</t>
   </si>
   <si>
     <t xml:space="preserve">5.65112543106079</t>
@@ -977,25 +977,25 @@
     <t xml:space="preserve">5.72180652618408</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70834302902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85307168960571</t>
+    <t xml:space="preserve">5.70834350585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8530707359314</t>
   </si>
   <si>
     <t xml:space="preserve">5.83960866928101</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81604862213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92375230789185</t>
+    <t xml:space="preserve">5.81604814529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92375326156616</t>
   </si>
   <si>
     <t xml:space="preserve">5.97423934936523</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90019273757935</t>
+    <t xml:space="preserve">5.90019226074219</t>
   </si>
   <si>
     <t xml:space="preserve">5.93721580505371</t>
@@ -1004,7 +1004,7 @@
     <t xml:space="preserve">5.97087335586548</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04491996765137</t>
+    <t xml:space="preserve">6.04491949081421</t>
   </si>
   <si>
     <t xml:space="preserve">6.10550403594971</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">6.06174898147583</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86316919326782</t>
+    <t xml:space="preserve">5.86316871643066</t>
   </si>
   <si>
     <t xml:space="preserve">5.88336324691772</t>
@@ -1025,19 +1025,19 @@
     <t xml:space="preserve">5.94731283187866</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9877028465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96077632904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9338493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92038726806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06511497497559</t>
+    <t xml:space="preserve">5.98770332336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96077537536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93384981155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92038679122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06511545181274</t>
   </si>
   <si>
     <t xml:space="preserve">6.05501747131348</t>
@@ -1049,58 +1049,58 @@
     <t xml:space="preserve">5.85643720626831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91028928756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90355825424194</t>
+    <t xml:space="preserve">5.9102897644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90355777740479</t>
   </si>
   <si>
     <t xml:space="preserve">5.84634017944336</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7453670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80258512496948</t>
+    <t xml:space="preserve">5.74536657333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80258464813232</t>
   </si>
   <si>
     <t xml:space="preserve">5.69151496887207</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87326622009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94394683837891</t>
+    <t xml:space="preserve">5.87326717376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94394636154175</t>
   </si>
   <si>
     <t xml:space="preserve">5.87999725341797</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89009523391724</t>
+    <t xml:space="preserve">5.89009475708008</t>
   </si>
   <si>
     <t xml:space="preserve">5.96414136886597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05165147781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03818941116333</t>
+    <t xml:space="preserve">6.05165195465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03818893432617</t>
   </si>
   <si>
     <t xml:space="preserve">6.07857751846313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11223554611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14925909042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09877252578735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1930136680603</t>
+    <t xml:space="preserve">6.11223602294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14925861358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09877300262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19301462173462</t>
   </si>
   <si>
     <t xml:space="preserve">6.13579559326172</t>
@@ -1109,43 +1109,43 @@
     <t xml:space="preserve">6.16608810424805</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13916254043579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16945314407349</t>
+    <t xml:space="preserve">6.13916158676147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16945362091064</t>
   </si>
   <si>
     <t xml:space="preserve">6.17281913757324</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16272211074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21320962905884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31754779815674</t>
+    <t xml:space="preserve">6.16272115707397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21320915222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31754732131958</t>
   </si>
   <si>
     <t xml:space="preserve">6.38149690628052</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33437585830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4218864440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48920202255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46227550506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44208145141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5228590965271</t>
+    <t xml:space="preserve">6.3343768119812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42188596725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48920154571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46227598190308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44208002090454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52285861968994</t>
   </si>
   <si>
     <t xml:space="preserve">6.51612854003906</t>
@@ -1154,43 +1154,43 @@
     <t xml:space="preserve">6.65412425994873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63729476928711</t>
+    <t xml:space="preserve">6.63729524612427</t>
   </si>
   <si>
     <t xml:space="preserve">6.64739227294922</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64066123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62046718597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6543869972229</t>
+    <t xml:space="preserve">6.64066076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62046670913696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65438604354858</t>
   </si>
   <si>
     <t xml:space="preserve">6.54948282241821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62990856170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62641286849976</t>
+    <t xml:space="preserve">6.6299090385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62641191482544</t>
   </si>
   <si>
     <t xml:space="preserve">6.58794784545898</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5110182762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65088987350464</t>
+    <t xml:space="preserve">6.51101875305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65088939666748</t>
   </si>
   <si>
     <t xml:space="preserve">6.78027105331421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71383190155029</t>
+    <t xml:space="preserve">6.71383237838745</t>
   </si>
   <si>
     <t xml:space="preserve">6.76278734207153</t>
@@ -1199,67 +1199,67 @@
     <t xml:space="preserve">6.7208251953125</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61941909790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64389610290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73131608963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70683860778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71033573150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67886447906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67187070846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5389928817749</t>
+    <t xml:space="preserve">6.61941957473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64389657974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73131656646729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70683813095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71033525466919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67886304855347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67187023162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53899335861206</t>
   </si>
   <si>
     <t xml:space="preserve">6.57396030426025</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6054310798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66487693786621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68935394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68585824966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61592197418213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56347036361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6963472366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85370397567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83272314071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8362193107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82572889328003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84671020507812</t>
+    <t xml:space="preserve">6.60543155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66487646102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68935346603394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68585777282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61592149734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56346988677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69634819030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85370349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83272409439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83621978759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82572937011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84671068191528</t>
   </si>
   <si>
     <t xml:space="preserve">6.93412923812866</t>
@@ -1268,58 +1268,58 @@
     <t xml:space="preserve">6.96210384368896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02154874801636</t>
+    <t xml:space="preserve">7.02154970169067</t>
   </si>
   <si>
     <t xml:space="preserve">6.97609090805054</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97259378433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9271354675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87468481063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89146852493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79775476455688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84810829162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9152455329895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95580959320068</t>
+    <t xml:space="preserve">6.97259426116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92713594436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87468433380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89146900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7977557182312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84810876846313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91524600982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95580911636353</t>
   </si>
   <si>
     <t xml:space="preserve">6.89426612854004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69285154342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80195093154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74879884719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79635667800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85090589523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89286756515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91105031967163</t>
+    <t xml:space="preserve">6.69285011291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80195140838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74879932403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79635620117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.850905418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89286804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91105175018311</t>
   </si>
   <si>
     <t xml:space="preserve">6.88307619094849</t>
@@ -1328,16 +1328,16 @@
     <t xml:space="preserve">6.90545558929443</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91804504394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83412218093872</t>
+    <t xml:space="preserve">6.91804456710815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83412170410156</t>
   </si>
   <si>
     <t xml:space="preserve">6.89986133575439</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91384840011597</t>
+    <t xml:space="preserve">6.91384792327881</t>
   </si>
   <si>
     <t xml:space="preserve">6.9516134262085</t>
@@ -1346,37 +1346,37 @@
     <t xml:space="preserve">6.8551025390625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75579357147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63130807876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73900938034058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88167810440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90405702590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89706420898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83132410049438</t>
+    <t xml:space="preserve">6.75579261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63130760192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73900890350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88167715072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90405750274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89706468582153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83132314682007</t>
   </si>
   <si>
     <t xml:space="preserve">6.86069774627686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89566421508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84111404418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91664600372314</t>
+    <t xml:space="preserve">6.89566469192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84111499786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91664552688599</t>
   </si>
   <si>
     <t xml:space="preserve">6.80614757537842</t>
@@ -1385,16 +1385,16 @@
     <t xml:space="preserve">6.68166065216064</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63830041885376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67047166824341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67746543884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70404148101807</t>
+    <t xml:space="preserve">6.63830089569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67047214508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67746591567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70404100418091</t>
   </si>
   <si>
     <t xml:space="preserve">6.78376817703247</t>
@@ -1403,13 +1403,13 @@
     <t xml:space="preserve">6.77537536621094</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85230445861816</t>
+    <t xml:space="preserve">6.85230493545532</t>
   </si>
   <si>
     <t xml:space="preserve">6.82712841033936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9921760559082</t>
+    <t xml:space="preserve">6.99217700958252</t>
   </si>
   <si>
     <t xml:space="preserve">7.08449220657349</t>
@@ -1418,67 +1418,67 @@
     <t xml:space="preserve">7.11246633529663</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25583457946777</t>
+    <t xml:space="preserve">7.25583362579346</t>
   </si>
   <si>
     <t xml:space="preserve">7.3082857131958</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1614203453064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1474347114563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03903388977051</t>
+    <t xml:space="preserve">7.16142082214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14743375778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03903245925903</t>
   </si>
   <si>
     <t xml:space="preserve">7.12645292282104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00406455993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15092992782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1858983039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99357509613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90265846252441</t>
+    <t xml:space="preserve">7.00406551361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15093088150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18589782714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99357461929321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90265798568726</t>
   </si>
   <si>
     <t xml:space="preserve">6.95720911026001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01455450057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96420240402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62850999832153</t>
+    <t xml:space="preserve">7.01455545425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96420192718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62851047515869</t>
   </si>
   <si>
     <t xml:space="preserve">6.42289972305298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31659698486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35715913772583</t>
+    <t xml:space="preserve">6.31659650802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35716009140015</t>
   </si>
   <si>
     <t xml:space="preserve">6.20749711990356</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95852613449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59625911712646</t>
+    <t xml:space="preserve">5.95852661132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59625816345215</t>
   </si>
   <si>
     <t xml:space="preserve">5.37246465682983</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">5.75151634216309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64241552352905</t>
+    <t xml:space="preserve">5.64241647720337</t>
   </si>
   <si>
     <t xml:space="preserve">5.78928136825562</t>
@@ -1499,10 +1499,10 @@
     <t xml:space="preserve">5.54450607299805</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72214269638062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59346103668213</t>
+    <t xml:space="preserve">5.72214317321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59346151351929</t>
   </si>
   <si>
     <t xml:space="preserve">5.47457075119019</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">5.76969957351685</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71095323562622</t>
+    <t xml:space="preserve">5.71095371246338</t>
   </si>
   <si>
     <t xml:space="preserve">5.64101791381836</t>
@@ -1529,7 +1529,7 @@
     <t xml:space="preserve">5.81166124343872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75291538238525</t>
+    <t xml:space="preserve">5.7529149055481</t>
   </si>
   <si>
     <t xml:space="preserve">5.89838075637817</t>
@@ -1538,7 +1538,7 @@
     <t xml:space="preserve">5.69416904449463</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65780305862427</t>
+    <t xml:space="preserve">5.65780210494995</t>
   </si>
   <si>
     <t xml:space="preserve">5.57108211517334</t>
@@ -1547,22 +1547,22 @@
     <t xml:space="preserve">5.53471517562866</t>
   </si>
   <si>
-    <t xml:space="preserve">5.568284034729</t>
+    <t xml:space="preserve">5.56828451156616</t>
   </si>
   <si>
     <t xml:space="preserve">5.54030990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60744857788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68297958374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75711154937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66619491577148</t>
+    <t xml:space="preserve">5.6074481010437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68297910690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75711107254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66619443893433</t>
   </si>
   <si>
     <t xml:space="preserve">5.702561378479</t>
@@ -1574,13 +1574,13 @@
     <t xml:space="preserve">5.53051900863647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55429792404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62842988967896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64801120758057</t>
+    <t xml:space="preserve">5.55429697036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6284294128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64801168441772</t>
   </si>
   <si>
     <t xml:space="preserve">5.69976377487183</t>
@@ -1589,28 +1589,28 @@
     <t xml:space="preserve">5.6857762336731</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7193455696106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88719177246094</t>
+    <t xml:space="preserve">5.71934604644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88719129562378</t>
   </si>
   <si>
     <t xml:space="preserve">5.95432949066162</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01027822494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12077617645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06622695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21309185028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13616275787354</t>
+    <t xml:space="preserve">6.01027870178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12077665328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06622648239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21309232711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13616228103638</t>
   </si>
   <si>
     <t xml:space="preserve">6.07322025299072</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">6.17252969741821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07042264938354</t>
+    <t xml:space="preserve">6.0704231262207</t>
   </si>
   <si>
     <t xml:space="preserve">6.15014934539795</t>
@@ -1643,28 +1643,28 @@
     <t xml:space="preserve">5.94174146652222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87600183486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89418506622314</t>
+    <t xml:space="preserve">5.87600231170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8941855430603</t>
   </si>
   <si>
     <t xml:space="preserve">5.9906964302063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87040710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80186891555786</t>
+    <t xml:space="preserve">5.87040662765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80186939239502</t>
   </si>
   <si>
     <t xml:space="preserve">5.80746412277222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79627513885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76130723953247</t>
+    <t xml:space="preserve">5.79627466201782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76130676269531</t>
   </si>
   <si>
     <t xml:space="preserve">5.7864842414856</t>
@@ -1673,34 +1673,34 @@
     <t xml:space="preserve">5.60604953765869</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93195056915283</t>
+    <t xml:space="preserve">5.93195009231567</t>
   </si>
   <si>
     <t xml:space="preserve">6.1249737739563</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07182264328003</t>
+    <t xml:space="preserve">6.07182168960571</t>
   </si>
   <si>
     <t xml:space="preserve">6.34037494659424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.30680561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33897638320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2970142364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3137993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42150020599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44248104095459</t>
+    <t xml:space="preserve">6.3068060874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33897686004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29701519012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31379842758179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42150068283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44248151779175</t>
   </si>
   <si>
     <t xml:space="preserve">6.50961971282959</t>
@@ -1709,10 +1709,10 @@
     <t xml:space="preserve">6.41590547561646</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41450691223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36834955215454</t>
+    <t xml:space="preserve">6.4145073890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36834907531738</t>
   </si>
   <si>
     <t xml:space="preserve">6.48723983764648</t>
@@ -1721,13 +1721,13 @@
     <t xml:space="preserve">6.47605085372925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41171026229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01727199554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83404016494751</t>
+    <t xml:space="preserve">6.41170930862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01727151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83404064178467</t>
   </si>
   <si>
     <t xml:space="preserve">5.86061573028564</t>
@@ -1739,19 +1739,19 @@
     <t xml:space="preserve">5.75431299209595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48576021194458</t>
+    <t xml:space="preserve">5.48575973510742</t>
   </si>
   <si>
     <t xml:space="preserve">5.53191757202148</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41582489013672</t>
+    <t xml:space="preserve">5.41582441329956</t>
   </si>
   <si>
     <t xml:space="preserve">5.3696665763855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37666034698486</t>
+    <t xml:space="preserve">5.37666082382202</t>
   </si>
   <si>
     <t xml:space="preserve">5.46058320999146</t>
@@ -1763,16 +1763,16 @@
     <t xml:space="preserve">5.3458890914917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50953817367554</t>
+    <t xml:space="preserve">5.5095386505127</t>
   </si>
   <si>
     <t xml:space="preserve">5.41022968292236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42281866073608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.239586353302</t>
+    <t xml:space="preserve">5.42281818389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.23958683013916</t>
   </si>
   <si>
     <t xml:space="preserve">5.44100141525269</t>
@@ -1781,13 +1781,13 @@
     <t xml:space="preserve">5.29413652420044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44519710540771</t>
+    <t xml:space="preserve">5.44519758224487</t>
   </si>
   <si>
     <t xml:space="preserve">5.45918464660645</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42141914367676</t>
+    <t xml:space="preserve">5.42141962051392</t>
   </si>
   <si>
     <t xml:space="preserve">5.54730367660522</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">5.46338081359863</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48715877532959</t>
+    <t xml:space="preserve">5.48715925216675</t>
   </si>
   <si>
     <t xml:space="preserve">5.50254487991333</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">5.49834823608398</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4256157875061</t>
+    <t xml:space="preserve">5.42561531066895</t>
   </si>
   <si>
     <t xml:space="preserve">5.50799083709717</t>
@@ -1817,40 +1817,40 @@
     <t xml:space="preserve">5.37847852706909</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43504667282104</t>
+    <t xml:space="preserve">5.4350471496582</t>
   </si>
   <si>
     <t xml:space="preserve">5.42462635040283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46481895446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70746946334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73128747940063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75659465789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81167459487915</t>
+    <t xml:space="preserve">5.46481990814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70746898651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73128700256348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75659418106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81167507171631</t>
   </si>
   <si>
     <t xml:space="preserve">5.81018590927124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84740161895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74170827865601</t>
+    <t xml:space="preserve">5.84740209579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74170780181885</t>
   </si>
   <si>
     <t xml:space="preserve">5.75361728668213</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58093404769897</t>
+    <t xml:space="preserve">5.58093452453613</t>
   </si>
   <si>
     <t xml:space="preserve">5.57646799087524</t>
@@ -1865,13 +1865,13 @@
     <t xml:space="preserve">5.60028648376465</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62261629104614</t>
+    <t xml:space="preserve">5.62261581420898</t>
   </si>
   <si>
     <t xml:space="preserve">5.67323064804077</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58540010452271</t>
+    <t xml:space="preserve">5.58540058135986</t>
   </si>
   <si>
     <t xml:space="preserve">5.63452577590942</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">5.61219596862793</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47523975372314</t>
+    <t xml:space="preserve">5.4752402305603</t>
   </si>
   <si>
     <t xml:space="preserve">5.39187622070312</t>
@@ -1895,10 +1895,10 @@
     <t xml:space="preserve">5.43653535842896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43207025527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75510597229004</t>
+    <t xml:space="preserve">5.43206930160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75510549545288</t>
   </si>
   <si>
     <t xml:space="preserve">5.74468517303467</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">5.69704866409302</t>
   </si>
   <si>
-    <t xml:space="preserve">5.700026512146</t>
+    <t xml:space="preserve">5.70002555847168</t>
   </si>
   <si>
     <t xml:space="preserve">5.77148103713989</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">5.83995866775513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86377716064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88015174865723</t>
+    <t xml:space="preserve">5.86377668380737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88015222549438</t>
   </si>
   <si>
     <t xml:space="preserve">5.86079978942871</t>
@@ -1949,16 +1949,16 @@
     <t xml:space="preserve">5.86228847503662</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81762933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82953786849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65387773513794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49310398101807</t>
+    <t xml:space="preserve">5.81762886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82953834533691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6538782119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49310445785522</t>
   </si>
   <si>
     <t xml:space="preserve">5.45886564254761</t>
@@ -1967,31 +1967,31 @@
     <t xml:space="preserve">5.64345741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76403760910034</t>
+    <t xml:space="preserve">5.7640380859375</t>
   </si>
   <si>
     <t xml:space="preserve">5.76999187469482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87122058868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90099287033081</t>
+    <t xml:space="preserve">5.87122011184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90099239349365</t>
   </si>
   <si>
     <t xml:space="preserve">6.00668716430664</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9694709777832</t>
+    <t xml:space="preserve">5.96947145462036</t>
   </si>
   <si>
     <t xml:space="preserve">6.18234729766846</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1972336769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16895008087158</t>
+    <t xml:space="preserve">6.19723415374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16894960403442</t>
   </si>
   <si>
     <t xml:space="preserve">6.19127893447876</t>
@@ -2000,19 +2000,19 @@
     <t xml:space="preserve">6.12875604629517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14513111114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22254085540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31930255889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38629150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56641721725464</t>
+    <t xml:space="preserve">6.1451301574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22254037857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31930208206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38629198074341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5664176940918</t>
   </si>
   <si>
     <t xml:space="preserve">6.43392848968506</t>
@@ -2024,19 +2024,19 @@
     <t xml:space="preserve">6.50240612030029</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6244740486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51431512832642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44732666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53962278366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51729154586792</t>
+    <t xml:space="preserve">6.62447452545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51431465148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44732570648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53962230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51729202270508</t>
   </si>
   <si>
     <t xml:space="preserve">6.60958862304688</t>
@@ -2045,61 +2045,61 @@
     <t xml:space="preserve">6.63787317276001</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68997621536255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83288621902466</t>
+    <t xml:space="preserve">6.68997526168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83288669586182</t>
   </si>
   <si>
     <t xml:space="preserve">6.79120302200317</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66317939758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71230506896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65871429443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59619045257568</t>
+    <t xml:space="preserve">6.66317987442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71230554580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65871381759644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59619140625</t>
   </si>
   <si>
     <t xml:space="preserve">6.64680528640747</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78376054763794</t>
+    <t xml:space="preserve">6.7837610244751</t>
   </si>
   <si>
     <t xml:space="preserve">6.8581919670105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89391994476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96090888977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.86117029190063</t>
+    <t xml:space="preserve">6.89392042160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96090984344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.86116981506348</t>
   </si>
   <si>
     <t xml:space="preserve">6.87754487991333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91773843765259</t>
+    <t xml:space="preserve">6.91773796081543</t>
   </si>
   <si>
     <t xml:space="preserve">6.96388626098633</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90285205841064</t>
+    <t xml:space="preserve">6.9028525352478</t>
   </si>
   <si>
     <t xml:space="preserve">6.92518138885498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02492046356201</t>
+    <t xml:space="preserve">7.02491998672485</t>
   </si>
   <si>
     <t xml:space="preserve">7.08148956298828</t>
@@ -2108,22 +2108,22 @@
     <t xml:space="preserve">7.12317132949829</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15294408798218</t>
+    <t xml:space="preserve">7.15294456481934</t>
   </si>
   <si>
     <t xml:space="preserve">7.13210296630859</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07106876373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98770475387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96686410903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00705623626709</t>
+    <t xml:space="preserve">7.07106924057007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98770427703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96686315536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00705718994141</t>
   </si>
   <si>
     <t xml:space="preserve">7.13508081436157</t>
@@ -2132,16 +2132,16 @@
     <t xml:space="preserve">7.03385257720947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07404613494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85223817825317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69295263290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77929449081421</t>
+    <t xml:space="preserve">7.07404565811157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223865509033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69295215606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77929353713989</t>
   </si>
   <si>
     <t xml:space="preserve">6.62298631668091</t>
@@ -2162,13 +2162,13 @@
     <t xml:space="preserve">6.47709894180298</t>
   </si>
   <si>
-    <t xml:space="preserve">6.40117835998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42350769042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36396217346191</t>
+    <t xml:space="preserve">6.40117883682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42350816726685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36396169662476</t>
   </si>
   <si>
     <t xml:space="preserve">6.32079076766968</t>
@@ -2180,10 +2180,10 @@
     <t xml:space="preserve">6.22998380661011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15704011917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12131261825562</t>
+    <t xml:space="preserve">6.15704107284546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12131309509277</t>
   </si>
   <si>
     <t xml:space="preserve">6.28059768676758</t>
@@ -2192,37 +2192,37 @@
     <t xml:space="preserve">6.24635934829712</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27762079238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37289381027222</t>
+    <t xml:space="preserve">6.27762031555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37289428710938</t>
   </si>
   <si>
     <t xml:space="preserve">6.37140560150146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34163236618042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37884855270386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34609794616699</t>
+    <t xml:space="preserve">6.34163284301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3788480758667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34609842300415</t>
   </si>
   <si>
     <t xml:space="preserve">6.34460973739624</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48305416107178</t>
+    <t xml:space="preserve">6.48305368423462</t>
   </si>
   <si>
     <t xml:space="preserve">6.58130407333374</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56046295166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61107730865479</t>
+    <t xml:space="preserve">6.56046342849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61107778549194</t>
   </si>
   <si>
     <t xml:space="preserve">6.58874750137329</t>
@@ -2231,22 +2231,22 @@
     <t xml:space="preserve">6.72272539138794</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76738500595093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74803304672241</t>
+    <t xml:space="preserve">6.76738548278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74803256988525</t>
   </si>
   <si>
     <t xml:space="preserve">6.66169118881226</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73761177062988</t>
+    <t xml:space="preserve">6.73761224746704</t>
   </si>
   <si>
     <t xml:space="preserve">6.91327285766602</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05022764205933</t>
+    <t xml:space="preserve">7.0502290725708</t>
   </si>
   <si>
     <t xml:space="preserve">7.01598882675171</t>
@@ -2258,28 +2258,28 @@
     <t xml:space="preserve">6.93113660812378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99663639068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98472785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99068212509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93857908248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01301193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97579526901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99365949630737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84777164459229</t>
+    <t xml:space="preserve">6.99663591384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98472738265991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99068164825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93857860565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01301097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97579479217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99365901947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8477725982666</t>
   </si>
   <si>
     <t xml:space="preserve">6.88052225112915</t>
@@ -2288,22 +2288,22 @@
     <t xml:space="preserve">6.95644283294678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92964696884155</t>
+    <t xml:space="preserve">6.92964792251587</t>
   </si>
   <si>
     <t xml:space="preserve">6.94453382492065</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76440811157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73910140991211</t>
+    <t xml:space="preserve">6.76440858840942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73910045623779</t>
   </si>
   <si>
     <t xml:space="preserve">6.74952173233032</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57683897018433</t>
+    <t xml:space="preserve">6.57683801651001</t>
   </si>
   <si>
     <t xml:space="preserve">6.5187816619873</t>
@@ -2312,19 +2312,19 @@
     <t xml:space="preserve">6.44583749771118</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49942922592163</t>
+    <t xml:space="preserve">6.49942874908447</t>
   </si>
   <si>
     <t xml:space="preserve">6.32674598693848</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31483697891235</t>
+    <t xml:space="preserve">6.3148365020752</t>
   </si>
   <si>
     <t xml:space="preserve">6.3475866317749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20021104812622</t>
+    <t xml:space="preserve">6.20021152496338</t>
   </si>
   <si>
     <t xml:space="preserve">6.33270072937012</t>
@@ -2333,16 +2333,16 @@
     <t xml:space="preserve">6.38182592391968</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47858762741089</t>
+    <t xml:space="preserve">6.47858905792236</t>
   </si>
   <si>
     <t xml:space="preserve">6.52771329879761</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45328044891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53366756439209</t>
+    <t xml:space="preserve">6.45328092575073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53366708755493</t>
   </si>
   <si>
     <t xml:space="preserve">6.55599689483643</t>
@@ -2351,31 +2351,31 @@
     <t xml:space="preserve">6.6125659942627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70635032653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78822660446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02938652038574</t>
+    <t xml:space="preserve">6.70635080337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78822565078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0293869972229</t>
   </si>
   <si>
     <t xml:space="preserve">7.04576110839844</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13359260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08000135421753</t>
+    <t xml:space="preserve">7.13359212875366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08000087738037</t>
   </si>
   <si>
     <t xml:space="preserve">7.11572885513306</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18271636962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11423873901367</t>
+    <t xml:space="preserve">7.18271684646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11423921585083</t>
   </si>
   <si>
     <t xml:space="preserve">7.08446645736694</t>
@@ -2384,34 +2384,34 @@
     <t xml:space="preserve">7.21993398666382</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42238903045654</t>
+    <t xml:space="preserve">7.42238998413086</t>
   </si>
   <si>
     <t xml:space="preserve">7.36582088470459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3762412071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41792392730713</t>
+    <t xml:space="preserve">7.37624168395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41792345046997</t>
   </si>
   <si>
     <t xml:space="preserve">7.52138376235962</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42536687850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45811796188354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42834377288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22291135787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31074094772339</t>
+    <t xml:space="preserve">7.42536640167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45811700820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42834329605103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22291231155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31073999404907</t>
   </si>
   <si>
     <t xml:space="preserve">7.27799034118652</t>
@@ -2423,34 +2423,34 @@
     <t xml:space="preserve">7.25417327880859</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2660813331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51022052764893</t>
+    <t xml:space="preserve">7.26608180999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51021909713745</t>
   </si>
   <si>
     <t xml:space="preserve">7.67769193649292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76328945159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87493705749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90471124649048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88238096237183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86005115509033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93448448181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0126371383667</t>
+    <t xml:space="preserve">7.76328992843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87493753433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90471029281616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88238048553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86005163192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93448305130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01263809204102</t>
   </si>
   <si>
     <t xml:space="preserve">8.07218360900879</t>
@@ -2459,34 +2459,34 @@
     <t xml:space="preserve">8.06474018096924</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09451389312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94564867019653</t>
+    <t xml:space="preserve">8.09451293945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94564914703369</t>
   </si>
   <si>
     <t xml:space="preserve">7.92704010009766</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99030780792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16150283813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10940074920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02380180358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76701068878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92331886291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85260820388794</t>
+    <t xml:space="preserve">7.99030733108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16150188446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10939884185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02380084991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76701164245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9233193397522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8526086807251</t>
   </si>
   <si>
     <t xml:space="preserve">8.02844524383545</t>
@@ -2495,13 +2495,13 @@
     <t xml:space="preserve">7.99729633331299</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97393417358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03623104095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00508308410645</t>
+    <t xml:space="preserve">7.97393560409546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03623008728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00508213043213</t>
   </si>
   <si>
     <t xml:space="preserve">7.9817214012146</t>
@@ -2510,43 +2510,43 @@
     <t xml:space="preserve">8.04012393951416</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90385103225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82987546920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78704595565796</t>
+    <t xml:space="preserve">7.90385150909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82987499237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78704500198364</t>
   </si>
   <si>
     <t xml:space="preserve">7.85323572158813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82208824157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84544849395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71696186065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87270355224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88438320159912</t>
+    <t xml:space="preserve">7.82208681106567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84544897079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7169623374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87270259857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88438367843628</t>
   </si>
   <si>
     <t xml:space="preserve">7.73565101623535</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81040668487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77614450454712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85712909698486</t>
+    <t xml:space="preserve">7.81040716171265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77614402770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85712862014771</t>
   </si>
   <si>
     <t xml:space="preserve">7.77925825119019</t>
@@ -2555,52 +2555,52 @@
     <t xml:space="preserve">7.70917510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64220714569092</t>
+    <t xml:space="preserve">7.6422061920166</t>
   </si>
   <si>
     <t xml:space="preserve">7.72007703781128</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64999389648438</t>
+    <t xml:space="preserve">7.64999437332153</t>
   </si>
   <si>
     <t xml:space="preserve">7.67179775238037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74188232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75434064865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70761728286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66556787490845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66712522506714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56589317321777</t>
+    <t xml:space="preserve">7.74188041687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75433969497681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70761775970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66556739807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66712474822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56589365005493</t>
   </si>
   <si>
     <t xml:space="preserve">7.64376449584961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59236907958984</t>
+    <t xml:space="preserve">7.592369556427</t>
   </si>
   <si>
     <t xml:space="preserve">7.53630352020264</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55810689926147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47089195251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40859508514404</t>
+    <t xml:space="preserve">7.55810594558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47089099884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4085955619812</t>
   </si>
   <si>
     <t xml:space="preserve">7.44597339630127</t>
@@ -2609,22 +2609,22 @@
     <t xml:space="preserve">7.23260831832886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45999050140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40392398834229</t>
+    <t xml:space="preserve">7.45999002456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40392255783081</t>
   </si>
   <si>
     <t xml:space="preserve">7.21080446243286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01768589019775</t>
+    <t xml:space="preserve">7.0176854133606</t>
   </si>
   <si>
     <t xml:space="preserve">7.17498350143433</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26687145233154</t>
+    <t xml:space="preserve">7.26687097549438</t>
   </si>
   <si>
     <t xml:space="preserve">7.45375967025757</t>
@@ -2633,31 +2633,31 @@
     <t xml:space="preserve">7.3353967666626</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47867822647095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51917123794556</t>
+    <t xml:space="preserve">7.47867870330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51917171478271</t>
   </si>
   <si>
     <t xml:space="preserve">7.53941822052002</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54097509384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48023557662964</t>
+    <t xml:space="preserve">7.54097461700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4802360534668</t>
   </si>
   <si>
     <t xml:space="preserve">7.50982666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46777725219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32916784286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88997793197632</t>
+    <t xml:space="preserve">7.46777677536011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32916688919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88997745513916</t>
   </si>
   <si>
     <t xml:space="preserve">6.85727214813232</t>
@@ -2684,31 +2684,31 @@
     <t xml:space="preserve">5.76552820205688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64249324798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82952547073364</t>
+    <t xml:space="preserve">5.642493724823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8295259475708</t>
   </si>
   <si>
     <t xml:space="preserve">4.49779748916626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62550497055054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76114344596863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03213214874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.56490969657898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.47613716125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.27445244789124</t>
+    <t xml:space="preserve">4.6255054473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76114296913147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03213262557983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5649094581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.47613739967346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27445292472839</t>
   </si>
   <si>
     <t xml:space="preserve">3.24875521659851</t>
@@ -2717,34 +2717,34 @@
     <t xml:space="preserve">3.3118302822113</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39203715324402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86393213272095</t>
+    <t xml:space="preserve">3.39203691482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86393189430237</t>
   </si>
   <si>
     <t xml:space="preserve">4.16918468475342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28287506103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01967334747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.87405490875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.91532611846924</t>
+    <t xml:space="preserve">4.28287553787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01967287063599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.87405514717102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9153265953064</t>
   </si>
   <si>
     <t xml:space="preserve">3.89663767814636</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03057479858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95737648010254</t>
+    <t xml:space="preserve">4.03057527542114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95737624168396</t>
   </si>
   <si>
     <t xml:space="preserve">4.24082517623901</t>
@@ -2753,37 +2753,37 @@
     <t xml:space="preserve">4.32648277282715</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33427000045776</t>
+    <t xml:space="preserve">4.33426952362061</t>
   </si>
   <si>
     <t xml:space="preserve">4.31558036804199</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13492155075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82266092300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89508032798767</t>
+    <t xml:space="preserve">4.13492107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82266044616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89507985115051</t>
   </si>
   <si>
     <t xml:space="preserve">3.94336009025574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.80397200584412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75413513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99319648742676</t>
+    <t xml:space="preserve">3.8039722442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75413465499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99319672584534</t>
   </si>
   <si>
     <t xml:space="preserve">4.08352661132812</t>
   </si>
   <si>
-    <t xml:space="preserve">4.22369289398193</t>
+    <t xml:space="preserve">4.22369337081909</t>
   </si>
   <si>
     <t xml:space="preserve">4.29533433914185</t>
@@ -2801,25 +2801,25 @@
     <t xml:space="preserve">4.01344299316406</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00254154205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04614925384521</t>
+    <t xml:space="preserve">4.00254106521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04614877700806</t>
   </si>
   <si>
     <t xml:space="preserve">4.18164348602295</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11467504501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93245816230774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.80475068092346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06795310974121</t>
+    <t xml:space="preserve">4.11467456817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93245840072632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80475091934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06795263290405</t>
   </si>
   <si>
     <t xml:space="preserve">4.00409889221191</t>
@@ -2831,13 +2831,13 @@
     <t xml:space="preserve">4.0274600982666</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04147672653198</t>
+    <t xml:space="preserve">4.04147720336914</t>
   </si>
   <si>
     <t xml:space="preserve">4.27041625976562</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44484615325928</t>
+    <t xml:space="preserve">4.44484567642212</t>
   </si>
   <si>
     <t xml:space="preserve">4.61148834228516</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">4.54451990127563</t>
   </si>
   <si>
-    <t xml:space="preserve">4.91206789016724</t>
+    <t xml:space="preserve">4.91206836700439</t>
   </si>
   <si>
     <t xml:space="preserve">5.01797199249268</t>
@@ -2855,43 +2855,43 @@
     <t xml:space="preserve">5.29051923751831</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2889609336853</t>
+    <t xml:space="preserve">5.28896141052246</t>
   </si>
   <si>
     <t xml:space="preserve">5.53503227233887</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70790386199951</t>
+    <t xml:space="preserve">5.70790433883667</t>
   </si>
   <si>
     <t xml:space="preserve">5.52412986755371</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42445611953735</t>
+    <t xml:space="preserve">5.4244556427002</t>
   </si>
   <si>
     <t xml:space="preserve">5.19395971298218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30142116546631</t>
+    <t xml:space="preserve">5.30142068862915</t>
   </si>
   <si>
     <t xml:space="preserve">5.37929105758667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51478624343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48830938339233</t>
+    <t xml:space="preserve">5.5147852897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48830986022949</t>
   </si>
   <si>
     <t xml:space="preserve">5.58642625808716</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46806287765503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31076526641846</t>
+    <t xml:space="preserve">5.46806335449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3107647895813</t>
   </si>
   <si>
     <t xml:space="preserve">5.33568382263184</t>
@@ -2900,49 +2900,49 @@
     <t xml:space="preserve">5.03043174743652</t>
   </si>
   <si>
-    <t xml:space="preserve">5.07248163223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8684606552124</t>
+    <t xml:space="preserve">5.07248115539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.86846113204956</t>
   </si>
   <si>
     <t xml:space="preserve">5.08494091033936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97592210769653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0351037979126</t>
+    <t xml:space="preserve">4.97592163085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03510427474976</t>
   </si>
   <si>
     <t xml:space="preserve">5.25314092636108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23601007461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25937032699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26560068130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21109056472778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12231922149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26404333114624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39330768585205</t>
+    <t xml:space="preserve">5.23600959777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25937080383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26559972763062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21109104156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12231874465942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26404285430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39330816268921</t>
   </si>
   <si>
     <t xml:space="preserve">5.4867525100708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49453973770142</t>
+    <t xml:space="preserve">5.49453926086426</t>
   </si>
   <si>
     <t xml:space="preserve">5.51634311676025</t>
@@ -2951,34 +2951,34 @@
     <t xml:space="preserve">5.48052310943604</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60823059082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6113452911377</t>
+    <t xml:space="preserve">5.60823011398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61134481430054</t>
   </si>
   <si>
     <t xml:space="preserve">5.67675638198853</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5786395072937</t>
+    <t xml:space="preserve">5.57863998413086</t>
   </si>
   <si>
     <t xml:space="preserve">5.51322841644287</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47429370880127</t>
+    <t xml:space="preserve">5.47429323196411</t>
   </si>
   <si>
     <t xml:space="preserve">5.42289876937866</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40265274047852</t>
+    <t xml:space="preserve">5.40265226364136</t>
   </si>
   <si>
     <t xml:space="preserve">5.25625610351562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2780590057373</t>
+    <t xml:space="preserve">5.27805948257446</t>
   </si>
   <si>
     <t xml:space="preserve">5.05379247665405</t>
@@ -2987,13 +2987,13 @@
     <t xml:space="preserve">5.13945007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28273153305054</t>
+    <t xml:space="preserve">5.2827320098877</t>
   </si>
   <si>
     <t xml:space="preserve">5.24691152572632</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31543684005737</t>
+    <t xml:space="preserve">5.31543731689453</t>
   </si>
   <si>
     <t xml:space="preserve">5.63003396987915</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">5.64560842514038</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65339517593384</t>
+    <t xml:space="preserve">5.65339469909668</t>
   </si>
   <si>
     <t xml:space="preserve">5.55527830123901</t>
@@ -3014,25 +3014,25 @@
     <t xml:space="preserve">5.60200071334839</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47585105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44314527511597</t>
+    <t xml:space="preserve">5.4758505821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44314479827881</t>
   </si>
   <si>
     <t xml:space="preserve">5.60355806350708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63470602035522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81380844116211</t>
+    <t xml:space="preserve">5.63470649719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81380796432495</t>
   </si>
   <si>
     <t xml:space="preserve">5.84962892532349</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79200458526611</t>
+    <t xml:space="preserve">5.79200506210327</t>
   </si>
   <si>
     <t xml:space="preserve">5.6705265045166</t>
@@ -3044,31 +3044,31 @@
     <t xml:space="preserve">5.6814284324646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5817551612854</t>
+    <t xml:space="preserve">5.58175468444824</t>
   </si>
   <si>
     <t xml:space="preserve">5.5677375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42601346969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52880191802979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75774145126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64093542098999</t>
+    <t xml:space="preserve">5.42601299285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5288028717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75774192810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64093589782715</t>
   </si>
   <si>
     <t xml:space="preserve">5.65806722640991</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53814697265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43224287033081</t>
+    <t xml:space="preserve">5.53814649581909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43224334716797</t>
   </si>
   <si>
     <t xml:space="preserve">5.23133707046509</t>
@@ -3080,13 +3080,13 @@
     <t xml:space="preserve">5.20797634124756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08338356018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28740358352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20641899108887</t>
+    <t xml:space="preserve">5.08338308334351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28740406036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.20641851425171</t>
   </si>
   <si>
     <t xml:space="preserve">5.21576309204102</t>
@@ -3104,7 +3104,7 @@
     <t xml:space="preserve">5.56306552886963</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43068552017212</t>
+    <t xml:space="preserve">5.43068599700928</t>
   </si>
   <si>
     <t xml:space="preserve">5.64405107498169</t>
@@ -3116,55 +3116,55 @@
     <t xml:space="preserve">5.55683565139771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35125780105591</t>
+    <t xml:space="preserve">5.35125827789307</t>
   </si>
   <si>
     <t xml:space="preserve">5.36060190200806</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14879465103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17059850692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12543296813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17838573455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06158018112183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06780958175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11453104019165</t>
+    <t xml:space="preserve">5.14879512786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17059803009033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.12543344497681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17838525772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06157970428467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06780910491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11453151702881</t>
   </si>
   <si>
     <t xml:space="preserve">5.08961296081543</t>
   </si>
   <si>
-    <t xml:space="preserve">4.95567607879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.70960569381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.77190113067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74075317382812</t>
+    <t xml:space="preserve">4.95567560195923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70960521697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.77190160751343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74075365066528</t>
   </si>
   <si>
     <t xml:space="preserve">4.90583848953247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1861720085144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66896915435791</t>
+    <t xml:space="preserve">5.18617248535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66896963119507</t>
   </si>
   <si>
     <t xml:space="preserve">5.54904890060425</t>
@@ -3176,16 +3176,16 @@
     <t xml:space="preserve">5.89012145996094</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97577905654907</t>
+    <t xml:space="preserve">5.97577857971191</t>
   </si>
   <si>
     <t xml:space="preserve">5.88856410980225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96331977844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87143230438232</t>
+    <t xml:space="preserve">5.96331930160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87143278121948</t>
   </si>
   <si>
     <t xml:space="preserve">6.11750316619873</t>
@@ -3197,34 +3197,34 @@
     <t xml:space="preserve">6.09102725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01938676834106</t>
+    <t xml:space="preserve">6.01938629150391</t>
   </si>
   <si>
     <t xml:space="preserve">5.82003784179688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90413761138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83561182022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91815519332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98200845718384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90725326538086</t>
+    <t xml:space="preserve">5.90413808822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83561229705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9181547164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.982008934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9072527885437</t>
   </si>
   <si>
     <t xml:space="preserve">5.86208772659302</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86987495422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8465142250061</t>
+    <t xml:space="preserve">5.86987543106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84651374816895</t>
   </si>
   <si>
     <t xml:space="preserve">5.7125768661499</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">5.72503614425659</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91348266601562</t>
+    <t xml:space="preserve">5.91348218917847</t>
   </si>
   <si>
     <t xml:space="preserve">5.8652024269104</t>
@@ -3248,16 +3248,16 @@
     <t xml:space="preserve">5.74372482299805</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89479351043701</t>
+    <t xml:space="preserve">5.89479398727417</t>
   </si>
   <si>
     <t xml:space="preserve">5.89946556091309</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76864337921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79044771194458</t>
+    <t xml:space="preserve">5.76864290237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79044723510742</t>
   </si>
   <si>
     <t xml:space="preserve">6.0100417137146</t>
@@ -3272,49 +3272,49 @@
     <t xml:space="preserve">5.83249664306641</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88389205932617</t>
+    <t xml:space="preserve">5.88389158248901</t>
   </si>
   <si>
     <t xml:space="preserve">5.84028434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81692314147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74683952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84184122085571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76708602905273</t>
+    <t xml:space="preserve">5.81692266464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74684000015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84184169769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76708555221558</t>
   </si>
   <si>
     <t xml:space="preserve">5.77175855636597</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81848096847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72036409378052</t>
+    <t xml:space="preserve">5.81848049163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72036361694336</t>
   </si>
   <si>
     <t xml:space="preserve">5.76085615158081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7343807220459</t>
+    <t xml:space="preserve">5.73438024520874</t>
   </si>
   <si>
     <t xml:space="preserve">5.88544940948486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11906051635742</t>
+    <t xml:space="preserve">6.11906003952026</t>
   </si>
   <si>
     <t xml:space="preserve">6.299720287323</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38537693023682</t>
+    <t xml:space="preserve">6.38537740707397</t>
   </si>
   <si>
     <t xml:space="preserve">6.59251260757446</t>
@@ -3323,40 +3323,40 @@
     <t xml:space="preserve">6.65325164794922</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85260009765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94760227203369</t>
+    <t xml:space="preserve">6.85260057449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94760179519653</t>
   </si>
   <si>
     <t xml:space="preserve">6.91956901550293</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03948974609375</t>
+    <t xml:space="preserve">7.03948926925659</t>
   </si>
   <si>
     <t xml:space="preserve">6.98030757904053</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02547311782837</t>
+    <t xml:space="preserve">7.02547359466553</t>
   </si>
   <si>
     <t xml:space="preserve">6.9880952835083</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07063722610474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06285047531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02858734130859</t>
+    <t xml:space="preserve">7.07063770294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06284999847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02858829498291</t>
   </si>
   <si>
     <t xml:space="preserve">6.97719287872314</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82923889160156</t>
+    <t xml:space="preserve">6.82923936843872</t>
   </si>
   <si>
     <t xml:space="preserve">6.71087598800659</t>
@@ -3365,58 +3365,58 @@
     <t xml:space="preserve">6.94293069839478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87128925323486</t>
+    <t xml:space="preserve">6.87128973007202</t>
   </si>
   <si>
     <t xml:space="preserve">6.96940565109253</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0597357749939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18121337890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19211530685425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23416566848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31515121459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33072423934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3696608543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49581050872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57523822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57835340499878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3462986946106</t>
+    <t xml:space="preserve">7.05973529815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18121385574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19211483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23416614532471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31515073776245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33072471618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36965990066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49581098556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57523727416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57835292816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34629821777344</t>
   </si>
   <si>
     <t xml:space="preserve">7.30424880981445</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23883676528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36810255050659</t>
+    <t xml:space="preserve">7.23883771896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36810207366943</t>
   </si>
   <si>
     <t xml:space="preserve">7.37433290481567</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38990592956543</t>
+    <t xml:space="preserve">7.38990640640259</t>
   </si>
   <si>
     <t xml:space="preserve">7.41015243530273</t>
@@ -3425,16 +3425,16 @@
     <t xml:space="preserve">7.51294136047363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36343097686768</t>
+    <t xml:space="preserve">7.36343050003052</t>
   </si>
   <si>
     <t xml:space="preserve">7.3135929107666</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32605266571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23105096817017</t>
+    <t xml:space="preserve">7.32605314254761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23105144500732</t>
   </si>
   <si>
     <t xml:space="preserve">7.26842784881592</t>
@@ -3449,49 +3449,49 @@
     <t xml:space="preserve">7.24662399291992</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31670808792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31203556060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16408205032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09244108200073</t>
+    <t xml:space="preserve">7.31670761108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31203603744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16408252716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09244060516357</t>
   </si>
   <si>
     <t xml:space="preserve">7.10957288742065</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09711360931396</t>
+    <t xml:space="preserve">7.09711408615112</t>
   </si>
   <si>
     <t xml:space="preserve">7.29957628250122</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26998615264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29023218154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32138061523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39769315719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24039554595947</t>
+    <t xml:space="preserve">7.26998662948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29023265838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32138109207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3976936340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24039506912231</t>
   </si>
   <si>
     <t xml:space="preserve">7.3774471282959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41794013977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51761388778687</t>
+    <t xml:space="preserve">7.41793918609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51761436462402</t>
   </si>
   <si>
     <t xml:space="preserve">7.5331883430481</t>
@@ -3500,13 +3500,13 @@
     <t xml:space="preserve">7.4895806312561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56433582305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61728715896606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68581390380859</t>
+    <t xml:space="preserve">7.56433534622192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61728811264038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68581342697144</t>
   </si>
   <si>
     <t xml:space="preserve">7.53786087036133</t>
@@ -3515,25 +3515,25 @@
     <t xml:space="preserve">7.54564666748047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5316309928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56122159957886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61261606216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60015630722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63286209106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70138883590698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76368474960327</t>
+    <t xml:space="preserve">7.53163003921509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56122064590454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61261558532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60015678405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63286256790161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70138835906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76368522644043</t>
   </si>
   <si>
     <t xml:space="preserve">7.79872608184814</t>
@@ -3542,52 +3542,52 @@
     <t xml:space="preserve">7.79483318328857</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74810981750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76057004928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69671535491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75589752197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74655389785767</t>
+    <t xml:space="preserve">7.74811029434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76056957244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69671583175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7558970451355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74655342102051</t>
   </si>
   <si>
     <t xml:space="preserve">7.72319269180298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72630596160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63909292221069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66245269775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71229076385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77458572387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7683572769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68892860412598</t>
+    <t xml:space="preserve">7.72630739212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63909149169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66245317459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71228981018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77458667755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76835632324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68892812728882</t>
   </si>
   <si>
     <t xml:space="preserve">7.67024040222168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68114185333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67491292953491</t>
+    <t xml:space="preserve">7.68114233016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67491245269775</t>
   </si>
   <si>
     <t xml:space="preserve">7.86102294921875</t>
@@ -3596,28 +3596,28 @@
     <t xml:space="preserve">7.62507486343384</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63442039489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39302158355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59392738342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67646932601929</t>
+    <t xml:space="preserve">7.63441944122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39302206039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59392595291138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67646980285645</t>
   </si>
   <si>
     <t xml:space="preserve">7.69360113143921</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62974739074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57679557800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33384037017822</t>
+    <t xml:space="preserve">7.62974786758423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57679462432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33383893966675</t>
   </si>
   <si>
     <t xml:space="preserve">7.42728471755981</t>
@@ -3626,10 +3626,10 @@
     <t xml:space="preserve">7.72474908828735</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8065128326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78081607818604</t>
+    <t xml:space="preserve">7.80651378631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78081655502319</t>
   </si>
   <si>
     <t xml:space="preserve">7.78237390518188</t>
@@ -3653,58 +3653,58 @@
     <t xml:space="preserve">7.79093980789185</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67802667617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77147197723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76679944992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66401052474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65777969360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52384281158447</t>
+    <t xml:space="preserve">7.67802715301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77147102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76679992675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6640100479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65778017044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52384328842163</t>
   </si>
   <si>
     <t xml:space="preserve">7.57991027832031</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62040328979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74343824386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77302980422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59704160690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74032258987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86491632461548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98561573028564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83376789093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04791069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12967586517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20754718780518</t>
+    <t xml:space="preserve">7.62040376663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74343872070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77302932739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59704113006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74032306671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86491680145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98561525344849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83376884460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04791259765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12967491149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20754623413086</t>
   </si>
   <si>
     <t xml:space="preserve">8.10242080688477</t>
@@ -3716,10 +3716,10 @@
     <t xml:space="preserve">8.0128698348999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95836067199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70450353622437</t>
+    <t xml:space="preserve">7.95836162567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70450305938721</t>
   </si>
   <si>
     <t xml:space="preserve">7.88049077987671</t>
@@ -3746,22 +3746,22 @@
     <t xml:space="preserve">8.0323371887207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16082286834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19197273254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29709720611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29320430755615</t>
+    <t xml:space="preserve">8.16082382202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19197177886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29709625244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29320335388184</t>
   </si>
   <si>
     <t xml:space="preserve">8.42168998718262</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41001033782959</t>
+    <t xml:space="preserve">8.41000938415527</t>
   </si>
   <si>
     <t xml:space="preserve">8.3438196182251</t>
@@ -3773,352 +3773,352 @@
     <t xml:space="preserve">8.43337059020996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44115829467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41390323638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32045936584473</t>
+    <t xml:space="preserve">8.44115734100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41390228271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32045841217041</t>
   </si>
   <si>
     <t xml:space="preserve">8.27373600006104</t>
   </si>
   <si>
+    <t xml:space="preserve">8.22312068939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43908023834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24637794494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24471664428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95898342132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07693195343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11514091491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13507556915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15667057037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14504241943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31864166259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48476505279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39339637756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35601997375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33940696716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23807144165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28956890106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28790760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38093757629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33525371551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03207874298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16829872131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21149063110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34355926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39754962921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46399974822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63427639007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65088939666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63012313842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6259708404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61766338348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68411350250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79624652862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72979736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64673519134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58028602600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59689903259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56782627105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13175296783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17992782592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30618095397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57197952270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65919494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32694816589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60520458221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78794097900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76302242279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69657325744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44323348999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62181758880615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41831588745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47645854949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30286026000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19321823120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19820117950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76295709609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78621482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74634504318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13999366760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19149208068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13833284378052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5386266708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35755157470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49875688552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0851731300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7479419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78116655349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06025505065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11341428756714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59185028076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.548659324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71644353866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54699754714966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61344623565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49716091156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52872371673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71976518630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58852767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65830039978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79950523376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6018180847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45230627059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35927677154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5121111869812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50214290618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42074298858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59517240524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68321895599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67158937454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87426042556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9539999961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66660594940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64999341964722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256645202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88090515136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98390245437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4224681854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27295780181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01380443572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99054622650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12178516387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0603199005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24305534362793</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.22311973571777</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4390811920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24637794494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24471569061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95898294448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07693195343018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11513996124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13507461547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15667057037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14504146575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31864166259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48476505279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39339637756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35601902008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33940696716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23807239532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28956985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28790760040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38093852996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33525466918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03207874298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16829872131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21149063110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34356021881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39755058288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46399974822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63427639007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65088844299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63012313842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6259708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61766338348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68411445617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79624652862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72979831695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64673519134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58028602600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59689903259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56782627105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13175201416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17992782592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30618286132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57197952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65919494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32694721221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60520458221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78794002532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76302242279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69657230377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44323444366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62181758880615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41831493377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47645854949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30285930633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19321823120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19820213317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76295757293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78621482849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74634647369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1399941444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19149255752563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13833284378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5386266708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35755157470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49875688552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0851731300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7479419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78116703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06025457382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11341428756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59185123443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54865884780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71644306182861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5469970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6134467124939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49715995788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52872371673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71976518630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58852767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65829992294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79950475692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6018180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45230722427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35927677154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5121111869812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50214290618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42074346542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59517335891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68321895599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67158985137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87426042556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9539999961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66660642623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64999341964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256645202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88090562820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98390245437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4224681854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27295780181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01380443572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99054718017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12178421020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0603199005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24305534362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23308753967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03374004364014</t>
+    <t xml:space="preserve">8.23308658599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03373908996582</t>
   </si>
   <si>
     <t xml:space="preserve">7.95067691802979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89087247848511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93904781341553</t>
+    <t xml:space="preserve">7.89087295532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93904829025269</t>
   </si>
   <si>
     <t xml:space="preserve">7.75465250015259</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83937406539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9739351272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91413068771362</t>
+    <t xml:space="preserve">7.83937358856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91412973403931</t>
   </si>
   <si>
     <t xml:space="preserve">7.97559595108032</t>
@@ -4127,13 +4127,13 @@
     <t xml:space="preserve">7.93572568893433</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82608509063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92409753799438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04536819458008</t>
+    <t xml:space="preserve">7.82608413696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92409801483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04536724090576</t>
   </si>
   <si>
     <t xml:space="preserve">8.00715923309326</t>
@@ -4145,16 +4145,16 @@
     <t xml:space="preserve">8.01712703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">7.488853931427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37256765365601</t>
+    <t xml:space="preserve">7.48885345458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37256717681885</t>
   </si>
   <si>
     <t xml:space="preserve">7.44067859649658</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42240428924561</t>
+    <t xml:space="preserve">7.42240476608276</t>
   </si>
   <si>
     <t xml:space="preserve">7.08018970489502</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">7.13501071929932</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2014594078064</t>
+    <t xml:space="preserve">7.20145988464355</t>
   </si>
   <si>
     <t xml:space="preserve">7.174880027771</t>
@@ -4175,7 +4175,7 @@
     <t xml:space="preserve">7.01374053955078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16657447814941</t>
+    <t xml:space="preserve">7.16657400131226</t>
   </si>
   <si>
     <t xml:space="preserve">7.0120792388916</t>
@@ -4184,7 +4184,7 @@
     <t xml:space="preserve">7.09846305847168</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05028676986694</t>
+    <t xml:space="preserve">7.0502872467041</t>
   </si>
   <si>
     <t xml:space="preserve">6.85924530029297</t>
@@ -4199,16 +4199,16 @@
     <t xml:space="preserve">6.65491342544556</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75292634963989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89579248428345</t>
+    <t xml:space="preserve">6.75292587280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89579200744629</t>
   </si>
   <si>
     <t xml:space="preserve">7.0004506111145</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93067789077759</t>
+    <t xml:space="preserve">6.93067836761475</t>
   </si>
   <si>
     <t xml:space="preserve">6.84761667251587</t>
@@ -4217,37 +4217,37 @@
     <t xml:space="preserve">6.78947305679321</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47051572799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46553230285645</t>
+    <t xml:space="preserve">6.47051525115967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46553182601929</t>
   </si>
   <si>
     <t xml:space="preserve">6.62168788909912</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76289319992065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68481540679932</t>
+    <t xml:space="preserve">6.76289367675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68481588363647</t>
   </si>
   <si>
     <t xml:space="preserve">6.6432843208313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67152500152588</t>
+    <t xml:space="preserve">6.67152547836304</t>
   </si>
   <si>
     <t xml:space="preserve">6.59843111038208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6632194519043</t>
+    <t xml:space="preserve">6.66321992874146</t>
   </si>
   <si>
     <t xml:space="preserve">6.78781175613403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94396829605103</t>
+    <t xml:space="preserve">6.94396781921387</t>
   </si>
   <si>
     <t xml:space="preserve">6.99048280715942</t>
@@ -4262,34 +4262,34 @@
     <t xml:space="preserve">7.10012435913086</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15660667419434</t>
+    <t xml:space="preserve">7.15660619735718</t>
   </si>
   <si>
     <t xml:space="preserve">7.10344696044922</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09347915649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11175346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1815242767334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22970104217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23800754547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17820262908936</t>
+    <t xml:space="preserve">7.0934796333313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11175298690796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18152570724487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22970199584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23800706863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17820310592651</t>
   </si>
   <si>
     <t xml:space="preserve">7.14996147155762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88416433334351</t>
+    <t xml:space="preserve">6.88416385650635</t>
   </si>
   <si>
     <t xml:space="preserve">6.69976663589478</t>
@@ -4316,10 +4316,10 @@
     <t xml:space="preserve">6.56852865219116</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49045038223267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73797559738159</t>
+    <t xml:space="preserve">6.49045085906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73797512054443</t>
   </si>
   <si>
     <t xml:space="preserve">6.63331699371338</t>
@@ -4331,13 +4331,13 @@
     <t xml:space="preserve">6.6515908241272</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7130560874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87917947769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02703046798706</t>
+    <t xml:space="preserve">6.71305656433105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87917995452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0270299911499</t>
   </si>
   <si>
     <t xml:space="preserve">7.03367519378662</t>
@@ -4349,13 +4349,13 @@
     <t xml:space="preserve">7.08351182937622</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0237078666687</t>
+    <t xml:space="preserve">7.02370834350586</t>
   </si>
   <si>
     <t xml:space="preserve">7.05859375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80774688720703</t>
+    <t xml:space="preserve">6.80774736404419</t>
   </si>
   <si>
     <t xml:space="preserve">6.92237186431885</t>
@@ -4367,7 +4367,7 @@
     <t xml:space="preserve">6.62999439239502</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5070629119873</t>
+    <t xml:space="preserve">6.50706338882446</t>
   </si>
   <si>
     <t xml:space="preserve">6.44227457046509</t>
@@ -4385,7 +4385,7 @@
     <t xml:space="preserve">6.92071104049683</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65657424926758</t>
+    <t xml:space="preserve">6.65657472610474</t>
   </si>
   <si>
     <t xml:space="preserve">6.6167049407959</t>
@@ -4394,37 +4394,37 @@
     <t xml:space="preserve">6.60175323486328</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51370811462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70973443984985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89413166046143</t>
+    <t xml:space="preserve">6.51370763778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7097339630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89413118362427</t>
   </si>
   <si>
     <t xml:space="preserve">6.96390295028687</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13168811798096</t>
+    <t xml:space="preserve">7.13168859481812</t>
   </si>
   <si>
     <t xml:space="preserve">7.32106876373291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31442403793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32273006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5503191947937</t>
+    <t xml:space="preserve">7.31442356109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32273054122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55031967163086</t>
   </si>
   <si>
     <t xml:space="preserve">7.58520555496216</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61842966079712</t>
+    <t xml:space="preserve">7.61843013763428</t>
   </si>
   <si>
     <t xml:space="preserve">7.57855987548828</t>
@@ -4433,7 +4433,7 @@
     <t xml:space="preserve">7.67823505401611</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63836479187012</t>
+    <t xml:space="preserve">7.63836526870728</t>
   </si>
   <si>
     <t xml:space="preserve">7.80614995956421</t>
@@ -4442,16 +4442,16 @@
     <t xml:space="preserve">8.00051403045654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03872394561768</t>
+    <t xml:space="preserve">8.03872299194336</t>
   </si>
   <si>
     <t xml:space="preserve">8.09354400634766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15168762207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26797389984131</t>
+    <t xml:space="preserve">8.151686668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26797294616699</t>
   </si>
   <si>
     <t xml:space="preserve">8.45153999328613</t>
@@ -5577,6 +5577,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.1549997329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1000003814697</t>
   </si>
 </sst>
 </file>
@@ -48030,7 +48033,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1620" t="s">
-        <v>1257</v>
+        <v>1360</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -48056,7 +48059,7 @@
         <v>9.91199970245361</v>
       </c>
       <c r="G1621" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -48082,7 +48085,7 @@
         <v>9.67199993133545</v>
       </c>
       <c r="G1622" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -48108,7 +48111,7 @@
         <v>9.57199954986572</v>
       </c>
       <c r="G1623" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -48134,7 +48137,7 @@
         <v>9.5</v>
       </c>
       <c r="G1624" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -48160,7 +48163,7 @@
         <v>9.55799961090088</v>
       </c>
       <c r="G1625" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -48186,7 +48189,7 @@
         <v>9.33600044250488</v>
       </c>
       <c r="G1626" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -48212,7 +48215,7 @@
         <v>9.4379997253418</v>
       </c>
       <c r="G1627" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -48238,7 +48241,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1628" t="s">
-        <v>1367</v>
+        <v>827</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -48394,7 +48397,7 @@
         <v>9.5</v>
       </c>
       <c r="G1634" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -62208,7 +62211,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6514236111</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>1472022</v>
@@ -62229,6 +62232,32 @@
         <v>1854</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6493171296</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>1320540</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>14.2299995422363</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>13.9799995422363</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>14.1599998474121</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>14.1000003814697</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1855</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1859">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54330205917358</t>
+    <t xml:space="preserve">5.5433030128479</t>
   </si>
   <si>
     <t xml:space="preserve">MB.MI</t>
@@ -50,34 +50,34 @@
     <t xml:space="preserve">5.39810466766357</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29485416412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16579008102417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1367506980896</t>
+    <t xml:space="preserve">5.29485368728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16578960418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13675022125244</t>
   </si>
   <si>
     <t xml:space="preserve">5.25936126708984</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31744003295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25290775299072</t>
+    <t xml:space="preserve">5.31743955612183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25290822982788</t>
   </si>
   <si>
     <t xml:space="preserve">5.05285882949829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81086349487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.91088819503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71406555175781</t>
+    <t xml:space="preserve">4.81086397171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.910888671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71406507492065</t>
   </si>
   <si>
     <t xml:space="preserve">4.9754204750061</t>
@@ -95,91 +95,91 @@
     <t xml:space="preserve">4.83344984054565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.5688681602478</t>
+    <t xml:space="preserve">4.56886863708496</t>
   </si>
   <si>
     <t xml:space="preserve">4.75278472900391</t>
   </si>
   <si>
-    <t xml:space="preserve">4.60436153411865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47852420806885</t>
+    <t xml:space="preserve">4.60436105728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47852325439453</t>
   </si>
   <si>
     <t xml:space="preserve">4.27524757385254</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36881923675537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25911426544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86224293708801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64606046676636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92032170295715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71381831169128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78480434417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89450836181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93000173568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00421285629272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.88805556297302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85578894615173</t>
+    <t xml:space="preserve">4.36881971359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25911474227905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86224246025085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64606022834778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92032146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71381878852844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78480458259583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89450860023499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9300012588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00421333312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8880558013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85578918457031</t>
   </si>
   <si>
     <t xml:space="preserve">4.01066637039185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91064143180847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8686957359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92354822158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02357292175293</t>
+    <t xml:space="preserve">3.91064190864563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86869549751282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92354798316956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02357244491577</t>
   </si>
   <si>
     <t xml:space="preserve">4.03970575332642</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20426273345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36559295654297</t>
+    <t xml:space="preserve">4.20426225662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36559247970581</t>
   </si>
   <si>
     <t xml:space="preserve">4.3817253112793</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29783391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17522239685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23007583618164</t>
+    <t xml:space="preserve">4.2978343963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17522287368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23007535934448</t>
   </si>
   <si>
     <t xml:space="preserve">4.24298191070557</t>
@@ -194,16 +194,16 @@
     <t xml:space="preserve">4.7301983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57209587097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59145498275757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31073999404907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.34945964813232</t>
+    <t xml:space="preserve">4.57209491729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59145545959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31074047088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.34945917129517</t>
   </si>
   <si>
     <t xml:space="preserve">4.37204551696777</t>
@@ -212,22 +212,22 @@
     <t xml:space="preserve">4.29138040542603</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26234149932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14295721054077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16877031326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08487844467163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0493860244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09133100509644</t>
+    <t xml:space="preserve">4.26234102249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14295673370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16876983642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08487749099731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04938554763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09133148193359</t>
   </si>
   <si>
     <t xml:space="preserve">4.01389265060425</t>
@@ -236,25 +236,25 @@
     <t xml:space="preserve">4.0526123046875</t>
   </si>
   <si>
-    <t xml:space="preserve">3.84933662414551</t>
+    <t xml:space="preserve">3.84933638572693</t>
   </si>
   <si>
     <t xml:space="preserve">4.07197189331055</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11714458465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03002643585205</t>
+    <t xml:space="preserve">4.1171441078186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03002595901489</t>
   </si>
   <si>
     <t xml:space="preserve">4.23975515365601</t>
   </si>
   <si>
-    <t xml:space="preserve">4.31719398498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24620866775513</t>
+    <t xml:space="preserve">4.31719350814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24620771408081</t>
   </si>
   <si>
     <t xml:space="preserve">4.51724290847778</t>
@@ -266,13 +266,13 @@
     <t xml:space="preserve">4.6656665802002</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68502616882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.69470548629761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63017416000366</t>
+    <t xml:space="preserve">4.68502569198608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.69470596313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63017463684082</t>
   </si>
   <si>
     <t xml:space="preserve">4.49788284301758</t>
@@ -281,13 +281,13 @@
     <t xml:space="preserve">4.32687330245972</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14940977096558</t>
+    <t xml:space="preserve">4.14941024780273</t>
   </si>
   <si>
     <t xml:space="preserve">4.1139178276062</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06229162216187</t>
+    <t xml:space="preserve">4.06229209899902</t>
   </si>
   <si>
     <t xml:space="preserve">4.13327741622925</t>
@@ -296,28 +296,28 @@
     <t xml:space="preserve">4.16231679916382</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20103645324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18812942504883</t>
+    <t xml:space="preserve">4.20103549957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18812847137451</t>
   </si>
   <si>
     <t xml:space="preserve">4.17199659347534</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24943494796753</t>
+    <t xml:space="preserve">4.24943542480469</t>
   </si>
   <si>
     <t xml:space="preserve">4.28815412521362</t>
   </si>
   <si>
-    <t xml:space="preserve">4.50433588027954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60758781433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59790849685669</t>
+    <t xml:space="preserve">4.5043363571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.6075873374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59790802001953</t>
   </si>
   <si>
     <t xml:space="preserve">4.65276002883911</t>
@@ -326,37 +326,37 @@
     <t xml:space="preserve">4.63985395431519</t>
   </si>
   <si>
-    <t xml:space="preserve">4.41399145126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38495254516602</t>
+    <t xml:space="preserve">4.41399192810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38495206832886</t>
   </si>
   <si>
     <t xml:space="preserve">4.27202081680298</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25588798522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18167638778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95258760452271</t>
+    <t xml:space="preserve">4.25588750839233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18167591094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95258712768555</t>
   </si>
   <si>
     <t xml:space="preserve">3.75899124145508</t>
   </si>
   <si>
-    <t xml:space="preserve">3.61702084541321</t>
+    <t xml:space="preserve">3.61702060699463</t>
   </si>
   <si>
     <t xml:space="preserve">3.717045545578</t>
   </si>
   <si>
-    <t xml:space="preserve">3.70413947105408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85256314277649</t>
+    <t xml:space="preserve">3.7041392326355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85256266593933</t>
   </si>
   <si>
     <t xml:space="preserve">4.06551837921143</t>
@@ -365,61 +365,61 @@
     <t xml:space="preserve">4.12037086486816</t>
   </si>
   <si>
-    <t xml:space="preserve">4.094557762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4266517162323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98912405967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16207027435303</t>
+    <t xml:space="preserve">4.09455728530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.42665147781372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9891242980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16207003593445</t>
   </si>
   <si>
     <t xml:space="preserve">3.27177476882935</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3266270160675</t>
+    <t xml:space="preserve">3.32662653923035</t>
   </si>
   <si>
     <t xml:space="preserve">3.35889267921448</t>
   </si>
   <si>
-    <t xml:space="preserve">3.21756744384766</t>
+    <t xml:space="preserve">3.21756792068481</t>
   </si>
   <si>
     <t xml:space="preserve">3.11431646347046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.0407497882843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14529156684875</t>
+    <t xml:space="preserve">3.04074954986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14529204368591</t>
   </si>
   <si>
     <t xml:space="preserve">3.41374492645264</t>
   </si>
   <si>
-    <t xml:space="preserve">3.67832612991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70736622810364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82029724121094</t>
+    <t xml:space="preserve">3.67832660675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7073655128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82029676437378</t>
   </si>
   <si>
     <t xml:space="preserve">3.76544451713562</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82997584342957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.79448390007019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.83965682983398</t>
+    <t xml:space="preserve">3.82997679710388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79448366165161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.83965611457825</t>
   </si>
   <si>
     <t xml:space="preserve">3.83320307731628</t>
@@ -428,139 +428,139 @@
     <t xml:space="preserve">3.86546897888184</t>
   </si>
   <si>
-    <t xml:space="preserve">3.77512431144714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90741491317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85901570320129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04293203353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.96549415588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63960695266724</t>
+    <t xml:space="preserve">3.77512454986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90741467475891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85901641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04293298721313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96549344062805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63960671424866</t>
   </si>
   <si>
     <t xml:space="preserve">3.65251350402832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97194695472717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23652791976929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20748901367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16554355621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1784496307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11069107055664</t>
+    <t xml:space="preserve">3.97194743156433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23652839660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20748949050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16554307937622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17845010757446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11069059371948</t>
   </si>
   <si>
     <t xml:space="preserve">4.07519865036011</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0590648651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.946133852005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98162698745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19135570526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15909004211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2203950881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32364702224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42367124557495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35591220855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47529697418213</t>
+    <t xml:space="preserve">4.05906534194946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94613456726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98162722587585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19135618209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15909051895142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.22039556503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32364654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42367172241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35591316223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47529649734497</t>
   </si>
   <si>
     <t xml:space="preserve">4.43657779693604</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33332633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98485326766968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04615926742554</t>
+    <t xml:space="preserve">4.33332681655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98485374450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04615879058838</t>
   </si>
   <si>
     <t xml:space="preserve">3.93645429611206</t>
   </si>
   <si>
-    <t xml:space="preserve">4.02679920196533</t>
+    <t xml:space="preserve">4.02679967880249</t>
   </si>
   <si>
     <t xml:space="preserve">4.03325271606445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73317837715149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78157758712769</t>
+    <t xml:space="preserve">3.73317790031433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78157782554626</t>
   </si>
   <si>
     <t xml:space="preserve">3.71059250831604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73640489578247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72672581672668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.72995209693909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93322801589966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03647947311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90096187591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9977605342865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13650369644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26556825637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38817834854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4398045539856</t>
+    <t xml:space="preserve">3.73640513420105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72672605514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.72995185852051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93322777748108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03647899627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90096211433411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99776005744934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13650417327881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26556777954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38817882537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43980503082275</t>
   </si>
   <si>
     <t xml:space="preserve">4.52369594573975</t>
@@ -569,25 +569,25 @@
     <t xml:space="preserve">4.33655261993408</t>
   </si>
   <si>
-    <t xml:space="preserve">4.10423755645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28170108795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.42689847946167</t>
+    <t xml:space="preserve">4.10423803329468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28170156478882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.42689800262451</t>
   </si>
   <si>
     <t xml:space="preserve">4.42044448852539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54305553436279</t>
+    <t xml:space="preserve">4.54305601119995</t>
   </si>
   <si>
     <t xml:space="preserve">4.55918884277344</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49143028259277</t>
+    <t xml:space="preserve">4.49142980575562</t>
   </si>
   <si>
     <t xml:space="preserve">4.39140558242798</t>
@@ -599,13 +599,13 @@
     <t xml:space="preserve">4.26442909240723</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33847522735596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27452611923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23077058792114</t>
+    <t xml:space="preserve">4.33847618103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27452564239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2307710647583</t>
   </si>
   <si>
     <t xml:space="preserve">4.17355298995972</t>
@@ -617,10 +617,10 @@
     <t xml:space="preserve">4.22403955459595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38223123550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52022695541382</t>
+    <t xml:space="preserve">4.38223028182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52022743225098</t>
   </si>
   <si>
     <t xml:space="preserve">4.52695894241333</t>
@@ -629,37 +629,37 @@
     <t xml:space="preserve">4.33511018753052</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76592826843262</t>
+    <t xml:space="preserve">4.76592779159546</t>
   </si>
   <si>
     <t xml:space="preserve">4.99480056762695</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13279724121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.98806858062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01499462127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06884765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11596822738647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28762292861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22703886032104</t>
+    <t xml:space="preserve">5.13279676437378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9880690574646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01499557495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06884717941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11596870422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28762245178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22703790664673</t>
   </si>
   <si>
     <t xml:space="preserve">5.2505989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32801151275635</t>
+    <t xml:space="preserve">5.32801103591919</t>
   </si>
   <si>
     <t xml:space="preserve">5.29098796844482</t>
@@ -668,22 +668,22 @@
     <t xml:space="preserve">5.27415943145752</t>
   </si>
   <si>
-    <t xml:space="preserve">5.34147548675537</t>
+    <t xml:space="preserve">5.3414740562439</t>
   </si>
   <si>
     <t xml:space="preserve">5.3381085395813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27079391479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23040390014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22030687332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3313775062561</t>
+    <t xml:space="preserve">5.27079343795776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2304048538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22030735015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33137798309326</t>
   </si>
   <si>
     <t xml:space="preserve">5.48620271682739</t>
@@ -692,19 +692,19 @@
     <t xml:space="preserve">5.51986026763916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49293422698975</t>
+    <t xml:space="preserve">5.4929347038269</t>
   </si>
   <si>
     <t xml:space="preserve">5.51312875747681</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26406192779541</t>
+    <t xml:space="preserve">5.26406145095825</t>
   </si>
   <si>
     <t xml:space="preserve">5.32128047943115</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31791496276855</t>
+    <t xml:space="preserve">5.3179144859314</t>
   </si>
   <si>
     <t xml:space="preserve">5.19338083267212</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">5.40205860137939</t>
   </si>
   <si>
-    <t xml:space="preserve">5.38186359405518</t>
+    <t xml:space="preserve">5.38186407089233</t>
   </si>
   <si>
     <t xml:space="preserve">5.34484052658081</t>
@@ -725,31 +725,31 @@
     <t xml:space="preserve">5.35157203674316</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43235015869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73526954650879</t>
+    <t xml:space="preserve">5.43235063552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73527002334595</t>
   </si>
   <si>
     <t xml:space="preserve">5.91365480422974</t>
   </si>
   <si>
-    <t xml:space="preserve">5.725172996521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65449094772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5030312538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35493755340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48283767700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25733041763306</t>
+    <t xml:space="preserve">5.72517204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65449142456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50303173065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35493803024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48283720016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25733089447021</t>
   </si>
   <si>
     <t xml:space="preserve">5.14626026153564</t>
@@ -761,19 +761,19 @@
     <t xml:space="preserve">5.24386739730835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39869260787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52659225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4963002204895</t>
+    <t xml:space="preserve">5.3986930847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52659177780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49629974365234</t>
   </si>
   <si>
     <t xml:space="preserve">5.46600818634033</t>
   </si>
   <si>
-    <t xml:space="preserve">5.41552114486694</t>
+    <t xml:space="preserve">5.4155216217041</t>
   </si>
   <si>
     <t xml:space="preserve">5.36503505706787</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">5.1563572883606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01162958145142</t>
+    <t xml:space="preserve">5.01162910461426</t>
   </si>
   <si>
     <t xml:space="preserve">5.04865264892578</t>
@@ -794,10 +794,10 @@
     <t xml:space="preserve">5.09240818023682</t>
   </si>
   <si>
-    <t xml:space="preserve">5.28425645828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33474349975586</t>
+    <t xml:space="preserve">5.28425693511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33474397659302</t>
   </si>
   <si>
     <t xml:space="preserve">5.52322626113892</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">5.57034683227539</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5804443359375</t>
+    <t xml:space="preserve">5.58044385910034</t>
   </si>
   <si>
     <t xml:space="preserve">5.6612229347229</t>
@@ -815,46 +815,46 @@
     <t xml:space="preserve">5.60400438308716</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59054183959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60737085342407</t>
+    <t xml:space="preserve">5.59054231643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60737037658691</t>
   </si>
   <si>
     <t xml:space="preserve">5.61746788024902</t>
   </si>
   <si>
-    <t xml:space="preserve">5.68478298187256</t>
+    <t xml:space="preserve">5.6847825050354</t>
   </si>
   <si>
     <t xml:space="preserve">5.69824600219727</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63766193389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70161247253418</t>
+    <t xml:space="preserve">5.63766288757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70161199569702</t>
   </si>
   <si>
     <t xml:space="preserve">5.67805194854736</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71507549285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68814897537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55015182495117</t>
+    <t xml:space="preserve">5.71507406234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68814849853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55015230178833</t>
   </si>
   <si>
     <t xml:space="preserve">5.56024980545044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55688428878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59390735626221</t>
+    <t xml:space="preserve">5.55688333511353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59390830993652</t>
   </si>
   <si>
     <t xml:space="preserve">5.47947120666504</t>
@@ -869,34 +869,34 @@
     <t xml:space="preserve">5.74873304367065</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83624267578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75546455383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71844100952148</t>
+    <t xml:space="preserve">5.83624219894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75546503067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71844053268433</t>
   </si>
   <si>
     <t xml:space="preserve">5.94058132171631</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95741081237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97760486602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09540700912476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17955112457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14252710342407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12569856643677</t>
+    <t xml:space="preserve">5.95740985870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97760534286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09540748596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17955160140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14252805709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12569904327393</t>
   </si>
   <si>
     <t xml:space="preserve">6.1088695526123</t>
@@ -908,16 +908,16 @@
     <t xml:space="preserve">6.1526255607605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17618608474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00453186035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02472543716431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521295547485</t>
+    <t xml:space="preserve">6.17618560791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00453090667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02472591400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07521200180054</t>
   </si>
   <si>
     <t xml:space="preserve">6.11896705627441</t>
@@ -926,97 +926,97 @@
     <t xml:space="preserve">6.15935659408569</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12906503677368</t>
+    <t xml:space="preserve">6.12906455993652</t>
   </si>
   <si>
     <t xml:space="preserve">6.10213756561279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01126289367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82277917861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6814169883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70497751235962</t>
+    <t xml:space="preserve">6.01126337051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82277965545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68141651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70497846603394</t>
   </si>
   <si>
     <t xml:space="preserve">5.61073637008667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63093090057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72853755950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78239011764526</t>
+    <t xml:space="preserve">5.63092994689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72853803634644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78239107131958</t>
   </si>
   <si>
     <t xml:space="preserve">5.76219606399536</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81941366195679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73863458633423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75882959365845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65112590789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56361532211304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72180652618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70834255218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8530707359314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83960914611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81604862213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.923752784729</t>
+    <t xml:space="preserve">5.81941413879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73863506317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75883007049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65112543106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5636157989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72180700302124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70834302902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85307121276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83960866928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81604814529419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92375326156616</t>
   </si>
   <si>
     <t xml:space="preserve">5.97423934936523</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9001932144165</t>
+    <t xml:space="preserve">5.90019273757935</t>
   </si>
   <si>
     <t xml:space="preserve">5.93721580505371</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97087383270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04492044448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10550451278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05838394165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06174945831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86316967010498</t>
+    <t xml:space="preserve">5.97087335586548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04491996765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10550403594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05838346481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06174898147583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86316871643066</t>
   </si>
   <si>
     <t xml:space="preserve">5.88336324691772</t>
@@ -1025,10 +1025,10 @@
     <t xml:space="preserve">5.9473123550415</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98770236968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96077585220337</t>
+    <t xml:space="preserve">5.98770332336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96077632904053</t>
   </si>
   <si>
     <t xml:space="preserve">5.93384981155396</t>
@@ -1037,13 +1037,13 @@
     <t xml:space="preserve">5.92038679122925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06511497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05501794815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99106788635254</t>
+    <t xml:space="preserve">6.06511545181274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05501747131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.99106740951538</t>
   </si>
   <si>
     <t xml:space="preserve">5.85643720626831</t>
@@ -1055,55 +1055,55 @@
     <t xml:space="preserve">5.90355825424194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8463397026062</t>
+    <t xml:space="preserve">5.84634017944336</t>
   </si>
   <si>
     <t xml:space="preserve">5.7453670501709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80258512496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69151449203491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87326574325562</t>
+    <t xml:space="preserve">5.80258464813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69151496887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87326622009277</t>
   </si>
   <si>
     <t xml:space="preserve">5.94394683837891</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87999820709229</t>
+    <t xml:space="preserve">5.87999773025513</t>
   </si>
   <si>
     <t xml:space="preserve">5.89009475708008</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96414136886597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05165147781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03818845748901</t>
+    <t xml:space="preserve">5.96414184570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05165195465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03818988800049</t>
   </si>
   <si>
     <t xml:space="preserve">6.07857751846313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11223602294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14925956726074</t>
+    <t xml:space="preserve">6.11223554611206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14925909042358</t>
   </si>
   <si>
     <t xml:space="preserve">6.09877300262451</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1930136680603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13579607009888</t>
+    <t xml:space="preserve">6.19301414489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.13579511642456</t>
   </si>
   <si>
     <t xml:space="preserve">6.16608810424805</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">6.16945362091064</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1728196144104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16272115707397</t>
+    <t xml:space="preserve">6.17281913757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16272163391113</t>
   </si>
   <si>
     <t xml:space="preserve">6.21320819854736</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31754779815674</t>
+    <t xml:space="preserve">6.31754732131958</t>
   </si>
   <si>
     <t xml:space="preserve">6.38149690628052</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">6.42188596725464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48920202255249</t>
+    <t xml:space="preserve">6.48920249938965</t>
   </si>
   <si>
     <t xml:space="preserve">6.46227598190308</t>
@@ -1145,25 +1145,25 @@
     <t xml:space="preserve">6.44208097457886</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5228590965271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51612758636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65412473678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63729572296143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64739370346069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64066076278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62046670913696</t>
+    <t xml:space="preserve">6.52285957336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5161280632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65412521362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63729524612427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64739274978638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64066123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62046766281128</t>
   </si>
   <si>
     <t xml:space="preserve">6.65438652038574</t>
@@ -1172,43 +1172,43 @@
     <t xml:space="preserve">6.54948234558105</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62990856170654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62641191482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58794736862183</t>
+    <t xml:space="preserve">6.6299090385437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62641286849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58794689178467</t>
   </si>
   <si>
     <t xml:space="preserve">6.51101875305176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65088987350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78027057647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71383142471313</t>
+    <t xml:space="preserve">6.65088939666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78027105331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71383237838745</t>
   </si>
   <si>
     <t xml:space="preserve">6.76278781890869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7208251953125</t>
+    <t xml:space="preserve">6.72082471847534</t>
   </si>
   <si>
     <t xml:space="preserve">6.61941909790039</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64389610290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73131656646729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70683813095093</t>
+    <t xml:space="preserve">6.64389657974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73131513595581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70683860778809</t>
   </si>
   <si>
     <t xml:space="preserve">6.71033525466919</t>
@@ -1223,19 +1223,19 @@
     <t xml:space="preserve">6.5389928817749</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57396030426025</t>
+    <t xml:space="preserve">6.5739598274231</t>
   </si>
   <si>
     <t xml:space="preserve">6.60543155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66487693786621</t>
+    <t xml:space="preserve">6.66487741470337</t>
   </si>
   <si>
     <t xml:space="preserve">6.68935441970825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68585729598999</t>
+    <t xml:space="preserve">6.68585777282715</t>
   </si>
   <si>
     <t xml:space="preserve">6.61592149734497</t>
@@ -1244,58 +1244,58 @@
     <t xml:space="preserve">6.56346988677979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69634819030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85370445251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83272266387939</t>
+    <t xml:space="preserve">6.69634771347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85370349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83272314071655</t>
   </si>
   <si>
     <t xml:space="preserve">6.83621835708618</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8257303237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84670972824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93412971496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96210479736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02154922485352</t>
+    <t xml:space="preserve">6.82572984695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84670925140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9341287612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96210336685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02154874801636</t>
   </si>
   <si>
     <t xml:space="preserve">6.97609186172485</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97259473800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9271354675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87468433380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89146947860718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7977557182312</t>
+    <t xml:space="preserve">6.97259378433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92713594436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87468481063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8914680480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79775524139404</t>
   </si>
   <si>
     <t xml:space="preserve">6.84810829162598</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91524696350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95580911636353</t>
+    <t xml:space="preserve">6.91524744033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95581007003784</t>
   </si>
   <si>
     <t xml:space="preserve">6.8942666053772</t>
@@ -1304,25 +1304,25 @@
     <t xml:space="preserve">6.69285106658936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80195045471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74879932403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79635620117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85090589523315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89286708831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91105175018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88307666778564</t>
+    <t xml:space="preserve">6.80195093154907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74879884719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79635667800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.850905418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89286756515503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91105079650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88307619094849</t>
   </si>
   <si>
     <t xml:space="preserve">6.90545511245728</t>
@@ -1334,46 +1334,46 @@
     <t xml:space="preserve">6.83412170410156</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89986133575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91384696960449</t>
+    <t xml:space="preserve">6.89986085891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91384792327881</t>
   </si>
   <si>
     <t xml:space="preserve">6.9516134262085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85510206222534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75579357147217</t>
+    <t xml:space="preserve">6.85510158538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75579261779785</t>
   </si>
   <si>
     <t xml:space="preserve">6.63130760192871</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73900890350342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88167810440063</t>
+    <t xml:space="preserve">6.7390079498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88167762756348</t>
   </si>
   <si>
     <t xml:space="preserve">6.90405702590942</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89706420898438</t>
+    <t xml:space="preserve">6.89706516265869</t>
   </si>
   <si>
     <t xml:space="preserve">6.83132362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8606972694397</t>
+    <t xml:space="preserve">6.86069774627686</t>
   </si>
   <si>
     <t xml:space="preserve">6.89566469192505</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84111452102661</t>
+    <t xml:space="preserve">6.84111499786377</t>
   </si>
   <si>
     <t xml:space="preserve">6.91664600372314</t>
@@ -1385,28 +1385,28 @@
     <t xml:space="preserve">6.68166160583496</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63830089569092</t>
+    <t xml:space="preserve">6.63830137252808</t>
   </si>
   <si>
     <t xml:space="preserve">6.67047119140625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67746591567993</t>
+    <t xml:space="preserve">6.67746543884277</t>
   </si>
   <si>
     <t xml:space="preserve">6.70404100418091</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78376770019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77537536621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85230541229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8271279335022</t>
+    <t xml:space="preserve">6.78376722335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77537441253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85230588912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82712745666504</t>
   </si>
   <si>
     <t xml:space="preserve">6.99217653274536</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">7.08449125289917</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11246538162231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25583362579346</t>
+    <t xml:space="preserve">7.11246585845947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2558331489563</t>
   </si>
   <si>
     <t xml:space="preserve">7.3082857131958</t>
@@ -1427,43 +1427,43 @@
     <t xml:space="preserve">7.1614203453064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.14743328094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03903293609619</t>
+    <t xml:space="preserve">7.14743375778198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.03903388977051</t>
   </si>
   <si>
     <t xml:space="preserve">7.12645292282104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00406646728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15093040466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1858983039856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99357509613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90265798568726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95720863342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01455593109131</t>
+    <t xml:space="preserve">7.004065990448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1509313583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18589782714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99357557296753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90265941619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95720911026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01455545425415</t>
   </si>
   <si>
     <t xml:space="preserve">6.96420192718506</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62850999832153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42289972305298</t>
+    <t xml:space="preserve">6.62851095199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42289876937866</t>
   </si>
   <si>
     <t xml:space="preserve">6.31659650802612</t>
@@ -1472,46 +1472,46 @@
     <t xml:space="preserve">6.35715961456299</t>
   </si>
   <si>
-    <t xml:space="preserve">6.20749711990356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95852661132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59625864028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37246465682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75151586532593</t>
+    <t xml:space="preserve">6.20749664306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95852613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59625816345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37246417999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75151634216309</t>
   </si>
   <si>
     <t xml:space="preserve">5.64241647720337</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78928184509277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68997192382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54450654983521</t>
+    <t xml:space="preserve">5.78928089141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68997240066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54450607299805</t>
   </si>
   <si>
     <t xml:space="preserve">5.72214317321777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59346151351929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47457122802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7417254447937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66479635238647</t>
+    <t xml:space="preserve">5.59346103668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47457075119019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74172496795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66479587554932</t>
   </si>
   <si>
     <t xml:space="preserve">5.76969957351685</t>
@@ -1520,76 +1520,76 @@
     <t xml:space="preserve">5.71095371246338</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64101791381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61723899841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81166124343872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7529149055481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89838123321533</t>
+    <t xml:space="preserve">5.6410174369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61723947525024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81166172027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75291442871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89838075637817</t>
   </si>
   <si>
     <t xml:space="preserve">5.69416904449463</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65780258178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57108163833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53471517562866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56828451156616</t>
+    <t xml:space="preserve">5.65780210494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57108211517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53471565246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.568284034729</t>
   </si>
   <si>
     <t xml:space="preserve">5.54030990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60744762420654</t>
+    <t xml:space="preserve">5.6074481010437</t>
   </si>
   <si>
     <t xml:space="preserve">5.68297910690308</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75711107254028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66619491577148</t>
+    <t xml:space="preserve">5.75711059570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66619443893433</t>
   </si>
   <si>
     <t xml:space="preserve">5.702561378479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62563180923462</t>
+    <t xml:space="preserve">5.62563133239746</t>
   </si>
   <si>
     <t xml:space="preserve">5.53051900863647</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55429649353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.62842893600464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64801120758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69976329803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68577671051025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71934604644775</t>
+    <t xml:space="preserve">5.55429697036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6284294128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64801168441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69976377487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6857762336731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71934652328491</t>
   </si>
   <si>
     <t xml:space="preserve">5.88719129562378</t>
@@ -1601,13 +1601,13 @@
     <t xml:space="preserve">6.01027822494507</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12077617645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06622695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21309185028076</t>
+    <t xml:space="preserve">6.12077713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06622743606567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21309280395508</t>
   </si>
   <si>
     <t xml:space="preserve">6.13616275787354</t>
@@ -1625,37 +1625,37 @@
     <t xml:space="preserve">6.15014982223511</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14595365524292</t>
+    <t xml:space="preserve">6.14595413208008</t>
   </si>
   <si>
     <t xml:space="preserve">6.15854215621948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09559965133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97531032562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81865358352661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94174098968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87600183486938</t>
+    <t xml:space="preserve">6.09560012817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9753098487854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81865406036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94174146652222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87600135803223</t>
   </si>
   <si>
     <t xml:space="preserve">5.89418506622314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99069595336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87040710449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80186939239502</t>
+    <t xml:space="preserve">5.9906964302063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87040662765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80186891555786</t>
   </si>
   <si>
     <t xml:space="preserve">5.80746459960938</t>
@@ -1676,55 +1676,55 @@
     <t xml:space="preserve">5.93195009231567</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12497282028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07182216644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3403754234314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.30680561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33897686004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29701471328735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31379985809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42150115966797</t>
+    <t xml:space="preserve">6.12497329711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07182121276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34037494659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3068060874939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33897638320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29701375961304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3137993812561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42150020599365</t>
   </si>
   <si>
     <t xml:space="preserve">6.44248151779175</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50961923599243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4159049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41450595855713</t>
+    <t xml:space="preserve">6.50961875915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41590595245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4145073890686</t>
   </si>
   <si>
     <t xml:space="preserve">6.36834955215454</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48724031448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47605037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41171026229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01727199554443</t>
+    <t xml:space="preserve">6.4872407913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47605085372925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41170978546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01727247238159</t>
   </si>
   <si>
     <t xml:space="preserve">5.83404016494751</t>
@@ -1736,13 +1736,13 @@
     <t xml:space="preserve">5.85222387313843</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75431346893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48576021194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53191804885864</t>
+    <t xml:space="preserve">5.75431299209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48576068878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53191757202148</t>
   </si>
   <si>
     <t xml:space="preserve">5.41582441329956</t>
@@ -1751,10 +1751,10 @@
     <t xml:space="preserve">5.3696665763855</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37666034698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46058368682861</t>
+    <t xml:space="preserve">5.37666082382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46058320999146</t>
   </si>
   <si>
     <t xml:space="preserve">5.39764070510864</t>
@@ -1763,16 +1763,16 @@
     <t xml:space="preserve">5.3458890914917</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50953817367554</t>
+    <t xml:space="preserve">5.50953769683838</t>
   </si>
   <si>
     <t xml:space="preserve">5.41022968292236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42281818389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23958730697632</t>
+    <t xml:space="preserve">5.42281866073608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.239586353302</t>
   </si>
   <si>
     <t xml:space="preserve">5.44100189208984</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">5.29413652420044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44519758224487</t>
+    <t xml:space="preserve">5.44519805908203</t>
   </si>
   <si>
     <t xml:space="preserve">5.4591851234436</t>
@@ -1796,10 +1796,10 @@
     <t xml:space="preserve">5.48436164855957</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46338033676147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48715925216675</t>
+    <t xml:space="preserve">5.46338081359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48715877532959</t>
   </si>
   <si>
     <t xml:space="preserve">5.50254487991333</t>
@@ -1808,16 +1808,16 @@
     <t xml:space="preserve">5.49834871292114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42561531066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50799083709717</t>
+    <t xml:space="preserve">5.4256157875061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50799036026001</t>
   </si>
   <si>
     <t xml:space="preserve">5.37847805023193</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4350471496582</t>
+    <t xml:space="preserve">5.43504667282104</t>
   </si>
   <si>
     <t xml:space="preserve">5.42462635040283</t>
@@ -1826,31 +1826,31 @@
     <t xml:space="preserve">5.46481990814209</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70746898651123</t>
+    <t xml:space="preserve">5.70746946334839</t>
   </si>
   <si>
     <t xml:space="preserve">5.73128747940063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75659513473511</t>
+    <t xml:space="preserve">5.75659418106079</t>
   </si>
   <si>
     <t xml:space="preserve">5.81167459487915</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81018543243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84740209579468</t>
+    <t xml:space="preserve">5.81018590927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84740257263184</t>
   </si>
   <si>
     <t xml:space="preserve">5.74170827865601</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75361680984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58093404769897</t>
+    <t xml:space="preserve">5.75361728668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58093452453613</t>
   </si>
   <si>
     <t xml:space="preserve">5.5764684677124</t>
@@ -1859,13 +1859,13 @@
     <t xml:space="preserve">5.44844484329224</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42164897918701</t>
+    <t xml:space="preserve">5.42164945602417</t>
   </si>
   <si>
     <t xml:space="preserve">5.60028696060181</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62261629104614</t>
+    <t xml:space="preserve">5.62261581420898</t>
   </si>
   <si>
     <t xml:space="preserve">5.67323064804077</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">5.58540010452271</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63452529907227</t>
+    <t xml:space="preserve">5.63452577590942</t>
   </si>
   <si>
     <t xml:space="preserve">5.73724222183228</t>
@@ -1889,31 +1889,31 @@
     <t xml:space="preserve">5.39187622070312</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4901270866394</t>
+    <t xml:space="preserve">5.49012613296509</t>
   </si>
   <si>
     <t xml:space="preserve">5.43653535842896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43206977844238</t>
+    <t xml:space="preserve">5.43206930160522</t>
   </si>
   <si>
     <t xml:space="preserve">5.75510549545288</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74468469619751</t>
+    <t xml:space="preserve">5.74468517303467</t>
   </si>
   <si>
     <t xml:space="preserve">5.72682094573975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69704866409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70002555847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77148056030273</t>
+    <t xml:space="preserve">5.69704818725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70002603530884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77148151397705</t>
   </si>
   <si>
     <t xml:space="preserve">5.70895767211914</t>
@@ -1925,13 +1925,13 @@
     <t xml:space="preserve">5.83251523971558</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83995914459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86377668380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88015174865723</t>
+    <t xml:space="preserve">5.83995866775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86377620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88015222549438</t>
   </si>
   <si>
     <t xml:space="preserve">5.86079978942871</t>
@@ -1940,49 +1940,49 @@
     <t xml:space="preserve">5.86526584625244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87568664550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93671989440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86228895187378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81762886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82953834533691</t>
+    <t xml:space="preserve">5.87568616867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93672037124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86228847503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81762933731079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8295373916626</t>
   </si>
   <si>
     <t xml:space="preserve">5.6538782119751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49310398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45886516571045</t>
+    <t xml:space="preserve">5.49310445785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45886564254761</t>
   </si>
   <si>
     <t xml:space="preserve">5.64345741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76403713226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76999235153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87122058868408</t>
+    <t xml:space="preserve">5.76403760910034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76999187469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87122011184692</t>
   </si>
   <si>
     <t xml:space="preserve">5.90099287033081</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00668621063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9694709777832</t>
+    <t xml:space="preserve">6.00668716430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96947145462036</t>
   </si>
   <si>
     <t xml:space="preserve">6.1823468208313</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">6.16894960403442</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1912784576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12875604629517</t>
+    <t xml:space="preserve">6.19127893447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12875652313232</t>
   </si>
   <si>
     <t xml:space="preserve">6.14513063430786</t>
@@ -2006,7 +2006,7 @@
     <t xml:space="preserve">6.22254085540771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31930255889893</t>
+    <t xml:space="preserve">6.31930208206177</t>
   </si>
   <si>
     <t xml:space="preserve">6.38629150390625</t>
@@ -2015,13 +2015,13 @@
     <t xml:space="preserve">6.56641721725464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43392848968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49198579788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50240659713745</t>
+    <t xml:space="preserve">6.4339280128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49198532104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50240612030029</t>
   </si>
   <si>
     <t xml:space="preserve">6.62447452545166</t>
@@ -2030,130 +2030,130 @@
     <t xml:space="preserve">6.51431512832642</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44732570648193</t>
+    <t xml:space="preserve">6.44732618331909</t>
   </si>
   <si>
     <t xml:space="preserve">6.53962230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51729202270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60958862304688</t>
+    <t xml:space="preserve">6.51729249954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60958909988403</t>
   </si>
   <si>
     <t xml:space="preserve">6.63787317276001</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68997573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83288526535034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79120302200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66317987442017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71230506896973</t>
+    <t xml:space="preserve">6.68997526168823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83288621902466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79120349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66317939758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71230554580688</t>
   </si>
   <si>
     <t xml:space="preserve">6.65871381759644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59619188308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64680480957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7837610244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8581919670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89391994476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96090841293335</t>
+    <t xml:space="preserve">6.59619092941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64680528640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78376054763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85819244384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89392042160034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96090984344482</t>
   </si>
   <si>
     <t xml:space="preserve">6.86117029190063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87754535675049</t>
+    <t xml:space="preserve">6.87754487991333</t>
   </si>
   <si>
     <t xml:space="preserve">6.91773796081543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96388673782349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90285205841064</t>
+    <t xml:space="preserve">6.96388578414917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9028525352478</t>
   </si>
   <si>
     <t xml:space="preserve">6.92518091201782</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02492094039917</t>
+    <t xml:space="preserve">7.02492046356201</t>
   </si>
   <si>
     <t xml:space="preserve">7.08148956298828</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12317132949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15294361114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13210344314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07106876373291</t>
+    <t xml:space="preserve">7.12317180633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15294408798218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13210391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07106924057007</t>
   </si>
   <si>
     <t xml:space="preserve">6.98770427703857</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96686363220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00705718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13508176803589</t>
+    <t xml:space="preserve">6.96686315536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00705766677856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13508081436157</t>
   </si>
   <si>
     <t xml:space="preserve">7.03385257720947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07404708862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85223770141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69295263290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77929401397705</t>
+    <t xml:space="preserve">7.07404613494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223817825317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69295167922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77929449081421</t>
   </si>
   <si>
     <t xml:space="preserve">6.62298631668091</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47561025619507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64233875274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60065650939941</t>
+    <t xml:space="preserve">6.47561073303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64233827590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60065698623657</t>
   </si>
   <si>
     <t xml:space="preserve">6.58428144454956</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">6.42350769042969</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36396217346191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32079029083252</t>
+    <t xml:space="preserve">6.36396265029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32079076766968</t>
   </si>
   <si>
     <t xml:space="preserve">6.23891544342041</t>
@@ -2180,58 +2180,58 @@
     <t xml:space="preserve">6.22998380661011</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15704011917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12131214141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28059720993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24635934829712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27762126922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37289476394653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37140512466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34163284301758</t>
+    <t xml:space="preserve">6.1570405960083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12131309509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28059864044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24635887145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27762031555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37289428710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37140560150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34163236618042</t>
   </si>
   <si>
     <t xml:space="preserve">6.3788480758667</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34609794616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34460973739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48305416107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58130359649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56046390533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61107778549194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58874750137329</t>
+    <t xml:space="preserve">6.34609842300415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3446102142334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48305368423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5813045501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56046342849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61107730865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58874845504761</t>
   </si>
   <si>
     <t xml:space="preserve">6.72272539138794</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76738548278809</t>
+    <t xml:space="preserve">6.76738500595093</t>
   </si>
   <si>
     <t xml:space="preserve">6.74803256988525</t>
@@ -2240,43 +2240,43 @@
     <t xml:space="preserve">6.66169118881226</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7376127243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9132719039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05022764205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01598834991455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95346593856812</t>
+    <t xml:space="preserve">6.73761224746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91327333450317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05022859573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01598882675171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95346546173096</t>
   </si>
   <si>
     <t xml:space="preserve">6.93113613128662</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99663639068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98472785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99068212509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93857908248901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01301145553589</t>
+    <t xml:space="preserve">6.99663591384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98472738265991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99068260192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93857860565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01301193237305</t>
   </si>
   <si>
     <t xml:space="preserve">6.97579526901245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99365997314453</t>
+    <t xml:space="preserve">6.99365949630737</t>
   </si>
   <si>
     <t xml:space="preserve">6.84777212142944</t>
@@ -2288,28 +2288,28 @@
     <t xml:space="preserve">6.95644330978394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92964744567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94453477859497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76440763473511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73910140991211</t>
+    <t xml:space="preserve">6.92964792251587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94453382492065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76440811157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73910093307495</t>
   </si>
   <si>
     <t xml:space="preserve">6.74952125549316</t>
   </si>
   <si>
-    <t xml:space="preserve">6.57683849334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51878118515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44583797454834</t>
+    <t xml:space="preserve">6.57683801651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5187816619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44583749771118</t>
   </si>
   <si>
     <t xml:space="preserve">6.49942874908447</t>
@@ -2321,49 +2321,49 @@
     <t xml:space="preserve">6.31483745574951</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34758710861206</t>
+    <t xml:space="preserve">6.34758615493774</t>
   </si>
   <si>
     <t xml:space="preserve">6.20021104812622</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33270120620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38182640075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47858762741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52771377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45328092575073</t>
+    <t xml:space="preserve">6.33270072937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38182592391968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47858858108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52771329879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45328044891357</t>
   </si>
   <si>
     <t xml:space="preserve">6.53366756439209</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55599737167358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61256551742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7063512802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78822612762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02938652038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0457615852356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13359260559082</t>
+    <t xml:space="preserve">6.55599641799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61256647109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70635080337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78822565078735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0293869972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04576206207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13359117507935</t>
   </si>
   <si>
     <t xml:space="preserve">7.08000135421753</t>
@@ -2372,103 +2372,103 @@
     <t xml:space="preserve">7.1157283782959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18271780014038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11423873901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08446741104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21993398666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4223895072937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36582183837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3762412071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41792345046997</t>
+    <t xml:space="preserve">7.18271636962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11424016952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0844669342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2199330329895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42238998413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36582136154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37624168395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41792297363281</t>
   </si>
   <si>
     <t xml:space="preserve">7.52138423919678</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42536640167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45811748504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42834424972534</t>
+    <t xml:space="preserve">7.42536687850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45811700820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42834377288818</t>
   </si>
   <si>
     <t xml:space="preserve">7.22291088104248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31074142456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27799129486084</t>
+    <t xml:space="preserve">7.31074047088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27799034118652</t>
   </si>
   <si>
     <t xml:space="preserve">7.29734325408936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25417184829712</t>
+    <t xml:space="preserve">7.25417232513428</t>
   </si>
   <si>
     <t xml:space="preserve">7.26608085632324</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51021909713745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67769193649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76328945159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87493801116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90471029281616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88238000869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86005163192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93448400497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01263809204102</t>
+    <t xml:space="preserve">7.51022005081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67769289016724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76328897476196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87493753433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90471124649048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88238048553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86005258560181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93448305130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0126371383667</t>
   </si>
   <si>
     <t xml:space="preserve">8.07218360900879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06474113464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09451293945312</t>
+    <t xml:space="preserve">8.06474018096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09451198577881</t>
   </si>
   <si>
     <t xml:space="preserve">7.94564914703369</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92704057693481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99030780792236</t>
+    <t xml:space="preserve">7.92704010009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99030733108521</t>
   </si>
   <si>
     <t xml:space="preserve">8.16150283813477</t>
@@ -2480,19 +2480,19 @@
     <t xml:space="preserve">8.02380180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76701021194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92331981658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8526086807251</t>
+    <t xml:space="preserve">7.76701164245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92332029342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85260772705078</t>
   </si>
   <si>
     <t xml:space="preserve">8.02844429016113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99729585647583</t>
+    <t xml:space="preserve">7.99729633331299</t>
   </si>
   <si>
     <t xml:space="preserve">7.97393465042114</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">8.03623104095459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00508213043213</t>
+    <t xml:space="preserve">8.00508308410645</t>
   </si>
   <si>
     <t xml:space="preserve">7.98172187805176</t>
@@ -2510,55 +2510,55 @@
     <t xml:space="preserve">8.04012489318848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90385055541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82987499237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7870454788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85323524475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.82208776473999</t>
+    <t xml:space="preserve">7.90385103225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82987403869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78704595565796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85323572158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.82208728790283</t>
   </si>
   <si>
     <t xml:space="preserve">7.84544801712036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71696281433105</t>
+    <t xml:space="preserve">7.7169623374939</t>
   </si>
   <si>
     <t xml:space="preserve">7.87270259857178</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88438367843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73565196990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81040573120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77614402770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85713005065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77925825119019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70917558670044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64220714569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72007703781128</t>
+    <t xml:space="preserve">7.88438320159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73565101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81040668487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7761435508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85712957382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7792592048645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70917463302612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64220666885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72007751464844</t>
   </si>
   <si>
     <t xml:space="preserve">7.64999437332153</t>
@@ -2567,13 +2567,13 @@
     <t xml:space="preserve">7.67179727554321</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74188137054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75434064865112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70761728286743</t>
+    <t xml:space="preserve">7.74188089370728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75434017181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70761823654175</t>
   </si>
   <si>
     <t xml:space="preserve">7.66556739807129</t>
@@ -2585,136 +2585,136 @@
     <t xml:space="preserve">7.56589317321777</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64376354217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59236907958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53630256652832</t>
+    <t xml:space="preserve">7.64376306533813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.592369556427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53630304336548</t>
   </si>
   <si>
     <t xml:space="preserve">7.55810642242432</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47089147567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40859508514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44597339630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23260831832886</t>
+    <t xml:space="preserve">7.47089195251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4085955619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44597387313843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23260879516602</t>
   </si>
   <si>
     <t xml:space="preserve">7.45998954772949</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40392351150513</t>
+    <t xml:space="preserve">7.40392303466797</t>
   </si>
   <si>
     <t xml:space="preserve">7.21080446243286</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0176854133606</t>
+    <t xml:space="preserve">7.01768589019775</t>
   </si>
   <si>
     <t xml:space="preserve">7.17498397827148</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26687145233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45375967025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3353967666626</t>
+    <t xml:space="preserve">7.26687097549438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45375919342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33539628982544</t>
   </si>
   <si>
     <t xml:space="preserve">7.47867870330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51917171478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53941774368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54097509384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48023509979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50982666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46777677536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32916736602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88997793197632</t>
+    <t xml:space="preserve">7.51917123794556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5394172668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54097557067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48023653030396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50982713699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46777725219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32916688919067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88997745513916</t>
   </si>
   <si>
     <t xml:space="preserve">6.85727262496948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81989526748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6563663482666</t>
+    <t xml:space="preserve">6.81989479064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65636682510376</t>
   </si>
   <si>
     <t xml:space="preserve">6.37759017944336</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15332365036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09725713729858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01782894134521</t>
+    <t xml:space="preserve">6.15332317352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09725666046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01782941818237</t>
   </si>
   <si>
     <t xml:space="preserve">5.76552820205688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64249277114868</t>
+    <t xml:space="preserve">5.64249324798584</t>
   </si>
   <si>
     <t xml:space="preserve">4.82952547073364</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49779748916626</t>
+    <t xml:space="preserve">4.49779796600342</t>
   </si>
   <si>
     <t xml:space="preserve">4.62550497055054</t>
   </si>
   <si>
-    <t xml:space="preserve">3.76114320755005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03213214874268</t>
+    <t xml:space="preserve">3.76114273071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03213262557983</t>
   </si>
   <si>
     <t xml:space="preserve">3.5649094581604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47613739967346</t>
+    <t xml:space="preserve">3.47613716125488</t>
   </si>
   <si>
     <t xml:space="preserve">3.27445268630981</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24875521659851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.31183052062988</t>
+    <t xml:space="preserve">3.24875545501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3118302822113</t>
   </si>
   <si>
     <t xml:space="preserve">3.39203691482544</t>
@@ -2726,10 +2726,10 @@
     <t xml:space="preserve">4.16918420791626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28287506103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01967334747314</t>
+    <t xml:space="preserve">4.28287553787231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01967287063599</t>
   </si>
   <si>
     <t xml:space="preserve">3.8740553855896</t>
@@ -2738,19 +2738,19 @@
     <t xml:space="preserve">3.91532635688782</t>
   </si>
   <si>
-    <t xml:space="preserve">3.89663767814636</t>
+    <t xml:space="preserve">3.89663791656494</t>
   </si>
   <si>
     <t xml:space="preserve">4.03057479858398</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95737624168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24082517623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32648324966431</t>
+    <t xml:space="preserve">3.95737648010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24082565307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32648277282715</t>
   </si>
   <si>
     <t xml:space="preserve">4.33426952362061</t>
@@ -2762,46 +2762,46 @@
     <t xml:space="preserve">4.13492155075073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82266092300415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89508032798767</t>
+    <t xml:space="preserve">3.82266068458557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89508008956909</t>
   </si>
   <si>
     <t xml:space="preserve">3.94336009025574</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8039722442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75413513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99319672584534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08352708816528</t>
+    <t xml:space="preserve">3.80397200584412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75413489341736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99319696426392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08352613449097</t>
   </si>
   <si>
     <t xml:space="preserve">4.22369337081909</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29533433914185</t>
+    <t xml:space="preserve">4.295334815979</t>
   </si>
   <si>
     <t xml:space="preserve">4.11778926849365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05705070495605</t>
+    <t xml:space="preserve">4.05705118179321</t>
   </si>
   <si>
     <t xml:space="preserve">4.02123022079468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01344299316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00254106521606</t>
+    <t xml:space="preserve">4.01344347000122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00254154205322</t>
   </si>
   <si>
     <t xml:space="preserve">4.04614877700806</t>
@@ -2810,22 +2810,22 @@
     <t xml:space="preserve">4.18164348602295</t>
   </si>
   <si>
-    <t xml:space="preserve">4.11467504501343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9324586391449</t>
+    <t xml:space="preserve">4.11467456817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93245840072632</t>
   </si>
   <si>
     <t xml:space="preserve">3.80475068092346</t>
   </si>
   <si>
-    <t xml:space="preserve">4.06795263290405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00409889221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94803237915039</t>
+    <t xml:space="preserve">4.06795310974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00409936904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94803261756897</t>
   </si>
   <si>
     <t xml:space="preserve">4.0274600982666</t>
@@ -2840,7 +2840,7 @@
     <t xml:space="preserve">4.44484567642212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61148834228516</t>
+    <t xml:space="preserve">4.61148881912231</t>
   </si>
   <si>
     <t xml:space="preserve">4.54451990127563</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">4.91206836700439</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01797246932983</t>
+    <t xml:space="preserve">5.01797199249268</t>
   </si>
   <si>
     <t xml:space="preserve">5.29051876068115</t>
@@ -2864,16 +2864,16 @@
     <t xml:space="preserve">5.70790433883667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52413082122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42445611953735</t>
+    <t xml:space="preserve">5.52412986755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42445659637451</t>
   </si>
   <si>
     <t xml:space="preserve">5.19395971298218</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30142116546631</t>
+    <t xml:space="preserve">5.30142068862915</t>
   </si>
   <si>
     <t xml:space="preserve">5.37929153442383</t>
@@ -2888,13 +2888,13 @@
     <t xml:space="preserve">5.58642625808716</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46806335449219</t>
+    <t xml:space="preserve">5.46806383132935</t>
   </si>
   <si>
     <t xml:space="preserve">5.31076526641846</t>
   </si>
   <si>
-    <t xml:space="preserve">5.33568334579468</t>
+    <t xml:space="preserve">5.33568382263184</t>
   </si>
   <si>
     <t xml:space="preserve">5.03043174743652</t>
@@ -2909,13 +2909,13 @@
     <t xml:space="preserve">5.08494091033936</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97592258453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0351037979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25314140319824</t>
+    <t xml:space="preserve">4.97592210769653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.03510427474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25314044952393</t>
   </si>
   <si>
     <t xml:space="preserve">5.23600959777832</t>
@@ -2924,10 +2924,10 @@
     <t xml:space="preserve">5.25937080383301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26560068130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21109104156494</t>
+    <t xml:space="preserve">5.26560020446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21109056472778</t>
   </si>
   <si>
     <t xml:space="preserve">5.12231874465942</t>
@@ -2936,13 +2936,13 @@
     <t xml:space="preserve">5.26404285430908</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39330768585205</t>
+    <t xml:space="preserve">5.39330816268921</t>
   </si>
   <si>
     <t xml:space="preserve">5.4867525100708</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49453973770142</t>
+    <t xml:space="preserve">5.49453926086426</t>
   </si>
   <si>
     <t xml:space="preserve">5.51634311676025</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">5.60823059082031</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6113452911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67675638198853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57863998413086</t>
+    <t xml:space="preserve">5.61134481430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67675590515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57863903045654</t>
   </si>
   <si>
     <t xml:space="preserve">5.51322841644287</t>
@@ -2972,34 +2972,34 @@
     <t xml:space="preserve">5.42289876937866</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4026517868042</t>
+    <t xml:space="preserve">5.40265226364136</t>
   </si>
   <si>
     <t xml:space="preserve">5.25625610351562</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27805948257446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05379295349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13945055007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2827320098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24691200256348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31543731689453</t>
+    <t xml:space="preserve">5.2780590057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.05379199981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13945007324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28273153305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24691104888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31543779373169</t>
   </si>
   <si>
     <t xml:space="preserve">5.63003444671631</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64560842514038</t>
+    <t xml:space="preserve">5.64560794830322</t>
   </si>
   <si>
     <t xml:space="preserve">5.65339517593384</t>
@@ -3008,16 +3008,16 @@
     <t xml:space="preserve">5.55527830123901</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46183395385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60200071334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47585105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44314432144165</t>
+    <t xml:space="preserve">5.46183347702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60200023651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4758505821228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44314479827881</t>
   </si>
   <si>
     <t xml:space="preserve">5.60355806350708</t>
@@ -3026,16 +3026,16 @@
     <t xml:space="preserve">5.63470649719238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81380844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84962940216064</t>
+    <t xml:space="preserve">5.81380891799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84962892532349</t>
   </si>
   <si>
     <t xml:space="preserve">5.79200458526611</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6705265045166</t>
+    <t xml:space="preserve">5.67052698135376</t>
   </si>
   <si>
     <t xml:space="preserve">5.69700288772583</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">5.6814284324646</t>
   </si>
   <si>
-    <t xml:space="preserve">5.58175468444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5677375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42601346969604</t>
+    <t xml:space="preserve">5.58175420761108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56773805618286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42601299285889</t>
   </si>
   <si>
     <t xml:space="preserve">5.52880239486694</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">5.43224287033081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.23133707046509</t>
+    <t xml:space="preserve">5.23133754730225</t>
   </si>
   <si>
     <t xml:space="preserve">5.22510766983032</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">5.20797634124756</t>
   </si>
   <si>
-    <t xml:space="preserve">5.08338356018066</t>
+    <t xml:space="preserve">5.08338308334351</t>
   </si>
   <si>
     <t xml:space="preserve">5.28740358352661</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">5.21576309204102</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17215538024902</t>
+    <t xml:space="preserve">5.17215633392334</t>
   </si>
   <si>
     <t xml:space="preserve">5.25781297683716</t>
@@ -3101,7 +3101,7 @@
     <t xml:space="preserve">5.43380069732666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56306552886963</t>
+    <t xml:space="preserve">5.56306600570679</t>
   </si>
   <si>
     <t xml:space="preserve">5.43068552017212</t>
@@ -3116,16 +3116,16 @@
     <t xml:space="preserve">5.55683565139771</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35125827789307</t>
+    <t xml:space="preserve">5.35125780105591</t>
   </si>
   <si>
     <t xml:space="preserve">5.36060237884521</t>
   </si>
   <si>
-    <t xml:space="preserve">5.14879465103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17059850692749</t>
+    <t xml:space="preserve">5.14879417419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17059803009033</t>
   </si>
   <si>
     <t xml:space="preserve">5.12543296813965</t>
@@ -3137,7 +3137,7 @@
     <t xml:space="preserve">5.06157970428467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06780910491943</t>
+    <t xml:space="preserve">5.06780958175659</t>
   </si>
   <si>
     <t xml:space="preserve">5.11453151702881</t>
@@ -3152,10 +3152,10 @@
     <t xml:space="preserve">4.70960521697998</t>
   </si>
   <si>
-    <t xml:space="preserve">4.77190160751343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.74075365066528</t>
+    <t xml:space="preserve">4.77190113067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74075317382812</t>
   </si>
   <si>
     <t xml:space="preserve">4.90583848953247</t>
@@ -3167,19 +3167,19 @@
     <t xml:space="preserve">5.66896915435791</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54904890060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5583930015564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89012098312378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97577905654907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88856363296509</t>
+    <t xml:space="preserve">5.54904842376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55839347839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8901219367981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97577857971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88856410980225</t>
   </si>
   <si>
     <t xml:space="preserve">5.96331977844238</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">5.87143230438232</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11750316619873</t>
+    <t xml:space="preserve">6.11750364303589</t>
   </si>
   <si>
     <t xml:space="preserve">6.14242172241211</t>
@@ -3197,28 +3197,28 @@
     <t xml:space="preserve">6.09102725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01938676834106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82003831863403</t>
+    <t xml:space="preserve">6.01938629150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82003784179688</t>
   </si>
   <si>
     <t xml:space="preserve">5.90413808822632</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83561182022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91815519332886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.982008934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90725326538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86208820343018</t>
+    <t xml:space="preserve">5.83561229705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9181547164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98200845718384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9072527885437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86208772659302</t>
   </si>
   <si>
     <t xml:space="preserve">5.86987543106079</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">5.84651374816895</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7125768661499</t>
+    <t xml:space="preserve">5.71257638931274</t>
   </si>
   <si>
     <t xml:space="preserve">5.72503614425659</t>
@@ -3242,16 +3242,16 @@
     <t xml:space="preserve">5.79667663574219</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75618410110474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74372529983521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89479351043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89946556091309</t>
+    <t xml:space="preserve">5.75618457794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74372434616089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89479398727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89946603775024</t>
   </si>
   <si>
     <t xml:space="preserve">5.76864337921143</t>
@@ -3263,16 +3263,16 @@
     <t xml:space="preserve">6.0100417137146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99291038513184</t>
+    <t xml:space="preserve">5.99291086196899</t>
   </si>
   <si>
     <t xml:space="preserve">5.87766170501709</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83249664306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88389158248901</t>
+    <t xml:space="preserve">5.83249711990356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88389205932617</t>
   </si>
   <si>
     <t xml:space="preserve">5.84028434753418</t>
@@ -3296,19 +3296,19 @@
     <t xml:space="preserve">5.81848049163818</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72036361694336</t>
+    <t xml:space="preserve">5.72036409378052</t>
   </si>
   <si>
     <t xml:space="preserve">5.76085615158081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7343807220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88544940948486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11906003952026</t>
+    <t xml:space="preserve">5.73438024520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88544893264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11906051635742</t>
   </si>
   <si>
     <t xml:space="preserve">6.299720287323</t>
@@ -3317,31 +3317,31 @@
     <t xml:space="preserve">6.38537740707397</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59251260757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65325164794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85260009765625</t>
+    <t xml:space="preserve">6.5925121307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65325117111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85260057449341</t>
   </si>
   <si>
     <t xml:space="preserve">6.94760179519653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91956901550293</t>
+    <t xml:space="preserve">6.91956853866577</t>
   </si>
   <si>
     <t xml:space="preserve">7.03948926925659</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98030757904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02547264099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9880952835083</t>
+    <t xml:space="preserve">6.98030710220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02547311782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98809432983398</t>
   </si>
   <si>
     <t xml:space="preserve">7.07063722610474</t>
@@ -3353,19 +3353,19 @@
     <t xml:space="preserve">7.02858734130859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9771933555603</t>
+    <t xml:space="preserve">6.97719287872314</t>
   </si>
   <si>
     <t xml:space="preserve">6.82923936843872</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71087646484375</t>
+    <t xml:space="preserve">6.71087551116943</t>
   </si>
   <si>
     <t xml:space="preserve">6.94293022155762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87128877639771</t>
+    <t xml:space="preserve">6.87128925323486</t>
   </si>
   <si>
     <t xml:space="preserve">6.96940565109253</t>
@@ -3374,61 +3374,61 @@
     <t xml:space="preserve">7.05973529815674</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18121433258057</t>
+    <t xml:space="preserve">7.18121337890625</t>
   </si>
   <si>
     <t xml:space="preserve">7.19211578369141</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23416471481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31515121459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33072423934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36965990066528</t>
+    <t xml:space="preserve">7.23416566848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31514978408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33072519302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36965942382812</t>
   </si>
   <si>
     <t xml:space="preserve">7.49581050872803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57523775100708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57835340499878</t>
+    <t xml:space="preserve">7.57523822784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57835292816162</t>
   </si>
   <si>
     <t xml:space="preserve">7.3462986946106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30424928665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23883676528931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36810207366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37433242797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38990640640259</t>
+    <t xml:space="preserve">7.30424833297729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23883724212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36810255050659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37433195114136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38990592956543</t>
   </si>
   <si>
     <t xml:space="preserve">7.41015243530273</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51294183731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36343050003052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31359338760376</t>
+    <t xml:space="preserve">7.51294136047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36343097686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31359386444092</t>
   </si>
   <si>
     <t xml:space="preserve">7.32605266571045</t>
@@ -3440,40 +3440,40 @@
     <t xml:space="preserve">7.26842832565308</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28088855743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27154350280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24662399291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31670761108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31203603744507</t>
+    <t xml:space="preserve">7.28088760375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27154397964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24662494659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31670808792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31203651428223</t>
   </si>
   <si>
     <t xml:space="preserve">7.16408205032349</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09244108200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10957336425781</t>
+    <t xml:space="preserve">7.09244155883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1095724105835</t>
   </si>
   <si>
     <t xml:space="preserve">7.09711360931396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29957675933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26998662948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29023265838623</t>
+    <t xml:space="preserve">7.29957628250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26998567581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29023218154907</t>
   </si>
   <si>
     <t xml:space="preserve">7.32138109207153</t>
@@ -3485,10 +3485,10 @@
     <t xml:space="preserve">7.24039506912231</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37744760513306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41794013977051</t>
+    <t xml:space="preserve">7.3774471282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41793966293335</t>
   </si>
   <si>
     <t xml:space="preserve">7.51761388778687</t>
@@ -3497,37 +3497,37 @@
     <t xml:space="preserve">7.53318786621094</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48958110809326</t>
+    <t xml:space="preserve">7.4895806312561</t>
   </si>
   <si>
     <t xml:space="preserve">7.56433534622192</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61728763580322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68581438064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53786134719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54564666748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53163051605225</t>
+    <t xml:space="preserve">7.61728811264038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68581485748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53786039352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54564714431763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53163146972656</t>
   </si>
   <si>
     <t xml:space="preserve">7.56122159957886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61261606216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60015630722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63286209106445</t>
+    <t xml:space="preserve">7.61261558532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60015726089478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63286161422729</t>
   </si>
   <si>
     <t xml:space="preserve">7.70138835906982</t>
@@ -3545,19 +3545,19 @@
     <t xml:space="preserve">7.7481107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76056957244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69671487808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7558970451355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74655294418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72319269180298</t>
+    <t xml:space="preserve">7.76056909561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69671583175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75589752197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74655342102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72319173812866</t>
   </si>
   <si>
     <t xml:space="preserve">7.7263069152832</t>
@@ -3566,31 +3566,31 @@
     <t xml:space="preserve">7.63909244537354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66245269775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71229076385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77458572387695</t>
+    <t xml:space="preserve">7.66245317459106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71228981018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77458667755127</t>
   </si>
   <si>
     <t xml:space="preserve">7.76835680007935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68892765045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67023992538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68114185333252</t>
+    <t xml:space="preserve">7.68892812728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67024087905884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68114233016968</t>
   </si>
   <si>
     <t xml:space="preserve">7.67491245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86102247238159</t>
+    <t xml:space="preserve">7.86102199554443</t>
   </si>
   <si>
     <t xml:space="preserve">7.62507486343384</t>
@@ -3608,22 +3608,22 @@
     <t xml:space="preserve">7.67646980285645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69360113143921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62974739074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57679414749146</t>
+    <t xml:space="preserve">7.69360065460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62974834442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57679557800293</t>
   </si>
   <si>
     <t xml:space="preserve">7.33383989334106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42728424072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72474956512451</t>
+    <t xml:space="preserve">7.4272837638855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72475004196167</t>
   </si>
   <si>
     <t xml:space="preserve">7.80651378631592</t>
@@ -3632,46 +3632,46 @@
     <t xml:space="preserve">7.78081560134888</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78237295150757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73253679275513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69827270507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61573123931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69983005523682</t>
+    <t xml:space="preserve">7.78237342834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73253583908081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69827318191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61573076248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69983100891113</t>
   </si>
   <si>
     <t xml:space="preserve">7.77770090103149</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79093933105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67802619934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77147197723389</t>
+    <t xml:space="preserve">7.79093885421753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67802667617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77147150039673</t>
   </si>
   <si>
     <t xml:space="preserve">7.76679944992065</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66401100158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65778017044067</t>
+    <t xml:space="preserve">7.6640100479126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65778064727783</t>
   </si>
   <si>
     <t xml:space="preserve">7.52384281158447</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57991027832031</t>
+    <t xml:space="preserve">7.57991075515747</t>
   </si>
   <si>
     <t xml:space="preserve">7.62040328979492</t>
@@ -3680,25 +3680,25 @@
     <t xml:space="preserve">7.74343824386597</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77302932739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59704208374023</t>
+    <t xml:space="preserve">7.77302837371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59704160690308</t>
   </si>
   <si>
     <t xml:space="preserve">7.74032306671143</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86491727828979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98561573028564</t>
+    <t xml:space="preserve">7.86491680145264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9856162071228</t>
   </si>
   <si>
     <t xml:space="preserve">7.83376884460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04791069030762</t>
+    <t xml:space="preserve">8.04791164398193</t>
   </si>
   <si>
     <t xml:space="preserve">8.12967491149902</t>
@@ -3707,49 +3707,49 @@
     <t xml:space="preserve">8.20754623413086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10242176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26205444335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0128698348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95836067199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70450305938721</t>
+    <t xml:space="preserve">8.10242080688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26205539703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01286888122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95836114883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70450353622437</t>
   </si>
   <si>
     <t xml:space="preserve">7.88049030303955</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91553211212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93499994277954</t>
+    <t xml:space="preserve">7.91553163528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93499946594238</t>
   </si>
   <si>
     <t xml:space="preserve">8.04401874542236</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09463405609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12188911437988</t>
+    <t xml:space="preserve">8.09463500976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12188816070557</t>
   </si>
   <si>
     <t xml:space="preserve">8.07127285003662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0323371887207</t>
+    <t xml:space="preserve">8.03233814239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.16082382202148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19197368621826</t>
+    <t xml:space="preserve">8.19197177886963</t>
   </si>
   <si>
     <t xml:space="preserve">8.29709625244141</t>
@@ -3758,345 +3758,345 @@
     <t xml:space="preserve">8.29320335388184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4216890335083</t>
+    <t xml:space="preserve">8.42168998718262</t>
   </si>
   <si>
     <t xml:space="preserve">8.41000938415527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34382057189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34771251678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43337154388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44115734100342</t>
+    <t xml:space="preserve">8.3438196182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34771347045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43336963653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44115829467773</t>
   </si>
   <si>
     <t xml:space="preserve">8.41390323638916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32045936584473</t>
+    <t xml:space="preserve">8.32045841217041</t>
   </si>
   <si>
     <t xml:space="preserve">8.27373600006104</t>
   </si>
   <si>
+    <t xml:space="preserve">8.22312164306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43908023834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24637794494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24471569061279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95898389816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07693099975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11513996124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1350736618042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15667057037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14504146575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31864261627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48476600646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39339637756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35601997375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33940696716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.23807144165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28956890106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28790760040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38093852996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33525371551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03207874298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16829872131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21149158477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34356021881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39754962921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46399879455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65088844299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63012313842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62596988677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61766338348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68411254882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79624652862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72979831695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64673519134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58028697967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59689807891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56782627105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13175201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17992782592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30618190765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57198047637939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65919494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32694816589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60520458221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78794002532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76302242279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69657325744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44323444366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62181663513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41831588745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47645950317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30285930633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19321823120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19820213317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76295709609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78621530532837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74634552001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13999366760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.19149255752563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13833236694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5386266708374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35755109786987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49875688552856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08517265319824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74794244766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78116655349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.06025505065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1134147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59185075759888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54865789413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71644353866577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54699802398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61344623565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49715995788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52872323989868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71976518630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58852767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65829992294312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79950523376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60181760787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45230722427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35927677154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51211071014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50214385986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42074346542358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59517335891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68321847915649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67159032821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87426090240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9539999961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6666054725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64999389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88256692886353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88090515136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98390245437622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42246913909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27295684814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01380348205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99054718017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12178516387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0603199005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24305534362793</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.22312068939209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43908023834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24637889862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24471569061279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34771347045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95898294448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07693099975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11514091491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13507461547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15667057037354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14504146575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31864166259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48476505279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39339637756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35601997375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33940696716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23807239532471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28956985473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28790760040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38093852996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33525371551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03207874298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16829872131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21149063110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34356021881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39754962921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46399974822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63427639007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65088844299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63012313842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62596988677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61766338348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68411350250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79624652862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72979831695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64673519134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58028697967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59689903259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56782627105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13175296783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17992782592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30618190765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57197952270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65919494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32694816589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60520458221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78794002532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76302242279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69657325744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44323444366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62181663513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41831588745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47645854949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30285930633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19321823120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19820213317871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76295804977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78621530532837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74634552001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1399941444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.19149303436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13833284378052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5386266708374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35755157470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49875688552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0851731300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7479419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78116703033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06025457382202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11341428756714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59185075759888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54865884780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71644258499146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5469970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61344623565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49715995788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.528724193573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71976518630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58852767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65829992294312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79950523376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60181760787964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45230722427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35927677154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51211166381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50214290618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42074346542358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59517335891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68321847915649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67159032821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87426090240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9539999961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66660642623901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64999389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88256692886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8809061050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98390245437622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42246913909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27295684814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01380443572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99054718017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12178516387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0603199005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24305534362793</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.23308753967285</t>
   </si>
   <si>
@@ -4109,10 +4109,10 @@
     <t xml:space="preserve">7.89087295532227</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93904829025269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75465250015259</t>
+    <t xml:space="preserve">7.939049243927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75465154647827</t>
   </si>
   <si>
     <t xml:space="preserve">7.83937406539917</t>
@@ -4121,16 +4121,16 @@
     <t xml:space="preserve">7.91413021087646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97559547424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93572568893433</t>
+    <t xml:space="preserve">7.97559642791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93572664260864</t>
   </si>
   <si>
     <t xml:space="preserve">7.82608461380005</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92409706115723</t>
+    <t xml:space="preserve">7.92409801483154</t>
   </si>
   <si>
     <t xml:space="preserve">8.04536819458008</t>
@@ -4154,10 +4154,10 @@
     <t xml:space="preserve">7.44067859649658</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42240428924561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08018970489502</t>
+    <t xml:space="preserve">7.42240333557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08019018173218</t>
   </si>
   <si>
     <t xml:space="preserve">7.04364204406738</t>
@@ -4172,13 +4172,13 @@
     <t xml:space="preserve">7.174880027771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01374053955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16657400131226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0120792388916</t>
+    <t xml:space="preserve">7.01374006271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16657447814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01207876205444</t>
   </si>
   <si>
     <t xml:space="preserve">7.09846305847168</t>
@@ -4190,16 +4190,16 @@
     <t xml:space="preserve">6.85924530029297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85426139831543</t>
+    <t xml:space="preserve">6.85426092147827</t>
   </si>
   <si>
     <t xml:space="preserve">6.82103633880615</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65491342544556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75292587280273</t>
+    <t xml:space="preserve">6.6549129486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75292634963989</t>
   </si>
   <si>
     <t xml:space="preserve">6.89579248428345</t>
@@ -4226,7 +4226,7 @@
     <t xml:space="preserve">6.62168836593628</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76289319992065</t>
+    <t xml:space="preserve">6.76289367675781</t>
   </si>
   <si>
     <t xml:space="preserve">6.68481540679932</t>
@@ -4238,7 +4238,7 @@
     <t xml:space="preserve">6.67152500152588</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59843111038208</t>
+    <t xml:space="preserve">6.59843063354492</t>
   </si>
   <si>
     <t xml:space="preserve">6.6632194519043</t>
@@ -4247,7 +4247,7 @@
     <t xml:space="preserve">6.78781223297119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94396781921387</t>
+    <t xml:space="preserve">6.94396829605103</t>
   </si>
   <si>
     <t xml:space="preserve">6.99048280715942</t>
@@ -4259,37 +4259,37 @@
     <t xml:space="preserve">7.04530382156372</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10012435913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15660667419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10344696044922</t>
+    <t xml:space="preserve">7.10012483596802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15660715103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10344743728638</t>
   </si>
   <si>
     <t xml:space="preserve">7.0934796333313</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11175298690796</t>
+    <t xml:space="preserve">7.11175346374512</t>
   </si>
   <si>
     <t xml:space="preserve">7.18152475357056</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22970104217529</t>
+    <t xml:space="preserve">7.22970151901245</t>
   </si>
   <si>
     <t xml:space="preserve">7.23800706863403</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1782021522522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14996147155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88416385650635</t>
+    <t xml:space="preserve">7.17820310592651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14996099472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88416337966919</t>
   </si>
   <si>
     <t xml:space="preserve">6.69976663589478</t>
@@ -4301,7 +4301,7 @@
     <t xml:space="preserve">6.72136306762695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68315362930298</t>
+    <t xml:space="preserve">6.68315410614014</t>
   </si>
   <si>
     <t xml:space="preserve">6.58846378326416</t>
@@ -4319,7 +4319,7 @@
     <t xml:space="preserve">6.49045085906982</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73797559738159</t>
+    <t xml:space="preserve">6.73797512054443</t>
   </si>
   <si>
     <t xml:space="preserve">6.63331699371338</t>
@@ -4334,7 +4334,7 @@
     <t xml:space="preserve">6.7130560874939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87917947769165</t>
+    <t xml:space="preserve">6.87917995452881</t>
   </si>
   <si>
     <t xml:space="preserve">7.02703046798706</t>
@@ -4346,10 +4346,10 @@
     <t xml:space="preserve">7.10510778427124</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08351182937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0237078666687</t>
+    <t xml:space="preserve">7.08351135253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02370738983154</t>
   </si>
   <si>
     <t xml:space="preserve">7.05859375</t>
@@ -4361,7 +4361,7 @@
     <t xml:space="preserve">6.92237186431885</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87751817703247</t>
+    <t xml:space="preserve">6.87751865386963</t>
   </si>
   <si>
     <t xml:space="preserve">6.62999439239502</t>
@@ -4370,10 +4370,10 @@
     <t xml:space="preserve">6.5070629119873</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44227504730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32266616821289</t>
+    <t xml:space="preserve">6.44227457046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32266569137573</t>
   </si>
   <si>
     <t xml:space="preserve">6.69478321075439</t>
@@ -4388,7 +4388,7 @@
     <t xml:space="preserve">6.65657472610474</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6167049407959</t>
+    <t xml:space="preserve">6.61670446395874</t>
   </si>
   <si>
     <t xml:space="preserve">6.60175371170044</t>
@@ -4400,7 +4400,7 @@
     <t xml:space="preserve">6.7097339630127</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89413166046143</t>
+    <t xml:space="preserve">6.89413070678711</t>
   </si>
   <si>
     <t xml:space="preserve">6.96390295028687</t>
@@ -4409,7 +4409,7 @@
     <t xml:space="preserve">7.13168811798096</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32106876373291</t>
+    <t xml:space="preserve">7.32106924057007</t>
   </si>
   <si>
     <t xml:space="preserve">7.31442403793335</t>
@@ -4424,10 +4424,10 @@
     <t xml:space="preserve">7.585205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61842966079712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57855987548828</t>
+    <t xml:space="preserve">7.61843013763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5785608291626</t>
   </si>
   <si>
     <t xml:space="preserve">7.67823457717896</t>
@@ -4445,10 +4445,10 @@
     <t xml:space="preserve">8.03872299194336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09354400634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15168762207031</t>
+    <t xml:space="preserve">8.09354496002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.151686668396</t>
   </si>
   <si>
     <t xml:space="preserve">8.26797389984131</t>
@@ -5586,6 +5586,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.164999961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3500003814697</t>
   </si>
 </sst>
 </file>
@@ -44971,7 +44974,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G1502" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -44997,7 +45000,7 @@
         <v>9.58199977874756</v>
       </c>
       <c r="G1503" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -45023,7 +45026,7 @@
         <v>9.72399997711182</v>
       </c>
       <c r="G1504" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -45049,7 +45052,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1505" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -45075,7 +45078,7 @@
         <v>9.79399967193604</v>
       </c>
       <c r="G1506" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -45101,7 +45104,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1507" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -45127,7 +45130,7 @@
         <v>9.80599975585938</v>
       </c>
       <c r="G1508" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -45153,7 +45156,7 @@
         <v>10.0150003433228</v>
       </c>
       <c r="G1509" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -45179,7 +45182,7 @@
         <v>10.2150001525879</v>
       </c>
       <c r="G1510" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -45205,7 +45208,7 @@
         <v>10.1049995422363</v>
       </c>
       <c r="G1511" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -45231,7 +45234,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1512" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -45257,7 +45260,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1513" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -45283,7 +45286,7 @@
         <v>9.91800022125244</v>
       </c>
       <c r="G1514" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -45309,7 +45312,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1515" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -45335,7 +45338,7 @@
         <v>9.97799968719482</v>
       </c>
       <c r="G1516" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -45361,7 +45364,7 @@
         <v>10.0900001525879</v>
       </c>
       <c r="G1517" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -45387,7 +45390,7 @@
         <v>10.0349998474121</v>
       </c>
       <c r="G1518" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -45413,7 +45416,7 @@
         <v>9.67000007629395</v>
       </c>
       <c r="G1519" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -45439,7 +45442,7 @@
         <v>9.83399963378906</v>
       </c>
       <c r="G1520" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -45465,7 +45468,7 @@
         <v>9.91800022125244</v>
       </c>
       <c r="G1521" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -45491,7 +45494,7 @@
         <v>9.88599967956543</v>
       </c>
       <c r="G1522" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -45543,7 +45546,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1524" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -45569,7 +45572,7 @@
         <v>10.0450000762939</v>
       </c>
       <c r="G1525" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -45595,7 +45598,7 @@
         <v>10.1099996566772</v>
       </c>
       <c r="G1526" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -45621,7 +45624,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G1527" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -45647,7 +45650,7 @@
         <v>10.3950004577637</v>
       </c>
       <c r="G1528" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -45673,7 +45676,7 @@
         <v>10.414999961853</v>
       </c>
       <c r="G1529" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -45699,7 +45702,7 @@
         <v>10.3900003433228</v>
       </c>
       <c r="G1530" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -45725,7 +45728,7 @@
         <v>10.3850002288818</v>
       </c>
       <c r="G1531" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -45751,7 +45754,7 @@
         <v>10.375</v>
       </c>
       <c r="G1532" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -45777,7 +45780,7 @@
         <v>10.4549999237061</v>
       </c>
       <c r="G1533" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -45803,7 +45806,7 @@
         <v>10.5900001525879</v>
       </c>
       <c r="G1534" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -45829,7 +45832,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G1535" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -45855,7 +45858,7 @@
         <v>10.3850002288818</v>
       </c>
       <c r="G1536" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -45881,7 +45884,7 @@
         <v>10.4099998474121</v>
       </c>
       <c r="G1537" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -45907,7 +45910,7 @@
         <v>10.3299999237061</v>
       </c>
       <c r="G1538" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -45933,7 +45936,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G1539" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -45959,7 +45962,7 @@
         <v>10.3149995803833</v>
       </c>
       <c r="G1540" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -45985,7 +45988,7 @@
         <v>10.1099996566772</v>
       </c>
       <c r="G1541" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -46011,7 +46014,7 @@
         <v>9.78999996185303</v>
       </c>
       <c r="G1542" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -46037,7 +46040,7 @@
         <v>9.72399997711182</v>
       </c>
       <c r="G1543" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -46063,7 +46066,7 @@
         <v>9.84799957275391</v>
       </c>
       <c r="G1544" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -46089,7 +46092,7 @@
         <v>10</v>
       </c>
       <c r="G1545" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -46115,7 +46118,7 @@
         <v>10.0349998474121</v>
       </c>
       <c r="G1546" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -46141,7 +46144,7 @@
         <v>10.1099996566772</v>
       </c>
       <c r="G1547" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -46167,7 +46170,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1548" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -46193,7 +46196,7 @@
         <v>10.4250001907349</v>
       </c>
       <c r="G1549" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -46219,7 +46222,7 @@
         <v>10.3149995803833</v>
       </c>
       <c r="G1550" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -46245,7 +46248,7 @@
         <v>10.0249996185303</v>
       </c>
       <c r="G1551" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -46271,7 +46274,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1552" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -46297,7 +46300,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1553" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -46323,7 +46326,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G1554" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -46349,7 +46352,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G1555" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -46375,7 +46378,7 @@
         <v>10.4700002670288</v>
       </c>
       <c r="G1556" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -46401,7 +46404,7 @@
         <v>10.164999961853</v>
       </c>
       <c r="G1557" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -46427,7 +46430,7 @@
         <v>10.3950004577637</v>
       </c>
       <c r="G1558" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -46453,7 +46456,7 @@
         <v>10.3800001144409</v>
       </c>
       <c r="G1559" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -46479,7 +46482,7 @@
         <v>10.1350002288818</v>
       </c>
       <c r="G1560" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -46505,7 +46508,7 @@
         <v>10.2049999237061</v>
       </c>
       <c r="G1561" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -46531,7 +46534,7 @@
         <v>9.99600028991699</v>
       </c>
       <c r="G1562" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -46557,7 +46560,7 @@
         <v>9.86400032043457</v>
       </c>
       <c r="G1563" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -46583,7 +46586,7 @@
         <v>9.86999988555908</v>
       </c>
       <c r="G1564" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -46609,7 +46612,7 @@
         <v>9.3459997177124</v>
       </c>
       <c r="G1565" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -46635,7 +46638,7 @@
         <v>9.37399959564209</v>
       </c>
       <c r="G1566" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -46661,7 +46664,7 @@
         <v>9.32600021362305</v>
       </c>
       <c r="G1567" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -46687,7 +46690,7 @@
         <v>8.5959997177124</v>
       </c>
       <c r="G1568" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -46713,7 +46716,7 @@
         <v>8.65799999237061</v>
       </c>
       <c r="G1569" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -46739,7 +46742,7 @@
         <v>8.5939998626709</v>
       </c>
       <c r="G1570" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -46765,7 +46768,7 @@
         <v>7.87200021743774</v>
       </c>
       <c r="G1571" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -46791,7 +46794,7 @@
         <v>7.65399980545044</v>
       </c>
       <c r="G1572" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -46817,7 +46820,7 @@
         <v>7.82399988174438</v>
       </c>
       <c r="G1573" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -46843,7 +46846,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1574" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -46869,7 +46872,7 @@
         <v>8.12399959564209</v>
       </c>
       <c r="G1575" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -46895,7 +46898,7 @@
         <v>8.16399955749512</v>
       </c>
       <c r="G1576" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -46921,7 +46924,7 @@
         <v>8.5</v>
       </c>
       <c r="G1577" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -46947,7 +46950,7 @@
         <v>8.56400012969971</v>
       </c>
       <c r="G1578" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -46973,7 +46976,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G1579" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H1579" t="s">
         <v>9</v>
@@ -46999,7 +47002,7 @@
         <v>9.08800029754639</v>
       </c>
       <c r="G1580" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -47025,7 +47028,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1581" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -47051,7 +47054,7 @@
         <v>9.08600044250488</v>
       </c>
       <c r="G1582" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -47077,7 +47080,7 @@
         <v>9.16600036621094</v>
       </c>
       <c r="G1583" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -47103,7 +47106,7 @@
         <v>9.02600002288818</v>
       </c>
       <c r="G1584" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -47129,7 +47132,7 @@
         <v>9.08600044250488</v>
       </c>
       <c r="G1585" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -47155,7 +47158,7 @@
         <v>9.06400012969971</v>
       </c>
       <c r="G1586" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -47181,7 +47184,7 @@
         <v>9.08800029754639</v>
       </c>
       <c r="G1587" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -47207,7 +47210,7 @@
         <v>9.29399967193604</v>
       </c>
       <c r="G1588" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -47233,7 +47236,7 @@
         <v>9.13599967956543</v>
       </c>
       <c r="G1589" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -47259,7 +47262,7 @@
         <v>9.22000026702881</v>
       </c>
       <c r="G1590" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -47285,7 +47288,7 @@
         <v>9.39000034332275</v>
       </c>
       <c r="G1591" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -47311,7 +47314,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1592" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -47337,7 +47340,7 @@
         <v>9.15200042724609</v>
       </c>
       <c r="G1593" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -47363,7 +47366,7 @@
         <v>8.97200012207031</v>
       </c>
       <c r="G1594" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -47389,7 +47392,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1595" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -47415,7 +47418,7 @@
         <v>9.04399967193604</v>
       </c>
       <c r="G1596" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -47441,7 +47444,7 @@
         <v>9.0319995880127</v>
       </c>
       <c r="G1597" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -47467,7 +47470,7 @@
         <v>8.93400001525879</v>
       </c>
       <c r="G1598" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -47493,7 +47496,7 @@
         <v>9.14400005340576</v>
       </c>
       <c r="G1599" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -47519,7 +47522,7 @@
         <v>9.25</v>
       </c>
       <c r="G1600" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -47545,7 +47548,7 @@
         <v>9.23600006103516</v>
       </c>
       <c r="G1601" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -47571,7 +47574,7 @@
         <v>9.47999954223633</v>
       </c>
       <c r="G1602" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -47597,7 +47600,7 @@
         <v>9.57600021362305</v>
       </c>
       <c r="G1603" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -47623,7 +47626,7 @@
         <v>9.3459997177124</v>
       </c>
       <c r="G1604" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -47649,7 +47652,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G1605" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -47675,7 +47678,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1606" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -47701,7 +47704,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1607" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -47727,7 +47730,7 @@
         <v>9.48799991607666</v>
       </c>
       <c r="G1608" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -47753,7 +47756,7 @@
         <v>9.61200046539307</v>
       </c>
       <c r="G1609" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -47779,7 +47782,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1610" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -47805,7 +47808,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1611" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -47831,7 +47834,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1612" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -47857,7 +47860,7 @@
         <v>10</v>
       </c>
       <c r="G1613" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -47883,7 +47886,7 @@
         <v>9.64799976348877</v>
       </c>
       <c r="G1614" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -47909,7 +47912,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G1615" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -47935,7 +47938,7 @@
         <v>9.77799987792969</v>
       </c>
       <c r="G1616" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -47961,7 +47964,7 @@
         <v>9.81999969482422</v>
       </c>
       <c r="G1617" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -47987,7 +47990,7 @@
         <v>9.70400047302246</v>
       </c>
       <c r="G1618" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -48013,7 +48016,7 @@
         <v>9.92399978637695</v>
       </c>
       <c r="G1619" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -48039,7 +48042,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1620" t="s">
-        <v>1257</v>
+        <v>1360</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -50951,7 +50954,7 @@
         <v>8.52999973297119</v>
       </c>
       <c r="G1732" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -51393,7 +51396,7 @@
         <v>9.97799968719482</v>
       </c>
       <c r="G1749" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -51419,7 +51422,7 @@
         <v>10.0900001525879</v>
       </c>
       <c r="G1750" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -51445,7 +51448,7 @@
         <v>10.0349998474121</v>
       </c>
       <c r="G1751" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -51471,7 +51474,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G1752" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -62295,10 +62298,10 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6497453704</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
-        <v>821651</v>
+        <v>1294987</v>
       </c>
       <c r="C2169" t="n">
         <v>14.1949996948242</v>
@@ -62316,6 +62319,32 @@
         <v>1857</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6494328704</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>1523001</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>14.3500003814697</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>14.0649995803833</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>14.1750001907349</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>14.3500003814697</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1858</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="1858">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,76 +38,76 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5433030128479</t>
+    <t xml:space="preserve">5.54330158233643</t>
   </si>
   <si>
     <t xml:space="preserve">MB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53684854507446</t>
+    <t xml:space="preserve">5.53684902191162</t>
   </si>
   <si>
     <t xml:space="preserve">5.39810466766357</t>
   </si>
   <si>
-    <t xml:space="preserve">5.29485368728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16578960418701</t>
+    <t xml:space="preserve">5.29485416412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16579008102417</t>
   </si>
   <si>
     <t xml:space="preserve">5.13675022125244</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25936126708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31743955612183</t>
+    <t xml:space="preserve">5.25936079025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3174409866333</t>
   </si>
   <si>
     <t xml:space="preserve">5.25290822982788</t>
   </si>
   <si>
-    <t xml:space="preserve">5.05285882949829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.81086397171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.910888671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.71406507492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9754204750061</t>
+    <t xml:space="preserve">5.05285930633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.81086301803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91088819503784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.71406602859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97541999816895</t>
   </si>
   <si>
     <t xml:space="preserve">4.99155330657959</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83022308349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90766143798828</t>
+    <t xml:space="preserve">4.83022356033325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.9076623916626</t>
   </si>
   <si>
     <t xml:space="preserve">4.83344984054565</t>
   </si>
   <si>
-    <t xml:space="preserve">4.56886863708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75278472900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.60436105728149</t>
+    <t xml:space="preserve">4.5688681602478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75278425216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.60436153411865</t>
   </si>
   <si>
     <t xml:space="preserve">4.47852325439453</t>
   </si>
   <si>
-    <t xml:space="preserve">4.27524757385254</t>
+    <t xml:space="preserve">4.2752480506897</t>
   </si>
   <si>
     <t xml:space="preserve">4.36881971359253</t>
@@ -116,31 +116,31 @@
     <t xml:space="preserve">4.25911474227905</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86224246025085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.64606022834778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92032146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71381878852844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78480458259583</t>
+    <t xml:space="preserve">3.86224222183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64606070518494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92032098770142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71381974220276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78480434417725</t>
   </si>
   <si>
     <t xml:space="preserve">3.89450860023499</t>
   </si>
   <si>
-    <t xml:space="preserve">3.9300012588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.00421333312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8880558013916</t>
+    <t xml:space="preserve">3.93000173568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.00421285629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.88805508613586</t>
   </si>
   <si>
     <t xml:space="preserve">3.85578918457031</t>
@@ -149,13 +149,13 @@
     <t xml:space="preserve">4.01066637039185</t>
   </si>
   <si>
-    <t xml:space="preserve">3.91064190864563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86869549751282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92354798316956</t>
+    <t xml:space="preserve">3.91064167022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86869621276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92354822158813</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357244491577</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">4.36559247970581</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3817253112793</t>
+    <t xml:space="preserve">4.38172626495361</t>
   </si>
   <si>
     <t xml:space="preserve">4.2978343963623</t>
@@ -188,19 +188,19 @@
     <t xml:space="preserve">4.30751371383667</t>
   </si>
   <si>
-    <t xml:space="preserve">4.68179941177368</t>
+    <t xml:space="preserve">4.68179988861084</t>
   </si>
   <si>
     <t xml:space="preserve">4.7301983833313</t>
   </si>
   <si>
-    <t xml:space="preserve">4.57209491729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.59145545959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31074047088623</t>
+    <t xml:space="preserve">4.57209539413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.59145498275757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31073999404907</t>
   </si>
   <si>
     <t xml:space="preserve">4.34945917129517</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">4.37204551696777</t>
   </si>
   <si>
-    <t xml:space="preserve">4.29138040542603</t>
+    <t xml:space="preserve">4.29138135910034</t>
   </si>
   <si>
     <t xml:space="preserve">4.26234102249146</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">4.14295673370361</t>
   </si>
   <si>
-    <t xml:space="preserve">4.16876983642578</t>
+    <t xml:space="preserve">4.16877031326294</t>
   </si>
   <si>
     <t xml:space="preserve">4.08487749099731</t>
@@ -233,13 +233,13 @@
     <t xml:space="preserve">4.01389265060425</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0526123046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84933638572693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07197189331055</t>
+    <t xml:space="preserve">4.05261278152466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84933614730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07197141647339</t>
   </si>
   <si>
     <t xml:space="preserve">4.1171441078186</t>
@@ -248,64 +248,64 @@
     <t xml:space="preserve">4.03002595901489</t>
   </si>
   <si>
-    <t xml:space="preserve">4.23975515365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31719350814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24620771408081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51724290847778</t>
+    <t xml:space="preserve">4.23975610733032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31719398498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24620819091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51724243164062</t>
   </si>
   <si>
     <t xml:space="preserve">4.52046966552734</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6656665802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68502569198608</t>
+    <t xml:space="preserve">4.66566610336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68502616882324</t>
   </si>
   <si>
     <t xml:space="preserve">4.69470596313477</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63017463684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.49788284301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32687330245972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14941024780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1139178276062</t>
+    <t xml:space="preserve">4.63017416000366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.49788331985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32687282562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14940977096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11391735076904</t>
   </si>
   <si>
     <t xml:space="preserve">4.06229209899902</t>
   </si>
   <si>
-    <t xml:space="preserve">4.13327741622925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16231679916382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20103549957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18812847137451</t>
+    <t xml:space="preserve">4.13327693939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16231632232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20103597640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18812894821167</t>
   </si>
   <si>
     <t xml:space="preserve">4.17199659347534</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24943542480469</t>
+    <t xml:space="preserve">4.24943447113037</t>
   </si>
   <si>
     <t xml:space="preserve">4.28815412521362</t>
@@ -314,19 +314,19 @@
     <t xml:space="preserve">4.5043363571167</t>
   </si>
   <si>
-    <t xml:space="preserve">4.6075873374939</t>
+    <t xml:space="preserve">4.60758781433105</t>
   </si>
   <si>
     <t xml:space="preserve">4.59790802001953</t>
   </si>
   <si>
-    <t xml:space="preserve">4.65276002883911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63985395431519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41399192810059</t>
+    <t xml:space="preserve">4.65276050567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63985347747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41399145126343</t>
   </si>
   <si>
     <t xml:space="preserve">4.38495206832886</t>
@@ -335,37 +335,37 @@
     <t xml:space="preserve">4.27202081680298</t>
   </si>
   <si>
-    <t xml:space="preserve">4.25588750839233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.18167591094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.95258712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75899124145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.61702060699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.717045545578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7041392326355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85256266593933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06551837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12037086486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.09455728530884</t>
+    <t xml:space="preserve">4.25588798522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.18167686462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.95258784294128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.75899147987366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61702108383179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71704578399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70413875579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85256242752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06551885604858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12037181854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.09455823898315</t>
   </si>
   <si>
     <t xml:space="preserve">3.42665147781372</t>
@@ -377,13 +377,13 @@
     <t xml:space="preserve">3.16207003593445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.27177476882935</t>
+    <t xml:space="preserve">3.27177453041077</t>
   </si>
   <si>
     <t xml:space="preserve">3.32662653923035</t>
   </si>
   <si>
-    <t xml:space="preserve">3.35889267921448</t>
+    <t xml:space="preserve">3.35889291763306</t>
   </si>
   <si>
     <t xml:space="preserve">3.21756792068481</t>
@@ -392,187 +392,187 @@
     <t xml:space="preserve">3.11431646347046</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04074954986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14529204368591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41374492645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67832660675049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7073655128479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82029676437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76544451713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82997679710388</t>
+    <t xml:space="preserve">3.0407497882843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14529156684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41374468803406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67832636833191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70736527442932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82029700279236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76544499397278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82997632026672</t>
   </si>
   <si>
     <t xml:space="preserve">3.79448366165161</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83965611457825</t>
+    <t xml:space="preserve">3.83965659141541</t>
   </si>
   <si>
     <t xml:space="preserve">3.83320307731628</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86546897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77512454986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90741467475891</t>
+    <t xml:space="preserve">3.86546993255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77512431144714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90741515159607</t>
   </si>
   <si>
     <t xml:space="preserve">3.85901641845703</t>
   </si>
   <si>
-    <t xml:space="preserve">4.04293298721313</t>
+    <t xml:space="preserve">4.04293251037598</t>
   </si>
   <si>
     <t xml:space="preserve">3.96549344062805</t>
   </si>
   <si>
-    <t xml:space="preserve">3.63960671424866</t>
+    <t xml:space="preserve">3.63960695266724</t>
   </si>
   <si>
     <t xml:space="preserve">3.65251350402832</t>
   </si>
   <si>
-    <t xml:space="preserve">3.97194743156433</t>
+    <t xml:space="preserve">3.97194695472717</t>
   </si>
   <si>
     <t xml:space="preserve">4.23652839660645</t>
   </si>
   <si>
-    <t xml:space="preserve">4.20748949050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16554307937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17845010757446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11069059371948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07519865036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05906534194946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94613456726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98162722587585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19135618209839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.15909051895142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.22039556503296</t>
+    <t xml:space="preserve">4.20748901367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16554355621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1784496307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11069107055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07519817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0590648651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94613432884216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98162698745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19135570526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.15909004211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2203950881958</t>
   </si>
   <si>
     <t xml:space="preserve">4.32364654541016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42367172241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35591316223145</t>
+    <t xml:space="preserve">4.42367124557495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35591220855713</t>
   </si>
   <si>
     <t xml:space="preserve">4.47529649734497</t>
   </si>
   <si>
-    <t xml:space="preserve">4.43657779693604</t>
+    <t xml:space="preserve">4.43657827377319</t>
   </si>
   <si>
     <t xml:space="preserve">4.33332681655884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98485374450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04615879058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93645429611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02679967880249</t>
+    <t xml:space="preserve">3.98485422134399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04615926742554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93645477294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02679920196533</t>
   </si>
   <si>
     <t xml:space="preserve">4.03325271606445</t>
   </si>
   <si>
-    <t xml:space="preserve">3.73317790031433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78157782554626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71059250831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73640513420105</t>
+    <t xml:space="preserve">3.73317813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78157758712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71059203147888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73640537261963</t>
   </si>
   <si>
     <t xml:space="preserve">3.72672605514526</t>
   </si>
   <si>
-    <t xml:space="preserve">3.72995185852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93322777748108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.03647899627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.90096211433411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99776005744934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13650417327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26556777954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38817882537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43980503082275</t>
+    <t xml:space="preserve">3.72995233535767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9332275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.03647947311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.90096163749695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99775981903076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13650369644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26556825637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.38817834854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4398045539856</t>
   </si>
   <si>
     <t xml:space="preserve">4.52369594573975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33655261993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.10423803329468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28170156478882</t>
+    <t xml:space="preserve">4.33655309677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10423851013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2817006111145</t>
   </si>
   <si>
     <t xml:space="preserve">4.42689800262451</t>
@@ -581,10 +581,10 @@
     <t xml:space="preserve">4.42044448852539</t>
   </si>
   <si>
-    <t xml:space="preserve">4.54305601119995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.55918884277344</t>
+    <t xml:space="preserve">4.54305553436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.55918836593628</t>
   </si>
   <si>
     <t xml:space="preserve">4.49142980575562</t>
@@ -593,13 +593,13 @@
     <t xml:space="preserve">4.39140558242798</t>
   </si>
   <si>
-    <t xml:space="preserve">4.21394205093384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26442909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33847618103027</t>
+    <t xml:space="preserve">4.213942527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26442861557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33847570419312</t>
   </si>
   <si>
     <t xml:space="preserve">4.27452564239502</t>
@@ -617,13 +617,13 @@
     <t xml:space="preserve">4.22403955459595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38223028182983</t>
+    <t xml:space="preserve">4.38223075866699</t>
   </si>
   <si>
     <t xml:space="preserve">4.52022743225098</t>
   </si>
   <si>
-    <t xml:space="preserve">4.52695894241333</t>
+    <t xml:space="preserve">4.52695846557617</t>
   </si>
   <si>
     <t xml:space="preserve">4.33511018753052</t>
@@ -632,73 +632,73 @@
     <t xml:space="preserve">4.76592779159546</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99480056762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13279676437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.9880690574646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01499557495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06884717941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11596870422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28762245178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22703790664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2505989074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32801103591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29098796844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27415943145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3414740562439</t>
+    <t xml:space="preserve">4.99480104446411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13279724121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98806858062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.01499462127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06884813308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.11596775054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28762197494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.22703886032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25059843063354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.32801151275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29098844528198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27415895462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34147548675537</t>
   </si>
   <si>
     <t xml:space="preserve">5.3381085395813</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27079343795776</t>
+    <t xml:space="preserve">5.27079391479492</t>
   </si>
   <si>
     <t xml:space="preserve">5.2304048538208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22030735015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33137798309326</t>
+    <t xml:space="preserve">5.22030687332153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.33137702941895</t>
   </si>
   <si>
     <t xml:space="preserve">5.48620271682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51986026763916</t>
+    <t xml:space="preserve">5.51986122131348</t>
   </si>
   <si>
     <t xml:space="preserve">5.4929347038269</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51312875747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26406145095825</t>
+    <t xml:space="preserve">5.51312828063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26406240463257</t>
   </si>
   <si>
     <t xml:space="preserve">5.32128047943115</t>
@@ -707,10 +707,10 @@
     <t xml:space="preserve">5.3179144859314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19338083267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40205860137939</t>
+    <t xml:space="preserve">5.19338130950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40205812454224</t>
   </si>
   <si>
     <t xml:space="preserve">5.38186407089233</t>
@@ -719,25 +719,25 @@
     <t xml:space="preserve">5.34484052658081</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42898464202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35157203674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43235063552856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73527002334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91365480422974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72517204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65449142456055</t>
+    <t xml:space="preserve">5.42898416519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35157251358032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43235015869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73526954650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91365528106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72517251968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65449094772339</t>
   </si>
   <si>
     <t xml:space="preserve">5.50303173065186</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">5.35493803024292</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48283720016479</t>
+    <t xml:space="preserve">5.48283672332764</t>
   </si>
   <si>
     <t xml:space="preserve">5.25733089447021</t>
@@ -755,7 +755,7 @@
     <t xml:space="preserve">5.14626026153564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30445146560669</t>
+    <t xml:space="preserve">5.30445098876953</t>
   </si>
   <si>
     <t xml:space="preserve">5.24386739730835</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">5.52659177780151</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49629974365234</t>
+    <t xml:space="preserve">5.4963002204895</t>
   </si>
   <si>
     <t xml:space="preserve">5.46600818634033</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">5.4155216217041</t>
   </si>
   <si>
-    <t xml:space="preserve">5.36503505706787</t>
+    <t xml:space="preserve">5.36503458023071</t>
   </si>
   <si>
     <t xml:space="preserve">5.31118249893188</t>
@@ -785,19 +785,19 @@
     <t xml:space="preserve">5.1563572883606</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01162910461426</t>
+    <t xml:space="preserve">5.01162958145142</t>
   </si>
   <si>
     <t xml:space="preserve">5.04865264892578</t>
   </si>
   <si>
-    <t xml:space="preserve">5.09240818023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28425693511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33474397659302</t>
+    <t xml:space="preserve">5.09240770339966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28425645828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3347430229187</t>
   </si>
   <si>
     <t xml:space="preserve">5.52322626113892</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">5.58044385910034</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6612229347229</t>
+    <t xml:space="preserve">5.66122198104858</t>
   </si>
   <si>
     <t xml:space="preserve">5.60400438308716</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59054231643677</t>
+    <t xml:space="preserve">5.59054183959961</t>
   </si>
   <si>
     <t xml:space="preserve">5.60737037658691</t>
@@ -827,10 +827,10 @@
     <t xml:space="preserve">5.6847825050354</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69824600219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63766288757324</t>
+    <t xml:space="preserve">5.69824647903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63766193389893</t>
   </si>
   <si>
     <t xml:space="preserve">5.70161199569702</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">5.67805194854736</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71507406234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68814849853516</t>
+    <t xml:space="preserve">5.71507501602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68814897537231</t>
   </si>
   <si>
     <t xml:space="preserve">5.55015230178833</t>
@@ -851,10 +851,10 @@
     <t xml:space="preserve">5.56024980545044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55688333511353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59390830993652</t>
+    <t xml:space="preserve">5.55688428878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59390783309937</t>
   </si>
   <si>
     <t xml:space="preserve">5.47947120666504</t>
@@ -872,40 +872,40 @@
     <t xml:space="preserve">5.83624219894409</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75546503067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71844053268433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94058132171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95740985870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97760534286499</t>
+    <t xml:space="preserve">5.75546407699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71844148635864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94058227539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95741033554077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97760486602783</t>
   </si>
   <si>
     <t xml:space="preserve">6.09540748596191</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17955160140991</t>
+    <t xml:space="preserve">6.17955112457275</t>
   </si>
   <si>
     <t xml:space="preserve">6.14252805709839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12569904327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1088695526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18628168106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1526255607605</t>
+    <t xml:space="preserve">6.12569856643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10886907577515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18628215789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15262508392334</t>
   </si>
   <si>
     <t xml:space="preserve">6.17618560791016</t>
@@ -914,16 +914,16 @@
     <t xml:space="preserve">6.00453090667725</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02472591400146</t>
+    <t xml:space="preserve">6.02472543716431</t>
   </si>
   <si>
     <t xml:space="preserve">6.07521200180054</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11896705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15935659408569</t>
+    <t xml:space="preserve">6.11896753311157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15935611724854</t>
   </si>
   <si>
     <t xml:space="preserve">6.12906455993652</t>
@@ -932,19 +932,19 @@
     <t xml:space="preserve">6.10213756561279</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01126337051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82277965545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68141651153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70497846603394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61073637008667</t>
+    <t xml:space="preserve">6.0112624168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82277917861938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68141746520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70497751235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61073589324951</t>
   </si>
   <si>
     <t xml:space="preserve">5.63092994689941</t>
@@ -953,64 +953,64 @@
     <t xml:space="preserve">5.72853803634644</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78239107131958</t>
+    <t xml:space="preserve">5.78239011764526</t>
   </si>
   <si>
     <t xml:space="preserve">5.76219606399536</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81941413879395</t>
+    <t xml:space="preserve">5.81941366195679</t>
   </si>
   <si>
     <t xml:space="preserve">5.73863506317139</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75883007049561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65112543106079</t>
+    <t xml:space="preserve">5.75882959365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65112590789795</t>
   </si>
   <si>
     <t xml:space="preserve">5.5636157989502</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72180700302124</t>
+    <t xml:space="preserve">5.72180652618408</t>
   </si>
   <si>
     <t xml:space="preserve">5.70834302902222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85307121276855</t>
+    <t xml:space="preserve">5.8530707359314</t>
   </si>
   <si>
     <t xml:space="preserve">5.83960866928101</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81604814529419</t>
+    <t xml:space="preserve">5.81604862213135</t>
   </si>
   <si>
     <t xml:space="preserve">5.92375326156616</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97423934936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90019273757935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93721580505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97087335586548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04491996765137</t>
+    <t xml:space="preserve">5.97423887252808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9001932144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93721532821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97087430953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04492044448853</t>
   </si>
   <si>
     <t xml:space="preserve">6.10550403594971</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05838346481323</t>
+    <t xml:space="preserve">6.05838298797607</t>
   </si>
   <si>
     <t xml:space="preserve">6.06174898147583</t>
@@ -1019,19 +1019,19 @@
     <t xml:space="preserve">5.86316871643066</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88336324691772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9473123550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98770332336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96077632904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93384981155396</t>
+    <t xml:space="preserve">5.88336277008057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94731330871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98770189285278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96077537536621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9338493347168</t>
   </si>
   <si>
     <t xml:space="preserve">5.92038679122925</t>
@@ -1040,43 +1040,43 @@
     <t xml:space="preserve">6.06511545181274</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05501747131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.99106740951538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85643720626831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9102897644043</t>
+    <t xml:space="preserve">6.05501794815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9910683631897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85643768310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91028928756714</t>
   </si>
   <si>
     <t xml:space="preserve">5.90355825424194</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84634017944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7453670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80258464813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69151496887207</t>
+    <t xml:space="preserve">5.84634065628052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74536657333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80258560180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69151449203491</t>
   </si>
   <si>
     <t xml:space="preserve">5.87326622009277</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94394683837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.87999773025513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89009475708008</t>
+    <t xml:space="preserve">5.94394731521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.87999725341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89009523391724</t>
   </si>
   <si>
     <t xml:space="preserve">5.96414184570312</t>
@@ -1085,16 +1085,16 @@
     <t xml:space="preserve">6.05165195465088</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03818988800049</t>
+    <t xml:space="preserve">6.03818845748901</t>
   </si>
   <si>
     <t xml:space="preserve">6.07857751846313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11223554611206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14925909042358</t>
+    <t xml:space="preserve">6.11223602294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14925956726074</t>
   </si>
   <si>
     <t xml:space="preserve">6.09877300262451</t>
@@ -1103,49 +1103,49 @@
     <t xml:space="preserve">6.19301414489746</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13579511642456</t>
+    <t xml:space="preserve">6.13579607009888</t>
   </si>
   <si>
     <t xml:space="preserve">6.16608810424805</t>
   </si>
   <si>
-    <t xml:space="preserve">6.13916158676147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16945362091064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17281913757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16272163391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21320819854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31754732131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38149690628052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33437633514404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42188596725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48920249938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46227598190308</t>
+    <t xml:space="preserve">6.13916206359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1694540977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1728196144104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16272211074829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21320867538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3175482749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38149738311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3343768119812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4218864440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48920154571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46227550506592</t>
   </si>
   <si>
     <t xml:space="preserve">6.44208097457886</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52285957336426</t>
+    <t xml:space="preserve">6.52285861968994</t>
   </si>
   <si>
     <t xml:space="preserve">6.5161280632019</t>
@@ -1160,31 +1160,31 @@
     <t xml:space="preserve">6.64739274978638</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64066123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62046766281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65438652038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54948234558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6299090385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62641286849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58794689178467</t>
+    <t xml:space="preserve">6.64066076278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6204662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65438795089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54948282241821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62990856170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6264123916626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58794832229614</t>
   </si>
   <si>
     <t xml:space="preserve">6.51101875305176</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65088939666748</t>
+    <t xml:space="preserve">6.65088987350464</t>
   </si>
   <si>
     <t xml:space="preserve">6.78027105331421</t>
@@ -1193,7 +1193,7 @@
     <t xml:space="preserve">6.71383237838745</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76278781890869</t>
+    <t xml:space="preserve">6.76278686523438</t>
   </si>
   <si>
     <t xml:space="preserve">6.72082471847534</t>
@@ -1202,10 +1202,10 @@
     <t xml:space="preserve">6.61941909790039</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64389657974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73131513595581</t>
+    <t xml:space="preserve">6.64389610290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73131561279297</t>
   </si>
   <si>
     <t xml:space="preserve">6.70683860778809</t>
@@ -1214,19 +1214,19 @@
     <t xml:space="preserve">6.71033525466919</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67886400222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67187023162842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5389928817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5739598274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60543155670166</t>
+    <t xml:space="preserve">6.67886447906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67187070846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53899240493774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57396078109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6054310798645</t>
   </si>
   <si>
     <t xml:space="preserve">6.66487741470337</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">6.68935441970825</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68585777282715</t>
+    <t xml:space="preserve">6.68585729598999</t>
   </si>
   <si>
     <t xml:space="preserve">6.61592149734497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56346988677979</t>
+    <t xml:space="preserve">6.56347036361694</t>
   </si>
   <si>
     <t xml:space="preserve">6.69634771347046</t>
@@ -1250,46 +1250,46 @@
     <t xml:space="preserve">6.85370349884033</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83272314071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83621835708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82572984695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84670925140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9341287612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96210336685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02154874801636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97609186172485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97259378433228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92713594436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87468481063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8914680480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79775524139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84810829162598</t>
+    <t xml:space="preserve">6.83272409439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8362193107605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82572937011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84671068191528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93413019180298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96210289001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02154922485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97609090805054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97259473800659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9271354675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87468338012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89146947860718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79775476455688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84810781478882</t>
   </si>
   <si>
     <t xml:space="preserve">6.91524744033813</t>
@@ -1298,100 +1298,100 @@
     <t xml:space="preserve">6.95581007003784</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8942666053772</t>
+    <t xml:space="preserve">6.89426565170288</t>
   </si>
   <si>
     <t xml:space="preserve">6.69285106658936</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80195093154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74879884719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79635667800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.850905418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89286756515503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91105079650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88307619094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90545511245728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91804456710815</t>
+    <t xml:space="preserve">6.80195045471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7487998008728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79635715484619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85090637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89286708831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91105031967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8830771446228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90545606613159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91804504394531</t>
   </si>
   <si>
     <t xml:space="preserve">6.83412170410156</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89986085891724</t>
+    <t xml:space="preserve">6.89986133575439</t>
   </si>
   <si>
     <t xml:space="preserve">6.91384792327881</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9516134262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85510158538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75579261779785</t>
+    <t xml:space="preserve">6.95161294937134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8551025390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75579357147217</t>
   </si>
   <si>
     <t xml:space="preserve">6.63130760192871</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7390079498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88167762756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90405702590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89706516265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83132362365723</t>
+    <t xml:space="preserve">6.73900747299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88167810440063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90405750274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89706468582153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83132410049438</t>
   </si>
   <si>
     <t xml:space="preserve">6.86069774627686</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89566469192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84111499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91664600372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80614709854126</t>
+    <t xml:space="preserve">6.89566516876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84111404418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9166464805603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80614757537842</t>
   </si>
   <si>
     <t xml:space="preserve">6.68166160583496</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63830137252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67047119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67746543884277</t>
+    <t xml:space="preserve">6.63830184936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67047166824341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67746639251709</t>
   </si>
   <si>
     <t xml:space="preserve">6.70404100418091</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">6.78376722335815</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77537441253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85230588912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82712745666504</t>
+    <t xml:space="preserve">6.77537536621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85230493545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82712888717651</t>
   </si>
   <si>
     <t xml:space="preserve">6.99217653274536</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">7.08449125289917</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11246585845947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2558331489563</t>
+    <t xml:space="preserve">7.11246538162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583457946777</t>
   </si>
   <si>
     <t xml:space="preserve">7.3082857131958</t>
@@ -1430,58 +1430,58 @@
     <t xml:space="preserve">7.14743375778198</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03903388977051</t>
+    <t xml:space="preserve">7.03903293609619</t>
   </si>
   <si>
     <t xml:space="preserve">7.12645292282104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.004065990448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1509313583374</t>
+    <t xml:space="preserve">7.00406646728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15092992782593</t>
   </si>
   <si>
     <t xml:space="preserve">7.18589782714844</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99357557296753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90265941619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95720911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01455545425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96420192718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62851095199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42289876937866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31659650802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35715961456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20749664306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95852613449097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59625816345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37246417999268</t>
+    <t xml:space="preserve">6.99357509613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90265798568726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95720863342285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01455497741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96420240402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62850999832153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4228982925415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31659698486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35715913772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20749759674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95852565765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59625911712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37246513366699</t>
   </si>
   <si>
     <t xml:space="preserve">5.75151634216309</t>
@@ -1490,22 +1490,22 @@
     <t xml:space="preserve">5.64241647720337</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78928089141846</t>
+    <t xml:space="preserve">5.78928136825562</t>
   </si>
   <si>
     <t xml:space="preserve">5.68997240066528</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54450607299805</t>
+    <t xml:space="preserve">5.54450654983521</t>
   </si>
   <si>
     <t xml:space="preserve">5.72214317321777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59346103668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47457075119019</t>
+    <t xml:space="preserve">5.59346151351929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47457027435303</t>
   </si>
   <si>
     <t xml:space="preserve">5.74172496795654</t>
@@ -1523,58 +1523,58 @@
     <t xml:space="preserve">5.6410174369812</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61723947525024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81166172027588</t>
+    <t xml:space="preserve">5.61723899841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81166124343872</t>
   </si>
   <si>
     <t xml:space="preserve">5.75291442871094</t>
   </si>
   <si>
-    <t xml:space="preserve">5.89838075637817</t>
+    <t xml:space="preserve">5.89838171005249</t>
   </si>
   <si>
     <t xml:space="preserve">5.69416904449463</t>
   </si>
   <si>
-    <t xml:space="preserve">5.65780210494995</t>
+    <t xml:space="preserve">5.65780258178711</t>
   </si>
   <si>
     <t xml:space="preserve">5.57108211517334</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53471565246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.568284034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54030990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6074481010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.68297910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75711059570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66619443893433</t>
+    <t xml:space="preserve">5.53471517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56828355789185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54031038284302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60744857788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68297958374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75711107254028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66619491577148</t>
   </si>
   <si>
     <t xml:space="preserve">5.702561378479</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62563133239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.53051900863647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55429697036743</t>
+    <t xml:space="preserve">5.62563180923462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.53051948547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55429744720459</t>
   </si>
   <si>
     <t xml:space="preserve">5.6284294128418</t>
@@ -1583,13 +1583,13 @@
     <t xml:space="preserve">5.64801168441772</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69976377487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6857762336731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71934652328491</t>
+    <t xml:space="preserve">5.69976329803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68577671051025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71934604644775</t>
   </si>
   <si>
     <t xml:space="preserve">5.88719129562378</t>
@@ -1601,13 +1601,13 @@
     <t xml:space="preserve">6.01027822494507</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12077713012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06622743606567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21309280395508</t>
+    <t xml:space="preserve">6.12077665328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06622695922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21309232711792</t>
   </si>
   <si>
     <t xml:space="preserve">6.13616275787354</t>
@@ -1616,25 +1616,25 @@
     <t xml:space="preserve">6.07322025299072</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17252922058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0704231262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15014982223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14595413208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15854215621948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09560012817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9753098487854</t>
+    <t xml:space="preserve">6.17252969741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07042360305786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15014934539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14595317840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15854167938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09559917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97531032562256</t>
   </si>
   <si>
     <t xml:space="preserve">5.81865406036377</t>
@@ -1643,22 +1643,22 @@
     <t xml:space="preserve">5.94174146652222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87600135803223</t>
+    <t xml:space="preserve">5.87600231170654</t>
   </si>
   <si>
     <t xml:space="preserve">5.89418506622314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9906964302063</t>
+    <t xml:space="preserve">5.99069595336914</t>
   </si>
   <si>
     <t xml:space="preserve">5.87040662765503</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80186891555786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80746459960938</t>
+    <t xml:space="preserve">5.80186939239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80746507644653</t>
   </si>
   <si>
     <t xml:space="preserve">5.79627513885498</t>
@@ -1670,67 +1670,67 @@
     <t xml:space="preserve">5.7864842414856</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60604953765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93195009231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12497329711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07182121276855</t>
+    <t xml:space="preserve">5.60605001449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93195056915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1249737739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07182216644287</t>
   </si>
   <si>
     <t xml:space="preserve">6.34037494659424</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3068060874939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33897638320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29701375961304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3137993812561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42150020599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44248151779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50961875915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41590595245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4145073890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36834955215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4872407913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47605085372925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41170978546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01727247238159</t>
+    <t xml:space="preserve">6.30680513381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33897590637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29701519012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31379890441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42150068283081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44248104095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50961971282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41590547561646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41450786590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36834907531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48724031448364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47605037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41170930862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01727151870728</t>
   </si>
   <si>
     <t xml:space="preserve">5.83404016494751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.8606162071228</t>
+    <t xml:space="preserve">5.86061573028564</t>
   </si>
   <si>
     <t xml:space="preserve">5.85222387313843</t>
@@ -1757,10 +1757,10 @@
     <t xml:space="preserve">5.46058320999146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39764070510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3458890914917</t>
+    <t xml:space="preserve">5.3976411819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34588861465454</t>
   </si>
   <si>
     <t xml:space="preserve">5.50953769683838</t>
@@ -1769,37 +1769,37 @@
     <t xml:space="preserve">5.41022968292236</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42281866073608</t>
+    <t xml:space="preserve">5.42281770706177</t>
   </si>
   <si>
     <t xml:space="preserve">5.239586353302</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44100189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29413652420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.44519805908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4591851234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42141914367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54730367660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48436164855957</t>
+    <t xml:space="preserve">5.44100141525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.29413604736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.44519710540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45918464660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42141962051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54730415344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48436117172241</t>
   </si>
   <si>
     <t xml:space="preserve">5.46338081359863</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48715877532959</t>
+    <t xml:space="preserve">5.48715925216675</t>
   </si>
   <si>
     <t xml:space="preserve">5.50254487991333</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">5.49834871292114</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4256157875061</t>
+    <t xml:space="preserve">5.42561531066895</t>
   </si>
   <si>
     <t xml:space="preserve">5.50799036026001</t>
@@ -1826,13 +1826,13 @@
     <t xml:space="preserve">5.46481990814209</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70746946334839</t>
+    <t xml:space="preserve">5.70746898651123</t>
   </si>
   <si>
     <t xml:space="preserve">5.73128747940063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75659418106079</t>
+    <t xml:space="preserve">5.75659465789795</t>
   </si>
   <si>
     <t xml:space="preserve">5.81167459487915</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">5.81018590927124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84740257263184</t>
+    <t xml:space="preserve">5.84740209579468</t>
   </si>
   <si>
     <t xml:space="preserve">5.74170827865601</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">5.58093452453613</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5764684677124</t>
+    <t xml:space="preserve">5.57646894454956</t>
   </si>
   <si>
     <t xml:space="preserve">5.44844484329224</t>
@@ -1862,16 +1862,16 @@
     <t xml:space="preserve">5.42164945602417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60028696060181</t>
+    <t xml:space="preserve">5.60028648376465</t>
   </si>
   <si>
     <t xml:space="preserve">5.62261581420898</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67323064804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58540010452271</t>
+    <t xml:space="preserve">5.67323017120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58540058135986</t>
   </si>
   <si>
     <t xml:space="preserve">5.63452577590942</t>
@@ -1880,22 +1880,22 @@
     <t xml:space="preserve">5.73724222183228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61219549179077</t>
+    <t xml:space="preserve">5.61219596862793</t>
   </si>
   <si>
     <t xml:space="preserve">5.4752402305603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39187622070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49012613296509</t>
+    <t xml:space="preserve">5.39187574386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49012660980225</t>
   </si>
   <si>
     <t xml:space="preserve">5.43653535842896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43206930160522</t>
+    <t xml:space="preserve">5.43206882476807</t>
   </si>
   <si>
     <t xml:space="preserve">5.75510549545288</t>
@@ -1904,37 +1904,37 @@
     <t xml:space="preserve">5.74468517303467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72682094573975</t>
+    <t xml:space="preserve">5.7268214225769</t>
   </si>
   <si>
     <t xml:space="preserve">5.69704818725586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.70002603530884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.77148151397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70895767211914</t>
+    <t xml:space="preserve">5.700026512146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.77148103713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7089581489563</t>
   </si>
   <si>
     <t xml:space="preserve">5.70151424407959</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83251523971558</t>
+    <t xml:space="preserve">5.83251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">5.83995866775513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86377620697021</t>
+    <t xml:space="preserve">5.86377668380737</t>
   </si>
   <si>
     <t xml:space="preserve">5.88015222549438</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86079978942871</t>
+    <t xml:space="preserve">5.86079931259155</t>
   </si>
   <si>
     <t xml:space="preserve">5.86526584625244</t>
@@ -1949,25 +1949,25 @@
     <t xml:space="preserve">5.86228847503662</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81762933731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8295373916626</t>
+    <t xml:space="preserve">5.81762886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.82953786849976</t>
   </si>
   <si>
     <t xml:space="preserve">5.6538782119751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49310445785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.45886564254761</t>
+    <t xml:space="preserve">5.49310398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45886516571045</t>
   </si>
   <si>
     <t xml:space="preserve">5.64345741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76403760910034</t>
+    <t xml:space="preserve">5.76403713226318</t>
   </si>
   <si>
     <t xml:space="preserve">5.76999187469482</t>
@@ -1985,19 +1985,19 @@
     <t xml:space="preserve">5.96947145462036</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1823468208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1972336769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16894960403442</t>
+    <t xml:space="preserve">6.18234729766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19723415374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16894912719727</t>
   </si>
   <si>
     <t xml:space="preserve">6.19127893447876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12875652313232</t>
+    <t xml:space="preserve">6.12875604629517</t>
   </si>
   <si>
     <t xml:space="preserve">6.14513063430786</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">6.38629150390625</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56641721725464</t>
+    <t xml:space="preserve">6.5664176940918</t>
   </si>
   <si>
     <t xml:space="preserve">6.4339280128479</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">6.62447452545166</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51431512832642</t>
+    <t xml:space="preserve">6.51431560516357</t>
   </si>
   <si>
     <t xml:space="preserve">6.44732618331909</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">6.53962230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51729249954224</t>
+    <t xml:space="preserve">6.51729202270508</t>
   </si>
   <si>
     <t xml:space="preserve">6.60958909988403</t>
@@ -2045,31 +2045,31 @@
     <t xml:space="preserve">6.63787317276001</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68997526168823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83288621902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79120349884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66317939758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71230554580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65871381759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59619092941284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64680528640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78376054763794</t>
+    <t xml:space="preserve">6.68997573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83288526535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79120397567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66317987442017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71230506896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65871429443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59619140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64680480957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78376007080078</t>
   </si>
   <si>
     <t xml:space="preserve">6.85819244384766</t>
@@ -2078,13 +2078,13 @@
     <t xml:space="preserve">6.89392042160034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96090984344482</t>
+    <t xml:space="preserve">6.96090936660767</t>
   </si>
   <si>
     <t xml:space="preserve">6.86117029190063</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87754487991333</t>
+    <t xml:space="preserve">6.87754535675049</t>
   </si>
   <si>
     <t xml:space="preserve">6.91773796081543</t>
@@ -2096,34 +2096,34 @@
     <t xml:space="preserve">6.9028525352478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92518091201782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02492046356201</t>
+    <t xml:space="preserve">6.92518138885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02491998672485</t>
   </si>
   <si>
     <t xml:space="preserve">7.08148956298828</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12317180633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15294408798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13210391998291</t>
+    <t xml:space="preserve">7.12317132949829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15294361114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13210344314575</t>
   </si>
   <si>
     <t xml:space="preserve">7.07106924057007</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98770427703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96686315536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00705766677856</t>
+    <t xml:space="preserve">6.98770475387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96686267852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00705671310425</t>
   </si>
   <si>
     <t xml:space="preserve">7.13508081436157</t>
@@ -2132,34 +2132,34 @@
     <t xml:space="preserve">7.03385257720947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07404613494873</t>
+    <t xml:space="preserve">7.07404661178589</t>
   </si>
   <si>
     <t xml:space="preserve">6.85223817825317</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69295167922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77929449081421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62298631668091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47561073303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64233827590942</t>
+    <t xml:space="preserve">6.69295263290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77929401397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62298583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47561025619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64233875274658</t>
   </si>
   <si>
     <t xml:space="preserve">6.60065698623657</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58428144454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47709894180298</t>
+    <t xml:space="preserve">6.5842809677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47709941864014</t>
   </si>
   <si>
     <t xml:space="preserve">6.40117835998535</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">6.42350769042969</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36396265029907</t>
+    <t xml:space="preserve">6.36396217346191</t>
   </si>
   <si>
     <t xml:space="preserve">6.32079076766968</t>
@@ -2186,10 +2186,10 @@
     <t xml:space="preserve">6.12131309509277</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28059864044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24635887145996</t>
+    <t xml:space="preserve">6.28059816360474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24635934829712</t>
   </si>
   <si>
     <t xml:space="preserve">6.27762031555176</t>
@@ -2207,28 +2207,28 @@
     <t xml:space="preserve">6.3788480758667</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34609842300415</t>
+    <t xml:space="preserve">6.34609889984131</t>
   </si>
   <si>
     <t xml:space="preserve">6.3446102142334</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48305368423462</t>
+    <t xml:space="preserve">6.48305320739746</t>
   </si>
   <si>
     <t xml:space="preserve">6.5813045501709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56046342849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61107730865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58874845504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72272539138794</t>
+    <t xml:space="preserve">6.56046390533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61107778549194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58874797821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7227258682251</t>
   </si>
   <si>
     <t xml:space="preserve">6.76738500595093</t>
@@ -2237,76 +2237,76 @@
     <t xml:space="preserve">6.74803256988525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66169118881226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73761224746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91327333450317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05022859573364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01598882675171</t>
+    <t xml:space="preserve">6.6616907119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7376127243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91327238082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05022716522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01598930358887</t>
   </si>
   <si>
     <t xml:space="preserve">6.95346546173096</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93113613128662</t>
+    <t xml:space="preserve">6.93113660812378</t>
   </si>
   <si>
     <t xml:space="preserve">6.99663591384888</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98472738265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99068260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93857860565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01301193237305</t>
+    <t xml:space="preserve">6.98472785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99068307876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93857908248901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.01301145553589</t>
   </si>
   <si>
     <t xml:space="preserve">6.97579526901245</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99365949630737</t>
+    <t xml:space="preserve">6.99365901947021</t>
   </si>
   <si>
     <t xml:space="preserve">6.84777212142944</t>
   </si>
   <si>
-    <t xml:space="preserve">6.88052225112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95644330978394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92964792251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94453382492065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76440811157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73910093307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74952125549316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57683801651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5187816619873</t>
+    <t xml:space="preserve">6.88052272796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95644283294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92964839935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94453430175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76440763473511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73910045623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74952077865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.57683897018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51878118515015</t>
   </si>
   <si>
     <t xml:space="preserve">6.44583749771118</t>
@@ -2315,22 +2315,22 @@
     <t xml:space="preserve">6.49942874908447</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32674598693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31483745574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34758615493774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20021104812622</t>
+    <t xml:space="preserve">6.32674551010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31483697891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3475866317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20021057128906</t>
   </si>
   <si>
     <t xml:space="preserve">6.33270072937012</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38182592391968</t>
+    <t xml:space="preserve">6.38182640075684</t>
   </si>
   <si>
     <t xml:space="preserve">6.47858858108521</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">6.70635080337524</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78822565078735</t>
+    <t xml:space="preserve">6.78822660446167</t>
   </si>
   <si>
     <t xml:space="preserve">7.0293869972229</t>
@@ -2363,31 +2363,31 @@
     <t xml:space="preserve">7.04576206207275</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13359117507935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08000135421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1157283782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18271636962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11424016952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0844669342041</t>
+    <t xml:space="preserve">7.13359260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08000087738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11572790145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18271684646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11423969268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08446645736694</t>
   </si>
   <si>
     <t xml:space="preserve">7.2199330329895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42238998413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36582136154175</t>
+    <t xml:space="preserve">7.4223895072937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36582088470459</t>
   </si>
   <si>
     <t xml:space="preserve">7.37624168395996</t>
@@ -2396,22 +2396,22 @@
     <t xml:space="preserve">7.41792297363281</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52138423919678</t>
+    <t xml:space="preserve">7.52138376235962</t>
   </si>
   <si>
     <t xml:space="preserve">7.42536687850952</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45811700820923</t>
+    <t xml:space="preserve">7.45811653137207</t>
   </si>
   <si>
     <t xml:space="preserve">7.42834377288818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22291088104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31074047088623</t>
+    <t xml:space="preserve">7.22291135787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31074142456055</t>
   </si>
   <si>
     <t xml:space="preserve">7.27799034118652</t>
@@ -2420,19 +2420,19 @@
     <t xml:space="preserve">7.29734325408936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25417232513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26608085632324</t>
+    <t xml:space="preserve">7.25417280197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26608180999756</t>
   </si>
   <si>
     <t xml:space="preserve">7.51022005081177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67769289016724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76328897476196</t>
+    <t xml:space="preserve">7.67769145965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76328992843628</t>
   </si>
   <si>
     <t xml:space="preserve">7.87493753433228</t>
@@ -2441,28 +2441,28 @@
     <t xml:space="preserve">7.90471124649048</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88238048553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86005258560181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93448305130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0126371383667</t>
+    <t xml:space="preserve">7.88238000869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86005210876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93448352813721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01263809204102</t>
   </si>
   <si>
     <t xml:space="preserve">8.07218360900879</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06474018096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09451198577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94564914703369</t>
+    <t xml:space="preserve">8.06474113464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09451293945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94564867019653</t>
   </si>
   <si>
     <t xml:space="preserve">7.92704010009766</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">7.99030733108521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16150283813477</t>
+    <t xml:space="preserve">8.16150188446045</t>
   </si>
   <si>
     <t xml:space="preserve">8.10939979553223</t>
@@ -2480,25 +2480,25 @@
     <t xml:space="preserve">8.02380180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76701164245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92332029342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85260772705078</t>
+    <t xml:space="preserve">7.76701211929321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92331886291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8526086807251</t>
   </si>
   <si>
     <t xml:space="preserve">8.02844429016113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99729633331299</t>
+    <t xml:space="preserve">7.9972972869873</t>
   </si>
   <si>
     <t xml:space="preserve">7.97393465042114</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03623104095459</t>
+    <t xml:space="preserve">8.03623199462891</t>
   </si>
   <si>
     <t xml:space="preserve">8.00508308410645</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">8.04012489318848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90385103225708</t>
+    <t xml:space="preserve">7.9038519859314</t>
   </si>
   <si>
     <t xml:space="preserve">7.82987403869629</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">7.78704595565796</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85323572158813</t>
+    <t xml:space="preserve">7.85323476791382</t>
   </si>
   <si>
     <t xml:space="preserve">7.82208728790283</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">7.7169623374939</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87270259857178</t>
+    <t xml:space="preserve">7.87270355224609</t>
   </si>
   <si>
     <t xml:space="preserve">7.88438320159912</t>
@@ -2552,19 +2552,19 @@
     <t xml:space="preserve">7.7792592048645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70917463302612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64220666885376</t>
+    <t xml:space="preserve">7.70917510986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64220571517944</t>
   </si>
   <si>
     <t xml:space="preserve">7.72007751464844</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64999437332153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67179727554321</t>
+    <t xml:space="preserve">7.64999389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67179822921753</t>
   </si>
   <si>
     <t xml:space="preserve">7.74188089370728</t>
@@ -2579,13 +2579,13 @@
     <t xml:space="preserve">7.66556739807129</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66712474822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56589317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64376306533813</t>
+    <t xml:space="preserve">7.6671257019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56589269638062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64376401901245</t>
   </si>
   <si>
     <t xml:space="preserve">7.592369556427</t>
@@ -2603,10 +2603,10 @@
     <t xml:space="preserve">7.4085955619812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44597387313843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23260879516602</t>
+    <t xml:space="preserve">7.44597291946411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23260831832886</t>
   </si>
   <si>
     <t xml:space="preserve">7.45998954772949</t>
@@ -2615,28 +2615,28 @@
     <t xml:space="preserve">7.40392303466797</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21080446243286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01768589019775</t>
+    <t xml:space="preserve">7.21080493927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0176854133606</t>
   </si>
   <si>
     <t xml:space="preserve">7.17498397827148</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26687097549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45375919342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33539628982544</t>
+    <t xml:space="preserve">7.26687049865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45375967025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3353967666626</t>
   </si>
   <si>
     <t xml:space="preserve">7.47867870330811</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51917123794556</t>
+    <t xml:space="preserve">7.51917219161987</t>
   </si>
   <si>
     <t xml:space="preserve">7.5394172668457</t>
@@ -2645,16 +2645,16 @@
     <t xml:space="preserve">7.54097557067871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48023653030396</t>
+    <t xml:space="preserve">7.4802360534668</t>
   </si>
   <si>
     <t xml:space="preserve">7.50982713699341</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46777725219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32916688919067</t>
+    <t xml:space="preserve">7.46777629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32916736602783</t>
   </si>
   <si>
     <t xml:space="preserve">6.88997745513916</t>
@@ -2672,16 +2672,16 @@
     <t xml:space="preserve">6.37759017944336</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15332317352295</t>
+    <t xml:space="preserve">6.15332365036011</t>
   </si>
   <si>
     <t xml:space="preserve">6.09725666046143</t>
   </si>
   <si>
-    <t xml:space="preserve">6.01782941818237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.76552820205688</t>
+    <t xml:space="preserve">6.01782894134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76552867889404</t>
   </si>
   <si>
     <t xml:space="preserve">5.64249324798584</t>
@@ -2693,7 +2693,7 @@
     <t xml:space="preserve">4.49779796600342</t>
   </si>
   <si>
-    <t xml:space="preserve">4.62550497055054</t>
+    <t xml:space="preserve">4.6255054473877</t>
   </si>
   <si>
     <t xml:space="preserve">3.76114273071289</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">3.5649094581604</t>
   </si>
   <si>
-    <t xml:space="preserve">3.47613716125488</t>
+    <t xml:space="preserve">3.47613739967346</t>
   </si>
   <si>
     <t xml:space="preserve">3.27445268630981</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">3.3118302822113</t>
   </si>
   <si>
-    <t xml:space="preserve">3.39203691482544</t>
+    <t xml:space="preserve">3.39203715324402</t>
   </si>
   <si>
     <t xml:space="preserve">3.86393213272095</t>
@@ -2726,13 +2726,13 @@
     <t xml:space="preserve">4.16918420791626</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28287553787231</t>
+    <t xml:space="preserve">4.28287506103516</t>
   </si>
   <si>
     <t xml:space="preserve">4.01967287063599</t>
   </si>
   <si>
-    <t xml:space="preserve">3.8740553855896</t>
+    <t xml:space="preserve">3.87405490875244</t>
   </si>
   <si>
     <t xml:space="preserve">3.91532635688782</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">3.95737648010254</t>
   </si>
   <si>
-    <t xml:space="preserve">4.24082565307617</t>
+    <t xml:space="preserve">4.24082517623901</t>
   </si>
   <si>
     <t xml:space="preserve">4.32648277282715</t>
@@ -2762,10 +2762,10 @@
     <t xml:space="preserve">4.13492155075073</t>
   </si>
   <si>
-    <t xml:space="preserve">3.82266068458557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89508008956909</t>
+    <t xml:space="preserve">3.82266116142273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89507961273193</t>
   </si>
   <si>
     <t xml:space="preserve">3.94336009025574</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">3.99319696426392</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08352613449097</t>
+    <t xml:space="preserve">4.08352661132812</t>
   </si>
   <si>
     <t xml:space="preserve">4.22369337081909</t>
@@ -2792,10 +2792,10 @@
     <t xml:space="preserve">4.11778926849365</t>
   </si>
   <si>
-    <t xml:space="preserve">4.05705118179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.02123022079468</t>
+    <t xml:space="preserve">4.05705070495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02123069763184</t>
   </si>
   <si>
     <t xml:space="preserve">4.01344347000122</t>
@@ -2807,10 +2807,10 @@
     <t xml:space="preserve">4.04614877700806</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18164348602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11467456817627</t>
+    <t xml:space="preserve">4.18164396286011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.11467504501343</t>
   </si>
   <si>
     <t xml:space="preserve">3.93245840072632</t>
@@ -2822,16 +2822,16 @@
     <t xml:space="preserve">4.06795310974121</t>
   </si>
   <si>
-    <t xml:space="preserve">4.00409936904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94803261756897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0274600982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04147672653198</t>
+    <t xml:space="preserve">4.00409889221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.94803214073181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.02746057510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04147624969482</t>
   </si>
   <si>
     <t xml:space="preserve">4.27041625976562</t>
@@ -2840,7 +2840,7 @@
     <t xml:space="preserve">4.44484567642212</t>
   </si>
   <si>
-    <t xml:space="preserve">4.61148881912231</t>
+    <t xml:space="preserve">4.61148834228516</t>
   </si>
   <si>
     <t xml:space="preserve">4.54451990127563</t>
@@ -2867,7 +2867,7 @@
     <t xml:space="preserve">5.52412986755371</t>
   </si>
   <si>
-    <t xml:space="preserve">5.42445659637451</t>
+    <t xml:space="preserve">5.42445611953735</t>
   </si>
   <si>
     <t xml:space="preserve">5.19395971298218</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">5.58642625808716</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46806383132935</t>
+    <t xml:space="preserve">5.46806335449219</t>
   </si>
   <si>
     <t xml:space="preserve">5.31076526641846</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">4.97592210769653</t>
   </si>
   <si>
-    <t xml:space="preserve">5.03510427474976</t>
+    <t xml:space="preserve">5.0351037979126</t>
   </si>
   <si>
     <t xml:space="preserve">5.25314044952393</t>
@@ -2921,13 +2921,13 @@
     <t xml:space="preserve">5.23600959777832</t>
   </si>
   <si>
-    <t xml:space="preserve">5.25937080383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26560020446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21109056472778</t>
+    <t xml:space="preserve">5.25937032699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26560068130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.21109104156494</t>
   </si>
   <si>
     <t xml:space="preserve">5.12231874465942</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">5.60823059082031</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61134481430054</t>
+    <t xml:space="preserve">5.6113452911377</t>
   </si>
   <si>
     <t xml:space="preserve">5.67675590515137</t>
@@ -2963,7 +2963,7 @@
     <t xml:space="preserve">5.57863903045654</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51322841644287</t>
+    <t xml:space="preserve">5.51322889328003</t>
   </si>
   <si>
     <t xml:space="preserve">5.47429323196411</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">5.05379199981689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13945007324219</t>
+    <t xml:space="preserve">5.13944959640503</t>
   </si>
   <si>
     <t xml:space="preserve">5.28273153305054</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">5.31543779373169</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63003444671631</t>
+    <t xml:space="preserve">5.63003396987915</t>
   </si>
   <si>
     <t xml:space="preserve">5.64560794830322</t>
@@ -3005,19 +3005,19 @@
     <t xml:space="preserve">5.65339517593384</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55527830123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46183347702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60200023651123</t>
+    <t xml:space="preserve">5.55527782440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46183395385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60200071334839</t>
   </si>
   <si>
     <t xml:space="preserve">5.4758505821228</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44314479827881</t>
+    <t xml:space="preserve">5.44314432144165</t>
   </si>
   <si>
     <t xml:space="preserve">5.60355806350708</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">5.63470649719238</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81380891799927</t>
+    <t xml:space="preserve">5.81380844116211</t>
   </si>
   <si>
     <t xml:space="preserve">5.84962892532349</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">5.28740358352661</t>
   </si>
   <si>
-    <t xml:space="preserve">5.20641899108887</t>
+    <t xml:space="preserve">5.20641851425171</t>
   </si>
   <si>
     <t xml:space="preserve">5.21576309204102</t>
@@ -3101,19 +3101,19 @@
     <t xml:space="preserve">5.43380069732666</t>
   </si>
   <si>
-    <t xml:space="preserve">5.56306600570679</t>
+    <t xml:space="preserve">5.56306552886963</t>
   </si>
   <si>
     <t xml:space="preserve">5.43068552017212</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64405059814453</t>
+    <t xml:space="preserve">5.64405107498169</t>
   </si>
   <si>
     <t xml:space="preserve">5.58798408508301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55683565139771</t>
+    <t xml:space="preserve">5.55683612823486</t>
   </si>
   <si>
     <t xml:space="preserve">5.35125780105591</t>
@@ -3128,16 +3128,16 @@
     <t xml:space="preserve">5.17059803009033</t>
   </si>
   <si>
-    <t xml:space="preserve">5.12543296813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17838525772095</t>
+    <t xml:space="preserve">5.12543344497681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.17838573455811</t>
   </si>
   <si>
     <t xml:space="preserve">5.06157970428467</t>
   </si>
   <si>
-    <t xml:space="preserve">5.06780958175659</t>
+    <t xml:space="preserve">5.06780910491943</t>
   </si>
   <si>
     <t xml:space="preserve">5.11453151702881</t>
@@ -3164,10 +3164,10 @@
     <t xml:space="preserve">5.18617248535156</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66896915435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54904842376709</t>
+    <t xml:space="preserve">5.66896963119507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54904890060425</t>
   </si>
   <si>
     <t xml:space="preserve">5.55839347839355</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">5.97577857971191</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88856410980225</t>
+    <t xml:space="preserve">5.88856363296509</t>
   </si>
   <si>
     <t xml:space="preserve">5.96331977844238</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">5.87143230438232</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11750364303589</t>
+    <t xml:space="preserve">6.11750316619873</t>
   </si>
   <si>
     <t xml:space="preserve">6.14242172241211</t>
@@ -3209,10 +3209,10 @@
     <t xml:space="preserve">5.83561229705811</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9181547164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98200845718384</t>
+    <t xml:space="preserve">5.91815423965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.982008934021</t>
   </si>
   <si>
     <t xml:space="preserve">5.9072527885437</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">5.86987543106079</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84651374816895</t>
+    <t xml:space="preserve">5.84651327133179</t>
   </si>
   <si>
     <t xml:space="preserve">5.71257638931274</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">5.84028434753418</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81692266464233</t>
+    <t xml:space="preserve">5.81692314147949</t>
   </si>
   <si>
     <t xml:space="preserve">5.74684000015259</t>
@@ -3290,10 +3290,10 @@
     <t xml:space="preserve">5.76708602905273</t>
   </si>
   <si>
-    <t xml:space="preserve">5.77175855636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81848049163818</t>
+    <t xml:space="preserve">5.77175807952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81848096847534</t>
   </si>
   <si>
     <t xml:space="preserve">5.72036409378052</t>
@@ -3305,13 +3305,13 @@
     <t xml:space="preserve">5.73438024520874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88544893264771</t>
+    <t xml:space="preserve">5.88544940948486</t>
   </si>
   <si>
     <t xml:space="preserve">6.11906051635742</t>
   </si>
   <si>
-    <t xml:space="preserve">6.299720287323</t>
+    <t xml:space="preserve">6.29971981048584</t>
   </si>
   <si>
     <t xml:space="preserve">6.38537740707397</t>
@@ -3323,28 +3323,28 @@
     <t xml:space="preserve">6.65325117111206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85260057449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94760179519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91956853866577</t>
+    <t xml:space="preserve">6.85260009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94760227203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91956806182861</t>
   </si>
   <si>
     <t xml:space="preserve">7.03948926925659</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98030710220337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02547311782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98809432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07063722610474</t>
+    <t xml:space="preserve">6.98030757904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02547359466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98809480667114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07063770294189</t>
   </si>
   <si>
     <t xml:space="preserve">7.06285047531128</t>
@@ -3368,13 +3368,13 @@
     <t xml:space="preserve">6.87128925323486</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96940565109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05973529815674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18121337890625</t>
+    <t xml:space="preserve">6.96940517425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0597357749939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18121385574341</t>
   </si>
   <si>
     <t xml:space="preserve">7.19211578369141</t>
@@ -3386,22 +3386,22 @@
     <t xml:space="preserve">7.31514978408813</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33072519302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36965942382812</t>
+    <t xml:space="preserve">7.33072423934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36965990066528</t>
   </si>
   <si>
     <t xml:space="preserve">7.49581050872803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57523822784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57835292816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3462986946106</t>
+    <t xml:space="preserve">7.57523727416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57835340499878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34629821777344</t>
   </si>
   <si>
     <t xml:space="preserve">7.30424833297729</t>
@@ -3410,31 +3410,31 @@
     <t xml:space="preserve">7.23883724212646</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36810255050659</t>
+    <t xml:space="preserve">7.36810302734375</t>
   </si>
   <si>
     <t xml:space="preserve">7.37433195114136</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38990592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41015243530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51294136047363</t>
+    <t xml:space="preserve">7.38990688323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41015195846558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51294040679932</t>
   </si>
   <si>
     <t xml:space="preserve">7.36343097686768</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31359386444092</t>
+    <t xml:space="preserve">7.31359434127808</t>
   </si>
   <si>
     <t xml:space="preserve">7.32605266571045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23105049133301</t>
+    <t xml:space="preserve">7.23105144500732</t>
   </si>
   <si>
     <t xml:space="preserve">7.26842832565308</t>
@@ -3443,37 +3443,37 @@
     <t xml:space="preserve">7.28088760375977</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27154397964478</t>
+    <t xml:space="preserve">7.27154350280762</t>
   </si>
   <si>
     <t xml:space="preserve">7.24662494659424</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31670808792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31203651428223</t>
+    <t xml:space="preserve">7.31670761108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31203603744507</t>
   </si>
   <si>
     <t xml:space="preserve">7.16408205032349</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09244155883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1095724105835</t>
+    <t xml:space="preserve">7.09244108200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10957288742065</t>
   </si>
   <si>
     <t xml:space="preserve">7.09711360931396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29957628250122</t>
+    <t xml:space="preserve">7.29957675933838</t>
   </si>
   <si>
     <t xml:space="preserve">7.26998567581177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29023218154907</t>
+    <t xml:space="preserve">7.29023265838623</t>
   </si>
   <si>
     <t xml:space="preserve">7.32138109207153</t>
@@ -3488,7 +3488,7 @@
     <t xml:space="preserve">7.3774471282959</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41793966293335</t>
+    <t xml:space="preserve">7.41793918609619</t>
   </si>
   <si>
     <t xml:space="preserve">7.51761388778687</t>
@@ -3500,22 +3500,22 @@
     <t xml:space="preserve">7.4895806312561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56433534622192</t>
+    <t xml:space="preserve">7.56433629989624</t>
   </si>
   <si>
     <t xml:space="preserve">7.61728811264038</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68581485748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53786039352417</t>
+    <t xml:space="preserve">7.68581390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53786134719849</t>
   </si>
   <si>
     <t xml:space="preserve">7.54564714431763</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53163146972656</t>
+    <t xml:space="preserve">7.53163051605225</t>
   </si>
   <si>
     <t xml:space="preserve">7.56122159957886</t>
@@ -3536,13 +3536,13 @@
     <t xml:space="preserve">7.76368427276611</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7987265586853</t>
+    <t xml:space="preserve">7.79872751235962</t>
   </si>
   <si>
     <t xml:space="preserve">7.79483270645142</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7481107711792</t>
+    <t xml:space="preserve">7.74810981750488</t>
   </si>
   <si>
     <t xml:space="preserve">7.76056909561157</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">7.72319173812866</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7263069152832</t>
+    <t xml:space="preserve">7.72630643844604</t>
   </si>
   <si>
     <t xml:space="preserve">7.63909244537354</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">7.66245317459106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71228981018066</t>
+    <t xml:space="preserve">7.71229076385498</t>
   </si>
   <si>
     <t xml:space="preserve">7.77458667755127</t>
@@ -3578,25 +3578,25 @@
     <t xml:space="preserve">7.76835680007935</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68892812728882</t>
+    <t xml:space="preserve">7.68892908096313</t>
   </si>
   <si>
     <t xml:space="preserve">7.67024087905884</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68114233016968</t>
+    <t xml:space="preserve">7.68114137649536</t>
   </si>
   <si>
     <t xml:space="preserve">7.67491245269775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86102199554443</t>
+    <t xml:space="preserve">7.86102247238159</t>
   </si>
   <si>
     <t xml:space="preserve">7.62507486343384</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6344199180603</t>
+    <t xml:space="preserve">7.63441896438599</t>
   </si>
   <si>
     <t xml:space="preserve">7.39302206039429</t>
@@ -3608,7 +3608,7 @@
     <t xml:space="preserve">7.67646980285645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69360065460205</t>
+    <t xml:space="preserve">7.69360160827637</t>
   </si>
   <si>
     <t xml:space="preserve">7.62974834442139</t>
@@ -3635,19 +3635,19 @@
     <t xml:space="preserve">7.78237342834473</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73253583908081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69827318191528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61573076248169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69983100891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77770090103149</t>
+    <t xml:space="preserve">7.73253679275513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6982741355896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61572980880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69983053207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77770185470581</t>
   </si>
   <si>
     <t xml:space="preserve">7.79093885421753</t>
@@ -3656,7 +3656,7 @@
     <t xml:space="preserve">7.67802667617798</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77147150039673</t>
+    <t xml:space="preserve">7.77147054672241</t>
   </si>
   <si>
     <t xml:space="preserve">7.76679944992065</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">7.65778064727783</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52384281158447</t>
+    <t xml:space="preserve">7.52384376525879</t>
   </si>
   <si>
     <t xml:space="preserve">7.57991075515747</t>
@@ -3680,10 +3680,10 @@
     <t xml:space="preserve">7.74343824386597</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77302837371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59704160690308</t>
+    <t xml:space="preserve">7.77302932739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59704113006592</t>
   </si>
   <si>
     <t xml:space="preserve">7.74032306671143</t>
@@ -3692,10 +3692,10 @@
     <t xml:space="preserve">7.86491680145264</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9856162071228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83376884460449</t>
+    <t xml:space="preserve">7.98561573028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83376836776733</t>
   </si>
   <si>
     <t xml:space="preserve">8.04791164398193</t>
@@ -3707,19 +3707,19 @@
     <t xml:space="preserve">8.20754623413086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10242080688477</t>
+    <t xml:space="preserve">8.10242176055908</t>
   </si>
   <si>
     <t xml:space="preserve">8.26205539703369</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01286888122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95836114883423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70450353622437</t>
+    <t xml:space="preserve">8.0128698348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95836019515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70450258255005</t>
   </si>
   <si>
     <t xml:space="preserve">7.88049030303955</t>
@@ -3737,22 +3737,22 @@
     <t xml:space="preserve">8.09463500976562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12188816070557</t>
+    <t xml:space="preserve">8.12188911437988</t>
   </si>
   <si>
     <t xml:space="preserve">8.07127285003662</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03233814239502</t>
+    <t xml:space="preserve">8.0323371887207</t>
   </si>
   <si>
     <t xml:space="preserve">8.16082382202148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19197177886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29709625244141</t>
+    <t xml:space="preserve">8.19197273254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29709720611572</t>
   </si>
   <si>
     <t xml:space="preserve">8.29320335388184</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">8.43336963653564</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44115829467773</t>
+    <t xml:space="preserve">8.44115734100342</t>
   </si>
   <si>
     <t xml:space="preserve">8.41390323638916</t>
@@ -3782,10 +3782,10 @@
     <t xml:space="preserve">8.32045841217041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27373600006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22312164306641</t>
+    <t xml:space="preserve">8.27373695373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22312068939209</t>
   </si>
   <si>
     <t xml:space="preserve">8.43908023834229</t>
@@ -4061,9 +4061,6 @@
     <t xml:space="preserve">7.6666054725647</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64999389648438</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.88256692886353</t>
   </si>
   <si>
@@ -4094,9 +4091,6 @@
     <t xml:space="preserve">8.24305534362793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22312068939209</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.23308753967285</t>
   </si>
   <si>
@@ -5589,6 +5583,9 @@
   </si>
   <si>
     <t xml:space="preserve">14.3500003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3850002288818</t>
   </si>
 </sst>
 </file>
@@ -47678,7 +47675,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1606" t="s">
-        <v>1349</v>
+        <v>849</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -47704,7 +47701,7 @@
         <v>9.48999977111816</v>
       </c>
       <c r="G1607" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -47730,7 +47727,7 @@
         <v>9.48799991607666</v>
       </c>
       <c r="G1608" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -47756,7 +47753,7 @@
         <v>9.61200046539307</v>
       </c>
       <c r="G1609" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -47808,7 +47805,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1611" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -47834,7 +47831,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1612" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -47886,7 +47883,7 @@
         <v>9.64799976348877</v>
       </c>
       <c r="G1614" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -47912,7 +47909,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G1615" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -47938,7 +47935,7 @@
         <v>9.77799987792969</v>
       </c>
       <c r="G1616" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -47990,7 +47987,7 @@
         <v>9.70400047302246</v>
       </c>
       <c r="G1618" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -48016,7 +48013,7 @@
         <v>9.92399978637695</v>
       </c>
       <c r="G1619" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -48042,7 +48039,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G1620" t="s">
-        <v>1360</v>
+        <v>1257</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -48068,7 +48065,7 @@
         <v>9.91199970245361</v>
       </c>
       <c r="G1621" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -48094,7 +48091,7 @@
         <v>9.67199993133545</v>
       </c>
       <c r="G1622" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -48120,7 +48117,7 @@
         <v>9.57199954986572</v>
       </c>
       <c r="G1623" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -48146,7 +48143,7 @@
         <v>9.5</v>
       </c>
       <c r="G1624" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -48172,7 +48169,7 @@
         <v>9.55799961090088</v>
       </c>
       <c r="G1625" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -48198,7 +48195,7 @@
         <v>9.33600044250488</v>
       </c>
       <c r="G1626" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -48224,7 +48221,7 @@
         <v>9.4379997253418</v>
       </c>
       <c r="G1627" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -48276,7 +48273,7 @@
         <v>9.52799987792969</v>
       </c>
       <c r="G1629" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -48302,7 +48299,7 @@
         <v>9.60200023651123</v>
       </c>
       <c r="G1630" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -48328,7 +48325,7 @@
         <v>9.55399990081787</v>
       </c>
       <c r="G1631" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -48354,7 +48351,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1632" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -48380,7 +48377,7 @@
         <v>9.53999996185303</v>
       </c>
       <c r="G1633" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -48406,7 +48403,7 @@
         <v>9.5</v>
       </c>
       <c r="G1634" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -48432,7 +48429,7 @@
         <v>9.68599987030029</v>
       </c>
       <c r="G1635" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -48458,7 +48455,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1636" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -48484,7 +48481,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G1637" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -48510,7 +48507,7 @@
         <v>9.65200042724609</v>
       </c>
       <c r="G1638" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -48536,7 +48533,7 @@
         <v>9.01599979400635</v>
       </c>
       <c r="G1639" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -48562,7 +48559,7 @@
         <v>8.87600040435791</v>
       </c>
       <c r="G1640" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -48588,7 +48585,7 @@
         <v>8.95800018310547</v>
       </c>
       <c r="G1641" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -48614,7 +48611,7 @@
         <v>8.93599987030029</v>
       </c>
       <c r="G1642" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -48640,7 +48637,7 @@
         <v>8.52400016784668</v>
       </c>
       <c r="G1643" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -48666,7 +48663,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1644" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -48692,7 +48689,7 @@
         <v>8.59000015258789</v>
       </c>
       <c r="G1645" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -48718,7 +48715,7 @@
         <v>8.67000007629395</v>
       </c>
       <c r="G1646" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -48744,7 +48741,7 @@
         <v>8.63799953460693</v>
       </c>
       <c r="G1647" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -48770,7 +48767,7 @@
         <v>8.44400024414062</v>
       </c>
       <c r="G1648" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -48796,7 +48793,7 @@
         <v>8.62800025939941</v>
       </c>
       <c r="G1649" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -48822,7 +48819,7 @@
         <v>8.44200038909912</v>
       </c>
       <c r="G1650" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -48848,7 +48845,7 @@
         <v>8.54599952697754</v>
       </c>
       <c r="G1651" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -48874,7 +48871,7 @@
         <v>8.48799991607666</v>
       </c>
       <c r="G1652" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -48900,7 +48897,7 @@
         <v>8.25800037384033</v>
       </c>
       <c r="G1653" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -48926,7 +48923,7 @@
         <v>8.2519998550415</v>
       </c>
       <c r="G1654" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -48952,7 +48949,7 @@
         <v>8.21199989318848</v>
       </c>
       <c r="G1655" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -48978,7 +48975,7 @@
         <v>8.01200008392334</v>
       </c>
       <c r="G1656" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -49004,7 +49001,7 @@
         <v>8.13000011444092</v>
       </c>
       <c r="G1657" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -49030,7 +49027,7 @@
         <v>8.30200004577637</v>
       </c>
       <c r="G1658" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -49056,7 +49053,7 @@
         <v>8.42800045013428</v>
       </c>
       <c r="G1659" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -49082,7 +49079,7 @@
         <v>8.3439998626709</v>
       </c>
       <c r="G1660" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -49108,7 +49105,7 @@
         <v>8.24400043487549</v>
       </c>
       <c r="G1661" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -49134,7 +49131,7 @@
         <v>8.17399978637695</v>
       </c>
       <c r="G1662" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -49160,7 +49157,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1663" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -49186,7 +49183,7 @@
         <v>7.78399991989136</v>
       </c>
       <c r="G1664" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -49212,7 +49209,7 @@
         <v>7.97200012207031</v>
       </c>
       <c r="G1665" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -49238,7 +49235,7 @@
         <v>8.14200019836426</v>
       </c>
       <c r="G1666" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -49264,7 +49261,7 @@
         <v>8.04800033569336</v>
       </c>
       <c r="G1667" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -49290,7 +49287,7 @@
         <v>7.9980001449585</v>
       </c>
       <c r="G1668" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -49316,7 +49313,7 @@
         <v>8.0319995880127</v>
       </c>
       <c r="G1669" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -49342,7 +49339,7 @@
         <v>8.04800033569336</v>
       </c>
       <c r="G1670" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -49368,7 +49365,7 @@
         <v>7.94399976730347</v>
       </c>
       <c r="G1671" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -49394,7 +49391,7 @@
         <v>8.02200031280518</v>
       </c>
       <c r="G1672" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -49420,7 +49417,7 @@
         <v>8.17199993133545</v>
       </c>
       <c r="G1673" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -49446,7 +49443,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G1674" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -49472,7 +49469,7 @@
         <v>8.41600036621094</v>
       </c>
       <c r="G1675" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -49498,7 +49495,7 @@
         <v>8.42199993133545</v>
       </c>
       <c r="G1676" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -49524,7 +49521,7 @@
         <v>8.48200035095215</v>
       </c>
       <c r="G1677" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -49550,7 +49547,7 @@
         <v>8.54800033569336</v>
       </c>
       <c r="G1678" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -49576,7 +49573,7 @@
         <v>8.61600017547607</v>
       </c>
       <c r="G1679" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -49602,7 +49599,7 @@
         <v>8.55200004577637</v>
       </c>
       <c r="G1680" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -49628,7 +49625,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -49654,7 +49651,7 @@
         <v>8.5620002746582</v>
       </c>
       <c r="G1682" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -49680,7 +49677,7 @@
         <v>8.64599990844727</v>
       </c>
       <c r="G1683" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49706,7 +49703,7 @@
         <v>8.70400047302246</v>
       </c>
       <c r="G1684" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49732,7 +49729,7 @@
         <v>8.71399974822998</v>
       </c>
       <c r="G1685" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49758,7 +49755,7 @@
         <v>8.64200019836426</v>
       </c>
       <c r="G1686" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -49784,7 +49781,7 @@
         <v>8.60799980163574</v>
       </c>
       <c r="G1687" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -49810,7 +49807,7 @@
         <v>8.28800010681152</v>
       </c>
       <c r="G1688" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -49836,7 +49833,7 @@
         <v>8.06599998474121</v>
       </c>
       <c r="G1689" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -49862,7 +49859,7 @@
         <v>8.12800025939941</v>
       </c>
       <c r="G1690" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -49888,7 +49885,7 @@
         <v>8.09200000762939</v>
       </c>
       <c r="G1691" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49914,7 +49911,7 @@
         <v>8.04599952697754</v>
       </c>
       <c r="G1692" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49940,7 +49937,7 @@
         <v>7.93200016021729</v>
       </c>
       <c r="G1693" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49966,7 +49963,7 @@
         <v>7.91200017929077</v>
       </c>
       <c r="G1694" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49992,7 +49989,7 @@
         <v>7.98799991607666</v>
       </c>
       <c r="G1695" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -50018,7 +50015,7 @@
         <v>7.90799999237061</v>
       </c>
       <c r="G1696" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -50044,7 +50041,7 @@
         <v>7.81400012969971</v>
       </c>
       <c r="G1697" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -50070,7 +50067,7 @@
         <v>8.11200046539307</v>
       </c>
       <c r="G1698" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -50096,7 +50093,7 @@
         <v>7.98600006103516</v>
       </c>
       <c r="G1699" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -50122,7 +50119,7 @@
         <v>7.96400022506714</v>
       </c>
       <c r="G1700" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -50148,7 +50145,7 @@
         <v>8.00800037384033</v>
       </c>
       <c r="G1701" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -50174,7 +50171,7 @@
         <v>8.08199977874756</v>
       </c>
       <c r="G1702" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -50200,7 +50197,7 @@
         <v>8.2819995880127</v>
       </c>
       <c r="G1703" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -50226,7 +50223,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1704" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -50252,7 +50249,7 @@
         <v>8.4680004119873</v>
       </c>
       <c r="G1705" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -50278,7 +50275,7 @@
         <v>8.55399990081787</v>
       </c>
       <c r="G1706" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -50304,7 +50301,7 @@
         <v>8.52799987792969</v>
       </c>
       <c r="G1707" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -50330,7 +50327,7 @@
         <v>8.45600032806396</v>
       </c>
       <c r="G1708" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -50356,7 +50353,7 @@
         <v>8.4980001449585</v>
       </c>
       <c r="G1709" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -50382,7 +50379,7 @@
         <v>8.19600009918213</v>
       </c>
       <c r="G1710" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -50408,7 +50405,7 @@
         <v>8.33399963378906</v>
       </c>
       <c r="G1711" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -50434,7 +50431,7 @@
         <v>8.27999973297119</v>
       </c>
       <c r="G1712" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -50460,7 +50457,7 @@
         <v>7.93200016021729</v>
       </c>
       <c r="G1713" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -50486,7 +50483,7 @@
         <v>7.98199987411499</v>
       </c>
       <c r="G1714" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -50512,7 +50509,7 @@
         <v>7.83400011062622</v>
       </c>
       <c r="G1715" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50538,7 +50535,7 @@
         <v>7.75600004196167</v>
       </c>
       <c r="G1716" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50564,7 +50561,7 @@
         <v>7.61199998855591</v>
       </c>
       <c r="G1717" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50590,7 +50587,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G1718" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50616,7 +50613,7 @@
         <v>8.28800010681152</v>
       </c>
       <c r="G1719" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50642,7 +50639,7 @@
         <v>8.47200012207031</v>
       </c>
       <c r="G1720" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50668,7 +50665,7 @@
         <v>8.33199977874756</v>
       </c>
       <c r="G1721" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50694,7 +50691,7 @@
         <v>8.01399993896484</v>
       </c>
       <c r="G1722" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50720,7 +50717,7 @@
         <v>7.96600008010864</v>
       </c>
       <c r="G1723" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50746,7 +50743,7 @@
         <v>7.94799995422363</v>
       </c>
       <c r="G1724" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -50772,7 +50769,7 @@
         <v>7.90799999237061</v>
       </c>
       <c r="G1725" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50798,7 +50795,7 @@
         <v>7.84200000762939</v>
       </c>
       <c r="G1726" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50824,7 +50821,7 @@
         <v>8.01399993896484</v>
       </c>
       <c r="G1727" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50850,7 +50847,7 @@
         <v>8.07800006866455</v>
       </c>
       <c r="G1728" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50876,7 +50873,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1729" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50902,7 +50899,7 @@
         <v>8.38399982452393</v>
       </c>
       <c r="G1730" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50928,7 +50925,7 @@
         <v>8.41600036621094</v>
       </c>
       <c r="G1731" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50980,7 +50977,7 @@
         <v>8.58600044250488</v>
       </c>
       <c r="G1733" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -51006,7 +51003,7 @@
         <v>8.81400012969971</v>
       </c>
       <c r="G1734" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -51032,7 +51029,7 @@
         <v>8.80599975585938</v>
       </c>
       <c r="G1735" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -51058,7 +51055,7 @@
         <v>8.81599998474121</v>
       </c>
       <c r="G1736" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -51084,7 +51081,7 @@
         <v>9.09000015258789</v>
       </c>
       <c r="G1737" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -51110,7 +51107,7 @@
         <v>9.13199996948242</v>
       </c>
       <c r="G1738" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -51136,7 +51133,7 @@
         <v>9.17199993133545</v>
       </c>
       <c r="G1739" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -51162,7 +51159,7 @@
         <v>9.12399959564209</v>
       </c>
       <c r="G1740" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -51188,7 +51185,7 @@
         <v>9.24400043487549</v>
       </c>
       <c r="G1741" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -51214,7 +51211,7 @@
         <v>9.19600009918213</v>
       </c>
       <c r="G1742" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -51240,7 +51237,7 @@
         <v>9.39799976348877</v>
       </c>
       <c r="G1743" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -51266,7 +51263,7 @@
         <v>9.63199996948242</v>
       </c>
       <c r="G1744" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -51292,7 +51289,7 @@
         <v>9.67800045013428</v>
       </c>
       <c r="G1745" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -51318,7 +51315,7 @@
         <v>9.74400043487549</v>
       </c>
       <c r="G1746" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -51344,7 +51341,7 @@
         <v>9.81400012969971</v>
       </c>
       <c r="G1747" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -51370,7 +51367,7 @@
         <v>9.95400047302246</v>
       </c>
       <c r="G1748" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -51500,7 +51497,7 @@
         <v>10.1750001907349</v>
       </c>
       <c r="G1753" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51526,7 +51523,7 @@
         <v>9.41800022125244</v>
       </c>
       <c r="G1754" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51552,7 +51549,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1755" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51578,7 +51575,7 @@
         <v>9.44600009918213</v>
       </c>
       <c r="G1756" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51604,7 +51601,7 @@
         <v>9.37199974060059</v>
       </c>
       <c r="G1757" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51630,7 +51627,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1758" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51656,7 +51653,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G1759" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51682,7 +51679,7 @@
         <v>9.25599956512451</v>
       </c>
       <c r="G1760" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51708,7 +51705,7 @@
         <v>9.21399974822998</v>
       </c>
       <c r="G1761" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51734,7 +51731,7 @@
         <v>9.16399955749512</v>
       </c>
       <c r="G1762" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51760,7 +51757,7 @@
         <v>9.18599987030029</v>
       </c>
       <c r="G1763" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51786,7 +51783,7 @@
         <v>9.21599960327148</v>
       </c>
       <c r="G1764" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51812,7 +51809,7 @@
         <v>9.15200042724609</v>
       </c>
       <c r="G1765" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51838,7 +51835,7 @@
         <v>9.09200000762939</v>
       </c>
       <c r="G1766" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51864,7 +51861,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1767" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51890,7 +51887,7 @@
         <v>9.18200016021729</v>
       </c>
       <c r="G1768" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51916,7 +51913,7 @@
         <v>9.16199970245361</v>
       </c>
       <c r="G1769" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51942,7 +51939,7 @@
         <v>9.3120002746582</v>
       </c>
       <c r="G1770" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51968,7 +51965,7 @@
         <v>9.2819995880127</v>
       </c>
       <c r="G1771" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51994,7 +51991,7 @@
         <v>8.94400024414062</v>
       </c>
       <c r="G1772" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -52020,7 +52017,7 @@
         <v>8.90799999237061</v>
       </c>
       <c r="G1773" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -52046,7 +52043,7 @@
         <v>8.93599987030029</v>
       </c>
       <c r="G1774" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -52072,7 +52069,7 @@
         <v>8.96599960327148</v>
       </c>
       <c r="G1775" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -52098,7 +52095,7 @@
         <v>9.12600040435791</v>
       </c>
       <c r="G1776" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -52124,7 +52121,7 @@
         <v>9.01399993896484</v>
       </c>
       <c r="G1777" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -52150,7 +52147,7 @@
         <v>9.0319995880127</v>
       </c>
       <c r="G1778" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -52176,7 +52173,7 @@
         <v>9.03400039672852</v>
       </c>
       <c r="G1779" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -52202,7 +52199,7 @@
         <v>8.97599983215332</v>
       </c>
       <c r="G1780" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -52228,7 +52225,7 @@
         <v>9.10599994659424</v>
       </c>
       <c r="G1781" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -52254,7 +52251,7 @@
         <v>8.98400020599365</v>
       </c>
       <c r="G1782" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -52280,7 +52277,7 @@
         <v>9.04399967193604</v>
       </c>
       <c r="G1783" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -52306,7 +52303,7 @@
         <v>9.13599967956543</v>
       </c>
       <c r="G1784" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -52332,7 +52329,7 @@
         <v>9.28600025177002</v>
       </c>
       <c r="G1785" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -52358,7 +52355,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1786" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -52384,7 +52381,7 @@
         <v>9.26399993896484</v>
       </c>
       <c r="G1787" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -52410,7 +52407,7 @@
         <v>9.35599994659424</v>
       </c>
       <c r="G1788" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -52436,7 +52433,7 @@
         <v>9.40799999237061</v>
       </c>
       <c r="G1789" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -52462,7 +52459,7 @@
         <v>9.55200004577637</v>
       </c>
       <c r="G1790" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -52488,7 +52485,7 @@
         <v>9.67599964141846</v>
       </c>
       <c r="G1791" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52514,7 +52511,7 @@
         <v>9.66399955749512</v>
       </c>
       <c r="G1792" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52540,7 +52537,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G1793" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52566,7 +52563,7 @@
         <v>9.65799999237061</v>
       </c>
       <c r="G1794" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52592,7 +52589,7 @@
         <v>9.55000019073486</v>
       </c>
       <c r="G1795" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52618,7 +52615,7 @@
         <v>9.43599987030029</v>
       </c>
       <c r="G1796" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52644,7 +52641,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1797" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52670,7 +52667,7 @@
         <v>9.62399959564209</v>
       </c>
       <c r="G1798" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52696,7 +52693,7 @@
         <v>9.68400001525879</v>
       </c>
       <c r="G1799" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52722,7 +52719,7 @@
         <v>9.74199962615967</v>
       </c>
       <c r="G1800" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52748,7 +52745,7 @@
         <v>9.86600017547607</v>
       </c>
       <c r="G1801" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52774,7 +52771,7 @@
         <v>9.90200042724609</v>
       </c>
       <c r="G1802" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52800,7 +52797,7 @@
         <v>9.9379997253418</v>
       </c>
       <c r="G1803" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52826,7 +52823,7 @@
         <v>9.85599994659424</v>
       </c>
       <c r="G1804" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52852,7 +52849,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1805" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52878,7 +52875,7 @@
         <v>9.99600028991699</v>
       </c>
       <c r="G1806" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52904,7 +52901,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G1807" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52930,7 +52927,7 @@
         <v>10.1450004577637</v>
       </c>
       <c r="G1808" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52956,7 +52953,7 @@
         <v>10.1700000762939</v>
       </c>
       <c r="G1809" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52982,7 +52979,7 @@
         <v>10.2049999237061</v>
       </c>
       <c r="G1810" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -53008,7 +53005,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1811" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -53034,7 +53031,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1812" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -53060,7 +53057,7 @@
         <v>10.3699998855591</v>
       </c>
       <c r="G1813" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -53086,7 +53083,7 @@
         <v>10.4099998474121</v>
       </c>
       <c r="G1814" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -53112,7 +53109,7 @@
         <v>10.2449998855591</v>
       </c>
       <c r="G1815" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -53138,7 +53135,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1816" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -53164,7 +53161,7 @@
         <v>10.2550001144409</v>
       </c>
       <c r="G1817" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -53190,7 +53187,7 @@
         <v>10.125</v>
       </c>
       <c r="G1818" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -53216,7 +53213,7 @@
         <v>10.1149997711182</v>
       </c>
       <c r="G1819" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -53242,7 +53239,7 @@
         <v>9.99199962615967</v>
       </c>
       <c r="G1820" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -53268,7 +53265,7 @@
         <v>10.0150003433228</v>
       </c>
       <c r="G1821" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -53294,7 +53291,7 @@
         <v>9.82999992370605</v>
       </c>
       <c r="G1822" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -53320,7 +53317,7 @@
         <v>10.0299997329712</v>
       </c>
       <c r="G1823" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -53346,7 +53343,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1824" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -53372,7 +53369,7 @@
         <v>9.97200012207031</v>
       </c>
       <c r="G1825" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -53398,7 +53395,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -53424,7 +53421,7 @@
         <v>10.0699996948242</v>
       </c>
       <c r="G1827" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -53450,7 +53447,7 @@
         <v>10.1350002288818</v>
       </c>
       <c r="G1828" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -53476,7 +53473,7 @@
         <v>10.0749998092651</v>
       </c>
       <c r="G1829" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53502,7 +53499,7 @@
         <v>10.1400003433228</v>
       </c>
       <c r="G1830" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53528,7 +53525,7 @@
         <v>10.0050001144409</v>
       </c>
       <c r="G1831" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53554,7 +53551,7 @@
         <v>9.72599983215332</v>
       </c>
       <c r="G1832" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53580,7 +53577,7 @@
         <v>9.28999996185303</v>
       </c>
       <c r="G1833" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53606,7 +53603,7 @@
         <v>9.52400016784668</v>
       </c>
       <c r="G1834" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53632,7 +53629,7 @@
         <v>8.98999977111816</v>
       </c>
       <c r="G1835" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53658,7 +53655,7 @@
         <v>8.95600032806396</v>
       </c>
       <c r="G1836" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53684,7 +53681,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1837" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53710,7 +53707,7 @@
         <v>8.95600032806396</v>
       </c>
       <c r="G1838" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53736,7 +53733,7 @@
         <v>9.27000045776367</v>
       </c>
       <c r="G1839" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53762,7 +53759,7 @@
         <v>9.21000003814697</v>
       </c>
       <c r="G1840" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53788,7 +53785,7 @@
         <v>9.08800029754639</v>
       </c>
       <c r="G1841" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53814,7 +53811,7 @@
         <v>8.99400043487549</v>
       </c>
       <c r="G1842" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53840,7 +53837,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1843" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53866,7 +53863,7 @@
         <v>9.05799961090088</v>
       </c>
       <c r="G1844" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53892,7 +53889,7 @@
         <v>9.19799995422363</v>
       </c>
       <c r="G1845" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53918,7 +53915,7 @@
         <v>9.25599956512451</v>
       </c>
       <c r="G1846" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53944,7 +53941,7 @@
         <v>9.26799964904785</v>
       </c>
       <c r="G1847" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53970,7 +53967,7 @@
         <v>9.30200004577637</v>
       </c>
       <c r="G1848" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53996,7 +53993,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G1849" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -54022,7 +54019,7 @@
         <v>9.2180004119873</v>
       </c>
       <c r="G1850" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -54048,7 +54045,7 @@
         <v>9.44400024414062</v>
       </c>
       <c r="G1851" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -54074,7 +54071,7 @@
         <v>9.4399995803833</v>
       </c>
       <c r="G1852" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -54100,7 +54097,7 @@
         <v>9.45400047302246</v>
       </c>
       <c r="G1853" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -54126,7 +54123,7 @@
         <v>9.42199993133545</v>
       </c>
       <c r="G1854" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -54152,7 +54149,7 @@
         <v>9.63799953460693</v>
       </c>
       <c r="G1855" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -54178,7 +54175,7 @@
         <v>9.55799961090088</v>
       </c>
       <c r="G1856" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -54204,7 +54201,7 @@
         <v>9.75</v>
       </c>
       <c r="G1857" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -54230,7 +54227,7 @@
         <v>9.78600025177002</v>
       </c>
       <c r="G1858" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -54256,7 +54253,7 @@
         <v>9.70400047302246</v>
       </c>
       <c r="G1859" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -54282,7 +54279,7 @@
         <v>9.77999973297119</v>
       </c>
       <c r="G1860" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -54308,7 +54305,7 @@
         <v>9.78600025177002</v>
       </c>
       <c r="G1861" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -54334,7 +54331,7 @@
         <v>9.73200035095215</v>
       </c>
       <c r="G1862" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -54360,7 +54357,7 @@
         <v>9.76200008392334</v>
       </c>
       <c r="G1863" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -54386,7 +54383,7 @@
         <v>9.8459997177124</v>
       </c>
       <c r="G1864" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -54412,7 +54409,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G1865" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -54438,7 +54435,7 @@
         <v>9.39799976348877</v>
       </c>
       <c r="G1866" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -54464,7 +54461,7 @@
         <v>9.75800037384033</v>
       </c>
       <c r="G1867" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -54490,7 +54487,7 @@
         <v>9.64200019836426</v>
       </c>
       <c r="G1868" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54516,7 +54513,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G1869" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54542,7 +54539,7 @@
         <v>10</v>
       </c>
       <c r="G1870" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54568,7 +54565,7 @@
         <v>9.93200016021729</v>
       </c>
       <c r="G1871" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54594,7 +54591,7 @@
         <v>9.96199989318848</v>
       </c>
       <c r="G1872" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54620,7 +54617,7 @@
         <v>9.6879997253418</v>
       </c>
       <c r="G1873" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54646,7 +54643,7 @@
         <v>9.70199966430664</v>
       </c>
       <c r="G1874" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54672,7 +54669,7 @@
         <v>9.74600028991699</v>
       </c>
       <c r="G1875" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54698,7 +54695,7 @@
         <v>9.82800006866455</v>
       </c>
       <c r="G1876" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54724,7 +54721,7 @@
         <v>9.85200023651123</v>
       </c>
       <c r="G1877" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54750,7 +54747,7 @@
         <v>9.94200038909912</v>
       </c>
       <c r="G1878" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54776,7 +54773,7 @@
         <v>10.0349998474121</v>
       </c>
       <c r="G1879" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54802,7 +54799,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1880" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54828,7 +54825,7 @@
         <v>10.1750001907349</v>
       </c>
       <c r="G1881" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54854,7 +54851,7 @@
         <v>10.3699998855591</v>
       </c>
       <c r="G1882" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54880,7 +54877,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1883" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54906,7 +54903,7 @@
         <v>10.4449996948242</v>
       </c>
       <c r="G1884" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54932,7 +54929,7 @@
         <v>10.335000038147</v>
       </c>
       <c r="G1885" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54958,7 +54955,7 @@
         <v>10.3299999237061</v>
       </c>
       <c r="G1886" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54984,7 +54981,7 @@
         <v>10.2950000762939</v>
       </c>
       <c r="G1887" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -55010,7 +55007,7 @@
         <v>10.625</v>
       </c>
       <c r="G1888" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -55036,7 +55033,7 @@
         <v>10.7049999237061</v>
       </c>
       <c r="G1889" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -55062,7 +55059,7 @@
         <v>10.6049995422363</v>
       </c>
       <c r="G1890" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -55088,7 +55085,7 @@
         <v>10.6949996948242</v>
       </c>
       <c r="G1891" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -55114,7 +55111,7 @@
         <v>10.6750001907349</v>
       </c>
       <c r="G1892" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -55140,7 +55137,7 @@
         <v>10.9200000762939</v>
       </c>
       <c r="G1893" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -55166,7 +55163,7 @@
         <v>10.9449996948242</v>
       </c>
       <c r="G1894" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -55192,7 +55189,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1895" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -55218,7 +55215,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G1896" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -55244,7 +55241,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G1897" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -55270,7 +55267,7 @@
         <v>11.1899995803833</v>
       </c>
       <c r="G1898" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -55296,7 +55293,7 @@
         <v>11.2250003814697</v>
       </c>
       <c r="G1899" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -55322,7 +55319,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1900" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55348,7 +55345,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1901" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55374,7 +55371,7 @@
         <v>11.1149997711182</v>
       </c>
       <c r="G1902" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55400,7 +55397,7 @@
         <v>10.8950004577637</v>
       </c>
       <c r="G1903" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55426,7 +55423,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G1904" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55452,7 +55449,7 @@
         <v>10.7399997711182</v>
       </c>
       <c r="G1905" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55478,7 +55475,7 @@
         <v>10.7749996185303</v>
       </c>
       <c r="G1906" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55504,7 +55501,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1907" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55530,7 +55527,7 @@
         <v>10.8950004577637</v>
       </c>
       <c r="G1908" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55556,7 +55553,7 @@
         <v>10.960000038147</v>
       </c>
       <c r="G1909" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55582,7 +55579,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1910" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55608,7 +55605,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1911" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55634,7 +55631,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1912" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55660,7 +55657,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G1913" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55686,7 +55683,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1914" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55712,7 +55709,7 @@
         <v>11.0150003433228</v>
       </c>
       <c r="G1915" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55738,7 +55735,7 @@
         <v>11.0249996185303</v>
       </c>
       <c r="G1916" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55764,7 +55761,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1917" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55790,7 +55787,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1918" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55816,7 +55813,7 @@
         <v>11.289999961853</v>
       </c>
       <c r="G1919" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55842,7 +55839,7 @@
         <v>11.3400001525879</v>
       </c>
       <c r="G1920" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55868,7 +55865,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1921" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55894,7 +55891,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1922" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55920,7 +55917,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1923" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55946,7 +55943,7 @@
         <v>11.4750003814697</v>
       </c>
       <c r="G1924" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55972,7 +55969,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1925" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55998,7 +55995,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1926" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -56024,7 +56021,7 @@
         <v>11.5299997329712</v>
       </c>
       <c r="G1927" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -56050,7 +56047,7 @@
         <v>11.9549999237061</v>
       </c>
       <c r="G1928" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -56076,7 +56073,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1929" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -56102,7 +56099,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1930" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -56128,7 +56125,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G1931" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -56154,7 +56151,7 @@
         <v>11.8549995422363</v>
       </c>
       <c r="G1932" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -56180,7 +56177,7 @@
         <v>11.8450002670288</v>
       </c>
       <c r="G1933" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -56206,7 +56203,7 @@
         <v>11.835000038147</v>
       </c>
       <c r="G1934" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -56232,7 +56229,7 @@
         <v>11.8850002288818</v>
       </c>
       <c r="G1935" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -56258,7 +56255,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G1936" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -56284,7 +56281,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1937" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56310,7 +56307,7 @@
         <v>11.7399997711182</v>
       </c>
       <c r="G1938" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56336,7 +56333,7 @@
         <v>11.7150001525879</v>
       </c>
       <c r="G1939" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56362,7 +56359,7 @@
         <v>11.8249998092651</v>
       </c>
       <c r="G1940" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56388,7 +56385,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1941" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56414,7 +56411,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1942" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56440,7 +56437,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G1943" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56466,7 +56463,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1944" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56492,7 +56489,7 @@
         <v>11.875</v>
       </c>
       <c r="G1945" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56518,7 +56515,7 @@
         <v>11.8549995422363</v>
       </c>
       <c r="G1946" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56544,7 +56541,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1947" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56570,7 +56567,7 @@
         <v>11.8050003051758</v>
       </c>
       <c r="G1948" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56596,7 +56593,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G1949" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56622,7 +56619,7 @@
         <v>12.1049995422363</v>
       </c>
       <c r="G1950" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56648,7 +56645,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1951" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56674,7 +56671,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G1952" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56700,7 +56697,7 @@
         <v>12.0749998092651</v>
       </c>
       <c r="G1953" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56726,7 +56723,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1954" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56752,7 +56749,7 @@
         <v>12.1700000762939</v>
       </c>
       <c r="G1955" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56778,7 +56775,7 @@
         <v>12.0249996185303</v>
       </c>
       <c r="G1956" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56804,7 +56801,7 @@
         <v>12.1450004577637</v>
       </c>
       <c r="G1957" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56830,7 +56827,7 @@
         <v>12.0649995803833</v>
       </c>
       <c r="G1958" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56856,7 +56853,7 @@
         <v>12.164999961853</v>
       </c>
       <c r="G1959" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56882,7 +56879,7 @@
         <v>12.1750001907349</v>
       </c>
       <c r="G1960" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56908,7 +56905,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1961" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56934,7 +56931,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G1962" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56960,7 +56957,7 @@
         <v>12.210000038147</v>
       </c>
       <c r="G1963" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56986,7 +56983,7 @@
         <v>12.1350002288818</v>
       </c>
       <c r="G1964" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -57012,7 +57009,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1965" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -57038,7 +57035,7 @@
         <v>12.4049997329712</v>
       </c>
       <c r="G1966" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -57064,7 +57061,7 @@
         <v>12.3050003051758</v>
       </c>
       <c r="G1967" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -57090,7 +57087,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1968" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -57116,7 +57113,7 @@
         <v>12.2550001144409</v>
       </c>
       <c r="G1969" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -57142,7 +57139,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G1970" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -57168,7 +57165,7 @@
         <v>12.4250001907349</v>
       </c>
       <c r="G1971" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -57194,7 +57191,7 @@
         <v>12.4650001525879</v>
       </c>
       <c r="G1972" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -57220,7 +57217,7 @@
         <v>12.5299997329712</v>
       </c>
       <c r="G1973" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -57246,7 +57243,7 @@
         <v>12.375</v>
       </c>
       <c r="G1974" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -57272,7 +57269,7 @@
         <v>12.289999961853</v>
       </c>
       <c r="G1975" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -57298,7 +57295,7 @@
         <v>12.2349996566772</v>
       </c>
       <c r="G1976" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57324,7 +57321,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1977" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57350,7 +57347,7 @@
         <v>12.1499996185303</v>
       </c>
       <c r="G1978" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57376,7 +57373,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1979" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57402,7 +57399,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1980" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57428,7 +57425,7 @@
         <v>12.1899995803833</v>
       </c>
       <c r="G1981" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57454,7 +57451,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1982" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57480,7 +57477,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G1983" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57506,7 +57503,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1984" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57532,7 +57529,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1985" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57558,7 +57555,7 @@
         <v>11.3800001144409</v>
       </c>
       <c r="G1986" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57584,7 +57581,7 @@
         <v>11.2299995422363</v>
       </c>
       <c r="G1987" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57610,7 +57607,7 @@
         <v>11.0349998474121</v>
       </c>
       <c r="G1988" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57636,7 +57633,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1989" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57662,7 +57659,7 @@
         <v>11.0050001144409</v>
       </c>
       <c r="G1990" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57688,7 +57685,7 @@
         <v>11.0100002288818</v>
       </c>
       <c r="G1991" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57714,7 +57711,7 @@
         <v>10.8950004577637</v>
       </c>
       <c r="G1992" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57740,7 +57737,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G1993" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57766,7 +57763,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G1994" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57792,7 +57789,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G1995" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57818,7 +57815,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G1996" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57844,7 +57841,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G1997" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57870,7 +57867,7 @@
         <v>11.4949998855591</v>
       </c>
       <c r="G1998" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57896,7 +57893,7 @@
         <v>11.5</v>
       </c>
       <c r="G1999" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57922,7 +57919,7 @@
         <v>11.5150003433228</v>
       </c>
       <c r="G2000" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57948,7 +57945,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G2001" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57974,7 +57971,7 @@
         <v>11.5249996185303</v>
       </c>
       <c r="G2002" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -58000,7 +57997,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2003" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -58026,7 +58023,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G2004" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -58052,7 +58049,7 @@
         <v>11.8950004577637</v>
       </c>
       <c r="G2005" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -58078,7 +58075,7 @@
         <v>11.8050003051758</v>
       </c>
       <c r="G2006" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -58104,7 +58101,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G2007" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -58130,7 +58127,7 @@
         <v>11.7650003433228</v>
       </c>
       <c r="G2008" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -58156,7 +58153,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G2009" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -58182,7 +58179,7 @@
         <v>10.75</v>
       </c>
       <c r="G2010" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -58208,7 +58205,7 @@
         <v>10.8549995422363</v>
       </c>
       <c r="G2011" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -58234,7 +58231,7 @@
         <v>10.8450002670288</v>
       </c>
       <c r="G2012" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -58260,7 +58257,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G2013" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -58286,7 +58283,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G2014" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58312,7 +58309,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G2015" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58338,7 +58335,7 @@
         <v>10.7299995422363</v>
       </c>
       <c r="G2016" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58364,7 +58361,7 @@
         <v>10.7749996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58390,7 +58387,7 @@
         <v>10.8050003051758</v>
       </c>
       <c r="G2018" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58416,7 +58413,7 @@
         <v>10.7449998855591</v>
       </c>
       <c r="G2019" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58442,7 +58439,7 @@
         <v>10.6700000762939</v>
       </c>
       <c r="G2020" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58468,7 +58465,7 @@
         <v>10.9650001525879</v>
       </c>
       <c r="G2021" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58494,7 +58491,7 @@
         <v>11.0500001907349</v>
       </c>
       <c r="G2022" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58520,7 +58517,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G2023" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58546,7 +58543,7 @@
         <v>11.0950002670288</v>
       </c>
       <c r="G2024" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58572,7 +58569,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G2025" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58598,7 +58595,7 @@
         <v>11.085000038147</v>
       </c>
       <c r="G2026" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58624,7 +58621,7 @@
         <v>11.1499996185303</v>
       </c>
       <c r="G2027" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58650,7 +58647,7 @@
         <v>11.125</v>
       </c>
       <c r="G2028" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58676,7 +58673,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G2029" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58702,7 +58699,7 @@
         <v>11.125</v>
       </c>
       <c r="G2030" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58728,7 +58725,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2031" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58754,7 +58751,7 @@
         <v>11.1350002288818</v>
       </c>
       <c r="G2032" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58780,7 +58777,7 @@
         <v>11.2449998855591</v>
       </c>
       <c r="G2033" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58806,7 +58803,7 @@
         <v>11.2150001525879</v>
       </c>
       <c r="G2034" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58832,7 +58829,7 @@
         <v>11.1750001907349</v>
       </c>
       <c r="G2035" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58858,7 +58855,7 @@
         <v>11.2049999237061</v>
       </c>
       <c r="G2036" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58884,7 +58881,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2037" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58910,7 +58907,7 @@
         <v>11.1149997711182</v>
       </c>
       <c r="G2038" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58936,7 +58933,7 @@
         <v>11.2349996566772</v>
       </c>
       <c r="G2039" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58962,7 +58959,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2040" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58988,7 +58985,7 @@
         <v>11.3500003814697</v>
       </c>
       <c r="G2041" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -59014,7 +59011,7 @@
         <v>11.2849998474121</v>
       </c>
       <c r="G2042" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -59040,7 +59037,7 @@
         <v>11.2349996566772</v>
       </c>
       <c r="G2043" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -59066,7 +59063,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2044" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -59092,7 +59089,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2045" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -59118,7 +59115,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2046" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -59144,7 +59141,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G2047" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -59170,7 +59167,7 @@
         <v>11.835000038147</v>
       </c>
       <c r="G2048" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -59196,7 +59193,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2049" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -59222,7 +59219,7 @@
         <v>12.0150003433228</v>
       </c>
       <c r="G2050" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -59248,7 +59245,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2051" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -59274,7 +59271,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2052" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -59300,7 +59297,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G2053" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -59326,7 +59323,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G2054" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59352,7 +59349,7 @@
         <v>12.1099996566772</v>
       </c>
       <c r="G2055" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59378,7 +59375,7 @@
         <v>12.125</v>
       </c>
       <c r="G2056" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59404,7 +59401,7 @@
         <v>12.2700004577637</v>
       </c>
       <c r="G2057" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59430,7 +59427,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2058" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59456,7 +59453,7 @@
         <v>12.085000038147</v>
       </c>
       <c r="G2059" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59482,7 +59479,7 @@
         <v>12.1549997329712</v>
       </c>
       <c r="G2060" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59508,7 +59505,7 @@
         <v>12.085000038147</v>
       </c>
       <c r="G2061" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59534,7 +59531,7 @@
         <v>11.9750003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59560,7 +59557,7 @@
         <v>11.8950004577637</v>
       </c>
       <c r="G2063" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59586,7 +59583,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2064" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59612,7 +59609,7 @@
         <v>11.6350002288818</v>
       </c>
       <c r="G2065" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59638,7 +59635,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G2066" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59664,7 +59661,7 @@
         <v>11.5100002288818</v>
       </c>
       <c r="G2067" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59690,7 +59687,7 @@
         <v>11.4849996566772</v>
       </c>
       <c r="G2068" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59716,7 +59713,7 @@
         <v>11.664999961853</v>
       </c>
       <c r="G2069" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59742,7 +59739,7 @@
         <v>11.6949996948242</v>
       </c>
       <c r="G2070" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59768,7 +59765,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2071" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59794,7 +59791,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G2072" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59820,7 +59817,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59846,7 +59843,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2074" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59872,7 +59869,7 @@
         <v>12.9449996948242</v>
       </c>
       <c r="G2075" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59898,7 +59895,7 @@
         <v>12.8050003051758</v>
       </c>
       <c r="G2076" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59924,7 +59921,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G2077" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59950,7 +59947,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G2078" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59976,7 +59973,7 @@
         <v>12.5950002670288</v>
       </c>
       <c r="G2079" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -60002,7 +59999,7 @@
         <v>12.6099996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -60028,7 +60025,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2081" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -60054,7 +60051,7 @@
         <v>12.6899995803833</v>
       </c>
       <c r="G2082" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -60080,7 +60077,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G2083" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -60106,7 +60103,7 @@
         <v>12.7950000762939</v>
       </c>
       <c r="G2084" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -60132,7 +60129,7 @@
         <v>12.7950000762939</v>
       </c>
       <c r="G2085" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -60158,7 +60155,7 @@
         <v>12.8100004196167</v>
       </c>
       <c r="G2086" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -60184,7 +60181,7 @@
         <v>12.9449996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -60210,7 +60207,7 @@
         <v>12.9949998855591</v>
       </c>
       <c r="G2088" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -60236,7 +60233,7 @@
         <v>12.914999961853</v>
       </c>
       <c r="G2089" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -60262,7 +60259,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2090" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -60288,7 +60285,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2091" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -60314,7 +60311,7 @@
         <v>13.2749996185303</v>
       </c>
       <c r="G2092" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -60340,7 +60337,7 @@
         <v>13.2550001144409</v>
       </c>
       <c r="G2093" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60366,7 +60363,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G2094" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60392,7 +60389,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G2095" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60418,7 +60415,7 @@
         <v>13.5649995803833</v>
       </c>
       <c r="G2096" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60444,7 +60441,7 @@
         <v>13.625</v>
       </c>
       <c r="G2097" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60470,7 +60467,7 @@
         <v>13.7849998474121</v>
       </c>
       <c r="G2098" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60496,7 +60493,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="G2099" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60522,7 +60519,7 @@
         <v>13.6750001907349</v>
       </c>
       <c r="G2100" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60548,7 +60545,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G2101" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60574,7 +60571,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="G2102" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60600,7 +60597,7 @@
         <v>13.6949996948242</v>
       </c>
       <c r="G2103" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60626,7 +60623,7 @@
         <v>13.7049999237061</v>
       </c>
       <c r="G2104" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60652,7 +60649,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G2105" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60678,7 +60675,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G2106" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60704,7 +60701,7 @@
         <v>13.5649995803833</v>
       </c>
       <c r="G2107" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60730,7 +60727,7 @@
         <v>13.5749998092651</v>
       </c>
       <c r="G2108" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60756,7 +60753,7 @@
         <v>13.6750001907349</v>
       </c>
       <c r="G2109" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60782,7 +60779,7 @@
         <v>13.3950004577637</v>
       </c>
       <c r="G2110" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60808,7 +60805,7 @@
         <v>13.4449996948242</v>
       </c>
       <c r="G2111" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60834,7 +60831,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G2112" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60860,7 +60857,7 @@
         <v>13.4949998855591</v>
       </c>
       <c r="G2113" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60886,7 +60883,7 @@
         <v>13.6149997711182</v>
       </c>
       <c r="G2114" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60912,7 +60909,7 @@
         <v>13.7049999237061</v>
       </c>
       <c r="G2115" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60938,7 +60935,7 @@
         <v>13.6450004577637</v>
       </c>
       <c r="G2116" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60964,7 +60961,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G2117" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60990,7 +60987,7 @@
         <v>13.4049997329712</v>
       </c>
       <c r="G2118" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -61016,7 +61013,7 @@
         <v>13.4499998092651</v>
       </c>
       <c r="G2119" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -61042,7 +61039,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G2120" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -61068,7 +61065,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G2121" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -61094,7 +61091,7 @@
         <v>13.4750003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -61120,7 +61117,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G2123" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -61146,7 +61143,7 @@
         <v>13.9700002670288</v>
       </c>
       <c r="G2124" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -61172,7 +61169,7 @@
         <v>14</v>
       </c>
       <c r="G2125" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -61198,7 +61195,7 @@
         <v>14.1099996566772</v>
       </c>
       <c r="G2126" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -61224,7 +61221,7 @@
         <v>14.4499998092651</v>
       </c>
       <c r="G2127" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -61250,7 +61247,7 @@
         <v>14.6099996566772</v>
       </c>
       <c r="G2128" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -61276,7 +61273,7 @@
         <v>14.9300003051758</v>
       </c>
       <c r="G2129" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -61302,7 +61299,7 @@
         <v>15.1949996948242</v>
       </c>
       <c r="G2130" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -61328,7 +61325,7 @@
         <v>15.1800003051758</v>
       </c>
       <c r="G2131" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61354,7 +61351,7 @@
         <v>15.2449998855591</v>
       </c>
       <c r="G2132" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61380,7 +61377,7 @@
         <v>14.835000038147</v>
       </c>
       <c r="G2133" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61406,7 +61403,7 @@
         <v>14.625</v>
       </c>
       <c r="G2134" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61432,7 +61429,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G2135" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61458,7 +61455,7 @@
         <v>14.6000003814697</v>
       </c>
       <c r="G2136" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61484,7 +61481,7 @@
         <v>14.6300001144409</v>
       </c>
       <c r="G2137" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61510,7 +61507,7 @@
         <v>14.664999961853</v>
       </c>
       <c r="G2138" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61536,7 +61533,7 @@
         <v>14.5500001907349</v>
       </c>
       <c r="G2139" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61562,7 +61559,7 @@
         <v>14.4549999237061</v>
       </c>
       <c r="G2140" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61588,7 +61585,7 @@
         <v>14.5</v>
       </c>
       <c r="G2141" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61614,7 +61611,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G2142" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61640,7 +61637,7 @@
         <v>14.625</v>
       </c>
       <c r="G2143" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61666,7 +61663,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G2144" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61692,7 +61689,7 @@
         <v>14.3299999237061</v>
       </c>
       <c r="G2145" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61718,7 +61715,7 @@
         <v>14.375</v>
       </c>
       <c r="G2146" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61744,7 +61741,7 @@
         <v>14.3450002670288</v>
       </c>
       <c r="G2147" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61770,7 +61767,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G2148" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61796,7 +61793,7 @@
         <v>14.0249996185303</v>
       </c>
       <c r="G2149" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61822,7 +61819,7 @@
         <v>14.335000038147</v>
       </c>
       <c r="G2150" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61848,7 +61845,7 @@
         <v>13.835000038147</v>
       </c>
       <c r="G2151" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61874,7 +61871,7 @@
         <v>13.5249996185303</v>
       </c>
       <c r="G2152" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61900,7 +61897,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G2153" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61926,7 +61923,7 @@
         <v>13.6899995803833</v>
       </c>
       <c r="G2154" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61952,7 +61949,7 @@
         <v>13.585000038147</v>
       </c>
       <c r="G2155" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61978,7 +61975,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="G2156" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -62004,7 +62001,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G2157" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -62030,7 +62027,7 @@
         <v>13.9350004196167</v>
       </c>
       <c r="G2158" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -62056,7 +62053,7 @@
         <v>13.8699998855591</v>
       </c>
       <c r="G2159" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -62082,7 +62079,7 @@
         <v>13.7749996185303</v>
       </c>
       <c r="G2160" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -62108,7 +62105,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G2161" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -62134,7 +62131,7 @@
         <v>13.6899995803833</v>
       </c>
       <c r="G2162" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -62160,7 +62157,7 @@
         <v>14.0900001525879</v>
       </c>
       <c r="G2163" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -62186,7 +62183,7 @@
         <v>13.9200000762939</v>
       </c>
       <c r="G2164" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -62212,7 +62209,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G2165" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -62238,7 +62235,7 @@
         <v>14.1549997329712</v>
       </c>
       <c r="G2166" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -62264,7 +62261,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G2167" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -62290,7 +62287,7 @@
         <v>14.1899995803833</v>
       </c>
       <c r="G2168" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -62316,7 +62313,7 @@
         <v>14.164999961853</v>
       </c>
       <c r="G2169" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -62324,7 +62321,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6494328704</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>1523001</v>
@@ -62342,9 +62339,35 @@
         <v>14.3500003814697</v>
       </c>
       <c r="G2170" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6494675926</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>1476101</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>14.4200000762939</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>14.2299995422363</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>14.3950004577637</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>14.3850002288818</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1857</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MB.MI.xlsx
+++ b/data/MB.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="1860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="1861">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54330205917358</t>
+    <t xml:space="preserve">5.54330253601074</t>
   </si>
   <si>
     <t xml:space="preserve">MB.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">5.53684854507446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39810514450073</t>
+    <t xml:space="preserve">5.53684902191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.39810466766357</t>
   </si>
   <si>
     <t xml:space="preserve">5.29485368728638</t>
   </si>
   <si>
-    <t xml:space="preserve">5.16578912734985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1367506980896</t>
+    <t xml:space="preserve">5.16579008102417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.13675022125244</t>
   </si>
   <si>
     <t xml:space="preserve">5.25936126708984</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31744050979614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25290870666504</t>
+    <t xml:space="preserve">5.31744003295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.25290822982788</t>
   </si>
   <si>
     <t xml:space="preserve">5.05285882949829</t>
   </si>
   <si>
-    <t xml:space="preserve">4.81086397171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.910888671875</t>
+    <t xml:space="preserve">4.81086349487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.91088819503784</t>
   </si>
   <si>
     <t xml:space="preserve">4.71406507492065</t>
   </si>
   <si>
-    <t xml:space="preserve">4.97541999816895</t>
+    <t xml:space="preserve">4.9754204750061</t>
   </si>
   <si>
     <t xml:space="preserve">4.99155378341675</t>
@@ -92,10 +92,10 @@
     <t xml:space="preserve">4.90766143798828</t>
   </si>
   <si>
-    <t xml:space="preserve">4.83344888687134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.56886863708496</t>
+    <t xml:space="preserve">4.83344984054565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.56886911392212</t>
   </si>
   <si>
     <t xml:space="preserve">4.75278425216675</t>
@@ -104,58 +104,58 @@
     <t xml:space="preserve">4.60436105728149</t>
   </si>
   <si>
-    <t xml:space="preserve">4.47852325439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2752480506897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36881875991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25911521911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.86224269866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6460599899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92032146453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71381878852844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78480386734009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.89450860023499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93000173568726</t>
+    <t xml:space="preserve">4.47852277755737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27524757385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36881923675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25911474227905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86224246025085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64606070518494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92032170295715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71381902694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78480410575867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.89450836181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9300012588501</t>
   </si>
   <si>
     <t xml:space="preserve">4.00421285629272</t>
   </si>
   <si>
-    <t xml:space="preserve">3.88805556297302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85578966140747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01066637039185</t>
+    <t xml:space="preserve">3.88805532455444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85578942298889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01066589355469</t>
   </si>
   <si>
     <t xml:space="preserve">3.91064190864563</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86869621276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.92354774475098</t>
+    <t xml:space="preserve">3.86869597434998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.92354822158813</t>
   </si>
   <si>
     <t xml:space="preserve">4.02357292175293</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">4.36559295654297</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38172578811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2978343963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1752233505249</t>
+    <t xml:space="preserve">4.3817253112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.29783391952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17522239685059</t>
   </si>
   <si>
     <t xml:space="preserve">4.23007535934448</t>
@@ -185,16 +185,16 @@
     <t xml:space="preserve">4.24298191070557</t>
   </si>
   <si>
-    <t xml:space="preserve">4.30751419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.681800365448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73019790649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57209539413452</t>
+    <t xml:space="preserve">4.30751371383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68179941177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7301983833313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.57209587097168</t>
   </si>
   <si>
     <t xml:space="preserve">4.59145450592041</t>
@@ -206,22 +206,22 @@
     <t xml:space="preserve">4.34945917129517</t>
   </si>
   <si>
-    <t xml:space="preserve">4.37204599380493</t>
+    <t xml:space="preserve">4.37204647064209</t>
   </si>
   <si>
     <t xml:space="preserve">4.29138088226318</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26234149932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14295721054077</t>
+    <t xml:space="preserve">4.26234102249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14295673370361</t>
   </si>
   <si>
     <t xml:space="preserve">4.16876983642578</t>
   </si>
   <si>
-    <t xml:space="preserve">4.08487796783447</t>
+    <t xml:space="preserve">4.08487844467163</t>
   </si>
   <si>
     <t xml:space="preserve">4.04938554763794</t>
@@ -230,49 +230,49 @@
     <t xml:space="preserve">4.09133100509644</t>
   </si>
   <si>
-    <t xml:space="preserve">4.01389265060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05261278152466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.84933614730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07197189331055</t>
+    <t xml:space="preserve">4.01389217376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05261182785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.84933638572693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.07197237014771</t>
   </si>
   <si>
     <t xml:space="preserve">4.11714458465576</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03002643585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23975515365601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.31719303131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24620819091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.51724243164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5204701423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.6656665802002</t>
+    <t xml:space="preserve">4.03002595901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.23975563049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.31719350814819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24620866775513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.51724290847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52046871185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66566705703735</t>
   </si>
   <si>
     <t xml:space="preserve">4.68502616882324</t>
   </si>
   <si>
-    <t xml:space="preserve">4.69470643997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.63017463684082</t>
+    <t xml:space="preserve">4.69470596313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.63017416000366</t>
   </si>
   <si>
     <t xml:space="preserve">4.49788284301758</t>
@@ -281,16 +281,16 @@
     <t xml:space="preserve">4.32687330245972</t>
   </si>
   <si>
-    <t xml:space="preserve">4.14940977096558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.11391830444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06229257583618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13327789306641</t>
+    <t xml:space="preserve">4.14941024780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1139178276062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06229209899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13327741622925</t>
   </si>
   <si>
     <t xml:space="preserve">4.16231632232666</t>
@@ -299,19 +299,19 @@
     <t xml:space="preserve">4.20103597640991</t>
   </si>
   <si>
-    <t xml:space="preserve">4.18812942504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1719970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.24943494796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.28815412521362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.50433683395386</t>
+    <t xml:space="preserve">4.18812894821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17199611663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24943542480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.28815460205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50433588027954</t>
   </si>
   <si>
     <t xml:space="preserve">4.6075873374939</t>
@@ -323,58 +323,58 @@
     <t xml:space="preserve">4.65276002883911</t>
   </si>
   <si>
-    <t xml:space="preserve">4.63985395431519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.41399145126343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.38495254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27202033996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.25588750839233</t>
+    <t xml:space="preserve">4.63985347747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41399192810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3849515914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27202129364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.25588798522949</t>
   </si>
   <si>
     <t xml:space="preserve">4.18167591094971</t>
   </si>
   <si>
-    <t xml:space="preserve">3.95258712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.75899028778076</t>
+    <t xml:space="preserve">3.95258784294128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7589910030365</t>
   </si>
   <si>
     <t xml:space="preserve">3.61702108383179</t>
   </si>
   <si>
-    <t xml:space="preserve">3.71704578399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70413875579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.85256266593933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.06551837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.12037086486816</t>
+    <t xml:space="preserve">3.717045545578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7041392326355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.85256242752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.06551885604858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.12037134170532</t>
   </si>
   <si>
     <t xml:space="preserve">4.09455728530884</t>
   </si>
   <si>
-    <t xml:space="preserve">3.42665147781372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.98912405967712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.16207003593445</t>
+    <t xml:space="preserve">3.42665123939514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9891242980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.16207027435303</t>
   </si>
   <si>
     <t xml:space="preserve">3.27177453041077</t>
@@ -383,100 +383,100 @@
     <t xml:space="preserve">3.3266270160675</t>
   </si>
   <si>
-    <t xml:space="preserve">3.3588924407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.21756720542908</t>
+    <t xml:space="preserve">3.35889315605164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.21756744384766</t>
   </si>
   <si>
     <t xml:space="preserve">3.11431622505188</t>
   </si>
   <si>
-    <t xml:space="preserve">3.04074931144714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14529132843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.41374468803406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67832612991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.70736527442932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82029676437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.76544427871704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.82997632026672</t>
+    <t xml:space="preserve">3.04074954986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14529156684875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.41374516487122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.67832589149475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.70736598968506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8202965259552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.76544404029846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.82997679710388</t>
   </si>
   <si>
     <t xml:space="preserve">3.79448390007019</t>
   </si>
   <si>
-    <t xml:space="preserve">3.83965635299683</t>
+    <t xml:space="preserve">3.83965587615967</t>
   </si>
   <si>
     <t xml:space="preserve">3.83320331573486</t>
   </si>
   <si>
-    <t xml:space="preserve">3.86546921730042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.77512431144714</t>
+    <t xml:space="preserve">3.86546897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.77512407302856</t>
   </si>
   <si>
     <t xml:space="preserve">3.90741491317749</t>
   </si>
   <si>
-    <t xml:space="preserve">3.85901618003845</t>
+    <t xml:space="preserve">3.85901594161987</t>
   </si>
   <si>
     <t xml:space="preserve">4.04293251037598</t>
   </si>
   <si>
-    <t xml:space="preserve">3.96549320220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.63960742950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.65251350402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.97194719314575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23652839660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.20748949050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.16554355621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17845010757446</t>
+    <t xml:space="preserve">3.96549463272095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.63960695266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.65251326560974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.97194766998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2365288734436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.20748901367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.16554307937622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17844867706299</t>
   </si>
   <si>
     <t xml:space="preserve">4.11069059371948</t>
   </si>
   <si>
-    <t xml:space="preserve">4.07519865036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.05906581878662</t>
+    <t xml:space="preserve">4.07519817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.05906534194946</t>
   </si>
   <si>
     <t xml:space="preserve">3.94613432884216</t>
   </si>
   <si>
-    <t xml:space="preserve">3.98162698745728</t>
+    <t xml:space="preserve">3.9816267490387</t>
   </si>
   <si>
     <t xml:space="preserve">4.19135570526123</t>
@@ -485,52 +485,52 @@
     <t xml:space="preserve">4.15909051895142</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2203950881958</t>
+    <t xml:space="preserve">4.22039556503296</t>
   </si>
   <si>
     <t xml:space="preserve">4.32364654541016</t>
   </si>
   <si>
-    <t xml:space="preserve">4.42367219924927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.35591268539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.47529745101929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.43657827377319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.333327293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.98485350608826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.04615926742554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.93645429611206</t>
+    <t xml:space="preserve">4.42367076873779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.35591316223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.47529697418213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43657732009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33332681655884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.98485374450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.04615879058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.93645477294922</t>
   </si>
   <si>
     <t xml:space="preserve">4.02679920196533</t>
   </si>
   <si>
-    <t xml:space="preserve">4.03325223922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73317837715149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.78157782554626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.71059274673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.73640489578247</t>
+    <t xml:space="preserve">4.03325271606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73317813873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.78157758712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7105929851532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.73640513420105</t>
   </si>
   <si>
     <t xml:space="preserve">3.72672510147095</t>
@@ -545,16 +545,16 @@
     <t xml:space="preserve">4.03647947311401</t>
   </si>
   <si>
-    <t xml:space="preserve">3.90096187591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99775981903076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13650369644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.26556777954102</t>
+    <t xml:space="preserve">3.90096139907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99776029586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13650321960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.26556873321533</t>
   </si>
   <si>
     <t xml:space="preserve">4.38817882537842</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">4.52369594573975</t>
   </si>
   <si>
-    <t xml:space="preserve">4.33655261993408</t>
+    <t xml:space="preserve">4.33655309677124</t>
   </si>
   <si>
     <t xml:space="preserve">4.10423803329468</t>
   </si>
   <si>
-    <t xml:space="preserve">4.28170108795166</t>
+    <t xml:space="preserve">4.28170156478882</t>
   </si>
   <si>
     <t xml:space="preserve">4.42689800262451</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">4.5591893196106</t>
   </si>
   <si>
-    <t xml:space="preserve">4.49143028259277</t>
+    <t xml:space="preserve">4.49142980575562</t>
   </si>
   <si>
     <t xml:space="preserve">4.39140510559082</t>
@@ -596,19 +596,19 @@
     <t xml:space="preserve">4.21394205093384</t>
   </si>
   <si>
-    <t xml:space="preserve">4.26442909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.33847665786743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.27452659606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.23077154159546</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.17355251312256</t>
+    <t xml:space="preserve">4.26442861557007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.33847618103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.27452564239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2307710647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.17355298995972</t>
   </si>
   <si>
     <t xml:space="preserve">4.0523853302002</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">4.22403955459595</t>
   </si>
   <si>
-    <t xml:space="preserve">4.38223028182983</t>
+    <t xml:space="preserve">4.38223075866699</t>
   </si>
   <si>
     <t xml:space="preserve">4.52022743225098</t>
@@ -629,10 +629,10 @@
     <t xml:space="preserve">4.33510971069336</t>
   </si>
   <si>
-    <t xml:space="preserve">4.76592826843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99480104446411</t>
+    <t xml:space="preserve">4.76592922210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99480009078979</t>
   </si>
   <si>
     <t xml:space="preserve">5.13279676437378</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">4.98806858062744</t>
   </si>
   <si>
-    <t xml:space="preserve">5.01499557495117</t>
+    <t xml:space="preserve">5.01499509811401</t>
   </si>
   <si>
     <t xml:space="preserve">5.06884765625</t>
@@ -653,10 +653,10 @@
     <t xml:space="preserve">5.28762245178223</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22703838348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25059938430786</t>
+    <t xml:space="preserve">5.22703886032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2505989074707</t>
   </si>
   <si>
     <t xml:space="preserve">5.32801151275635</t>
@@ -665,22 +665,22 @@
     <t xml:space="preserve">5.29098844528198</t>
   </si>
   <si>
-    <t xml:space="preserve">5.27415895462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34147500991821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33810806274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27079343795776</t>
+    <t xml:space="preserve">5.27415943145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34147453308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3381085395813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.27079391479492</t>
   </si>
   <si>
     <t xml:space="preserve">5.2304048538208</t>
   </si>
   <si>
-    <t xml:space="preserve">5.22030687332153</t>
+    <t xml:space="preserve">5.22030735015869</t>
   </si>
   <si>
     <t xml:space="preserve">5.3313775062561</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">5.48620271682739</t>
   </si>
   <si>
-    <t xml:space="preserve">5.51986026763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49293375015259</t>
+    <t xml:space="preserve">5.51986074447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49293422698975</t>
   </si>
   <si>
     <t xml:space="preserve">5.51312875747681</t>
@@ -701,19 +701,19 @@
     <t xml:space="preserve">5.26406192779541</t>
   </si>
   <si>
-    <t xml:space="preserve">5.32128095626831</t>
+    <t xml:space="preserve">5.32128000259399</t>
   </si>
   <si>
     <t xml:space="preserve">5.3179144859314</t>
   </si>
   <si>
-    <t xml:space="preserve">5.19338083267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40205860137939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.38186359405518</t>
+    <t xml:space="preserve">5.19338130950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40205812454224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.38186407089233</t>
   </si>
   <si>
     <t xml:space="preserve">5.34484052658081</t>
@@ -722,10 +722,10 @@
     <t xml:space="preserve">5.42898416519165</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35157203674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43235015869141</t>
+    <t xml:space="preserve">5.35157155990601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43235063552856</t>
   </si>
   <si>
     <t xml:space="preserve">5.73526954650879</t>
@@ -734,19 +734,19 @@
     <t xml:space="preserve">5.91365528106689</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72517251968384</t>
+    <t xml:space="preserve">5.72517156600952</t>
   </si>
   <si>
     <t xml:space="preserve">5.65449094772339</t>
   </si>
   <si>
-    <t xml:space="preserve">5.50303173065186</t>
+    <t xml:space="preserve">5.50303220748901</t>
   </si>
   <si>
     <t xml:space="preserve">5.35493755340576</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48283672332764</t>
+    <t xml:space="preserve">5.48283720016479</t>
   </si>
   <si>
     <t xml:space="preserve">5.25733041763306</t>
@@ -755,31 +755,31 @@
     <t xml:space="preserve">5.14626026153564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.30445146560669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24386739730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.39869356155396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52659225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4963002204895</t>
+    <t xml:space="preserve">5.30445098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.24386787414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3986930847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52659177780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49630069732666</t>
   </si>
   <si>
     <t xml:space="preserve">5.46600818634033</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4155216217041</t>
+    <t xml:space="preserve">5.41552114486694</t>
   </si>
   <si>
     <t xml:space="preserve">5.36503458023071</t>
   </si>
   <si>
-    <t xml:space="preserve">5.31118297576904</t>
+    <t xml:space="preserve">5.31118249893188</t>
   </si>
   <si>
     <t xml:space="preserve">5.1563572883606</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">5.01162958145142</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04865312576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09240770339966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28425598144531</t>
+    <t xml:space="preserve">5.04865264892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.09240818023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.28425693511963</t>
   </si>
   <si>
     <t xml:space="preserve">5.33474349975586</t>
@@ -803,19 +803,19 @@
     <t xml:space="preserve">5.52322626113892</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57034635543823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58044385910034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66122245788574</t>
+    <t xml:space="preserve">5.57034683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5804443359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6612229347229</t>
   </si>
   <si>
     <t xml:space="preserve">5.60400438308716</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59054231643677</t>
+    <t xml:space="preserve">5.59054183959961</t>
   </si>
   <si>
     <t xml:space="preserve">5.60737037658691</t>
@@ -827,34 +827,34 @@
     <t xml:space="preserve">5.68478298187256</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69824647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63766193389893</t>
+    <t xml:space="preserve">5.69824600219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63766241073608</t>
   </si>
   <si>
     <t xml:space="preserve">5.70161199569702</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67805242538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71507453918457</t>
+    <t xml:space="preserve">5.67805194854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71507406234741</t>
   </si>
   <si>
     <t xml:space="preserve">5.68814897537231</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55015277862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.56024932861328</t>
+    <t xml:space="preserve">5.55015230178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56024980545044</t>
   </si>
   <si>
     <t xml:space="preserve">5.55688381195068</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59390735626221</t>
+    <t xml:space="preserve">5.59390830993652</t>
   </si>
   <si>
     <t xml:space="preserve">5.4794716835022</t>
@@ -863,46 +863,46 @@
     <t xml:space="preserve">5.42561912536621</t>
   </si>
   <si>
-    <t xml:space="preserve">5.17991781234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7487325668335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83624219894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75546407699585</t>
+    <t xml:space="preserve">5.17991828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74873304367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83624267578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75546455383301</t>
   </si>
   <si>
     <t xml:space="preserve">5.71844053268433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94058179855347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95740985870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97760486602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09540796279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17955160140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14252853393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12569904327393</t>
+    <t xml:space="preserve">5.94058084487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95741081237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97760534286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0954065322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1795506477356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14252805709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12569856643677</t>
   </si>
   <si>
     <t xml:space="preserve">6.1088695526123</t>
   </si>
   <si>
-    <t xml:space="preserve">6.18628215789795</t>
+    <t xml:space="preserve">6.18628168106079</t>
   </si>
   <si>
     <t xml:space="preserve">6.15262508392334</t>
@@ -911,73 +911,73 @@
     <t xml:space="preserve">6.17618560791016</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00453090667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02472496032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07521200180054</t>
+    <t xml:space="preserve">6.0045313835144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02472543716431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07521152496338</t>
   </si>
   <si>
     <t xml:space="preserve">6.11896705627441</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15935611724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12906503677368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10213851928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0112624168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.82277917861938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6814169883728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70497798919678</t>
+    <t xml:space="preserve">6.15935659408569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12906455993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10213756561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01126289367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8227801322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.68141651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70497846603394</t>
   </si>
   <si>
     <t xml:space="preserve">5.61073637008667</t>
   </si>
   <si>
-    <t xml:space="preserve">5.63093090057373</t>
+    <t xml:space="preserve">5.63092994689941</t>
   </si>
   <si>
     <t xml:space="preserve">5.72853755950928</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78238964080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7621955871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81941413879395</t>
+    <t xml:space="preserve">5.78239059448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76219606399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8194146156311</t>
   </si>
   <si>
     <t xml:space="preserve">5.73863458633423</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75883054733276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65112590789795</t>
+    <t xml:space="preserve">5.75882959365845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65112543106079</t>
   </si>
   <si>
     <t xml:space="preserve">5.56361532211304</t>
   </si>
   <si>
-    <t xml:space="preserve">5.72180652618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70834302902222</t>
+    <t xml:space="preserve">5.72180604934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70834255218506</t>
   </si>
   <si>
     <t xml:space="preserve">5.85307121276855</t>
@@ -986,64 +986,64 @@
     <t xml:space="preserve">5.83960914611816</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81604814529419</t>
+    <t xml:space="preserve">5.81604862213135</t>
   </si>
   <si>
     <t xml:space="preserve">5.923752784729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97423934936523</t>
+    <t xml:space="preserve">5.97423887252808</t>
   </si>
   <si>
     <t xml:space="preserve">5.90019273757935</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93721532821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.97087335586548</t>
+    <t xml:space="preserve">5.93721628189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97087383270264</t>
   </si>
   <si>
     <t xml:space="preserve">6.04491949081421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10550355911255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05838346481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06174993515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86316823959351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88336229324341</t>
+    <t xml:space="preserve">6.10550403594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05838298797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06174850463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86316871643066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88336324691772</t>
   </si>
   <si>
     <t xml:space="preserve">5.94731283187866</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98770332336426</t>
+    <t xml:space="preserve">5.9877028465271</t>
   </si>
   <si>
     <t xml:space="preserve">5.96077585220337</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9338493347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.92038726806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06511545181274</t>
+    <t xml:space="preserve">5.93384981155396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.92038679122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06511497497559</t>
   </si>
   <si>
     <t xml:space="preserve">6.05501794815063</t>
   </si>
   <si>
-    <t xml:space="preserve">5.99106740951538</t>
+    <t xml:space="preserve">5.99106788635254</t>
   </si>
   <si>
     <t xml:space="preserve">5.85643720626831</t>
@@ -1052,25 +1052,25 @@
     <t xml:space="preserve">5.91028928756714</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90355777740479</t>
+    <t xml:space="preserve">5.90355825424194</t>
   </si>
   <si>
     <t xml:space="preserve">5.84634065628052</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7453670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.80258369445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69151449203491</t>
+    <t xml:space="preserve">5.74536657333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.80258512496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69151496887207</t>
   </si>
   <si>
     <t xml:space="preserve">5.87326669692993</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94394683837891</t>
+    <t xml:space="preserve">5.94394731521606</t>
   </si>
   <si>
     <t xml:space="preserve">5.87999725341797</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">5.96414136886597</t>
   </si>
   <si>
-    <t xml:space="preserve">6.05165195465088</t>
+    <t xml:space="preserve">6.05165100097656</t>
   </si>
   <si>
     <t xml:space="preserve">6.03818845748901</t>
@@ -1091,13 +1091,13 @@
     <t xml:space="preserve">6.07857751846313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11223554611206</t>
+    <t xml:space="preserve">6.11223602294922</t>
   </si>
   <si>
     <t xml:space="preserve">6.14925909042358</t>
   </si>
   <si>
-    <t xml:space="preserve">6.09877300262451</t>
+    <t xml:space="preserve">6.09877347946167</t>
   </si>
   <si>
     <t xml:space="preserve">6.19301414489746</t>
@@ -1106,19 +1106,19 @@
     <t xml:space="preserve">6.13579607009888</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16608762741089</t>
+    <t xml:space="preserve">6.16608810424805</t>
   </si>
   <si>
     <t xml:space="preserve">6.13916158676147</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1694540977478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17281913757324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16272211074829</t>
+    <t xml:space="preserve">6.16945362091064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17282009124756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16272258758545</t>
   </si>
   <si>
     <t xml:space="preserve">6.21320819854736</t>
@@ -1127,22 +1127,22 @@
     <t xml:space="preserve">6.31754779815674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38149738311768</t>
+    <t xml:space="preserve">6.38149642944336</t>
   </si>
   <si>
     <t xml:space="preserve">6.33437633514404</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42188596725464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48920249938965</t>
+    <t xml:space="preserve">6.4218864440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48920202255249</t>
   </si>
   <si>
     <t xml:space="preserve">6.46227598190308</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4420804977417</t>
+    <t xml:space="preserve">6.44208097457886</t>
   </si>
   <si>
     <t xml:space="preserve">6.52285861968994</t>
@@ -1151,31 +1151,31 @@
     <t xml:space="preserve">6.51612854003906</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65412569046021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63729619979858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64739227294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64066123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62046670913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65438747406006</t>
+    <t xml:space="preserve">6.65412473678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63729476928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64739322662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64066028594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6204662322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65438652038574</t>
   </si>
   <si>
     <t xml:space="preserve">6.54948282241821</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6299090385437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6264123916626</t>
+    <t xml:space="preserve">6.62990856170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62641191482544</t>
   </si>
   <si>
     <t xml:space="preserve">6.58794784545898</t>
@@ -1184,43 +1184,43 @@
     <t xml:space="preserve">6.5110182762146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65088987350464</t>
+    <t xml:space="preserve">6.65088939666748</t>
   </si>
   <si>
     <t xml:space="preserve">6.78027105331421</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71383285522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76278686523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72082567214966</t>
+    <t xml:space="preserve">6.71383237838745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76278734207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72082424163818</t>
   </si>
   <si>
     <t xml:space="preserve">6.61941909790039</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64389562606812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73131608963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70683860778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71033525466919</t>
+    <t xml:space="preserve">6.64389657974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73131561279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70683813095093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71033573150635</t>
   </si>
   <si>
     <t xml:space="preserve">6.67886447906494</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67187070846558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53899335861206</t>
+    <t xml:space="preserve">6.67187023162842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5389928817749</t>
   </si>
   <si>
     <t xml:space="preserve">6.5739598274231</t>
@@ -1229,58 +1229,58 @@
     <t xml:space="preserve">6.6054310798645</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66487693786621</t>
+    <t xml:space="preserve">6.66487646102905</t>
   </si>
   <si>
     <t xml:space="preserve">6.68935346603394</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68585872650146</t>
+    <t xml:space="preserve">6.68585681915283</t>
   </si>
   <si>
     <t xml:space="preserve">6.61592197418213</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56346988677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69634771347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85370302200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83272314071655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8362193107605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82572889328003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84671020507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93412971496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96210432052612</t>
+    <t xml:space="preserve">6.5634708404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6963472366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85370349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83272361755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83621978759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8257303237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84670972824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9341287612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96210336685181</t>
   </si>
   <si>
     <t xml:space="preserve">7.02154970169067</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97609090805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97259473800659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92713689804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87468338012695</t>
+    <t xml:space="preserve">6.97609186172485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97259426116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9271354675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87468433380127</t>
   </si>
   <si>
     <t xml:space="preserve">6.89146900177002</t>
@@ -1292,49 +1292,49 @@
     <t xml:space="preserve">6.84810876846313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91524648666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95580911636353</t>
+    <t xml:space="preserve">6.91524696350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95580959320068</t>
   </si>
   <si>
     <t xml:space="preserve">6.89426612854004</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6928505897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80195093154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7487998008728</t>
+    <t xml:space="preserve">6.69285106658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80194997787476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74879932403564</t>
   </si>
   <si>
     <t xml:space="preserve">6.79635620117188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85090494155884</t>
+    <t xml:space="preserve">6.85090637207031</t>
   </si>
   <si>
     <t xml:space="preserve">6.89286756515503</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91105079650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88307666778564</t>
+    <t xml:space="preserve">6.91105175018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88307619094849</t>
   </si>
   <si>
     <t xml:space="preserve">6.90545558929443</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91804456710815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8341212272644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89986181259155</t>
+    <t xml:space="preserve">6.918044090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83412170410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89986133575439</t>
   </si>
   <si>
     <t xml:space="preserve">6.91384792327881</t>
@@ -1343,121 +1343,121 @@
     <t xml:space="preserve">6.9516134262085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85510301589966</t>
+    <t xml:space="preserve">6.85510206222534</t>
   </si>
   <si>
     <t xml:space="preserve">6.75579309463501</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63130807876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73900842666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.88167810440063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90405702590942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89706468582153</t>
+    <t xml:space="preserve">6.63130760192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73900890350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.88167762756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90405750274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89706420898438</t>
   </si>
   <si>
     <t xml:space="preserve">6.83132362365723</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8606972694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89566469192505</t>
+    <t xml:space="preserve">6.86069774627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89566421508789</t>
   </si>
   <si>
     <t xml:space="preserve">6.84111499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91664600372314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80614805221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6816611289978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63830089569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67047214508057</t>
+    <t xml:space="preserve">6.91664552688599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80614757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68166160583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63830184936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67047119140625</t>
   </si>
   <si>
     <t xml:space="preserve">6.67746543884277</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70404148101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.78376770019531</t>
+    <t xml:space="preserve">6.70404100418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78376722335815</t>
   </si>
   <si>
     <t xml:space="preserve">6.7753758430481</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85230588912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82712841033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99217557907104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08449220657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11246633529663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2558331489563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3082857131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16142082214355</t>
+    <t xml:space="preserve">6.85230493545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82712697982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99217700958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08449172973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11246538162231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25583362579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30828619003296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16142129898071</t>
   </si>
   <si>
     <t xml:space="preserve">7.14743328094482</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03903245925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1264533996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00406551361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.15092992782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1858983039856</t>
+    <t xml:space="preserve">7.03903341293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12645292282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.004065990448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.15093040466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18589782714844</t>
   </si>
   <si>
     <t xml:space="preserve">6.99357509613037</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90265893936157</t>
+    <t xml:space="preserve">6.90265798568726</t>
   </si>
   <si>
     <t xml:space="preserve">6.95720911026001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01455593109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9642014503479</t>
+    <t xml:space="preserve">7.01455545425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96420288085938</t>
   </si>
   <si>
     <t xml:space="preserve">6.62851047515869</t>
@@ -1469,10 +1469,10 @@
     <t xml:space="preserve">6.31659650802612</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35715961456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.20749759674072</t>
+    <t xml:space="preserve">6.35715913772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.20749711990356</t>
   </si>
   <si>
     <t xml:space="preserve">5.95852613449097</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">5.59625816345215</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37246417999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75151586532593</t>
+    <t xml:space="preserve">5.37246465682983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75151634216309</t>
   </si>
   <si>
     <t xml:space="preserve">5.64241600036621</t>
@@ -1496,64 +1496,64 @@
     <t xml:space="preserve">5.68997240066528</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54450607299805</t>
+    <t xml:space="preserve">5.54450559616089</t>
   </si>
   <si>
     <t xml:space="preserve">5.72214317321777</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59346103668213</t>
+    <t xml:space="preserve">5.59346151351929</t>
   </si>
   <si>
     <t xml:space="preserve">5.47457075119019</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7417254447937</t>
+    <t xml:space="preserve">5.74172496795654</t>
   </si>
   <si>
     <t xml:space="preserve">5.66479587554932</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76969909667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71095418930054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6410174369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.61723947525024</t>
+    <t xml:space="preserve">5.76969957351685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71095371246338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64101791381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.61723899841309</t>
   </si>
   <si>
     <t xml:space="preserve">5.81166124343872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.75291538238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.89838075637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69416904449463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.65780210494995</t>
+    <t xml:space="preserve">5.75291442871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.89838123321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69416952133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.65780258178711</t>
   </si>
   <si>
     <t xml:space="preserve">5.57108163833618</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5347146987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.568284034729</t>
+    <t xml:space="preserve">5.53471517562866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.56828498840332</t>
   </si>
   <si>
     <t xml:space="preserve">5.54030990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60744857788086</t>
+    <t xml:space="preserve">5.6074481010437</t>
   </si>
   <si>
     <t xml:space="preserve">5.68297910690308</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">5.66619443893433</t>
   </si>
   <si>
-    <t xml:space="preserve">5.702561378479</t>
+    <t xml:space="preserve">5.70256090164185</t>
   </si>
   <si>
     <t xml:space="preserve">5.62563133239746</t>
@@ -1583,58 +1583,58 @@
     <t xml:space="preserve">5.64801168441772</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69976377487183</t>
+    <t xml:space="preserve">5.69976329803467</t>
   </si>
   <si>
     <t xml:space="preserve">5.68577671051025</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71934652328491</t>
+    <t xml:space="preserve">5.71934604644775</t>
   </si>
   <si>
     <t xml:space="preserve">5.88719129562378</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95432949066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01027822494507</t>
+    <t xml:space="preserve">5.95432996749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01027870178223</t>
   </si>
   <si>
     <t xml:space="preserve">6.12077713012695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06622648239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21309185028076</t>
+    <t xml:space="preserve">6.06622695922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21309280395508</t>
   </si>
   <si>
     <t xml:space="preserve">6.13616228103638</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07322072982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17252922058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0704231262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15014934539795</t>
+    <t xml:space="preserve">6.07322025299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17252969741821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07042360305786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15014982223511</t>
   </si>
   <si>
     <t xml:space="preserve">6.14595365524292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15854167938232</t>
+    <t xml:space="preserve">6.15854263305664</t>
   </si>
   <si>
     <t xml:space="preserve">6.09560012817383</t>
   </si>
   <si>
-    <t xml:space="preserve">5.97531032562256</t>
+    <t xml:space="preserve">5.9753098487854</t>
   </si>
   <si>
     <t xml:space="preserve">5.81865406036377</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">5.94174146652222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87600231170654</t>
+    <t xml:space="preserve">5.87600183486938</t>
   </si>
   <si>
     <t xml:space="preserve">5.8941855430603</t>
@@ -1655,34 +1655,34 @@
     <t xml:space="preserve">5.87040710449219</t>
   </si>
   <si>
-    <t xml:space="preserve">5.80186891555786</t>
+    <t xml:space="preserve">5.80186986923218</t>
   </si>
   <si>
     <t xml:space="preserve">5.80746412277222</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79627513885498</t>
+    <t xml:space="preserve">5.79627418518066</t>
   </si>
   <si>
     <t xml:space="preserve">5.76130723953247</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7864842414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.60604953765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93195009231567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1249737739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07182216644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34037494659424</t>
+    <t xml:space="preserve">5.78648376464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.60604906082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93195056915283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12497234344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07182121276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3403754234314</t>
   </si>
   <si>
     <t xml:space="preserve">6.3068060874939</t>
@@ -1691,40 +1691,40 @@
     <t xml:space="preserve">6.33897638320923</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2970142364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3137993812561</t>
+    <t xml:space="preserve">6.29701519012451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31379890441895</t>
   </si>
   <si>
     <t xml:space="preserve">6.42150068283081</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44248199462891</t>
+    <t xml:space="preserve">6.44248151779175</t>
   </si>
   <si>
     <t xml:space="preserve">6.50961971282959</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4159049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4145073890686</t>
+    <t xml:space="preserve">6.41590642929077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41450691223145</t>
   </si>
   <si>
     <t xml:space="preserve">6.36834907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48723983764648</t>
+    <t xml:space="preserve">6.4872407913208</t>
   </si>
   <si>
     <t xml:space="preserve">6.47605085372925</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41171026229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01727199554443</t>
+    <t xml:space="preserve">6.41170930862427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.01727247238159</t>
   </si>
   <si>
     <t xml:space="preserve">5.83404016494751</t>
@@ -1733,13 +1733,13 @@
     <t xml:space="preserve">5.86061573028564</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85222387313843</t>
+    <t xml:space="preserve">5.85222339630127</t>
   </si>
   <si>
     <t xml:space="preserve">5.75431299209595</t>
   </si>
   <si>
-    <t xml:space="preserve">5.48576021194458</t>
+    <t xml:space="preserve">5.48576068878174</t>
   </si>
   <si>
     <t xml:space="preserve">5.53191757202148</t>
@@ -1748,25 +1748,25 @@
     <t xml:space="preserve">5.41582441329956</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3696665763855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37666130065918</t>
+    <t xml:space="preserve">5.36966705322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37666034698486</t>
   </si>
   <si>
     <t xml:space="preserve">5.46058320999146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.39764070510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3458890914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.50953817367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.41022968292236</t>
+    <t xml:space="preserve">5.3976411819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.34588956832886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.50953769683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.41023015975952</t>
   </si>
   <si>
     <t xml:space="preserve">5.42281818389893</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">5.23958683013916</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44100141525269</t>
+    <t xml:space="preserve">5.44100189208984</t>
   </si>
   <si>
     <t xml:space="preserve">5.29413652420044</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44519710540771</t>
+    <t xml:space="preserve">5.44519758224487</t>
   </si>
   <si>
     <t xml:space="preserve">5.45918464660645</t>
@@ -1790,22 +1790,22 @@
     <t xml:space="preserve">5.42141962051392</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54730367660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48436117172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.46338033676147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.48715877532959</t>
+    <t xml:space="preserve">5.54730415344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48436164855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.46338081359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.48715925216675</t>
   </si>
   <si>
     <t xml:space="preserve">5.50254487991333</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49834823608398</t>
+    <t xml:space="preserve">5.49834871292114</t>
   </si>
   <si>
     <t xml:space="preserve">5.42561531066895</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">5.50799083709717</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37847805023193</t>
+    <t xml:space="preserve">5.37847852706909</t>
   </si>
   <si>
     <t xml:space="preserve">5.4350471496582</t>
@@ -1823,13 +1823,13 @@
     <t xml:space="preserve">5.42462635040283</t>
   </si>
   <si>
-    <t xml:space="preserve">5.46482038497925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.70746946334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73128795623779</t>
+    <t xml:space="preserve">5.46481990814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.70746898651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73128700256348</t>
   </si>
   <si>
     <t xml:space="preserve">5.75659465789795</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">5.8101863861084</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84740161895752</t>
+    <t xml:space="preserve">5.84740209579468</t>
   </si>
   <si>
     <t xml:space="preserve">5.74170827865601</t>
@@ -1856,28 +1856,28 @@
     <t xml:space="preserve">5.5764684677124</t>
   </si>
   <si>
-    <t xml:space="preserve">5.44844532012939</t>
+    <t xml:space="preserve">5.44844484329224</t>
   </si>
   <si>
     <t xml:space="preserve">5.42164945602417</t>
   </si>
   <si>
-    <t xml:space="preserve">5.60028648376465</t>
+    <t xml:space="preserve">5.60028696060181</t>
   </si>
   <si>
     <t xml:space="preserve">5.62261629104614</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67323064804077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.58540105819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.63452529907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73724174499512</t>
+    <t xml:space="preserve">5.67323017120361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.58540010452271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.63452577590942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73724222183228</t>
   </si>
   <si>
     <t xml:space="preserve">5.61219549179077</t>
@@ -1892,22 +1892,22 @@
     <t xml:space="preserve">5.49012660980225</t>
   </si>
   <si>
-    <t xml:space="preserve">5.43653583526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.43206930160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.75510549545288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74468469619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.72682094573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69704866409302</t>
+    <t xml:space="preserve">5.43653535842896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.43206977844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.75510597229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74468564987183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.72682189941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69704818725586</t>
   </si>
   <si>
     <t xml:space="preserve">5.70002603530884</t>
@@ -1928,13 +1928,13 @@
     <t xml:space="preserve">5.83995866775513</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86377668380737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88015222549438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.86079978942871</t>
+    <t xml:space="preserve">5.86377620697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88015270233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.86079931259155</t>
   </si>
   <si>
     <t xml:space="preserve">5.86526536941528</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">5.87568664550781</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93672037124634</t>
+    <t xml:space="preserve">5.9367208480835</t>
   </si>
   <si>
     <t xml:space="preserve">5.86228847503662</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81762933731079</t>
+    <t xml:space="preserve">5.81762886047363</t>
   </si>
   <si>
     <t xml:space="preserve">5.82953786849976</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">5.6538782119751</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49310493469238</t>
+    <t xml:space="preserve">5.49310398101807</t>
   </si>
   <si>
     <t xml:space="preserve">5.45886564254761</t>
@@ -1967,13 +1967,13 @@
     <t xml:space="preserve">5.64345741271973</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7640380859375</t>
+    <t xml:space="preserve">5.76403760910034</t>
   </si>
   <si>
     <t xml:space="preserve">5.76999187469482</t>
   </si>
   <si>
-    <t xml:space="preserve">5.87122011184692</t>
+    <t xml:space="preserve">5.87122058868408</t>
   </si>
   <si>
     <t xml:space="preserve">5.90099287033081</t>
@@ -1982,16 +1982,16 @@
     <t xml:space="preserve">6.00668716430664</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9694709777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.18234634399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19723415374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16895008087158</t>
+    <t xml:space="preserve">5.96947145462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.18234729766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19723320007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16894912719727</t>
   </si>
   <si>
     <t xml:space="preserve">6.19127893447876</t>
@@ -2003,28 +2003,28 @@
     <t xml:space="preserve">6.14513063430786</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22254037857056</t>
+    <t xml:space="preserve">6.22254085540771</t>
   </si>
   <si>
     <t xml:space="preserve">6.31930208206177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38629198074341</t>
+    <t xml:space="preserve">6.38629150390625</t>
   </si>
   <si>
     <t xml:space="preserve">6.56641721725464</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43392848968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49198579788208</t>
+    <t xml:space="preserve">6.4339280128479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49198532104492</t>
   </si>
   <si>
     <t xml:space="preserve">6.50240612030029</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62447500228882</t>
+    <t xml:space="preserve">6.62447452545166</t>
   </si>
   <si>
     <t xml:space="preserve">6.51431512832642</t>
@@ -2033,139 +2033,139 @@
     <t xml:space="preserve">6.44732570648193</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53962230682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51729202270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60958814620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63787269592285</t>
+    <t xml:space="preserve">6.53962278366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51729249954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60958909988403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63787317276001</t>
   </si>
   <si>
     <t xml:space="preserve">6.68997526168823</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8328857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79120302200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66317987442017</t>
+    <t xml:space="preserve">6.83288526535034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79120349884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66317939758301</t>
   </si>
   <si>
     <t xml:space="preserve">6.71230506896973</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65871381759644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59619188308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64680528640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7837610244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8581919670105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89391994476318</t>
+    <t xml:space="preserve">6.65871429443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59619092941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64680480957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.78376054763794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85819292068481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89392042160034</t>
   </si>
   <si>
     <t xml:space="preserve">6.96090984344482</t>
   </si>
   <si>
-    <t xml:space="preserve">6.86117029190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87754487991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.91773748397827</t>
+    <t xml:space="preserve">6.86116981506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87754535675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.91773796081543</t>
   </si>
   <si>
     <t xml:space="preserve">6.96388626098633</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90285205841064</t>
+    <t xml:space="preserve">6.90285158157349</t>
   </si>
   <si>
     <t xml:space="preserve">6.92518138885498</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02492046356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08148908615112</t>
+    <t xml:space="preserve">7.02492094039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08148956298828</t>
   </si>
   <si>
     <t xml:space="preserve">7.12317180633545</t>
   </si>
   <si>
-    <t xml:space="preserve">7.15294408798218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13210296630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07106876373291</t>
+    <t xml:space="preserve">7.15294361114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13210344314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07106924057007</t>
   </si>
   <si>
     <t xml:space="preserve">6.98770427703857</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96686315536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00705718994141</t>
+    <t xml:space="preserve">6.96686363220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00705671310425</t>
   </si>
   <si>
     <t xml:space="preserve">7.13508081436157</t>
   </si>
   <si>
-    <t xml:space="preserve">7.03385210037231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07404565811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85223817825317</t>
+    <t xml:space="preserve">7.03385257720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07404613494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85223865509033</t>
   </si>
   <si>
     <t xml:space="preserve">6.69295215606689</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77929353713989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62298679351807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47561073303223</t>
+    <t xml:space="preserve">6.77929401397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62298583984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47561025619507</t>
   </si>
   <si>
     <t xml:space="preserve">6.64233875274658</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60065650939941</t>
+    <t xml:space="preserve">6.60065698623657</t>
   </si>
   <si>
     <t xml:space="preserve">6.5842809677124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47709846496582</t>
+    <t xml:space="preserve">6.47709894180298</t>
   </si>
   <si>
     <t xml:space="preserve">6.40117883682251</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42350816726685</t>
+    <t xml:space="preserve">6.42350769042969</t>
   </si>
   <si>
     <t xml:space="preserve">6.36396217346191</t>
@@ -2177,28 +2177,28 @@
     <t xml:space="preserve">6.23891544342041</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22998428344727</t>
+    <t xml:space="preserve">6.22998380661011</t>
   </si>
   <si>
     <t xml:space="preserve">6.1570405960083</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12131309509277</t>
+    <t xml:space="preserve">6.12131261825562</t>
   </si>
   <si>
     <t xml:space="preserve">6.28059768676758</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24635887145996</t>
+    <t xml:space="preserve">6.24635934829712</t>
   </si>
   <si>
     <t xml:space="preserve">6.27762079238892</t>
   </si>
   <si>
-    <t xml:space="preserve">6.37289428710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.37140512466431</t>
+    <t xml:space="preserve">6.37289476394653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.37140607833862</t>
   </si>
   <si>
     <t xml:space="preserve">6.34163284301758</t>
@@ -2210,16 +2210,16 @@
     <t xml:space="preserve">6.34609842300415</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34460973739624</t>
+    <t xml:space="preserve">6.3446102142334</t>
   </si>
   <si>
     <t xml:space="preserve">6.48305368423462</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58130407333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56046390533447</t>
+    <t xml:space="preserve">6.5813045501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56046342849731</t>
   </si>
   <si>
     <t xml:space="preserve">6.61107778549194</t>
@@ -2231,52 +2231,52 @@
     <t xml:space="preserve">6.72272539138794</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76738595962524</t>
+    <t xml:space="preserve">6.76738500595093</t>
   </si>
   <si>
     <t xml:space="preserve">6.74803256988525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6616907119751</t>
+    <t xml:space="preserve">6.66169118881226</t>
   </si>
   <si>
     <t xml:space="preserve">6.73761224746704</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91327285766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05022859573364</t>
+    <t xml:space="preserve">6.91327238082886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05022811889648</t>
   </si>
   <si>
     <t xml:space="preserve">7.01598834991455</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95346593856812</t>
+    <t xml:space="preserve">6.95346546173096</t>
   </si>
   <si>
     <t xml:space="preserve">6.93113660812378</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99663639068604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98472738265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99068212509155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93857908248901</t>
+    <t xml:space="preserve">6.99663591384888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98472785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99068260192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93857955932617</t>
   </si>
   <si>
     <t xml:space="preserve">7.01301145553589</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97579526901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99365949630737</t>
+    <t xml:space="preserve">6.97579479217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99365901947021</t>
   </si>
   <si>
     <t xml:space="preserve">6.84777212142944</t>
@@ -2285,10 +2285,10 @@
     <t xml:space="preserve">6.88052225112915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95644330978394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92964744567871</t>
+    <t xml:space="preserve">6.95644283294678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92964792251587</t>
   </si>
   <si>
     <t xml:space="preserve">6.94453382492065</t>
@@ -2297,34 +2297,34 @@
     <t xml:space="preserve">6.76440811157227</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73910045623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74952173233032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.57683801651001</t>
-  </si>
-  <si>
-    <t xml:space="pr